--- a/output/Total_time_range_data/河北省/承德市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/承德市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5662 +436,6195 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>承德市人民政府办公室关于印发年省政府工作报告重点任务涉及我市工作分工方案的通知</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2022%2F3%2F4%2Fart_11903_840107.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_11903_840107</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['承德市人民政府 市政府办 承德市人民政府办公室关于印发2022年省政府工作报告重点任务涉及我市工作分工方案的通知', '承德市人民政府办公室关于印发2022年省政府工作报告重点任务涉及我市工作分工方案的通知', '各县（市、区）、自治县人民政府，承德高新区、御道口牧场管理区管委会，市直各相关部门：', '为确保2022年省政府工作报告重点任务落到实处，高质量完成全年目标任务，现将《2022年省政府工作报告重点任务涉及我市工作分工方案》（以下简称《分工方案》）印发给你们，请按照职责分工，认真抓好贯彻落实。', '2022年是党的二十大召开之年，是加快建设经济强省、美丽河北的关键之年，做好今年的经济社会发展工作关系全局，责任重大。省“两会”审议通过的《政府工作报告》，深入贯彻习近平总书记重要讲话精神和中央经济工作会议部署，全面落实省委经济工作会议和省十次党代会部署，明确了今年全省经济社会发展的总体目标和具体任务，对全省人民作出了庄严承诺。《分工方案》对《河北省政府工作报告》部署的重点任务涉及我市工作进行了细化、实化、具体化，是省、市政府系统做好今年各项工作的“施工图”和“任务书”。各县（市、区）和各部门要坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的十九大和十九届历次全会精神，弘扬伟大建党精神，坚持稳中求进工作总基调，立足新发展阶段，完整、准确、全面贯彻新发展理念，加快构建新发展格局，全面深化改革开放，坚持创新驱动发展，加快绿色转型，优化产业结构和生态环境，推动高质量发展，统筹发展和安全，有效扩大投资、扩大消费、扩大就业，继续做好“六稳”“六保”工作，持续改善民生，优化营商环境，保持经济运行在合理区间，保持社会大局稳定，确保经济社会始终沿着正确方向发展。各县（市、区）和各部门主要负责同志要高度重视，精心研究谋划，周密安排部署，以强烈的责任感、使命感和紧迫感，以守土有责、守土尽责的担当精神，全力推动《分工方案》中各项重点工作任务圆满完成。', '各县（市、区）和各部门要认真学习习近平总书记关于抓落实的重要论述，严格按照“谁主管谁负责，谁牵头谁协调”的原则，形成一级抓一级、层层抓落实、责任全覆盖的工作机制。市政府领导班子成员要切实加强对分管工作、分管领域的调度指导，对重要节点、重点问题、重大事项要亲自协调调度、亲自研究解决、亲自推动落实。各县（市、区）和各部门要强化责任担当，结合工作实际，对承担的工作任务进一步细化分解，逐项制定具体的实施方案和工作措施，建立工作台账，逐条明确时间表、路线图和责任人，切实做到年初有计划、季度有安排、每月有检查。各牵头单位要强化统筹协调，加大工作力度，及时研究解决实际问题。各责任单位要与牵头部门积极配合，担当作为，主动承接任务，凝聚工作合力，按时向牵头部门报送工作进展情况，推动各项任务稳妥有序开展。各县（市、区）要加强与市政府有关部门的协调沟通，相互配合，共同做好工作。', '各县（市、区）和各部门要切实加强督查检查，对照具体工作方案实行全程跟踪问效，对发现的问题及时进行整改，全力完成好承担的工作任务。并分别按月、季、半年、全年向市政府报告各项目标任务工作进展情况，按时填报承德市督查考核电子台账。市政府督查室要建立重点目标任务督办台账，实行月督办、季通报、年考核，对重点工作推进落实情况适时开展专项督查检查，采取明查暗访等方式，紧盯问题扭住不放，真正督出责任、督出压力、督出干劲、督出结果，并对督查情况在一定范围内进行通报。强化结果运用，将各项目标任务完成情况作为领导班子和领导干部年度考核的重要依据，对工作成效显著，增比进位突出的先进典型予以通报表扬并积极推广；对履职尽责不到位，不作为、慢作为、乱作为的，严肃追责问责。各级领导干部要切实转变工作作风，力戒形式主义、官僚主义，把责任扛在肩上，把任务抓在手上，充分利用督查检查手段，创造性地抓好工作落实，以强烈的事业心和良好的工作作风推动省政府2022年政府工作报告重点任务落实落地，以优异的成绩迎接党的二十大胜利召开。', '各县（市、区）和各部门要切实加强督查检查，对照具体工作方案实行全程跟踪问效，对发现的问题及时进行整改，全力完成好承担的工作任务。并分别按月、季、半年、全年向市政府报告各项目标任务工作进展情况，按时填报承德市督查考核电子台账。市政府督查室要建立重点目标任务督办台账，实行月督办、季通报、年考核，对重点工作推进落实情况适时开展专项督查检查，采取明查暗访等方式，紧盯问题扭住不放，真正督出责任、督出压力、督出干劲、督出结果，并对督查情况在一定范围内进行通报。强化结果运用，将各项目标任务完成情况作为领导班子和领导干部年度考核的重要依据，对工作成效显著，增比进位突出的先进典型予以通报表扬并积极推广；对履职尽责不到位，不作为、慢作为、乱作为的，严肃追责问责。各级领导干部要切实转变工作作风，力戒形式主义、官僚主义，把责任扛在肩上，把任务抓在手上，充分利用督查检查手段，创造性地抓好工作落实，以强烈的事业心和良好的工作作风推动省政府', '市农业农村局、市工业和信息化局、市住建局、市商务局、市交通运输局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '跟踪分析经济运行总体态势，总结上半年工作、对后几个月工作进行安排部署，力促全市经济稳中向好。', '强化财税部门联动，将全年收入目标合理分解至各县市区，并对收入预算执行情况进行监控分析，重点加强疫情对组织收入影响分析，强化对重点行业、重点税源、重点税种监控，研判收入趋势走向，完成收入预算的25%。', '强化财税部门联动，将全年收入目标合理分解至各县市区，并对收入预算执行情况进行监控分析，重点加强疫情对组织收入影响分析，强化对重点行业、重点税源、重点税种监控，研判收入趋势走向，完成收入预算的', '加强收入监控和调度，对各月收入完成情况进行分析，适时召开专题会议研究调度，关注组织财政收入征收过程中的困难和问题，及时帮助解决，完成收入预算的50%。', '加强收入监控和调度，对各月收入完成情况进行分析，适时召开专题会议研究调度，关注组织财政收入征收过程中的困难和问题，及时帮助解决，完成收入预算的', '动态掌握各月收入变化情况，深入分析研判下半年收入趋势，适时组织调度，督促指导各县市区加强收入征管，改善收入结构，完成收入预算的75%。', '动态掌握各月收入变化情况，深入分析研判下半年收入趋势，适时组织调度，督促指导各县市区加强收入征管，改善收入结构，完成收入预算的', '对各月收入完成情况进行分析，12月中下旬实行日统计、日分析、日调度工作机制，会同税务等有关部门加大组织调度力度，确保各项收入应收尽收，努力实现全年收入增长目标。', '市生态环境局、市农业农村局、市工业和信息化局、市交通运输局、市水务局、市住建局、市科技局、市教育局、市旅游和文化广电局、市体育局、市卫生健康委、市商务局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '认真贯彻落实《关于抓投资上项目促发展的落实方案》，成立市级抓投资上项目促发展工作领导小组，建立健全工作机制，研究制定配套政策措施，细化各县(市、区)目标任务，明确工作职责，强化“三个清单”项目库管理，确保一季度开好局、起好步。', '认真贯彻落实《关于抓投资上项目促发展的落实方案》，成立市级抓投资上项目促发展工作领导小组，建立健全工作机制，研究制定配套政策措施，细化各县', '对一季度投资运行情况进行深入分析，通报各地一季度投资和项目建设情况。持续开展投资和项目建设督导调度，压实各地责任；每月通报各地投资和项目建设情况。', '对上半年投资运行情况进行深入分析，通报各地上半年投资和项目建设情况。对进展缓慢的地区重点督导，协调解决存在问题。每月通报各地投资和项目建设情况。', '对前三季度投资运行情况进行深入分析，通报各地前三季度投资和项目建设情况。加大对重点地区的督导调度力度，督促协调各地各有关部门解决问题。每月通报各地投资和项目建设情况。', '积极落实生活必需品货源及储备，保障元旦、春节市场供应。组织开展第十九届“幸福河北˙魅力承德欢乐购”消费促进活动，发放“暖冬欢购，惠动全承”惠民消费券，激发消费潜能，推动社消额指标首季“开门红”。', '做好第二届中国国际消费品博览会参会组织工作。利用五一、端午等节假日开展消费促进月活动，拉动指标持续增长。', '利用暑期旅游旺季，大力发展夜经济，开展商旅文相结合的消费促进活动。组织开展第二十届“幸福河北˙魅力承德欢乐购”消费促进活动，承办好全省欢乐购启动仪式。', '利用暑期旅游旺季，大力发展夜经济，开展商旅文相结合的消费促进活动。组织开展第二十届', '积极落实生活必需品货源及储备，保障十一及冬季市场供应。做好第五届中国国际进口博览会参会组织工作。谋划开展第二十一届“幸福河北˙魅力承德欢乐购”消费促进活动。落实《支持和鼓励商贸流通企业发展的意见》，积极培育近限企业，做大总量，做强质量，确保圆满完成全年目标任务。', '积极落实生活必需品货源及储备，保障十一及冬季市场供应。做好第五届中国国际进口博览会参会组织工作。谋划开展第二十一届', '承德市外贸工作联席会议领导小组成员单位，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '将全年进出口预期目标分解到各县（市、区）。实施暖企助企稳外贸系列护航活动，开展商务+海关+贸促+金融联入企帮扶。开展RCEP规则、汇率避险、贸易救济等相关业务培训。', '将全年进出口预期目标分解到各县（市、区）。实施暖企助企稳外贸系列护航活动，开展商务', '组织参加我市外贸企业参加全省外贸基地工作暨公共平台建设政策培训会，对我市外贸基地进行督导调研。组织参加第131届广交会。加强指标调度，确保按时间进度完成指标任务。开展暖企助企稳外贸系列护航活动。', '组织参加我市外贸企业参加全省外贸基地工作暨公共平台建设政策培训会，对我市外贸基地进行督导调研。组织参加第', '按照省厅要求，开展稳外贸业务政策业务联合巡回免费大培训，指导企业用足用好政策。按照商务厅要求，组织企业申报进口贴息资金项目。加强指标调度，确保按时间进度完成指标任务。开展暖企助企稳外贸系列护航活动。', '组织参加第132届广交会、第24届中国国际高新技术成果交易会。参加省厅组织的线上“一国一展”“多国一展”市场开拓活动。加强指标调度，', '市农业农村局、市财政局、市科技局、市民政局、市自然资源和规划局、市住建局、市国资委、市卫生健康委、市教育局、市市场监管局、市税务局、市地方金融监管局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '市发展改革委：贯彻落实国家和省关于居民收入增长相关政策措施，配合国家统计局承德调查队做好居民人均可支配收入的调查、数据汇总上报、数据分析等工作。', '指导企业落实工资政策。开展企业薪酬调查，确保省人社厅下发的600户样本企业薪酬数据准确无误，为河北省调整发布全省最低工资标准、工资指导价位提供可靠的数据支撑。', '落实事业单位工作人员工资福利调整政策。按照国家和省统一部署，组织实施调整事业单位工作人员基本工资标准，进一步完善工资结构，提高职工收入水平。', '做好社保提标工作。贯彻落实企业、机关事业退休人员养老金正常调整机制，同步适度提高企业职工和机关事业退休人员养老金水平；贯彻落实中央、省关于调整城乡居民基础养老金标准的有关政策，提高城乡居民基础养老金标准。', '指导企业落实工资政策。开展集体协商共同约定行动，指导企业和劳动者按照河北省现行工资指导线进行工资集体协商，合理为劳动者提高工资标准。', '落实事业单位工作人员工资福利调整政策。结合我市实际情况，协同相关部门研究部署补充绩效工资落实方案，完成标准制定和审核工作，进一步提高职工可支配收入。', '落实事业单位工作人员工资福利调整政策。部署落实2022年度事业单位工作人员依考核结果正常晋升薪级增加工资和绩效工资总量核定工作，保障正常增资机制有效运行。', '做好社保提标工作。贯彻落实中央、省关于调整城乡居民基础养老金标准的有关政策，提高城乡居民基础养老金标准。', '指导企业落实工资政策。认真宣传贯彻落实河北省新调整后的最低工资标准。的最低工资标准。', '落实事业单位工作人员工资福利调整政策。全面总结2022年公立医院实施薪酬制度改革工作，检查指导公立医院按“两个允许”要求自主申报绩效工资总量情况、主要负责人年薪制落实情况等，建立符合现代医院管理制度的薪酬分配体系。', '市农业农村局、市商务局、市市场监管局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '加强米面油肉蛋菜等居民生活必需品价格监测。做好春节、冬奥会和“两会”期间市场价格调控工作。', '加强米面油肉蛋菜等居民生活必需品价格监测。做好“五一”期间价格调控，分析上半年价格形势。', '加强米面油肉蛋菜等居民生活必需品价格监测。做好“十一”期间市场价格调控工作。在对全年价格运行和明年价格走势进行分析研判的基础上，研究提出下一年度预期价格调控目标建议。', '全面落实稳就业、保居民就业工作部署，制定出台扩大就业工作方案，细化分解工作任务。举办“春风行动”“就业援助月”“局长校园行”等系列招聘活动，开展农民工外出务工返岗服务保障；优化失业保险经办服务，积极开展线上失业保险待遇申领。', '全面落实稳就业、保居民就业工作部署，制定出台扩大就业工作方案，细化分解工作任务。举办', '继续实施援企稳岗政策，全力保障市场主体，稳定就业岗位。实施失业保险扩围政策，加大失业人员就业帮扶。加强困难人员就业援助，开发公益岗，做好就业困难人员安置。组织民营企业招聘月等系列活动，促进失业人员再就业。', '实施高校毕业生就业创业促进计划，积极开发就业岗位，加强离校未就业毕业生实名制管理服务，促进高校毕业生就业创业。组织开展退役军人、城乡妇女就业创业活动，拓宽就业渠道，提升就业质量。', '全面梳理工作完成情况，进一步加强对高校毕业生、城镇失业人员、退役军人等重点群体的就业服务，保持全市就业局势总体稳定，确保全年任务完成。', '市大气污染防治领导小组成员单位，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '全年PM2.5平均浓度控制在29微克/立方米以下。总结通报2021年全省大气污染综合治理工作。制定冬奥会空气质量保障方案并实施，完成冬奥会保障空气质量目标和重点工作目标任务。制定实施《承德市2022年大气污染综合治理实施方案》，对空气质量PM2.5改善指标和重点任务进行目标分解。', '全年PM2.5平均浓度控制在29微克/立方米以下。按照《承德市2022年大气污染综合治理实施方案》中确定的工作举措，督导各县（市、区）细化落实方案明确的各项重点工作，开展工业企业、扬尘治理、机动车防治、餐饮油烟、工业炉窑、VOC整治专项行动。', '全年PM2.5平均浓度控制在29微克/立方米以下。督导各县（市、区）持续推动工业企业、扬尘治理、机动车防治、餐饮油烟、工业炉窑、VOC整治阶段性工作任务。重点实施夏季臭氧综合治理。', '全年PM2.5平均浓度控制在29微克/立方米以下。督导帮扶各县（市、区）完成全年空气质量PM2.5改善指标和重点工作目标任务。重点组织开展重污染天气消除专项行动。按照省生态环境厅要求组织开展2022-2023年秋冬季攻坚行动。', '市工业和信息化局、市住建局、市交通运输局、市机关事务服务中心，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '制定《2022年全市节能削煤工作要点》，谋划2022年重点任务，分解下达各县市区度目标任务。', '与市统计、工信、供电公司等召开调度会议，分析研判形势，查找存在问题，安排部署下一步工作。', '市生态环境局等有关部门，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '市发展改革委：对协议涉及我市重点合作事项进展情况进行半年督导，确保取得阶段性成果。', '市发展改革委、市国资委，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '市水务局、市农业农村局、市林草局、市城管局、市自然资源和规划局、市住建局、丰宁县、滦平县、兴隆县人民政府', '组织开展《潮河流域生态环境保护综合规划（2019-2025年）》2021年度实施情况自查评估并按要求反馈生生态环境厅，持续推进潮河流域水生态环境保护工作。', '推进落实《潮河流域生态环境保护综合规划（2019-2025年）》，推进密云水库上游潮白河流域总氮源解析工作，为深化潮白河流域治理提供依据。', '市发展改革委：依据国家林草局印发的《北方防沙带生态保护和修复重大工程规划（2021-2035年）》，组织谋划京津冀协同发展生态保护和修复等一批重大生态建设项目，加紧完善项目前期工作，向省联合报送2022年度中央预算内投资建议计划。', '市林业和草原局：依据国家林草局印发的《北方防沙带生态保护和修复重大工程规划（2021-2035年）》，与市发展改革委等部门共同组织谋划京津冀协同发展生态保护和修复等一批重大生态建设项目，加紧完善项目前期工作，联合向省报送2022年度中央预算内投资建议计划。', '市水务局：河道生态修复治理方面：进度安排：谋划2022年河道生态修复治理项目100公里以上。', '保障措施:实行县级总河长负责制，整合各部门资金，加大财政投入力度，深整合优良资产和资源，培育筹资平台，广泛吸引社会资本，不断拓宽河道整治筹资渠道，形成财政投入、社会融资、贴息贷款等多元化投资格局，并将河道治理年度建设任务所需资金列入年度财政预算，确保实现年度建设目标。', '市发展改革委：积极向国家和省跑办对接，争取下达我市更多的林草、水利生态建设项目和投资，做好投资计划转发下达等工作。', '市林业和草原局：积极向国家、省跑办对接，争取下达我市更多的林草、水利生态建设项目和投资，做好投资计划转发下达等工作。', '市水务局：河道生态修复治理方面：进度安排：加快2022年实施的河道生态修复治理项目前期工作,完成设计批复，招投标，施工征占地等工作，确保4月初开工建设，6月底前完成年度建设任务的20%。', '保障措施:实行县级总河长负责制，财政、行政审批等部门大力配合，落实建设资金，加快项目审批、财政评审进度，项目所在乡镇做好施工环境保障工作，确保实现按期开工，完成序时进度。', '市发展改革委：做好京津冀协同发展生态保护和修复等重大生态项目的督导、调研，切实解决项目实施中存在的问题和困难，促使项目在投资下达后及早开工建设。', '市林业和草原局：做好京津冀协同发展生态保护和修复等重大生态项目的督导、调研，协调解决项目实施中存在的问题和困难，推动项目在投资下达后及早开工建设。', '市水务局：河道生态修复治理方面：进度安排：加快2022年实施的河道生态修复治理项目工程建设,9月底前完成年度建设任务的60%。', '保障措施:实行县级总河长负责制，财政部门大力配合，落实建设资金，项目所在乡镇做好施工环境保障工作，确保完成序时进度。', '市发展改革委：在实施好本年度重大生态建设项目的基础上，提前谋划、储备2023年生态建设项目，年底前向省申报。', '市林业和草原局：在实施好本年度重大生态建设项目的基础上，提前谋划、储备2023年生态建设项目，年底前向省申报。', '市水务局：河道生态修复治理方面：进度安排：加快2022年实施的河道生态修复治理项目工程建设,12月底前完成年度建设任务。', '保障措施:实行县级总河长负责制，财政部门大力配合，落实建设资金，项目所在乡镇做好施工环境保障工作，确保完成年度建设任务。', '围绕“十四五”规划实施，聚焦“三件大事”“两新一重”、科技创新、转型升级等十大重点领域，谋划、开工、投产、储备一批大项目好项目，推动项目尽快投产达效，形成更多实物量和增长点，全年省市重点项目完成投资8000亿元以上。', '市交通运输局、市卫生健康委、市科技局、市工业和信息化局、市生态环境局、市住建局、市通信办，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '印发《承德市2022年重点项目建设提质提效行动实施方案》《承德市2022年市重点项目计划》《2022年市级领导包联重点项目清单》等文件，督促指导各县市区完善项目前期手续，为项目开工建设做好充足准备。组织好全市春季重点项目集中开工活动。', '对重点项目建设进行协调调度，加快推进重点项目建设“5256”工程，开展重点项目调度和项目观摩活动、加快推进省市重点项目建设，力争完成更多实物工作量和有效投资。', '组织全市秋季重点项目集中开工活动，加大对省市重点项目调度力度，确保省市重点项目建设完成序时进度。', '组织开展好项目观摩活动，在全市上下形成“比学赶超”的浓厚氛围。围绕重点项目建设“5256”年度目标任务，持续加大调度力度，逐项梳理，清仓盘点，坚持目标导向，合力冲刺攻坚，确保圆满完成年度目标任务。', '聚焦12个省级主导产业和107个县域特色产业，完善产业资源库、招商企业库、客商信息库、项目信息库，开展精准招商、产业链招商、产品配套招商。', '市发展改革委：推动实施主导产业“链长制”工作方案，完善工作机制，明确任务分工。制定印发主导产业年度工作要点，建立主导产业重点项目库，制作产业招商地图。', '市工业和信息化局：申报产业项目，对食品、生物医药产业链条、加工集群的重点企业进行摸底调研，补充完善产业信息。部署平泉食用菌、滦平食品制造2个省级重点特色产业集群，征集梳理产业信息，建立完善特色产业资料库、信息库等。', '市工业和信息化局：申报产业项目，对食品、生物医药产业链条、加工集群的重点企业进行摸底调研，补充完善产业信息。部署平泉食用菌、滦平食品制造', '市商务局：进一步完善及动态管理企业目录库、专家顾问库信息；赴广州、深圳开展小团组对接洽谈活动；与驻沪承德籍企业家保持联系，建立以商招商、亲情招商纽带，通过驻沪商会搜集长三角重点企业投资意向，将投资热点及意向，及时与县（市、区）进行沟通交流，搭建投资、招商信息通道；赴各县（市、区）考察调研，了解县（市、区）对接企业情况并进行梳理汇总同时了解县（市、区）对长三角企业资金、技术、投资等方面的需求，建立长三角目标企业库、目标项目库。', '市发展改革委：督导各专班落实“链长制”工作方案及主导产业及县域特色产业年度工作要点，定期调度各专班工作开展情况及项目进展，协调解决产业发展中存在的问题。', '市工业和信息化局：围绕全产业链打造，推动食品、生物医药产业项目建设，强化品牌建设，推动产业对外开放合作，鼓励企业参加产品展销展示、招商合作等各类活动。对特色产业项目实施动态清单式管理，力促新建项目平稳开工，续建项目扎实推进，谋划项目落地生根。', '市商务局：与北京市投资促进服务中心、天津市合作交流办、天津承德商会持续深入对接；动态管理企业目录库、专家顾问库信息。', '市工业和信息化局：持续推动产业项目建设，实施技术改造，延伸产业链条，促进产业转型升级。指导县(市、区)利用国际国内高端展会平台，实施“特色产业+专业展会”培育模式，推介特色产业，加大招商引资力度。', '市工业和信息化局：持续推动产业项目建设，实施技术改造，延伸产业链条，促进产业转型升级。指导县', '市商务局：动态管理企业目录库、专家顾问库信息；组织赴长三角小团组招商活动，视实际情况赴沪举办招商活动，协助有投资、招商需求的长三角企业、县（市、区）地方政府及企业建立沟通交流渠道，吸引有意向长三角企业来承考察。', '市发展改革委：督导各专班落实“链长制”工作方案及主导产业及县域特色产业年度工作要点，定期调度各专班工作开展情况及项目进展，协调解决产业发展中存在的问题。同时，做好全市总结工作。', '市工业和信息化局：持续推动相关工作，总结产业发展工作，谋划下一年度工作。帮助特色产业头部企业解决招商引资、项目建设中遇到的困难和问题，助力特色产业提质升级。', '市商务局：对各个招商活动签约项目进展情况进行跟进；动态管理企业目录库、专家顾问库信息；组织参加上海进博会，利用进博会开展小团组精准招商推介活动，扩大我市在长三角企业的知名度。', '浓厚省市县招商氛围，创新疫情防控条件下的招商方式，打造“诚信燕赵、投资沃土”品牌，加快引进一批补短板、提效益、增后劲的优质项目。', '与有意向的投资合作企业开展电话视频沟通，向国内知名企业发送邀请函，邀请企业来承考察洽谈，寻求合作意向。', '举办“百家京企进承德”活动（如受新冠疫情影响，时间按要求另行调整），并持续跟进签约项目进展情况；举办“2022年深圳·承德招商推介会”（如受新冠疫情影响，时间按要求另行调整），持续扩大承德在粤港澳地区影响力，吸引一批科技含量高、带动效应明显项目签约落地承德，推动“承德山水、承德好礼”区域品牌产品打开粤港澳销售市场。', '举办“百家津企进承德活动”（如受新冠疫情影响，时间按要求另行调整）；持续深化与粤港澳大湾区合作，邀请一批重点粤籍企业开展集中进承德考察洽谈活动；组织“百家名企进承德”招商活动（如受新冠疫情影响，时间按要求另行调整）。', '突出抓好“实、考、保、包、促、评”，实施项目清单管理，加强要素服务保障，深入开展包联帮扶，强化跟踪督导问效，建立约束激励机制，一切围绕项目转、一切聚焦项目干，以项目建设大成效推动河北大发展。', '在审批、土地、环保、金融等方面出台一系列配套政策措施，形成齐抓共管的强大合力。紧跟政策导向和资金投向，用足用好专项债券和预算内资金等各类专项支持。印发《2022年市级领导包联重点项目清单》，对包联重点项目进展情况进行调度。', '在审批、土地、环保、金融等方面出台一系列配套政策措施，形成齐抓共管的强大合力。紧跟政策导向和资金投向，用足用好专项债券和预算内资金等各类专项支持。印发《', '紧跟政策导向和资金投向，用足用好专项债券和预算内资金等各类专项支持。加强对各县（市、区）重点项目及市级领导包联项目进行协调调度，推动重点项目建设。', '紧跟政策导向和资金投向，用足用好专项债券和预算内资金等各类专项支持。加大对省市重点项目及市级领导包联项目调度力度，确保省市重点项目建设完成序时进度。', '紧跟政策导向和资金投向，用足用好专项债券和预算内资金等各类专项支持。围绕重点项目建设年度目标任务，持续加大调度力度，逐项梳理，清仓盘点，坚持目标导向，合力冲刺攻坚，确保圆满完成年度目标任务。', '市发展改革委、市工业和信息化局、各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '组织开展第十九届“幸福河北·魅力承德欢乐购”消费促进活动，激发消费潜能。奖励2021年对社消额贡献突出的限上汽车销售企业，鼓励汽车企业达限入统。支持中石油、中石化等国营成品油经销企业与商业银行合作发放满减消费券，并开展非油品营销活动。', '做好第二届中国国际消费品博览会参会组织工作，采购优质商品，增加传统消费市场商品供给。利用五一、端午等节假日开展消费促进月活动，拉动指标持续增长。举办大型政府惠民车展，推动汽车、成品油等大宗商品销售持续增长。', '利用暑期旅游旺季，大力发展夜经济，拉动商超传统商品消费。引导汽车销售企业开展系列促销活动，推动大宗消费增长。组织开展第二十届“幸福河北˙魅力承德欢乐购”消费促进活动，承办好全省欢乐购启动仪式，深挖消费市场潜能。引导汽车销售企业开展系列促销活动。', '利用暑期旅游旺季，大力发展夜经济，拉动商超传统商品消费。引导汽车销售企业开展系列促销活动，推动大宗消费增长。组织开展第二十届', '做好第五届中国国际进口博览会参会组织工作，采购优质商品，增加传统消费市场商品供给。谋划开展第二十一届“幸福河北˙魅力承德欢乐购”消费促进活动。组织开展汽车消费促进月等促销活动。', '做好第五届中国国际进口博览会参会组织工作，采购优质商品，增加传统消费市场商品供给。谋划开展第二十一届', '市卫生健康委:持续推进2022年医养结合机构服务质量提升行动，组织医养结合机构开展自查自评。', '市商务局：依托商务部家政服务信用信息平台，以提升家政技能为抓手，推动家政行业提质扩容，加强家政服务业诚信建设，指导家政服务员信息录入商务部家政信用体系平台累计达到1900人。', '市商务局：依托商务部家政服务信用信息平台，以提升家政技能为抓手，推动家政行业提质扩容，加强家政服务业诚信建设，指导家政服务员信息录入商务部家政信用体系平台累计达到', '市卫生健康委:组织医养结合机构对自查发现的问题进行整改。县级卫健部门进行评估指导。遴选出县级优质医养结合服务机构。', '市商务局：依托商务部家政服务信用信息平台，以提升家政技能为抓手，推动家政行业提质扩容，加强家政服务业诚信建设，指导家政服务员信息录入商务部家政信用体系平台累计达到1950人。', '市商务局：依托商务部家政服务信用信息平台，以提升家政技能为抓手，推动家政行业提质扩容，加强家政服务业诚信建设，指导家政服务员信息录入商务部家政信用体系平台累计达到2000人。', '市卫生健康委:推荐市级医养结合优质服务单位参加省级评估。市级对各县（市、区）医养结合工作开展情况进行总结梳理。', '市商务局：依托商务部家政服务信用信息平台，以提升家政技能为抓手，推动家政行业提质扩容，加强家政服务业诚信建设，指导家政服务员信息录入商务部家政信用体系平台累计达到2050人。', '鼓励定制、绿色、体验消费，支持传统商业企业线上线下融合，规范发展直播带货等新业态，打造一批电子商务示范基地和企业，全省网络零售额增长10%以上。', '鼓励定制、绿色、体验消费，支持传统商业企业线上线下融合，规范发展直播带货等新业态，打造一批电子商务示范基地和企业，全省网络零售额增长', '组织我市电商企业、平台开展“网上年货节”活动。研究制定《加快我市电子发展实施意见》《电子商务发展“十四五”规划》等', '组织全市电子商务现场观摩会，发挥“承德山水”“全承游”“掌上福满家”等优秀电商平台的引领示范作用。加快与京东等知名电商企业协作，落实我市与京东集团战略框架协议，推动项目落地开展。', '组织我市优秀电商企业积极参加2022-2023年河北省电子商务示范基地和示范企业创建工作。', '组织我市电商企业利用促销手段，积极参与“双十一”“双十二”等网络促销活动。全年网络零售额增长10%以上。', '调度我市智慧物流园区建设运营情况，汇总全年投资完成情况，推动我市物流业数字化、智慧化发展。', '指导23个夜经济街区和项目做好年度改造提升工作计划，继续改善设施、丰富业态、提升服务。指导鼎盛、金龙争创省级商业步行街。', '指导23个夜经济街区和项目做好改造提升工作，加大招商力度，确保6月前全部具备运营条件。政府搭台，企业唱戏，加强夜经济宣传，营造氛围。指导鼎盛、金龙争创省级商业步行街。督导宽广购、百乐优鲜、福满家便利店等连锁企业在全市范围内新建改建连锁便利店10家。', '指导23个夜经济街区和项目暑期全部运营。组织开展商旅文相结合的夜经济活动。继续加强夜经济宣传，叫响“避暑山庄之夜”品牌。指导鼎盛、金龙争创省级商业步行街。督导宽广购、百乐优鲜、福满家便利店等连锁企业在全市范围内新建改建连锁便利店30家。', '利用我市冰雪、温泉等旅游资源，开展夜间滑雪、夜泡温泉等活动，弥补冬季夜经济空白，提升夜经济服务和品质。力争完成鼎盛、金龙省级商业步行街验收。督导宽广购、百乐优鲜、福满家便利店等连锁企业在全市范围内新建改建连锁便利店50家。', '利用我市冰雪、温泉等旅游资源，开展夜间滑雪、夜泡温泉等活动，弥补冬季夜经济空白，提升夜经济服务和品质。力争完成鼎盛、金龙省级商业步行街验收。督导宽广购、百乐优鲜、福满家便利店等连锁企业在全市范围内新建改建连锁便利店', '市公安局、市交通运输局、市供销社，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '市邮政管理局：推动全市35%以上行政村建设农村快递服务站点，持续巩固拓展“快递进村”成果。', '市商务局：指导农产品供应链项目按要求推进。指导2020年度全国电子商务进农村综合示范县完成验收工作。', '市商务局：组织开展产销对接活动，拓展农产品销售渠道。打造以主城区、围场县、滦平县、隆化县为重点的农产品供应链。', '市邮政管理局：推动全市50%以上行政村建设农村快递服务站点。规范农村快递服务站点管理，逐步完善服务范围基础地址库。', '市商务局：全市提档升级农贸市场2家以上，全市农村网络零售额增长10%。做好农产品供应链项目总结和验收工作。', '市邮政管理局：推动全市60%以上行政村建设农村快递服务站点。规范快递企业加盟制管理，全面推进基础服务能力与服务范围相适应。', '优化提升12个省级主导产业，推动钢铁行业提质升级，支持唐山轨道交通、保定新能源汽车等基地建设，打造钢铁、装备制造两个万亿级产业。', '市工业和信息化局、市商务局、市地方金融监管局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '推动实施主导产业“链长制”，调度督导钒钛新材料产业及特色智能制造产业专班工作，梳理产业现状。推动承德建龙50万吨清洁能源用钢、80万吨钒钛特钢中棒项目建设。', '推动实施主导产业“链长制”，调度督导钒钛新材料产业及特色智能制造产业专班工作，梳理产业现状。持续推动承德建龙50万吨清洁能源用钢、80万吨钒钛特钢中棒项目建设。', '振兴107个重点县域特色产业集群，推动研发机构、工业设计全覆盖，全省特色产业集群营业收入突破3万亿元。', '推动重点县域特色产业集群以研发水平和创新能力为重点，加强研发机构、工业设计建设工作。聚焦平泉食用菌、滦平食品制造2个重点集群、重点企业、重点项目，分层分级明确目标任务和具体举措，统筹展开各项工作。', '推动重点县域特色产业集群以研发水平和创新能力为重点，加强研发机构、工业设计建设工作。聚焦平泉食用菌、滦平食品制造', '按照全省安排做好2021年度县域特色产业振兴考核工作。组织各县（市）积极参加全省“冀有特色”大型融媒体宣传活动，营造发展氛围、提振发展信心。积极组织集群内工业企业申报研发机构，同时加强设计创新能力建设，组织开展购买工业设计服务、成果转化等项目申报工作。', '开展工业企业研发机构抽查、指导。组织重点集群企业参加省工业设计周活动，营造工业设计良好发展氛围。实施产品、企业、区域“三位一体”品牌战略，鼓励产业集群创建区域品牌、发布行业指数，不断提升行业话语权。', '开展工业企业研发机构抽查、指导。组织重点集群企业参加省工业设计周活动，营造工业设计良好发展氛围。实施产品、企业、区域', '加强年度工作调度推进，进行年度总结。梳理全年工作开展情况，分区域、分行业组织调度，补齐短板弱项，坚持抓两头带中间，确保全市特色产业营收突破710亿。', '加强年度工作调度推进，进行年度总结。梳理全年工作开展情况，分区域、分行业组织调度，补齐短板弱项，坚持抓两头带中间，确保全市特色产业营收突破', '实施战略性新兴产业集群发展工程，打造30个省级示范基地，滚动实施百项高技术产业化示范项目，高新技术产业增加值增长10%。', '对承德高新区大数据与智能感知、承德双滦区钒钛新材料两个省级战略性新兴产业示范基地进行摸底。', '对承德高新区大数据与智能感知、承德双滦区钒钛新材料两个省级战略性新兴产业示范基地进行自评价。按省统一安排申报第一批高技术产业化示范项目。', '按省发改委通知要求做好承德高新区大数据与智能感知、承德双滦区钒钛新材料两个省级战略性新兴产业示范基地评价工作。按省统一安排申报第二排高技术产业化示范项目。', '总结承德高新区大数据与智能感知、承德双滦区钒钛新材料两个省级战略性新兴产业示范基地建设情况。', '市发展改革委、市科技局、市应急管理局、市民政局、市卫生健康委、市残联、市生态环境局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '市工业和信息化局：抓住京津冀协同发展机遇，与民政、残联等部门协作，瞄准康复器具产业发展方向，立足开放合作，开展招商活动。学习贯彻河北省2022年被动式超低能耗文件精神，深入研究超低能耗产业政策，结合我市实际谋划2022年被动式超低能耗产业发展布局。制定应急产业工作要点，按照应急产品名录，对全市应急产品生产企业进行全面摸底，建立应急企业培育库。', '市工业和信息化局：抓住京津冀协同发展机遇，与民政、残联等部门协作，瞄准康复器具产业发展方向，立足开放合作，开展招商活动。学习贯彻河北省', '市工业和信息化局：按照2022年我市被动式超低能耗产业发展布局，摸清市属各县市区被动式超低能耗企业发展现状。通过融合健康养老服务，持续推动康复器具合作招商工作。对应急企业培育库动态监测，及时掌握运营情况，协调解决问题。', '市工业和信息化局：与相关部门协作开展产业对接，推动康复辅助器具产品和应用示范项目建设，持续推动康复器具项目的招商合作。积极争取被动式超低能耗产业发展专项资金。严格按要求组织编制项目申请报告，把好初审关，程报关。支持我市被动式超低能耗建筑产业发展。积极推动有关应急产业政策落实，争取项目支持，积极搭建应急产业产品产销对接平台，帮助企业做大做强。', '市工业和信息化局：争取按期发放2022年度被动式超低能耗发展专项资金，并保证足额到位。总结我市2022年度被动式超低能耗产业发展工作，肯定成绩，查找不足，总结经验，寻求提高路径和措施。持续推动康复器具产业发展相关工作，深入研究产业发展动能。帮助应急产业企业升规入统，积极推荐企业纳入国家、省重点应急产业企业目录，扩大企业影响力。', '实施现代服务业创新发展工程，推进现代服务业和先进制造业融合，服务业增加值增长8%。', '深化“万企转型”，开展产业基础再造工程，推进“千项技改”“百项示范”，实施技改项目5000项以上。', '围绕全市“百项技改”和产业基础再造工作，谋划全市2022年重点推进的工业项目，起草印发《承德市2022年工业攻坚项目方案》，明确全年工业（技改）投资工作目标、重点任务，落实工作责任，指导全年工作开展。', '聚焦我市主导产业，按照省产业基础再造、工业技改支持方向，组织县区，筛选推荐一批重点项目，积极争取上级产业基础再造项目、技改项目专项支持。', '落实《关于进一步健全完善五项工作机制促进工业投资快速增长的通知》要求，加强工业投资项目前期备案指导、中间会商、后期督导落实的全流程管理机制，加快推进项目建设进度。', '结合项目包联、项目调度、督导等工作机制，及时督导、掌握重点县（市、区）、重点行业、重点企业、重点项目的建设和投资进展，确保完成全年工业（技改）投资目标任务。', '开展延链补链强链专项行动，强化产教、产研、产需、产融对接，加快构建上下游、产供销、大中小协同发展的产业生态。', '市工业和信息化局、市农业农村局、市商务局、市科技局、市教育局、市地方金融监管局、人行承德中心支行，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '聚焦全市“3+3”主导产业，推动实施主导产业“链长制”工作方案，完善工作机制，逐产业明确年度任务，制定年度工作要点。', '聚焦全市“3+3”主导产业，推动实施主导产业“链长制”工作方案，加大调度督导力度，着力提升产业链现代化水平。', '聚焦全市“3+3”主导产业，推动实施主导产业“链长制”工作方案，加大调度督导力度，着力提升产业链现代化水平，认真做好全年总结工作。', '坚持“头部企业”带动，健全中小企业梯度培育体系，实施上市“蝶变计划”，培育省级“专精特新”企业500家，争创一批国家级“小巨人”企业。', '市发展改革委、市科技局、市人力资源和社会保障局、市地方金融监管局、市生态环境局、市自然资源和规划局、市市场监管局、市农业农村局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '落实省《服务头部企业助力特色产业提质升级2022年工作方案》，协调县（市）及有关部门做好对接工作。征集“专精特新”中小企业上市培育服务需求，掌握企业真实诉求。落实《为专精特新中小企业办实事清单》。指导各县（市、区）加大对入库企业的培育力度，选拔一批优质苗子企业。', '加强与头部企业对接，做好协调工作。根据企业需求，选择服务团队，现场为企业提供上市咨询诊断服务。加大对“专精特新”中小企业的实地走访和调研，了解企业发展需求。结合国家培育政策要求，择优推荐申报专精特新“小巨人”企业。', '加强与头部企业对接，做好协调工作。根据企业需求，选择服务团队，现场为企业提供上市咨询诊断服务。加大对', '持续为企业纾困解难，帮助企业更好更快发展。组织企业参加上市培育和资本运作培训班，开展上市培育服务活动。做好“专精特新”企业培育工作。组织企业做好省级“专精特新”中小企业申报工作。', '持续为企业纾困解难，帮助企业更好更快发展。组织企业参加上市培育和资本运作培训班，开展上市培育服务活动。做好', '做好年度服务头部企业工作梳理汇总，对企业问题“解决一件销号一件”。做好全年“蝶变计划”工作总结，挖掘典型案例，提炼工作经验。认真完成全年“专精特新”中小企业培育工作。力争新增专精特新中小企业5家以上、“小巨人”企业企业1家以上。', '将全年新增、净增规上工业企业目标任务分解下达到各县（市、区）；进行规下企业摸底，筛选、确定培育对象，建立培育台帐，并督促县（市）区实行领导分包制度，按照拟入统企业名单逐个确定分包领导和分包人员。', '对确定的培育企业逐月进行调度，督促分包领导及分包人员及时掌握企业生产经营状况和项目建设进度。针对工业企业存在的实际困难，要逐一分析原因、一项一项地研究制定有效的帮扶措施。', '加强对各县（市）区规上企业入统工作的指导调度，帮助企业全程做好入统前的各项基础工作，到9月底对预计年底达不到入统条件的企业要及时调整，确保全年目标任务完成。', '加强对各县（市）区规上企业入统工作的指导调度，帮助企业全程做好入统前的各项基础工作，到', '对拟入统企业申报条件、申报程序、政策扶持等工作进行指导，并配合统计部门做好新入统企业的审核上报工作，帮助企业完善基础资料，规范工作流程，做到应统尽统、及时入统，确保高质量完成全年新增规上企业的目标任务。', '协同通信运营商及铁塔公司以共建共享为导向推进承德市5G网络建设发展，完成2022年5G基站规划立项。', '协同通信运营商及铁塔公司以共建共享为导向推进承德市5G网络建设发展，完成2022年5G基站设计审批。', '协同通信运营商及铁塔公司以共建共享为导向推进承德市5G网络建设发展，启动2022年5G基站施工建设。', '协同通信运营商及铁塔公司以共建共享为导向推进承德市5G网络建设发展，2022年全年建设及开通投产5G基站1000个。', '制定印发2022年工作要点，开展电子信息产业摸底调研，了解企业发展现状和存在问题，不断强化企业帮扶，采取有效措施，协调解决企业在生产经营过程中困难和问题。', '按照省统一部署，积极组织参加中国国际数字经济博览会，宣传推介承德电子信息产业发展优势，强化招商引资。', '加强企业培育，强化项目跟进，力争一批企业发展壮大，一批项目落地运营，全力打造“京北数谷”。', '推进产业数字化，实施数字化改造项目200个，培育工业互联网平台30个，新增上云企业1万家。', '市发展改革委、市科技局、市商务局、市通信办，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '出台市两化融合工作要点，指导企业数字化转型；积极组织申报省工业互联网创新发展试点项目。加强产业数字化政策引领；完成省下达的数字化改造项目目标。', '数字化转型专题培训会，根据省厅安排，召开企业上云精准对接会。营造企业数字化转型氛围，打造企业上云生态。', '建立市级工业互联网平台项目储备库；开展企业两化融合水平评估工作。推动区域、行业和企业级工业互联网平台建设；对全市规上企业上云情况进行全面摸底调研', '开展质量提升专项行动，争创国家质量标准实验室、产品质检中心。主导或参与制修订国际、国家和行业标准200项以上。争创全国质量品牌提升示范区。', '开展质量提升专项行动，争创国家质量标准实验室、产品质检中心。主导或参与制修订国际、国家和行业标准', '制定承德市质量强市和标准化战略实施2022年度工作要点，明确质量提升专项行动年度重点任务。鼓励推动我市企业主导或参与制修订国际、国家和行业标准。', '配合省局开展质量提升专项行动分析评估；开展“质量服务企业行”活动；开展重点区域龙头企业质量技术帮扶活动。主导或参与制修订国际、国家和行业标准2项以上。', '结合质量强省建设前三季度评估，开展质量提升专项行动分析评估。主导或参与制修订国际、国家和行业标准4项以上。', '结合质量强省建设前三季度评估，开展质量提升专项行动分析评估。主导或参与制修订国际、国家和行业标准', '总结质量提升专项行动，谋划2023年重点工作。主导或参与制修订国际、国家和行业标准5项以上。', '市发展改革委、市财政局、市教育局、市科技局、市工业和信息化局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '根据国家知识产权局部署，按批次开展非正常专利申请行为核查处置工作。制定《承德市知识产权管理运用工作要点》。制定知识产权年度保护工作方案。', '根据国家知识产权局部署，按批次开展非正常专利申请行为核查处置工作。按照《2022年河北省专利资助金申报工作的通知》要求，组织开展专利资助申报、初审和报送工作。严厉打击商标、专利侵权假冒行为。开展2022年度全市知识产权服务品牌机构培育工作。', '根据国家知识产权局部署，按批次开展非正常专利申请行为核查处置工作。协助省局完成专利资助资金的拨付工作。严厉打击商标、专利侵权假冒行为。', '根据国家知识产权局部署，按批次开展非正常专利申请行为核查处置工作。总结全年非正常专利申请行为核查工作。总结全市知识产权保护工作。', '市教育局、市发展改革委、市工业和信息化局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '组织规模以上企业、高校、政府属科研院所开展2021年度研发投入统计填报工作；协调市统计、税务部门开展入县入企督促指导和服务；组织全市企业、高校、院所等单位申报2022年度省级科技计划项目。', '聚焦我市“3+3”主导产业发展和技术创新，编制2022年度市级科技计划项目申报指南，做好申报服务；组织相关单位开展市级科技项目申报，推进市级科技计划项目评审、立项工作。', '开展企业研发经费投入统计培训、开展入企服务、创新政策宣讲；开展科技计划项目管理培训和科技项目的监督检查，保障科技创新政策落实，推动项目实施。', '待河北省科技经费投入统计公报发布后，对我市全社会研发投入情况进行分析，以准确了解和掌握我市研发投入情况。组织开展研发投入统计重点关注企业走访。组织完成预期目标任务的市级科技计划项目验收工作。全年争取省、市级科研项目50项；全社会研发经费投入增长10%。', '待河北省科技经费投入统计公报发布后，对我市全社会研发投入情况进行分析，以准确了解和掌握我市研发投入情况。组织开展研发投入统计重点关注企业走访。组织完成预期目标任务的市级科技计划项目验收工作。全年争取省、市级科研项目', '落实基础研究行动计划，推进科研院所和高等学校科研力量优化配置、共建共享，实施装备制造、新材料等重点科技专项，加快突破一批产业关键共性技术，抢占未来发展制高点。', '年度省级科技计划基础研究专项项目申报指南要求，组织我市企业、大专院校、科研院所积极申报。围绕卫生健康、社会公共事业、生物医药、资源与环境、中医药、碳达峰碳中和六大创新专项，组织申报一批省级科技计划项目，加快突破一批产业关键共性技术。针对高新技术领域创新需求，发布2022年市级科技计划项目申报指南。', '年度省级科技计划基础研究专项项目申报指南要求，组织我市企业、大专院校、科研院所积极申报。围绕卫生健康、社会公共事业、生物医药、资源与环境、中医药、碳达峰碳中和六大创新专项，组织申报一批省级科技计划项目，加快突破一批产业关键共性技术。针对高新技术领域创新需求，发布', '组织成功立项的单位与省厅签订项目任务书，指导、监督项目实施。围绕生态环保与节能、生物医药和大健康服务、社会公共事业领域的科技创新，组织申报一批市级科技计划项目，加快突破一批产业关键共性技术。组织相关单位完成项目申报，组织专家开展立项评审。', '组织成功立项的单位与省厅签订项目任务书，指导、监督项目实施。组织省、市科技计划项目的验收工作。形成2022年度高新技术领域立项项目名单，签订任务书，推动项目实施。', '组织成功立项的单位与省厅签订项目任务书，指导、监督项目实施。组织省、市科技计划项目的验收工作。形成', '指导、监督项目实施并按照省厅要求上报项目执行情况总结。推动项目实施。组织省、市科技计划项目的验收工作。', '开展重大平台创新资源集聚行动，谋划组建河北省实验室，布局建设一批河北基础学科研究中心，争创国家技术创新中心，支持科技领军企业牵头组建创新联合体，新增省级以上创新平台80个。', '开展重大平台创新资源集聚行动，谋划组建河北省实验室，布局建设一批河北基础学科研究中心，争创国家技术创新中心，支持科技领军企业牵头组建创新联合体，新增省级以上创新平台', '按照河北省科技厅印发的2022年省级创新平台申报通知和指南要求，安排部署，启动申报工作。', '积极组织企业、高校、科研院所等单位申报，并指导申报单位对申报材料进行修改完善，审核上报省厅。', '按照省科技厅印发的省级创新平台立项建设文件要求，组织新建省级创新平台填报、完善基本信息等工作。', '指导并监督新建省级创新平台按照省级创新平台建设与运行管理办法要求进行建设；全面争取新增省级以上创新平台15家。', '指导并监督新建省级创新平台按照省级创新平台建设与运行管理办法要求进行建设；全面争取新增省级以上创新平台', '市推进承德国家可持续发展议程创新示范区建设工作领导小组成员单位，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '谋划召开省市领导小组会和示范区建设现场推进会；组织举办“可持续发展宣传月”活动;挂牌成立承德可持续发展创新中心（研究院）。', '组织实施示范区建设科技专项项目;高质量举办首届2030可持续发展中国贡献峰会·承德论坛；组织开展示范区建设中期评估。', '强化企业创新主体地位，培育一批科技型中小企业，加速建设科技领军企业，新增国家高新技术企业800家。', '强化企业创新主体地位，培育一批科技型中小企业，加速建设科技领军企业，新增国家高新技术企业', '推进京津冀协同创新共同体建设，共建京津冀技术创新中心，打造一批技术转移机构、中试熟化基地。', '建设项目评估、成果评价平台，促进科技成果市场化融资和交易转化，全省技术合同交易总额达1200亿元。', '建设项目评估、成果评价平台，促进科技成果市场化融资和交易转化，全省技术合同交易总额达', '实施创新人才推进计划、燕赵青年科学家计划，加强与中国科学院、中国工程院、央企研究机构全面合作，大力引进一批院士和高端科研团队，集聚一批产业“高精尖缺”人才，培育一批青年科技人才。', '实施创新人才推进计划、燕赵青年科学家计划，加强与中国科学院、中国工程院、央企研究机构全面合作，大力引进一批院士和高端科研团队，集聚一批产业', '市人力资源和社会保障局、市教育局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '组织开展中科院科技成果转化合作项目申报工作；组织省级引才引智项目承担单位按要求进行项目实施。', '总结全年人才工作开展情况；继续推进项目实施，按要求做好往年及本年度项目绩效考评工作。', '完善科技人才培养使用、评价激励机制，推动形成扎实的科研作风，广纳创新英才，共赢创新未来。', '严格落实“四个不摘”要求，保持主要帮扶政策总体稳定，财政投入力度不减，完善防返贫监测帮扶机制，守住不发生规模性返贫底线。', '市巩固拓展脱贫攻坚成果领导小组成员单位，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '市财政局：做好中央和省衔接资金分配拨付工作，确保市级财政投入力度不减，并做好市级衔接资金分配下达工作。开展对各县区衔接资金使用情况“回头看”整改工作、省后评估指出问题整改工作。', '市财政局：做好中央和省衔接资金分配拨付工作，确保市级财政投入力度不减，并做好市级衔接资金分配下达工作。开展对各县区衔接资金使用情况', '市乡村振兴局:1.召开会议安排部署巩固拓展脱贫攻坚成果同乡村振兴有效衔接相关工作。', '贯彻落实好国家、省新优化调整政策，结合我市实际制定落实举措，保持各项政策总体稳定。', '4.健全防止返贫动态监测和帮扶机制，用好“承德市智慧防贫系统”数据平台，完善防贫预警、数据比对等数据共享机制建设，提升防贫工作质量。', '3.完善智慧防贫系统功能，强化数据分析和风险研判，加强脱贫人口和易返贫致贫人口监测和帮扶，做到易返贫致贫对象早发现、早干预、早帮扶。', '4.组织各县（市区）、相关行业部门，全面做好2021年度国家后评估反馈问题整改工作。', '市财政局：组织6个脱贫县修改完善并向省报送统筹整合涉农资金使用方案，开展衔接资金支出督导检查，督促各县区加快资金拨付进度。', '3.加强防止返贫动态监测和帮扶，对符合条件的人口及时纳入、持续跟踪、动态管理，落实帮扶举措，有效化解致贫返贫风险。', '市财政局：开展2022年衔接资金使用绩效自评工作，做好省、国家对我市后评估迎检工作。', '3.组织各县（市区）、相关行业部门，全力做好迎接国家和省2022年度后评估各项准备工作。', '完善万企兴万村村企结对帮扶台账，组织开展推进万企兴万村行动相关活动；推进民营企业家回报家乡专项行动。', '开展万企兴万村调研活动，推广万企兴万村工作典型作法和经验；深入推进民营企业家回报家乡专项行动', '市农业农村局：制定年度工作方案，对全年工作进行安排部署；指导做好国家后评估发现问题整改工作', '市人力资源社会保障局：制定全市就业帮扶工作方案，安排部署全市工作。组织各县（市、区）开展“春风行动”等系列招聘活动，帮助贫困人口外出务工。开展政策宣传活动，加强就业帮扶工作，组织各县（市、区）继续用好就业帮扶车间、乡村公益岗等渠道，扩大就地就近就业，抓好各项帮扶政策落实。做好就业帮扶返贫监测工作。', '市人力资源社会保障局：制定全市就业帮扶工作方案，安排部署全市工作。组织各县（市、区）开展', '市发展改革委：制定印发《承德市2022年易地扶贫搬迁后续扶持工作推进方案》。召开全市易地扶贫搬迁后续工作推进会议，安排部署全年工作。', '市乡村振兴局:配合农业农村局、人社局、科技局、发改委等部门，持续提升产业就业科技帮扶效果，强化易地搬迁后续扶持，指导各县(市)规范项目管理，发挥资金使用效益，促进脱贫群众稳定增收。', '市农业农村局：开展技术指导，巩固提升脱贫地区特色产业；开展重点项目督导；更新脱贫产业信息统计系统半年数据。', '市人力资源社会保障局：加强对脱贫人口和防贫监测对象的动态监测和帮扶。对有劳动能力的脱贫人口实行全员就业状态监测，将脱贫不稳定户、边缘易致贫户和因裁员或规模性失业等导致基本生活出现严重困难户作为重点，防范因未就业导致返贫致贫风险。加强就业岗位推荐和帮扶政策落实。持续规范公益性岗位管理。', '市发展改革委：联合市乡村振兴、农业农村、人社、民政等有关部门，督促指导各县市推进易地扶贫搬迁后续扶持工作，持续巩固提升搬迁成果。', '市乡村振兴局:配合农业农村局、人社局、科技局、发改委等部门，持续提升产业就业科技帮扶效果，强化易地搬迁后续扶持，进一步完善利益联结机制，持续增加脱贫群众收入来源。', '市人力资源社会保障局：开展“高校毕业生就业服务行动”等系列招聘活动，会同省内劳务协作单位，举办联合招聘活动。组织开展就业帮扶工作实地调研，指导各县（市、区）对照问题短板，加大工作力度，确保任务高质量完成。促进脱贫人口和防贫监测对象务工就业。加强存在问题的整改。', '市科技局：进一步完善科技特派员联络机制，开展半年工作推进情况督导检查，培树优秀典型，做好跟踪服务。', '市发展改革委：召开全市易地扶贫搬迁后续工作推进会议，总结上半年工作，安排部署下半年工作。', '市乡村振兴局:配合农业农村局、人社局、科技局、发改委等部门，持续提升产业就业科技帮扶效果，强化易地搬迁后续扶持，加强扶贫项目资产后续管理，促进脱贫群众稳定增收。', '市农业农村局：总结脱贫地区特色产业巩固提升典型经验，对标对表国家、省2022年后评估要求，做好考核准备。', '市人力资源社会保障局：组织“金秋招聘月”等就业帮扶活动，全面开展就业帮扶回头看工作，查漏补缺，做好省评估的准备工作。全面总结就业帮扶经验做法和取得的成效，挖掘先进典型进行宣传。做好国家脱贫攻坚后评估考核迎检工作。', '市发展改革委：联合市乡村振兴、农业农村、人社、民政等有关部门，督促指导各县市推进易地扶贫搬迁后续扶持工作，持续巩固提升搬迁成果，迎接国家和省巩固脱贫攻坚成果后评估。', '市乡村振兴局:配合农业农村局、人社局、科技局、发改委等部门，持续提升产业就业科技帮扶效果，强化易地搬迁后续扶持，全面推进各项指标任务落地落实，提高脱贫人口整体生活质量。', '市自然资源和规划局：按自然资源部、河北省自然资源厅印发耕地卫片监督工作方案要求，对部提取下发的耕地疑似问题图斑进行核实。研究存量问题整改政策，按照要求推进问题整改，加大新增问题管控，严防新增农村乱占耕地行为。', '市自然资源和规划局：按自然资源部、河北省自然资源厅印发耕地卫片监督工作方案要求，对部提取下发的耕地疑似问题图斑进行现场核实，对发现的问题制定整改措施，同步进行整改。按照上级出台农村乱占耕地建房专项整治行动整改方案要求，集中整改存量问题，按时完成整改任务，确保耕地恢复种植条件。', '市农业农村局：督促、指导市、县编报高标准农田建设项目实施计划。开展防止“非粮化”及撂荒地排查工作调研督导。', '市自然资源和规划局：按自然资源部、河北省自然资源厅印发耕地卫片监督工作方案要求，对部提取下发的耕地疑似问题图斑进行复核，对有异议的图斑进行举证，同步对发现的问题整改。对整改问题进行回头看，确保问题不反弹，同时加强违法占用耕地高发期管理，利用卫片、乡镇巡查等手段，严打新增乱占耕地问题。', '市农业农村局：完成高标准农田建设项目实施计划批复及备案。开展防止“非粮化”及撂荒地排查工作调研督导。', '市自然资源和规划局：按自然资源部、河北省自然资源厅印发耕地卫片监督工作方案要求，对部提取下发的耕地疑似问题图斑整改情况报省自然资源厅，并在年度国土变更调查工作中进行变更。巩固前三季度整改和管控成果，分析研判问题发生规律，制定切实可行的工作措施', '市农业农村局：对“非粮化”及撂荒地突出的地区进行重点盯办、督促整改。指导县（市）做好高标准农田项目开工建设，总结全年工作。', '市“菜篮子”工作联席会议成员单位，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '按照《承德市“菜篮子”工程三年行动方案（2021-2023年）》要求，加快推进全市2022年“菜篮子”建设。指导做好生猪等生产，重点防控倒春寒、大风等灾害性天气对养殖业生产的影响，开展技术指导等工作。', '指导做好春播工作，强化技术指导和服务，做好自然灾害预警预报、救灾等工作。指导做好生猪等生产，生猪等监测规模场按月上报月报表到省，上报畜禽生产情况月报表，开展技术指导等工作。', '强化田间管理，做好减药减肥节水工作，强化技术指导和服务，做好自然灾害预警预报、救灾等工作。指导做好生猪等生产，生猪等监测规模场按月上报月报表到省，上报畜禽生产情况月报表，开展技术指导等工作。', '制定农作物种质资源鉴定方案和搜集品种种子；充分发挥我市种子企业在海南科研育种基地作用。制定育种计划，参加种子区域试验和生产试验。', '种植农作物种质资源表型性鉴定的品种，并进行田间调查。以种子企业为主充分利用已有的育种材料，开展育种工作；统计全市作物制种情况。', '断续对农作物种质资源表型性鉴定的品种进行田间调查和管理和鉴定。加强本地企业育种田间管理；对全市制种基地进行督导检查。', '审定（登记）新品种6个。进行田间和室内考种，汇总试验数据，完成20个品种的表型性鉴定。', '提高农机装备水平，建设一批优质粮食示范区，新建高标准农田360万亩，确保粮食总产740亿斤以上。', '指导项目县制定农机新机具新技术创新研发等实施方案、推动开展农机购置补贴政策落实。分解下达高标准农田建设任务。将高标准农田建设任务分解下达到八个县（市）。向各县市区分解下达粮食生产目标任务，研究制定稳定粮食生产工作方案。', '组织签订《农机新机具新技术研发项目任务书》、推动开展农机购置补贴政策落实。督促、指导市、县编报高标准农田建设项目实施计划。督促、指导县（市）编制、评审项目初步设计，编报年度项目实施计划。指导做好田间管理和秋粮播种工作。', '开展农机购置补贴政策落实情况调研。完成高标准农田建设项目实施计划批复及备案。完成年度项目计划批复及备案工作。做好项目预算评审、招标等施工前期准备工作。指导做好秋季粮食作物田间管理。', '落实农机深松深翻作业任务，高质量完成2022年深松整地作业任务。完成农机购置补贴政策实施年度指标。指导市、县按照批复的高标准农田建设项目实施计划及时开工建设。指导各县（市）按照批复的计划及时开工建设。做好全年粮食生产工作总结。', '深化农业供给侧结构性改革，推动农业规模化、产业化、绿色化、品牌化，加快农村一二三产融合发展。持续推进奶业振兴，做强精品蔬菜、优质生猪等15个特色优势产业集群，支持农业产业化龙头企业发展，全省农产品加工业总产值达到7200亿元以上。大力发展现代都市型农业，打造100个现代农业示范园区。', '深化农业供给侧结构性改革，推动农业规模化、产业化、绿色化、品牌化，加快农村一二三产融合发展。持续推进奶业振兴，做强精品蔬菜、优质生猪等', '制定2022年建设，分解全年优势特色产业集群建设重点任务。制定全市重点打造食用菌、板栗、中药材等8个绿色食品加工集群2022年工作计划。巩固提升平泉国家级现代农业产业创建成果，全力推动隆化国家级农业现代产业园创建工作，在提升已有省级农业园区的基础上，争取新增省级园区2个以上。', '加强技术指导和督导检查，确保按要求实施。积极争取国家、省级农业产业强镇项目，支持农业龙头企业发展，壮大镇域农业主导产业。确保全市农产品加工业总产值达到105亿元以上。巩固提升平泉国家级现代农业产业创建成果，全力推动隆化国家级农业现代产业园创建工作，在提升已有省级农业园区的基础上，争取新增省级园区2个以上。', '加强技术指导和督导检查，确保按要求实施。积极争取国家、省级农业产业强镇项目，支持农业龙头企业发展，壮大镇域农业主导产业。确保全市农产品加工业总产值达到', '组织产业集群建设观摩，加强项目调度，解决存在突出问题。争取省级联合体促进三产融合发展项目和中央厨房建设项目，支持龙头企业发展农产品精深加工。巩固提升平泉国家级现代农业产业创建成果，全力推动隆化国家级农业现代产业园创建工作，在提升已有省级农业园区的基础上，争取新增省级园区2个以上。', '组织产业集群建设观摩，加强项目调度，解决存在突出问题。争取省级联合体促进三产融合发展项目和中央厨房建设项目，支持龙头企业发展农产品精深加工。巩固提升平泉国家级现代农业产业创建成果，全力推动隆化国家级农业现代产业园创建工作，在提升已有省级农业园区的基础上，争取新增省级园区', '组织集群建设总结，积极争取省级集群建设项目。督导省级产业化项目落地落实。确保全年农产品加工业产值达到210亿元，谋划2023年农产品加工业发展工作。巩固提升平泉国家级现代农业产业创建成果，全力推动隆化国家级农业现代产业园创建工作，在提升已有省级农业园区的基础上，争取新增省级园区2个以上。', '组织集群建设总结，积极争取省级集群建设项目。督导省级产业化项目落地落实。确保全年农产品加工业产值达到', '转发2022年河北省推进农民合作社发展工作方案和农业生产托管服务专项工作方案，根据方案要求分解任务，指导各县（市、区）抓好落实。做好防范非法集资等相关工作。制定印发《2022年承德市推动家庭农场高质量发展工作方案》。', '指导各县（市、区）做好18个农民合作社规范化建设试点相关工作，对省级以上合作社、社会化服务组织生产经营情况做相关调研。指导各县（市、区）继续把符合条件的种养大户、专业大户等规模农业经营户纳入名录管理和服务。', '组织各县（市、区）开展2022年国家级、省级和市级农民合作社示范评选工作。开展农业生产托管服务省级示范组织和品牌组织评选活动。组织各县（市、区）积极申报参评省级家庭农场示范创建。', '指导国家级农民合作社整县推进试点做好相关工作。按省厅要求做好下一年度社会化服务项目申报等相关工作。开展2022年度市级示范家庭农场评选和监测，总结先进经验，推介典型案例。', '指导国家级农民合作社整县推进试点做好相关工作。按省厅要求做好下一年度社会化服务项目申报等相关工作。开展', '市农业农村局：开展摸底调查，制定农村人居环境整治及厕所改造年度实施方案，因地制宜科学改厕。开展农村人居环境整治宣传发动，营造良好的社会氛围。', '市卫生健康委:全年派员参加农业农村部门组织的改厕专班。配合做好改厕和人居环境整治的技术指导等相关工作。', '市农业农村局：组织全市人居环境整治和农村改厕现场会，开展农村改厕技术培训，组织招投标等前期工作，督导县（市、区）全面开工建设，强化监督检查，确保改厕建设进度达到省市要求。', '市农业农村局：适时组织对相关单位和各县（市、区）农村人居环境整治工作进行督导检查，及时发现和解决工作中存在的问题，按照时限要求完成工作进度。', '市农业农村局：按照省市时间要求，完成农村厕所改造等农村人居环境整治工作任务，适时总结本年度工作，谋划2023年农村人居环境整治工作。', '市农业农村局：按照省市时间要求，完成农村厕所改造等农村人居环境整治工作任务，适时总结本年度工作，谋划', '市城管局：制定生活垃圾焚烧处理设施建设计划，成立工作专班，强化督导检查和行业指导，做好复产复工工作。', '市住建局：印发《承德市2022年农村生活垃圾治理工作实施方案》,安排部署农村生活垃圾收运处置工作。', '市城管局：强化督导检查，按照时间节点加快推进生活垃圾焚烧处理设施建设，聘请省级专家对垃圾焚烧处理设施建设开展评估和指导。', '市住建局：按照2022年度《实施方案》要求，开展农村非正规生活垃圾堆放点和临时垃圾堆放点排查整治。', '市城管局：全力开展生活垃圾焚烧处理设施建设攻坚行动，对进度滞后项目进行重点盯办。确保9月底前完成主要工程施工，力争进入收尾阶段。', '市城管局：全力开展生活垃圾焚烧处理设施建设攻坚行动，对进度滞后项目进行重点盯办。确保', '市城管局：10月底前，完成承德县、围场县、丰宁县生活垃圾焚烧处理设施建设任务，实现焚烧处理全覆盖。', '制定《2022年承德市农村生活污水无害化处理工程实施方案》，由市“双创双服”办汇总统一印发。市生态环境局、农业农村局组成工作推进专班，指导相关县区落实年度推进方案。市直相关部门结合项目谋划指导相关县区做好项目前期各项准备工作。', '相关县区农村生活污水无害化处理设施全面开工建设。工作专班加强调度，对相关县区工作进展情况实行月报告制度。', '工作专班组织开展督导检查，采取明察暗访等方式，逐个县区督导工程进度，推动项目建设进展。', '工作专班组织相关县区开展“回头看”，查漏补缺、巩固提升，完成年度462个村庄生活污水无害化处理覆盖目标任务。', '安排部署“四好农村路”示范创建工作；召开全市调度会议，分解建设任务目标，部署全年农村公路工作；督促各地加快开展前期工作。', '督促各地按照创建计划开展示范创建工作；加快推进农村公路建设进度，建设改造农村公路100公里。', '根据省厅安排，开展“四好农村路”示范创建县级自查、市级审核工作；加强督导，全力推进农村公路建设进度，累计建设改造农村公路600公里。', '申报“四好农村路”示范县；针对任务重、进展慢的县区开展重点协调调度，全面完成年度任务目标1225公里。', '市自然资源和规划局、市旅游和文化广电局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '贯彻落实上级关于保护传统村落和乡村特色风貌的有关政策，根据保护需要，因地制宜做好县区指导。', '市自然资源和规划局、市生态环境局、市住建局、市卫生健康委、市林业和草原局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '确定美丽乡村创建名单，制定美丽乡村年度实施方案，开展美丽乡村创建组织发动，营造良好的社会氛围。', '持续开展村庄清洁行动，督促具备条件的县（市、区）按照年度计划开工建设，各项指标达到省市要求。', '适时组织对相关单位和各县（市、区）美丽乡村建设、村庄清洁行动等工作督导检查，及时发现和解决工作中存在的问题，按照时限要求完成工作进度。', '持续开展村庄清洁行动。按照省市时间要求，完成美丽乡村建设工作任务。适时组织县级自验、市级验收，创建省级宜居宜业宜游美丽乡村130个。', '持续开展村庄清洁行动。按照省市时间要求，完成美丽乡村建设工作任务。适时组织县级自验、市级验收，创建省级宜居宜业宜游美丽乡村', '市农村工作领导小组成员单位，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '紧盯后续申报创建工作，确保双滦区大贵口、隆化县七家—茅荆坝乡村振兴示范区被认定为省级乡村振兴示范区。研究制定2022年度乡村振兴示范区创建工作方案，以市委农办文件印发。', '督促指导双滦区、隆化县制定省级乡村振兴示范区创建方案，明确创建任务、重点项目、支持政策、领导包联责任等。对省级乡村振兴示范区创建实行台账化管理，每月掌握项目进展，分季度掌握示范区总体创建进展。', '全力抓好示范区内生产类、生活类、生态类重点项目建设。梳理总结乡村振兴示范区创建的模式路径和典型经验，上报省委农办。', '做好示范区创建年度总结，适时开展创建工作年度评价，确保2个省级示范区完成年度创建任务。', '市民政局、市农业农村局、市行政审批局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '指导各县（市、区）深入开展村“两委”换届质量“回头看”工作，各相关部门加强调度，推动农村“两委”换届质量持续提升，“五位一体”村级组织体系进一步规范。', '协调相关部门加强调研督导，对各类组织发挥作用情况开展调研，加强各类组织规范化建设。', '通过“大培训、大比拼”、会议交流、观摩拉练等形式，不断加强“五位一体”村级组织体系建设，发挥积极作用。', '对各县（市、区）“五位一体”村级组织体系工作进行调研检查，召开各级党组织书记述职评议会议，发现问题、推动工作。', '市民政局、市农业农村局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '将创建省级“民主法治示范村（社区）”相关内容纳入2022年全市普法依法治理工作要点并印发。', '对符合省级“民主法治示范村（社区）”创建指导标准的村（社区）进行命名，数量不少于20个。', '加强农村文化建设，开展文明村镇、文明家庭创建，推进移风易俗，培育文明乡风、良好家风、淳朴民风。', '市委宣传部（市文明办）：召开全市文明办主任会议，安排部署文明村镇、文明家庭创建及推进移风易俗工作。制定我市《关于进一步拓展新时代文明实践中心建设工作的实施意见》，召开新时代文明实践中心建设推进会议，全面推进新时代文明实践中心建设全覆盖工作。', '市委宣传部（市文明办）：结合文明城市创建，开展农村环境卫生综合治理，切实改善人居环境。举办新时代文明实践中心建设现场观摩和培训会议，提高农村精神文明建设水平。', '市委宣传部（市文明办）：加强农村精神文明“十个一”建设，夯实文明村镇创建基础。对我市的全国和省级文明村镇进行（抽测）复检。', '强化大气污染区域治理，开展工业污染治理提档升级、重型柴油车清洁替代等专项行动，加快重污染企业退城搬迁，实现重点城市空气质量稳定“退后十”，优良天数达到270天以上。', '强化大气污染区域治理，开展工业污染治理提档升级、重型柴油车清洁替代等专项行动，加快重污染企业退城搬迁，实现重点城市空气质量稳定', '市大气污染防治领导小组成员，单位各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '全年优良天数力争达到329天以上。制定实施《承德市2022年大气污染综合治理实施方案》，对空气质量优良天数改善指标和重点任务进行目标分解。', '全年优良天数力争达到329天以上。按照《承德市2022年大气污染综合治理实施方案》中确定的工作举措，督导各县（市、区）细化落实方案明确的各项重点工作，开展工业企业、扬尘治理、机动车防治、餐饮油烟、工业炉窑、VOC整治专项行动。', '全年优良天数力争达到329天以上。督导各县（市、区）持续推动工业企业、扬尘治理、机动车防治、餐饮油烟、工业炉窑、VOC整治阶段性工作任务。重点实施夏季臭氧综合治理。', '全年优良天数力争达到329天以上。督导帮扶各县（市、区）完成全年空气质量优良天数改善和重点工作目标任务。重点组织开展重污染天气消除专项行动。按照省生态环境厅要求组织开展2022-2023年秋冬季攻坚行动。', '强化水污染流域治理，全面消除城市和农村黑臭水体，实施入海河流和近岸海域水质提升专项行动，地表水国考断面优良水体比例达到67%以上，打造美丽河湖、美丽海湾。', '强化水污染流域治理，全面消除城市和农村黑臭水体，实施入海河流和近岸海域水质提升专项行动，地表水国考断面优良水体比例达到', '完成对各县市区2021年度水生态环境保护工作考核。起草《承德市2022年水生态环境保护工作方案》并印发实施。确保城市无黑臭水体整治成效得到长久保持。落实农村黑臭水体常态化排查整治动态清零。', '加强地表水考核断面水质达标管理，按月开展河流跨界断面生态补偿金扣缴并通报。按月开展地表水达标排名并通报。开展重点涉水企业专项检查行动。推进重点工程实施。确保城市无黑臭水体整治成效得到长久保持。落实农村黑臭水体常态化排查整治动态清零。', '加强地表水考核断面水质达标管理，按月开展河流跨界断面生态补偿金扣缴并通报。按月开展地表水达标排名并通报。协调推进城镇污水管网错接混接问题整治，减少“跑冒滴漏”，降低汛期溢流风险。协调河长办开展垃圾粪污清理攻坚。推进重点工程实施。确保城市无黑臭水体整治成效得到长久保持落实农村黑臭水体常态化排查整治动态清零。', '加强地表水考核断面水质达标管理，按月开展河流跨界断面生态补偿金扣缴并通报。按月开展地表水达标排名并通报。协调推进城镇污水管网错接混接问题整治，减少', '加强重点排查，通过视频监控、监管平台、手机APP等科技手段，加强水体日常监管，加大巡查力度，强化污染源头管控，督促各地做到随查随清、立查立改。加强地表水考核断面水质达标管理，按月开展河流跨界断面生态补偿金扣缴并通报。推进重点工程实施。确保城市无黑臭水体整治成效得到长久保持。落实农村黑臭水体常态化排查整治动态清零。', '组织开展督导检查，对各县区及市直相关部门相关工作推进情况进行督导。按照全省工作部署，组织开展省级“无废城市“创建工作。', '组织开展督导检查，对各县区及市直相关部门相关工作推进情况进行督导。按照全省工作部署，组织开展省级', '市自然资源和规划局、市发展改革委、市财政局，各县（市、区）政府，承德高新区管委会，御道口牧场管理区管委会', '印发《承德市人民政府办公室关于下达2022年营造林生产任务的通知》，分解下达任务目标、安排部署全年工作。指导各县（市、区）高标准开展国土绿化，做好苗木等物资和造林整地准备工作，组织完成作业设计编制和批复。', '组织市领导参加义务植树活动，推动全市造林绿化工作深入开展。加强督导检查，指导各县（市、区）高标准开展国土绿化。扎实推进北方防沙带生态保护修复，大力实施京津风沙源、中幼林抚育等营造林项目，强力推进造林绿化攻坚，采取周报、月报、季报形式调度营造林进度，全市累计完成营造林30万亩、草原生态修复3.5万亩。', '组织市领导参加义务植树活动，推动全市造林绿化工作深入开展。加强督导检查，指导各县（市、区）高标准开展国土绿化。扎实推进北方防沙带生态保护修复，大力实施京津风沙源、中幼林抚育等营造林项目，强力推进造林绿化攻坚，采取周报、月报、季报形式调度营造林进度，全市累计完成营造林', '加强督导检查，指导各县（市、区）高标准开展国土绿化。扎实推进北方防沙带生态保护修复，大力实施京津风沙源、中幼林抚育等营造林项目，强力推进造林绿化攻坚，采取周报、月报、季报形式调度营造林进度，全市累计完成营造林70万亩、草原生态修复14.04万亩。', '加强督导检查，指导各县（市、区）高标准开展国土绿化。扎实推进北方防沙带生态保护修复，大力实施京津风沙源、中幼林抚育等营造林项目，强力推进造林绿化攻坚，采取周报、月报、季报形式调度营造林进度，全市累计完成营造林', '加强督导检查，指导各县（市、区）高标准开展国土绿化。扎实推进北方防沙带生态保护修复，大力实施京津风沙源、中幼林抚育等营造林项目，强力推进造林绿化攻坚，确保高质量完成全年营造林100万亩，草原生态修复17.54万亩。', '加强督导检查，指导各县（市、区）高标准开展国土绿化。扎实推进北方防沙带生态保护修复，大力实施京津风沙源、中幼林抚育等营造林项目，强力推进造林绿化攻坚，确保高质量完成全年营造林', '待省水利厅2022年主要河流生态补水实施方案下达后，迅速制定我市生态补水方案，明确相关县、区补水任务及完成时限。', '按照省水利厅2022年主要河流生态补水实施方案要求，督导双峰寺水库、庙宫水库、黄土梁水库、老虎沟水库严格贯彻落实，科学调度，实施河湖生态补水，完成生态补水任务。', '贯彻落实好省采煤沉陷区综合治理工作领导小组第三次会议精神。支持相关县市区做好筹集资金工作，加快推进工程实施进度。', '市发</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>政协承德市第十五届委员会常务委员会工作报告摘要</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2022%2F1%2F23%2Fart_360_829419.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_829419</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['2021年是党和国家历史上具有里程碑意义的一年。以习近平同志为核心的中共中央带领全党全国各族人民，实现了第一个百年奋斗目标，在中华大地全面建成小康社会，开启了全面建设社会主义现代化国家新征程。在党中央和省委、市委坚强领导下，全市上下团结奋进，攻坚克难，开创了全面建设高质量发展的“生态强市、魅力承德”新局面。市政协及其常委会坚持以习近平新时代中国特色社会主义思想领航定向，学习贯彻党的十九大和十九届历次全会精神，深化落实中央和省委、市委政协工作会议精神，深入开展党史学习教育，坚持专门协商机构性质定位，认真践行使命任务，履职尽责，担当作为，在服务大局、服务人民中作出政协新贡献，展现政协新作为。', '市政协常委会自觉提高政治站位，把握政治要求，强化政治引领，突出做好三项全局性重点工作。', '一是深入学习贯彻习近平总书记重要讲话和党的十九届六中全会精神，从党的光辉历程中感悟伟大建党精神。二是深入贯彻落实习近平总书记视察承德重要讲话指示精神，从总书记的深情嘱托中凝聚强大奋进力量。三是深入贯彻落实习近平总书记关于加强和改进人民政协工作的重要思想，从人民政协伟大事业中涵养不竭动力。', '在认真抓好三项重点工作的同时，常委会统筹疫情防控，勇担使命任务，突出主责主业，坚持双向发力，高质高效履职，为全市经济社会高质量发展作出政协贡献。', '（一）强化创新理论武装，在提高政治站位上达到新高度。坚持把创新理论学习作为“第一议题”，形成党组带头学习、专家深入解读、委办集中研讨、委员互动交流、市县联动落实的“五位一体”学习新模式，推动学习走深走实。自觉接受市委领导，坚持重要工作、重要事项、重大活动、重大安排主动向市委请示报告，切实把党的领导贯穿政协工作各领域全过程。团结引领各族各界人士坚决拥护“两个确立”，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，不断提高政治判断力、政治领悟力、政治执行力，推动中央重大决策和省委、市委部署要求落地落实。突出党建引领，注重建章立制，认真落实民主生活会、“三会一课”等组织生活制度，圆满完成机关党总支、各党支部和工会、妇委会换届任务，有效发挥专委会功能性党支部作用，极大增强各级党组织的凝聚力、战斗力、号召力。严格落实全面从严治党政治责任，扎实开展“六治六提”干部队伍作风纪律整顿，全面完成机关党组巡察整改，营造风清气正的良好政治生态。', '（二）强化提案办理协商，在实现三个提升上取得新成效。坚持把提案工作作为协商民主的重要载体和生动实践，完善“1＋2＋2＋N”提案办理协商工作机制，实现了提案质量、提案办理质量和提案服务质量“三个提升”，取得了党委政府认可、政协委员满意、人民群众赞许的良好效果。紧紧围绕贯彻落实习近平总书记视察承德关于社区居家养老重要讲话指示精神，积极回应群众关切、委员关注，将“关于全面提升我市社区和居家养老服务水平的建议”确定为“1号提案”。政协主席领衔，主席会议督办，通过赴先进地区学习考察、市内实地视察、召开提案办理协商座谈会持续跟进，有力推动了我市社区和居家养老服务水平的全面提升。', '（三）强化政协主责主业，在服务中心大局上展现新作为。紧紧围绕贯彻落实习近平总书记视察承德重要讲话指示精神和市委部署要求，主动对接中心工作，自觉融入发展大局，精选协商议题，深入调查研究，广泛协商论证，提高建言质量。', '聚焦高质量发展建言出力。紧紧围绕贯彻落实习近平总书记视察承德关于推动高质量发展的重要讲话指示精神，立足促进我市清洁能源产业发展在国家战略层面有影响、有位置，充分发挥政协联系广泛优势，促成中国航天科技集团氢能工程研发中心、河北建投集团和市政府三方战略合作，推动我市争列第一批国家级能源研发创新平台、加快清洁能源产业发展取得积极进展。围绕“加快发展楼宇经济，推动城市经济高质量发展”深入调研、专题协商，形成高质量调研报告。', '紧扣乡村振兴谋策献力。紧紧围绕贯彻落实习近平总书记视察双滦区大贵口村关于乡村振兴重要讲话指示精神，按照市委安排部署，市政协高度重视，组建工作专班，5次深入一线视察调研，3次专题研究协商论证，着力推动工作落实。围绕巩固拓展脱贫攻坚成果，立足承德特色资源优势，将“建设食用菌强市，带动乡村产业振兴”纳入常委会专题议政，经过深入调研、广泛协商，精准提出8方面建议，助力打造全国食用菌强市；就少数民族特色村寨建设赴广西、湖南专题学习考察，形成推进全市工作的考察报告。', '紧盯生态文明建设献计发力。紧紧围绕贯彻落实习近平总书记视察承德关于生态文明建设重要讲话指示精神，就进一步加强全市森林经营和森林防火工作，深入调研，形成《建议》，国家林业和草原局网站关注报道。聚焦创建国家生态文明建设示范市，召开专题协商会议，为我市创建工作提供有价值的参考建议。', '围绕社会治理开方助力。深刻认识人民政协在国家治理体系中的重要作用和独特优势，进一步增强服务承德社会治理的责任感和使命感，就我市“市域社会治理现代化试点工作”开展专项视察，提出意见建议。瞄准打造市场化、法治化、国内一流营商环境，就优化我市营商环境，连续三年开展民主监督，深化“办事一次成”改革，推动营商环境创新，助推经济高质量发展。', '（四）强化人民政协为人民，在增进民生福祉上作出新贡献。始终牢记“江山就是人民、人民就是江山”，持续用力将履职活动向群众延伸、向基层拓展，帮助群众解决急难愁盼问题，在践行初心使命中彰显为民情怀，以高质量履职服务人民。深入基层一线走访调研，深入联系群众建言献策，深入服务群众有所作为。', '（五）强化落实双向发力，在广泛凝聚共识上实现新提升。坚持大团结大联合，充分发挥政协团结教育引导各族各界代表人士的重要平台作用，为承德高质量发展增助力、聚合力、添动力。', '加强合作共事。制定出台《关于进一步发挥市各民主党派、工商联和无党派人士在政协工作中作用的意见》，为其更好发挥作用提供有力支撑。重要学习活动邀请党派团体参与，重要协商会议安排党派团体发言，重要履职活动联合党派团体开展，推动中央重大决策和省委、市委部署要求成为各民主党派、各人民团体、各族各界人士的广泛共识和自觉行动。', '扩大社会共识。紧紧围绕贯彻落实习近平总书记视察承德关于民族宗教工作重要讲话指示精神，深化双向发力恳谈会机制，召开民族宗教界代表人士恳谈会，为维护我市民族团结、宗教和谐、社会稳定贡献政协力量。加强宣传思想工作，广泛宣传政协工作动态、履职成果、委员风采，扩大了影响力，提高了凝聚力。', '密切联络联谊。积极推进“双联双促”工程，深化政协系统对内对外开放，通过走出去、请进来，加强与各民主党派中央、地方组织和京津冀等地政协组织的联系沟通交流。与民建中央、九三学社中央，与各地政协组织建立了友好合作关系，提升履职能力。', '注重文化传承。紧紧围绕贯彻落实习近平总书记视察承德关于文物保护和文化传承重要讲话指示精神，就避暑山庄及其周围寺庙世界文化遗产保护传承利用工作开展专项视察，助推我市文化旅游事业和文化产业繁荣发展。加强文史工作，征集全市脱贫攻坚和弘扬塞罕坝精神文史资料。大力推进民族和清史文化研究中心（承德政协文史馆）品牌建设工程，传承好优秀传统文化，讲好承德故事，不断增进文化自信和文化认同。', '（六）强化履职能力建设，在提升素质本领上达到新水平。邀请政协理论研究专家为新一届市政协委员作专题辅导，健全履职制度，完善考核办法，提升委员履职能力和水平。深化党史学习教育，组织市政协机关干部循着习近平总书记足迹，深入学习、真切感悟塞罕坝精神。制发纪律管理制度，修订干部考核办法，不断提升服务委员、服务发展的能力和水平。完善云视频信息系统，推动“智慧政协”APP全覆盖，着力打造线上协商议政新途径、宣传思想工作新阵地、委员知情明政新平台、反映社情民意新渠道。组织召开县（市、区）政协主席协商座谈会，加强对县级政协工作指导；深化市县政协联系互动，增强全市政协整体合力。创新建立重要工作情况通报制度，推进更好履职。', '2022年，是“十四五”规划实施的关键之年，是党的二十大召开之年，做好今年政协工作意义重大。市政协及其常委会主要工作思路是：以习近平新时代中国特色社会主义思想为指导，在市委坚强领导下，深入贯彻党的十九大和十九届历次全会精神，全面落实习近平总书记视察承德重要讲话指示精神，立足新发展阶段，完整准确全面贯彻新发展理念，服务构建新发展格局，紧紧围绕中央决策部署和省第十次党代会、市第十五次党代会及市委十五届四次全会目标要求，坚持民主和团结两大主题，坚持“凝心聚力、守正创新”工作总基调，按照“三创、四有、五新”目标要求，不断提高政治协商、民主监督、参政议政水平，更好凝聚共识，推进实施党建引领、协商民主、提案提升、凝心聚力、担当为民、美丽家园“六大工程”，打造“承事好商量”特色品牌，全面务实、奋发作为，优质高效、履职尽责，奋力开创新时代政协事业新局面，为加快建设高质量发展的“生态强市、魅力承德”作出新的更大贡献，以优异成绩迎接党的二十大胜利召开。', '（一）推进实施“党建引领”工程，加强党对政协的全面领导。把加强党的建设作为根本，以党建强引领、促履职、凝共识、聚力量。强化思想政治引领，深入学习贯彻习近平总书记重要讲话和党的十九届六中全会、党的二十大精神，及时跟进学习习近平总书记最新重要讲话精神，引导委员和机关干部忠诚拥护“两个确立”，切实增强“四个意识”，始终坚定“四个自信”，坚决做到“两个维护”，一切从政治上考量、在大局下行动，做讲政治的政协。发挥“承德政协大讲堂”特色学习品牌和“智慧政协”线上平台作用，落实主席集体学习日、机关固定学习日制度，进一步提升学习高度、增进学习深度、扩展学习广度，做有智慧的政协，推动全市政协事业始终沿着正确方向前进。充分发挥党组作用，更好发挥基层党组织政治功能和党员委员先锋模范作用，打牢组织基础和工作基础。召开全市政协系统党的建设工作经验交流会，推动政协党建工作高质量发展。', '（二）推进实施“协商民主”工程，充分发挥专门协商机构作用。准确把握政协性质定位，牢固树立“商以求同、协以成事”理念，立足新发展、拓宽新思维，坚持把商量贯穿协商民主全过程，着力打造“承事好商量”特色品牌，以“更宽、更活、更实、更准”的标准，丰富协商内容，优化协商路径，提升协商质效，做有作为的政协。深化调研形式内容，延伸基层协商触角，创新民主监督机制，建立咨询论证专家库，围绕更好助推承德高质量发展把脉论证，提供智力支撑。', '（三）推进实施“提案提升”工程，大力夯实建言资政重要基础。认真落实《提案工作条例》，充分认识提案工作在协商民主和建言资政中的重要作用，引导委员围绕党政所思、群众所盼撰写提案，推动新时代提案工作高质量发展。深化提案办理协商，夯实提案工作基础，持续跟踪问效，助推党政部署要求落地落实。', '（四）推进实施“凝心聚力”工程，广泛汇聚昂扬奋进强大合力。以履职实践深化共识，坚持寓思想政治引领于团结民主之中，研究制定《关于加强和促进人民政协凝聚共识工作的实施意见》，注重用好调研视察、协商座谈、重要情况通报、谈心谈话、走访看望等形式，把思想教育抓在经常、融入日常，着力把党的主张转化为各党派团体、各族各界人士的共识和行动。以创新机制广聚共识，以团结合作增进共识，以广泛联系凝聚合力，以“双联双促”助推发展，助力全市经济社会发展，做开放的政协。', '（五）推进实施“担当为民”工程，围绕全市大局和民生关切履职尽责。紧紧围绕贯彻落实习近平总书记视察承德重要讲话指示精神，聚焦市第十五次党代会和市委十五届四次全会确定的目标任务，紧扣“十四五”规划重点工作，找准参政议政的“切入点”、建言资政的“着力点”、凝聚共识的“落脚点”，在服务全市改革发展大局中发挥好“智囊团”作用。紧扣大事要事协商议政，盯重点难点建言资政，紧贴乡村振兴聚力助力，助推乡村全面振兴，彰显政协作为、展现委员风采，做有担当的政协。', '（六）推进实施“美丽家园”工程，不断提升政协系统的影响力。加强委员队伍建设，注重委员学习培训，从线上线下、学习交流、专业素质多维度出发，丰富培训形式，拓展知识视野，提升履职能力。注重发挥委员主体作用，广泛组织委员开展调研视察、学习考察、协商座谈、提案督办等活动，促进全体委员在履职实践中建立友谊、增进感情，在政协工作中体会到家的力量、家的自豪、家的团结、家的友爱、家的温暖、家的幸福，打造政协系统“美丽家园”，使委员履职更有激情、更有动力，做有温度的政协。加强机关效能建设，促进机关效能再提升，做有效率的政协。着力提升整体效能，发挥整体优势，提升履职质效。探索建立市县两级政协重要课题联合调研、互动协商、联动督办工作新机制，构建起上下一体、融会贯通的工作新格局，实现新时代承德政协事业新跨越。统筹推进文史馆建设，持续推动市民族和清史文化研究中心（承德政协文史馆）品牌建设，使之成为政协理论、政协文化、承德民族和清史文化研究的重要基地；同步推动县（市、区）政协文史馆建设，实现市县两级联动发展，做有内涵的政协。通过“美丽家园”建设，将政协系统打造成团结和谐、尊老爱幼、互助友爱、敬业奉献的“大家庭”，人人都能分享美丽家园带来的快乐，个个都能分享美丽家园带来的丰收果实，不断提升政协系统的凝聚力和影响力。', '“潮平岸阔催人进，风起扬帆正当时”。在大有可为的新时代，人民政协大有作为。唯有踔厉奋发、笃行不怠，方能不负历史、不负时代、不负人民。让我们更加紧密地团结在以习近平同志为核心的中共中央周围，更好把握和运用党的百年奋斗历史经验，弘扬伟大建党精神，增加历史自信、增进团结统一、增强斗争精神，在中共承德市委坚强领导下，铭记初心使命，矢志艰苦奋斗，勇于担当作为，在加快建设高质量发展的“生态强市、魅力承德”新的赶考路上，奋力书写政协事业新篇章，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>对政协承德市第十五届委员会第一次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2021-10-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2021%2F10%2F20%2Fart_9949_839933.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9949_839933</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['承德市人民政府 建议提案 对政协承德市第十五届委员会第一次会议第216号提案的答复', '负责蔬菜、中药材、果品产业的站长、专家参加的考察组赴邢台市考察学习“阳台经济”产业。考察组一行5人', '特色蔬菜产业发展新模式“南宫黄韭”阳台经济发展情况进行了调研，重点考察了北胡街道办事处标准化黄韭种植示范区、南宫市黄韭种植示范基地。考察过程中，通过观看录像、听取情况介绍、座谈交流、实地查看、现场咨询等形式，了解了邢台市特色农业产业的发展现状及方向，看到了“阳台经济”的光明前景，得到了很多启示。', '为做好“阳台经济”的探索与研究，我局成立了“阳台经济”发展领导小组，以农业农村局主要领导为组长，分管领导为副组长，蔬菜、经作等业务科站专家为成员，主要开展阳台作物在我市的研究试验与示范推广。', '蔬菜、经作等业务科站专门人员制定“阳台经济”试验示范实施方案，以新型农业经营主体为依托，以科技创新为动力，以政产学研企协同协作为路径，建设“阳台经济”试验示范基地。通过盆栽韭菜及盆栽花卉品种摸索和试验示范研究，探索我市“阳台经济”发展模式的可行性。选定滦平县绿康园果蔬专业合作社及承德腾轩园林绿化工程有限公司作为试验示范基地，选定', '个开展花卉等盆栽作物的试验示范。结合阳台产业经济发展特点，我市今年初步确定发展盆栽韭菜、盆栽花卉等盆栽作物。根据蔬菜、花卉等不同作物的生产特性及根系长度，选择不同的生产容器进行栽植。围绕基质栽培、水肥管理、花果管理等开展试验示范研究。在盆栽试验开展过程中，同步加强盆栽作物的示范推广。', '围绕“承德山水”农产品区域公用品牌打造，在试验示范的过程中，同步开展品牌和市场建设，向城市用户宣传阳台园艺的优点，推广栽培管理技术，提升消费者对阳台园艺的市场认知度，让市场等产品。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>将履职答卷写在紫塞大地上十五届市政协常委会年工作综述</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-01-19</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2022%2F1%2F19%2Fart_360_828544.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_828544</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 将履职答卷写在紫塞大地上--十五届市政协常委会2021年工作综述', '刚刚过去的2021年，十五届市政协常委会始终将“为国履职、为民尽责”贯穿于每一次理念提升、每一次履职实践、每一次凝聚共识、每一次守正创新，在紫塞广阔大地上，不忘初心、砥砺奋进，续写出新时代承德政协事业的新篇章。', '这一年，中国共产党迎来百年华诞，党的十九届六中全会胜利召开，习近平总书记亲临承德视察，发表重要讲话，作出重要指示。高质量发展的“生态强市、魅力承德”迎来重大机遇，紫塞大地焕发勃勃生机，承德上下激荡起无穷干劲。', '在中共承德市委的坚强领导下，市政协常委会坚持以习近平新时代中国特色社会主义思想领航定向，从党的百年光辉历程中感悟伟大建党精神，从习近平总书记的深情嘱托中凝聚强大奋进力量，从人民政协伟大事业中涵养不竭动力。三项全局性重点工作特色鲜明，贯穿履职始终。', '围绕深入学习党的十九届六中全会精神，2021年11月15日，市政协党组召开扩大会议暨理论学习中心组学习会议；11月25日，市政协举办常委集体学习暨全市政协系统专题辅导报告会；11月29日，召开县（市、区）政协主席会议；12月10日，举办全市政协系统学习贯彻宣讲报告会……', '围绕深入学习党的十九届六中全会精神，主席带头宣传宣讲，全体市政协委员、市县两级政协干部聆听学习；班子成员示范引领，深入党员（委员）之家宣传宣讲；理论学习中心组集体研讨--市政协引领带动全市政协组织和政协委员，同以习近平同志为核心的党中央保持高度一致，做“两个确立”的忠诚拥护者、“两个维护”的忠实践行者、“红色根脉”的坚定守护者，不断增强政治判断力、政治领悟力、政治执行力，当好政协制度的参与者、实践者、推动者。层层递进、逐步深入，学出坚定的政治方向，让团结奋进成为昂扬主旋律，为建设高质量发展的“生态强市、魅力承德”凝聚共识合力。', '始终沉浸在习近平总书记视察承德的美好场景中，始终沉浸在习近平总书记对承德的关怀厚爱中，市政协常委会欢欣鼓舞、倍感骄傲光荣。', '一次次专题学习，一次次研讨交流，一次次履职实践，市政协常委会坚持把学习贯彻习近平总书记视察承德重要讲话指示精神作为重大政治任务，围绕全市经济社会发展总体目标要求，深入落实“三个植入”，聚焦“三区两城”发展定位、“四个转化”发展路径和“3＋3”主导产业发展，制定贯彻落实习近平总书记重要讲话指示精神《实施意见》，明确10大方面42项具体任务；制定市政协第四季度工作要点和协商民主计划，组织开展“学讲话、抓落实、促发展”主题实践活动，同步推进“五个一”工程，切实把习近平总书记对承德的深情厚爱转化为助推高质量发展的强大力量，以扎实的履职成效感恩习近平总书记、感谢党中央。', '--深入践行习近平总书记关于加强和改进人民政协工作的重要思想，以理论光芒激发奋进力量。', '立足新时代人民政协使命任务，市政协常委会聚焦发挥“重要阵地、重要平台、重要渠道”作用，坚持在继承中发展、在发展中创新、在创新中突破，确定了“凝心聚力、守正创新”工作总基调和“三创、四有、五新”目标要求。只争朝夕、时不我待，主动作为、高效履职，聚焦高质量发展、生态文明建设、重大民生关切、优化发展环境等领域，强力推进“五大工程”，用一个季度时间高质量完成19个协商民主议题，均得到市委市政府主要领导高度评价和肯定性批示，一批建议直接转化为施政举措，一系列行动直接转化为实实在在成果，顺利实现了十五届市政协的良好开局。', '这一年，市政协常委会紧紧围绕坚持党的领导、提案办理质效、服务中心大局、增进人民福祉、落实双向发力、履职能力建设“六个强化”持续发力，以高质高效履职尽责为全市经济社会高质量发展作出政协贡献。', '“党组带头学习、专家深入解读、委办集中研讨、委员互动交流、市县联动落实”，市政协常委会坚持把学习习近平新时代中国特色社会主义思想作为“第一议题”，强力搭建“五位一体”学习新模式，推动党的创新理论走深走实，团结引领各族各界人士一心一意跟党走，推动中央重大决策和省委、市委部署要求落地落实。', '切实把党的领导贯穿政协工作各领域全过程，市政协党组自觉接受市委领导，坚持重要工作、重要事项、重大活动、重大安排主动向市委请示报告。深入实施“党建引领工程”，注重建章立制，圆满完成机关党总支、各党支部和工会、妇委会换届任务，有效发挥专委会功能性支部作用，推动各级党组织规范化标准化建设。认真落实民主生活会、“三会一课”等组织生活制度，切实发挥战斗堡垒作用和先锋模范作用，为更好履职提供坚强组织保障。严格落实全面从严治党政治责任，扎实开展“六治六提”干部队伍作风纪律整顿，全面完成机关党组巡察整改，营造了风清气正的良好政治生态。', '坚持把提案工作作为协商民主的重要载体和生动实践，市政协常委会坚持完善“1＋2＋2＋N”提案办理协商工作机制，取得了党委政府认可、政协委员满意、人民群众赞许的良好效果。', '紧紧围绕贯彻落实习近平总书记视察承德关于社区居家养老重要讲话指示精神，积极回应群众关切、委员关注，将“关于全面提升我市社区和居家养老服务水平的建议”确定为“1号提案”，市政协主席领衔，市政协主席会议督办，通过赴先进地区学习考察、市内实地视察、提案办理协商座谈会，极大地推动了提案成果转化落地，有力推动了我市社区和居家养老服务水平的全面提升。围绕党政所思、群众所盼，从委员提案中遴选26件重点提案和23件民生实事提案，市政协主席会议成员领衔督办，全部提案办复率实现100％，委员满意率达到99.6％。', '“聚焦高质量发展建言出力，紧扣乡村振兴谋策献力，紧盯生态文明建设献计发力，围绕社会治理开方助力”，市政协常委会擦亮专门协商机构“金字招牌”，把党政所想、党政所需、党政所急，转变为政协所议、政协所商、政协所能。', '紧紧围绕贯彻落实习近平总书记视察承德关于推动高质量发展的重要讲话指示精神，促成中国航天科技集团氢能工程研发中心、河北建投集团和市政府三方战略合作，推动我市争列第一批国家级能源研发创新平台、加快清洁能源产业发展取得重大进展。围绕“加快发展楼宇经济，推动城市经济高质量发展”进行深入调研，开展专题协商，形成高质量调研报告，全力推进工作落实。', '紧紧围绕贯彻落实习近平总书记视察双滦区大贵口村关于乡村振兴重要讲话指示精神，按照市委安排部署，先后组织现场调研视察5次、专题协商调度3次，大贵口省级乡村振兴示范区及农业嘉年华项目成功列入省农业农村“十四五”规划，成功创建全省乡村振兴示范区，一大批建设项目相继推进实施。将“建设食用菌强市、带动乡村产业振兴”纳入市政协常委会专题议政，精准提出8方面建议，助力打造全国食用菌强市。就“开展农村土地经营权抵押贷款业务，破解农户融资难题”开展专题调研，就“打造乡村振兴示范样板，助推乡村振兴战略实施”开展专项视察，就少数民族特色村寨建设赴广西、湖南专题学习考察，提出有针对性、可操作的意见建议。', '紧紧围绕贯彻落实习近平总书记视察承德关于生态文明建设重要讲话指示精神，就进一步加强全市森林经营和森林防火工作深入调研，形成《建议》。聚焦创建国家生态文明建设示范市，召开专题协商会议，为我市创建工作提供有价值的参考建议。', '就我市“市域社会治理现代化试点工作”开展专项视察，提出意见建议。就优化我市营商环境，连续三年开展民主监督，深化“办事一次成”改革，推动营商环境创新，助推经济高质量发展。', '始终牢记“江山就是人民、人民就是江山”，市政协常委会坚持深入基层一线走访调研，深入联系群众建言献策，深入服务群众有所作为，持续用力将履职活动向群众延伸、向基层拓展，帮助群众解决急难愁盼问题，在践行初心使命中彰显为民情怀。', '领导班子成员深入县（市、区），走进99家企业和项目建设现场，调研了解情况，协调解决问题，推动经济发展。集体赴承德银行视察调研，了解企业发展情况，共商金融“血脉”支持地方发展之策。赴委员企业调研视察，牵头召开银企对接会，架起金融机构与民营企业联系沟通的桥梁，得到广泛赞誉。', '紧紧围绕贯彻落实习近平总书记以人民为中心的发展思想，就“提高我市农村基层医疗卫生服务能力”进行专题调研，为解决群众“看病难、看病贵”问题建真言；就“儿童青少年近视防控”进行专项视察，为提高儿童青少年视力健康水平献良策。就落实市委市政府主要领导关于加强农村养老服务体系建设的批示意见进行跟踪视察，督促市直有关部门落实到位，有力推动了农村养老问题的解决。', '深入开展“乡村振兴党旗红、政协委员再聚力”主题实践活动，累计协调帮扶资金50.2亿元、帮办惠民实事2588件、帮建项目528个。深化党史学习教育，扎实开展“我为群众办实事”实践活动，帮助委员企业解决发展困难。精准聚焦结对帮扶，为两个帮扶村协调资金900余万元，建蔬菜冷棚140栋，修通村路7.64公里，帮打灌溉机井，着力破解长期制约发展的瓶颈问题，全心全力让两个帮扶村冬闲变冬忙、资源变资产、贫穷变富裕。积极协调“冀海之光书屋”项目落地承德，为隆化和宽城两所小学捐助项目款和书籍合计54.8万元，积极协调省政协项目资金，在隆化县郭家屯镇帮建2个养牛合作社，连续四年为50户脱贫户每年每户发放分红款3000元，累计发放60万元。', '“加强合作共事，扩大社会共识，密切联络联谊，注重文化传承”，市政协常委会坚持大团结大联合，充分发挥政协团结教育引导各族各界代表人士的重要平台作用，为承德高质量发展增助力、聚合力、添动力。', '制定出台《关于进一步发挥市各民主党派、工商联和无党派人士在政协工作中作用的意见》，重要学习、会议、活动均邀请党派团体参加，凝聚广泛共识。', '紧紧围绕贯彻落实习近平总书记视察承德关于民族宗教工作重要讲话指示精神，召开民族宗教界代表人士恳谈会。在各级媒体刊发信息167条，加强宣传思想工作力度，扩大了政协影响力。', '积极推进“双联双促”工程，深化政协系统对内对外开放，加强与各民主党派中央、地方组织和京津冀等地政协组织的联系沟通交流，与有关党派中央、多地政协组织建立了友好合作关系，交流碰撞思想、开展协商互动，学习先进理念、提升履职能力，搭建交流平台、共促高质量发展。', '紧紧围绕贯彻落实习近平总书记视察承德关于文物保护和文化传承重要讲话指示精神，就避暑山庄及其周围寺庙世界文化遗产保护传承利用工作开展专项视察。完成全国政协《“三亲”文库》协作征集任务。征集全市脱贫攻坚和“塞罕坝精神”文史资料70余万字。强力推进民族和清史文化研究中心（承德政协文史馆）品牌建设工程，大力弘扬优秀传统文化。', '“人心齐、泰山移”，市政协常委会始终在做强委员队伍和标准化机关建设上狠下功夫，整体履职能力实现新跨越。', '常态化学习是提升履职能力的“金钥匙”，市政协常委会坚持强化委员培训，引导委员“懂政协、会协商、善议政”；加强委员管理，健全履职制度，完善考核办法，教育委员“守纪律、讲规矩、重品行”。组织机关干部赴塞罕坝机械林场，循着习近平总书记足迹，深入学习感悟塞罕坝精神。制发纪律管理制度，修订干部考核办法，不断提升机关服务委员、服务发展的能力和水平。按照信息化、数字化、智能化要求，完善云视频信息系统，推动“智慧政协”APP全覆盖。深化市县政协联系互动，增强全市政协整体合力。创新建立重要工作情况通报制度，把握党政关切，总结政协工作，学习交流借鉴，推进更好履职。', '“奋斗路正长，行者方致远”，面对2022年新征程，市政协常委会将始终锚定功崇唯志、业广唯勤，不断开辟干在实处、走在前列、勇立潮头的新境界，以更好履职业绩昂首阔步迎接党的二十大胜利召开！']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>我市用心用情用力解决市场主体和办事群众烦心事</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2021-11-28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2021%2F11%2F28%2Fart_360_812116.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_812116</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['本网讯（记者关秋实）我市认真开展党史学习教育，各县（市、区）各相关单位立足本职岗位扎实开展“我为群众办实事”实践活动，用心用情用力解决市场主体和办事群众的烦心事，成效明显。', '着力保障民生需求办实事。市行政审批局主要承担市重点民生工程的第十八项，即“村（社区）综合服务站提升”工作。该局压实主体责任，制定印发《全面加强村（社区）综合服务站建设工作方案》，成立工作专班，组织参观学习考察，多次召开专题工作会议安排部署，层层压实责任，采取周调度、月排名的方式，确保各项工作稳步有序开展。对全市进行3轮次的摸排，走访300余个村和社区，全面准确掌握了我市村（社区）综合服务站建设场地场所、人员力量、内外实景、软硬件设施等现状，做到建设情况心中有数。在全面实现2657个村（社区）综合服务站标准化的基础上，高规格打造标杆站，重点扶持优秀站，全覆盖建立标准站，共打造117个标杆站、290个优秀站，实现了建设标准再提高、规范程度再提升、服务能力再加强。', '深化改革便民利民办实事。持续深化“承德办事一次成”改革，不断提升人民群众的满意度获得感。推行“六全”服务模式，服务全进入，43项服务事项全部纳入政务服务中心办理；窗口全功能，17个全功能窗口实行前台一窗受理、后台分类办理、统一窗口出件；流程全优化，具备“办事一次成”事项比率达93％以上；代办全覆盖，对政务服务事项实行全程无偿代办服务，领办代办服务2500余人次；首办全负责，首位受理事项的工作人员为首办责任人，全程办理或盯办；邮寄全推行，对法律法规允许、申请人同意的文件资料通过邮寄的方式送达，免费邮寄服务1499人次。推行“六办”工作法，紧急事项“即时办”、一般事项“网上办”、到期证照“延期办”、特殊事项“容缺办”、现场勘验“远程办”、现场受理“全代办”，极大地方便了企业和群众办事。推行“承德办事网上行”，持续完善提升智慧政务、“满意承德”等政务服务平台功能，目前可通过全流程网上办理事项占全局事项的75.2％。', '创新机制服务企业办实事，充分发挥企业发展服务中心桥梁纽带作用，助力企业健康快速发展。完善“中心吹哨、部门报到”工作机制，建立企业一般性问题、部门交叉性问题、重大复杂性问题三级问题限时办理机制，解决企业问题924个。优化政府工作服务站设置。设立政府工作服务站7891家，派驻政府服务代表1509名，服务全市2.76万家企业，累计受理解决企业反映各类问题2341件。升级“承心办”企业发展服务平台功能，完善网络平台政策发布、诉求办理、服务推送、问题反馈等，共注册企业30911家，推送惠企政策23万余条，办理企业诉求问题1023件。开展部门联动助企活动，联动开展政企交流、银企对接、校企联合等活动30余场，为35家企业所需的500余个岗位进行招聘，助力12家中小微企业申请贷款1000余万元。探索提供园区“保姆式服务”，试点建立“开发区＋县企业发展服务中心＋政务服务代表工作”模式，为初创企业公共实训、创业孵化工作提供必需的集中性创业接待等服务。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2021-09-14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2021%2F9%2F14%2Fart_360_794207.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_794207</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['本网讯（记者武海波）9月13日，市委常委会召开扩大会议，传达学习贯彻习近平总书记在中央党校（国家行政学院）中青年干部培训班开班式上的重要讲话、在中国国际服务贸易交易会全球服务贸易峰会上的视频致辞、在《求是》杂志发表的重要文章和给全国高校黄大年式教师团队代表的回信精神，研究我市贯彻落实意见。会议深入学习贯彻省委、省政府《关于深入学习贯彻习近平总书记在承德考察时重要讲话精神奋力开创全省经济社会高质量发展新局面的意见》和河北省党政代表团赴北京学习考察工作交流座谈会会议精神，安排部署相关工作。市委书记董晓宇主持并讲话。', '会议指出，习近平总书记近期的系列重要讲话，高屋建瓴，总揽全局，思想深邃，内涵丰富，为我们做好各项工作指明了前进方向、提供了根本遵循。要将学习贯彻习近平总书记重要讲话精神，同学习贯彻习近平总书记“七一”重要讲话精神结合起来，同学习贯彻习近平总书记视察承德重要讲话指示精神结合起来，认真学、深入思、努力悟、切实行。要在伟大建党精神中汲取智慧力量，大力弘扬塞罕坝精神，把握工作重点，狠抓工作落实，在开启建设高质量发展的“生态强市、魅力承德”新征程中奋勇争先、建功立业。', '会议强调，要深入学习领会省委、省政府《意见》，站在政治和全局的高度认真抓好落实。要全面对标对表《意见》，逐项分解30项具体任务，与市委十五届二次全会通过的《决议》《意见》同安排、同部署、同落实。要坚持全市上下一盘棋，强化配合，协调联动，形成合力，确保习近平总书记重要讲话指示精神在承德落地落实、开花结果。', '会议要求，要认真贯彻河北省党政代表团赴北京学习考察工作交流座谈会会议精神，在服务北京、对接北京中推动承德高质量发展。要借助北京证券交易所成立契机，加快推动企业上市步伐。要持续深化高水平开放，着力营造一流营商环境，抢抓京津冀协同发展重大机遇，推动产业、交通、生态等重点领域合作取得新突破。', '会议强调，要全面落实省妇联十四届四次执委会会议精神，推动妇女事业与经济社会同步发展。要认真抓好承德市十七届妇女代表大会筹备工作，选优配强班子成员，把妇联组织建设得更加充满活力、坚强有力。要鼓励支持广大妇女投身创新创业实践、融入乡村振兴战略，打造更多特色亮点，推动全市妇联工作走在全省前列。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>政协承德市第十四届委员会常务委员会工作报告摘要</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2021%2F1%2F26%2Fart_360_682441.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_682441</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2020年是新中国历史上极不平凡的一年，在以习近平同志为核心的党中央英明领导下，万众一心、众志成城，疫情防控取得重大战略成果，“十三五”规划圆满收官，脱贫攻坚任务如期完成，全面建成小康社会取得伟大历史性成就。市政协常委会坚持以习近平新时代中国特色社会主义思想定向领航，全面贯彻落实党中央决策部署和省委、市委要求，团结带领全市政协组织、党派团体和各族各界人士，认真履行职责，广聚共识力量，积极担当作为，战疫情、助脱贫、促发展、惠民生，为推动全面建设新时代生态强市、魅力承德作出了新贡献。', '认真学习宣传贯彻中共十九届五中全会精神，凝心聚力奋进新征程。注重统筹推动、深入学习宣讲，把学习宣传五中全会精神作为首要政治任务，与宣传贯彻省市委全会精神融会贯通，举办6场专题报告会、860余人参加。深化学习讨论、广聚共识力量，深入开展“学习宣传贯彻党的十九届五中全会精神，共谋高铁时代高质量发展大讨论”活动，全市政协委员和机关干部1020余人次参加，梳理归纳建议60余条。紧密联系实际、提升学习实效，把学习宣传贯彻全会精神与履职工作紧密结合，紧扣“三区一城”发展定位和“1266”发展战略，聚焦“十四五”高质量发展开好局，走好生态优先、绿色发展之路，深入调研，建言献策。', '深入贯彻落实中央和省市委政协工作会议精神，推动新时代政协事业创新发展。强化思想政治引领，牢固树立人民政协是政治组织的鲜明政治属性，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”，筑牢思想政治根基。强化党的全面领导，制发《关于进一步做好向市委请示报告工作的实施意见》，举办庆祝市政协成立70周年座谈会，对新时代政协工作提出新要求。强化创新理论武装，将人民政协创新理论纳入各级党校（行政学院）干部教育培训计划。强化政协党建工作，报批成立了市政协机关党组，组建了20个专委会和界别功能性党支部，深化“五个一”制度和“三带”机制，落实党员委员双重组织生活制度等制度，创建28家“党员（委员）之家”。强化协商民主建设，充分发挥协商主渠道作用，探索创新协商载体、平台和机制，8月末实现网络视频系统与全国政协、省政协和县（市、区）政协并网运行。着力破解“两个薄弱”问题，报请市委批转《关于在乡镇（街道）设立委员服务召集人制度的实施意见》，在全省率先落实兼职委员服务召集人208名、政协联络员212名，补齐基层短板。', '广泛汇聚政协力量战疫情、促发展，助力“双战双赢”。敏锐反应，增强政治站位，面对突发新冠肺炎疫情，把疫情防控作为首要政治任务，义无反顾投身疫情防控阻击战。迅速行动，同心聚力战疫，全市123名医药界委员坚守救治一线，部分委员医护工作者应召逆行驰援武汉。牵头协调联系海外侨胞捐助紧缺医疗防护物资，动员全市政协系统共捐款捐物5437万元。发挥优势，助力复工复产，先后3次召开动员会、落实“六稳、六保”任务汇报会和重点工作推进会，引导委员企业克服困难复工复产复商复市。搭建疫情防控提案绿色通道，报送专报2期、社情民意信息3件、提案47件。积极倡导，引领社会风尚，先后制发《关于坚决打赢疫情防控阻击战的倡议书》、《关于禁止非法野生动物交易和革除滥食野生动物陋习的倡议书》、《坚决制止餐饮浪费行为的倡议书》，引导委员积极投身防疫抗疫行动，带头践行绿色发展理念，倡导健康生活方式，展现委员良好形象。', '聚焦“十四五”规划编制，建言资政展现新担当。广泛发动、广开言路，组织开展“聚焦‘十四五’、委员献良策”活动，开展专题调研12项，召开情况通报会、专题座谈会20余场次，提出意见建议346条。专题议政、深入协商，召开常委会第22次会议，就编制“十四五”规划进行专题协商议政，委员提交大会建言成果21件，绝大部分建议在编制的“十四五”规划纲要中被采纳。', '突出主责主业，深化协商民主取得新成效。紧扣京津冀水源涵养功能区、生态环境支撑区和国家可持续发展议程创新示范区建设，持续用力、精准建言；围绕编制好我市“十四五”规划、加强诚信体系建设优化营商环境进行2次常委会专题议政；围绕繁荣城市夜经济推动文化旅游产业高质量发展、加强历史文化名城保护利用等开展4次季度协商、6次对口协商和界别协商；围绕推动钒钛新材料产业绿色化高端化发展、加快发展天然矿泉水山泉水产业。做深做实提案办理协商，将“以建设国家可持续发展议程创新示范区为契机，推动全市创新驱动发展”列为1号提案，深入研究对策、提出建议；着力抓好26件重点提案和25件实事提案，倾心助力解决百姓揪心事、烦心事和社会热点难点问题。着力提升民主监督实效，一年来，围绕助推“承德办事不用跑”改革、优化营商环境、提升城市管理水平等，开展了6次专项民主监督活动。强化制度机制保障，制定《关于建立协商民主质量评价体系的暂行办法》和《政协协商成果督办转化落实工作的办法（试行）》，推动协商成果真正起作用，能落地、见成效。', '深化双向发力，广聚共识合力得到新加强。积极搭建载体平台凝聚共识，在全省率先制发《关于建立界别代表人士恳谈会（圆桌会）双向发力平台机制的暂行办法》，召开4次恳谈会，坦诚协商、增进共识、建言献策。发挥委员主体作用汇聚共识，建立健全情况通报制度，创造条件让委员发声、为百姓代言。加强合作共事增进共识，落实市政协领导班子成员联系县（市、区）政协、党派团体和无党派人士制度，落实民主党派在政协发表意见建议机制。面向社会各界扩大共识。认真宣传贯彻党的民族宗教政策，加强与港澳台侨界委员的联络联谊。', '深入开展“四引四帮”，聚力脱贫攻坚展现新作为。适时召开工作推进会议，突出“八帮、五送”，精准帮扶、精准发力，助推乡村振兴。一年来，新引进绿色项目37项，引进各类发展资金25.6亿元，引进中高端人才78名，引进科技成果41项，帮建脱贫项目238个，帮办惠民实事1870件，帮扶困难家庭1.02万户，帮助困难学生9500人次，捐款捐物总额1265万元。', '突出能力培养，委员主体作用得到新提升。强化学习教育，筑牢思想政治根基，大兴读书活动，提高素质能力，常态化办好“政协大讲堂”，举办省市政协系统视频学习会议5次，参加学习2380余人次。创新培训方式，分两批组织110名政协常委和县（市、区）政协领导干部，赴井冈山、延安举办“不忘初心、牢记使命”主题教育暨委员履职能力提升培训班。强化服务管理，提升履职活力，认真落实《委员履职工作规则》，出台《委员管理办法》。大力褒奖优秀政协委员、优秀提案、“四引四帮”优秀单位和个人，激发内生动力。', '加强自身建设，政协工作展现新风貌。严格纪律作风建设，深入落实全面从严治党主体责任，严格执行中央八项规定精神及其实施细则和省市有关规定。严格依法依章履职，带头学习《中华人民共和国宪法》、《中华人民共和国民法典》等法律法规知识，积极推动普法宣传，提高依法履职能力。加强制度机制建设，对标中央和省市委政协工作会议的新部署新要求，压实工作责任，确保落地见效。修订完善和新制定8个方面18项制度机制，不断提升履职规范化水平。注重发挥整体优势。主动对接全国政协和省政协工作，拓展与京津有关区县政协的协同合作。', '2021年是“十四五”开局之年，是中国共产党成立100周年，是开启建设社会主义现代化国家新征程具有特殊意义的一年。市政协常委会要始终坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实中共十九大和十九届二中、三中、四中、五中全会精神，全面贯彻落实中央政协工作部署和省委、省政协及市委要求，围绕进入新发展阶段、贯彻新发展理念、构建新发展格局，切实肩负起把党中央决策部署和省市委要求落实下去、把各方面智慧和力量凝聚起来的政治责任，坚持统筹疫情防控和经济社会发展，紧扣中心大局和提升民生福祉，坚持发扬民主和增进团结相互贯通、建言资政和凝聚共识双向发力，认真履职尽责，积极担当作为，为“十四五”高质量发展开好局，全面建设新时代生态强市、魅力承德作出新贡献，以优异成绩庆祝中国共产党成立100周年。', '进一步强化理论武装，推动思想政治根基更坚实。深入学习贯彻党的十九届五中全会精神，及时跟进学习习近平总书记最新重要讲话和对河北对承德重要指示批示精神，与学习贯彻中央政协工作会议、经济工作会议、农村工作会议精神等紧密结合起来。持续深化习近平总书记关于加强和改进人民政协工作的重要思想学习研讨活动，把学习重心体现在抓落地见实效上。巩固深化主题教育成果，坚持中国特色社会主义制度，坚定走中国特色社会主义道路不动摇，切实筑牢共同团结奋斗的思想政治基础。', '全面加强党的领导，推动党建引领更有力。切实强化政治建设，严格落实中共中央《关于加强党的政治建设的意见》，把做到“两个维护”作为最根本的政治纪律和政治规矩。持续深化党建工作，健全界别和专委会功能性党支部、党员委员活动小组、党员委员双重组织生活等制度，充分运用“党员（委员）之家”平台，深化“五个一”和“三带”机制，与“五携手”机制有机融合，更好地推动党的建设和党的工作向基层延伸、向委员覆盖。严格落实全面从严治党要求，进一步强化主体责任和“一岗双责”，落实意识形态工作责任制，严格执行中央八项规定及其实施细则精神和省市有关规定，坚决反对“四风”，打造政治、纪律、素质、能力、作风全面过硬的“两支队伍”。', '发挥政协独特优势，推进协商民主更深入。推进协商形式更多样，进一步强化协商意识，更高质量开好政协全会、专题议政性常委会、季度协商会，搭建用好“智慧政协”信息化协商履职平台，拓展“掌上协商、网络议政”。推进协商更接地气，聚焦民生热点、社区和谐、乡村振兴，在全市普遍推开基层协商民主议政会、社区居民治理恳谈会机制。推进提案协商更扎实，加强提案信息化建设，推动提案内容网上公开、办理转化落实情况公开。完善提案办理协商工作体系，将“关于推动建设食用菌强市，带动乡村产业振兴的建议”作为1号提案，持续用力抓好20件重点提案和20件实事提案。推进民主监督更有效，认真落实《关于加强和改进政协民主监督工作的实施办法》，健全会议协商监督、委员视察监督、提案办理监督、专项监督及其他形式监督，聚焦党政重大关切，精准确定监督课题，发挥委员主体作用。', '倾力服务中心大局，推动政协履职更高效。聚焦大事要事议政，把贯彻新发展理念、构建新发展格局、推动实施“十四五”规划开好局作为着力点，就大事要事进行常委会专题议政。紧扣重点难点建言，围绕加强农村养老服务体系建设、抢抓高铁机遇助推楼宇经济发展、争创国家生态文明建设示范市等议题深入调研、开展季度协商；围绕“推动全国电子商务进农村综合示范县建设”、“打造乡村振兴示范样板，助推乡村振兴战略实施”和“贯彻落实《宗教团体管理办法》，加强我市爱国宗教团体建设”开展专项视察，提出建议。持续开展“四引四帮”，继续在引项目、引资金、引科技、引智力上下足功夫，在兴产业、强基础、补短板、增内力上精准发力。创新开展主题实践，在全市政协系统开展好“同心抗疫情、合力促发展”活动，主动作为、务求实效。', '抓牢做实中心环节，推动双向发力更精准。加强学习引领深化共识，充分发挥委员宣讲团作用，多维度宽领域宣讲创新理论、解读政策举措，有力有序地把党的主张转化为各党派团体、各族各界人士的共识和行动。深化平台机制广聚共识，围绕“依法经营和保护企业家权益”、“儿童青少年近视防控”、“庆祝建党100周年、铸牢中华民族共同体意识”、“提高物业公司管理水平，提升社区治理能力”，广泛听取意见，建言献策。密切团结联谊凝聚共识，加强与党派团体的联系沟通和工作联动机制，认真宣传贯彻党的民族宗教政策，促进民族和谐、宗教和睦。', '进一步转作风树形象，推动履职工作更扎实。加强委员履职能力建设，深入推进委员读书活动，创造条件让更多基层委员参与政协视察调研、民主监督、外出学习考察等活动。完善工作制度体系，研究制定支持民主党派和无党派人士在政协更好发挥作用的意见、党员常委履职点评工作办法、网络议政远程协商工作规程、推动基层协商民主等制度。提升整体履职效能，密切与全国政协、省政协的对口联系，增进与京津冀区域政协组织沟通互动，加强对基层政协的联系和指导。切实强化作风建设，进一步加强和改进调研方式方法，提高调研真实性和针对性。大力培育积极向上的机关文化，打造风清气正的政协履职生态。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市政府代表团赴北京市通州区学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2020-12-14</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2020%2F12%2F14%2Fart_360_672165.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_672165</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰）12月11日，市长常丽虹率承德市政府代表团赴北京市通州区学习考察。通州区委书记曾赞荣，承德市市长常丽虹出席座谈会并讲话。通州区委常委、副区长郑皓主持，承德市副市长刘宏伟出席。', '代表团一行先后实地观摩了城市副中心规划展览厅、通州运河商务区（光大中心），并前往通州公安分局和区城市管理指挥中心，详细了解通州区雪亮工程平台和城市管理指挥中心运行情况。代表团成员一致认为，通州区在推进国土空间规划、城市建设、城市管理和基础设施建设等方面创造了一系列好经验、好做法，特别是城市副中心规划建设的理念和标准，对于我市高标准编制好“十四五”规划和国土空间规划具有非常强的启发意义。', '座谈会上，郑皓、刘宏伟分别介绍了通州区城市副中心规划建设和我市国土空间规划情况。与会同志就城市规划与设计、城市管理、道路交通、文物古迹的保护开发利用和污水处理等工作进行了深入交流。', '曾赞荣对承德市政府代表团的到来表示热烈欢迎。他说，规划建设北京城市副中心是以习近平同志为核心的党中央作出的重大决策部署，是疏解北京非首都功能、推动京津冀协同发展的重大战略举措。希望通州区和承德市加强沟通对接，在文化旅游、绿色食品、新型建材等产业上全面加强合作，携手共促两地创新发展、绿色发展、高质量发展。', '常丽虹高度赞扬了通州区在推动北京城市副中心规划建设等方面取得的显著成绩和宝贵经验。她说，通州区坚持世界眼光、国际标准、中国特色、高点定位，以创造历史、追求艺术的精神来规划设计建设城市副中心，取得了令人震撼和感动的巨大成就，让我们备受鼓舞和激励，是我们学习的榜样。', '常丽虹表示，此次来通州区悉心求教，既是一次学习之旅、一次取经之旅、一次拜师之旅，也是一次合作之旅。近年来，承德市认真学习贯彻习近平总书记重要指示精神，借力京津冀协同发展、雄安新区规划建设和北京冬奥会筹办，积极抢抓京沈高铁全线贯通等重大机遇，奋力夺取脱贫攻坚战全面胜利，加快发展“3+3”绿色主导产业，切实履行首都“两区”建设重大政治之责、发展之责和民生之责。希望两地建立更加密切的沟通协调机制，强化文化旅游医疗康养、绿色食品、新型建材等产业精准对接，加强在人才、项目和重大科技成果转化等方面交流合作，推动实现更广领域、更高水平的共赢发展。', '双桥区政府、双滦区政府、承德高新区管委会、市自然资源和规划局、市住建局、市城管局、市交通局主要负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>崔万峰副市长带队赴山东考察对接互联网项目</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021-03-10</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2021%2F3%2F10%2Fart_9945_688219.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_688219</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['为了推动巴龙央联万贸、河姆渡工业互联网项目尽快落地运营，3月3日到3月7日，崔万峰副市长率市商务局、市工信局、市市场监管局、市教育局、高新区招商局、市供销集团等部门主要和分管负责同志一行11人，赴山东聊城、青岛进行考察对接。同时就提升农村电商工作能级，考察了沧州肃宁淘宝村（镇）发展情况。', '考察团先后深入聊城河姆渡工业互联网有限公司、青岛保税港区国际冷链物流交易中心、青岛保税港区国际商品展示交易中心、巴龙集团青岛总部，沧州市肃宁县科创中心（淘宝博物馆）、乐海乐器、万里镇源发针织产业园、青鲟至尊、西乾泊村电商服务中心、创创云商小镇等10个考察点，并与当地政府和企业负责同志及电商达人进行了深入座谈交流，在巴龙集团青岛总部召开了调度会，双方在项目落地、平台建设、产业协作、外贸进出口等方面深度探讨，初步达成了7项合作共识。', '考察团先后深入聊城河姆渡工业互联网有限公司、青岛保税港区国际冷链物流交易中心、青岛保税港区国际商品展示交易中心、巴龙集团青岛总部，沧州市肃宁县科创中心（淘宝博物馆）、乐海乐器、万里镇源发针织产业园、青鲟至尊、西乾泊村电商服务中心、创创云商小镇等', '考察学习中，考察团成员每到一处都仔细看、认真听，与当地干部群众交流经验思路，详细询问项目落地流程、合作机制、运行过程中出现的困难和问题如何解决。大家一致认为，本次考察所到之地思想理念新、目标定位高、工作格局大、发展变化快，通过学习，开阔了眼界、学到了经验、取得了真经。崔万峰表示，此次考察学习不虚此行，通过实地考察巴龙集团，感受到企业的实力和情怀，更加坚定了我市与其深度合作的信心和决心；看到聊城和肃宁镇发展数字经济、农村电商后带来的翻天覆地的变化，深刻感受到干群一心的精气神，很受冲击和启发。崔万峰对下一步工作提出了具体要求，他指出要以此次考察为契机，把学习考察成果具体落实到工作和创新实践中去，坚持见贤思齐，认真学习借鉴，进一步解放思想，突出在发展农村电商方面注重与乡村振兴结合、提档升级；在发展工业互联网、对外贸易方面加强系统谋划、注重顶层设计，不断推进各项工作创新；在落实好巴龙集团落地方面要抓住机遇、主动对接、', '做好全方位服务，借助巴龙央联万贸的广阔平台，把我市的资源变成产品走出承德，为承德市转型发展、创新发展赋能。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>政协承德市第十四届委员会常务委员会提案工作情况报告摘要</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2021%2F1%2F26%2Fart_360_682436.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_682436</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 政协承德市第十四届委员会常务委员会提案工作情况报告（摘要）', '市政协十四届四次会议以来，市政协提案委员会共征集提案439件，经审查立案373件，其中，集体提案37件、委员提案336件。提案议题广泛，内容丰富，研究深入，具有很强的针对性。提案交由65家承办单位办理，全部按规定时间办复。所提问题已经解决或基本解决的205件，正在解决或列入计划解决的136件，因受条件限制或其他原因以后研究解决的32件。', '市委市政府对提案办理工作高度重视，省人大常委会副主任、市委书记周仲明，市长常丽虹同志签批重点提案25件，并首次领办重点提案。其他市级党政领导批办、领办重点提案15件。各承办单位主要负责同志认真把关，部门责任到人，有力促进提案工作任务的落实。', '——围绕统筹推进疫情防控和经济社会发展、强化公共卫生服务、完善重大疫情防控救治体系、推动复工复产复学提出提案58件。《关于疫情对中小型民营企业的影响及建议》等提案精准反映了中小企业在疫情防控和复工复产面临的双重压力，市政府在统筹疫情防控和推进企业复工复产中充分考虑企业的困难，在实施领导、部门包联企业、协调解决困难的同时，实施减租、免息、降税等扶持政策，为中小企业发展提供了空间。“关于做好全市疫情防控，完善应急储备机制，确保全市人民安全健康”方面的多件提案，都得到了市疫情防控办公室认真研究、办理、落实。', '——围绕贯彻新发展理念、产业转型升级、发展绿色产业、加快科技创新提出提案74件。《关于以建设国家可持续发展议程创新示范区为契机，推动全市创新驱动发展的建议》，抓住了事关我市长远发展的重大问题，省人大常委会副主任、市委书记周仲明，市长常丽虹等市委市政府领导分别作出重要批示。市政协将此建议作为2020年1号提案重点协商。《关于银企有效对接，服务实体经济发展的建议》《关于支持小微企业稳步发展的建议》等提案，从政策支持、拓展融资渠道、优化营商环境、服务企业发展等方面提出建议，市金融、财政、企业发展服务中心等部门分别制定出台了支持企业健康发展15条、金融支持实体经济10条等31个政策文件，建立2亿元企业纾困基金，为89家企业倒贷21亿元，争取抗疫特别国债等支持性资金263.8亿元。', '——围绕加快法治承德建设、加强和创新社会治理、提升全民素质、创建文明城市提出提案19件。《关于切实提升市民素质，大力推动我市文明城市创建的建议》，市委宣传部将委员建议落实到创建文明城市具体工作之中，取得显著成效。《关于加强公益普法宣传，助力法治承德建设》的提案，市司法局制定了《承德市全媒体公益普法制度》，将公益普法纳入各县（市、区）和市直部门法治建设考核和检查验收内容，全民法治意识明显提升。', '——围绕繁荣发展社会主义文艺、做大做强做优文化旅游产业、完善城乡公共文化服务体系、弘扬历史文化提出提案52件。《关于以“出作品、出人才”为统领，大力加强我市文艺创作队伍建设的建议》，得到有关部门的高度重视和认真落实。《关于突出旅游资源优势，推进全域旅游城市建设的建议》，市政府按照全域布局、全景覆盖的要求，坚持“多规合一”，用全域旅游统领交通、土地、城乡发展等各项规划，实现旅游设施、要素、功能在空间上的合理布局和优化配置。', '——围绕精准扶贫脱贫、办好人民满意的教育、提升社会保障水平、增强民生福祉提出提案196件。《关于巩固脱贫成果，防止因病、因灾返贫的建议》《加强农村产业谋划，提升精准扶贫质量》等提案，为我市进一步完善精准扶贫政策措施、强化脱贫攻坚保障机制，更好实施乡村振兴战略提供了重要参考。中心城区交通拥堵问题，多年来委员持续建言，市公安局、市住建局、市交通运输局、市城市综合管理执法局等单位认真研究，逐项落实。会龙山至承德东连接线等市区道路建设分批开工，凤凰山大桥改造、桃李街北口过街天桥等项工程相继完工，投入使用，有凤来仪大桥正式开通。', '——围绕打好污染防治攻坚战、健全生态环境保护制度、农村环境综合治理提出提案32件。《关于建设国家公园，构造京津冀生态安全屏障的建议》，市政府在制定《承德市自然保护地整合优化方案》中予以采纳，市林业和草原局依托塞罕坝国家级自然保护区、御道口省级自然保护区等自然保护地积极做好国家公园申报工作。《关于加强基层生态环境机构建设，提升基层管理能力的几点建议》，市生态环境局按照省、市政府《深化生态环境保护综合行政执法改革实施方案》的安排部署，狠抓落实，我市生态环境管理能力显著提升。', '一年来，市政协常委会按照十四届四次会议确定的工作任务，把提案作为政协履行职能的重要方式，在继承中发展，在发展中创新，提案工作进入了新的发展阶段。', '强化质量意识，提高建言资政水平。积极引导广大政协委员紧紧围绕党委政府中心工作和人民群众普遍关切的问题，加强调查研究，广泛听取意见，提出立意高、分析透、建议实的精品提案。拓展委员知情渠道，通过政协大讲堂、会议、考察等各种形式开展“知情明政”活动，为委员撰写提案服务。加强与各民主党派、工商联、人民团体的协商交流，通过选题引导，突出优势特色，做好重点提案和集体提案征集工作。政协各专门委员会、界别小组充分发挥专业优势，积极提出高质量的集体提案。严格立案标准，坚持“宽进严出”的原则，加大提案“并、转”力度，共并转提案64件，立案率同比下降15%。', '强化重点督办，带动提案办理质量整体提升。坚持完善“1+2+2+N”提案协商办理工作机制，确定1号提案和双20提案交有关单位重点办理，取得明显成效。围绕1号提案办理落实，召开主席会议，进行专题协商。组织政协委员、提案者和承办单位负责同志赴深圳、郴州等地进行学习考察，向市委市政府提交了《关于1号提案学习考察情况的报告》，省人大常委会副主任、市委书记周仲明，市长常丽虹同志分别作出重要批示，副市长郭士刚同志主持召开专题会议，研究落实领导批示精神和市政协的意见建议。围绕新冠肺炎疫情防控方面意见建议的落实，市政协两次召开专题座谈会，刘文勤主席亲自带队深入社区，现场督办指导。各位副主席对双20提案进行分工督办，主持办理协商会，并深入科研院校、工厂车间、居民社区进行现场调研和督办，倾听群众意见，了解第一手情况，有力地推动了提案的办理落实。', '强化双向发力，深化提案办理协商实效。围绕《关于编制“十四五”规划的建议》《关于加强社会诚信体系建设的建议》等重点提案办理，相关专委会分别开展调查研究，通过常委会专题议政、季度协商、对口协商等不同形式深化意见建议落实。提案委员会联合有关专委会协同市委市政府“两办”多次组织召开重点提案督办落实会议，围绕委员不满意以及难解决、有争议的问题，加强沟通协商，让提办双方当面交流、化解分歧、达成共识。针对人民群众普遍关注的热点难点问题，与我市多部门组织开展提案办理协商活动10余次，邀请提案者、政协委员及有关专家参与，在更大范围坦诚交流互动，从更深层次提出意见建议，相关部门在提案办理中积极采纳，在广泛协商中增进了各方共识，使双向发力落到了实处。', '强化制度机制建设，不断提高规范化水平。认真落实中共中央、全国政协、省政协关于加强人民政协提案工作精神和市委市政府办公室《承德市政协提案办理工作实施细则》，制定了《承德市政协提案审查细则》等4项工作制度，优化提升提案信息化质量。表彰优秀提案94件，先进承办单位37个。通过报刊、电视和网络等媒体加强提案工作的宣传报道，扩大提案工作社会影响力。', '2021年是全面落实党的十九届五中全会，省委九届十一次、十二次全会，市委十四届八次、九次全会精神的关键之年，也是实施“十四五”规划的开局之年。市政协提案工作要坚持以习近平新时代中国特色社会主义思想为指导，紧扣我市工作大局，突出提案针对性、有效性，注重提案办理协商，强化提案民主监督，规范、务实、高效地推进提案工作深入发展。', '——以服务大局为导向，打造提案优质品牌。市委十四届八次全会对新时代承德加快“生态强市、魅力承德”建设作出了安排部署，开启了实施“十四五”规划的新征程，更加明确了“三区一城”的发展定位，这既是全市人民的共同使命，更是政协委员的履职责任。全体政协委员要围绕“三区一城”建设、构建现代产业体系、实施乡村振兴战略、推进治理体系和治理能力现代化建设等重要问题深入调查研究，提出一批对党委政府决策有重要参考价值的高质量提案。', '——以办理协商为载体，增强提案工作实效。要切实将协商民主贯穿于提案办理的全过程，在办理中协商、在协商中落实。强化选题协商，聚焦中心工作和重要问题，为提高协商质效奠定基础；强化立案协商，落实《提案审查工作细则》，协同市委市政府“两办”、市直承办部门共同审查立案；强化交办协商，进一步健全党委、政府、政协三方沟通协调机制，及时准确交办；强化办理协商，在承办单位与提案者之间搭建协商平台，拓宽协商渠道，增进共识、形成合力；强化督办协商，坚持、完善、创新行之有效的督办方式，彻底改变“重答复、轻落实”现象，提高办理质量。', '——以优化服务为手段，增强提案工作合力。不断巩固发展党委政府重视、承办单位支持、社会各界关注、政协委员全员参与的提案工作大格局。努力提升政协委员、各参加单位、政协各部门提案履职的责任心和积极性，形成提案工作合力。充分发挥提案部门桥梁纽带作用，搭建提案征集、协商交流、咨询服务平台。密切与政协各参加单位沟通协作，完善提案工作机制。', '——以自身建设为保障，为提案高质量发展提供坚强支撑。按照“懂政协、会协商、善议政、守纪律、讲规矩、重品行”的要求，进一步加强提案工作队伍建设。通过回顾总结市政协提案工作70年的发展历程，召开全市提案工作座谈会，修订完善相关制度，将成熟有效的经验做法上升为制度规范，不断提高提案工作的制度化、规范化、程序化水平，为提案工作深入发展奠定基础。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>市发改委扎实开展高铁时代高质量发展大讨论活动</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2020-11-27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2020%2F11%2F27%2Fart_9944_668028.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_668028</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['市委十四届八次全会结束后，市发改委迅速行动，第一时间召开党组会议，传达学习了中央和省、市委全会精神，对如何更好开展大讨论活动进行研究。11月17日，市发改委召开党组理论学习中心组（扩大）学习会议和“深入学习贯彻党的十九届五中全会精神，共谋高铁时代高质量发展”大讨论活动动员会议，宣传学习全会精神，全面动员部署大讨论活动。', '围绕市委活动方案确定的“六个方面”的研讨任务，立足发改职能和工作实际，市发改委提出了“一三四二五”的研讨思路，推进活动深入实施，既落实市委要求部署，又体现发改特色。', '就是如何抢抓机遇，发挥好发改部门规划、参谋、协调三项职能，在重大规划编制争列、重大政策研究实施和重大机制推动落实上实现突破；', '就是如何抢抓机遇，在“经济运行调控、产业优化调整、重点项目建设、京津冀协同发展”等重点工作上有新的创新作为；', '就是如何抢抓机遇，实现“两个强化”目标，即：强化协调外联、对接跑办能力建设，强化领导班子和干部队伍建设；', '就是如何抢抓机遇，达到“五项标准”，即：稳中求进讲方法、好中求快见实效、干在实处显态度、走在前列有追求、不出问题守底线。', '市发改委将此次大讨论活动分为“组织动员、制定方案，学习研讨、广泛交流，对照检查、整改提高，总结成果、建章立制”四个步骤，强调通过“六查六看”行动，以查促改，以改促进，推动大讨论活动取得实效，最终实现', '的具体成果，即：组织一次“我为抢抓高铁新机遇，高质量发展献一策”活动，每名党员干部发言献策，学习交流，营造大讨论的浓厚舆论氛围；开展一次“两新一重”项目谋划业务培训会，聘请权威专家进行讲解；组织一次党员干部赴高铁商圈实地学习考察活动；撰写一篇心得体会；编制一个高质量的“高铁规划”；紧密结合国家、省、市相关政策的落地，认真研判，超前跟进，结合发改工作实际做出一批制度性安排；形成一份有价值、有分量的研究报告。', '市发改委将以此次大讨论活动为契机，深入学习研究，积极抢抓高铁时代发展机遇，最大程度的争取“高铁红利”，做足“高铁文章”助推承德高质量发展。', '以与北京同城化发展为目标，高标准打造高铁商圈，高品质建设中心城市，高质量推动城乡统筹发展，积极完善城市功能，建设宜居宜业宜游新环境；', '以优化区域经济发展布局为引领，强化顶层设计，携手高铁沿线城市，建立健全对接机制，确立区域功能定位和科学分工，打造“京沈高铁经济带”新引擎；', '以优化区域经济发展布局为引领，强化顶层设计，携手高铁沿线城市，建立健全对接机制，确立区域功能定位和科学分工，打造', '以建立现代绿色产业体系为驱动，优先发展文化旅游医疗康养、钒钛新材料、清洁能源等优势主导产业，大力发展战略新兴产业，构建产业发展新格局；', '以增强经济活力和效率为重点，积极实施借智引力工程，持续优化营商环境，构建开放包容、革故鼎新的改革开放新局面。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>承德市深化对外开放激发开发区发展活力</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-12-20</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F12%2F20%2Fart_400_173221.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_173221</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['本网讯（记者张丽莉，通讯员吕建国、于大为）在平泉经济开发区，中国地质大学平泉产学研科创园项目将被打造成为国际化学术交流平台；在宽城经济开发区，与天津大学技术转移中心签订了天津大学宽城技术转移中心项目、与北京中乐汇教育咨询有限公司签约精品民宿项目……今年以来，我市不断深化与京津合作交流，对外开放渠道进一步拓宽，力促全市开发区高质量发展。', '与京津合作交流深入开展。定期组织开发区互访、学习、交流活动。开发区抓住帮扶机遇，积极与京津园区对接，通过采取产业帮扶、园区帮建、人员互派学习、科研院校合作等创新模式，进一步深化与京津地区园区合作模式。目前丰宁、兴隆、平泉、隆化开发区均组织人员到对口开发区挂职学习，促进园区共建。加强院校合作，推动先进科技成果转化。围场经济开发区推动与中央民族大学合作的金莲花茶和沙棘果深加工研发技术、与中国农科院北京畜牧兽医研究所合作的肉牛核心育种、与天津科技大学合作的功能型粗杂粮面制品精深加工等项目合作进程，取得明显成效。', '对外开放渠道进一步拓宽。从招商方向和方式上主动求变，着力提升招商实效，积极促成项目签约落地。以“小组团、专场会”等形势组织开发区赴粤京津等地开展精准招商。1月在广州召开了承德（广州）招商推介会，重点企业代表和承德籍老乡、商会会员共60余人参加此次活动。4月在天津召开京津冀协同发展（津承）开发区对接会，津承开发区负责同志、招商局长及企业代表、签约双方代表共200余人参加会议，10个重点项目进行了集中签约。5月组织全市10家省级以上开发区，参加了2019中国·廊坊国际经济贸易洽谈会、百家名企进承德、京津高校河北开发区行等省市活动，在中国第二届进口博览会期间，组织开发区学习考察上海张江高科，对接考察了东方龙商务集团、中国产业升级网等企业，达成多个合作意向。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>承德市年政府大事记</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2020-01-15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2020%2F1%2F15%2Fart_9946_807048.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9946_807048</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['1月3日 据承德政府网 河北省首批55个特色农产品优势区公布，其中承德市五个优势区入选：河北省平泉香菇特色农产品优势区：河北省滦平中药材特色农产品优势区；河北省围场马铃薯（种薯）特色农产品优势区；河北省丰宁小米特色农产品优势区；河北省隆化肉牛特色农产品优势区。', '1月10日 据承德政府网 河北省科技企业孵化协会组织开展了2018年度河北省“品牌孵化机构”评选活动，承德高新区和合众创空间被评为2018年度河北省“十大品牌众创空间”。', '1月11日2018年河北省“十大最美消防救援卫士”颁奖典礼在石家庄举行，承德消防支队避暑山庄中队班长宜刚刚荣获2018年河北省“十大最美消防救援卫士”殊荣。', '1月11日 第十二届河北省见义勇为英雄（群体）名单公布，隆化县太平庄乡小黄旗村村民池淑芬（女）因勇斗猛犬救人获此荣誉。', '1月14日 据承德政府网，河北省人社厅发布通知，确定50家省级示范创业就业孵化基地，其中，承德市大学生创业园、承德县创新创业园、滦平泰融创业园、宽城大学生创业园等4基地名列其中，并分别获得50万元奖补资金支持。', '1月16日 据承德政府网 河北省农业农村厅公示了“河北省创新型农业企业”名单，承德神栗食品股份有限公司榜上有名。', '1月22日“2019河北文化和旅游发布”活动在石家庄举行。承德市斩获2018省级旅发大会特别贡献奖等5大类13个奖项，获奖数量和类型均位居河北全省前列。获奖项目分别为：“2018河北省旅发大会特别贡献奖”和“河北旅发大会优秀新业态项目奖”（承德国家“一号风景大道”）；兴隆县被评为2018河北优秀全域旅游创建单位；第三届省旅发大会在承德举办——打造生态旅游新样板被评为2018河北十大文化和旅游新闻；“恐龙惹火官微营销，山庄再成大众焦点”被评为2018河北十大旅游创新营销优秀案例；承德河北海航乐游之旅国际旅行社有限公司被评为2018河北十佳诚信经营旅行社；承德市智慧旅游大数据平台项目被评为2018河北十大智慧旅游项目；塞罕坝国家森林公园被评为不得不去的周末旅游目的地；国家“一号风景大道”自驾线路被评为不得不走的最美自驾线路；中国马镇被评为不得不约的网红打卡地；10项全省“不得不看的精品演出”中，承德市占3项：话剧《塞罕长歌》、实景演出《鼎盛王朝·康熙大典》、沉浸式杂技马戏舞台剧《满韵骑风》。', '1月23日 2019中国旅游产业发展年会在北京举行。在会上发布的“2018年中国旅游产业影响力风云榜”中，河北旅游职业学院“为再造绿水青山输送优秀旅游人才——塞罕坝社会实践项目”成功入选2018中国旅游影响力院校社会实践项目TOP10，成为河北省入选2018中国旅游影响力排行榜的唯一院校。', '1月25日 中共中央政治局就全媒体时代和媒体融合发展在人民日报社举行第十二次集体学习时，习近平总书记在人民日报移动报道指挥平台前同驻滦平县于营村第一书记吕晓勋进行了连线交流，通过视频向全国所有扶贫驻村第一书记和广大基层干部、亿万群众表示亲切问候和良好祝福。在视频连线时，习近平强调，脱贫攻坚是一项历史性工程，是中国共产党对人民作出的庄严承诺。我们党最讲认真，言必行、行必果，说到做到。习近平主席还说“我在新年贺词中专门提到了第一书记。我在这里，向全国所有的第一书记、广大基层干部和亿万群众，致以诚挚的问候，祝大家新春愉快，给大家拜个早年！”', '1月26日 第六届“避暑山庄杯”华北区冰球邀请赛在避暑山庄冰球场开赛。本次比赛由承德市体育局，承德市文物局，承德市避暑山庄旅游集团主办，承德热河轮滑冰球俱乐部承办。来自京津冀等地区120余人共六支球队参加了此次比赛。', '1月28日 据承德政府网，国家科技部公示了第三批“星创天地”备案名单，承德市2家“星创天地”入选，它们是平泉市平泉绿世界星创天地和丰宁满族自治县御今农业食用菌产业星创天地。', '2月2日 国管局、国家发展改革委、 国家财政部联合发文公布2017-2018年节约型公共机构示范单位名单，承德县中医院、滦平县职业技术教育中心被评为2017-2018年节约型公共机构示范单位。', '2月9日 河北新闻网讯河北木兰围场小滦河国家湿地公园（试点）通过国家林业和草原局组织的验收，正式成为国家湿地公园。河北木兰围场小滦河国家湿地公园位于围场满族蒙古族自治县御道口镇御道口村，湿地公园规划总面积250.3公顷，其中湿地面积184.9公顷（水域33.9公顷，沼泽151公顷），陆地面积65.4公顷。湿地公园内共有植物390种，陆生脊椎动物152种。', '2月5日 承德首届红红火火中国年皇家文化庙会在普宁寺前广场正式举行，本活动是以清皇家文化、满族民族文化为核心，围绕中华民族春节浓郁民族特色的一场皇家文化庙会。', '2月13日由于今年春节期间承德市禁止燃放烟花爆竹，空气质量明显提升，与去年相比，大年三十至初六期间，中心城区PM2.5浓度均值下降约37%。', '2月13日 承德县、兴隆县、围场满族蒙古族自治县、承德市双滦区四县（区）被国家中医药管理局命名为“县级全国基层中医药工作先进单位”。', '2月14日 承德市普降小到中雪，这次降雪是去年入冬以来市区首场明显降水过程。截至14日16时，最大降水量在兴隆，为3mm。', '2月15日 由中央宣传部、中央文明办等16家单位联合主办的2018年学雷锋志愿服务最美志愿者、最佳志愿服务组织、最佳志愿服务项目和最美志愿服务社区“四个100”先进典型名单正式公布。承德市“小青橙”助力文明城市创建公益项目、市总工会“助力脱贫攻坚职工志愿服务乡村行”项目入选“最佳志愿服务项目”。', '2月15日 据和合承德网， 承德市首个全流程电子招投标项目在承德市公共资源交易中心结束，该项目的完成标志着承德市公共资源交易向全程电子化、流程规范化、服务标准化、监督智能化转变，正式跨入公共资源交易全类型、全区域、全流程、全方位电子化的国内领先行列。', '2月21日滦平县潮河湿地野生动物保护协会在潮河一带观测到白天鹅19只，这是历年来在该流域观察到数量最多的一群白天鹅，且今年白天鹅北返时间比往年提前了约一个月。', '2月22日 承德市区部分路口安装地面式红绿灯以来，违反交通规则的行为比未安装该装置的路口相比总量下降85%。', '2月22日 中国研究型医院学会神经科学专委会脑炎协作组对中国大陆地区主要的脑炎诊疗团队和医院予以推荐，发布了《脑炎专业诊疗推荐医院名单（2019版）》，即脑炎地图，承德市中心医院成为承德地区首家被推荐的脑炎诊疗医院。', '2月22日至23日，农业农村部党组成员、中央农办秘书局局长吴宏耀率调研组一行到平泉市就产业脱贫、乡村振兴等情况进行调研。', '2月26日 中华全国总工会举行全国先进女职工集体和个人表彰大会，表彰全国五一巾帼标兵岗和标兵，兴隆县特殊教育学校校长罗晓静获得“全国五一巾帼标兵”称号。', '2月27日 承德市区有了第一家数字化预防接种门诊——双桥区大石庙镇中心卫生院数字化预防接种门诊。数字化预防接种门诊是以信息化平台为基础，将适龄儿童预防接种信息化系统和数字化管理系统进行无缝对接，实现排队取号、预检、接种、留观于一体的全过程数字化服务。这既有效避免了拥挤插队、留观难以保证等传统预防接种门诊的弊端，也方便医务人员随时通过电脑查看疫苗接种者的详细信息，极大降低了手工操作的失误率，保证了接种过程的安全。', '3月3日，2019年中国·承德“木兰秋狝”杯雪地摩托车越野大奖赛（御道口）在御道口牧场管理区雍乾狩猎场开幕。', '此次比赛由中国汽车摩托车运动联合会、省体育局、承德市人民政府联合主办，共有来自国内外的56名选手参加。经过角逐，刘洪江、李佳分获男子A、B组个人赛冠军，浙江独行侠体育赛车队、云南巨人集团波速尔赛车队分获男子A、B组队赛冠军；孙真红荣获女子组个人赛冠军，北京超级穿越TOP1车队荣获女子组队赛冠军。', '3月6日 在国内领先咨询机构迈点研究院发布的《5A级景区品牌100强榜单》中，避暑山庄景区连续两次入围百强榜单。', '3月7日 第279期阿里巴巴天天正能量评选中，由承德晚报和燕赵都市报联合推选的兴隆县第四小学张秀娟老师挽救四人生命的事迹被23个评委投票支持，1500多个网友点赞，最终获评天天正能量人物唯一的一等奖。（张秀娟老师因为自己的一名学生没有上学立即主动进行家访，发现该学生全家在屋内煤气中毒，她马上拨打120电话呼救，从而挽救了一家四口的生命。）', '3月5日拥有“中国自驾游行业奥斯卡”美誉的中国自驾游路线年度评选结果在上海保利大剧院揭晓。在2018年度中国36条经典自驾路线评比中，承德市旅游和文化广电局推送的国家“一号风景大道”获奖，载入中国自驾游年鉴《爱驾者此生必驾三十六路》中，国家“一号风景大道”以“御驾承德——驰骋国家一号风景大道”为主题入选。', '3月6日承德市公安局交通警察支队和中国人保财险承德市分公司合作的“车驾管”社会服务站正式揭牌。该站通过借助中国人保财险营业网点的优势，依托网点代办“车驾管”业务，使广大驾驶员在家门口就可以享受办理免检车辆合格标志等“车驾管”业务“一站式”服务。', '3月12日 承德市残疾人联合会第八次代表大会开幕。该会聘请中共承德市委副书记安国富担任承德市残疾人联合会第八届主席团名誉主席，聘请市人大常委会副主任李伟、市政协副主席王利华担任名誉副主席；选举副市长苏铁成为主席团主席，推举祁春艳为执行理事会理事长。', '3月18日 据承德广播电视台消息，第二届“中国最美森林”遴选活动揭晓榜单，茅荆坝针阔混交林、雾灵山温带森林、千松坝云杉林入选。', '3月15日 国务院教育督导委员会办公室发布2018年全国义务教育发展基本均衡县（市、区）名单，承德市双桥区名列其中。', '3月18日 据《全球铁合金网》直径为6毫米的HBR600含钒螺线在河北钢铁集团承钢公司研发成功。至此，该公司已经具备HRB600全规格含钒高强抗震钢筋生产能力，继续引领国内建筑用钢升级换代。', '3月21日 据和合承德网 商务部、公安部、交通运输部、国家邮政局、供销合作总社五部门联合下发《关于进一步落实城乡高效配送专项行动有关工作的通知》，公布了首批30个城乡高效配送试点城市名单，承德市成为河北省唯一上榜的城市。', '3月20日 承德市妇幼保健院、围场满族蒙古族自治县医院被国家卫生健康委员会确定为全国首批无痛分娩试点医院。', '3月22日，河北省大气办对第五轮大气环境执法专项行动中环境问题突出的平泉市政府主要负责人进行公开约谈。（平泉市空气质量综合指数5.13，同比不降反升2.29%，PM2.5平均浓度50微克/立方米，与去年同期持平。）', '3月26日 第二届中国地情论坛暨全国地方志“一体两翼”工程成果发布会在北京成功举办。承德市地方志办公室主任奚晓红等撰写的《河北塞罕坝生态文明建设实践》入选《中国地情报告（2018）》“生态文明篇”。', '3月28日由中央电视台《中国影像方志》栏目组联合围场县委宣传部联合拍摄的纪录片《中国影像方志·围场篇》在央视10套播出，时长40分钟。', '3月26日至28日，联合国教科文组织亚太地区非遗国际培训中心中外嘉宾一行25人到丰宁满族自治县开展非遗考察活动。考察团对丰宁非遗项目的保护传承、非遗进校园活动等工作表示赞赏，同时对丰宁今后的非遗保护工作提出了中肯的意见和建议。', '3月29日 在石家庄召开的河北省社会组织助力脱贫攻坚动员暨社会组织工作部署会上，河北省顺达教育发展基金会因在2018年度助力脱贫攻坚工作中表现突出，被河北省民政厅评为2018年度社会组织助力脱贫攻坚突出贡献单位。河北省顺达教育发展基金会是由丰宁顺达矿业集团有限公司发起成立的社会性非公募基金会。', '3月30日共青团承德市第十八届委员会第一次全体会议选举产生新一届委员会常委，秦涛当选为团市委书记，艾铮、刘媛媛、吴磊、张维志（兼职）当选为团市委副书记。', '3月31日 在中国现代文学馆举行的第四届“中国诵读艺术家颁奖盛典”上，来自承德市的诵读艺术家苏丙凡、杨海洁获得了“第四届中国杰出诵读艺术家”称号。', '3月31日由国务院扶贫办社会扶贫司、中国社会责任百人论坛联合主办的“首届中国企业精准扶贫优秀案例(2018)”发布会在京召开，会上发布了首版《中国企业精准扶贫50佳案例(2018)》和《中国企业精准扶贫分领域案例(2018)》，共收录80个企业精准扶贫优秀案例。其中，平泉市“一地生四金”扶贫模式列入《中国企业精准扶贫分领域案例(2018)》。（“一地生四金”即“土地租金+打工薪金+入股分红+发展乡村旅游挣现金”。）', '4月1日 上万只候鸟飞临丰宁满族自治县海留图湿地公园栖息觅食，其中有白枕鹤、灰鹤、大雁等国家二级保护动物。', '4月2日 中央文明办发布3月“中国好人榜”。经广大网友点赞评议，107位（组）身边好人光荣上榜。承德县走出的中国报恩网的创建者段非和他的妻子许利娜双双入选。', '4月3日由河北省文明办主办的3月“时代新人·河北好人”发布仪式在保定高碑店市举行。承德市刘淑兰获孝老爱亲类承德好人。', '4月4日在丰宁满族自治县经济开发区满堂村，河北恒钏10万立方米微晶发泡板材项目1号窑炉成功点火试产，这是河北省首条建成投产的大型微晶发泡陶瓷生产线。尾矿微晶发泡板材项目总占地面积180亩，建筑面积9.36万平方米，建设年产80万立方米新型墙体材料。项目分两期建设，一期建设2条生产线，年产20万立方米尾矿微晶发泡板材，二期6条生产线年产60万立方米尾矿微晶发泡板材。', '4月8日由河北省侨联、中共承德市委统战部、市侨联主办，各县（市、区）委统战部、特教学校承办的澳大利亚“魏基成天籁列车”捐赠活动在承德市举行，此次活动共计捐赠价值超过2700多万元的蓝牙助听器和教学设备，帮助1293名听力残疾儿童和成年人重回“有声世界”。', '4月9日据承德政府网河钢承钢技能大师选聘工作落下帷幕，22名扎根产线基层，代表河钢承钢先进操作水平的优秀技能人才，被选聘为河钢承钢“技能大师”，享受中层干部薪酬。', '4月11日 承德市人大常委会召开新闻发布会，公布《承德市城市市容和环境卫生管理条例》。', '4月12日 河北省高速公路承赤管理处视频短片《坚守路为家之别时圆》，荣获“网聚正能量感知新河北”优秀网络短视频创作征集活动一等奖。', '4月12日 据承德市政府网报道，河钢承钢以钛合金粉末为原料，采取3D打印技术成功打印出航空发动机用零部件。此举标志着河钢承钢在高端钒钛新材料研发与应用绿色高端制造领域驶入高质量发展快车道。', '4月15日 根据河北省委国安办和省教育厅部署，经相应各级党委国安办和教育行政部门遴选推荐，承德县第一中学被确定为“河北省国家安全教育实验学校”。', '4月17日据承德政府网 河钢承钢拥有自主知识产权的高端含钒卷板ZSF5研发成功，填补了品种空白。', '4月19日 中国种子协会联合农业农村部种业管理司、河北省种子管理总站、河北省种子协会向平泉市贫困户捐赠价值10万元的籽粒玉米种子。', '4月23日中华全国总工会召开2019年庆祝“五一”国际劳动节暨全国五一劳动奖和全国工人先锋号表彰大会，会上公布了全国五一劳动奖和全国工人先锋号名单，承德宽丰长丰矿业有限公司车间主任邓金辉获五一劳动奖章，河北怡达食品集团有限公司生产一包装车间、兴隆县农村信用合作联社兴隆镇信用社被评为全国工人先锋号。', '4月18日中国林场协会四届四次常务理事扩大会议在江西省南昌市召开，会上，对获得“2018年度全国十佳林场”单位进行授牌，木兰林管局北沟林场获此殊荣。', '4月24日 河北省人民政府决定任命杨宏为河北民族师范学院院长。4月26日 清乾隆碧玉交龙钮——避暑山庄印（乾隆印玺）回到避暑山庄博物馆并首次展出。该印玺于1914年离开承德。', '4月26日 围场满族蒙古族自治县创新实行的“春雨工程+智慧分级诊疗”健康扶贫新模式，在普惠当地老百姓的同时，成功入选2019年“大国攻坚聚力扶贫”第二届中国优秀扶贫案例。', '4月27日，由中国旅游协会主办，中国旅游协会旅游商品与装备分会承办，浙江中国小商品城集团股份有限公司支持的2019中国旅游商品大赛在义乌落幕。承德避暑山庄旅游集团选送的“乾隆茶包装系统”获得本次大赛铜奖。', '4月28日 承德市第十四届人民代表大会常务委员会第十七次会议决定任命何军为承德市人民政府副市长。', '5月1日 承德市汽车尾气排放检验新标准正式实施，此标准加严汽车污染物排放限值，严重冒黑烟将被一票否决。', '5月1日，河钢承钢为中东国家生产的260吨PSB930Φ50mm大规格精轧钢筋成功下线，直供该国重要工程项目，全部用于关键部位，这是河钢承钢该产品首次出口海外。', '河北省滦平县公安局4日通报称，5月3日17时许，滦平县发生4人死亡的刑事案件，其中3人当场死亡，1人送医抢救无效死亡。', '5月6日 国务院下发关于同意承德市建设国家可持续发展议程创新示范区的批复。（国函〔2019〕46号）', '5月7日 在第二次全国地名普查总结电视电话会议上，承德市民政局荣获“全国地名普查先进集体”称号。', '5月7日 据网易新闻频道 根据河北省人力资源和社会保障厅、河北省财政厅联合签署发文的《关于确定2018年度高技能人才培训基地和技能大师工作室建设项目的通知》，承德顺天食品有限公司左爱东高级技师领办的杏仁及其相关产品检验分析室被评为国家级技能大师工作室。', '5月10日第二届“中国最美森林”颁奖盛典在北京举行，丰宁满族自治县国有林场管理处大滩林场千松坝云杉林入选“中国最美森林”。', '5月14日 2019年河北省“最美家庭”揭晓暨善美家风故事讲述会在石家庄举行，承德市兴隆县南天门满族乡庙岭村妇联主席白秀香家庭、承德市宽城满族自治县峪耳崖镇党委书记李锋家庭、承德市平泉市卫生健康局科员李毅然家庭、', '承德市围场满族蒙古族自治县公安局刑侦大队基层基础中队长韩艳丽家庭、承德市隆化县步古沟镇中心小学教师马长云家庭、承德市滦平县张百湾镇周台子村村民柳井新家庭、', '承德市鹰手营子矿区寿王坟镇南社区居民纪淑贤家庭荣获2019年度河北省“最美家庭”称号。', '5月15日全国妇联在北京揭晓2019年度全国“最美家庭”名单，承德平泉市纪委监委第五纪检监察室副科级干部邢玉荣家庭，承德市丰宁满族自治县选将营乡娘娘庙村村民孙树明家庭获得2019年度全国“最美家庭”称号。', '5月16日至19日由中国旅游协会主办、在浙江旅游职业学院举行的“鼎盛诺蓝杯”第十一届全国旅游院校服务技能（饭店服务）大赛上，河北旅游学院酒店管理系学生韩明轩、于鑫娟、武波涛荣获西餐宴会摆台、中餐宴会摆台、鸡尾酒调制一等奖，旅游管理系学生王天慧荣获中式铺床二等奖。', '5月18日 在第十五届中国（深圳）文博会主题活动——第九届全国生态旅游文化产业发展高峰论坛暨2019中国最美县域榜单发布会上，“2019中国最美县域榜单”正式公布，兴隆县、承德县、围场满族蒙古族自治县、丰宁满族自治县、宽城满族自治县、滦平县榜上有名。', '5月19日“第三届工匠中国论坛暨2018第四届中国行业新标杆奖颁奖盛典”在北京召开，电视剧《最美的青春》荣获“2018中国电视剧行业新标杆品牌奖”。', '5月20日 承德市区二仙居旱河南路一期工程全线贯通，该建设项目位于老城区二仙居旱河南岸，由武烈路至通济桥，全长626米，宽18米，双向两车道，属于城市次干道，通车后起到为南营子大街与武烈路主干道分流，打通“微循环”的作用。', '5月23日 承德市公安局与中国人民公安大学食品药品与环境犯罪研究中心、阿里巴巴集团安全部在承德市公安局警官培训中心共同签订三方战略合作协议，建立全国首家警企研三方战训基地。', '5月24日 由国家体育总局武术运动管理中心、中国武术协会、江苏省体育局、徐州市人民政府主办的在第四届中国·徐州“丝路汉风”国际武术大赛上，承德市武术爱好者齐峰获女子中年八卦掌二等奖和八卦掌双器械三等奖，同时作为志愿者荣获“武德风尚奖”运动员奖励。', '5月27日 关注森林活动20周年总结表彰大会在北京全国政协礼堂召开，会议表彰了关注森林活动20周年突出贡献单位和关注森林活动20周年突出贡献个人。其中，塞罕坝机械林场总场获评“关注森林活动20周年突出贡献单位”，塞罕坝机械林场总场宣传办公室副主任董常春获评“关注森林活动20周年突出贡献个人”。关注森林活动是1999年在全国政协倡导下开展的一项公益性生态宣传活动。组委会成员包括全国政协人口资源环境委员会、全国绿化委员会、国家林业和草原局、教育部、国家广播电视总局、中华全国总工会、共青团中央、中华全国妇女联合会、中华全国工商业联合会、中国绿化基金会10家单位。', '5月30日 承德市文明办、团市委、妇联联合表彰十佳新时代好少年，承德市十六中学于子竣、承德市民族中学董霁滋、双滦区第一小学张嘉睿、营子区滨河路小学刘大鹏、丰宁第二小学吴鑫颖、滦平县西沟中心校曹雪、平泉市回民中学张晓阅、隆化县存瑞小学袁佳轩、承德县第一小学李越、兴隆县第二小学苗欣雨获此殊荣。', '6月1日 由承德市体育局、市教育局主办的“滦水湾杯”2019年承德市第一届青少年游泳比赛在滦水湾游泳健身中心举办，此次比赛分为男、女子8岁组，男、女子9—10岁组，男、女子11—12岁组，男、女子13—14岁组。经过激烈的角逐，双滦实验小学、双滦第三小学等获得团体总分前六名。', '6月6日 河北省休闲农业主管部门与各市农业农村部门共同推出了36条“夏纳凉”系列休闲农业与乡村旅游精品线路，其中，承德的漂流避暑线路名列第29条，该线路包括：围场县四道沟乡庙宫村→山湾子温泉度假旅游区→木兰围场坝上草原→国家一号风景大道。', '6月10日 中共河北省委常委、河北省政府常务副省长袁桐利到丰宁满族自治县调研脱贫攻坚工作。', '6月11日至12日，河北省政协副主席、民盟河北省委主委边发吉一行来到围场满族蒙古族自治县，就脱贫攻坚民主监督工作进行调研，并召开座谈会。', '6月12日 由河北省大气办、中共河北省委宣传部联合开展的2018年“美丽河北·最美蓝天卫士”评选活动揭晓，河北全省共10人获得2018年“美丽河北·最美蓝天卫士”称号。承德市中级人民法院民事审判第四庭庭长聂国智榜上有名。', '6月15日至16日 国家体育总局局长苟仲文、副局长高志丹来到位于围场坝上的承德国家雪上项目训练基地调研2022年冬奥会备战工作，观看冰雪项目塞罕坝“体能大比武”，并为获奖运动员颁发奖牌。', '6月17日 河北省人大常委会副主任、中共承德市委书记周仲明带领承德市党政代表团赴北京市密云区学习考察、对接交流。密云区委书记潘临珠，区委副书记、代区长龚宗元与承德市党政代表团座谈。', '承德市党政代表团考察密云区穆家峪镇极星农业科技园，参观科技园智能化连栋温室作业情况，了解密云区现代农业产业园带动优质农产品销售、做好低收入农户帮扶工作等情况。考察密云水库蓄水和水环境，了解密云水库水情及周边环境保护等情况。召开东西部扶贫协作对接座谈会，密云区相关部门负责同志介绍了密云经济社会发展情况，滦平县负责同志介绍了对口帮扶工作开展情况。周仲明、潘临珠分别讲话。', '6月17日在国家发展改革委和浙江省人民政府联合举办的“2019年全国节能宣传周启动仪式”上，国家发展改革委环资司授予承德电智尚节能科技有限公司国际“双十佳”最佳工业节能技术清单荣誉牌。', '6月18日教育部职业技术教育中心研究所发布了《关于首批1+X证书制度试点院校名单的公告》，承德市四所学校名列其中，它们是：承德石油高等专科学校、承德护理职业学院、河北旅游职业学院、承德工业学校。', '6月19日开始承德市主城区府前路、种子路等路段的马路牙子陆续被涂成黄色。这种标线在承德市首次出现，该标线为“禁止停车线”。', '6月19日 非洲国家非物质文化遗产保护培训班人员一行19人来到丰宁满族自治县开展非遗考察活动。考察团一行由来自非洲多哥、刚果（布）、刚果（金）、几内亚和中非5个国家文化和遗产部的官员组成。', '考察团先后参观了丰宁非物质文化遗产传承基地、龙腾艺术馆及“非遗+扶贫”剪纸、布糊画培训班，并走进丰宁第二小学对“非遗进校园”活动开展情况进行调研。培训班一行对丰宁第二小学的丰宁满族剪纸、满族舞蹈、满语歌曲、满族漆画等社团课的开展给予了高度评价，对丰宁“非遗保护，河北实践”的典型案例给予高度认可。', '6月20日承德市政府召开新闻发布会，发布《关于在市主城区划定禁止使用高排放非道路移动机械区域的通告》，进一步减少非道路移动机械污染物排放，加快改善市区空气质量。该《通告》自2019年7月1日起施行。依据规定，承德市双桥区、双滦区、高新区以内的部分区域为禁用区。', '6月24日 河北承德国家雪上项目训练基地揭牌仪式在围场坝上举行。河北承德国家雪上项目训练基地位于雍乾狩猎场内，地处承德市御道口坝上国家4A级景区——御道口草原森林风景区。基地占地面积2707．2公顷，现有运动员公寓111间，设有400平方米运动员餐厅，可同时容纳200—300人就餐。设有800平方米体能中心、123平方米康复中心，基地射击馆设有25米靶道区和50米靶道区，8公里冬季两项滑雪赛道。', '6月25日 第九届全国“人民满意的公务员”和“人民满意的公务员集体”表彰大会在北京举行。滦平县人大常委会原党组副书记、张百湾镇周台子村党委书记范振喜荣获第九届全国“人民满意的公务员”称号，并在人民大会堂受到习近平等党和国家领导人接见。', '6月25日 由人民日报社、国务院扶贫办指导，人民网、《中国扶贫》杂志社联合主办的第二届中国优秀扶贫案例报告会在人民日报社新媒体大厦举行，会上，围场满族蒙古族自治县入选第二届中国优秀扶贫案例。该县以“春雨工程”为契机，以“建设区域影像诊断基地、县域心电诊断基地，打造多元化医联体”为抓手，探索实施“春雨工程+智慧分级诊疗”模式，有效解决了基层群众看病远、看病难、看病贵等问题，推动全县健康扶贫工作取得了显著成效。', '6月25日位于承德市双滦区的宜佳旺警务站正式投入使用，这是承德市首个投入使用的警务站。警务站整合交警、治安警、巡警、户籍警、防暴警为一体，把有限警力资源优化整合，提高街面见警率和管控率，做到对各类案件早发现、早处置、早结案，同时承担治安巡控、交通管理、接警处警、服务群众、法治宣传五项任务。警务站还可以为群众办理相关证件、提供咨询、调解纠纷等。宜佳旺警务站位于双滦区宜家旺广场东侧，60多平方米的警务站内，既设有视频巡控服务台，又设有交管业务、居住证业务等方面的服务台，16名民警分为4班，24小时不间断在岗。', '6月26日 承德市第十四届人民代表大会常务委员会第十八次会议决定：接受路洪昌同志辞去承德市监察委员会主任职务的请求，并报市十四届人大五次会议备案。', '6月26日承德市第十四届人民代表大会常务委员会第十八次会议，任命武力斌为承德市监察委员会副主任、代理主任。', '6月26日承德市第十四届人民代表大会常务委员会第十八次会议决定任命宁金龙为承德市人民政府副市长。决定免去苏铁成的承德市人民政府副市长职务。', '6月27日 据河北省林业和草原局网站报道，国家林业和草原局批复了12个国家级自然保护区的总体规划，其中包括《河北塞罕坝国家级自然保护区总体规划（2019-2028）》。', '6月27日 农业农村部、国家财政部公布2019年国家现代农业产业园创建名单，平泉市名列其中。', '6月28日中央文明办在云南曲靖举办全国道德模范与身边好人现场交流活动，并发布6月“中国好人榜”。其中，致富不忘本，捐款3亿元回报社会的承德市丰宁满族自治县胡麻营镇河东村党支部书记王福国榜上有名。', '6月28日6月“时代新人·河北好人”在张家口市下花园区发布，承德市李芳获得敬业奉献类河北好人称号。', '6月29日承德避暑山庄文化创新中心成立暨文创旗舰店开业仪式在芳园居举行。此次开业的避暑山庄文创旗舰店，包括“乾隆多宝格”“乾隆茶舍”主题店面。“乾隆多宝格”内展销11个系列103种，近400款文创产品。', '6月29日 由河北省体育局、承德市人民政府主办，承德市体育局、围场满族蒙古族自治县人民政府、御道口牧场管理区承办的2019承德“塞罕坝”杯首届“一号风景大道”马拉松赛在围场御道口文化广场开赛。来自美国、加拿大、肯尼亚、埃塞俄比亚等国家以及京津冀、内蒙古、辽宁等28个省区市近5000名选手参加了比赛。110米栏亚洲冠军史东鹏和体操世锦赛冠军庞盼盼担任领跑嘉宾。', '本次马拉松比赛设有全程马拉松、半程马拉松和迷你马拉松（健康跑）三个组别。经过激烈角逐，来自埃塞俄比亚的选手分获半马男子组、女子组冠军；肯尼亚选手分别夺得全马男子组、女子组冠军，中国选手梁晶、韩麒斩获全马男子组亚军、季军。', '6月30日 截至即日，根据承德市环境监控中心空气质量监测结果显示，承德市区PM10平均浓度为70微克/立方米，同比下降22.2%，承德市区2019年上半年PM10平均浓度历史上首次达到国家二级标准。', '7月1日《承德市城市市容和环境卫生管理条例》正式实施。根据此条例，私设摊点、乱停乱放、随地吐痰等影响市容和环境卫生的行为都将受到处罚。', '7月2日至3日河北省人大常委会常务副主任范照兵率领立法调研组赴承德、张家口开展草原生态建设保护和太行山燕山绿化建设立法调研。', '7月3日至5日中共河北省委常委、统战部部长冉万祥到隆化县调研脱贫攻坚工作，并召开河北省“五包一”单位定点帮扶隆化县脱贫攻坚座谈会。', '7月4日 据和合承德网站，农业农村部组织开展第二批国家区域性良种繁育基地认定，围场满族蒙古族自治县被认定为马铃薯基地、平泉市被认定为食用菌基地。', '7月6日中华民族大赛马·2019传统耐力赛（河北丰宁站）开跑。来自北京、新疆、山东、江苏、内蒙古、黑龙江等20多个省市自治区的170对人马组合参加比赛。本赛事由中国马业协会主办，奖金总数30万元，赛程全长23公里，赛道设置在位于丰宁大滩镇的中国马镇景区旁，经过角逐，22号骑手包文秀与他的马匹“速风”一举夺冠。177号骑手银彪策与马匹“黑旋风”、38号骑手霍力哈拉提·那尔哈孜策与马匹“尼勒克公主”分别摘得第二名、第三名。', '7月7日 国家发展改革委、农业农村部等七部委印发通知，同意110个单位创建第二批国家农村产业融合发展示范园。宽城满族自治县农村产业融合发展示范园榜上有名。', '7月8日 由河北省体育局主办的河北省青少年田径锦标赛在承德市奥体中心开赛，会期2天，来自河北全省11个市的473名运动员参赛。', '7月15日。由中共承德市委宣传部、市委政法委联合开展的“魅力承德·最美政法干警”评选活动揭晓，于志华等10名同志被评为2019年度“最美政法干警”。2019年度“最美政法干警是：于志华（滦平县司法局张百湾司法所所长）、王兴智（平泉市公安局治安管理大队教导员）、刘冰冰（承德县公安局出入境管理大队大队长）、朱伟悦（宽城满族自治县人民检察院检察员）、李亚平（承德市中级人民法院家事少年审判庭庭长）、陈欣（承德市公安局治安支队行动大队大队长）、李建国（围场满族蒙古族自治县法院民事审判第四庭庭长）、林福峰（承德市人民检察院公诉部副处长、一级检察官）、侯硕（宽城满族自治县公安局宽城镇派出所教导员）、敖强（承德市戒毒管理所党委委员、办公室副主任）。', '7月15日 承德市首批京津高校研究生社会实践基地授牌，该工作由承德市人力资源和社会保障局举办，承德市妇幼保健院、宽城升华压力容器制造有限公司成为承德市首批京津高校研究生社会实践基地。', '7月16日，潮河流域生态环境联建联防联治合作协议签约仪式在滦平举行，河北省人大常委会副主任、承德市委书记周仲明出席并致辞。北京市密云区委书记潘临珠、代区长龚宗元、副区长范永红，北京市怀柔区委书记戴彬彬、代区长于庆丰、副区长李志遂，北京市生态环境局调研员赵兴利、北京市水务局密云水库管理处主任刘大根，承德市委副书记、市长常丽虹，承德市领导任武军、刘宏伟出席仪式。任武军主持。承德、密云、怀柔共同签署了《潮河流域生态环境联建联防联治合作协议》。根据该协议，三地按照“责任共担、问题共商、目标共治、信息共享”的协同机制，共同治理潮河流域生态环境。', '7月18日 承德市推荐的河北省木兰林管局职工程李美荣获在山西朔州举行的“时代新人说——我和祖国共成长”绿水青山主题全国演讲比赛金奖。该比赛由中共中央宣传部、国务院国资委、中央军委政治工作部、全国总工会等部门共同主办，是全国庆祝中华人民共和国成立70周年群众性宣传教育活动的重要内容之一。', '7月18日 中外城市竞争力研究会公布“2019第十八届全球国家（城市）竞争力分类优势排行榜”， 其中包含了23个分榜单。承德市在“2019中国最具特色旅游城市排行榜”中列第9位(共30座城市)。', '7月19日承德市召开女企业家协会第二次代表大会。会议选举张建军为承德市女企业家协会会长，关玉军等20人为承德市女企业家协会常务副会长。', '7月20日 2019年农业产业强镇建设名单公布，丰宁满族自治县五道营乡入选。该评选活动由农业农村部、财政部举办。', '7月20日至22日 中共河北省委书记、省人大常委会主任王东峰在承德市调研检查。省领导高志立、周仲明参加调研检查。', '7月26日至27日 中国侨联副主席、中央国家机关工委原副书记邵旭军赴承德市调研考察，中国侨联副主席、河北省侨联主席包东，承德市侨联主席徐毅陪同考察。', '7月28日，由国家体育总局主办，中国冰球协会、河北省体育局、承德市人民政府承办的第二届全国青年运动会冰球比赛在承德市冰上运动中心鸣枪开赛。国家体育总局冬季运动管理中心纪委书记刘长金，中共承德市委副书记、承德市政府市长常丽虹，河北省体育局副局长田建功出席并共同为比赛开球。承德市政府副市长郭士刚主持开球仪式。本赛事是承德冰上运动中心建成后所承办的第一个国家级冰上体育赛事。', '7月29日至31日，河北省政协副主席葛会波率领省政协视察组到承德市就“京津冀生态环境支撑区建设情况”进行视察，并召开座谈会。', '7月29日至31日，省政协副主席葛会波率领省政协视察组到承德市就“京津冀生态环境支撑区建设情况”进行视察，并召开座谈会。', '7月30日至31日 全国人大常委会副委员长、民建中央主席郝明金在丰宁满族自治县开展脱贫攻坚专题调研，并召开民建帮扶丰宁脱贫攻坚工作现场推进会。全国政协副秘书长、民建中央副主席兼秘书长李世杰，省人大常委会副主任、中共承德市委书记周仲明陪同参加相关活动。', '8月5日到6日 天津市党政代表团就进一步加强对口扶贫工作到承德市考察，中共中央政治局委员、天津市委书记李鸿忠，市委副书记、市长张国清，市委副书记阴和俊与河北省委书记、省人大常委会主任王东峰，省委副书记、省长许勤，省委副书记赵一德等参加活动。天津市领导李毅、梁宝明，市政府秘书长孟庆松;河北省领导高志立、周仲明，省政府秘书长朱浩文参加活动。承德市领导常丽虹、安国富、吴清海、杨春武参加了活动。', '8月7日，中共河北省委副书记赵一德就扎实开展“不忘初心、牢记使命”主题教育，支持服务进出口企业发展到承德市调研。', '8月8日 白求恩精神研究会、中国医师协会公布《关于表彰“人文爱心医院”“人文爱心科室”和第三届“白求恩式好医生”“白求恩式好医生提名奖”获得者的决定》，授予112个科室为2019年“人文爱心科室”，承德医学院附属医院老年病科名列其中。', '8月9日 由国家冶金工业信息标准研究院、国家知识产权局知识产权出版社共同研究的《中国钢铁企业专利创新指数（2019）》正式发布，河钢承钢获得中国钢铁行业较强专利创新力企业称号。', '8月9日承德市区武烈河乾阳步行桥河滩上出现上百只白鹭、池鹭、鸥类候鸟群。这些鸟在7月上旬就生活在上二道河子至南互通橡胶坝河床里，河道管理处为汛期防汛将河床内河水泄洪，使水里鱼类露出水面，吸引多种鸟类分食鱼虾。', '8月12日平泉市道虎沟一农户家里的视频监控拍摄到华北豹身影，该华北豹叼走了农户的两只小羊。因此，该地成为我国华北豹最北分布点。', '8月13日 由承德市文物局主办的“蒙曼讲山庄”活动启动。中央民族大学教授、著名学者、全国妇联副主席（兼）、中央电视台《中国成语大会》《中国诗词大会》点评嘉宾蒙曼与众多市民、游客同游避暑山庄，将“形貌如中华成一统，名胜集全国于一园，文化融华夏五千年”的避暑山庄特质，用学者独特的阐述视角和解读方式，介绍给广大市民及游客。', '8月18日 河北省民营经济领导小组通报2018年度市、县（市）民营经济发展考核结果（冀民经&lt;2019&gt;1号），宽城满族自治县获评民营经济发展先进县。', '8月19日全国第十五届精神文明建设“五个一工程”表彰座谈会在京召开，承德市参与创作的以塞罕坝林场建设者感人事迹为题材的电视剧《最美的青春》、话剧《塞罕长歌》获优秀作品奖。', '8月21日“北京平谷·河北承德共建软硬镜微创医疗中心”揭牌仪式在承德市中医院举行，标志着承德市中医院与北京友谊医院平谷医院协同共建的软硬镜微创医疗中心正式投入使用。', '8月21日全国法院第六届微电影微视频颁奖活动在内蒙古呼和浩特举行，隆化法院法治微电影《本案不敲法槌》在此次活动中荣获“十佳微电影”（综合单元），并取得排名第二的好成绩。', '8月22日 承德医学院附属医院该院与隆化镇医院达成协议共建医联体，这是承德市首家公立医院和民营医院医联体。根据建设方案，承德医学院附属医院将通过远程教学、远程影像诊断、远程心电诊断、学术交流、双向转诊等方式，在学科建设、人才培养等方面对隆化镇医院大力帮扶，助推隆化镇医院医疗技术水平和服务能力的提升，促进医疗服务模式不断创新和发展，切实让隆化县的百姓在家门口就能享受到优质高效便捷的医疗服务。', '8月23日至25日 河北省人大常委会副主任、市委书记周仲明率承德市党政代表团赴重庆市考察学习城市规划建设、生态旅游、电子信息产业、医疗康养等方面的成功经验和做法。', '8月25日，平泉市滨河游园中央悦城前的芦苇丛里出现5只黑鹳，该物种属于国家一级保护动物。', '8月26日共青团河北省委联合河北省体育彩票管理中心共同发起实施爱心公益活动，在承德市各主要路段、商场门外为快递小哥、交警、环卫工人等户外工作者准备了“爱心冰柜”，提供饮用水等。', '8月27日 承德市政府市长常丽虹率领承德市代表团赴唐山市就生态文明建设、城乡规划建设管理、全域治水筹融资模式、河道治理、智慧农业和农村人居环境整治等方面的成功模式和先进做法进行学习考察。', '8月27日在天津举行的第十次全国残疾人运动会上，代表河北省参赛的承德市运动员张凤菊以7米04的成绩夺得女子F40级铅球项目的全国冠军。', '本届大会口号为“文旅融合、绿色发展”。大会标识将承德“承”字的字体变形，与象征第三届承德市旅游产业发展大会的“3”有机融合，以简洁明快的线条，纯粹鲜明的色彩，勾勒出承德践行绿色生态发展理念、打造生态休闲旅游城市的坚定信心和决心。大会吉祥物则延续使用了2018年第三届河北省旅游产业发展大会图案，以中国传统文化中的祥瑞之兽“鹿”的形象为设计基础，吉祥物是一对身着满蒙民族服饰的卡通梅花鹿，取名为巴图和赛娅。巴图，寓意为意志坚强，体现了勇敢、坚毅的塞罕坝精神。赛娅，寓意为美丽，体现了大气、秀美的坝上森林草原风光。吉祥物整体形象鲜明，活泼可人，传统服饰突出本土韵味、别具特色。张开双臂的“巴图”和“赛娅”，展现出好客的承德人民，热情迎接海内外宾客的到来。', '8月30日 在天津举行的第十届全国残疾人运动会上，代表河北省参赛的承德市运动员闫嘉彤夺得男子标枪F36级全国冠军，并打破了全国记录，超世界记录。此外，他还摘得铅球F36级铜牌。', '9月2日 总投资5.6亿元的普宁文化休闲小镇项目建成正式投入使用。该项目将打造特色民宿客栈及具有承德地方文化内涵的精品街区，形成以特色民宿为基础，集衍生作坊、民艺、影院、咖啡厅等休闲娱乐业态于一体的高端产业集群。', '9月3日 2019年全国教书育人楷模、全国优秀教师、全国教育系统先进集体等名单公布，兴隆县六道河中学校长贾利民荣获全国教书育人楷模荣誉称号；宽城满族自治县化皮镇中心小学教师赵亚磊、平泉市柳溪小学教师张艳芳、承德市第十六中学教师闫帅荣获全国优秀教师荣誉称号；', '9月4日承德传统文化进校园活动在市第十六中学正式启动。评剧、民歌、器乐合奏等传统文化节目轮番上演，为广大师生带来一场精彩的文化盛宴。', '9月5日 人力资源社会保障部、教育部关于表彰全国教育系统先进集体和全国模范教师全国教育系统先进工作者的决定发布，承德市高新区上板城镇初级中学获得“全国教育系统先进集体”称号。', '9月5日 中央文明委命名表彰新一届全国道德模范，承德市王福国同志获全国道德模范提名奖。王福国是丰宁胡麻营镇河东村党支部书记，因带领全村村民脱贫致富而获此殊荣。', '9月7日 2019第十届环中国暨中国一号风景大道国际公路自行车赛在御道口鸣枪开赛。国家体育总局副局长、党组成员高志丹，河北省人大常委会副主任、承德市委书记周仲明，中国自行车运动协会主席沈金康，中体产业集团股份有限公司董事长、总裁、中国自行车运动协会副主席王卫东，河北省体育局副局长李东奇，承德市副市长郭士刚等出席开幕式，并为赛事鸣枪发令。', '本届比赛共有来自中国、美国、意大利、瑞典等国家和地区共22支车队选手前来参加。女子组共有中国、新加坡、马来西亚等国家和地区的11支车队选手参与角逐。意大利安德罗尼洲际队的马尔科·本法托以2小时06分21秒斩获赛段冠军。女子赛首次列入环中国序列。', '9月6日由中国旅游协会主办，中国旅游协会旅游商品与装备分会承办的2019中国特色旅游商品大赛在四川国际旅游交易博览中心举行，承德市选送的“避暑山庄乾隆游”系列、“我是乾隆”茶器组获得银奖，“朕赐杏福”杏仁饮料获得铜奖，“水心榭”文具组获得入围奖。', '9月13日 移动5G信号已经覆盖避暑山庄的部分主要景点，避暑山庄成为全国首批覆盖中国移动5G信号的5A级景区。', '9月18日 承德籍著名历史学者、中央民族大学历史文化学院教授、北京大学历史学博士蒙曼做客承德百姓文化公益大讲堂，为近千名市民带来一场古诗鉴赏讲座。', '9月18日中国民间文化遗产抢救工程——河北省燕赵老字号、古代贡品普查认定经验交流会暨牌匾与证书颁发仪式在石家庄举行。承德市九龙醉酒业、满族吴氏刻瓷入选河北省第三批燕赵老字号保护名录项目。', '9月24日 农业农村部公布第九批“一村一品”示范村镇名单，滦平县大屯镇（食用菌），围场满族蒙古族自治县新拨镇二道河子村（胡萝卜）名列其中。', '9月26日 承德市全民阅读协会在云山饭店大会议室宣布成立，会议选举李晓凤为承德市全民阅读协会会长。', '9月27日全国民族团结进步表彰大会在北京召开，承德市围场满族蒙古族自治县人民政府、承德市双桥区潘家沟街道办事处在会上荣获全国民族团结进步模范集体称号；梁六十三（蒙古族，承德市民族宗教局民族科科长）、王桂玲（蒙古族，隆化县七家镇西地村妇联主任）被授予全国民族团结进步模范个人称号。', '9月27日由承德市文化康养产业发展促进会、大稿国际文化有限公司和法国亚洲艺术家联合会联合主办的“国际当代艺术系列展”活动在承德市启帷。大稿国际艺术区·承德后街作为北京国际设计周分会场，邀请了来自欧美以及国内的30多位最具实力的当代艺术家齐聚承德市。本次活动是承德市第一次以环境装置、智能互动与新媒体、雕塑绘画等当代艺术形式为纽带，组织的一场国际化文化艺术交流盛事，更是承德市以“城市艺术博物馆”的概念为基础，打造国际化艺术之都的全新开始。', '9月20日，由国际旅游联合会主办的“2019文旅融合发展大会”在天津拉开帷幕，中国马镇旅游度假区荣获组委会颁发的“最美中国旅游目的地”称号。国际旅游联合会创立于1967年，是一个具有很高影响力的国际旅游行业非政府组织。同日，在上海举办的“2019年度亲子行业峰会”上，中国马镇旅游度假区运营的白马酒店荣登“彩贝壳亲子度假酒店排行榜”，为河北区域第一家上榜的亲子度假酒店。', '9月24日 全国绿化委员会印发《关于表彰全国绿化模范单位和颁发全国绿化奖章的决定》，承德市刘海莹（满族，塞罕坝机械林场总场场长）、王国斌（塞罕坝机械林场总场工人）、杨印聪（满族，承德市林业局科学技术与宣传科科长）、上官承志（满族，承德市双滦区农牧林业和水务局局长）、刘利民（朝鲜族，木兰围场国有林场管理局桃山林场工人）、魏淑君（女，满族，承德华净活性炭有限公司农民）等6人获得全国绿化奖章。', '9月23日河北省农业农村厅举办的“我最喜爱的河北农产品品牌”评选结果揭晓，承德宇航人，承德山水；围场马铃薯；承德国光苹果；平泉香菇等品牌入选。', '10月10日 以承德避暑山庄旅游集团名义选送参赛的“避暑山庄乾隆游”“乾隆茶”系列产品在“2019河北文创和旅游商品创意设计大赛”中，以专家评委打分第一名和总评分第一名的成绩获得了本次大赛的金奖。', '10月11日 由阿里巴巴天天正能量主办的主题为“讲述中国民间故事”的正能量合伙人公益研讨会在杭州召开，近百家媒体共同见证首批240组“正能量合伙人”的发布，其中个体合伙人223位，团队类合伙人17个，承德市张晶泽入选其中。', '10月16日，承德红山文化研究会正式成立。该研究会由承德市民间爱好者自发发起成立。田玉臣当选研究会会长。', '10月18日 由承德避暑山庄旅游集团所属承德避暑山庄文化创新中心报送、河北省旅游协会选送的“塞罕红旗松”摆件系列文创产品，在全国红色旅游文创产品和红色旅游演艺创新成果遴选活动中获评全国优秀红色旅游文创产品。', '10月18日 全国森林旅游推介会发布2019寻找中国森林旅游美景推广地成果，兴隆雾灵山荣获2019中国森林旅游美景推广地“最佳森林休闲体验地”荣誉称号。', '10月19日 在第七届世界军人运动会男子25米手枪军事速射团体比赛中，由承德籍运动员金泳德和队友谢振翔、姚兆楠组成的中国队团结合作，成功摘得本届军运会首金。', '10月19日 在《中国扶贫》杂志社与人民日报《民生周刊》杂志社联合组织开展的“我的驻村故事”主题征文活动中，国家税务总局承德市税务局驻隆化县茅荆坝乡团瓢村第一书记姜涛上报的作品《我在团瓢村当“老师”》获得优秀奖。', '10月19日 隆化县被确定为“中国好粮油”行动计划示范县，示范项目总投资1905万元，其中争取中央财政补助资金571.5万元，用于优质水稻基地建设。', '10月19日，平泉市南五十家子村举行郭小川研究会创作基地揭牌仪式。本次活动由承德市郭小川研究会、承德市老年作家协会、承德市诗歌朗诵协会、南五十家子镇人民政府、南五十家子村委会等单位共同举办。', '10月19日2019年河北省中职学校学生动画片制作技能大赛落下帷幕，承德县职教中心在此次大赛中荣获团体一等奖。', '10月22日 教育部正式公布2019年全国青少年校园足球特色学校、试点县（区）和“满天星”训练营遴选结果名单。承德市5所学校被命名为全国青少年校园足球特色学校。他们分别是：承德县第四小学；承德县上谷镇良杖子中心小学；滦平县第三小学；丰宁满族自治县小川小学；丰宁满族自治县平安堡中学。', '10月23日 滦平县红旗镇桥头村后山东侧发现一块保存相当完整的清代光绪十八年（1892年）修路功德牌，这块修路功德牌建在古道旁3米多的岩壁上，为规则长方形，面积约2平方米，为白石灰抹砌而成，牌文为竖排版黑墨楷书，牌首为大字“大清光绪十八年九月初一日”，牌尾为大字“本营会中经理人等（小字7人姓名）公立”，内容为一百多人的姓名及捐款金额及捐物数量，几十家店铺买卖捐款金额及捐物数量等等，“以上共入捐施钱肆佰伍拾柒吊五佰壹拾文”等字迹清晰可见。该修路功德牌虽未经修复、但保存完好。', '10月23日在第七届世界军人运动会男子25米中心发火手枪团体比赛中，由承德籍运动员金泳德与队友高铮、姚兆楠组成的中国队以1744环获得金牌。此前，金泳德与队友合作已获得本届军运会首枚金牌。', '10月29日 第七届河北省道德模范及提名奖获得者名单公布，承德医学院附属医院肿瘤放化疗科护士栾金颖和丰宁满族自治县胡麻营镇河东村党支部书记王福国获评第七届河北省道德模范。承德市审计局司机李铁申获评见义勇为模范提名奖，滦平县火斗山镇孙营村党支部书记兼村委会主任王斌获评敬业奉献模范提名奖，宽城职教中心教师韩小静获评孝老爱亲模范提名奖。', '本次比赛分为国际组，国内组及少儿组三个组别。由美国、法国、英国、爱尔兰、奥地利、丹麦、新加坡、俄罗斯、中国香港等10个国家和地区协会选派13名选手及国内各地选手参加，是河北省举办的马术赛事中，外籍选手参赛人数最多的一次。在为期两天的比赛中，中外顶级骑手展开了激烈的马术巅峰对决，传递现代而古老的马文化。本次比赛最大年龄73岁，最小年龄7岁，充分展现了定向马术越野运动的全民普及性和国际时尚娱乐特点。', '获得国际组冠军的是来自法国的前世界马术锦标赛冠军Amanti，获得亚军的是来自爱尔兰的Elaine；获得的季军的是来自英国的Catherine。国内组一级赛，获得冠军的是来自内蒙古巴林右旗的阿荣毕力格，获得亚军的是来自辽宁抚顺的李松，获得季军的是来自丰宁大滩镇的吴树鑫。少儿组冠军是一位年仅7岁的满族小骑手乌扎拉荣吉，另一位11岁小骑手也有着出色的表现，获得本次比赛亚军。', '11月1日第四届京津冀果品争霸赛新闻发布会在廊坊国际会展中心举行。兴隆县鑫鑫怡然家庭农场选送的燕山短枝板栗获“果王”称号。', '11月2日 由农业农村部举办的第二届国家农产品质量安全县与农产品经销企业产销对接活动在江苏省徐州市国际会展中心举办。活动现场公布了第二批211个国家农产品质量安全县（市）名单，平泉市和承德市双滦区榜上有名。', '11月2日，由新华社《半月谈》杂志社举办的第二届社会发展高峰会暨2019文旅产业资源链接会在北京全国人大会议中心举行，承德荣获“2019美好生活·中国十佳宜居宜业宜游城市”，这是河北省唯一上榜的城市。与承德一同入选该榜单的还有扬州市、烟台市、海口市、佛山市、乐山市、金华市、福州市、荆门市和昆明市。', '11月3日承德市旅游和文化广电局联合市精神文明办、市总工会、团市委、市妇联五部门共同举办，承德市旅游协会承办、中国马镇旅游度假区赞助的2019“中国马镇”杯首届承德市金牌导游员大赛在丰宁满族自治县中国马镇旅游度假区开幕。', '11月3日 世界首条可再生能源柔性直流电网——张北柔性直流电网试验示范工程±500千伏丰宁——北京线路(3标段)主体竣工。该项目工程是国家电网有限公司服务绿色低碳冬奥的重点建设项目，也是2022年北京张家口冬奥会重要配套工程。世界首条可再生能源柔性直流电网,也是世界上电压等级最高、输送容量最大的柔性直流工程,电源侧全部采用风电、光电等清洁能源。', '11月6日 全国普法办发出通知，通报表扬全国“七五”普法中期先进集体和先进个人，承德市共有1区2个集体2名个人获得殊荣。其中，双滦区被评为“全国‘七五’普法中期先进县（市、区）”，承德市法治宣传教育领导小组办公室、丰宁满族自治县司法局获评“全国‘七五’普法中期先进集体”，滦平县司法局法治宣传教育股股长庄磊、宽城满族自治县司法局法治宣传教育股股长王欣获评“全国‘七五’普法中期先进个人”。', '11月6日 历时4天的2019“中国马镇”杯首届承德市金牌导游员大赛结束，本次大赛以“讲承德故事、赛职业技能、展导游风采、树行业榜样”为主题，通过三个（推荐、初赛、决赛）比赛环节，展现专业导游知识和服务技能，介绍城市风景和历史文化，全面考核参赛选手专业知识储备、语言表达、模拟带团、实地带团等综合能力素质。最终徐宝珠、周化绪、楚宏宇三名导游员分别获得冠亚季军；徐宝珠、王春雨、杨颖三人分别获得最佳才学奖、最佳人气奖、最佳风采奖。', '11月9日 被誉为“承德爱迪生”的张占海在第二十三届全国发明展览会·一带一路暨金砖国家技能发展与技术创新大赛上，凭借项目“造林用纸质无底营养杯”在2000多个参赛项目中脱颖而出，荣获“发明创业奖·项目奖”银奖。', '11月14日 为唤起全社会对儿童安全的关注，帮助孩子们从内心认识到自我防范的重要性，提高自我保护意识，“承才未来”中国儿童安全五防教育承德站的成立，五防教育就是“防性侵、防拐卖、防校园暴力、防灾害、防意外”。 该站由承德蓝天救援队以及承德优创教育联手打造。', '11月13日至14日，全国人大常委会副委员长、农工党中央主席陈竺到承德调研中医药传承创新发展和癌症防治工作。', '11月14日国家生态环境部正式命名第三批84个国家生态文明建设示范市县，兴隆县被授予第三批国家生态文明建设示范县称号。这是河北省首个获此荣誉称号的市县。', '11月17日 “新中国70年，镇馆之宝70件”文物和档案故事网上征集评选活动结果在中国青年网公示，承德市报送的两件作品荣列“最震撼网民的70件‘镇馆之宝’”名单。它们分别为承德县博物馆报送的《朝梁子村的账本》及承德市委网信办报送的《记录历史瞬间，见证祖国辉煌》。', '11月18日 在由农业农村部主办的第十七届中国国际农产品交易会上，中国农业品牌目录300个具有代表性的特色农产品区域公用品牌正式发布，“平泉香菇”农业品牌位列其中。', '11月18日承德市承德博物馆正式落成并对外开放。该承德博物馆全称为承德民族团结清文化展览馆暨承德市博物馆，2016年8月开工，总用地54088.1平方米，总建筑面积25163平方米，概算总投资为43060万元，位于普宁路与环城北路交叉口东北侧，普宁寺南侧，处于文物保护二类建设控制范围内和山庄外八庙景区三级保护区内，由一栋主体建筑、两栋配套建筑以及室外工程组成。场地中部偏南区域为展览及博物馆主体建筑，用于展示清代文化、历史、民俗和我市历史文化与城市风貌，陈列和保存相关历史文物。主体建筑北面和南侧各设置一栋配套建筑，用于提供参观者和游客观摩、学习与文化交流，并满足其休息与购物需求。', '11月19日 国家林业和草原局聘任了100人为全国第一批林草乡土专家，兴隆县蓝旗营镇苇子峪村国正家庭农场的陈国正名列其中。', '11月19日平泉市承德亚欧果仁有限公司的果仁破碎取仁装置、承德华净活性炭有限公司的生物气化多联产技术和杏林春晓承德生物科技有限公司的一种从苦杏仁中提取多种有效成分的方法同时荣获国家林业和草原局颁发的“中国林业产业创新奖”，该奖项是经国务院批准设立的林业产业最高荣誉。', '11月22日中国科学院2019年共产生中国科学院院士64名和外籍院士20名。其中，河北滦平崔铁军教授当选中国科学院信息技术科学部院士。崔铁军1965年生于滦平，毕业于西安电子科技大学，并获得该校的硕士及博士学位。崔铁军是承德市籍的第二位院士。（2013年隆化县的李德发被授予中国工程院院士称号，是承德市籍的第一位院士。）', '11月22日 国家林业和草原局履行《联合国森林文书》示范单位建设工作会议在四川召开。会上，塞罕坝机械林场被确定为履行《联合国森林文书》示范单位，塞罕坝是河北省唯一一家被授牌的单位。', '11月23日由承德市人民政府主办，承德市体育局和承德市教育局联合承办，承德市冰雪轮滑协会协办的2019年承德市首届冰雪运动会轮滑赛（社会组）暨河北省首届冰雪运动会轮滑项目社会组承德选拔赛在市奥体中心轮滑场举行。', '11月30日第四届美丽乡村国际微电影艺术节表彰典礼在广东省江门市举行，由兴隆县选送的微电影《青松岭新传》获最佳故事片奖，王久侠获最佳编剧奖。', '12月6日 截止即日 承德市已完成24家便民市场的主体建设，超额完成年初下达的20家目标任务。其中，新建生鲜超市21家，改造生鲜超市1家，新建农贸市场1家，新建菜市场1家。', '12月11日 农业农村部发文，确定120个县和8个市辖区为全国农民合作社质量提升整地区推进试点单位，承德县入选。', '12月12日由承德市政府主办，市体育局、市教育局承办的承德市首届冰雪运动会在承德市冰上运动中心开幕。市长常丽虹出席开幕式并宣布运动会开幕。首届冰雪运动会赛分为竞赛部分和展示部分两个单元。竞赛部分设青少年组、社会组两个组别，设有滑冰、冰球、陆地冰壶、轮滑、滑雪等5大项40多个比赛项目，参赛选手1600余人。', '12月12日北京首都开发集团向丰宁满族自治县捐赠扶贫资金仪式在承德市行政中心举行。首开集团党委书记、董事长潘利群，党委副书记、董事刘占山等嘉宾莅临仪式。承德市政府市长常丽虹出席并讲话。会上，首开集团向丰宁满族自治县捐赠扶贫资金284万元。', '12月12日 原国家卫生部部长、中国民族卫生协会首席顾问高强一行来承德市调研。中国民族卫生协会会长吴英萍，中国民族卫生协会副会长兼秘书长钱阳明，中国药师协会副会长、北京医学奖励基金会理事长颜晓文参加调研。北京医学基金会肿瘤防治项目经理、中国药师协会中药分会专家参加活动。', '12月12日由中国服装设计师协会、承德广播电视台主办的百雀羚·第二十五届中国模特之星大赛总决赛暨第十一届“美少女”中国影视模特大赛总决赛在中国马镇举行。', '12月15日夜间到16日白天，承德市出现强降雪天气，全市平均降水量已达5.7毫米。', '12月20日在承德市冰上运动中心——河北省残疾人冰上项目训练基地内，承德市首届残疾人冰雪运动季暨残健共融活动如约举办，来自我市各县（市、区）的39名残疾人、市特教学校的20余名师生，参加此活动。', '12月23日承德避暑山庄文化创意有限公司暨“避暑山庄文创园”在蒙古包举行开园仪式。', '12月24日中央宣传部、退役军人事务部、中央军委政治工作部联合发布2019年“最美退役军人”先进事迹，滦平县周台子村党委书记范振喜位列其中。', '12月24日 河北新闻网开展的2019年度“河北省网民留言办理工作先进单位及先进个人”评选结果出炉。承德市城市管理综合行政执法局获评“河北省网民留言办理工作先进单位”。承德市卫生健康委员会白云获评“河北省网民留言办理工作先进个人”称号。', '12月25日 北京市举行第十二届首都见义勇为好市民宣讲表彰会，在北京昌平区从事个体经营的兴隆人张立华因抢救落水卡车司机被评选为首都见义勇为荣誉市民。', '12月27日第七届中国旅游产业发展年会在海南三亚开幕，会上揭晓的“2019年中国旅游产业影响力风云榜”中，由承德市旅游和文化广电局申报的两个项目获奖，其中：国家“一号风景大道”荣获“2019旅游扶贫年度典型案例”称号，鼎盛文化产业投资有限公司荣获“中国旅游影响力双创企业”称号。', '12月28日 河北省政府公布第七批省级非物质文化遗产名录，承德市以下项目入选：传统音乐类，穹览寺音乐、铢铢镲；曲艺类：凌河大鼓。传统美术类，铜板浮雕画、面塑、泥塑；传统技艺类：宫绣、古琴斫制技艺、陈家熏鸡制作技艺、皮影雕刻技艺、丰宁铁艺灯笼、天木陈香制作技艺、丰宁九龙醉酒酿造技艺。民俗类，丰宁满族婚礼。', '12月30日 据中国教育在线 承德应用技术职业学院获评“2019年河北省五大高中生关注高职院校”、“2019年河北省五大中学信赖高职院校。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>承德市开展年世界城市日主题宣传活动</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2020-11-03</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2020%2F11%2F3%2Fart_360_659825.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_659825</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['本网讯（记者李敏）10月31日，是由我国首个发起设立的国际日——世界城市日，2020年世界城市日的主题为“提升社区和城市品质”。当天上午，我市多部门联手在市中心广场集中开展2020年世界城市日主题宣传活动，积极宣传我市在城市规划建设管理方面取得的突出成效，特别是结合“提升社区和城市品质”宣传活动主题，突出宣传全市老旧小区改造、物业服务提升、县城建设品质提升。', '据了解，按照《承德市2018—2020年老旧小区改造实施方案》，三年来我市改造老旧小区项目共568个，改造面积376.27万平方米，47783户，总投资7.62亿元，其中，2020年全市老旧小区改造项目259个，改造面积121.56万平方米，涉及户数14735户，计划投资3.39亿元。通过实施老旧小区改造，使我市老旧小区居民的生活环境和居住条件得到了改善，让居民生活的更方便、更舒心、更美好。三年来，我市对市中心城区316个老旧住宅小区实现了标准物业管理和提升，其中，2020年对市中心城区104个老旧小区开展物业提升工作，全市物业服务星级项目覆盖率达到60%。2020年作为县城建设品质提升活动收官之年，全市8县（市）通过采取加强组织领导、制定实施方案、精心谋划项目、强化督导调度、对标学习考察、严格考核评价等举措，县城建设品质提升工作成效显著。平泉、滦平、宽城三县（市）获得全省县城建设典型示范县称号。', '此次活动由市住建局牵头组织，市自然资源和规划局、市城管局、市园林局、市热力集团、双桥区住建局、双桥区城管局、会龙山社区和老居宅社区等部门共同开展。为做好此次宣传活动，市住建局和各部门共同制作宣传展牌14块、发放宣传单1200余份。此次宣传活动不仅提升了我市城市形象和品质，提高我市城市规划建设管理水平，对今后城市人居环境的改善和可持续发展具有重要意义。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>对承德市第十四届人民代表大会第五次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2020%2F9%2F11%2Fart_9949_644764.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9949_644764</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['承德市人民政府 建议提案 对承德市第十四届人民代表大会第五次会议第25号建议的答复', '截止到2019年底，全市60周岁以上老年人口74.05万，占全市人口总数的19.4%，人口加速老龄化、老年人口高龄化、老年人家庭空巢化、部分老人失能化“四化”叠加现象不断加重,', '居家养老(服务)是指以家庭为核心、以社区为依托、以专业化服务为依靠，为居住在家的老年人提供以解决日常生活困难为主要内容的社会化服务。服务内容包括生活照料与医疗服务以及精神关爱服务等。主要形式有两种:由经过专业培训的服务人员上门为老年人开展照料服务;在社区创办老年人日间服务中心，为老年人提供日托服务。近年来全市各级民政部门以社区为依托，以项目建设为抓手，坚持党政主导、社会参与，着力整合为老服务资源，建成覆盖城乡的居家养老服务网络，服务功能不断提升。', '立足老年人不断发展的实际需求和养老事业发展的新形势，不断完善居家养老服务体系建设，近几年来，我市相继出台一系列工作意见及奖补政策，印发了《承德市老龄事业发展和养老服务体系建设“十三五”规划》、《承德市社区和居家养老服务设施建设规划', '立足老年人不断发展的实际需求和养老事业发展的新形势，不断完善居家养老服务体系建设，近几年来，我市相继出台一系列工作意见及奖补政策，印发了《承德市老龄事业发展和养老服务体系建设', '为加快推进居家养老服务设施建设，一是积极争取省级补贴资金，每个综合型居家养老服务中心给予80-50万元的补贴资金，累计争取并拨付资金1360万元；二是安排福彩公益金，为补齐居家养老服务设施资金缺口，我局出台新政，在省级补贴资金基础上再给予50-30万元的补贴；三是争取市级财政预算资金，按照每张床位100元的标准申请居家养老服务中心运营补贴，累计争取并拨付资金100余万元。', '为加快推进居家养老服务设施建设，一是积极争取省级补贴资金，每个综合型居家养老服务中心给予', '一是推进综合型居家养老服务中心建设，以街道办事处为单位，完成居家养老服务中心建设任务，其建筑面积不少于', '平方米，目前全市已建成项目16个，覆盖率89%。二是推进居家养老服务站建设。以社区居委会或大型生活小区为单位完成居家养老服务站建设，作为居家养老服务中心在社区落实服务的末端网点和服务配送的支援网点，目前全市已建居家养老服务中心135个，覆盖率82%。以居家养老服务中心、居家养老服务站为平台、载体，开展助餐、助浴、助医、助洁、助行等多元化养才服务。', '积极应对“互联网+”时代的新形势、新要求，打造信息化养老服务平台，满足老年人多元化的服务需求。一是建立基本数据库。建立和完善老年人口数据库、居家养老服务中心（站）和志愿者服务数据库，动态更新，目前入网老人9600人。二是健全服务网络。以“12349”平台为依托，依托承德电信云平台打造互联网+养老的新模式，为老年人提供居家生活、居家健康、居家安全三大类居家养老服务，构建“没有围墙的养老院”，目前', '所有居家养老服务中心充分体现综合性、医养结合的特点，按照标准内设医务室或与医疗卫生机构签订医疗服务合约，充分利用闲置的医疗机构的空置床位，将康复技术、医疗技术和养老', '助家庭护理人员掌握相应的老年技术护理、生活照料、康复护理、心理护理等知识和技能，安排福彩公益金70万元采取政府购买服务的方式招标确定实施单位，', '助家庭护理人员掌握相应的老年技术护理、生活照料、康复护理、心理护理等知识和技能，安排福彩公益金', '在全市范围免费开展居家养老护理技能培训活动。培训内容包括养生知识、康复护理、急救知识等，参与对象为高龄老人、失能、半失能老人家庭护理人员，居家养老服务中心专兼职人员及社区居民等，历时一年累计培训156场次，覆盖全市所有社区居委会。每场次参加人员30至50人，累计培训7000余人。居民反响热烈，认为此次培训贴近老年人实际需求，发挥实效作用大。', '在全市范围免费开展居家养老护理技能培训活动。培训内容包括养生知识、康复护理、急救知识等，参与对象为高龄老人、失能、半失能老人家庭护理人员，居家养老服务中心专兼职人员及社区居民等，历时一年累计培训', '为学习外地的先进经验及管理模式，2016年相关科室业务人员赴德国考察雷纳范公司旗下的居家养老中心，今年主管局长和科室具体工作人员又与利华副席赴兰州、西安进行学习考察，', '特别是城市中心区，大都为寸土寸金的黄金地段，作为居家养老服务平台的服务设施原先没有列入社区规划，缺少足够的场地开展居家养老照护服务。', '现有的居家养服务内容大多以家政服务项目为主，还不能充分满足广大老年人多元化的服务需求，居家照护服务的瓶颈制约比较突出。同时，在服务内容和行为上还欠缺相应的规范，服务供求双方均存在较大的安全风险隐患。', '目前推动居家养老服务过程中行政色彩较浓，市场运作机制尚未真正形成，居家养老服务设施资产重、投资大、回报率低，运营居家养老服务项目风险较大，目前支持政策不足，社会资本进入居家养老服务市场渠道不畅、积极性不高；老年人的消费观念和子女的养老观念有待转变，自费购买所需养老服务的意识尚未确立。', '大力发展城市居家养老服务，对破解日趋严峻的养老服务难题、切实提高老年人生活质量具有重要意义。为此，我们将进一步深化养老服务业改革、转变发展方式，在深入推进、深化内涵、深度创新上下功夫，努力推进优质居家养老服务新发展。重点做好以下四方面工作：', '完善老年人数据库和健康档案，加强与预约诊疗系统、双向转诊系统、远程会诊系统、电子病历系统、120急救系统等对接，组建医养融合、信息互通的数据平台，发挥注册护士、退休医生等在家庭出诊、家庭护理、家庭病床等延伸性医疗服务的作用。社区居家养老服务中心（站）、居家养老社会组织与基层医疗卫生机构签订协议，为老年人提供专业的医疗保健和上门医护服务，2020年实现社区居家养老医养融合全覆盖。', '完善老年人数据库和健康档案，加强与预约诊疗系统、双向转诊系统、远程会诊系统、电子病历系统、', '强化措施，加强基础设施建设，规范服务标准，整体推进居家养老服务提档升级。开展居家养老服务标准化试点工作；持续拓展服务内容，合理设置服务项目，从解决老年人助餐、日间照料等“受欢迎又管用”的服务项目出发，开发一些可操作、能落地、反响好的服务项目，服务内容；建立养老服务评估制度。对养老机构等级评定、高龄失能老人护理补贴、养老机构运营补贴等项目进行评估，通过评估科学确定机构等级、照料护理等级和养老服务补贴领取资格等。', '强化措施，加强基础设施建设，规范服务标准，整体推进居家养老服务提档升级。开展居家养老服务标准化试点工作；持续拓展服务内容，合理设置服务项目，从解决老年人助餐、日间照料等', '激发市场活力，提高社会化程度，让更加优质的居家养老服务惠及更多老年人。一是深化政企合作。充分利用“线上线下”服务资源，进一步提高“12349”平台的运行效率。不断优化服务方式、拓展服务内容，培育社会组织和企业提供居家养老服务； 二是推动政社互动。建立健全市、辖市（区）、街道（镇）三级社会组织培育孵化基地网络，重点培育养老便民、公益慈善、社区服务等社会组织。以助餐、护理、照料等服务项目为切入点，通过公办民营、无偿提供场地、设备、水电费等方式，引入、培育、发展社会组织和企业，为居家老年人提供价格合理的多样化产品和服务。', '激发市场活力，提高社会化程度，让更加优质的居家养老服务惠及更多老年人。一是深化政企合作。充分利用', '完善政府购买服务制度。制定民政公共职能购买服务目录，落实购买资金，健全购买机制，重点列出可以向社会组织购买的社区事务、养老服务、社会福利、社工服务等民生服务和社会治理事项，逐步构建政府监管、社会监督、社会组织自律的综合监管体系。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>我市组团参加第二十二届中国国际高新技术成果交易会</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2020-11-17</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2020%2F11%2F17%2Fart_9944_664589.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_664589</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['”的主题。集中展现中国科技自主创新取得的新成就，促进高新技术成果与产品交易，为科技成果转化提供平台和桥梁。我市由市商务局牵头，带领相关县区、市直单位科技、发改等，开发区', '天乾地坤智能锁项目负责人的情况介绍后，鼓励企业要加强研发适销对路的新产品，促进出口、内销双循环。', '展示推介我市最先进的技术、产品，并安排企业专人现场咨询和对接洽谈，做好参会企业展场对接洽谈工作。', '活动。学习借鉴了深圳市高新技术产业、外贸综服、跨境电商及海外仓等相关领域发展经验。下一步，我市将充分消化吸收此次考察的经验，结合我市实际，创新']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>承德市退役军人事务局赴邯郸涉县学习考察双拥工作</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-12-17</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F12%2F17%2Fart_9945_203814.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_203814</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['为落实好河北省双拥办主任会议精神，进一步做好新时代双拥工作，全面提升承德市双拥工作水平，12月3日，承德市退役军人事务局组织各县（市、区）退役军人事务局局长、双拥工作主要负责同志赴邯郸涉县进行学习考察。此次学习实地考察了涉县“拥军志愿服务联盟”及服务站建设情况，并结合正在开展的“不忘初心、牢记使命”主题教育参观了八路军一二九师司令部旧址。', '为落实好河北省双拥办主任会议精神，进一步做好新时代双拥工作，全面提升承德市双拥工作水平，', '考察结束后，承德市退役军人事务局召开专题会议作出安排部署，要求各县（市、区）进一步提高政治站位，认真落实河北省双拥办主任会议精神，结合本地实际情况，迅速学习推广涉县', '“拥军志愿服务联盟”做法，加大政策支持力度，鼓励社会力量广泛参与，搭建起双拥工作社会服务平台，积极主动抓好落实。要全力推进退役军人荣誉体系制度建设，为国家级、省级双拥模范城（县）创建工作打下坚实基础，真正做到让退役军人成为全社会尊崇的职业。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>对政协承德市第十四届委员会第三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2019-12-10</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F12%2F10%2Fart_9949_209400.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9949_209400</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['您提出的关于“建立“中心吹哨 部门报道”机制破解优化营商环境难题 更好服务企业发展”的提案收悉，现答复如下：', '为充分发挥企业发展服务中心职能，切实提高服务水平，进一步激发市场活力，为更好落实《建立“中心吹哨 部门报到”机制，破解优化营商环境难题 更好服务企业发展的建议》要求，我局主要开展了以下工作：', '一是加强组织领导。第一时间成立了由一把局长为组长，分管同志为副组长，业务科室承办的提案办理工作领导小组，全力谋划开展提案办理工作。二是深挖机制内涵。中心“吹哨”统筹协调督导推进，精准反映并督办反馈问题；部门“报到”迅速到位、解决问题，集中部门职能、整合公共资源，降低企业办事门槛、减少跑腿频次，增加信息公开透明化程度，形成合力，解决问题。三是学习外地经验。组织局主管领导和相关科室人员赴北京平谷区、怀柔区，邢台市清河县经济开发区、邢台市行政审批局等单位就“乡街吹哨、部门报到”机制和“两不见面”先进经验进行实地学习考察，汲取经验。四是完善机构设置。在市委、市政府主要领导的高度关注下，我局对企业发展服务中心的职能设置、内设机构和人员编制等事宜进行了研究谋划，提出了11项工作职责，拟设置6个职能科室，申请为30个编制的副处级事业单位，实现“事有人干”。', '以优化全市营商环境为目标，以构建协调联动服务机制为途径，以切实解决企业困难为目标，抓住“放管服”改革契机，在赋权、明责、规范上下功夫，“以“吹哨”反映企业诉求、发出集结令，以“报到”引领各部门响应、解决企业问题，形成行之有效的服务管理流程和体系，破解我市服务企业工作联动响应机制不健全，协同联动工作机制落实不到位问题，推动企业发展服务工作提质提效。', '建立“中心吹哨、部门报到”工作机制。我局起草了《关于推进“中心吹哨、部门报到”工作机制实施细则（征求意见稿）》，并书面征询了各县（市、区）政府、高新区管委会及27家市直部门等有关单位意见，根据征得的意见和建议对《征求意见稿》进行了修改完善，经市政府主要领导批准，2019年7月8日，市政府办公室印发了《承德市“中心吹哨、部门报到”工作机制实施细则》。', '等十大类多层次的服务体系。三是明确工作流程。中心收集企业问题梳理问题（分析归类）中心“吹哨”交办→部门“报到”承办→部门处理结果反馈→中心对承办结果审核（反馈给企业征求意见）→中心督办（企业对处理结果不满意）→企业满意度调查→评价考核（根据部门完成情况形成绩效清单）。按照事权划细分为一般性日常工作、多部门联动工作和重大复杂问题工作三个流程，多部门联动工作，由中心组织有关部门召开专题议事会议，共同研究解决，问题承办结果及时向企业反馈；重大复杂问题工作，由中心提请本级企业发展服务工作领导小组召开议事会议，共同研究解决，问题承办结果及时向企业反馈。突出“清、快、明、实”，即办理企业难题时做到内容清晰、转办快捷、责任明确、效果实在。', '四是明确保障机制。突出问题导向，结合实际，制定了响应联动、审核督办、联席会议、定期专报、工作通报、信息报送、数据共享、市县联动等八大保障机制，实现企业服务工作日常情况统计、任务受理分派、事件协同处理、在线整改反馈、权责清晰到人、随时检查跟踪的闭合运转链条。', '（1）响应联动机制。企业发展服务中心根据问题清单和责任清单，向部门下达转办单或发出召集信息，跟踪督办、及时反馈。部门接到企业发展服务中心下达的“吹哨信号”后（转办单或召集信息），立即响应，分管领导负总责、全程督办盯办，按时办结。', '（2）审核督办机制。企业发展服务中心对部门服务企业工作进行督办，对问题承办结果进行审核，对企业问题答复不满意或无正当理由超期未办结的部门下达《问题督办单》（以下简称《督办单》），督促部门完成交办任务。企业发展服务中心根据绩效清单，结合部门落实情况形成综合绩效。', '（3）联席会议机制。企业发展服务工作领导小组每季度至少召开一次联席会议，重点研究企业反映的复杂疑难问题，破解体制机制难题。联席会由领导小组副组长主持，也可指派1名政府秘书长主持，企业发展服务中心具体组织，部门分管领导和具体负责人参加会议。', '（4）定期专报机制。对于企业反映的解决难度较大、具有普遍性、全局性的问题，企业发展服务中心将问题进行梳理汇总并提出合理化建议，上报企业发展服务工作领导小组，为政府领导决策提供参考。', '（5）工作通报机制。企业发展服务中心每月通报企业发展服务工作情况，并将重点任务完成情况和特色亮点工作情况上报同级党委、政府，并接受监督。', '（6）信息报送机制。各部门要定期向企业发展服务中心报送工作开展情况，接收上级对口部门制发的涉企服务文件应于2日内上传至企业发展服务信息平台，本部门制发的涉企服务文件应于1日内上传企业发展服务信息平台。', '（7）数据共享机制。依托“互联网+政务服务”平台、“满意承德”城市综合服务平台、企业发展服务中心微信公众号，整合数据资源，有效提升服务企业能力。充分利用《承德市跨部门中小企业政策信息发布平台》和《河北省政企直通平台》的信息发布作用，及时为企业送政策、送信息、送服务。加快信息系统融合力度，统一数据格式，实现一个平台发布，其他平台共享。', '（8）市县联动机制。各县（市、区）企业发展服务中心接到市企业发展服务中心“吹哨”信号后，立即启动“报到”程序，明确分管领导和责任单位，按期办结。不能解决的，向市企业发展服务中心书面说明情况，配合做好答疑工作。', '一是收集问题手段单一。目前中心主要工作是收集企业问题，向部门转办督办，完全人工作业，工作量大而繁杂，缺乏系统科学的管理服务手段，无法更精准地做好服务。', '二是“吹哨”层级较低。中心目前办理事项大多集中在证照办理、行政许可、政策咨询等方面，较领导提出的要求和先进地区情况存在较大差距，在金融扶持、大数据建设、政策引导、中介服务、企业资源拓展等方面没有有效的载体，影响服务企业效率。', '三是机构设立空白问题。目前，市县两级企服中心尚无明确的编制、机构、人员。7月4日,省重点工作大督查第二督察组在宽城县督查时指出，宽城县企服中心流于形式，没有专门编制，均为兼职人员，企服范围窄，且与许多相关部门存在职能交叉，很难为企业发挥有效服务作用。此现象在各县（市、区）普遍存在。', '四是中心与个别部门服务职能交叉。主要体现在市发改委设有“双创双服”办公室，市工信局建有中小企业公共服务平台，市工商联建有冀商e家平台，面对基本固定的企业，服务方式雷同、解决问题力度分散，无法形成合力。', '一是建立智能化服务平台。加快推动企业发展服务中心信息化平台（“承”心办APP）落地，丰富问题收集手段，实现企业服务线上线下互动、智能化闭合运行。', '二是拓展企服工作范围。谋划建立市县主导产业发展大数据库、“中介超市”、企业之家等机构，在金融扶持、政策引导、信息应用、中介服务、品牌扶持、人力资源拓展等企业急需方面建立有效载体，提高服务质量和办事效率，为领导提供决策依据。', '三是推动落实编制、机构、人员、后勤保障。目前，市企业发展服务中心成立机构请示文件已按程序报市编办待批。', '四是补充完善工作机制。出台《“中心吹哨、部门报到”工作机制考核办法（试行）》，完善充实各项工作规范和制度，学习外地服务企业发展的经验做法，提升2181234热线接听水平和标准。', '五是上下联动创新工作方法。加强调研，鼓励县（市、区）企服中心，因地制宜，创新工作方法，出台新举措；探索“保姆式领办代办”模式，主动服务企业，对重点项目上门代办、全程帮办。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>津承东西部扶贫协作联席会议在天津举行</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2019-12-02</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F12%2F2%2Fart_9945_204004.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_204004</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['11月9日，市长常丽虹率承德代表团赴天津市对接交流津承东西部扶贫协作工作。当日下午，津承东西部扶贫协作联席会议在天津市迎宾馆举行。天津市副市长李树起、承德市市长常丽虹出席会议并讲话。天津市政府副秘书长张剑主持会议。承德市领导杨春武、崔万峰出席会议。', '常丽虹对天津市多年来给予承德市的倾力帮扶表示衷心感谢，并就今年对口帮扶工作取得的新进展、新成效进行汇报。她说，这既是一次表达谢意之行，也是一次深化合作之行，更是一次学习取经之行。天津市各级领导高度重视对口帮扶承德工作，多次率团来我市考察调研帮扶工作，帮扶力度之大、措施之实、亮点之多、效果之显着，让我们深受感动，倍感鼓舞，更加坚定了我们做好脱贫攻坚工作，加快承德创新发展、绿色发展、高质量发展的决心和信心。', '常丽虹表示，承德市要认真贯彻落实习近平总书记对精准扶贫、精准脱贫工作的重要指示精神，聚焦“两不愁三保障”，进一步打好八措并举“组合拳”，以深化天津对口帮扶为动力，全力抓好扶贫协作重点项目落实等各项工作，确保所有贫困县出列，取得全市脱贫攻坚的关键性胜利，以实实在在的工作成绩回报天津市委、市政府和天津市人民的厚爱。希望双方继续扩大合作成果，全面深化津承扶贫协作，力争把天津对口帮扶承德打造成为东西部扶贫协作的样板工程。', '李树起对承德市代表团一行的到来表示热烈欢迎。他说，做好津承对口帮扶工作，是党中央赋予天津的重大政治任务，是天津尽好京津冀协同发展使命、呵护好京津冀水源涵养功能区的分内职责。', '李树起表示，要围绕全面落实津承“1+4”帮扶协议，在帮扶项目建设、劳务协作、消费扶贫和社会帮扶等方面持续升级加力，确保高质量完成今年帮扶目标任务。要聚焦“两不愁三保障”目标，逐项细化指标任务，逐级落实，力争今年扶贫协作工作取得好成绩。要继续深化与承德多领域对接合作，总结并推广扶贫协作成功经验、模式，高水平谋划好明年对口帮扶工作，用心、用情、用力助推承德打赢脱贫攻坚战。', '天津市直相关部门负责同志、东丽区、西青区、津南区、武清区负责同志，天津市食品集团、天津中德应用技术大学负责同志，承德市直相关部门主要负责同志，承德县、平泉市、围场满族蒙古族自治县、隆化县、丰宁满族自治县政府主要或分管负责同志，承德应用技术职业学院、承德六沟产业园主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>对政协承德市第十四届委员会第三次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F12%2F11%2Fart_9949_209397.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9949_209397</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['承德市人民政府 建议提案 对政协承德市第十四届委员会第三次会议 第0043号提案的答复', '按照市政府的统一安排部署，我市“小饭桌”的规范治理工作按计划有序推进，自2月份以来，先后成立了组织机构，开展了专题调研、进行了集中整治、组织外出考察、起草了《管理办法》、广泛征求意见建议、开展了合法性审查等工作，取得了阶段性成果。', '2月20日，市政府常丽虹市长主持召开“小饭桌”管理工作专题调度会，会议听取了工作汇报，杨春武副市长和崔万峰秘书长讲了具体工作意见，最后常丽虹市长就加强“小饭桌”综合管理工作提出明确要求并进行了全面部署。自2月15日至今，杨春武副市长又多次组织召开“小饭桌”管理工作推进会，统筹解决工作中遇到的重大问题。', '2月28日，市政府成立了承德市“小饭桌”规范治理领导小组，丽虹市长任组长，春武副市长、万峰秘书长任副组长，市直有关部门和县（市、区）政府主要负责同志为成员。领导小组负责统筹、谋划、推动“小饭桌”综合管理工作。领导小组下设办公室，办公室设在市场监督管理局，市场监管局局长任办公室主任，市直有关部门的主管领导任副主任。', '月下旬，在我局张树国局长带领下，组织“小饭桌”领导小组成员单位，分别到双桥区和承德县开展了调研活动，实地走访小饭桌8家，分别召开“小饭桌”经营者、教师、学生家长、街道社区、监管人员、利害关系人等', '按照预防为主、安全第一的原则，在春季开学之际，以政府办名义下发了《关于加强小饭桌监管工作的紧急通知》，我局联合教育等部门推动县区开展了为期一个月的集中联合执法行动，并在双桥区和承德县进行了先行试点。通过联合执法行动摸清了小饭桌底数，排查出各类安全隐患22个，并提出整改要求，守住了不发生安全事故的底线，也为下一步制定制度规范提供了依据。据统计，全市共有“小饭桌”1527家，托管学生43715人，其中有证602家，无证925家，分别占39%和61%；在商业用房开办的“小饭桌”204家，在住宅开办的1323家，分别占13%和87%；开展作业辅导的“小饭桌”1201家，无作业辅导（只负责中午接送休息）的326家，分别占比79%和21%。存在各类安全隐患的有331家，占比22%。', '按照预防为主、安全第一的原则，在春季开学之际，以政府办名义下发了《关于加强小饭桌监管工作的紧急通知》，我局联合教育等部门推动县区开展了为期一个月的集中联合执法行动，并在双桥区和承德县进行了先行试点。通过联合执法行动摸清了小饭桌底数，排查出各类安全隐患', '为全面加强“小饭桌”综合管理，学习借鉴外地“小饭桌”管理成功经验，加强协作交流和沟通，4月8日至4月11日，由张树国局长带队，组织市场监管局、教育局和双桥区局相关人员13人赴河北省廊坊市和山东省德州市开展了学习考察活动。此次考察路线较长，涉及两个省的两个市，我们充分利用仅有的两天时间，通过实地参观和座谈交流等方式积极与当地有关人员深入交流，着力找寻“小饭桌”有关的制度规范、出台背景、准入条件、管理模式、成功经验、实际效果等。廊坊市在加强校外托管机构管理上大胆创新经验较多，德州市在制定校外托管机构的制度规范方面领先一步值得借鉴。', '廊坊市在加强校外托管机构管理上大胆创新经验较多，德州市在制定校外托管机构的制度规范方面领先一步值得借鉴。', '为落实好仲明书记和丽虹市长的批示精神，按照市政府的安排部署，在调查摸底、专题调研、考察学习、先行试点、征求意见的基础上，我局依据相关法律、法规和文件在4月底牵头起草了《承德市“小饭桌”服务管理暂行办法》（以下简称《办法》），征求意见第一稿。5月9日组织召开了“小饭桌”规范治理工作领导小组成员单位参加的《办法》征求意见会。结合各部门意见建议，形成了《办法》征求意见第二稿。6月5日，按照春武副市长要求，我们又征求了市人大、市政协、省市场监督管理局、各县（市）区政府及部分人大代表、政协委员意见建议。根据大家意见建议，对《办法》进行了完善和修改，形成《办法》征求意见第三稿。8月8日，丽虹市长又主持召开了“小饭桌”规范治理工作调度会，听取了“小饭桌”有关工作汇报和《办法》起草情况说明。按照丽虹市长的指示要求，我们对《办法》进行了进一步的完善修改，通过了合法性审查。至此《承德市“小饭桌”服务管理暂行办法》的起草工作基本完成，共七章34条，并于8月12日经市政府常务会通过。', '为落实好仲明书记和丽虹市长的批示精神，按照市政府的安排部署，在调查摸底、专题调研、考察学习、先行试点、征求意见的基础上，我局依据相关法律、法规和文件在', '起草《办法》时，充分考虑了全市“小饭桌”的实际状况和社会需求，特别是针对在住宅楼里开办的家庭式经营“小饭桌”居多的客观实际，不搞一刀切。', '在确保安全的前提下，坚持疏堵结合规范为主，放管结合服务为主。为解决学生托管难题，要坚持', '两条腿走路。一是发挥政府的主导作用，要求各县（市、区）政府统筹推进学校食堂、学生午休、集中配餐、延时服务等设施配建，完善校内托管服务。二是鼓励企事业单位、社会团体、公民及其他社会力量利用商业用房举办规模较大、管理规范、有经营资质的校外托管机构，满足社会需求。另外对利用住宅开办家庭式经营“小饭桌”的，要依法规范、严格监管、优化服务、确保安全。', '两条腿走路。一是发挥政府的主导作用，要求各县（市、区）政府统筹推进学校食堂、学生午休、集中配餐、延时服务等设施配建，完善校内托管服务。二是鼓励企事业单位、社会团体、公民及其他社会力量利用商业用房举办规模较大、管理规范、有经营资质的校外托管机构，满足社会需求。另外对利用住宅开办家庭式经营', '《办法》没有设定新的许可及备案，但是考虑到“小饭桌”涉及广大中小学生的身心健康，《办法》明确了行业标准和开办条件，', '同时为了加强监管和社会监督，实行开办信息申报和公示制度，要求“小饭桌”开办者就近向乡（镇）政府、街道办事处申报开办信息，符合条件的，发放《开办信息公示卡》。另外为了方便群众办事，《办法》要求市场监督管理部门、教育行政部门会同应急、卫健、公安、住建等部门', '通过调研大家普遍反映我市“小饭桌”存在法律依据不足，标准不统一，职责不清，监管难度大；重审批轻监管，只审批不服务；手续繁琐，办证难度大；住宅楼里居多，先天不足，消防隐患突出，扰民问题也客观存在；以及从业者素质参差不齐，对孩子疏于教育管理，影响孩子行为习惯等问题，如何解决这些问题在起草《办法》时都进行了充分考虑，主要体现以下几个方面：', '明确“小饭桌”开办者是学生在“小饭桌”安全的第一责任人，开办者必须与乡（镇）政府、街道办事处签订《安全承诺书》，与学生家长签订《安全责任协议书》，并严格遵守相关法律法规和本《办法》规定，对学生安全负责，接受社会和家长监督。', '县（市、区）政府（含承德高新区管委会、御道口牧场管委会）对本辖区学生“小饭桌”的服务管理工作负总责，统一领导本辖区“小饭桌”服务管理工作。', '市场监管、教育、应急、卫健、公安、住建、行政审批、城管、生态保护等有关部门，依照法律、法规和本办法，在各自职责范围内共同做好“小饭桌”服务管理工作。乡（镇）人民政府、街道办事处负责辖区内“小饭桌”的日常服务管理和协调工作。', '市场监管、教育、应急、卫健、公安、住建、行政审批、城管、生态保护等有关部门，依照法律、法规和本办法，在各自职责范围内共同做好', '（3）《办法》加强了对从业人员管理，解决从业者素质参差不齐，影响孩子行为习惯问题。', '“小饭桌”的开办者和工作人员应无犯罪记录，身体健康，没有精神性疾病、传染性疾病或者其他可能影响学生健康与安全的疾病。同时还要求“小饭桌”应根据托管学生人数配备工作人员，确保学生在“小饭桌”期间始终有工作人员照看。', '起草《办法》时，充分借鉴了廊坊提出的双主体责任、德州的备案公示、深圳的校内为主校外为辅的托管模式、北京的“乡镇吹哨、部门报到”等做法，同时又结合承德实际，解放思想，大胆创新。在《办法》中无论是标题还是内容，突出政府服务职能，强调寓管理于服务之中的理念，创新服务管理方式，对“小饭桌”推行星级管理，开展“十优百佳小饭桌”评选活动，发挥行业协会、学生家长、新闻媒体作用，实现社会共治。', '起草《办法》时，充分借鉴了廊坊提出的双主体责任、德州的备案公示、深圳的校内为主校外为辅的托管模式、北京的', '下一步，在《办法》正式出台后，制定政府和部门责任清单，明确目标任务，加强事中事后监管，开展秋季小饭桌专项整治行动，建立“小饭桌”长效监管机制， 推动《办法》有效实施，确保民生实事落地，让“小饭桌”成为群众的“放心桌”。', '下一步，在《办法》正式出台后，制定政府和部门责任清单，明确目标任务，加强事中事后监管，开展秋季小饭桌专项整治行动，建立']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2023%2F9%2F15%2Fart_360_955730.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_955730</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰、闻宇硕）9月14日，市委常委会召开扩大会议，传达学习习近平总书记在新时代推动东北全面振兴座谈会、在黑龙江省考察时的重要讲话指示精神和向2023年中国国际服务贸易交易会全球服务贸易峰会、全国优秀教师代表、2023中国国际智能产业博览会、2023年浦江创新论坛的致辞、致信和贺信精神，传达学习河北省党政代表团赴新疆学习考察精神，研究我市贯彻落实意见。市委书记柴宝良主持并讲话。', '会议指出，要深入学习贯彻习近平总书记重要讲话指示精神，积极构建现代化产业体系，着力培育战略性新兴产业和未来产业，加快形成新质生产力，增强发展新动能。要扎实推进特色农业强市建设，全力抓好特色农业产业示范带和精深加工集群建设，推动农业高质量发展。要大力发展文化旅游业，深入实施温泉、冰雪等重点项目，打造全域游、全季游、特色游旅游目的地。要大力弘扬教育家精神，培育高素质教师队伍，扎实推进基础教育高质量发展。', '会议强调，要坚决贯彻新时代党的治疆方略，持续深化医疗援疆、产业援疆、人才援疆和文化润疆，做好援疆干部人才服务保障，扎实推动对口援疆工作迈上新台阶。', '会议学习了《河北日报》“冀言”文章《打造全球创新高地必须汇聚一切创新要素》，听取2023年省市民生工程进展、创建全国文明城市、国家卫生城镇创建、矿山重大事故隐患专项整治、清洁取暖工作情况汇报，审议通过《承德市国家卫生城镇创建工作提升方案》。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>市政协召开党组扩大会议暨赴先进地区学习考察汇报会</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2023%2F9%2F12%2Fart_360_954917.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_954917</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['本网讯（记者李亚冰）9月11日，市政协召开党组（扩大）会议暨赴先进地区学习考察汇报会。市政协主席、党组书记吴清海主持会议并讲话，市政协领导李建华、张富民、刘众民、董旭明、赵振清、谷宏健、杨宪军，秘书长单化军出席会议。', '会议传达学习了习近平总书记近期重要讲话、文章和中央、省委、市委有关会议精神，听取了市政协各专题考察组赴先进地区学习考察情况汇报，安排部署下一步工作。', '吴清海指出，要深入学习贯彻习近平总书记重要讲话精神，认真贯彻落实中央和省委、市委部署要求，坚持建言资政和凝聚共识双向发力，努力提高人民政协调查研究、把握政策、推进工作和联系群众的能力和水平。', '吴清海强调，要全面总结提炼外出学习考察成果，对标先进、取长补短、改进工作，以思想的大解放提升建言水平大提升，切实把履职成果转化为推动经济社会高质量发展的思路方法和具体举措。', '吴清海要求，要结合高质量开展学习贯彻习近平新时代中国特色社会主义思想主题教育，努力实现从解剖一个问题到解决一类问题、从剖析问题式考察到解决问题式考察、从被动式临时对接到主动性常态沟通、从政协机关主导到政协委员主动的“四个转变”，以实干实绩彰显新时代政协新形象。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>市政协召开党组扩大会议暨赴先进地区学习考察汇报交流会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2024%2F6%2F7%2Fart_360_1005583.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_1005583</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 市政协召开党组（扩大）会议暨赴先进地区学习考察汇报交流会', '本网讯（记者于丽静）6月6日，市政协召开党组（扩大）会议暨赴先进地区学习考察汇报交流会。市政协党组书记、主席吴清海主持会议并讲话。', '会议传达学习贯彻习近平总书记近期重要讲话、文章精神和中央、省委、市委重要会议精神，听取市政协各专题考察组赴先进地区学习考察情况汇报，安排部署下一步工作。', '吴清海指出，要深入学习贯彻习近平总书记重要讲话精神，认真贯彻落实中央和省委、市委部署要求，将高质量开展党纪学习教育与政协各项履职工作贯通融合，以外出学习考察的务实成效体现过硬作风本领，为奋力谱写中国式现代化建设承德篇章贡献智慧和力量。', '吴清海强调，要深刻认识加强学习考察的重要意义，持续增强围绕中心、服务大局的紧迫感和责任感，从对标和思考中提振信心、理清思路、明确路径，努力实现工作理念、工作能力、工作本领“三提升”，矢志不渝夯实政协谋事之道、成事之基，彰显专门协商机构重要作用。', '吴清海要求，要集中力量组织推动当前重点工作。坚持紧跟市委步伐，高质量开展党纪学习教育，认真做好市委巡察市政协机关“后半篇文章”，精心组织好市政协常委会会议专题协商议政和庆“七一”主题活动，切实强化组织领导、层层落实到位，乘势而上推动全年履职工作再上新台阶、展现新作为。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>赤峰市政协来承考察</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2024%2F4%2F28%2Fart_360_998907.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_998907</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['本网讯（记者张楠，通讯员甘明锋）4月25日至26日，赤峰市政协主席苏雅勒其其格率考察团到我市，围绕生态文明建设、历史文化传承利用、政协工作创新等开展学习考察，承德市、赤峰市签订“友好政协合作框架协议”。市政协主席吴清海等参加活动。', '考察团先后实地考察了塞罕坝展览馆，详细了解荒漠生态一体化保护修复情况，参观了市政协金坤文化产业园“委员会客厅”，调研了解打造“承事好商量”特色协商品牌经验做法，认真考察我市有关文化产业项目，深入开展座谈交流。', '考察团对承德市政协取得的成绩给予充分肯定，认为我市政协创新实施党建引领、协商民主、提案提升、凝心聚力、担当为民、美丽家园“六大工程”，突出委员主体作用，与时俱进“双向发力”，纵深推动“承事好商量”特色品牌建设，着力打造“五型”委员会客厅、委员工作站，一系列经验做法干在实处、走在前列、富有成效，值得深入学习借鉴。', '吴清海表示，承德、赤峰两地人文相亲、山水相连，赤峰市政协的好经验好做法，为承德政协事业发展拓展了工作思路、提供了宝贵借鉴。希望以此次学习考察为契机，进一步推动两地政协联络联谊、协商交流、携手共进，以实际行动为中国式现代化建设作出政协贡献。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>全市经开区赴津冀地区学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2024%2F6%2F7%2Fart_362_1005626.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_1005626</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['6月3日—5日，由市政府分管领导和市商务局主要负责同志带队，组织全市8家省级经开区赴天津市、沧州市和保定市，围绕开发区“管委会+公司”改革等工作进行学习考察并与当地有关负责同志和企业家代表座谈交流。此次学习考察，进一步解放思想，开拓视野，为我市经济开发区改革发展提供了有益参考。通过借鉴先进地区优秀做法和先进经验，进一步优化工作思路，做实工作举措，助推经开区“四大提升”行动落地见效，不断提升我市经开区管理服务水平，加快开发区扩能升级步伐。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>丰宁县以人才交流促进科技交流助力承德建设国家可持续发展议程创新示范区</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2023%2F7%2F6%2Fart_362_941955.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_941955</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['承德市人民政府 部门动态 丰宁县以人才交流促进科技交流，助力承德建设国家可持续发展议程创新示范区', '为落实“五包一”包联帮扶和区域性结对帮扶成效，助力我县巩固脱贫攻坚成果，丰宁县科技局与唐山市丰润区科技局以人才交流促进科技交流，全面推动乡村振兴。', '6月29日-30日，由县发展和改革局副局长孙文彬带队，发展改革局、黄旗皇农业公司、御今农业公司一行7人到丰润区进行对接、学习。唐山市科技局有关负责同志、丰润区科技局王开强局长及丰润区企业代表等人参加对接座谈。双方人员就两地的科技创新主体、研发平台、科技项目、科技成果转化等方面进行了沟通交流，并在丰润区科技局安排下学习考察燕沣园生态农场、祥通融成医药（唐山市众创空间、青年创业孵化基地）、万盈创业创新孵化园、中车唐山机车车辆有限公司等5家企业。两地企业家就相互合作进行深入交谈。', '此次交流为我县学习丰润区先进科技管理经验、企业管理制度等架构了桥梁。接下来丰宁县将以此为契机，继续加强沟通，选派更多人员学习对方好的经验做法，保障区域帮扶成效，为承德建设国家可持续发展议程创新示范区做贡献。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2023%2F3%2F24%2Fart_360_921543.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_921543</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰）3月23日，市委常委会召开（扩大）会议，听取贯彻落实习近平总书记视察承德重要讲话重要指示精神工作情况，调度省委书记倪岳峰莅承调研讲话要求落实情况，传达学习河北省党政代表团到天津市学习考察和省政府承德市现场办公会精神，研究我市贯彻落实意见。市委书记柴宝良主持会议并讲话。', '会议指出，要全面贯彻落实习近平总书记视察承德重要讲话重要指示精神，持续做好生态环境保护、乡村振兴等十项重点工作，坚定不移沿着习近平总书记指引的方向奋勇前进。', '会议强调，要扎实推进清洁能源强市建设，确保抽水蓄能工作继续领跑，不断拓展温泉旅游康养养老和普通话应用等场景，推动省委部署要求落到实处。', '会议强调，要认真学习河北省党政代表团到天津市学习考察和“冀言”文章精神，筑牢环首都生态屏障，持续深化产业协作和协同创新，在对接京津、服务京津中加快发展自己。', '会议强调，要对照省政府承德市现场办公会要求，细化分解任务，深入谋划工作，全力争取支持，深入一线协调解决问题，加快推动高质量发展。', '会议听取了春季重点项目集中开工和一季度项目集中签约活动、承德文化旅游宣传招商大会筹备情况，研究审议了《承德市2023年干部教育培训工作计划》。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市政协召开党组扩大会议</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-09-09</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2022%2F9%2F9%2Fart_360_874780.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_874780</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['本网讯（记者李亚冰）9月8日，市政协党组书记、主席吴清海主持召开市政协党组（扩大）会议并讲话。市政协副主席张富民、白宝君、郭靖涛、刘众民、赵振清、谷宏健，秘书长单化军出席会议。', '会议传达学习了习近平总书记近期重要讲话、中央重要会议和市委会议精神；传达学习了市纪委有关文件要求，通报了相关典型案例；通报了市政协疫情防控工作情况；听取了有关专委会外出学习考察情况汇报，并就有关工作进行安排部署。', '吴清海指出，党的二十大，是在全党全国各族人民迈上全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的关键时刻召开的一次十分重要的大会，要忠诚拥护“两个确立”、坚决做到“两个维护”，围绕迎接党的二十大和学习宣传贯彻党的二十大精神，以高度的责任感、紧迫感、使命感，高质高效推进各项履职工作。', '吴清海强调，要认真贯彻落实《中共中央关于加强和改进新时代市县政协工作的意见》和《中国共产党政治协商工作条例》，进一步组织学习解读，加强督导检查，确保深入领会，落实到位。要对外出学习考察情况进行梳理提炼，认真学习借鉴，进一步解放思想、更新观念，形成高标准高质量的履职成果。要深入总结市政协疫情防控工作，弘扬正能量，再作新贡献。', '吴清海要求，要认真落实市委和市纪委有关要求，持续强化机关纪律作风建设，严守工作纪律、会议纪律、学习纪律、网络纪律和生活纪律，切实将纪律规矩挺在前面，确保政协各项工作推进有力有序、高质高效、风清气正，迎接新挑战、提振精气神、喜迎二十大。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>中国环境报刊发塞罕坝的二次创业</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2022%2F8%2F24%2Fart_9944_875124.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_875124</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['杂英萋萋满芳甸，林海涛涛扑天涯，夏日的塞罕坝满眼绿意。一行行云杉、一排排落叶松，铸就着一望无际的绿色屏障，也讲述着这伟大的绿色奇迹。', '60年前，369名来自全国18个省（自治区、直辖市），平均年龄不到24岁的创业者豪迈上坝，开始了高寒沙地造林。塞罕坝逐步实现从“飞鸟无栖树，黄沙满天飞”，到“水的源头、云的故乡、花的世界、林的海洋”的蜕变。', '60年后，塞罕坝人谨记习近平总书记“要传承好塞罕坝精神，深刻理解和落实生态文明理念，再接再厉、二次创业，在实现第二个百年奋斗目标新征程上再建功立业”的嘱托，接力传承，让发展的绿意更浓、成色更足。在习近平总书记考察塞罕坝机械林场一周年之际，记者来到这里进行了采访。', '塞罕坝展览馆里，解说员提及的一组数字展现着当年林场种树的艰难：1962年造林千亩，成活率不到5%；第二年再造1240亩，成活率不到8%。', '肩负着恢复植被、阻断风沙的使命，每一代塞罕坝务林人都将“树不种活不下坝”的理念深深融入血液。历经“大胡子”“矮胖子”等优质壮苗的培育、马蹄坑大会战的艰辛以及新世纪以来的攻坚造林，塞外荒原披上了绿装。', '如今的塞罕坝总营林面积115万亩，林木蓄积量1036.8万立方米，森林覆盖率达82%，成为世界上面积最大的人工林。', '怎样把这片林海守护好，成为塞罕坝在新阶段面临的问题。在林场营林科袁中伟的眼中，引种关、育苗关、造林关已被攻克，林场仍在摸索通过新的考验，比如推动森林质量提升。', '“建场时期条件有限，塞罕坝林场植树品种以落叶松、樟子松和云杉为主，均是耐寒针叶林，树种单一。且栽种密度极高，每亩达到300多棵，是适生虫害的先天温床。”袁中伟对于林场内的病虫害问题极其了解，一年之前他曾向习近平总书记现场介绍相关防治情况。', '袁中伟告诉记者，林场目前转变造林方向，在落叶松下栽云杉、白桦、花楸等树种，有意从纯林改向营造针阔混交、乔灌混交的环境，改变塞罕坝树种单一现状，让森林生态系统更多样、更健康。', '与袁中伟有着相同看法的，还有林场林业科的常伟强。塞罕坝近年来人工林密度不断下降，林下乔灌草类植物不断增多，常伟强认为，这得益于林场的科学营林。', '“通过抚育、间伐等手段，不断地去掉次树、选留好树，每亩只保留十几棵树，然后再利用树下空间栽上新树，让其他树种穿插落户，逐渐把林子培育成混交林、异龄林、复层林。”常伟强告诉记者', '近年来，塞罕坝先后启动了攻坚造林、人工林天然化改良和天然林近自然化改培三大工程，试图让人工森林更加接近天然。而现在，林场计划用两年时间开展8种阔叶乔木和2种灌木的种植试验，进一步加大混交林营造力度。', '“我们的目标，是通过‘抚育间伐’腾出种植空间，将单一的人造林海变成上有松涛、中有灌木、下有花草的自然生态景观。”常伟强介绍，这样近自然的生态系统变化，能够使森林通风透气性增强，乔灌草类植物更丰富，野生动物越来越多，森林的“体质”更加强壮。', '阳光洒满茂密的森林，一只健硕的野猪缓缓地走向远处的森林，林子里传来啾啾的鸟鸣，这是在林场保护地管理科工作的孙朝辉为记者播放的一段拍摄于今年的视频。', '类似的视频，孙朝辉办公电脑里还有几十G。这些视频，由20多个布设于林场不同位置的红外相机拍摄，记录着各类动物在林场范围内饮水、进食等行动画面。', '36岁的孙朝辉是一个地地道道的“林三代”。他的爷爷在建场的时候便来到塞罕坝工作，父亲当年', '开着拖拉机造林，母亲也曾为林场育苗。“与家中长辈们不同，我不再从事直接造林的工作，而是与同事们一起保护这个国家级自然保护区。”孙朝辉说。', '根据规定，塞罕坝国家级自然保护区主要保护对象为：森林—草原—湿地交错带自然生态系统及其天然植被群落，滦河、辽河水源之地，珍稀濒危野生动植物资源。而经生物多样性调查统计，河北塞罕坝国家级自然保护区有陆生野生脊椎动', '——全面落实五级林长制。建立了林场“三级林长、四级管理、一长三员”网格化管理全覆盖的管理体系。', '投资3820万元，实施国家级自然保护区保护及监测设施建设项目、塞罕坝松材线虫病等重大林草有害生物防控能力提升项目建设。', '塞罕坝人工林森林生态系统入选“全球生物多样性100+案例”，深入开展“爱鸟周”“世界湿地日”“防治荒漠日”“国际生物多样性日”等宣传活动。', '孙朝辉告诉记者，近几年狍子、灰鹤、大天鹅，天上飞的、地上跑的，林场里的动物越来越多，红外相机拍摄到的动物画面也越来越多。', '“目前，林场正在大力压缩景点开放面积。”孙朝辉说。据了解，塞罕坝机械林场目前划定1.89万亩，用于集中学习考察和生态观光，约占林场总面积的1.35%，其余面积全年封闭管理，禁止游客进入，从而确保生态资源的安全。', '今年8月9日，一则固碳生态产品项目相关信息的公示在河北省生态环境厅网站上挂出。根据公示信息，河北省污染物排放权交易服务中心拟对塞罕坝机械林场森林固碳项目进行评估，涉及林场内30多万亩林地。', '据中国林科院核算评估，塞罕坝林海有效阻挡了浑善达克沙地风沙南侵，改善了塞罕坝及周边地区的小气候，', '森林是碳库，更是钱库。挖掘塞罕坝机械林场内115万亩总营林的多重效益与价值，成为塞罕坝实施二次创业、实现“绿水青山就是金山银山”转', '事实上，塞罕坝机械林场对于碳汇价值实现途径的探索很早。常伟强告诉记者，2016年，林场造林碳汇项目首批国家核证减排量（CCER）获得国家发改委核准，成为华北地区首个在国家发改委注册成功并签发的林业碳汇项目。但伴随着2017年国家核证减排量（CCER）的暂停签发，塞罕坝的探索停滞下来。', '习近平总书记考察塞罕坝机械林场后，塞罕坝迎来喜讯。河北省《关于建立降碳产品价值实现机制的实施方案（试行）》印发，省内生态产品价值实现机制加快建立健全。在目标部分，《方案》明确指出要率先在塞罕坝机械林场及周边区域开发固碳项目，引导钢铁、焦化等行业购买降碳产品，实现降碳产品生态价值，助力塞罕坝二次创业。', '承德市依托河北省森林固碳量调查试点契机，成立工作专班先行先试，于2021年率先在全省完成两批次森林固碳产品价值实现，实现金额2032万元。', '河北省降碳产品的交易实践，塞罕坝看在眼里，记在心上。“我们觉得不错，所以也就开展了尝试。”常伟强表示。于是，在河北省生态环境厅的支持下，塞罕坝机械林场将30万亩次生林开发为森林固碳产品项目，预计今年8月底完成固碳量核证并实现价值，于是便有了前文中提到的公示。', '。邢国林开的农家乐位于围场满族蒙古族自治县哈里哈镇，距离塞罕坝机械林场20多公里。但由于处在通往林场的交通干线边上，邢国林农家乐在旅游时节总是爆满。', '“像我一样开农家乐的，我们村还有20多户，坝上对我们的带动作用非常明显。”与邢国林的感受一致，数据显示，塞罕坝林场每年带动4万多百姓受益，实现社会总收入6亿多元。', '从初代造林到二次创业，从因林而生到与林共进，塞罕坝上演绎的，始终是对绿色理念的坚守，对永续发展的践行，以及对从“绿水青山”到“金山银山”的探索。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2023%2F2%2F23%2Fart_360_913715.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_913715</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['本网讯（记者刘新杨）2月22日，市委常委会召开（扩大）会议，传达学习2月16日中共中央政治局常务委员会会议精神，研究我市贯彻落实意见。市委书记柴宝良主持并讲话。', '会议指出，要深入学习贯彻习近平总书记重要讲话和中共中央政治局常务委员会会议精神，忠诚拥护“两个确立”，坚决做到“两个维护”。要抓实抓细新阶段疫情防控工作，建强卫生健康服务体系，坚决巩固住来之不易的重大成果。要高效统筹疫情防控和经济社会发展，确保实现良好开局。', '会议传达学习河北省党政代表团赴北京学习考察有关精神，强调要坚决扛起首都“两区”建设政治责任，持续深化产业对接、创新协作、交通协同，在对接北京、服务北京中加快承德高质量发展。', '会议传达学习全省征兵工作暨民兵建设会议精神，强调要强化政治担当，高标准高质量做好征兵和民兵工作。要加强督导考核，确保党管武装工作取得实效。', '会议审议通过了《中共承德市委常委会2023年工作要点》《中共承德市委 承德市人民政府关于做好2023年全面推进乡村振兴重点工作的实施意见》，听取了普通话应用呼叫服务产业北京推介会、温泉康养项目北京推介会、养老产业北京招商推介会筹备情况。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>承德市人民政府办公室关于印发年国务院政府工作报告重点任务分工方案的通知</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022-05-26</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2022%2F5%2F26%2Fart_11903_861476.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_11903_861476</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['承德市人民政府 市政府办 承德市人民政府办公室关于印发2022年国务院政府工作报告重点任务分工方案的通知', '为全面贯彻党的十九大和十九届历次全会精神，认真落实中央经济工作会议精神和十三届全国人大五次会议通过的国务院《政府工作报告》部署，做好今年政府工作，完成经济社会发展目标任务，经市政府同意，现将《', '2022年国务院政府工作报告重点任务分工方案》（以下简称《分工方案》）印发给你们，请按照责任分工认真抓好落实。', '十三届全国人大五次会议审议通过的《政府工作报告》，确定了今年全国经济社会发展主要目标任务和政策举措，《分工方案》是全市系统全面落实党中央、国务院重大决策部署，做好今年各项工作的具体', '要坚持稳中求进工作总基调，立足新发展阶段，完整、准确、全面贯彻新发展理念，加快构建新发展格局，全面深化改革开放，坚持创新驱动发展，加快绿色转型，优化产业结构和生态环境，推动高质量发展，统筹发展和安全，统筹当前和长远，继续做好', '“谁主管谁负责，谁牵头谁协调”的原则，形成一级抓一级、层层抓落实、责任全覆盖的工作机制。要强化责任担当，结合工作实际，对承担的工作任务逐项制定具体的实施方案和工作措施，建立工作台账，专人盯办，逐条明确时间表、路线图和责任人，切实做到年初有计划、季度有安排、月度有检查。各牵头单位要强化统筹协调，加大工作力度，及时研究解决实际问题。各责任单位要积极配合，担当作为，主动承接任务，凝聚工作合力，推动各项任务稳妥有序开展。', '各县市区和各部门要加强督查检查，坚持明察暗访，实行全程跟踪问效，发现问题及时整改。市政府督查室要建立重点目标任务督办台账，实行月督办、季通报、年考核，对重点工作推进落实情况适时开展专项督查检查，真正督出责任、督出压力、督出干劲、督出结果。强化结果运用，将各项目标任务完成情况作为领导班子和领导干部年度考核的重要依据，对履职尽责不到位，不作为、慢作为、乱作为的，严肃追究问责；对工作成效显著，增比进位突出的先进典型予以通报表扬。各县市区和各部门要切实转变工作作风，力戒形式主义、官僚主义，以强烈的事业心和良好的工作作风推动', '2022年国务院《政府工作报告》部署重点任务落实落地，以优异成绩迎接党的二十大胜利召开。', '市工信局、市住建局、市商务局、市交通运输局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '密切监测经济运行情况，加强经济分析研判，总结一季度工作、部署二季度重点任务，力促全省经济稳中向好。', '跟踪分析经济运行总体态势，总结上半年工作、对后几个月工作进行安排部署，力促全省经济稳中向好。', '健全完善我市政策体系，制定出台配套措施抓好稳就业政策落实，帮扶贫困人口务工就业，保持就业扶贫政策总体稳定。按照国家、省发改委的工作安排，落实好公共实训基地项目申报、立项、建设等工作。重点围绕我市主导产业，突出', '“高精尖专新”导向，着力培养高技能人才，强化工作督导，推动工作落实，完成城镇新增就业2.28万人，城镇调查失业率全年控制在5.5%以内。', '突出抓好高校毕业生就业工作，实施离校未就业实名制管理，开展高校毕业生双百场招聘、金秋招聘月等就业服务活动，多渠道促进高校毕业生就业。组织开展就业创业服务活动。按照国家、省发改委的工作安排，落实好公共实训基地项目申报、立项、建设等工作。重点围绕我市主导产业，突出', '“高精尖专新”导向，着力培养高技能人才，强化工作督导，推动工作落实，完成城镇新增就业3.04万人，城镇调查失业率全年控制在5.5%以内。', '进一步加强对高校毕业生、城镇失业人员、退役军人等重点群体的就业服务，保持全市就业局势总体稳定。按照国家、省发改委的工作安排，落实好公共实训基地项目申报、立项、建设等工作。重点围绕我市主导产业，突出', '“高精尖专新”导向，着力培养高技能人才，强化工作督导，推动工作落实，完成城镇新增就业4.56万人，城镇调查失业率全年控制在5.5%以内。', '市农业农村局、市商务局、市市场监管局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '“双节”、冬奥会和“两会”期间市场价格调控工作。做好“五一”期间价格调控，分析上半年价格形势。', '“十一”期间市场价格调控工作。在对全年价格运行和明年价格走势进行分析研判的基础上，研究提出下一年度预期价格调控目标建议。', '市农业农村局、市财政局、市科技局、市民政局、市自然资源和规划局、市住建局、市国资委、市卫健委、市教育局、市市场监管局、市税务局、市地方金融监管局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '市发改委：贯彻落实国家和省关于居民收入增长相关政策措施，配合国家统计局承德调查队发布上半年居民收支调查数据，完成上半年调查信息分析。', '市人社局：开展集体协商共同约定行动，指导企业和劳动者按照河北省现行工资指导线进行工资集体协商，合理为劳动者提高工资标准。结合我市实际情况，协同相关部门研究部署补充绩效工资落实方案，完成标准制定和审核工作，进一步提高职工可支配收入。贯彻落实企业、机关事业退休人员养老金正常调整机制，同步适度提高企业职工和机关事业退休人员养老金水平；贯彻落实中央、省关于调整城乡居民基础养老金标准的有关政策，提高城乡居民基础养老金标准。', ':加强对农村居民人均可支配收入分析研判。实施乡村产业提升行动、农业产业项目突破年活动，大力发展特色优势产业集群，实施就业创业促进行动，稳妥开展宅基地盘活利用，实施农业生产托管服务，力促农民增收。', '市发改委：贯彻落实国家和省关于居民收入增长相关政策措施；配合国家统计局承德调查队做好居民人均可支配收入的每日审核监控记账情况、每月按比例完成入户检查和电话采访等工作。', '2022年度事业单位工作人员依考核结果正常晋升薪级增加工资和绩效工资总量核定工作，保障正常增资机制有效运行。贯彻落实中央、省关于调整城乡居民基础养老金标准的有关政策，提高城乡居民基础养老金标准。', '2022年公立医院实施薪酬制度改革工作，建立符合现代医院管理制度的薪酬分配体系。贯彻落实中央、省关于调整城乡居民基础养老金标准的有关政策，提高城乡居民基础养老金标准。', '市发改委、市工信局、市财政局、承德海关、市税务局、人行承德中心支行、市贸促会，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '将全年进出口预期目标分解到各县（市、区）。开展全市稳外贸政策免费大培训。实施暖企助企', '组织参加全省稳外贸政策业务免费大培训，指导企业用足用好政策。组织企业参加线上线下展会活动。实施暖企助企', '132届广交会。组织企业参加第24届中国国际高新技术成果交易会。实施线上“一国一展”“多国一展”市场开拓活动。实施暖企助企“五个护航”行动。', '“抗灾保粮”“虫口夺粮”行动，紧盯倒春寒、干旱、风雹、干热风等灾害天气，加强监测预警，分区域、分时期、分灾种完善应对预案，科学防灾减损。', '根据作物成熟期，科学安排收获计划，做好机具调配工作，确保完成秋粮和全年粮食生产预定目标。', '“十四五”期间重点工程减排量指标计划，组织确定重点减排工程清单。印发承德市2022年大气污染治理实施方案及配套9个专项行动工作方案；组织开展扬尘、臭氧、工业企业达标排放、柴油货车、企业锅炉深度治理、餐饮油烟综合整治、污染天气过程应对等专项行动。制发承德市2022年水生态环境保护工作要点，明确年度工作目标和重点任务。', '组织各地在重点减排工程信息系统中填报已竣工验收项目，对纳入减排计划的重点减排工程项目落实情况进行不定期调度和现场检查，推动全市主要污染物重点减排工程进度。调度上半年大气污染防治工作开展情况，督促重点工作如期推进。持续开展臭氧和餐饮油烟综合整治。实施汛期水质保障攻坚，综合运用通报、约谈等方式督促各地强化水质保障措施，推动提升地表水环境质量。', '梳理汇总全市重点减排工程信息，测算任务完成情况。对减排量大的项目重点督导，对建设滞后的减排工程采取预警、督导等措施，督促各县（市、区）加快推进，确保完成年度主要污染物重点工程减排量任务目标。研究部署', '2022-2023年秋冬季攻坚行动，制发秋冬季攻坚行动方案。组织开展重点地区、重点时段空气质量保障调研帮扶。组织相关部门对水生态环境保护工作要点完成情况进行自查，确保完成年度目标任务。', '“十四五”规划期内统筹考核，并留有适当弹性，新增可再生能源和原料用能不纳入能源消费总量控制。', '“十四五”节能减排综合实施方案》《2022年全市节能削煤工作要点》，分解下达各县（市区）目标任务。', '2.8%左右安排、比去年有所下调，有利于增强财政可持续性。预计今年财政收入继续增长，加之特定国有金融机构和专营机构依法上缴近年结存的利润、调入预算稳定调节基金等，支出规模比去年扩大2万亿元以上， 可用财力明显增加。新增财力要下沉基层，主要用于落实助企纾困、稳就业保民生政策，促进消费、扩大需求。今年安排中央本级支出增长3.9%，其中中央部门支出继续负增长。中央对地方转移支付增加约1.5万亿元、规模近9.8万亿元，增长18%、为多年来最大增幅。中央财政将更多资金纳入直达范围，省级财政也要加大对市、县的支持，务必使基层落实惠企利民政策更有能力、更有动力。', '市发改委、市人社局、市税务局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '紧盯中央、省实施的积极财政政策动向，精准对接沟通积极争取上级转移支付、政府债券等支持。按照国家省统一部署，及时分配下达中央、省转移支付，并进一步健全财政资金直达机制，依托直达资金监控系统加强直达资金常态化监管，保证直达资金直达基层、直接惠企利民。', '用好管好国家省下达的转移支付资金，切实增强基层保障能力。加强直达资金常态化监控，定期汇总直达资金预算分配下达、资金支付和惠企利民发放情况，督促加快各项工作进度，推动惠企利民政策有效落实。', '2023年向上争取工作做好准备。加强基层财政运行监控，及时发现存在的隐患和问题并采取有效举措解决。加强对直达资金下达、使用、发放情况的动态监控，及时纠偏，并按省财政厅要求报送直达资金预算执行及监控情况。', '3.65万亿元。强化绩效导向，坚持“资金、要素跟着项目走”，合理扩大使用范围，支持在建项目后续融资，开工一批具备条件的重大工程、新型基础设施、老旧公用设施改造等建设项目。', '市自然资源和规划局、市生态环境局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '2022年地方政府专项债券项目资金需求筛选申报工作。组织各县市区和市直有关部门储备申报2022年新增政府专项债券需求，全力争取2022年新增专项债务限额。督导县市区规范使用债券资金，加快债券资金支出使用进度，尽快形成实物工作量。', '2022年新增政府专项债券需求。全力争取2022年新增专项债务限额。督导县市区规范使用债券资金，加快债券资金支出使用进度，尽快形成实物工作量。', '围绕国家确定的重点支持领域，组织县市区发展改革部门会同同级财政部门做好专项债券项目常态化储备工作，提高项目储备质量。督导县市区规范使用债券资金，加快债券资金支出使用进度，尽快形成实物工作量。提前组织县市区梳理储备', '市财政局：围绕专项债券重点支持领域，组织县市区做好专项债券项目常态化储备工作，提高项目储备质量。督导县市区规范使用债券资金，加快债券资金支出使用进度，尽快形成实物工作量。提前组织县市区梳理储备', '督导县市区规范使用债券资金，加快债券资金支出使用进度，尽快形成实物工作量。提前组织县市区梳理储备', '2023年地方政府专项债券项目资金需求筛选申报工作。督导县市区规范使用债券资金，加快债券资金支出使用进度，尽快形成实物工作量。继续组织县市区梳理储备2023年新增专项债券项目，积极争取2023年新增专项债务限额。', '民间投资在投资中占大头，要发挥重大项目牵引和政府投资撬动作用，完善相关支持政策，充分调动民间投资积极性。', '市发改委：进一步完善常态化民间投资项目发布机制，依托河北省投资项目在线审批监管平台，发布一批鼓励民间投资项目。', 'PPP项目年度开发计划，并坚持“能进能出”动态调整机制，加强部门协作，强化项目前期识别、论证和入库等环节的沟通协调与信息共享，不断充实完善项目库。依托财政部PPP综合信息平台常态化推介项目，吸引社会资本，参与投资、建设、运营。', '市发改委：依托河北省投资项目在线审批监管平台，发布一批鼓励民间投资项目，吸引民间资本参与重点领域补短板项目建设。', 'PPP综合信息平台常态化推介项目，吸引社会资本，参与投资、建设、运营，并动态监测县市区PPP项目财承占比，确保财力可持续，保障项目顺利实施。', '市发改委：完善常态化民间投资项目发布机制，依托河北省投资项目在线审批监管平台，发布一批鼓励民间投资项目，吸引民间资本参与重点领域补短板项目建设。', 'PPP项目绩效评价报告复核，落实按效付费机制，按合同约定及时履约，增强社会资本长期投资信心。', '坚持政府过紧日子，更好节用裕民。大力优化支出结构，保障重点支出，严控一般性支出。盘活财政存量资金和闲置资产。各级政府必须艰苦奋斗、勤俭节约，中央政府和省级政府要带头。加强收支管理，严禁铺张浪费，不得违规新建楼堂馆所，不得搞形象工程，对违反财经纪律、肆意挥霍公款的要严查重处，一定要把宝贵资金用在发展紧要处、民生急需上。', '市发改委、市机关事务服务中心，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '2022年市级预算，市人代会批准年度预算后，按规定公开市级预算。严格按照市人代会批准的年度预算执行，从严控制预算追加，严格规范预算调剂。加强财政存量资金管理，严格存量资金安排使用程序。', '2021年市级及全市财政决算情况。认真编制2022年1-6月份市级政府预算执行情况报告，按程序提交市人大常委会审议。按照财政部、省财政厅安排部署，在全市开展财经秩序专项整治，加强政策落实情况监督检查，及时发现、解决存在问题，强化预算收支管理，健全常态长效机制。', '2023年市级预算，全力保障国家省市决策部署落实，坚持政府过紧日子，大力调整优化财政支出结构，严控非重点、非刚性的一般性支出和“三公经费”支出预算，更好节用裕民。', '发挥货币政策工具的总量和结构双重功能，为实体经济提供更有力支持。扩大新增贷款规模，保持货币供应量和社会融资规模增速与名义经济增速基本匹配，保持宏观杠杆率基本稳定。', '传达中国人民银行政策要求，加强政策宣传解读，明确重点工作，提高政策传导效率。用足用好中国人民银行再贷款再贴现额度，强化正向激励措施，重点向乡村振兴、民营小微等领域倾斜。', '加强督导调度，保持信贷投放平稳增长，不断增强金融服务实体经济能力，支持经济运行在合理区间。持续加大再贷款再贴现工具投放力度，增强工具普惠性，引导金融机构增加民营小微、涉农贷款投放。', '综合运用各项货币政策工具，保持全年信贷投放合理增长，支持经济运行在合理区间。持续加大再贷款再贴现工具投放力度，增强工具普惠性，引导金融机构增加民营小微、涉农贷款投放。', '进一步疏通货币政策传导机制，引导资金更多流向重点领域和薄弱环节，扩大普惠金融覆盖面。', '人行承德中心支行：用足用好中国人民银行再贷款再贴现额度，强化正向激励措施，重点向乡村振兴、民营小微等领域倾斜。引导银行业金融机构重点加大对先进制造业、战略性新兴产业小微企业中长期信贷支持。', '强化正向激励措施，重点向乡村振兴、民营小微等领域倾斜。引导银行业金融机构重点加大对先进制造业、战略性新兴产业小微企业中长期信贷支持。着重引导银行保险机构改善金融服务的区域格局，发挥金融资源对欠发达地区的撬动作用。', '人行承德中心支行：持续加大再贷款再贴现工具投放力度，增强工具普惠性，引导金融机构增加民营小微、涉农贷款投放。', '督导银行持续加大再贷款再贴现工具投放力度，增强工具普惠性，引导金融机构增加民营小微、涉农贷款投放。督导大型银行、股份制银行将小微企业信贷资源向欠发达地区倾斜。', '持续加大再贷款再贴现工具投放力度，增强工具普惠性，引导金融机构增加民营小微、涉农贷款投放。督导银行业金融机构完成普惠金融年度监管要求。', '推动金融机构降低实际贷款利率、减少收费，让广大市场主体切身感受到融资便利度提升、综合融资成本实实在在下降。', '市财政局、市税务局、市地方金融监管局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '人行承德中心支行：充分发挥自律机制作用，引导金融机构继续向实体经济让利。全面贯彻落实中国人民银行等四部委《关于降低小微企业和个体工商户支付手续费的通知》。通过举办各金融机构、支付机构培训班，召开座谈会，认真学习降费文件并对相关政策内容进行解读。通过调研走访、交叉互访，督导各金融机构落实小微企业和个体工商户支付结算减费让利工作，督导面要达到银行对公网点数的', '加大督导力度，引导金融机构继续向实体经济让利，督导银行业金融机构完善贷款利率定价机制，将货币、税收减免、财政奖补等政策红利向终端利率价格有效传导。全面贯彻落实中国人民银行等四部委《关于降低小微企业和个体工商户支付手续费的通知》，召开支付服务减费让利工作推进会，做好相关政策解读、收费行为监督检查，进一步推进减税降费工作。规范小微企业双创基地管理和运营，开展全服务规范评价工作。利用中小企业公共服务平台向小微企业推送涉企优惠政策。小微企业双创基地开展创业辅导、创新支持等服务活动。强化统筹协调，进一步保护投资者合法权益。', '人行承德中心支行：引导地方法人机构贷款利率水平稳中有降。在全面落实减费让利的基础上，提倡各降费主体自主降费，降低成本，扶持小微企业和个体工商户发展。', '增强地方法人机构的定价能力，引导地方法人机构贷款利率水平稳中有降。按月监测，关注银行业金融机构贷款利率变化情况，对不降反升的机构采取下发监管提示、通报等措施。开展乱收费治理和降费政策落实督导抽查，进一步规范金融机构收费行为。利用中小企业公共服务平台向小微企业推送涉企优惠政策。小微企业双创示范基地开展融资对接等服务活动。强化统筹协调，进一步保护投资者合法权益。', '人行承德中心支行：重点督导贷款利率水平较高的金融机构，确保全年贷款利率稳中有降，将金融让利实体经济落到实处。全面分析和掌握降费让利成效，督促降费主体持续降费。', '重点督导贷款利率水平较高的地区及金融机构，确保全年贷款利率稳中有降，将金融让利实体经济落到实处。强化督导措施。全面评估总结清费工作成效，包括金融机构支付服务减费让利及收费行为规范情况，谋划', '2023年减费工作要点。小微企业双创基地开展创业辅导、创新支持等服务活动，助力企业发展。梳理国家和省、市优惠政策，加大推送力度。强化统筹协调，进一步保护投资者合法权益。', '大力拓宽就业渠道，注重通过稳市场主体来稳就业，增强创业带动就业作用。财税、金融等政策都要围绕就业优先实施，加大对企业稳岗扩岗的支持力度。', '市财政局：严格落实企业稳岗扩岗财政政策，并壮大创业担保基金规模，积极引导金融机构在依法合规、风险可控、商业可持续的前提下，创新信贷产品和服务，有效满足重点群体金融需求，支持企业稳岗扩岗。', '市人社局：全面实施就业优先战略，按照上级稳就业政策，健全完善我市政策体系，稳定市场主体，稳定就业岗位；继续实施阶段性降低失业保险费率和失业保险稳岗返还政策，运用失业保险基金支持企业稳岗和培训；对农民工、高校毕业生、下岗失业人员、退役军人等重点人群，开展', '“民营企业招聘月”、“百日千万网络招聘专项行动”、“残疾人就业帮扶活动”“退役军人精准帮扶活动”等专项活动促进就业。', '“两微一端”、12366热线、微信公众号等多种途径，发布税收政策及知识，并就热点问题进行解答，引导纳税人及时了解支持稳岗扩岗的税收优惠政策。统一印制税费优惠政策宣传折页，向全市纳税人缴费人免费发放。', '承德银保监分局：鼓励银行业金融机构对受疫情影响严重的行业企业给予融资支持，不得盲目惜贷、限贷、抽贷、断贷。严格落实围绕就业优先实施的财政、金融政策，加大对企业稳岗扩岗的支持力度。加大创业担保贷款支持力度，督促各经办银行规范创业担保贷款发放。积极引导金融机构在依法合规、风险可控、商业可持续的前提下，创新信贷产品和服务，有效满足重点群体金融需求，支持企业稳岗扩岗。', '市人社局：广泛发动宣传稳就业政策，稳定市场主体，稳定就业岗位；强化就业政策落实和服务落地，加强公共就业服务供给，强化舆论宣传、专场招聘、岗位推荐等措施，为劳动者求职就业和用人单位用工招聘搭建供需平台。组织开展就业创业服务活动。指导各县（市、区）开展进校园、进社区、进乡村就业服务活动，引导劳动者就业创业；加大创业担保贷款政策支持，解决创业者实际困难。', '承德银保监分局：督导银行业金融机构对确有还款意愿和吸纳就业能力、存在临时性经营困难的小微企业，积极给予支持。严格落实围绕就业优先实施的财政、金融政策，加大对企业稳岗扩岗的支持力度。加大创业担保贷款支持力度，督促各经办银行规范创业担保贷款发放。积极引导金融机构在依法合规、风险可控、商业可持续的前提下，创新信贷产品和服务，有效满足重点群体金融需求，支持企业稳岗扩岗。', '市人社局：全面梳理总结就业工作，查漏补缺；及时督导各县（市、区），确保按照时序进度完成任务目标；进一步加强对高校毕业生、城镇失业人员、退役军人等重点群体的就业服务，保持全市就业局势总体稳定，确保全年任务完成。', '市税务局：持续做好稳岗扩岗政策的纳税辅导，重点对新增纳税人开展针对性辅导，帮助新办企业及时享受优惠政策。总结前三季度工作开展情况，对政策的执行情况进行全面分析，查找问题，解决问题。利用大数据平台建立风险指标，对纳税人申报数据进行日常监控，对应享未享、不应享受却享受等疑点及时进行核实，化解政策执行风险。', '承德银保监分局：支持银行业金融机构创新贷款合作方式，拓展融资渠道，为小微企业、个体工商户提供贷款支持。严格落实围绕就业优先实施的财政、金融政策，加大对企业稳岗扩岗的支持力度。加大创业担保贷款支持力度，督促各经办银行规范创业担保贷款发放。积极引导金融机构在依法合规、风险可控、商业可持续的前提下，创新信贷产品和服务，有效满足重点群体金融需求，支持企业稳岗扩岗。', ':1．稳定粮食播种面积，确保完成省厅下达粮食生产任务目标，力争多增产。开展“抗灾保粮”“虫口夺粮”行动，紧盯倒春寒、干旱、风雹、干热风等灾害天气，加强监测预警，分区域、分时期、分灾种完善应对预案，科学防灾减损。2．会商、发布全市上半年病虫害发生趋势预报及短期病虫害发生趋势预报。3．强化调运检疫监管，防止检疫性有害生物扩散蔓延。4．制定农业重大病虫害防治预案，指导重大病虫害防治工作。5．制定《承德市“两增两减”虫口夺粮促丰收包联工作方案》、《承德市农作物绿色防控实施方案》、《承德市农药减量增效量化示范基地实施方案》，确保农业生产安全。6．安排落实绿色防控示范基地、农药减量示范基地、统防统治示范基地。7．培训农民合作社、家庭农产、种植大户、社会化服务组织。', '“双节”、冬奥会、冬残奥会、“两会”期间粮油市场保供稳价工作。制定印发《承德市粮食应急保障网点管理暂行办法》，强化粮食应急供应网点管理，提升粮食应急保障能力。下达第二批新增市县级政府粮食储备计划，指导承储企业做好收储工作。', ':1．加强技术服务，精准施策，分区域分作物落实田间管理关键措施，确保秋粮丰收。开展“龙口夺粮”“虫口夺粮”抗灾保丰收行动，科学防灾减损。2．会商、发布全市下半年病虫害发生趋势预报及短期病虫害发生趋势预报。3．开展产地检疫工作，强化检疫监管。4．召开现场会、观摩会，宣传植保新技术、新产品，确保病虫害防治技术的推广应用。5．开展粮食作物中后期重大病虫害统防统治工作，降低粮食损失率，确保增产增收。', '市发改委：指导督促企业落实社会责任储备，充实商业库存，确保城乡居民口粮消费需求。下达', '2022-2023年度市级储备粮轮换计划，指导承储企业合理把握时机和节奏，发挥好储备吞吐调节作用；强化市级储备粮管理，确保数量真实、质量良好、储存安全，关键时刻调得动、用得上。', ':1．根据作物成熟期，科学安排收获计划，做好机具调配工作，确保完成秋粮和全年粮食生产预定目标。2．严格调运检疫审批工作，确保农业生产安全。3．开展绿色防控、农药减量增效、统防统治等总结工作，总结经验，查找不足，为下年做好基础。4．开展冬季培训工作，提高业务工作能力。', '“卖粮难”，切实保护种粮农民利益。完成第二批新增10000吨市级政府小麦储备计划。', '2022年有序用电预案、迎峰度夏电力保障方案。组织企业参加电力直接交易。加强电力协调调度。', '“早监测、早发现、早处置”原则，紧盯要素监测调度，常态化做好能源保供工作，确保电煤稳定供应。抓好各项政策的落实，促进煤炭价格在合理区间运行。加强电力协调调度，指导电网企业合理安排机组运行方式，督导电力企业做好设备运行维护以及燃料、辅料等物资储备。', '“管道气+LNG+压非保民+应急气”保供模式，确保天然气稳定供应。加强市场价格监测，密切关注市场价格。组织企业参加电力直接交易。加强电力协调调度，指导电网企业合理安排机组运行方式，督导电力企业做好设备运行维护以及燃料、辅料等物资储备。', '市水务局、市自然资源和规划局、市工信局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '增强国内资源生产保障能力，加快油气、矿产等资源勘探开发，完善国家战略物资储备制度，保障初级产品供给。', '“十四五”规划，有序推进矿产资源矿业权出让。按国家要求，协助编制河北省战略性矿产找矿行动实施方案（2021-2035年）。编写2023年度地质勘查项目立项指导意见。配合省自然资源厅进行2022年度地勘项目设计评审。', '市自然资源和规划局：积极协助省自然资源厅有序推进我市矿产资源矿业权出让。组织督导实施我市', '加强防疫用品及粮、油、肉、蛋、菜等生活必需品价格监督检查，依法依规严厉打击哄抬物价、串通涨价、散布捏造涨价信息等价格违法行为。', '加强对商超、农贸市场等与群众日常消费密切相关场所的监督检查。严厉打击哄抬物价、串通涨价、散布捏造涨价信息等价格违法行为。', '督导部分地方开展重要节日期间价格检查，加强生活必需品、防疫物资、旅游业等重点领域、重点行业的抽查力度。', '继续按照稳定大局、统筹协调、分类施策、精准拆弹的基本方针，做好经济金融领域风险防范和处置工作。', '市金融领域风险化解和处置工作领导小组各成员单位，市打击和处置非法集资工作领导小组各成员单位，', '市发改委：加强经济运行监测分析，及时发现苗头性、倾向性问题，提出相应政策建议，力促时间任务', '2022年再融资政府债券，缓解到期政府债券还本压力，同时积极组织财政收入，确保偿债资金来源，严防逾期风险。', '市地方金融监管局：在全市范围内开展金融领域风险排查，保持对非法金融活动高压态势。做好全市防范非法集宣传活动。', '市发改委：及时跟踪上级宏观经济走势，对全市经济运行情况进行监测分析，提出政策建议。', '市财政局：加强债务统计监测分析，及时发现苗头性、倾向性问题，提出相应政策建议。同时强化工作督导，督导县市区严格落实偿还计划，确保按时偿还到期政府债券本息。', '市地方金融监管局：做好省督查迎检准备工作，落实各单位属地属事责任。持续推动非法集资案件处置工作。', '市发改委：对标全年任务目标，强化经济运行监测，及时发现苗头性、倾向性问题，确保完成全年任务。', '市财政局：加强经济运行监测分析，及时发现苗头性、倾向性问题，提出相应政策建议。组织县市区合理申报', '压实地方属地责任、部门监管责任和企业主体责任，加强风险预警、防控机制和能力建设，设立金融稳定保障基金，发挥存款保险制度和行业保障基金的作用，运用市场化、法治化方式化解风险隐患，有效应对外部冲击，牢牢守住不发生系统性风险的底线。', '市地方金融监管局：在全市范围内开展金融领域风险排查，保持对非法金融活动高压态势。做好全市防范非法集宣传活动。利用', '人行承德中心支行：参与全市防范非法集资宣传活动。定期监测银行、证券、保险机构。有序开展央行评级和压力测试，将评级结果', '“一对一”反馈金融机构，落实金融机构风险化解主体责任。持续密切关注大型有问题企业风险情况及处置进展，配合各地政府稳妥推进大型有问题企业风险化解工作。', '市地方金融监管局：做好省督查迎检准备工作，落实各单位属地属事责任。持续推动非法集资案件处置工作。利用', '人行承德中心支行：持续推动非法集资案件监测预警工作。定期监测银行、证券、保险机构。将压力测试发现的突出问题向金融机构进行一对一风险提示。配合做好专项债补充中小银行资本相关工作。持续密切关注大型有问题企业风险情况及处置进展，配合各地政府稳妥推进大型有问题企业风险化解工作。', '人行承德中心支行：定期监测银行、证券、保险机构。组织开展全市法人银行业金融机构现场核查，摸清真实风险底数，推动高风险金融机构和处于高风险边缘的金融机构风险化解。对证券、保险法人机构开展稳健性现场评估。对增量高风险金融机构建立', '“硬约束”的早期纠正机制。持续密切关注大型有问题企业风险情况及处置进展，配合各地政府稳妥推进大型有问题企业风险化解工作。', '延续实施扶持制造业、小微企业和个体工商户的减税降费政策，并提高减免幅度、扩大适用范围。对小规模纳税人阶段性免征增值税。对小微企业年应纳税所得额', '100万元至300万元部分，再减半征收企业所得税。各地也要结合实际，依法出台税费减免等有力措施，使减税降费力度只增不减，以稳定市场预期。', '市减税降费工作领导小组成员单位，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '2022年度减税降费工作方案和政策清单。以“减税降费宣传月”活动开展为抓手，多渠道宣传阶段性免征增值税、小微企业所得税减半征收等税收优惠政策。', '市税务局：按照政府工作报告的政策导向，多渠道宣传阶段性免征增值税、小微企业所得税减半征收等税收优惠政策。', '市财政局：持续做好减税降费政策宣传解读，重点宣传解读延续实施扶持制造业、小微企业和个体工商户的减税降费政策，同时加强政策辅导，引导企业及时、准确地享受优惠政策。跟进政策的执行情况，及时解决落实减税降费政策中发现的问题，确保政策执行到位。', '市税务局：积极开展减税降费政策宣传解读，重点宣传解读延续实施扶持制造业、小微企业和个体工商户的减税降费政策，通过官方网站、', '“两微一端”、12366热线、微信公众号等多种途径，发布税收政策及知识点。加强政策辅导，引导企业及时、准确地享受优惠政策。跟进政策的执行情况，确保政策执行到位。', '市财政局：对全市减税降费实施效果进行年度评估，持续跟进阶段性免征增值税、小微企业所得税减半征收等税收优惠政策执行情况，查摆并解决存在的问题，防范政策执行风险', ',推进政策落实到位。持续做好减税降费政策的宣传辅导，确保政策红利应知尽知、应享尽享。', '市税务局：持续做好减税降费政策的宣传辅导，确保政策红利应享尽享。持续跟进减税降费政策的执行情况，查摆并解决存在的问题，防范政策执行风险。按期监控阶段性免征增值税、小微企业税收优惠政策减免情况，推进政策落实到位。', '综合考虑为企业提供现金流支持、促进就业消费投资，大力改进因增值税税制设计类似于先缴后退的留抵退税制度，今年对留抵税额提前实行大规模退税。优先安排小微企业，', '6月底前一次性全部退还，增量留底税额足额退还，重点支持制造业，全面解决制造业、科研和技术服务、生态环保、电力燃气、交通运输等行业留抵退税问题。增值税留抵退税力度显著加大，以有力提振市场信心。预计全年退税减税约2.5万亿元，其中留抵退税约1.5万亿元，退税资金全部直达企业。', '2022年度减税降费工作方案。在国家出台政策后，及时纳入2022年度减税降费政策清单。以“减税降费宣传月”活动开展为抓手，多渠道、多维度宣传留抵退税政策意义和成效。及时掌握留抵退税进度和政策落实情况，确保6月底前对小微企业的存量留抵税额一次性全部退还，增量留底税额足额退还。', '2022年度减税降费工作要点。在国家出台政策后，及时纳入2022年度减税降费政策清单。成立市税务局留抵退税专项工作组，为更好推进增值税留抵退税工作做好组织保障。做好留抵退税统计核算工作，按照留抵退税信息共享机制，将已退税、未退税等信息传递至财政部门。结合税收宣传月，多渠道、多维度宣传留抵退税政策意义和成效。', '市财政局：持续做好减税降费政策宣传解读，重点宣传增值税留抵退税政策，加强政策辅导，引导企业及时、准确地享受优惠政策。跟进政策的执行情况，及时解决落实减税降费政策中发现的问题，确保政策执行到位。', '市税务局：积极开展减税降费政策宣传解读，做好政策和效应宣传，持续跟进留抵退税政策执行情况，确保应退尽退。做好留抵退税统计核算工作，按照留抵退税信息共享机制，将已退税、未退税等信息传递至财政部门。开展留抵退税风险分析，发现疑点及时发起风险应对，快速查处和打击骗取留抵退税案件。', '市财政局：对全市减税降费实施效果进行年度评估，将增值税留抵退税政策纳入年度评估范围。持续做好减税降费政策的宣传辅导，确保政策红利应知尽知、应享尽享。持续跟进减税降费政策的执行情况，并总结前三季度留抵退税工作开展情况，开展留抵退税风险分析，发现疑点及时发起风险应对，快速查处和打击骗取留抵退税案件。', '市税务局：对减税降费实施效果进行年度评估，将增值税留抵退税政策纳入年度评估范围。持续利用税务网站、', '12366服务热线、微信公众号等开展政策宣传。持续跟进政策的执行情况，确保政策红利应享尽享。做好留抵退税统计核算工作，按照留抵退税信息共享机制，将已退税、未退税等信息传递至财政部门。总结前三季度留抵退税工作开展情况，开展留抵退税风险分析，发现疑点及时发起风险应对，快速查处和打击骗取留抵退税案件。', '中央财政将加大对地方财力支持，补助资金直达市县，地方政府及有关部门要建立健全工作机制，加强资金调度，确保退税减税这项关键性举措落实到位，为企业雪中送炭，助企业焕发生机。', '市财政局：紧盯中央、省转移支付分配情况，及时了解中央、省政策动向，加大跑省进厅、跑部进京力度，争取更多资金支持。按照国家、省退税减税实施方案，会同税务部门建立相关工作机制，研究制定留抵退税政策。做好退税减税政策宣传以及财力保障和退库支持工作，让纳税人尽快享受政策红利。加强政策辅导，引导企业及时、准确地享受优惠政策。', '市税务局：做好退税减税政策宣传及落实工作，缩短办税时间，让纳税人尽快享受政策红利。加强政策辅导，引导企业及时、准确地享受优惠政策。', '市财政局：积极对接省财政厅掌握地方补助资金工作安排情况，争取更多补助资金向我市倾斜。持续跟踪经济运行和减税降费政策落实情况，算细算准政策减收账，做好退税工作，为企业增加资金流。跟进政策的执行情况，及时解决落实减税降费政策中发现的问题，确保退税减税关键性举措落实到位、执行到位。', '市税务局：加强财税部门协调联动，做好减税降费政策落实。做好退税工作，跟进政策的执行情况，确保退税减税关键性举措落实到位、执行到位。', '市财政局：积极对接省财政厅掌握地方补助资金工作安排情况，争取更多补助资金向我市倾斜，保障减税降费政策落实和基层财政运行平稳有序。持续跟进减税降费政策的执行情况，查摆并解决存在的问题，防范政策执行风险。按期监控留抵退税、阶段性免征增值税、小微企业税收优惠等政策执行情况，督促县市区核查纠正应享未享情况，确保纳税人应享尽享。', '市税务局：持续跟进减税降费政策的执行情况，查摆并解决存在的问题，防范政策执行风险。按期监控留抵退税、阶段性免征增值税、小微企业税收优惠等政策执行情况，督促基层核查纠正应享未享情况，确保纳税人应享尽享。', '2022年一季度普惠小微贷款支持工具审核发放工作，为符合要求的地方法人银行提供激励资金。继续高质量开展“首贷培植”“贷动小生意 服务大民生” “普惠小微信用贷款提升”等专项行动，加大银企对接力度，有效挖掘和培育小微企业、个体工商户首贷户，增加首次授信户数和贷款户数。', '“首贷培植”“贷动小生意 服务大民生” “普惠小微信用贷款提升”等专项行动，加大银企对接力度，有效挖掘和培育小微企业、个体工商户首贷户，增加首次授信户数和贷款户数。强化监管考核评价引导作用，引导银行业金融机构持续加大小微企业首贷、信用贷款投放力度。', '2022年二季度普惠小微贷款支持工具审核发放工作，为符合要求的地方法人银行普惠小微贷款季度新增额提供激励资金。', '承德银保监分局：引导金融机构强化科技赋能水平，整合内外部信息，提升信用评价和风险管控能力，丰富信用贷款产品种类，提升发放信用贷款特别是普惠小微信用贷款水平。针对重点机构、重点地区、重点领域采取专项措施，努力提升信用贷款、首贷比重。', '2022年三季度普惠小微贷款支持工具审核发放工作，为符合要求的地方法人银行普惠小微贷款季度新增额提供激励资金。', '“敢贷、愿贷、能贷、会贷”长效机制，加大对中小微企业贷款特别是信用贷款投放力度。抓好对信贷投放的监管考核督导，努力完成全年总体目标任务。', '引导金融机构准确把握信贷政策，继续对受疫情影响严重的行业企业给予融资支持，避免出现行业性限贷、抽贷、断贷。对市场前景好的特殊困难行业企业给予', '充分发挥再贷款、再贴现、普惠小微贷款支持工具等结构性货币政策工具作用，为金融机构提供低成本央行资金。', '承德银保监分局：引导金融机构加大对受疫情影响严重行业的资金倾斜力度。督促银行业金融机构做好延期还本付息政策接续和贷款期限管理。', '承德银保监分局：引导金融机构针对受疫情影响严重行业企业特点，加大产品创新力度，提供随借随还贷款、信用贷款等更有针对性的产品和服务。同时做好银企对接工作，搭建平台，创造条件，开展多种形式线上线下对接活动，不断提高企业获贷率。加大续贷政策落实力度，对符合条件的正常类小微企业贷款积极给予支持。', '引导金融机构优化内部政策安排，通过简化授信审批流程、加快速度、提高受疫情影响严重行业企业的考核比重等方式加大金融支持。', '承德银保监分局：引导金融机构优化内部政策安排，通过简化授信审批流程、加快速度、提高受疫情影响严重行业企业的考核比重等方式加大金融支持。按季监测小微企业续贷情况，对续贷相关数据异常的银行及时了解相关情况。', '承德银保监分局：精准发挥政策性金融作用，积极服务国家重大战略。继续引导农发行承德分行积极服务支持京津冀协同发展，引导其加大对科技创新、绿色发展的支持。指导农发行承德分行全力支持粮食生产和重要农产品供给。', '承德银保监分局：加大政策引导力度，帮助政策性银行深挖有效信贷需求，支持我市产业转型升级发展。督促农发行承德分行精准支持国家战略，加强薄弱环节金融服务。指导农发行承德分行巩固脱贫攻坚成果，提升服务乡村振兴质效。', '承德银保监分局：加大政策引导力度，帮助政策性深挖有效信贷需求，支持我市产业转型升级发展。精准发挥政策性金融作用，积极服务支持国家战略、重点领域和薄弱环节。督导农发行承德分行聚焦粮食安全，加大对高标准农田建设、种业振兴等的支持力度。', '市税务局、承德海关、市发改委、人行承德中心支行，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '2022版）》《全市一体化信用信息资源补充目录（2022版）》，开展信用信息归集工作，依法依规推动税务、海关、电力等单位与金融机构信息联通。', '扩大政府性融资担保对小微企业的覆盖面，努力营造良好融资生态，进一步推动解决实体经济特别是中小微企业融资难题。', '按照省局要求组织开展全市国有融资担保机构专项检查工作。成立了由市、县两级地方金融监管业务骨干和会计师事务所工作人员组成的联合检查组。通过查阅会计凭证、询问公司高管、座谈等方式对公司经营情况、风险防控情况、公司治理情况、资金运用及监管信息报送情况进行逐一检查。持续推进', '“减量增质”，指导企业对检查中发现的问题制定整改方案，力求整改措施切实可行，促进我市融资担保机构健康发展。', '“双随机、一公开”执法检查，对检查中发现问题，督促机构制定整改方案，如期完成整改工作。', '市发改委：对非直供电主体执行转供电价格情况进行摸底调查。按照省统一部署，落实特殊困难行业用电实行阶段性优惠政策。', '市发改委：督促各非直供电主体落实价格政策，配合市场监管部门加大监督检查力度，严肃查处转供电环节不合理加价行为。', '引导大型平台企业降低收费，减轻中小商户负担。进一步清理规范行业协会商会、中介机构等收费。', '市发改委：密切关注国家和省清理规范城镇供水供电供气供暖行业收费政策落实情况，组织开展', '市发改委：继续开展清理规范城镇供水供电供气供暖行业收费政策、中介服务收费规范清理工作。', ':结合社会组织年检工作，组织开展行业协会商会收费自查。开展行业协会商会收费检查，依法依规查处违规收费行为。', '市发改委：全面评估总结清理规范城镇供水供电供气供暖行业收费政策落实等工作成效，谋划', ':开展社会组织“双随机、一公开”抽查检查，重点检查行业协会商会收费情况。总结行业协会商会收费检查工作。', '开展涉企违规收费专项整治行动，建立协同治理和联合惩戒机制，坚决查处乱收费、乱罚款、乱摊派。', '市发改委、市市场监管局、市司法局、市审计局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '“三乱”专项整治行动，并督促相关单位抓好整改落实工作，及时向省财政厅报送整治报告。待省财政厅出台防范“乱收费、乱罚款、乱摊派”长效机制后，制定我市长效机制。', '按照中央、省目录清单的调整，及时动态更新行政事业性收费和政府性基金目录清单，从源头上杜绝', '按照省财政厅部署，做好行政事业性收费和政府性基金政策落实情况检查工作，并总结本年度工作，对', '加大拖欠中小企业账款清理力度，规范商业承兑汇票使用，机关、事业单位和国有企业要带头清欠。', '人行承德中心支行、市国资委、市财政局、市审计局、市地方金融监管局、市发改委、市市场监管局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '落实省工信厅《关于进一步防范和化解拖欠中小企业账款工作的通知》，压实县（市、区）责任，推动拖欠中小企业账款化解工作。依据河北省工信厅保障中小企业款项支付处理流程，依法依规处理拖欠中小企业账款投诉。公布拖欠中小企业账款投诉渠道，开展受理工作，切实保障中小企业合法权益。', '依据工业和信息化部《保障中小企业款项支付投诉处理暂行办法》开展投诉受理，并按处理流程，及时受理省转交和本地线索，推动拖欠中小企业账款化解工作。', '开展投诉受理，并按处理流程，及时受理省转交和本地线索，推动拖欠中小企业账款化解工作。', '餐饮、住宿、零售、文化、旅游、客运等行业就业容量大、受疫情影响重，各项帮扶政策都要予以倾斜，支持这些行业企业挺得住、过难关、有奔头。', '市交通运输局：积极与省交通运输厅联系，争取农村客运补贴资金、城市交通发展奖励资金，保证费改税补贴部分足额发放，减轻客运企业及个人经营压力。', ',目前已向市政府提交关于文旅企业和国有景区纾困解难的请示报告。加强银企合作，组织召开银企对接会，积极争取有利文旅行业金融政策。', '市旅游和文化广电局：积极争取省级旅游产业发展专项资金支持文旅企业，组织并指导文旅企业开展申报工作。', '市人社局：按照上级稳就业政策，健全完善我市政策体系，稳定市场主体，稳定就业岗位；继续实施阶段性降低失业保险费率和失业保险稳岗返还政策，运用失业保险基金支持企业稳岗和培训。按照国家要求，工伤保险基金累计结余可支付月数在', '18个月以上的为降低费率省份之列，我省2019至2021年工伤保险基金累计结余可支付月数均低于18个月，因此我市不在国家阶段性降低工伤保险费率政策范围之内。', '市财政局：衔接落实好国家、省延续执行降低失业和工伤保险费率政策，并加大政策宣传引导力度，促进缴费人充分享受政策红利。', '1%费率执行。单位缴费0.7%，个人缴费0.3%，待国家降费率新政策出台后，严格按国家要求执行。待新的政策出台后，我局会通过“承德税务”公众号将政策及时公布，并做好政策宣传工作，严格落实到位。', '市税务局：严格执行国家政策现行规定，及时转发政策文件，指导各基层县区局抓好贯彻落实。适时做好视频培训，及时准确解答问题，精准推送我省延续执行降低失业优惠政策，促进缴费人充分享受政策红利。', '继续实施阶段性降低失业保险费率和失业保险稳岗返还政策，运用失业保险基金支持企业稳岗和培训，全力稳定就业岗位。', '2022年公共就业服务专项活动安排，开展“承才金街”线上、线下招聘会及直播带岗活动。开展公共就业服务进校园活动。目前正在开展“民营企业招聘月”活动，5月份即将开展“百日千万网络招聘专项行动”等一系列专项活动。', '市教育局：贯彻落实全省就业创业工作暨普通高等学校毕业生就业创业工作会议精神。做好师范类毕业生就业指导准备工作。', '“百日千万网络招聘专项行动”和“高校毕业生就业服务行动”，以高校毕业生为重点对象，适时开展直播带岗。利用“承才金街”就业服务平台，定期组织开展校园招聘和进校园就业指导活动。积极对接2022届离校未就业高校毕业生数据，及时核实数据，落实就业帮扶服务举措。', '6所高校2022届毕业生数据纳入实名登记管理系统工作。开展高校毕业生就业服务，组织安排回承师范类毕业生进行报到、信息统计、档案转递和数据上报，同时加大就业政策宣传，最大限度做好师范类毕业生就业指导与服务工作。', '2023届高校毕业生、往届有就业意愿的离校未就业高校毕业生及“三支一扶”计划等基层服务项目期满未就业人员为重点对象开展直播带岗。完成2022年青年见习计划，确保有见习意愿的失业青年获得见习机会。利用“承才金街”就业服务平台，定期组织开展校园招聘和进校园就业指导活动。深入推进高校毕业生实名登记服务，准确掌握毕业生就业状况和服务需求，开展针对性就业服务。', '“三支一扶”招募工作宣传动员；进一步落实高校毕业生实名登记。对已落实就业单位的毕业生及时办理报到证派遣和档案转递手续；未落实就业单位的毕业生在做好信息统计的同时全部派遣到学生生源地县区教育局进行报到，人事档案也一并转出，后期由生源县区教育部门再办理相关就业手续。', '市人社局：落实退役军人就业创业帮扶政策，完善多层次、多样化的教育培训体系，推行终身职业技能培训，增强职业技能培训实效性。积极拓宽农村劳动力转移就业渠道，加强与京津和省内地区的劳务协作对接，举办春风行动的招聘活动，开展劳务品牌选树，建立劳务品牌清单，稳定扩大劳务输出规模。持续加强脱贫人口就业帮扶，强化劳务输出、车间吸纳、公益性岗位安置、职业培训等帮扶举措，稳定脱贫人口务工就业规模。做好城镇失业人员就业服务，提供职业指导、技能培训、岗位推介等针对性帮扶，用好公益性岗位政策，确保', ':指导各地开展2021年度自主就业退役军人培训和就业招聘。建立退役军人创业项目库。接收符合政府安排工作条件退役士兵档案，将档案移交各县（市），督促符合政府安排工作条件退役士兵按时报到。', ':组织返乡入乡创业园整合创建现场观摩，提升园区承载能力，引导企业入园进区，促进农民工就业。', '市残联：组织开展残疾人就业专场招聘活动。组织开展残疾人按比例就业审核培训和年审工作。', '市人社局：落实退役军人就业创业帮扶政策，完善多层次、多样化的教育培训体系，推行终身职业技能培训，增强职业技能培训实效性，不断提升就业创业能力。开展金秋招聘月等系列公共服务，加强农村劳动力、城镇失业人员、脱贫人口等重点群体服务供给。围绕全市重点产业需求，积极开展职业培训，提升重点群体就业本领，壮大技能人才队伍。开展县市区实地督导调研活动，加大重点群体就业帮扶力度，做好脱贫人口就业防返贫监测，多渠道促进就业创业。', ':组织参加省级退役军人成果展示活动。做好转业军官档案接收、审核、报到工作。组织召开退役军人欢迎仪式。做好符合政府安排工作条件退役士兵档案考核、成绩公示。', ':开展农村创业创新带头人培育行动，培训提升相关技能。确定整合创建返乡入乡创业园名单，吸纳农民工就地就近就业。', '市残联：组织盲人医疗按摩人员考试。继续组织残疾人招聘活动。落实河北省《机关、事业单位、国有企业带头安排残疾人就业办法》。', '市人社局：落实退役军人就业创业帮扶政策，完善多层次、多样化的教育培训体系，推行终身职业技能培训，增强职业技能培训实效性。组织举办', '“承才金街”等系列招聘活动，帮助农村劳动力、城镇失业人员等重点群体就地就近就业。加强脱贫人口就业帮扶，做好年度评估工作。', ':全面完成符合政府安排工作条件退役士兵和军转干部安置任务。指导县区开展2022年度自主就业退役军人适应性培训和职业技能培训。开展退役军人网上专场招聘活动。', '市残联：组织参加全省残疾人职业技能大赛。开展离校未就业残疾人毕业生招聘活动。对残疾人就业工作进行总结。', '拓宽非全日制、平台就业等灵活就业渠道。积极发展夜经济、摊位经济，为灵活就业创造更多便利条件。', '健全灵活就业劳动用工和社会保障政策，开展新就业形态劳动者权益保障专项行动，支持灵活就业健康发展。', '坚决防止和纠正性别、年龄、学历等就业歧视，大力营造公平就业环境。加强劳动保障监察执法，着力解决侵害劳动者合法权益的突出问题。', '开展人力资源市场秩序执法检查，规范秩序，查处就业歧视违法行为。开展工时和休息休假问题专项整治行动，查处超时加班、未落实带薪年休假政策、未依法支付加班工资问题。', '按照国家省工作部署，开展劳务中介专项整治行动，规范人力资源服务活动和用人单位招用工行为。开展', '按照国家和省工作部署，开展劳务中介专项整治行动，规范人力资源服务活动和用人单位招用工行为。组织开展根治欠薪冬季专项行动。', '“承才金街”系列公共招聘服务。开展以“春风送温暖就业送真情”为主题的春风行动，为各类重点群体提供留岗关怀、就业帮扶、用工支持等。按照人社厅工作部署，在全市范围内开展“民营企业招聘月”活动，帮助重点群体实现就业。开展公共就业服务进校园活动。以扩就业、实施就业促进工程和“承才计划”等为主要载体，建设具有特色的线上线下相融合，求职用工双向互动、供需双向选择的“承才金街”就业服务和招聘平台。有效解决就业难、招工难。', '待人社厅出台关于加强零工市场建设的政策文件和大龄劳动者就业帮扶政策措施后，及时制定我市落实意见。按照人社厅部署，在全市开展', '“百日千万”网络招聘活动，帮助重点群体实现就业。利用“承才金街”就业服务平台，实现用工单位和求职者面对面、零距离的互动和对接，提供良好洽谈环境，为工单位及求职者搭建绿色供需对接平台。对零就业家庭开展“一对一”重点帮扶与精准服务等多种就业帮扶，确保实现零就业家庭动态清零。', '“金秋招聘月”活动，面向各类劳动者和企业开展线下线上专场招聘活动。对零就业家庭开展“一对一”重点帮扶与精准服务等多种就业帮扶，确保实现零就业家庭动态清零。利用“承才金街”就业服务平台，实现用工单位和求职者面对面、零距离的互动和对接，提供良好的洽谈环境，为工单位及求职者搭建绿色供需对接平台。', '3万人次，因疫情防控和政策调整等原因，全省目前暂停培训，待省统一恢复培训后，加快工作进度，确保完成任务。6月底完成11000人次补贴性培训。承德县公共实训基地项目已正式获批立项，预计7月份开工建设，市级和平泉、宽城等3个项目正在开展可研报告和初步设计。', '22200人次。承德县公共实训基地项目开工建设。其他3个公共实训基地项目完成可研报告，加快进行初步设计。', '100%完成全年补贴性培训任务。市级、平泉、宽城3个公共实训基地项目完成可研报告和初步设计，正式申报立项。', '1000亿元失业保险基金支持稳岗和培训，加快培养制造业高质量发展的急需人才，让更多劳动者掌握一技之长、让三百六十行行行人才辈出。', '加强高标准市场体系建设，抓好要素市场化配置综合改革试点，加快建设全国统一大市场。继续扩大市场准入。', '“全国一张清单管理”，贯彻落实违背市场准入负面清单案例归集和通报制度、扎实做好清单落地实施工作。以季度为单位归集上报市场准入负面清单案例。待省开展省级要素配置改革试点后，抓好政策衔接，积极争列省级试点。待省加快建设全国统一大市场的意见出台后，按照省和市委、市政府安排，研究制定我市贯彻落实措施。', '市市场监管局：持续推进查办反不正当竞争案件工作。谋划部署年度工作，制定年度反垄断和反不正当竞争工作要点。开展反不正当竞争执法专项行动。', '市商务局：协同市发改、市场监管等部门落实好国家新版市场准入负面清单。归集上报市场准入负面清单案例。探索研究市场准入效能评估指标体系。待国家加快建设全国统一大市场的意见和我省贯彻落实措施出台后，组织研究落实我市的推进意见。按照职能分工，配合发改、市场监管等部门做好反垄断和反不正当竞争工作。', '市市场监管局：加强反不正当竞争执法，对各地执法工作情况进行督导指导，持续推进两个专项行动有效落实。', '市商务局：待国家新版市场准入负面清单发布后，协同市发改、市场监管部门及时转发落实。归集上报市场准入负面清单案例。对高标准市场体系建设和要素市场化配置改革推进情况进行跟踪。依据法律、法规及相关政策的调整，及时更新和规范权力清单、责任清单和监管清单。联合市发改、市场监管等部门加强反垄断和反不正当竞争执法。', '市商务局：待国家新版市场准入负面清单发布后，及时转发落实。归集上报市场准入负面清单案例。配合市发改委及时提出《市场准入负面清单（', '2021年版）》，做到清单之外无审批。总结全年反垄断和反不正当竞争工作。形成市场准入效能评估指标体系初稿。对高标准市场体系建设、要素市场化配置改革和统一大市场建设推进情况进行跟踪督导。', '“放管服”改革，对取消和下放审批事项要同步落实监管责任和措施。全面实行行政许可事项清单管理', '进一步强化对取消、下放审批事项监管工作的学习与研究，对照国务院办公厅公布的《法律、行政法规、国务院决定设定的行政许可事项清单（', '按照省政务办要求，研究制定《关于进一步提高政府监管效能推动高质量发展的实施意见》，编制完善我市行政许可事项清单。', '编制公布我市行政许可事项清单，并向社会公布，全面接受监督，行政许可事项清单进行动态管理。按照省政务办各阶段工作部署，按时按质完成相关任务。', '“政务服务就近办、网上办、自助办提升工程”工作方案。按照省级《数据共享责任清单》要求，配合做好市级相关工作。', '提升网上政务服务水平，推动乡村政务服务事项网上办理，实现乡村政务服务事项网上可办率', '“跨省通办”范围，基本实现电子证照互通互认，便利企业跨区域经营，加快解决群众关切事项的异地办理问题。', '市公安局、市人社局、市卫健委、市交通运输局、市市场监管局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '推进居民身份证电子化，实现通过扫码办理需要用身份证的服务事项，同时保障好群众信息安全和隐私。', '市人社局、市教育局、市卫健委、市民政局、市住建局、市市场监管局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '市公安局：按照省公安厅要求完善人口信息数据质量。根据全省身份证电子化试点工作进度，开展身份证电子化应用推广工作。', '市公安局：继续完善人口信息数据质量，根据全省身份证电子化试点工作进度，加强宣传推广，推进身份证电子证照的应用。', '市教育局、市公安局、市民政局、市人社局、市自然资源和规划局、市卫健委、市残联、市医疗保障局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '市行政审批局、承德银保监分局、市税务局、市住建局、市财政局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', 'APP,目前承德市市本级四区已经开通和实现不动产登记资料网上查询服务，已经可以在全省政务服务领域推广应用不动产资料网上查询电子证明。', '市公安局：根据部局、总队便民举措相关实施方案，制定全市具体实施方案，成立领导小组，明确目标、制定计划，细化各部门职责；加强对民警辅警培训，缩短审核时间提高便民服务能力。 保障措施：召开专题会议研究制定工作方案；召开便民服务工作培训会。', '市公安局：根据部局、总队便民举措相关实施方案，制定全市具体实施方案，成立领导小组，明确目标、制定计划，细化各部门职责；加强对民警辅警培训，缩短审核时间提高便民服务能力。', '“道路运政一网通办小程序”实现网上年审。2、将全市“三检合一”的道路运输车辆检测机构名单通过政府网站进行每季度不定期公示。', '市自然资源和规划局：通过省一体化政务服务平台电子证照系统，目前承德市市本级四区已经可以向省自然资源厅全省不动产登记电子证照库推送数据信息，实现推行政务服务', '12123车辆检测预约服务；多渠道宣传便民举措，加强与保监部门合作，提高便民服务水平。 保障措施：调整工作排班，保证周六业务办理；加强对车检服务机构监督管理，保证群众就近办理，随到随办；组织媒体宣传会议；加强与保监部门统筹协调，优化沟通机制。', '1.全面落实普通货运车辆异地检测要求，构建市级检测数据接收平台，通过“道路运政一网通办小程序”实现网上年审。2、将全市“三检合一”的道路运输车辆检测机构名单通过政府网站进行每季度不定期公示。', '2022年4月已经在研究制定《承德市市本级推进“互联网+不动产抵押登记电子证照”实施方案》，正在对接各银行业金融机构对电子证照应用进行测试，并及时解决测试中发现的问题。', '市公安局：对服务站、检测线便民举措进行检查督导，对存在问题的服务站和检测线下发整改通知，并进行回访验收。总结便民服务全年工作。 保障措施：组织业务骨干进行督导检查，系统梳理总结全年工作。', '市公安局：对服务站、检测线便民举措进行检查督导，对存在问题的服务站和检测线下发整改通知，并进行回访验收。总结便民服务全年工作。', '1.全面落实普通货运车辆异地检测要求，构建市级检测数据接收平台，通过“道路运政一网通办小程序”实现网上年审。2、将全市“三检合一”的道路运输车辆检测机构名单通过政府网站进行每季度行定期公示。', '强化政府监管责任，严格落实行业主管部门、相关部门监管责任和地方政府属地监管责任，防止监管缺位。加快建立健全全方位、多层次、立体化监管体系，实现事前事中事后全链条全领域监管，提高监管效能。抓紧完善重点领域、新兴领域、涉外领域监管规则，创新监管方法，提升监管精准性和有效性。', '市市场监管局：配合有关部门做好全市《中华人民共和国市场主体登记管理条例》培训工作，贯彻落实好《中华人民共和国市场主体登记管理条例》及相关配套规章制度。', '市外办：组织召开市委外事工作委员会及全市外办主任会议，对全市涉外管理等工作进行安排部署，提高各县（市、区）涉外管理工作整体能力和水平。', '2022年度承德市商务局双随机抽查工作计划》，组织开展“双随机、一公开”监督检查，加强事中事后监管，引导企业合规经营。组织企业参加省举办的“走出去”政策业务培训，指导企业用足用好政策。', '“双随机”牵头部门职责，从平台操作和业务指导两方面积极配合有关部门深入开展“双随机、一公开”监督检查。', '市商务局：加强对外投资真实性合规性审查，做好对外投资备案（核准）管理工作。完成并总结', '正确认识和把握资本的特性和行为规律，支持和引导资本规范健康发展。依法平等保护企业产权、自主经营权和企业家合法权益，营造各类所有制企业竞相发展的良好环境。', '市市场监管局：对省市场监管局局交办、部门移交、群众举报的资本领域垄断案件线索根据委托进行核查。', '市工信局：按照省厅安排，推进修订《河北省中小企业促进条例》，将依法平等保护企业产权、自主经营权和企业家合法权益列入条例内容。', '“重大产权和企业合法权益侵害事件”评价标准出台后做好贯彻落实。待省《河北省中小企业促进条例》出台后,做好政策衔接，立足企业产权制度保护,做好相关工作贯彻落实。', ':积极落实2021年度挂牌上市奖补资金；结合实际，组织开展线上企业股改挂牌上市政策培训；全面摸排拟上市后备企业资源库，确定重点拟挂牌上市企业；深入企业开展走访调研，面对面交流，及时解决企业上市过程中面临的问题和困难，推动各方更加深入理解并利用资本市场发展。', ':围绕企业挂牌上市和融资服务需求，组织开展多种形式的政策解读培训和宣传对接活动；根据企业需求适时组织企业到外地学习考察，借鉴先进地区工作经验；多渠道、多维度、多形式宣传沟通，推动各方更加深入理解资本市场，更加善于运用资本市场助推经济高质量发展。', '市工商联：积极组织我市民营企业参与第四届世界冀商大会，引导广大冀商和知名民营企业参与承德建设。', ':发挥市企业上市联席会议作用，加强对企业上市工作协调服务，督促和指导各县（市、区）政府和市直有关部门加强对后备资源库企业跟踪服务，研究解决企业面临的各类困难，加快推进企业上市进度；多渠道、多维度、多形式组织开展培训和宣传对接活动。', '完成国企改革三年行动任务，加快国有经济布局优化和结构调整，深化混合所有制改革，加强国有资产监管，促进国企聚焦主责主业、提升产业链供应链支撑和带动能力。', '“三因三宜三不”原则，稳妥推进监管企业混合所有制改革；充分利用“5.18”廊坊经洽会，吸引潜在投资者；出台印发国资监管相关制度文件，加快构建国有企业市场化经营机制；加强企业投资监管力度，推动监管企业投资聚焦主责主业。', '按照省国资委要求，完成我市国企改革三年行动全部任务，并准备接受国家、省检查验收；按照', '“三因三宜三不”原则，稳妥推进监管企业混合所有制改革；积极推进国资监管制度文件落实，加快构建国有企业市场化经营机制；跟踪企业重大项目进展情况，协调解决监管企业投资和项目建设中的问题。', '“回头看”；按照“三因三宜三不”原则，稳妥推进监管企业混合所有制改革；积极推进国资监管制度文件落实，加快构建国有企业市场化经营机制；指导督促监管企业对年度投资及布局情况进行总结，对下一年工作进行谋划。', '落实支持民营经济发展的政策措施，鼓励引导民营企业改革创新，构建亲清政商关系。弘扬企业家精神，制定涉企政策要多听市场主体意见，尊重市场规律，支持企业家专注创业创新、安心经营发展。', '2022年全市民营经济发展工作要点，明确各级各部门年度工作任务和目标，统筹部署全市民营经济发展工作。按照省工信厅要求做好县域特色产业发展考核工作，加强对民营企业促进工作的宏观指导、综合协调。', '市工商联：跟踪调研上半年民营企业家参与涉企政策制定情况。围绕民营经济发展开展调研，及时反映民营企业需求。', '市工信局：梳理上半年全市民营经济发展工作情况，上报半年工作总结。按照省民营办要求，组织推荐我市企业和企业家参评省优秀民营企业、民营企业家，弘扬企业家精神，提振发展信心。', '100强、民营企业科技创新100强榜单评选活动，提高我市民营企业知名度，推动民营企业高质量发展。', '市工信局：组织参加全省民营经济发展大会，贯彻大会精神，推动政策落实，进一步优化民营经济发展环境。', '市工商联：对全年民营企业家参与涉企政策制定情况进行跟踪调研。召开民营企业座谈会，听取企业家意见建议，帮助协调解决发展难题。', '2022年预算绩效文本，与部门预算文本形成“1+1”双文本，一并提交市人代会。按要求组织市级部门公开2022年预算绩效信息。组织市级部门对2021年所有项目支出资金开展绩效自评，实现项目全覆盖；印发2022年市级财政重点绩效评价计划，开展财政重点评价。结合年度预算批复项目，安排2022年绩效运行监控工作，保障预算执行。', '2022年1-6月份部门整体支出、专项资金和预算项目绩效目标进行全面绩效运行监控分析。组织实施财政重点监控和中期评估工作。', '2023年度预算编制工作，注重年度预算绩效运行监控和绩效评价结果应用，增强绩效约束。结合市委市政府高质量发展绩效考核，提前梳理市级部门和县市区财政部门年度预算绩效管理工作情况，加强督促指导、落实工作责任，及时查漏补缺，提升整体水平。', '紧盯省财政厅重点领域省以下财政体制改革实施方案起草情况，了解文件内容，做好我市相关改革方案起草准备工作。', '待省级层面出台重点领域省以下财政体制改革实施方案后，结合我市实际起草市以下财政体制改革实施方案。', '制定《承德市常态化打击虚开骗税违法犯罪活动工作机制》，进一步推进部门协作制度化、常态化，严厉打击虚开骗税违法犯罪行为。召开承德市常态化打击虚开骗税领导小组办公室会议，总结前期工作情况，部署下一阶段重点工作，听取重点案件汇报，交流信息，研究工作，对涉嫌虚开骗税违法犯罪的重点案件共同会商。随机抽取第一批市级重点稽查对象，组织开展自查和重点检查。', '依托承德市打击涉税违法犯罪数据合成作战指挥中心，实现警税合署办公和警税联合执法的试点运行。依序完成总局、省局下发的重点稽查对象，随机抽取第二批次市级重点稽查对象，通过自查和重点检查方式，对抽取的重点稽查对象履行纳税义务、扣缴税款义务情况及其他税法遵从情况，进行全面检查。', '按照省级统一工作安排，完成省级、市级随机抽取重点稽查对象检查任务，通过自查和重点检查方式，对重点税源企业履行纳税义务、扣缴税款义务情况及其他税法遵从情况，进行全面检查。对全年随机抽查情况进行分析总结，全面反映检查成果，归纳总结工作措施。', ':制定融资担保机构、典当行和小额贷款公司年度审计方案及“双随机、一公开”执法检查计划。组织开展小额贷款公司等地方金融组织的年度审计工作。', '“应罚尽罚、当罚则罚、同案同罚、过罚相当”的原则依法进行处理，并做好行政处罚信息公开，发挥行政处罚的惩戒教育和规范引导作用。推进监管文化建设，强化政治监督和日常监督，全力打造“忠专实”的监管队伍。', ':对融资担保机构、典当行和小额贷款公司组织开展“双随机、一公开”执法检查。持续推动地方金融组织“减量增质”。', '：持续做好行政处罚工作，提升依法履职能力。推进监管文化建设，强化政治监督和日常监督，全力打造', '：持续做好行政处罚工作，并对全年工作情况进行总结。总结经验，查找不足，优化行政处罚工作机制。推进监管文化建设，强化政治监督和日常监督，全力打造', '金融监管局、省农信社承德审计中心，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '持续做好农村中小银行机构公司治理建设三年行动工作。督促各农村中小银行银行机构制定不良资产处置计划，督导机构推进不良资产处置。', '督导各法人银行机构持续做好公司治理三年建设行动工作，不断加强党的领导、提升董事和监事履职质效、规范股东行为。督促各法人银行机构制定不良资产处置计划，加大不良资产处置力度。', '持续做好农村中小银行机构公司治理建设三年行动工作。督促各农村中小银行银行机构按照不良资产处置计划推进不良资产处置工作。', '督促各法人银行机构持进一步完善公司治理机制，强化薪酬管理、规范股东行为。督促各法人银行机构切实做好不良资产处置工作。', '持续做好农村中小银行机构公司治理建设三年行动工作。督促各农村中小银行银行机构按照不良资产处置计划按时完成不良资产处置工作。', '督导各法人银行机构持续提升公司治理的科学性、稳健性和有效性，持续规范股东行为、优化股权结构。通报各法人银行机构不良资产处置情况。', '人行承德中心支行：加大政策宣传力度，鼓励和支持符合条件的民营企业发行银行间市场债务融资工具。', '2022年度《河北省省级科技计划基础研究专项（自然科学基金）项目申报指南》要求，组织我市企业、大专院校、科研院所积极申报。', '根据国家、省基础研究十年规划制定印发情况，启动我市基础研究十年规划编制工作。组织成功立项的单位与省厅签订项目任务书，指导、监督项目实施。', '实施科技体制改革三年攻坚方案，强化国家战略科技力量，加强国家实验室和全国重点实验室建设，发挥好高校和科研院所作用，改进重大科技项目立项和管理方式，深化科技评价激励制度改革。', '学习研究《国家科技体制改革三年攻坚方案》，与省科技厅沟通，了解省方案进度。按照《河北省科技计划项目', '“揭榜挂帅”组织实施工作指引》，改进立项和管理方式，推进市级科技项目“揭榜挂帅”工作。制定印发《承德市关于完善科技成果评价机制的实施意见》，开展河北省评价改革试点申报工作。', '研究起草《承德市科技体制改革三年攻坚行动方案》或转发《河北省科技体制改革三年攻坚方案》。', '推进落实省科技体制改革三年攻坚行动方案，分解细化任务，明确工作责任，建立工作台账，', '市科技局：加强我市全社会研发投入统计工作，力争获得省对市研发投入增长奖励资金。印发科技改革创新工作督查情况通报，精准指导县域科技工作工展。组织各县市区完成', '市财政局：衔接落实好《河北省中央引导地方科技发展资金管理实施细则》，强化财政资金激励引导作用，鼓励县市区加大科技投入。贯彻落实好拟出台的河北省科技型企业研发投入后补助管理办法，引导企业加大研发投入。', '市科技局：按照省制定的《研发投入增长奖励资金使用细则》，发挥财政资金引导作用，制定使用方案，推动企业加大。组织各县市区深入实施县域科技创新跃升计划，提升县域科技创新能力。', '市财政局：落实财政科技投入只增不减要求，压实县市区主体责任，确保财政科技投入稳定增长。', '市财政局：督促县市区加大科技研发投入，确保研发投入及增长符合省定要求。及时下达上级科技转移支付资金，激励和引导县市区加大科技投入。', '2022年度国际科技合作与交流统计调查工作。组织参加省科技厅组织的青少年作品征集评选、青少年知识竞答等科普活动。', '按照省科技厅统一安排部署，组织参加国际科技交流活动，推动我市相关单位开展科技合作。制定承德市科技活动周工作方案，精心组织启动仪式、科技资源开放、科技惠农行动等群众性科技活动。', '加快建设世界重要人才中心和创新高地，完善人才发展体制机制，加大对青年科研人员支持力度，让各类人才潜心钻研、尽展其能。', '2022年度《河北省省级科技计划基础研究专项（自然科学基金）项目申报指南》要求，组织我市企业、大专院校、科研院所积极申报省青年科学基金、优秀青年基金项目。组织企事业单位积极申报省级高水平人才团队建设专项。', '组织成功立项的单位与省厅签订项目任务书，指导、监督项目实施。按照省科技厅统一安排部署，组织参加河北省院士联谊会会员大会、院士专家河北行等活动。', '强化企业创新主体地位，持续推进关键核心技术攻关，深化产学研用结合，促进科技成果转移转化。', '组织企事业单位积极申报省级重大科技成果转化专项项目。聚焦承德国家可持续发展议程创新示范区建设和', '“3+3”主导产业发展，编制创新示范区建设科技专项和市级科技计划项目申报指南，支持我市企业、高校、科研院所开展关键核心技术攻关，促进新技术、新产品的研究示范与应用。积极组织企事业单位申报2022年省级科技计划项目。', '配合省科技厅做好省级重大科技成果转化专项项目评选工作。组织开展创新示范区建设科技专项和市级科技计划项目申报、评审、立项工作。指导获得省科技计划项目立项的项目承担单位及时签订任务书，推进项目实施。', '2022年知识产权保护工作方案。做好北京2022年冬奥会和冬残奥会奥林匹克标志保护工作。制定知识产权质押融资年度推进计划，安排部署年度工作。', '严厉打击商标、专利侵权假冒行为。推进知识产权质押融资入园惠企行动，开展宣传和培训，指导各县（市）区推进知识产权质押融资工作。', '对全年知识产权保护工作进行总结。推进知识产权质押融资入园惠企行动，开展宣传和培训，指导各县（市）区推进知识产权质押融资工作。总结全市知识产权质押融资工作。', '市人社局：加强科技型企业创业担保贷款支持力度。配合国家和省做好促进创业投资发展相关工作。全力开展', '“承就你”系列创业服务，加大对科技型企业创业扶持力度，开展创业培训、创业实训，组织各类创业活动。', '承德银保监分局：加强窗口指导，引导金融机构优化审批流程，完善授信政策，全力满足科技型企业融资需求。推动银行保险机构创新支持国家重大科技任务，更好服务关键核心技术攻关企业和', '“承就你”系列创业服务，加大对科技型企业创业扶持力度，完善智能创业服务系统，提档升级创业服务之家，开展专业化“承就你”创业服务。', '承德银保监分局：发挥货币政策工具正向激励作用，引导金融机构加大科技型企业信贷支持力度。鼓励银行保险机构积极探索科技金融服务新模式，创新金融产品和服务。配合国家做好促进创业投资发展相关工作。', '承德银保监分局：发挥货币政策工具正向激励作用，引导金融机构加大科技型企业信贷支持力度。通过调研座谈等方式，深入了解科技金融支持情况，协调各部门积极给予金融政策支持。配合国家做好促进创业投资发展相关工作。', '75%提高到100%，对企业投入基础研究实行税收优惠，完善设备器具加速折旧、高新技术企业所得税优惠等政策，这相当于国家对企业创新给予大规模资金支持。', '2022年度减税降费工作方案。国家、省出台政策后及时纳入2022年度减税降费政策清单。加大对研发费用加计扣除政策、设备器具加速折旧、高新技术企业所得税优惠等政策的宣传解读工作，切实保证纳税人充分享受政策红利。', '市税务局：加大对研发费用加计扣除政策、设备器具加速折旧、高新技术企业所得税优惠等政策的宣传解读工作，通过线上线下多渠道、全方位申报辅导，切实保证纳税人充分享受政策红利。', '2022年度减税降费政策清单加大对研发费用加计扣除政策、设备器具加速折旧、高新技术企业所得税优惠等政策的宣传解读工作，通过制作宣传资料，通过多媒介推送等，切实保证纳税人充分享受政策红利。入企开展研发经费加计扣除指导。', '市财政局：组织开展减税降费政策宣传解读，重点宣传研发费用加计扣除相关政策，确保市场主体知晓享受政策。', '市税务局：积极开展减税降费政策宣传解读，重点宣传研发费用加计扣除相关政策，确保市场主体知晓享受政策。做好加大研发费用加计扣除政策落实及数据疑点核实处理工作', '市科技局：组织各县（市、区）科技管理部门、有关部门，开展减税降费政策宣传解读，重点宣传研发费用加计扣除相关政策，确保市场主体知晓享受政策对税务机关提出异议的科研项目研发经费情况进行鉴定。集中组织县区开展研发经费加计扣除培训。培训科技服务三方开展加计扣除服务。', '市财政局：对全市减税降费实施效果进行年度评估，将研发费用加计扣除政策纳入年度评估范围，确保政策落实效果。', '市税务局：按期监督检查科技型中小企业加计扣除比例提高税收优惠政策减免情况，加大落实力度，确保政策落实落地。', '市科技局：将研发费用加计扣除政策及实施效果纳入年度评估范围，确保政策落实效果。对税务机关提出异议的科研项目研发经费情况进行鉴定。入企开展研发经费投入归集指导。', '促进工业经济平稳运行，加强原材料、关键零部件等供给保障，实施龙头企业保链稳链工程，维护产业链供应链安全稳定。', '市交通运输局、市商务局、市市场监管局、市自然资源和规划局、市生态环境局，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '市工信局：加强前瞻性预判和综合性分析，全面把握行业、地区和企业结构性特征，准确研判经济形势和运行走势。强化助企服务，特别是积极向上协调解决因疫情影响的跨省、跨市的物流运输问题，确保企业稳产达效。摸清我市原料药生产企业情况。', '市发改委：对全市关键产业链进行全面梳理，重点加强对装备等产业供应链情况的调度、监测，切实做好相关协调服务工作，保障企业生产需求。', '市工信局：组织召开上半年全市工业经济运行调度会，调度各县区保产业链供应链稳定工作进展情况、取得成效、存在问题和下一步重点工作。配合开展原料药生产调研。组织召开水泥企业生产经营情况座谈会。调度各水泥企业保供情况。', '市发改委：与省对口部门保持密切沟通，积极参加由省组织开展的装备制造、钢铁等领域企业供需对接活动，拓宽企业产业链供应链渠道。推动落实提振工业经济有关政策措施。', '市工信局：紧盯全年目标任务开展攻坚冲刺，加强工业运行调度。跟踪分析工业经济运行态势，力促工业经济平稳运行。参照省级原料药集中生产基地评审认定条件，规范指导企业发展。组织全市化工重点监控点企业进行工作总结，跟踪分析化工重点监控点企业对全市化工行业的带动作用，促进化工产业高质量发展。', '市发改委：积极参加国家、省组织的汽车产业链对接活动。跟踪分析工业经济运行态势，力促工业经济平稳运行。', '加大政策宣传力度，指导银行保险机构与制造企业对接，了解企业真实经营情况和金融需求，研究疏通政策落地的堵点，宣传金融支持政策，促进各项政策落到实处。', '督促银行业金融机构在依法合规、风险可控的前提下，加大制造业中长期贷款支持力度。根据制造企业融资需求及特点，创新金融产品及服务，提高企业金融服务获得感。', '积极引导信贷资源向制造业倾斜，努力提高制造业贷款比重。扩大对战略性新兴产业、先进制造业等制造业中长期贷款投放。对成长型先进企业，创新担保和融资方式，合理确定抵质押率，在资金供给、贷款利率方面给予适当倾斜。', '2022年河北省工业转型升级（技改）“百项示范”工程专项资金申报指南》要求，积极组织县（市、区），对符合省工业转型升级（技改）产业基础再造工程资金项目申报条件的项目，经初审后，及时上报省。组织开展2022年项目摸底调研工作，做好产业基础再造项目储备。', '指导各县（市、区）强化项目服务，加快推进项目建设。做好省级智能制造标杆企业申报工作。', '市质量强市战略领导小组成员单位，各县（市、区）政府，承德高新区管委会、御道口牧场管理区管委会', '2022年工作要点，明确质量提升专项行动年度重点任务。对质量工作考核结果反馈问题进行整改分析，制定整改提升方案。协同省局开展“质量服务企业行”活动，选择重点区域部分龙头企业开展质量技术帮扶。', '按照年</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>常丽虹率队赴邢台市学习考察</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2019-11-11</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F11%2F11%2Fart_9945_204028.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_204028</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['11月2日-3日，市长常丽虹率领承德市考察团赴邢台市就城市建设、县域经济和基层社会治理等工作进行学习考察。邢台市委书记朱政学、市长董晓宇出席相关活动。市领导李晋宇、王成、刘宏伟、崔万峰参加考察。', '常丽虹一行先后实地考察了邢台市临西县中伟卓特液压有限公司、河北光明九道菇生物科技有限公司、梨园屯镇网格指挥中心和政务服务中心，威县君乐宝基地、河北道荣新能源科技有限公司，平乡县好孩子儿童用品有限公司，南和县华兴宠物食品有限公司、金沙河面业集团，邢台市七里河、邢东新区和园博园。大家边走边看、边听边问，与当地有关部门及企业负责人深入交流，详细了解邢台市在城市规划建设、做强县域经济、产业集群发展以及基层社会治理改革等方面的好经验、好做法。', '3日上午，常丽虹主持召开学习考察总结会议。她指出，此次邢台一行让大家深受启发，深受触动，收获颇丰。邢台市解放思想，敢于创新，发展变化大、气魄大，有活力、有后劲，有许多值得学习借鉴、可复制的宝贵经验。要认真思考、积极对标，进一步解放思想、振奋精神、坚定信心，始终秉承“事在人为”的理念，不为困难找理由，多为完成想办法，以等不得、坐不住的紧迫意识加快推动高质量发展，努力开创新时代生态强市、魅力承德建设新局面。', '常丽虹强调，要强化发展意识，坚持发展是第一要务，紧密结合“不忘初心、牢记使命”主题教育，认真检视在谋发展中存在的问题和短板，切实增强抓发展的紧迫感、压力感和责任感，围绕推动市域“3+3”绿色主导产业和县域“1+2”特色产业发展，在加快项目建设和培育龙头企业上下更大功夫。要调高工作标尺，扎实做好脱贫攻坚、生态环境保护等重点工作，确保高标准高质量完成目标任务。要强化机遇意识，抢抓京津冀协同发展、东西部扶贫协作京津对口帮扶等重大机遇，积极主动跑办对接，力争取得更大成效。要树立敢为人先、创先争优的勇气和魄力，创新思路举措，找准方法路径，加快推动承德生态优先、绿色发展。要强化民本意识，深入推进“承德办事一次成”改革，健全完善重点项目会商会诊机制，探索推广在重点企业设立政府工作服务站，开通惠企“直通车”，以营商环境的不断优化增强广大群众和市场主体的幸福感获得感。', '总结会上，常丽虹还就做好经济运行调度、重点项目建设、脱贫攻坚、绿色矿山、洁净煤取暖、节能削煤、省市民心工程和民心实事以及安全生产等重点工作提出明确要求。', '市直相关部门主要负责同志，各县（市、区）政府、承德高新区管委会主要负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>津承东西部扶贫协作联席会议在天津举行</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2019-11-12</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F11%2F12%2Fart_400_154421.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_154421</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰）11月9日，市长常丽虹率承德代表团赴天津市对接交流津承东西部扶贫协作工作。当日下午，津承东西部扶贫协作联席会议在天津市迎宾馆举行。天津市幅市长李树起、承德市市长常丽虹出席会议并讲话。天津市政府幅秘书长张剑主持会议。承德市领导杨春武、崔万峰出席会议。', '常丽虹对天津市多年来给予承德市的倾力帮扶表示衷心感谢，并就今年对口帮扶工作取得的新进展、新成效进行汇报。她说，这既是一次表达谢意之行，也是一次深化合作之行，更是一次学习取经之行。天津市各级领导高度重视对口帮扶承德工作，多次率团来我市考察调研帮扶工作，帮扶力度之大、措施之实、亮点之多、效果之显著，让我们深受感动，倍感鼓舞，更加坚定了我们做好脱贫攻坚工作，加快承德创新发展、绿色发展、高质量发展的决心和信心。', '常丽虹表示，承德市要认真贯彻落实习近平总书记对精准扶贫、精准脱贫工作的重要指示精神，聚焦“两不愁三保障”，进一步打好八措并举“组合拳”，以深化天津对口帮扶为动力，全力抓好扶贫协作重点项目落实等各项工作，确保所有贫困县出列，取得全市脱贫攻坚的关键性胜利，以实实在的工作成绩回报天津市委、市政府和天津市人民的厚爱。希望双方继续扩大合作成果，全面深化津承扶贫协作，力争把天津对口帮扶承德打造成为东西部扶贫协作的样板工程。', '李树起对承德市代表团一行的到来表示热烈欢迎。他说，做好津承对口帮扶工作，是党中央赋予天津的重大政治任务，是天津尽好京津冀协同发展使命、呵护好京津冀水源涵养功能区的分内职责。', '李树起表示，要围绕全面落实津承“1+4”帮扶协议，在帮扶项目建设、劳务协作、消费扶贫和社会帮扶等方面持续升级加力，确保高质量完成今年帮扶目标任务。要聚焦“两不愁三保障”目标，逐项细化指标任务，逐级落实，力争今年扶贫协作工作取得好成绩。要继续深化与承德多领域对接合作，总结并推广扶贫协作成功经验、模式，高水平谋划好明年对口帮扶工作，用心、用情、用力助推承德打赢脱贫攻坚战。', '天津市直相关部门负责同志、东丽区、西青区、津南区、武清区负责同志，天津市食品集团、天津中德应用技术大学负责同志，承德市直相关部门主要负责同志，承德县、平泉市、围场满族蒙古族自治县、隆化县、丰宁满族自治县政府主要或分管负责同志，承德应用技术职业学院、承德六沟产业园主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>我市组织企业参加第二十一届中国国际高新技术成果交易会</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2019-11-25</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F11%2F25%2Fart_362_157652.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_157652</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['第二十一届中国国际高新技术成果交易会已于本月17日圆满落幕,本届高交会以“共建活力湾区，携手开放创新”为主题，展览总面积达14.2万平方米，共有3315家展商参展，展示的高新技术项目达10216项，涵盖了人工智能、智能家居、智能制造、物联网、智能驾驶、智能+、车联网、5G商用、8K超高清、区块链技术、新一代信息技术、大数据、云计算、应急安全等领域。44个国家和国际组织、共148个团组参展本届高交会。', '按照要求，我市组成由市商务局主管局长任团长，市商务局、发改委、科技局、工信局、台办、市高新技术产业开发区、部分县（市、区）、7个省级经济开发区以及企业参加的代表团赴会参加。此次交易会我市共申报承德市天乾地坤软件科技有限公司的天乾地坤智能锁项目；河北英曼卡科技有限公司的基于互联网的鞋履3D打印个性化定制系统项目等8个项目。', '通过组织我市参加高新技术相关论坛、外贸基地工业设计创新对接会、学习考察、及一系列开发区考察对接活动，扩了我市企业视野、增长了见识，并与多家国内外客商建立了联系，沟通了各方的信息，为今后企业的发展开辟了新的捷径，更为我市今后借助高新技术推动产业转型升级拓宽了渠道。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>10</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>常丽虹率队赴邢台市学习考察</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2019-11-06</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F11%2F6%2Fart_400_154103.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_154103</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰）11月2日-3日，市长常丽虹率领承德市考察团赴邢台市就城市建设、县域经济和基层社会治理等工作进行学习考察。邢台市委书记朱政学、市长董晓宇出席相关活动。市领导李晋宇、王成、刘宏伟、崔万峰参加考察。', '常丽虹一行先后实地考察了邢台市临西县中伟卓特液压有限公司、河北光明九道菇生物科技有限公司、梨园屯镇网格指挥中心和政治服务中心，威县君乐宝基地、河北道荣新能源科技有限公司，平乡县好孩子儿童用品有限公司，南和县华兴宠物食品有限公司、金沙河面业集团，邢台市七里河、邢东新区和园博园。大家边走边看、边听边问，与当地有关部门及企业负责人深入交流，详细了解邢台市在城市规划建设、做强县域经济、产业集群发展以及基层社会治理改革等方面的好经验、好做法。', '3日上午，常丽虹主持召开学习考察总结会议。她指出，此次邢台一行让大家深受启发，深受触动，收获颇丰。邢台市解放思想，敢于创新，发展变化大、气魄大，有活力、有后劲，有许多值得学习借鉴、可复制的宝贵经验。要认真思考、积极对标，进一步解放思想、振奋精神、坚定信心，始终秉承“事在人为”的理念，不为困难找理由，多为完成想办法，以等不得、坐不住的紧迫意识加快推动高质量发展，努力开创新时代生态强市、魅力承德建设新局面。', '常丽虹强调，要强化发展意识，坚持发展是第一要务，紧密结合“不忘初心、牢记使命”主题教育，认真检视在谋发展中存在的问题和短板，切实增强抓发展的紧迫感、压力感和责任感，围绕推动市域“3+3”绿色主导产业和县域“1+2”特色产业发展，在加快项目建设和培育龙头企业上下更大功夫。要调高工作标尺，扎实做好脱贫攻坚、生态环境保护等重点工作，确保高标准高质量完成目标任务。要强化机遇意识，抢抓京津冀协同发展、东西部扶贫协作京津对口帮扶等重大机遇，积极主动跑办对接，力争取得更大成效。要树立敢为人先、创先争优的勇气和魄力，创新思路举措，找准方法路径，加快推动承德生态优先、绿色发展。要强化民本意识，深入推进“承德办事一次成”改革，健全完善重点项目会商会诊机制，探索推广在重点企业设立政府工作服务站，开通惠企“直通车”，以营商环境的不断优化增强广大群众和市场主体的幸福感获得感。', '总结会上，常丽虹还就做好经济运行调度、重点项目建设、脱贫攻坚、绿色矿山、洁净煤取暖、节能削煤、省市民心工程和民心实事以及安全生产等重点工作提出明确要求。', '市直相关部门主要负责同志，各县（市、区）政府、承德高新区管委会主要负责同志参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>10</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>常丽虹率队就古城保护城建生态治理等赴正定考察</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2019-10-22</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F10%2F22%2Fart_400_149916.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_149916</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰）为深入开展“不忘初心、牢记使命”主题教育，进一步对标先进改进工作，10月20日，市长常丽虹率领承德市考察团赴石家庄市正定县就城市建设、发展文旅产业与古城保护等方面进行学习考察。石家庄市市长邓沛然出席相关活动。市领导李晋宇、何军、郭士刚、王成、刘宏伟、崔万峰参加活动。', '考察中，常丽虹一行先后来到荣国府、正定县委县政府机关、南城门、滹沱河环境综合整治现场和石家庄（正定）国际会展中心等地参观考察，深入了解正定古城保护、城市建设、生态治理和经济社会发展等情况，深切感受“古城古韵、自在正定”的独特魅力和时代风采。考察团成员一边走、一边看，认真听、仔细问，大家对正定县直机关单位拆掉围墙免费向游客开放停车场、洗手间和提供开水等以人为本的做法钦佩不已。考察团成员一致认为，承德与正定都是国家历史文化名城，景城一体、城景交融，正定经验对于承德提升城市管理水平和景区服务水平非常具有借鉴意义。', '当日晚上，常丽虹主持召开学习考察总结会议。她指出，此次正定学习考察让大家深受触动，深受启发。正定在古城保护、城市建设、生态治理等方面理念新、思路宽、办法多、魄力大，让我们进一步开阔了眼界和思路，提供了“可复制”的鲜活经验。要在对标先进中认真查找差距，打开思想“围墙”，切实把学习考察成果转化为推动我市城市建设发展的实际成效。', '常丽虹强调，要深入学习贯彻习近平新时代中国特色社会主义思想，认真学习领会习近平总书记在正定工作期间留下的宝贵思想财富、精神财富和实践成果，牢固树立以人民为中心的发展思想，进一步解放思想、转变理念、更新观念，为加快建设新时代生态强市、魅力承德提供更加强大的思想引领和精神动力。', '常丽虹指出，要坚持科学规划、高标准建设、精细化管理，紧盯公共服务和公共设施，补短板、强弱项，推动城市建设和景区管理再上新台阶。要学习借鉴正定经验，全力推动景区改造提升，下大力做好避暑山庄及周围寺庙景区提档升级、停车场对外开放、中心城区亮化、旅游标识规范化等工作，为打造国际旅游城市激活力、添动力、增魅力。各县（市、区）要坚持发展是第一要务，统筹县城和景区一体发展，着力做好明年全市旅发大会筹备工作，让广大市民和游客有更多的幸福感、获得感。', '市直相关部门主要负责同志，各县（市、区）政府、承德高新区管委会、御道口牧场管理区管委会主要负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>10</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>关于认真做好局长马浩然一线调研确定的重点工作推进落实的通知</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F9%2F19%2Fart_9944_261136.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_261136</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['承德市人民政府 工作部署 关于认真做好局长马浩然一线调研确定的重点工作推进落实的通知', '至 8月27日，局党组书记、局长马浩然利用近一个月时间，深入到机关各科室、所属事业单位，通过实地察看、座谈交流等形式，就全局重点工作推进情况、推进中遇到的困难、工作中存在的问题等内容进行调研，并与分管领导和各科室、事业单位负责人认真研究，提出了下一步努力方向和工作举措，为深入开展“不忘初心、牢记使命”主题教育打下坚实基础。', '通过调研情况看，各部门严格落实局党组安排部署，对照局年初印发的《2019年工作要点》及重点任务分解方案要求，认真研究，统筹谋划，明确分工，快速推进，各项工作均取得了较好成绩。党政机关公务用车、办公用房、节能等管理工作成效明显，管理更加规范化、制度化；机关党建、综合协调、人事教育、财务管理、公共服务管理、离退休干部服务等工作扎实开展，机关运转高效有序；物业维修、设备维护、周转房、餐饮、会务、安全保卫、车辆管理、保洁、绿化、网络监控、医疗卫生等服务标准和服务质量大幅提升，市直单位和干部职工满意度不断提高。这些成绩的取得，充分说明了全局上下政治意识和政治规矩持续增强，干事创业氛围日渐浓厚，执行落实能力不断加强。同时，在调研中也发现了一些存在的困难和问题，需要我们在下一步工作中认真研究推进举措，利用下半年有效的时间，圆满完成年初确定的各项目标任务。现将有关工作通知如下：', '对各部门临时用工岗位进行核定，建立统一的使用管理制度。独立核算的事业单位聘用的临时工要加强指导，审核把关，备案审查。同时，建立临时用工人员辞退机制并认真执行。二是要进一步加强干部职工年度考核工作，每个月要深入到各科室、事业单位，掌握每个人上报的工作任务完成情况，形成工作情况报告，分别报送各分管领导阅知。年终考核时，人事教育科要会同机关党委、办公室成立评价小组，对工作量进行趋于合理的认定。三是要加强人员调配力度，综合考量各部门工作量，将工作任务少的部门人员调整到工作任务量大的部门，做到合理调配人员，人尽其才、人尽其用。', '要进一步加强干部职工年度考核工作，每个月要深入到各科室、事业单位，掌握每个人上报的工作任务完成情况，形成工作情况报告，分别报送各分管领导阅知。年终考核时，人事教育科要会同机关党委、办公室成立评价小组，对工作量进行趋于合理的认定。', '抓好行政中心高低压配电室自动投切设备安装事宜，张勇副局长牵头，主动到电力公司沟通协调，如电力公司出具此方案不可行的建议，立即向市政府报告情况。', '抓好行政中心光伏发电设施设备维保工作，就光伏发电量进行实时监测，据实掌握供电情况。对于光伏维保单位如没有维保必要或维保工作开展不到位，研究政策依据，解除维保合同，今后如需维修，实行单次实施、单次结算模式。', '积极研究解决行政中心充电桩用电问题，由张勇、梁巍副局长牵头，设备管理科、保卫科积极与电力公司沟通协调，共同研究，形成可行性报告上报局党组。', '切实抓好直饮水设备管理工作，鉴于目前没有维保单位的实际，可采取维修一次结一次费用的模式保障设备正常运转。同时，要加强水质检测，必须实事求是检测，确保达标，不发生问题。会同物业维修部，研究过滤水利用、节约用水设备安装等问题，扎实做好水资源节约利用工作。五是行政中心空调系统二次加压工作形成方案，报党组研究。六是会同资产管理科、公共机构节能科、财务管理科共同研究中水系统重新启用事宜，并与河北建设集团对接了解情况，如果可以重新启用，形成启用方案并实施。', '会同资产管理科、公共机构节能科、财务管理科共同研究中水系统重新启用事宜，并与河北建设集团对接了解情况，如果可以重新启用，形成启用方案并实施。', '要科学规划内部科室设置，选好科室负责人，按程序上报审批。二是加强设施设备维修，如污水管道、取暖管道维修等工程，尽快维修到位，确保办公用房安全使用。', '加强对全局工作的预见谋划发现能力，站在全局的角度研究，提出建议，提请局党组会议、局务会议研究。', '对各部门破旧的沙发、椅子进行统计核实，参照餐饮服务部使用模式，定做沙发罩、椅子套，实现废旧利用。', '严格执行“三会一课”制度，加强对各党支部执行落实情况监督检查，及时查漏补缺，规范组织。二是加强党员学习教育，每次学习要确定一个小主题，学习内容有侧重，专题学习让党员印象深刻，确保学习效果。同时，领导干部要带头参加，提高学习质量。三是要加强机关工作纪律检查，机关纪委每月至少抽查2次工作纪律，并将抽查情况进行通报，受到通报2次以上者，取消年终评优资格。四是关于机关党委（纪委）专职人员问题，杨春荣兼职机关党委（纪委）工作，新到岗人员除负责机关党委工作外，还兼职办公室工作。', '加强党员学习教育，每次学习要确定一个小主题，学习内容有侧重，专题学习让党员印象深刻，确保学习效果。同时，领导干部要带头参加，提高学习质量。', '要加强机关工作纪律检查，机关纪委每月至少抽查2次工作纪律，并将抽查情况进行通报，受到通报2次以上者，取消年终评优资格。', '局内固定资产处置要高度重视，处置流程要梳理好，形成规章制度，看目前问题在哪，如何解决，与资产管理科共同研究。', '加强局内资金使用提示，每月将资金预算情况、支付情况、剩余资金情况等内容，形成表格报局长阅。三是要加强所属事业单位财务账户监管，真正深入下去监督检查，发现问题及时予以整改，确保不发生问题。', '扎实做好企事业单位公务用车制度改革后续工作，督导各县（市、区）加快推进完成保留公务用车“三化”管理、取消公务用车拍卖处置等工作，完成情况要向市车改办上报情况报告，没有完成的要说明情况和原因，明确完成时限，存在问题的予以通报。', '扎实做好机关事务管理标准化工作，认真研究，细化标准，严格按照省机关事务管理局要求完成标准化建设任务。', '扎实做好我局承担的各项改革任务的督导落实，并抓好局党组承担改革任务主体责任的落实。', '在后勤改革指导科的指导下，全力抓好全市公务用车“三化”管理工作，维护好全市公务用车信息化平台、监督管理平台、北斗定位系统运行，做好异常车辆巡查，对北斗定位设备运行不正常的车辆，要及时通知所属单位做出情况说明并立即整改到位，确保公务用车规范使用管理。', '做好异常车辆巡查，对北斗定位设备运行不正常的车辆，要及时通知所属单位做出情况说明并立即整改到位，确保公务用车规范使用管理。', '关于增加人员问题，如有可调配人员，可考虑再增加一名干部身份人员。二是关于市级领导周转房保障工作，研究长效机制，可以在世纪城一、二、三期居民小区租赁房屋，租赁期限可定为8-10年，实现节约资金、相对固定、长期保障的目标。同时，到外地市学习考察，选择情况不同的地市学习先进经验，也可深入到各县（市、区）进行调研，共同研究解决措施。三是关于万树园、柴场小区四套周转房遗留问题的解决，会同资产管理科理清产权关系，研究解决和利用方案，连同海关处房屋利用情况，实事求是地形成整体情况报告，上报市政府审批，将闲置资产利用起来。四是关于货物采购管理工作，会同财务管理科、资产管理科共同研究，理顺好工作职能，明确任务分工。由公共服务科形成解决问题的方案，报送到办公室，适时组织有关科室共同研究。五是加快推进绿地改建停车位工作，与保卫科、物业维修部共同研究，现场勘查，研究形成建设方案上报审批后组织实施。', '关于市级领导周转房保障工作，研究长效机制，可以在世纪城一、二、三期居民小区租赁房屋，租赁期限可定为8-10年，实现节约资金、相对固定、长期保障的目标。同时，到外地市学习考察，选择情况不同的地市学习先进经验，也可深入到各县（市、区）进行调研，共同研究解决措施。', '关于货物采购管理工作，会同财务管理科、资产管理科共同研究，理顺好工作职能，明确任务分工。由公共服务科形成解决问题的方案，报送到办公室，适时组织有关科室共同研究。', '关于劳动服务公司在金龙广场房产追偿事宜，会同劳动服务公司，通过法律途径解决，诉讼对象为市政府，连带着市行政中心拆迁办，并就此事立即上报市政府，避免国有资产流失。', '关于皇家建筑公司的房产拍卖事宜，抓紧研究起草拍卖方案，拟分二批次进行，积极与双桥区法院沟通协调，上报市政府审批后组织实施。同时，提前将人员工资、保险等账款清算清楚，该报人社局的报人社局，该报国资委的报国资委，做好破产清算前的各项准备工作。近期，将皇家建筑公司的员工召集到一起开个会，讲清楚政策，听取他们的意见和建议，形成个方案上报局党组。', '关于煤气站续租工作，请示市政府副秘书长宋宇宁，组织国土、财政、国资委、市场监管等部门召开协调会议，就经营权拍卖、土地使用证办理等工作进行研究，形成解决方案。', '配合经营管理部做好金龙广场房产追偿起诉工作。二是下营房回迁费要尽快协调市解遗办公室解决，尽快要回来。', '加强全局固定资产管理，与财务管理科沟通协调好，有标准的审批，没有标准的备案。二是加快推进全市党政机关办公用房排查整改工作，深入到市直各单位进行抽查，确保办公用房依法合规使用。三是扎实推进办公用房信息化建设工作，严格按照省机关事务管理局要求推进落实，做好各县（市、区）的指导督导落实工作，确保按时间节点圆满完成任务。四是卫健委调整办公用房的事宜形成方案，上报市政府审批。五是扎实做好绮望楼宾馆资产监管工作，按照上次局党组会议议定事项抓好落实。六是对新入驻行政中心的单位，要列出详细名单，抄送保卫科、餐饮服务部等部门，实现信息共享。七是与财务管理科积极沟通研究，就局内固定资产报废处置程序形成可行性意见。', '加快推进全市党政机关办公用房排查整改工作，深入到市直各单位进行抽查，确保办公用房依法合规使用。', '扎实推进办公用房信息化建设工作，严格按照省机关事务管理局要求推进落实，做好各县（市、区）的指导督导落实工作，确保按时间节点圆满完成任务。', '认真做好保洁公司招投标工作，会同财务管理科积极与市财政局沟通协调，尽快完成评审，启动招投标程序。', '将行政中心大车库步行梯的角落改造成小房间，用于储存间使用，并调剂一间给绿化单位使用。三是做好2020年度物业维修资金预算工作，形成一个整体预算报告，力争列入明年预算。四是垃圾车运送要坚持监管好，不符合要求的立即要求其整改，如不服从管理报环卫部门协调解决。五是做好楼道、管道井杂物清理工作，规范放置明显标识，提前通知各单位，只要违规放置的一律按废品处理，并保持常态化管理。六是做好各楼道方灯更换工作，从常委部门开始，按楼层更换，整体更换形成报告报市财政局，解决资金问题。七是解决好电工招聘事宜，提前招，并做好与现有电工的工作对接。八是扎实做行政中心路灯维保工作，针对路灯不亮问题，研究解决办法，或扣除维保费用，或者更换维保单位，要立即解决到位。', '做好楼道、管道井杂物清理工作，规范放置明显标识，提前通知各单位，只要违规放置的一律按废品处理，并保持常态化管理。', '做好绮望宾馆消防安全监管工作，尽快到该宾馆进行安全检查，并做出安全提示。二是扎实推进行政中心消防系统整改工作，力争年底前完成招标手续。三是加大消防隐患排查整改工作力度，发现问题及时整改到位，确保不发生问题。四是做好消防维保单位招投标工作，立即履行招标手续，现有的这家维保单位因服务质量、服务态度都不高，列入黑名单，不再录用。五是做好行政中心弱电井管理工作，由保卫科、网络监控部共同负责，与物业维修部沟通，近期到行政中心各弱电井巡查一圈，将卫生和安全隐患清理到位，同时，找准位置，绘制好图纸，报送办公室。六是加强安保人员管理，督导安保人员负责搞好周边的卫生，同时对周边的维修点位及时上报物业维修部。人员接待文明用语、服务态度、着装整洁等工作要加强，素质要进一步提升，并做好新招录人员的培训工作，尽快适应工作岗位要求。', '加强安保人员管理，督导安保人员负责搞好周边的卫生，同时对周边的维修点位及时上报物业维修部。人员接待文明用语、服务态度、着装整洁等工作要加强，素质要进一步提升，并做好新招录人员的培训工作，尽快适应工作岗位要求。', '做好全市公共机构节能管理工作年度考核事项确认工作，省里对我市的考核事项要梳理清楚，参照省里的考核事项我们也要对各县（市、区）进行考核，与人事教育科对接研究解决。二是扎实做好国家级节约型示范单位、能效领跑者、省和市级节约型示范单位创建工作，近期要深入到各县（市、区）进行督导指导，存在问题的要提出整改意见及整改时限，限期督办反馈，仍没有进展的进行通报。三是扎实做好行政中心节水工作，协调水务、工信、财政等部门，定调子、定思路、定方案，形成项目概算，会同物业维修部抓紧落实，最终达到节水目标。四是垃圾分类处理工作实事求是地形成报告，经市政府审核后上报省机关事务管理局。五是扎实做好全市公共机构35蒸吨/小时及以下燃煤锅炉淘汰督导工作，按照8月27日局党组（扩大）会议议定事项抓好落实。', '扎实做好行政中心节水工作，协调水务、工信、财政等部门，定调子、定思路、定方案，形成项目概算，会同物业维修部抓紧落实，最终达到节水目标。', '扎实做好全市公共机构35蒸吨/小时及以下燃煤锅炉淘汰督导工作，按照8月27日局党组（扩大）会议议定事项抓好落实。', '关于人员调配事宜，如有可调配人员，增加一名工作人员，解决人员不足问题。二是关于老干部活动室建设工作，拟同意在市政府机关门诊部二楼选两间办公室建成老干部活动室及老干部健康咨询室，由市政府机关门诊部、物业维修部按离退休干部科意见承办，力争9月底前投入使用。', '关于老干部活动室建设工作，拟同意在市政府机关门诊部二楼选两间办公室建成老干部活动室及老干部健康咨询室，由市政府机关门诊部、物业维修部按离退休干部科意见承办，力争9月底前投入使用。', '内部沟通要加强，形成一个核心，增强凝聚力。二是要坚持好例会制度，主要是总结反馈，发现问题解决问题。三是要探索食品现做现卖模式，力争做到现做现卖，随做随卖。四是研究灶具维修事宜，选定一家专业灶具维修机构，提高灶具使用寿命。五是会同设备管理科，共同研究食梯建设方案，近期由张勇副局长牵头，组织庞力强副调研员、杨明远、韩旭等同志，召开一个协调会，研究确定建设方案。', '会同设备管理科，共同研究食梯建设方案，近期由张勇副局长牵头，组织庞力强副调研员、杨明远、韩旭等同志，召开一个协调会，研究确定建设方案。', '坚持首问负责制，打破各小组限制，不管问到谁，都要积极解决办理。二是到唐山市进行考察，定制专用水杯，一个月时间内完成。三是扎实做好会议服务标准化工作，对服务标准再进行细化，并抓好落实。四是充分发挥会议引位机的作用，对运行中存在的不足及问题认真研究解决，使其既简洁便利、又高效使用。五是会议中心的各房屋钥匙都要有，并有标识，关键时候能找到人。同时，工作人员都要熟知各设施口的位置，切实做好应急处置工作。', '充分发挥会议引位机的作用，对运行中存在的不足及问题认真研究解决，使其既简洁便利、又高效使用。', '机关各科室及所属事业单位负责人要高度重视，认真研究推进举措，快速推进落实，分管领导要加强督导指导，及时研究解决推进中遇到的困难，确保按时高质量完成工作任务。上述划线的重点工作为主要领导确定的重点盯办的工作，各部门需半月向办公室上报一次工作进度，其余的重点工作每月向办公室上报一次工作进度，局党组将对推进落实情况适时进行调度。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>10</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>承德市代表团赴唐山市考察学习</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2019-08-30</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F8%2F30%2Fart_9945_204578.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_204578</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['8月27日，市长常丽虹率领承德市代表团赴唐山市就生态文明建设、城乡规划建设管理、全域治水筹融资模式、河道治理、智慧农业和农村人居环境整治等方面的成功模式和先进做法进行学习考察。', '唐山市市长丁绣峰、常务副市长付振波、副市长张月仙等领导，以及唐山市市直有关部门、相关县（市、区）负责同志陪同参观。副市长刘宏伟参加考察。', '常丽虹一行先后深入考察了路北区站西片区，唐山花海项目，迁安市滦河综合治理工程、三里河生态修复工程、引滦（河）入沙（河）工程，迁西县花乡果巷田园综合体项目、莲花乡东城峪村人居环境整治工程和长河生态修复综合整治工程。大家边走边看，边学边记，虚心请教，深入交流。', '丁绣峰代表唐山市四大班子欢迎承德市代表团一行。他说，唐山和承德既是近邻，更是兄弟，友谊源远流长。承德区位优势明显、生态环境良好、自然资源富集、发展潜力巨大。希望两市在过去深厚的合作基础上再进一步，加强沟通交流，相互学习借鉴，取长补短，切实推动唐承两地经济社会加速发展。', '在与唐山市领导交流中，常丽虹感谢唐山市长期以来对承德经济社会发展、脱贫攻坚等多方面的大力支持。她说，通过一天的实地参观学习，切身感受到唐山推进生态文明建设取得的显著成绩，亲眼目睹了唐山城乡面貌发生的巨大变化，深深被唐山干事业的大视野、大手笔、大气魄、大作为所震撼，深受教育，收获很大。', '考察结束后，承德市代表团随即召开总结交流会。在逐一听取参观团每位成员的发言后，常丽虹指出，唐山经济社会发展、生态文明建设和城乡环境治理等方面站位高、理念新、思路宽、办法多、作风硬，为我们树立了标杆，提供了鲜活的经验。我们要深入学习，深刻体悟，认真借鉴。', '常丽虹强调，在城市建设上，要对标唐山，坚持科学规划、高标准建设、精细化管理，发挥自身优势，在深度挖掘历史文化内涵、积极培育新业态等方面下更大功夫，紧盯公共服务和公共设施，强化建管结合，补短板强弱项，推动城市建设再上新台阶。在推动生态文明建设上，要解放思想，开拓思路，积极破解资金瓶颈，高标准高质量做好大气和水环境、土壤环境保护治理工作，推动生态环境质量持续改善。在农村人居环境整治上，要围绕脱贫攻坚和实施乡村振兴战略，充分发挥自身优势，在发展智慧农业上下功夫，壮大特色扶贫产业，建设生态宜居乡村，团结带领广大群众脱贫致富奔小康。', '市政府秘书长崔万峰，各县（市、区）政府、高新区管委会、御道口牧场管理区管委会、市直相关部门主要负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>承德市政协考察团赴邯郸衡水沧州雄安新区学习考察</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2019-04-16</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F4%2F16%2Fart_400_114733.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_114733</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['本网讯（记者王畅）4月8日至12日，市政协党组书记、主席刘文勤带领市政协考察团赴邯郸、衡水、沧州、雄安新区学习考察。市政协党组成员、幅主席王利华、信祥，市工商联、市政协各专委会和部分县区政协负责人参加考察活动。', '考察团一行首先来到邯郸，重点学习考察曲周县政协党建工作。曲周县政协创新开展“支部建在界别上、委员聚在党旗下”工作，实现党组织对党员委员全覆盖、党的工作对政协委员全覆盖，其经验和做法受到全国政协领导认可，并在全省、全国推广。考察团在该县工商联界党支部，通过实地查看、观看专题片和听取情况介绍，详细了解该县政协“六有、双联、双促进”党建工作目标和创新履职、开展活动、完善机制等工作情况。考察团表示，高水平的党建工作，是促进政协工作高质量发展的重要抓手。邯郸市政协系统最大限度发挥党组织在政协工作中的核心作用和政治引领作用，推动了政协各项工作扎实有力、取得实效。要把“曲周经验”学回去、用起来，着力实现“两个全覆盖”，确保在旗帜、道路、制度等重大问题上与党中央统一意志、统一步调、统一行动，确保中央、省、市各项决策部署不折不扣地贯彻落实到地方政协工作中，通过党员带动，让干部有活力、委员有动力，极大促进履职质效的提升。', '在衡水，考察团重点学习了枣强县城市精细化管理的先进经验。枣强县围绕产城教融合发展理念，充分发挥“绣花精神”，全面提升新型城镇化水平。五年前，该县城乡建设综合排名由全省后30名跃升至全省前10名，通过近几年的不懈努力，2017年升至全省第4名，今年有望进入前三强。来到枣强县移民文化园、一河两湖景观带、大原书院、全民健身中心等文化惠民城市建设项目实地考察后，考察团一行很受震动，一致认为，枣强县城建重点工程建设力度之大超乎寻常，城建工程对城市发展的积极影响超乎寻常，城市建设质量与管理水平超乎寻常。通过高端规划、高标建设、精细管理和队伍保障，建成了服务完善、景观优美、文化品位凸显的美丽家园，实现了居民生活幸福指数的全面提升。集游泳馆、篮球馆、电影院等“九馆一院”于一体的全民健身中心开业当天就吸引了县内外1000多人到此健身，移民文化园、一河两湖景观带等园林绿化项目以及“以克论净”的深度保洁模式，城乡一体统筹管理的运行机制、实现了全天候洁、净、亮、美，群众的获得感、幸福感显著增强。这些经验做法值得承德学习借鉴。', '在沧州，考察团重点考察了承接京津产业转移的先进经验。5年来，沧州市不断扩大与京津多个领域的对接合作，承接京津转移项目1300多个，建设了沧州高新区高新技术创新中心、中心城区总部经济转移基地等10个承接非首都功能转移的微中心。考察团在北京现代沧州厂、明珠商贸城等实地观摩后表示，沧州承接京津产业转移的经验对承德十分宝贵，在京津冀协同发展中，沧州超前站位、快速行动，主动争取项目，吸引了北京现代沧州厂落地并实现了当年建设、当年投产；明珠商贸城一期工程就吸引北京“大红门”“动批”“八里桥”等老牌服装批发市场商户8600多家入驻，且无一回流，现已形成规模效应。同时优化营商环境，打造“办事程序最简化、办事态度最热情、办事理念最先进、办事成本最低廉、办事方式快捷、办事成效最显著”的“六最”政策洼地，以及简政放权、推行“一趟清”“不见面”审批等政策。这些经验和做法为深化协同发展、做好承德承接京津产业转移文章提供了有益借鉴。要把这些宝贵经验学好用好，为承德更好地承接京津产业转移建言献策。', '在雄安新区，考察团一行参观了市民服务中心等项目。这里世界顶级的规划与建设理念，由追求“雄安速度”向“雄安质量”转变，让考察团耳目一新，开阔了眼界，启迪了思维。考察团表示，我市正围绕“三区一城”定位，加快建设新时代生态强市、魅力承德，学习雄安新区先进的规划经验，让他们视野更宽、思路更广，从而更好地为我市进一步提升城市规划水平提供良方妙策。', '各地先进经验让考察团一行备感震撼、深受启发。大家互相交流、共同学习，纷纷表示，这次学习考察的城市，发展定位高、特色亮点足，充分贯彻新发展理念，实现了高质量发展。各地政协干部素质高、劲头足，旺盛的精神和务实的作风是我市政协委员的学习目标。回到承德后，要结合实际，真正把这些宝贵的经验学起来、出成果，更好地推进各项工作上台阶，履职出成效。', '考察团还考察了邯郸肥乡区中船重工718研究所、曲周县晨光生物科技集团股份有限公司，衡水市河北养元智汇饮品有限公司、衡水科技谷，沧州市达力普特型装备制造有限公司、黄骅港煤炭港区二期工程、黄骅港综合港区、北京·沧州渤海新区生物医药产业园石四药集团河北广祥制药有限公司等企业和项目，并参观了各市规划展览馆。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>10</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>天津市党政代表团就对口扶贫工作到我市考察</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2019-08-08</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F8%2F8%2Fart_400_129239.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_129239</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['天津市李鸿忠张国清阴和俊、河北省王东峰许勤赵一德、承德市周仲明常丽虹安国富等领导参加活动', '据河北日报讯（记者四建磊）8月5日至6日，天津市党政代表团就进一步加强对口扶贫工作到我市考察。中共中央政治局委员、天津市委书记李鸿忠，市委幅书记、市长张国清，市委幅书记阴和俊与省委书记、省人大常委会主任王东峰，省委幅书记、省长许勤，省委幅书记赵一德等参加活动。', '考察期间，天津市党政代表团先后到承德应用技术职业学院、河北津垦奥牧业有限公司、塞罕坝机械林场尚海纪念林、塞罕坝机械林场展览馆、小滦河国家湿地保护区等地，详细察看对口扶贫项目，进一步对接我省扶贫需求，看望天津市帮扶干部和技术人员，并认真学习贯彻习近平总书记对塞罕坝机械林场建设者先进事迹的重要批示，大力弘扬塞罕坝精神，与我省共谋加强生态文明建设的举措。', '在两省市座谈交流中，李鸿忠指出，河北省委、省政府坚决落实党中央、习近平总书记部署要求，全省经济社会发展特别是首都水源涵养功能区、京津冀生态环境支撑区建设取得了显著成绩，河北省、承德市各级党员领导干部展现出的干劲、激情，值得我们认真学习。多年来，河北省、承德市为天津发展提供了大力支持，为保护好滦河水源作出了无私奉献。推动京津冀协同发展是习近平总书记亲自谋划推动的重大战略部署，天津要担起政治职责，以此次学习考察为契机，全方位推进津冀交流合作、对口帮扶和扶贫协作。天津人民饮水思源，要心怀感激感恩，认真落实津承“14”合作协议，升级加力，坚持多层全覆盖、有限无限相结合，以无限感情做好对口支援和扶贫工作。扎实实施重大国家战略，服务河北雄安新区建设，坚持津冀发展一体谋划、一体推动，共促协同发展。认真学习塞罕坝精神，学习河北省、承德市“两区”建设经验，咬定目标、久久为功，加大力度推进天津湿地保护、绿色生态屏障建设。', '王东峰代表省委、省人大常委会、省政府、省政协，向天津市党政代表团表示热烈欢迎和衷心感谢。他指出，长期以来，天津市委、市政府深入学习贯彻习近平总书记重要指示精神和党中央决策部署，大力支持河北扶贫脱贫工作，建设了一批扶贫项目，投入了大量扶贫资金，选派了许多优秀干部和技术人才，为河北打赢脱贫攻坚战提供了重要支撑。去年河北在国家脱贫攻坚成效考核和东西部扶贫协作考核中，取得了好的成绩，打了一场翻身仗，离不开天津市的支持帮助，河北人民永远铭记。我们将以天津市代表团此次考察为契机，认真学习天津市在调整产业结构、深化改革开放、推动高质量发展等方面的宝贵经验，积极融入京津冀协同发展大局，在对接京津、服务京津中加快发展自己。希望两省市进一步深化务实合作，在办好“三件大事”、打好三大攻坚战、加强生态文明建设、发展沿海经济带等方面不断取得新成效。', '天津市领导李毅、梁宝明，市政府秘书长孟庆松；河北省领导高志立、周仲明，省政府秘书长朱浩文参加活动。承德市领导常丽虹、安国富、吴清海、杨春武参加了活动。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>10</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>承德市代表团赴唐山市考察学习</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2019-08-28</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F8%2F28%2Fart_400_134323.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_134323</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['本网讯（记者董云峰）8月27日，市长常丽虹率领承德市代表团赴唐山市就生态文明建设、城乡规划建设管理、全域治水筹融资模式、河道治理、智慧农业和农村人居环境整治等方面的成功模式和先进做法进行学习考察。', '唐山市市长丁绣峰、常委幅市长付振波、幅市长张月仙等领导，以及唐山市市直有关部门、相关县（市、区）负责同志陪同参观。', '常丽虹一行先后深入考察了路北区站西片区，唐山花海项目，迁安市滦河综合治理工程、三里河生态修复工程、引滦（河）入沙（河）工程，迁西县花乡果巷田园综合体项目、莲花乡东城峪村人居环境整治工程和长河生态修复综合整治工程。大家边走边看，边学边记，虚心请教，深入交流。', '丁绣峰代表唐山市四大班子欢迎承德市代表团一行。他说，唐山和承德既是近邻，更是兄弟，友谊源远流长。承德区位优势明显、生态环境良好、自然资源富集、发展潜力巨大。希望两市在过去深厚的合作基础上再进一步，加强沟通交流，相互学习借鉴，取长补短，切实推动唐承两地经济社会加速发展。', '在与唐山市领导交流中，常丽虹感谢唐山市长期以来对承德经济社会发展、脱贫攻坚等多方面的大力支持。她说，通过一天的实地参观学习，切身感受到唐山推进生态文明建设取得的显著成绩，亲眼目睹了唐山城乡面貌发生的巨大变化，深深被唐山干事业的大视野、大手笔、大气魄、大作为所震撼，深受教育，收获很大。', '考察结束后，承德市代表团随即召开总结交流会。在逐一听取参观团每位成员的发言后，常丽虹指出，唐山经济社会发展、生态文明建设和城乡环境治理等方面站位高、理念新、思路宽、办法多、作风硬，为我们树立了标杆，提供了鲜活的经验。我们要深入学习，深刻体悟，认真借鉴。', '常丽虹强调，在城市建设上，要对标唐山，坚持科学规划、高标准建设、精细化管理，发挥自身优势，在深度挖掘历史文化内涵、积极培育新业态等方面下更大功夫，紧盯公共服务和公共设施，强化建管结合，补短板强弱项，推动城市建设再上新台阶。在推动生态文明建设上，要解放思想，开拓思路，积极破解资金瓶颈，高标准高质量做好大气和水环境、土壤环境保护治理工作，推动生态环境质量持续改善。在农村人居环境整治上，要围绕脱贫攻坚和实施乡村振兴战略，充分发挥自身优势，在发展智慧农业上下功夫，壮大特色扶贫产业，建设生态宜居乡村，团结带领广大群众脱贫致富奔小康。', '市政府秘书长崔万峰，各县（市、区）政府、高新区管委会、御道口牧场管理区管委会、市直相关部门主要负责同志参加考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>承德党政代表团赴密云区学习考察对接交流</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2019-06-18</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F6%2F18%2Fart_400_115405.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_400_115405</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['本网讯（记者郎宝生）6月17日，省人大常委会幅主任、市委书记周仲明带领我市党政代表团赴北京市密云区学习考察、对接交流。密云区委书记潘临珠，区委幅书记、代区长龚宗元与我市党政代表团座谈。', '我市党政代表团考察密云区穆家峪镇极星农业科技园，参观科技园智能化连栋温室作业情况，了解密云区现代农业产业园带动优质农产品销售、做好低收入农户帮扶工作等情况。考察密云水库蓄水和水环境，了解密云水库水情及周边环境保护等情况。召开东西部扶贫协作对接座谈会，密云区相关部门负责同志介绍了密云经济社会发展情况，滦平县负责同志介绍了对口帮扶工作开展情况。周仲明、潘临珠分别讲话。', '周仲明代表承德市四大班子和全市人民向多年来给予承德支持关爱的密云区致以诚挚的谢意。他说，到密云学习考察，既是认真落实习近平总书记京津冀协同发展战略思想和东西部扶贫协作重要指示精神，也是对标学习、对接交流、增进友谊的收获之旅。密云区坚定的政治态度、先进的发展理念、以人为本的发展思想、过硬的干部作风给承德代表团留下了深刻印象。密云区对承德、滦平的支持帮扶，承德人民不会忘记。承德旗帜鲜明讲政治，坚决担负起“生态支撑、水源涵养”重大政治责任，始终坚持转型升级、绿色发展，始终坚持抢抓机遇、积极承接北京非首都功能疏解。希望双方在深化生态环保领域协作、强化文化旅游经济互动、围绕中关村产业园建设加强创新协同、加强绿色有机农产品合作等方面深入对接、深层合作、互利共赢。', '潘临珠代表密云区委、区政府和全区人民对承德市代表团表示热烈欢迎。他说，密云与承德山水相依、地缘相接、人缘相亲、人文相通，在产业结构、发展基础、资源禀赋等很多方面有着巨大的协同发展空间。密云与滦平结对帮扶以来，通过双方共同努力，脱贫攻坚取得了突出成效，值得祝贺。密云将进一步推进扶贫工作向纵深开展，在人才、产业、资金、技术、教育帮扶等方面加大力度，确保全面打赢脱贫攻坚战。希望双方进一步加大合作力度，积极融入京津冀协同发展重大国家战略，探索密云水库上游潮河流域生态文明建设各方面联防、联治、联建。加强双方交通领域深度合作，打造1小时交通圈。', '市领导韩福才、刘文勤、李晋宇、任武军及市直有关部门负责同志、滦平县党政主要负责同志参加学习考察。密云区领导王玉江、王宇、朱锡才、李伟及区直有关部门负责同志出席相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>10</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>对承德市第十四届人民代表大会第一次会议第号建议的答复</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2017-12-05</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F12%2F5%2Fart_9949_210376.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9949_210376</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['承德市人民政府 建议提案 对承德市第十四届人民代表大会第一次会议第121号建议的答复', '截止到2016年底，全市60周岁以上老年人口69.6万，占全市人口总数的18.2%，人口加速老龄化、老年人口高龄化、老年人家庭空巢化、部分老人失能化 四化叠加现象不断加重。老年人口以每年3%的速度递增，', '（一）社会养老服务体系基本形成。全市各级党委政府、相关部门，积极顺应养老服务的社会需求，采取有力措施，加大工作力度，社区居家养老服务深化拓展，养老服务机构建设稳步推进，初步形成了以居家养老为基础、社区服务为依托、机构养老为补充的社会养老服务体系。', '（二）社区居家养老稳步推进。近几年，社区养老服务事业有了一定发展，大部分社区都成立了居家养老服务中心，设立了社区医疗服务站，老年活动室等，养老服务业正在兴起，服务设施不断完善。如', '双桥区文庙社区、韭菜沟社区，双滦区御祥社区、东园社区设立了社区为老服务站，日托所，开设了棋牌室、图书阅览室、老年活动室等，老年人在社区进行文化学习、体育健身、娱乐休闲。开展了日间照料、家政服务、送餐等服务。', '（三）建设综合型居家养老服务中心。双滦区、宽城县完成综合型居家养老服务中心建设任务。2016年项目定在隆化县、平泉县、围场县。平泉县正在招投标，预计10月份进行装修改造，年底投付使用；围场县完成选址，正在进行装修和家具的采购工作，计划年底投入使用；隆化县完成选址、规划设计工作。', '（四）开展养老护理进社区活动。为普及养老护理知识，在全市范围开展养老护理技能培训活动。此次培训共126场次，每期参加人员30至50人，累计培训5000余人。居民反响热烈，认为此次培训贴近老年人实际需求，发挥实效作用大。', '与承德电信公司赴四川成都学习考察，实地参观成都居家养老服务中心及孝行通的运营管理模式和先进经验；', '：建立起政府宏观管理和扶持，街道、居委会兴办，社会力量广泛参与的居家养老服务体系，使居家养老服务设施不断充，服务内容和形式不断丰富，', '提供生活照料、康复护理、精神慰藉、困难救助、失能半失能老年人的护理照料等服务，提升老年人生活质量。', '：改善居家养老环境，健全居家养老服务支持体系，以社区日间照料中心和专业化养老机构为重点，提升社会养老服务设施水平。充分考虑经济社会发展水平和人口老龄化发展程度，十三五期间，增加日间照料和机构养老床位数，满足老年人的养老服务需求。', '，由签约企业提供上门服务，构建起以市场为主体，区、街道、社区联网，多形式、广覆盖的家庭养老呼叫服务网络，满足老年人多样化的服务需求。', '2、社区服务。按照9073养老格局，到十三五末建立健全养老服务组织网络，乡镇、街道建立社区养老服务中心，村、居建立社区养老服务站，提供完善的社区养老服务。', '社区养老服务是居家养老服务的重要支撑，具有社区日间照料和居家养老支持两类功能，主要面向家庭日间暂时无人或无力照护的社区老年人服务。在城镇，结合社区服务设施建设，增强社区养老服务能力，打造居家养老服务平台。在农村，结合城镇化发展和新农村建设，以改扩建后的区域性敬老院、撤销的原乡建乡管敬老院的设施为基础，建设日间照料和短期托养的养老床位。', '充分发挥社区医疗机构在社区居家养老中的医疗保健作用，结合社区卫生服务机构的新、扩、改建，探索建立社区卫生服务型的养老机构，既满足社会对托老机构的需求，又实现医疗机构非卫生渠道的床位扩张和社区卫生服务功能的完善。', '1.建设规模。新建社区居家养老服务中心的规模，建筑面积一般不低于300平米，建有六室一校（休息室、配餐室、阅览室、文体活动室、健身康复室、医疗保健室、老年学校）；已建旧小区兴办居家养老服务中心的规模，建筑面积不低于150平米，设有五室一校（休息室、配餐室、阅览室、文体活动室、医疗保健康复室、老年课堂）。', '2.服务功能。居家养老服务中心的服务项目，至少包括四项基本服务功能：(1)生活照料，对日间家里无人照料能够走出来的老年人，提供所需服务、包括看护、休息等。设立社区为老服务热线，对不能走出来的老年人实施走进去服务，联系服务人员或志愿者到家服务，实现设施服务和上门服务相结合。（2）配餐、就餐服务，根据老年人需求和身体状况，提供就近、上门餐饮服务。（3）健康保健，利用一键通服务呼叫系统，为老年人提供健身锻炼、康复保健和应急救助等服务。（4）精神慰藉，为老年人提供学习、娱乐、聊天和文体活动等服务。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>承德市深化行政审批制度改革创优创新政务环境</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2017-11-21</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F11%2F21%2Fart_362_9822.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_9822</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['本网讯（记者孙丰，通讯员陈烁）近两年，为进一步深化行政审批制度改革，推进政府职能转变，我市紧扣百姓所需、企业所愿，坚持在改革创新行政审批体制机制、规范优化行政审批流程、延伸拓展政务服务渠道三方面全力推进，全面提升了行政审批效率和政务服务水平，为持续优化发展环境，通过做好政府权力的“减法”，换取市场活力的“乘法”奠定了坚实基础。', '走进承德市行政审批局，办事窗口一字排开，如同进入一个繁忙的政务超市。在这里，办件人体验着“车间式流水线”审批服务，人们不再奔波往返办理各种繁杂的审批手续，企业能够腾出更多精力，轻装上阵。', '“一颗印章管审批”。致力于解决影响经济社会发展的瓶颈制约，我市在学习考察改革经验的基础上，坚持以市场主体和群众为中心，上下联动，在全省率先迈出市县同步组建行政审批局的工作步伐。', '政府主导。市委、市政府把组建行政审批局列为年度重点改革任务，成立行政审批局筹建工作领导小组，制定《市县推行相对集中行政许可权组建行政审批机构的实施意见》，明确了组建的时间表和线路图。', '部门协同。市直部门齐心协力，协同联动，全程参与市行政审批局筹建工作，确保了各项工作快速推进。7 月15 日，市发改委等22 个部门与市行政审批局签订事项划转交接书，市本级167 大项、303 小项行政审批事项划转到市行政审批局。市行政审批局正式开展行政审批业务，行政审批工作实现无缝对接。', '市县联动。着眼于增强改革的系统性和整体性，坚持市、县、区同步部署、同步实施，成立行政审批局，市域内行政审批纵向连接、全面覆盖、高效运转。截至4 月底，市级和12 个县、市、区行政审批局全部挂牌成立。', '日前，恒生村镇银行组建发起人和来自全国各地的股东，到市行政审批局办理股份制公司登记注册手续。市行政审批局开通行政审批绿色通道，由业务科室负责人全程帮办，仅用一天就办完全部手续。企业办事人员说：“承德市行政审批局办事快捷、服务周到，来这办事省心、放心、舒心，为你们点赞。”翌日，送来锦旗一面，上书：服务热情，办事高效。', '致力于充分发挥集中行使行政审批权的制度优势，我市全方位提高行政审批效率，分阶段、分层次做好“建、减、压、改”四篇文章。', '建立健全行政审批工作机制。制定出台《承德市优化投资建设项目审批流程若干措施》《关于加快推进“多证合一”“一照一码”改革的实施意见》两个文件和一次性告知制度、限时办结制度、容缺受理机制、领办代办制度、全程在线审批制度、重大项目会商制度、联合勘验制度等七项行政审批工作制度，规范行政审批工作运行。', '削减行政审批环节。对行政审批事项逐项梳理，在前期工作的基础上，又先后取消了119个申请要件，整合23 个审批环节，推动行政审批环节“瘦身”。', '压缩审批用时。将承诺审批时限全部压缩减半，面向社会公开承诺，限时办结，确保实现“承德办事一次成”的目标。', '改革操作方法。针对投资建设项目预、决算审核环节较多、存在重叠审核的问题，打破现有审批流程，简化审核程序。市行政审批局自7 月份开展业务以来，月均受理事项1300余件，按时办结率100%，整体行政审批效率提升60%以上。', '承德鑫牛建筑装饰工程有限公司通过网上申请的企业名称核准，经承德市行政审批局核准通过，这是我市开展网上审批业务的一例。', '致力于最大限度方便企业和群众办事，我市坚持以申请人为导向，同步建设实体行政审批大厅和网上行政审批大厅，畅通服务渠道，拓展服务载体，全方位提高服务质量。', '畅通网上审批之路。研发覆盖市、县、乡三级的“互联网+政务服务”平台，开发在线咨询、网上办事、信息公开、办件查询、信息推送等功能，让企业和群众足不出户即可享受申请——受理——审查——办结的“一条龙”服务。目前，网上办理事项达到123 项。 畅通政务公开之路。研发启用市行政审批局官方网站，面向社会公开行政审批事项的名称、', '畅通效能监督之路。研发启用电子监察系统，对行政审批全程监督、绩效评估，对违反工作流程的及时预警提醒、督查督办，受理市场主体和群众的投诉并及时反馈。', '畅通优化服务之路。立足企业和群众需求，建立完善领办、代办、转办机制，为办事人员提供“一对一”或“多对一”的领办、代办、转办服务。', '畅通便民利企之路。配套完善硬件设施，提高行政审批智能化水平和公共服务的便利化程度，将服务理念融入到行政审批工作的全领域、全过程。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>10</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>承德市年政府大事记</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018-01-15</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F1%2F15%2Fart_9946_807047.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9946_807047</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['自1月1日起承德市农村低保标准由每人每年3300元提高至3500元以上，补差标准不得低于180元/月；城镇低保标准由每人每月450元提高至550元以上，补差标准不得低于295元/月；特困人员救助供养标准按《承德市特困供养人员救助管理办法》执行。', '1月3日中俄残疾人冰橇冰球友谊赛暨河北省冰橇冰球运动推广展示活动在避暑山庄湖区冰面上隆重举行。承德市政府副市长薛寒出席活动并为承德市第一支残疾人冰雪运动队伍——承德残疾人冰雪运动“梦之队”授队旗。此次活动由河北省残联、省体育局、省冬奥办、承德市政府共同主办，市残联、市体育局承办。', '1月4日承德市政府常务副市长李晋宇与中信产业投资基金管理有限公司总裁田宇签订了国际滑雪度假区项目战略合作协议。根据该协议，中景信旅游投资开发集团有限公司将在承德高起点、高标准建设现代化、前瞻性的滑雪度假区。', '1月4日河北省旅游委公布《关于2016年全省4A级以上旅游景区专项整治行动的通报》，将石家庄市平山拦道石景区和联邦·空中花园景区、承德市磬锤峰国家森林公园、邯郸市武安古武当山4家景区取消4A级景区资质。', '1月5日至8日由国家体育总局汽车摩托车运动管理中心、中国汽车摩托车运动联合会、中国旅游车船协会、承德市人民政府、首农集团主办，由围场满族蒙古族自治县人民政府、御道口牧场管理区、承德三元御道口牧场有限公司、北京双威力体育设施有限公司、承德御道口雍乾皇家狩猎场、北京中汽摩运动发展公司承办的2017“首农杯”中国雪地摩托车越野锦标赛（承德御道口站）暨御道口皇家猎场冰雪狂欢季活动在围场满族蒙古族自治县御道口管理区雍乾狩猎场举行。国家体育总局汽车摩托车运动管理中心副主任林杰、首农集团副总经理赵国荣、国家旅游局中国车船协会秘书长刘汉奇等嘉宾莅临开幕式。承德市政府市长常丽虹出席活动并宣布2017“首农杯”中国雪地摩托车越野锦标赛暨御道口皇家猎场冰雪狂欢季活动开幕。本届比赛场地占地约30 亩，赛道总长2 公里，采用国际赛事顶级标准设计，并按照国际比赛标准修建各种辅助设施。', '1月5日承德市企业科技创新研究会正式成立。承德苏垦银河连杆有限公司总经理范士义当选会长。', '1月5日承德市公安局双滦分局通过群众举报线索成功端掉一非法储存烟花爆竹窝点，收缴非法储存的各类烟花爆竹500件。', '1月6日刘军、齐淑艳夫妇因作为瞭望员坚守塞罕坝机械林场望火楼11年，成为承德市惟一入选“2016 河北年度十大新闻人物”的获奖人物。', '1月8日2017（首届）中国诗词春节联欢晚会在承德剧场举办。此次诗词春晚由中国诗词春节联欢晚会组织委员会主办，由《诗词之友》编辑部、承德广播电视台、北京转折文化发展有限公司承办。该晚会将诗词曲赋联等多种传统文学样式，用丰富多彩的舞台艺术形式，呈现在广大观众面前。', '1月8日2017年承德旗袍会联欢会暨承德艺术摄影家协会旗袍摄影大赛颁奖典礼在伯龙大酒店举行，展出的摄影作品将旗袍的中国风和美丽的坝上风光完美地融合在一起，一场场精彩的旗袍秀也让现场来宾大饱眼福。', '1月11日因为勇救落水母子，荣获第十一届河北省见义勇为英雄荣誉称号并获得奖金的承德医学院贫困大学生王瞳瞳，在获知围场县的女孩项莹由于父亲救人牺牲而陷入生活困境后，决定从10万元奖金里挤出5000元资助她上学。', '1月11日承德市目前已经有承德市蔬菜果品批发市场、平泉三联蔬菜水果批发市场、平泉县榆树林子蔬菜果品批发市场有限公司、滦平万泽农贸市场、隆化县腾云蔬菜果品批发市场服务中心等5 家市场建立了快检室并投入使用，在这里蔬菜是否合格一测便知。', '1月13日中国教师发展基金会主任马福如、伊怀海一行来到丰宁满族自治县向全县中小学捐赠价值22万元图书。', '1月13日承德市足球协会在碧峰饭店成立，孙利军当选的承德市足球协会主席。截至目前，承德市登记在册的足球队共有21支，足球运动员700 多人。', '1月17日由中国中医药信息研究会发起并主办、承德市中医院承办、北京彭胜医院协办的“首都名医走基层”医疗帮扶活动河北承德站在承德市中医院启动。该活动以首都名院名医专家义诊、学术讲座等为切入点，积极推动优质卫生资源地区覆盖，同时推广先进的诊疗理念和医疗技术，实现优势医疗资源合理配备和共享。参加“首都名医走基层”承德站的医疗专家均是由中国中医药信息研究会统一组织和邀请的北京各大三甲医院多学科医疗专家。主要帮扶方式为通过对基层医生的授课、带教等形式，在条件许可的情况下指导和扶持基层医院开展诊疗活动，努力帮助基层医院提升诊疗技术。', '1月18日三源舞动春晚暨承德市首届广场舞“春节联欢晚会”在承德大剧院举行。此次晚会由承德市体育总会、承德广播电视台主办，承德市广场舞协会承办，三源集体总冠名，共有来自承德八县三区30多个舞队登上“首届广场舞”的舞台。这次广场舞春晚第一次将广场舞与春晚结合在了一起，让广大广场舞爱好者们拥有了属于自己的春晚。', '1月19日在国家林业局和国家标准化管理委员会公布的2016 年国家林业标准化示范企业名单中，承德华净活性炭有限公司在列。此次公布的2016年国家林业标准化示范企业共30 家，承德华净活性炭有限公司是河北省惟一获得此称号的企业。', '2016年度感动承德十大新闻人物的是：以河北省人民检察院驻承德县八家乡桲椤台村工作组为代表的20 个最优工作组及20 名最美扶贫人的“最美扶贫人”群体——肩负使命精准扶贫恪尽职守造福百姓，攻坚路上创新举措“承德脚步”铿锵有力；塞罕坝机械林场护林瞭望员刘军、齐淑艳夫妇——十一载不舍不弃无怨无悔日夜坚守塞外最高望火楼，孤独为伴用生命守候绿色写就令人动容的奉献之歌；丰宁黄旗镇城根营村党支部书记刘佩仿——辞职回乡创业柔肩托起富民梦，修坝垫地打井实干赢得民众心；驻平泉某部队军人于龙——冒浓烟踏烈火危难之中谁为“最美逆行者”，置安危于不顾舍身救人彰显子弟兵本色；滦平农民、长城保护员白春向——心中藏大爱守望“国家宝贝”坚守不是一句空话，十一载付出甘做“长城护工”誓让历史得以传承；承德医学院大学生王瞳瞳——危险面前一跃而出山庄内救起落水母子，施救之后悄然离去湖边留下“最美背影”；承德籍演员肖央——心怀梦想从不言弃“筷子兄弟”引领风潮，执著追求多栖发展志在演绎精彩艺术人生；北京承德企业商会执行副会长、北京星光裕华照明技术公司董事长韩天鸿——璀璨灯光装扮世界舞台点亮承德荣耀，故乡情深投入巨资兴业回馈家乡父老；承德技师学院教师石凤武——高校教师潜心磨刀二十载成就“一介工匠”，央视比武大赛扭转乾坤终成“中国大能手”；市农业局离休干部尹忠——九旬老人病榻上手绘皇家御道百余家商铺，“承德活地图”笔下春秋记录城市记忆坐标。', '1月23日至24日国务院食安办副主任、国家食品药品监督管理总局副局长滕佳材一行来承德市检查春节前食品安全监管工作。滕佳材一行先后前往承德嘉和国际饭店、裕华服务中心五云桥市场、北兴隆餐饮示范街、承德露露股份有限公司、承德食品药品检验检测中心、宽广超市、滦平县食品药品农产品检验检测中心、滦平华都食品有限公司进行实地检查。', '1月26日(农历腊月二十九)中国北方最大藏传佛教寺庙承德普宁寺举办“驱魔法会”。这是自1986年普宁寺恢复宗教活动后首次举办“驱魔法会”，法会由普宁寺住持金刚上师莫日根图主法。', '2月4日河钢承钢首批5000吨含钒高强结构钢，成功运抵我国首座“海上机场”——海南三亚海上新机场项目建设现场。产品将用于海上立柱部位建设。', '2月4日在广州市举行的全国厕所革命工作现场会上，国家旅游局对2016 年全国推进“厕所革命”的先进城市予以表扬，承德市获得“2016 年全国厕所革命先进市”称号。', '2月7日承德市对工伤职工伤残津贴、生活护理费和工亡职工供养亲属抚恤金标准进行再调整，伤残津贴最高每人每月增加180 元。', '2月8日截至目前，承德市政府在武烈河沿线启动的以取缔排污口为主的“控源截污”工程已取缔排污口18个，生活污水接入城市污水处理厂深度处理。', '2月8日承德市首个农产品加工实验室在鹿栅子沟落成并投入使用。该实验室净操作面积260 余平方米，有技术研究人员7 人，其中硕士3 人，实验研究设备38台，主要制备有喷雾干燥机、冷冻干燥机、超微粉碎机、紫外分光光度计、制茶设备、小型酿酒设备、包装机等。实验室以产学研结合为发展思路，积极开展农产品贮藏、保鲜、活性物质提取和综合利用的技术开发。', '2月10 日第八届亚洲冬季运动会中国体育代表团在京成立，河北省3名冰球运动员张嘉褀、张泽森、孙泽浩进入代表团名单，其中张泽森属承德避暑山庄冰球队队员。', '2月11日由团中央学校部、全国学联秘书处、中国青年报社共同举办的2016年度全国“最美中学生”“最美中职生”寻访活动落幕。丰宁满族自治县职教中心学生孙海宁获2016年度全国“最美中职生”殊荣。', '2月12日至13日河北省人大常委会副主任范照兵就贯彻落实省第九次党代会精神，加强和改进新形势下人大工作到承德市开展调研。范照兵先后到双滦区万利通实业有限公司、鼎盛文化产业园区，围场塞罕坝机械林场、御道口牧场进行实地考察，并到市人大机关和丰宁满族自治县人大机关走访，听取人大工作汇报，与部分省、市和基层人大代表进行了座谈。', '2月13日承德市首个环境保护志愿服务社“滦平施乐生态服务社”成立。该社是由滦平环保局发起，世界500 强企业富士施乐深圳有限公司投资，中国环境报社加盟，以环保局综合协调、全县教育系统推进、街道社区管理，县委宣传部、县文明办科学指导的模式开展环境保护公众参与工作，属于公益性环保志愿服务团体。', '2月14日国家商务部对宽城电子商务进农村综合示范进行了绩效评价，评价等级为优秀，排名位于河北省第1 名。', '2月14日国家林业局森林公安局授予全国森林公安系统57 个单位“全国森林公安机关执法示范单位”荣誉称号，丰宁满族自治县森林公安局榜上有名，是河北省唯一获此荣誉的森林公安局。', '2月17日上午11点18分承德市区盛华广场武烈路与新华路交叉口附近发生爆炸，途径爆炸点的一辆公交车和出租车车窗被震碎，2名钱库KTV员工受伤。经排查，爆炸原因认定为盛华大酒店南侧地下燃气管道泄漏所致。', '2月17日承德宽航新材料有限公司和承德信通首承矿业有限责任公司经河北省人力资源和社会保障厅、省博士后管理委员会批准通过设立博士后创新基地。至此，承德市博士后创新实践基地增至为8家。', '2月17日团中央、国家农业农村部联合表彰了第十届“全国农村青年致富带头人”。其中，承德市承德北巡农业旅游开发有限公司总经理孟昭杰，承德市御今农业发展集团董事长、丰宁满族自治县食用菌协会会长孙志伟，承德华慷都山农产品集团有限公司董事长刘志国获得该项荣誉。这是团中央、农业农村部授予涉农创业青年的最高奖项。', '2月20日根据承德市2017年度城镇居民最低生活保障标准，承德市提高市直机关事业单位工作人员遗属生活困难补助标准，提标后，市直补助标准将达到每人每月550 元。', '2月21日河北省发布了河北省首批特色小镇创建和培育类公示名单。承德市围场皇家猎苑小镇、承德县德鸣大数据小镇列入河北省首批特色小镇创建类名单；丰宁中国马镇、丰宁汤河温泉小镇、滦平古城国际庄园小镇、隆化枫水满乡小镇列入河北省首批特色小镇培育类名单。', '2月24日在河北省绿化委员会办公室、河北省住房和城乡建设厅、河北省林业厅联合组织开展的寻找河北最美古树和树王活动中，平泉县松树台乡树龄为400 年的油松、台头山乡树龄为400 年的文冠果和柳溪镇树龄为500 年的小叶杨获“2016年河北省最美古树”称号。', '2月27日 平泉县六岁的“小小消防员”杨洋与著名歌唱家江涛、全国著名相声表演艺术家周玮、朱迅在央视《非常6+1》现场传递消防知识，展示消防员风采。', '2月28日天津和河北两地根据达成的协议，联合在承德市建设一所专注于职业教育和培训的高职院校，该高校被命名为天津中德应用技术大学承德分校。', '3月3日由国家体育总局冬季运动管理中心主办的2016—2017年度全国男子冰球联赛第四站比赛在齐齐哈尔冰球馆收杆。参加该联赛的承德避暑山庄队收获了参加全国冰球联赛以来的首个分站赛冠军。', '3月3日平泉柳溪镇大窝铺村、围场满族蒙古族自治县哈里哈乡扣花营村、承德县两家满族乡大杨树林村、岗子满族乡郑栅子村，兴隆县南天门满族乡郭家庄村，平泉党坝镇永安社区，滦平县涝洼乡三岔口满族村、两间房乡苇塘满族村，丰宁满族自治县黄旗镇西村、南关蒙族乡云雾山村，宽城满族自治县塌山乡尖宝山村被命名为第二批中国少数民族特色村寨。', '3月6日 由《诗词之友》编辑部、承德市作家协会主办“诗咏承德·全国旅游诗词楹联大赛”在承德市启动，此次大赛以征稿方式面向全国征集作品。', '3月8日承德医学院学生王瞳瞳，因不顾个人安危，跳入湖中勇救一对落水母子，被河北省政府授予“河北省见义勇为英雄”荣誉称号，并享受省级劳模相关待遇。', '3月8日14时承德市双桥区翠桥路附近一建筑发生火情，当日16时，火点已扑灭，无人员伤亡。该建筑是位于承德市区翠桥小学后侧的观彩楼，该楼为1938年侵华日军修建，命名“兴亚塾”，被日军叫做会馆。1945年日本投降后，“兴亚塾”短暂作为八路军办事处，后来这里先后被用作热河省招待所及工业局、轻工业局的办公楼等。据当地老人介绍，由于该楼南部较宽，北部较窄，外观看上去很像一口棺材，这楼修建之初，就被当地民众称为“棺材楼”，预示着日军的侵略行为注定要失败。现在，由于“棺材楼”听起来比较晦气，人们把它改称为“观彩楼”。', '3月9日承德城市推介人、承德电视台主持人管媛当选中央电视台《城市1对1》首届“最佳城市推介人”，全国仅有3 人获此殊荣。', '3月9日承德医学院2014级研究生高小恒因在危难时刻挺身而出、沉着应对地全力抢救患者，被河北省文明办授予“河北好人”荣誉称号。', '3月10日河北省政府副省长张古江到承德市调研提高贫困人口医疗保障和社会救助及文物安全保护工作。', '张古江一行实地考察了滦平县长山峪镇和两间房乡劳动保障事务所，入户走访了享受医疗保障救助政策群众。实地考察了普陀宗乘之庙、殊像寺、避暑山庄修缮保护工程。', '3月11日 承德市青年书法家协会第三届会员代表大会在鼎盛书画院举行。会议选举产生了第三届承德市青年书法家协会主席团，王文博当选主席，秘书长由李凤勇担任。', '3月12日世界摄影（旅游）大会暨第五届国家摄影大典将承德金山岭长城评选为“中国十大摄影旅游圣地”和“中国十大典藏摄影旅游景区”之一，金山岭长城管理处主任、旅游发展有限公司董事长郭中兴获选2016中国摄影年度人物。', '3月16日承德检验检疫局对一批来自德国的食用植物油集装箱进行检疫查验时,在集装箱内截获有害生物球螋，这是承德地区首次截获此类生物。该生物如果侵入可危害食用菌。', '3月18日 中国共产党承德市第十四次代表大会在承德大剧院开幕。周仲明代表中国共产党承德市第十三届委员会向大会作了题为《深入贯彻新理念坚定不移走新路为加快建设生态强市魅力承德而努力奋斗》的报告。', '3月19日至22日“第四届全国中小学外语教师名师大会”在陕西西安市召开，丰宁满族自治县第二小学教师张晓敏参会并获“全国中小学外语教师教学能手”荣誉称号。', '3月21日中国共产党承德市第十四届委员会举行第一次全体会议。会议选举产生中国共产党承德市第十四届委员会常务委员会委员，周仲明当选市委书记，常丽虹、张泽峰当选市委副书记。选举周仲明、常丽虹、张泽峰、邢留逮、路洪昌、李晋宇、丁伟、刘新宇、吴清海、路立营为市委常委。 会议通过了中国共产党承德市第十四届纪律检查委员会第一次全体会议选举产生的书记、副书记：书记路洪昌，副书记袁丽枝、李铁柱、李中东。', '3月24日至25日中共河北省委常委、统战部部长高志立到隆化县调研脱贫攻坚工作。高志立一行来到韩家店乡西底沟村，走访慰问困难群众，向村干部了解生产生活和基层党组织建设情况，并看望了驻村工作组人员，连夜召集省直和隆化县相关部门负责人研究该县脱贫攻坚工作实施方案，并主持召开了隆化县脱贫攻坚工作座谈会。', '3月24日中共河北省委常委、省纪委书记梁惠玲到承德市调研。梁惠玲一行先后来到承德县华唐服务外包产业园、德鸣大数据产业园和承德市规划展览馆，听取项目情况汇报和基层党员、群众的意见建议并召开座谈会，与市县乡镇党委、纪委负责同志进行座谈交流；听取承德市经济社会发展和落实主体责任情况的汇报，听取承德市党风廉政建设和反腐败情况的汇报。', '3月24日中共河北省委常委、宣传部部长田向利到围场满族蒙古族自治县调研脱贫攻坚工作。田向利一行来到道坝子乡查字上村、半截塔镇要路沟村、牌楼乡牌楼村实地调研，入户走访困难群众，看望驻村工作队员，详细了解基层生产生活情况，主持召开“五包一”“三包一”帮扶工作第一次联席会议。', '3月25日总投资5.41亿元的国道111四合永至朝阳地路段改造工程项目开工建设。项目由围场交通运输局施工建设。国道111四合永至朝阳地路段改造工程起自腰站镇边墙山村，途径碑亭子、下三合义、银窝沟乡北山根、克勒沟镇大苇子沟、朝阳地镇叶柏寿等14个村，终点止于冀蒙交界石泉河村。路线全长49.612公里。全线采用二级公路技术标准建设，路基宽度10米，路面宽度9.5米。', '3月26日中共兴隆县委宣传部通报称，3月24日14时20分左右，兴隆县天利海香精香料有限公司机修车间2名工人在压滤液储罐安装液位计进行切割吊耳作业时，从作业平台上坠落受伤，当日18时30分经抢救无效死亡。', '3月27日中共承德市委、承德市政府在承德高新区举行全市重点项目集中开工活动。全市有140 个重点项目参加此次集中开工，项目总投资1390亿元，平均规模达9.9亿元，年计划投资235亿元，其中5 亿元以上项目47个，10 亿元以上项目29个。全市重点项目集中开工主会场设在承德高新区中德应用技术大学承德分校项目现场。当日，滦平冀康国际物流产业园、隆化枫水湾水上乐园、宽城镕冠高铁大截面车体专用板、平泉兰泉净水设备生产、围场三强海燕新型建材生产、丰宁平安高科菊粉生产、双桥区金坤文化创意印刷产业园区、双滦区北方汽车文化小镇、营子区采煤沉陷塌陷区环境治理等项目同步启动。', '4月7日至4月10日承德市十四届人大一次会议在承德大剧院举行。会议通过了承德市政府市长常丽虹向大会做的政府工作报告，在会上，韩福才当选为承德市第十四届人民代表大会常务委员会主任；常丽虹当选为承德市人民政府市长；刘福明当选为承德市中级人民法院院长；纪志明当选为承德市人民检察院检察长；孔庆龙、王素芝、李伟、蔡福浩、丁然、李兴臣当选为承德市第十四届人民代表大会常务委员会副主任；李晋宇、薛寒、苏铁成、董正国、王成、刘宏伟当选为承德市人民政府副市长。', '4月9日在政协承德市第十四届委员会第一次会议上，刘文勤当选政协主席。柴山（满族）、李建华、关继高（满族）、张富民（满族）、王利华（女）、信祥（满族）、白宝君（满族）、郭靖涛当选政协副主席。', '4月9日由中国农村杂志社主办的“中国美丽乡村百佳范例”评选结果揭晓，平泉桲椤树镇桲椤树社区成功入选“中国美丽乡村百佳范例”', '4月10日根据国家民政部印发的《关于同意河北省撤销平泉县设立县级平泉市的批复》，撤销平泉县，设立县级平泉市，以原平泉县的行政区域为平泉市的行政区域，平泉市人民政府驻平泉镇府前街17号。平泉市由河北省直辖，承德市代管。', '4月12日承德市将城市低保平均补差水平由原来的每月不得低于295元，提高至每月300元以上，城市低保标准和农村低保补差仍按原标准执行。', '4月15日上午8时23分在宽城满族自治县民族文化广场，承德市民辛科安起跑挑战承德至天津260公里马拉松，至4月16日13时28分，辛科安历时29小时5分，在天津市北辰区辰风跑团的引领下，抵达终点北辰公园。辛科安此次挑战成功完成。', '4月14日京承文化发展承德投资基金签约仪式在双滦区举行，市领导魏莉、邓子来出席。京承文化发展承德投资基金是承德市设立的第一支文化产业发展基金，由双滦区政府、北京市文化投资发展集团、承德鼎盛文化产业投资有限公司共同发起设立，经营期限为7年，目标总认缴出资额为人民币10亿元，首期认缴5亿元，主要用于文化旅游、文化创意等产业，建设文化产业功能园区开发项目、京津冀一体化文化产权交易平台项目等。', '4月23日平泉县松树台乡营子村出现一只珍稀动物苍鹭，被当地村民发现并救治。经鉴定，此鸟为濒危野生鸟类，以前在承德地区非常罕见。', '4月26日承德市中心医院被评为“河北省内首家乡村医生培训工程定点培训中心”。这是中国医师协会·乡村医生分会在全国建立的100个“基层/乡村医生培训中心”之一。', '4月26日承德森源绿色食品有限公司的“菇芳源及图”注册商标被国家工商行政管理总局认定为中国驰名商标。', '4月27日中华全国总工会决定授予承德鼎盛文化产业投资有限公司2017 年“全国五一劳动奖状”，国网冀北电力有限公司承德供电公司运维检修部主任庞博“全国五一劳动奖章”；授予河北广盛居酒业有限公司酿酒车间灌装班组、 滦平建龙矿业有限公司选矿车间“全国五一先锋号”荣誉称号。', '4月28日《诗选刊》下半月刊落户承德揭牌仪式在碧峰门民俗文化产业园区举行。《诗选刊》下半月刊是诗选刊杂志社主办的中国唯一诗词选刊。', '4月28日北京中洋美伊国际贸易有限公司与海湾国际矿业能源集团（香港）有限公司在高新区科技大厦举行中华外交庄园国际影视城项目签约仪式。这标志着中华外交庄园国际影视城项目正式落户围场满族蒙古族自治县御道口镇。该项目总投资200 亿元人民币，占地2 万亩，滚动投资，分期实施，计划5年完成，整个项目规划为主园区、拓展区和影视区。', '4月29日12时50分许承德县三家镇西兴村发生一起森林火灾。截至30日8时20分，明火已被全部扑灭，初步估测过火面积750亩。火灾蔓延进入林边村庄，过火三家镇丛营村、柳条村村民房屋10余处，但无人员伤亡。起火原因现已查明，为当地村民董某某燎地边引发。', '4月30日由承德体育总会主办的2017河北承德第一届“99 舞蹈·伊尔曼养生杯”舞蹈公开赛在市奥体中心举办。此次比赛旨在提高全民健身舞蹈水平，进一步促进体育舞蹈及全民健身舞蹈的普及和推广，打造承德地区舞蹈艺术赛事品牌。来自北京、天津、山东、山西及承德市各县区的1000多名选手参加了比赛。', '5月4日至6日中共承德市委书记周仲明、承德市政府市长常丽虹带领承德市党政代表团赴浙江省湖州市，陕西省咸阳市、西安市学习考察。学习借鉴湖州市生态文明建设地方立法、咸阳市袁家村发展乡村旅游、西安市曲江新区和西咸新区发展文化旅游产业园区的好经验好做法。承德市党政代表团一行先后考察了湖州南太湖治理、莫干山镇，咸阳马嵬驿民俗文化体验园、礼泉县袁家村，西安曲江新区规划展示中心、曲江池遗址公园、大唐芙蓉园、西咸新区泾河新城乐华城·幸福小镇项目。', '5月5日围场满族蒙古族自治县北雁商城捐赠1000 万元，用于支持河北民族师范学院商学院建设。', '5月5日中华职业教育社成立100 周年庆祝大会暨第五届黄炎培职业教育奖先进集体和先进个人表彰大会在北京举行，承德技师学院、承德工业学校校长卜立新在会上获本届黄炎培职业教育杰出校长奖。', '5月9日由承德市政府、市文学艺术界联合会、市体育局、市旅发委、市景区管委会、市摄影家协会联合举办的“2016 中国·承德冰雪季摄影大展”在市中心广场开幕。此次摄影大展以展现承德市冬季旅游魅力为主题，聚焦承德冰雪赛事、木兰围场风情、金山岭长城冬韵、春节民俗文化活动，吸引国内外摄影爱好者、摄影艺术家前来摄影采风创作。大展组委会共收到来自全国摄影爱好者拍摄的作品1400 余幅，经过评选，100幅代表承德冰雪特色的优秀作品入选本次展览。', '5月12日承德市首届“南丁格尔奖”颁奖典礼在承德医学院附属医院举行，曹玲玲等51 名护理人员获奖。', '5月18日“中国国家博物馆中华优秀传统文化教育基地”挂牌仪式在避暑山庄博物馆举行，避暑山庄博物馆成为全国第一个与中国国家博物馆合作建立中华优秀传统文化教育基地的地方博物馆。', '5月19日兴隆县青松岭镇董家店村朝阳沟南山坡上，发现野生水榆花楸20 余株，最高约20 米，最粗直径16厘米；最小高约2 米，粗直径1 厘米。其中4 株较大水榆花楸被县林业局登记编号。', '5月19日全国公安系统英雄模范立功集体表彰大会在北京人民大会堂召开，承德市公安局治安警察支队行业场所管理大队队长刘洋被评为全国特级优秀人民警察，承德市公安局交通警察支队直属一大队主任科员于海涛、平泉县公安局刑事侦查大队（县禁毒委员会办公室）教导员蒙长海两人被评为全国优秀人民警察，鹰手营子分局治安警察大队被评为全国优秀公安基层单位。其中，于海涛作为全国优秀人民警察代表赴京参加了表彰大会，得到党和国家领导人的接见。', '5月19日至21日由国家卫生计生委脑卒中防治工程委员会、中国老年保健医学研究会和中华预防医学会共同主办的“2017 年中国脑卒中大会暨第七届全国心脑血管病论坛”在北京国家会议中心召开。会议上，承德市中心医院被国家卫生计生委脑卒中防治工程委员会评为“2017—2020 年全国脑卒中筛查与防治基地”，同时还进入了全国颈动脉内膜切除术前50强医院行列。', '5月21日夜间至22日白天一场承德全市范围降水，终于带走了连日来的高温晴热天气。进入春季以来，全市一直持续维持干燥、高温、多风天气。截至目前，全市平均降水量仅为13.8毫米，较历史同期偏少75%，为有气象记录以来历史同期降水量最少年份。', '5月23日承德市茶文化学会揭牌成立，茶文化学会会长为曲纪双。承德茶文化学会是经市民政局、市社科联批准成立的非营利性社会团体，其宗旨是学茶爱茶尚茶、共饮香茗、研学茶道、传承茶艺，弘扬中国茶文化，助力承德市茶行业健康发展。', '5月23日承德市至张家口市客运班线的正式开通运行，自此承德市与河北省各市间的客运班线全部开通。', '5月24日在国家人力资源社会保障部办公厅认定的第四批国家级充分就业社区的名单中，双桥区石洞子沟街道广电路社区榜上有名。', '5月27日 承德市环保局在承德县主会场和全市7 个分会场同步举行县环保分局及市县环境监控中心、环境执法支队、环境执法大队揭牌仪式，此次揭牌标志着承德市环保垂直管理制度改革工作基本完成。', '5月31日至6月3日河北省政协副主席带领调研组来承德市，就京津冀水源涵养功能区建设工作开展调研。一行先后到隆化、围场、丰宁，查看了滦河、潮河源小流域水土流失综合治理项目、京冀水源林工程、丰宁抽水蓄能电站建设项目建设情况。调研期间，还在隆化看望了省政协机关驻干沟门村精准脱贫驻村工作队，并赴围场满族蒙古族自治县哈里哈乡扣花营村考察了扶贫项目建设情况。', '6月4日至5日中共河北省委常委、组织部长梁田庚到丰宁、隆化就扶贫工作和抓党建促脱贫攻坚进行调研。梁田庚先后赴丰宁黄旗镇城根营村、王营乡胡营村，隆化偏坡营乡靠山营村、七家镇西道村、茅荆坝乡田家营村调研“脱贫攻坚党旗红”活动开展情况，察看村级脱贫产业发展、农业专业合作社及“政银企户保”金融扶贫、光伏扶贫等情况，考察了基层党建工作，看望贫困户，召开市县乡村干部座谈会听取意见，并听取了中共承德市委书记周仲明关于全市经济社会发展、脱贫攻坚和抓党建促脱贫情况的汇报。', '6月6日“中国网事·感动河北”2017(上半年)网络人物评选结果揭晓，通过网络投票+大众评审的方式推选出了20名(组)“平民英雄”。丰宁满族自治县职业教育中心学生孙海宁入选。', '6月9日 随着宽城满族自治县桲罗台镇最后一个养鱼网箱被拆除，引滦入津工程源头的潘家口水库库区依法取缔网箱养鱼全面完成，共清理网箱38982 个，组织出鱼4445.75 万公斤，提前半年完成既定任务。', '6月11日中共承德市委书记周仲明与中旅集团香港中旅国际投资有限公司首席战略官、中旅智业文化发展有限公司总经理、承德国家度假公园项目工作领导小组副组长张正启举行座谈，双方就在承德市建设国家度假公园项目的有关情况交换了意见。', '6月12日世界首条亚熔盐法清洁提钒示范生产线在河钢承钢建成。这是由河钢承钢与中科院共同开发的自主创新技术，它的投产标志着我国在战略金属钒和铬的工业提取技术方面迈入国际领先水平。', '6月13日至14日河北省政协副主席姜德果带领由部分省政协委员、有关专家、学者组成的专题调研组，到承德市就“政银企户保”金融扶贫工作进行调研。调研组一行先后到隆化县金融服务中心、韩麻营镇北沟村合鑫牧业有限公司、偏坡营乡靠山营村耀翔农民专业合作社、滦平县金沟屯镇下营子中药材种植示范区、滦平县高新技术产业开发区华朗食品有限公司、大屯镇小城子金融超市等地实地考察，并听取了当地相关扶贫工作汇报。', '6月12日至14日中共中央政治局委员、中央政法委书记孟建柱在张家口、承德公安基层单位调研社会治安情况。', '6月16日在中共河北省委教育工委、河北省教育厅举办的2017 年“关注时事·胸怀天下”中小学生时事知识竞赛中，兴隆县第一中学代表承德市参赛，喜获高中组一等奖；杜金淼、王茜婷、张梓逸三名同学分别获得高中组个人一等奖；李树红老师获得高中组优秀指导教师奖。', '6月20日根据丰宁满族自治县林业部门报告，该县在海拔1400多米的山林里发现60余株国家一级保护植物野生山西杓兰，这是承德市范围内首次发现山西杓兰。', '6月22日中国关心下一代工作委员会、中国社会福利基金会关心下一代基金、财团法人中国信托慈善基金会，在围场满族蒙古族自治县朝阳地小学举行“中国关心下一代教育示范基地”挂牌仪式。朝阳地小学成为河北全省首家“中国关心下一代教育示范基地”学校，获得捐款50 万元。', '6月22日凌晨雷雨天气突袭承德市，截至6月22日14时，承德市各县区均出现雷阵雨天气，全市平均降雨量8.9毫米，共有63个乡镇降雨量超过10 毫米，其中14个乡镇大于25毫米，有5 个监测点雨量超过50 毫米，最大降雨量为73.5 毫米，出现在隆化县汤头沟镇凤凰岭村柴火沟站。', '6月22日中国社会科学院与《经济日报》 共同发布《中国城市竞争力第15次报告》，该报告利用指标体系和客观数据详细评价了289个中国城市的竞争力状况。报告显示，承德市在城市宜居竞争力排名中位居河北省第4位。', '6月25日 河北省政府副省长在承德调研工业经济运行和尾矿库安全度汛工作。一行来到承德县大数据小镇、华明服务外包产业园、神栗食品公司、新通源新型环保材料公司、京城矿业集团详细了解企业生产经营、项目建设情况，实地检查了群丰矿业公司小峪沟尾矿库安全度汛工作。', '6月25日2017第六届品牌农商发展大会结束，“隆化肉牛”品牌被评为“2017最受消费者喜爱的中国农产品区域公用品牌”，同时也是全国惟一获此殊荣的肉牛品牌。', '6月24日至6月25日2017 年第六届品牌农商发展大会在北京举行，宽城满族自治县申报的“宽城板栗”获得“2017最受消费者喜爱的中国农产品区域公用品牌”荣誉。', '6月26日中共河北省委常委、宣传部部长田向利到围场满族蒙古族自治县调研脱贫攻坚工作。田向利先后到兰旗卡伦乡二把伙村、黄土坎乡海字村、围场镇吉上村、下伙房乡八号地村、牌楼乡牌楼村、城子镇八顷村等六个深度贫困村，入户走访困难群众、实地考察扶贫项目、调研移风易俗文明乡风建设情况，与驻村工作组和村两委班子共商脱贫之策。', '6月30日中共河北省委、河北省政府作出关于命名塞罕坝机械林场“生态文明建设范例”的决定。', '6月30日中共河北省委宣传部、河北省交通运输厅联合发布“美丽河北·最美出租汽车司机”名单。河北全省共有10名出租汽车司机获此殊荣，每人获得5000元奖励。承德市“的哥”伊宝强、李红宇获评“美丽河北·最美出租汽车司机”。', '7月1日承德全市范围内开始免费实施中孕期母血清学产前筛查，35 周岁以下、孕15至20+6周（最佳时间为孕15—18 周）河北省辖区内所有孕妇（含流动人口），持《母子健康手册》和身份证到定点采血单位或筛查机构享受免费唐氏筛查。', '7月1日“美丽河北文化行走——河北第二届万人健步走·魅力承德”活动在承德市启动。承德市2016“美丽河北”最美人物代表和各行业干部职工代表共2000 余人参加了健步行走。', '7月3日承德市正式启动长期护理保险制度，19万城镇职工医保参保人员成为首批受益人，其中约2000人符合享受待遇条件。这也是全国首批、河北省首个长期护理保险试点。', '7月3日至4 日河北省政府率领54 个省民委成员单位和省直有关部门在平泉市、丰宁满族自治县现场办公。河北省政府副省长张古江出席现场办公活动并讲话。此次现场办公会议共确定支持两县（市）项目568 个，资金242.9 亿元，其中无偿支持91.3 亿元、贷款151.6亿元，涉及基础设施、生态环保、社会事业等方面。', '7月3日—4日来自河北、北京、天津、湖南、贵州、黑龙江等多个省市的500余名旗袍爱好者和众多摄影爱好者齐聚乌兰布统大草原，参加由中华旗袍联合会主办、乌兰布统景区协办的承德·克旗2017 全国首届草原之星旗袍暨摄影大赛，经过激烈比拼，承德市乾源旗袍中心喜获团体赛亚军。', '7月6日16时04分围场县半截塔镇什巴克村国道111线附近发生一起大货车与一辆奥迪轿车和一辆旅游大巴车三车相撞的交通事故，导致大巴车侧翻。事故造成6人当场遇难，3人在抢救过程中死亡，28人受伤。', '7月6日中共张家口市委书记回建率党政代表团来承德市考察交流。代表团一行先后考察了御道口龟山大峡谷景区、塞罕坝七星湖湿地、天然白桦林和滦河源头湿地，听取相关负责同志的汇报，观摩景区项目，交流旅游资源开发、利用和保护等工作。', '7月8日“2017第三届中国避暑旅游产业峰会”在贵州省安顺市举行。该活动由中国旅游研究院、中国气象局公共气象服务中心联合主办，峰会公布了2017年最佳避暑旅游城市、避暑旅游城市观测点、最具潜力避暑旅游城市名单。承德市荣获“最佳避暑旅游城市”称号。', '7月8日至10日河北省人大常委会副主任王刚带领检查组，就承德市贯彻实施扶贫开发法规政策情况进行检查。在承期间，在听取了承德市政府汇报后，检查组赴随机所抽取的隆化县蓝旗镇杨树沟村、八达营乡东沟村，滦平县长山峪镇二道营村、金沟屯镇柳家台村、付营子镇邢家沟门村进行实地检查，分别与包村干部、村干部、村民代表进行座谈，并深入贫困户家庭进行走访，召开座谈会。', '7月10日由河北省住房和城乡建设厅会同中共河北省委宣传部组织的“十佳最美古树”评选结果揭晓，承德市两株古树榜上有名，两株古树分别为丰宁满族自治县九龙松和平泉市九龙蟠杨，九龙松位于丰宁五道营乡，九龙蟠杨树位于平泉辽河源国家森林公园。', '7月15日由全国高职高专校长联席会议主办、上海市教育科学研究院和麦可思研究院共同编制的《2017中国高等职业教育质量年度报告》正式发布，在全国1298所高职院校中评选出“全国高职院校国际影响力50 强”，河北旅游职业学院荣登榜单。', '7月15日承德花溪城水世界开业。花溪城水世界是京北第一水上乐园，拥有20多项大型的水上设备，且都是国内顶尖的。花溪城水世界汇有顶级娱乐项目20多种 ，其中有刺激如360度人体直滑的空中大回环，也有充满童趣的儿童水域城堡，更有10000多平米的人工造浪池，满足了各个年龄段的需求。', '7月15日由全国高职高专校长联席会议主办、上海市教育科学研究院和麦可思研究院共同编制的《2017 中国高等职业教育质量年度报告》正式发布，在全国1298 所高职院校中评选出“全国高职院校国际影响力50 强”，河北旅游职业学院荣登榜单。', '7月15日至16日中共中央政治局委员、中央书记处书记、中宣部部长刘奇葆在河北省塞罕坝机械林场调研。调研期间，刘奇葆深入塞罕坝机械林场的基层营林区，调研植树造林、湿地保护、森林防火等工作，了解50多年来林场大力造林、严格护林、科学利用等情况，看望林场老职工、老模范，与干部职工交流。', '7月17日河北全省2017“最美双拥人物”推选展示活动结果揭晓，承德市曲纪双荣获全省2017“最美双拥人物”称号。', '7月18日承德市第十四届人民代表大会常务委员会第三次会议决定任命郭士刚为承德市人民政府副市长；决定免去薛寒的承德市人民政府副市长职务。', '7月18日承德市旅游协会乡村旅游分会举行成立大会，承德聚农网络科技服务有限公司尹楠当选分会会长。', '7月26日美国CNN 评选出40个中国美炸了的地方，承德避暑山庄因风光绮丽，凉爽宜人上榜，位列第11位。外媒对避暑山庄的评语是：“被列入世界文化遗产名录的承德避暑山庄，曾是清代皇帝们消暑度假的夏宫。山庄内仍然保留着精致优雅的皇家园林和一座70 米高的宝塔。繁茂的草地、巍峨的群山、宁静的峡谷风光让山庄至今仍不失为避暑胜地。”', '市委书记周仲明出席仪式并与有关领导、嘉宾为承德市农林科学院、天津市农业科学院承德分院、河北省农林科学院承德分院等成立揭牌。市长常丽虹致辞。市委副书记张泽峰为客座研究员、客座教授颁发证书。市领导吴清海、 王成、王利华等参加仪式。吴清海主持仪式。', '8月3日农工党天津市滨海新区委员会赴承德市围场满族蒙古族自治县腰站镇开展对接帮扶捐赠活动，现场捐赠图书、桌椅、电脑等总价值50 万元的扶贫物资和现金。', '从8月2日11时开始承德出现今年入汛以来范围最广、强度最大的一次强降雨过程。截至8月3日8时，全市平均降雨量71毫米，有53个乡镇大于100毫米，6个乡镇大于200毫米，最大降雨量出现在兴隆县西台子村，为270毫米。承德市政府积极采取应对措施，共安全转移受威胁群众1614人，解救受困群众3人，未有人员伤亡。此次强降雨造成兴隆、宽城、平泉等地部分乡镇出现房屋进水、耕地被淹、道路被毁等不同程度灾情。', '8月2日中共承德市委宣传部、中共承德市委政法委联合组织开展的“魅力承德·最美政法干警”评选揭晓，名单如下：王晓辉（市人民检察院公诉二处干警）、石延昭（宽城公安局刑侦大队副大队长）、刘德银（滦平县公安局食品药品安全保卫大队大队长）、许宝明（双滦区人民检察院侦查监督科科长）、孙杰（兴隆县司法局社区矫正股股长）、李振东（宽城人民法院峪耳崖人民法庭庭长）、李敬民（高新区公安分局桃李派出所所长）、宋艳会（承德市公证处公证员）、黄雪军（营子公安分局营子派出所所长）、薛辉（市法院法警支队支队长）。', '8月5日承德市归国留学人员联谊会成立大会暨第一次会员大会召开。河北省侨联主席、党组书记包东，中共承德市委副书记张泽峰出席会议。会议选举产生了承德市归国留学人员联谊会第一届理事会会长、常务副会长、副会长、秘书长。', '8月10日国家体育总局公布了首批运动休闲特色小镇试点项目名单，宽城满族自治县都山运动休闲特色小镇入选。', '8月12日至14日中共河北省委书记、省人大常委会主任赵克志到承德市调研。调研期间，赵克志先后到兴隆县、鹰手营子矿区、丰宁满族自治县、承德县、平泉市，走进农村、企业、学校和项目建设现场，与干部群众座谈交流，指导农村教育发展、生态文明建设、企业转型发展、旅游资源开发、精准扶贫脱贫、基层党组织建设等方面工作。', '8月13日下午至14日上午中共河北省委常委、宣传部部长田向利在塞罕坝机械林场就文明创建工作进行调研。调研期间，田向利实地检查了通往坝上公路的文明创建工作，对林场场区的交通、环境整治情况进行了踏查，对展览馆的展示内容进行了指导，对七星湖、白桦坪的文明创建工作进行了检查。', '8月15日 中国农业发展银行行长祝树民率国家农发行相关部门负责人到承德市就国家农业高新技术产业示范区创建工作进行考察。考察中，祝树民一行首先参观了滦平县兴春和生态循环农业示范园区，听取了园区建设发展情况汇报，并实地考察了园区工厂化生产双孢菇项目现场。随后，在滦平高新技术产业开发区观看了承德市国家农高区创建宣传片，详细了解承德市农高区规划布局、项目建设、产业发展等情况。最后到滦平新一中项目工地考察了项目建设进展情况。', '8月15日承德全市首个红十字生命健康安全体验教室落成投入使用仪式在承德市红十字应急救护培训基地举行，这是承德市首家以互动体验方式向青少年普及安全防范意识、自救互救技能的综合性体验教室，也是全国今年获批建设的30 个项目中最先建成投入使用的。', '8月16日中共中央宣传部向全社会公开发布王锐的先进事迹，授予他“时代楷模”荣誉称号。王锐是中国人民解放军陆军第74集团军某旅班长，承德籍。', '8月17日中共河北省委常委、宣传部部长田向利在围场满族蒙古族自治县调研精准脱贫工作。田向利一行先后深入到腰站镇上三合义村、杨家湾乡小洼村、郭家湾乡车家营村、姜家店乡庙子沟村、山湾子乡红葫芦村、张家湾乡宝元昌村、新拨镇大素汰村、棋盘山镇沙里巴村等8 个深度贫困村，入户走访困难群众，看望扶贫工作队员，考察扶贫产业项目，并集中听取22个深度贫困村第一书记工作汇报，对下步工作做出安排部署。', '8月17日河北省政府副省长徐建培来承德就文物保护工作进行调研。徐建培一行先后实地考察了普宁寺文物保护项目、避暑山庄及博物馆文物保护项目，听取了工作情况汇报，并就做好文物保护和修缮与相关单位负责同志进行交流。', '8月17日全国卫生计生系统先进集体、先进工作者和劳动模范及“白求恩奖章”获得者表彰大会在北京召开，承德市中心医院在会上获“全国卫生计生系统先进集体”荣誉称号。', '8月18日河北省政府省长许勤到承德市调研。许勤先后来到承德市高新区、滦平县，深入天大钒业公司、比亚迪承德公司和拾得大地幸福实践区项目建设现场，了解企业发展、旅游资源开发等情况。', '8月18日随着北京新地标“中国尊”外框106 层混凝土浇筑完成，北京第一高楼结构顺利实现封顶。河钢承钢作为“中国尊”建筑钢筋唯一供货商，累计为该项目建设供应各类优质含钒高强抗震钢筋10万余吨。', '在8月21日结束的第十八届中国绿色食品博览会上，隆化县选送的隆泉牌大米荣获第十八届中国绿色食品博览会金奖。', '8月24日从在北京举办的世界机器人大会现场传来佳音，由7名承德学生组成的两支代表队，分获陆空协同机器人反恐大赛中学组冠军和小学组季军。', '8月24日由河北美术出版社主办的《中国塞罕坝》等新书发布会在第24届北京国际图书博览会河北展区举行。《中国塞罕坝》是河北省知名作家李春雷创作的纪实文学作品。作者对塞罕坝那一群人、那一片林及国人对绿色生态梦想的执着追求进行了细腻描写，满怀深情颂扬了塞罕坝精神。此外，由塞罕坝机械林场组织编写、河北美术出版社出版的大型画册《碧海丹心——记塞罕坝机械林场》也同时亮相。此书倾情讲述了塞罕坝人以“功成不必在我”的信念，在沙地中造林，在荒原上建设，用行动书写绿色传奇的动人事迹。', '8月24至25日中共河北省委常委、统战部长高志立在隆化县调研脱贫攻坚工作。高志立先后到隆化韩家店乡唐家店村、阿虎沟村、八里营村、厂沟门村、西底沟村，郭家屯镇二道营村、干沟门村，韩家店乡枸杞园、柴胡园，郭家屯镇森茂合作社苗木基地，南赵营村养牛小区实地调研，并专门召开隆化县脱贫攻坚工作调度会，听取隆化县、河北省“五包一”单位、省直相关部门关于工作进展和下一步打算汇报。', '8月24日国家交通部公布首批“四好农村路”（建、管、养、运）示范县名单，平泉市榜上有名。', '8月25日中国两化融合大会在京举行，大会发布了2017 年全国两化融合突出贡献评选结果，河钢承钢公司获“创新型企业”称号，是全国20家获奖企业中唯一获奖的钢铁企业。', '8月26日零时 承德市在全市9所公立医院(其中市属6所：市中心医院、市中医院、市口腔医院、市第三医院、市妇幼保健院、市荣军医院;省属驻市1所：承德医学院附属医院;部队医院1所：解放军第二六六医院;企业所属1家：承钢职工医院)同时全面启动药品零差率销售，全部取消药品加成(中药饮片除外,下同)，同步实施配套改革措施，全面推开城市公立医院综合改革。', '8月27日习近平总书记在天津会见全国群众体育先进单位、先进个人代表和全国体育系统先进集体、先进工作者代表以及在本届全运会群众比赛项目中获奖的运动员代表，河北承德人邢岩参加了会见。（邢岩酷爱滑板，今年，他代表河北省参加全运会男子滑板碗池比赛，获得冠军。）', '新华社北京8月28日电：中共中央总书记、国家主席、中央军委主席习近平8月14日对河北塞罕坝林场建设者感人事迹作出重要指示指出，55年来，河北塞罕坝林场的建设者们听从党的召唤，在“黄沙遮天日，飞鸟无栖树”的荒漠沙地上艰苦奋斗、甘于奉献，创造了荒原变林海的人间奇迹，用实际行动诠释了绿水青山就是金山银山的理念，铸就了牢记使命、艰苦创业、绿色发展的塞罕坝精神。他们的事迹感人至深，是推进生态文明建设的一个生动范例。习近平强调，全党全社会要坚持绿色发展理念，弘扬塞罕坝精神，持之以恒推进生态文明建设，一代接着一代干，驰而不息，久久为功，努力形成人与自然和谐发展新格局，把我们伟大的祖国建设得更加美丽，为子孙后代留下天更蓝、山更绿、水更清的优美环境。', '8月28日国家中药材产业技术体系“十三五”启动会议决定：国家中药材产业技术体系河北综合试验站落户承德，成为河北全省唯一一家承担国家级中药材产业技术体系的综合试验站。', '8月29日伴随着男子10 米气步枪决赛的最后一发枪响，承德市射击选手杨皓然不负众望，最终以248.9 环、超对手0.6 环的成绩卫冕成功，夺得了第十三届全运会男子10 米气步枪项目的金牌。', '8月30日中共中央政治局常委、中央书记处书记刘云山会见了塞罕坝林场先进事迹报告团成员，代表习近平总书记，代表党中央，向报告团成员和塞罕坝林场干部职工表示问候，对学习宣传塞罕坝林场先进事迹提出要求。', '8月30日由中宣部、国家发展改革委、国家林业局和河北省委联合举办的塞罕坝林场先进事迹报告会在人民大会堂举行，中央和国家机关干部、北京市基层党员干部、林业系统干部职工和有关高校师生代表800 余人参加。中共承德市委书记周仲明、承德市政府市长常丽虹带队参加报告会。', '8月30日承德市第十四届人民代表大会常务委员会第四次会议决定任命张建宇为承德市人民政府副市长。', '8月31日第十三届全运会男子50 米步枪3种姿势比赛在天津团泊体育中心举行，承德市射击运动员杨皓然在资格赛中打出了1189 环超世界纪录3 环的好成绩，并在决赛中以460.4环的成绩霸气夺冠。', '8月31日承德市出租车管理处联合金融机构开通“移动支付”业务，市民乘坐出租车实现了扫码支付。', '9月3日至4日，中共中央政治局常委刘云山来到塞罕坝机械林场、承德市农村，就学习塞罕坝先进事迹、加强基层党建工作进行调研。刘云山参观了塞罕坝机械林场展览馆，了解半个多世纪以来林场艰苦创业历程，到白桦坪了解生态保护和发展生态经济情况。在滦平县古城川村，刘云山详细了解党员干部作用发挥情况，并走进村民家中就脱贫致富奔小康进行交流。调研期间，刘云山还主持召开基层党建工作座谈会，听取有关情况介绍和意见建议。', '9月4日中共河北省委书记、省人大常委会主任赵克志，省委副书记、河北省政府省长许勤就扎实推进脱贫攻坚到滦平县、隆化县调研。调研期间，赵克志、许勤先后深入到滦平县巴克什营镇古城川村和隆化县七家镇西道村、温泉村，分别考察脱贫攻坚和基层党建工作情况，考察草莓公社和温泉旅游产业，走进党员活动室、乡村特色农家院、游客服务中心察看硬件设施，与党员、群众深入交流，了解相关情况，探讨完善思路，提出指导意见。', '9月8日宽城满族自治县文化体育旅游广播电影电视局被国家体育总局授予“2013—2016 年度全国群众体育先进单位”荣誉称号。', '9月10日2017年环中国国际自行车公路赛承德皇家御道暨国家1号风景大道赛段在丰宁满族自治县大汗行宫鸣枪开赛，此次赛事以“生态·自然”为主题，赛道途经大汗行宫、茶盐古道、五道沟风景区、滦河猎谷、御道口牧场等多个景区，赛程共计157.3 公里。来自巴西、加拿大、意大利等国家的22支代表队，200多名职业选手以骑行的方式参加比赛。经过激烈角逐，意大利安德罗尼洲际职业队的冲刺选手卢卡·帕西奥尼在132 名专业参赛选手中脱颖而出，以3 小时13 分36 秒的成绩收获首个赛段冠军，并穿上了冲刺蓝衫与个人总成绩第一的黄色领骑衫。', '9月17日一只黑鹳，去年10月份在隆化被发现时左翅受到创伤，发生错位，后被送到唐山救助站进行救助，经过一年的野化训练和养护，遵从从哪里救助，从哪里放生的原则，这只已经痊愈的黑鹳被送回到隆化承德民革野生动物救助基地进行了放生。', '9月18日由中国公路学会主办的第四届“最美中国路姐”评选活动结果正式揭晓，河北省高速公路京承管理处承德收费站紫塞明珠巾帼岗被授予“最美中国路姐团队”荣誉称号，成为河北省唯一获此殊荣团队。', '9月19日“中国网事·感动河北”2017（下半年）网络人物评选结果揭晓，通过“网络投票+微信投票+大众评审”的方式推选出了20 位（组）“草根英雄”，承德塞罕坝机械林场群体成为承德市唯一的上榜人物。', '9月20日，在全国第十五个“公民道德宣传日”来临之际，承德市举行第一届文明家庭和第六届道德模范表彰大会，郭宇鹏家庭等62 个文明家庭和张春江等62 位道德模范受到表彰。', '9月23日中美友谊示范农场项目启动仪式在滦平县虎什哈镇五道河村举行。这是贯彻落实习近平总书记系列重要讲话精神，借鉴美国农场模式、加强中美技术交流、推动地方务实合作的重要举措。美国驻华大使特里·布兰斯塔德，中共河北省委书记、省人大常委会主任赵克志出席并致辞。河北省政府副省长王晓东主持活动，国家农业农村部副部长屈冬玉代表农业农村部向项目启动表示祝贺，美方项目代表瑞克·金伯利表达了通过农业交流合作推进中美关系发展的美好愿望。国家外交部、全国对外友协有关负责人出席活动。', '参加项目启动活动的领导和嘉宾共同观摩了艾奥瓦州现代农业技术演示。出席此次活动的还有，美国艾奥瓦州政府、企业及友好人士代表，省直各有关部门、承德市、滦平县负责人，河北省农业企业代表，承德市、滦平县各界群众代表等。', '9月21日国家农业农村部、中央农办确定100个县(市、区)为2017年度农村集体产权制度改革试点单位，平泉市名列其中。', '9月21日国家农业农村部办公厅公布2017 年中国美丽休闲乡村推介名单，承德市两村名列其中，滦平县小城子村入选“特色民居村”，隆化县西道村入选“现代新村”。', '9月22日在承德市奥体中心南广场，400 名志愿者伴随着“低碳生活，绿色出行”的口号骑上了共享单车，共同拉开了承德市首届共享单车骑行公益接力赛的帷幕。', '9月22日是国际“城市无车日”，为提高市民参与环保的积极性，进一步促进城市生态和谐发展，承德广播电视台携手双桥区总工会及爱心企业，联合举办了承德市首届绿色环保低碳出行共享单车骑行公益接力赛活动。', '9月23 日中央人民广播电台中国交通广播FM101.2 特别直播节目走进承德，承德市政府副市长苏铁成通过设在承德广播电视台的直播间，向河北、北京、天津三地听众推介承德市丰富的旅游资源，介绍承德市首届旅发大会的筹备情况。', '9月23日 2017第二届葛兰诵读文化季全国总展演在滦平县举行。“葛兰诵读文化季”是以著名播音艺术家、教育家葛兰教授名字命名的诵读活动。该活动由中华文化促进会、中华女子学院、央广网主办。', '9月26日 “北中国最美森林骑行线”体验赛暨中国·莫里莫山地文化节，在毗邻塞罕坝林场的围场满族蒙古族自治县哈里哈乡莫里莫村正式揭帷。当天，共有来自京津冀及山西、内蒙古的数十名职业选手参加了30公里环形赛道的体验赛，其中不乏多位国内各类自行车赛的冠军级车手。', '9月27日河北民族师范学院纪念孔子诞辰2568周年暨国学经典朗诵专场在热河文庙举行。本次活动由祭孔大典和“纪念大成至圣先师孔子诞辰2568 周年朗诵专场”两个部分组成，由河北民族师范学院、承德市国学研究会、承德市热河文庙管理处主办，承德广播电视大学、承德市头道牌楼街道文庙社区、承德市头道牌楼小学、承德博骏双语学校协办。', '9月28日承德市政府部门行政审批印章封存仪式举行，涉及市发改委、市环保局等部门的22 枚行政审批印章被封存，这标志着承德市行政审批制度改革取得了突破性进展，由此迈入“一局一章管审批”的崭新阶段。', '此外，烈士遗属、因公牺牲军人遗属、病故军人遗属定期抚恤金标准每人每年分别为23850 元、20580 元、19400元。抗日战争时期的在乡复员军人生活补助标准每人每月提高到1245 元，解放战争时期的在乡复员军人生活补助标准每人每月提高到1200 元，1949 年后在乡复员军人生活补助标准每人每月提高到1195 元。', '带病回乡退伍军人生活补助标准每人每月提高到660 元，参战参试退役人员的生活补助标准每人每月提高到650 元。居住在农村和城镇的无工作单位、年满60 周岁的烈士子女的定期生活补助标准每人每月提高到530元。60 周岁以上农村籍退役士兵每服一年义务兵役每人每月补助标准提高到30 元。', '10月8日晚上围场五小广场桥边一年轻男子落水，在水中无力挣扎，被路过此地的市民吴艳成救起。', '10月10日国家文化部印发《关于公布第一批国家级文化产业示范园区创建资格名单的通知》，“21世纪避暑山庄”文化旅游产业园区等10个园区获得第一批国家级文化产业示范园区创建资格。', '10月13日隆化县茅荆坝林场技术人员在基层林区发现河北省首个现存面积最大的红松群落。该红松群落位于茅荆坝林场老局子林区的小槟榔沟和七家林区的大冰朗沟。分别是新中国成立初林业经营所山地育苗地留存的母树和1989 年中国林科院李国由教授引进栽植而成。经过林场专业技术人员调查，红松群落面积32亩，总计816株，最大树龄65年，树木最高15米，最大胸径34厘米。而且长势良好，树干通直，高大挺拔，树冠饱满。该树种在华北地区分布稀少。', '10月14日以“善行旅游共建发展”为主题的2017徒步中国·全国徒步大会河北兴隆站正式“走起”，共有来自全国各地的240余名徒步爱好者参加了此次活动。本次徒步大会线路，第一天全长16 公里，从“关外第一家”起点出发，途经西毛峰峪、黄崖关长城，路况为长城、土路、水泥路、柏油路，终点设置在快活林村；第二天徒步全程23 公里，起点为花市村，终点为蚂蚁沟小学。', '10月15日在第34个国际盲人节到来之际，承德市双桥区志愿者们带着盲人朋友“游览”了避暑山庄，共同度过了一个难忘的节日。', '10月16日 作为京津冀协同发展的又一成果——航天中心医院健康管理部承德分部正式成立。航天中心医院健康管理部始建于1990年，年体检量达6万人次，是北京市三级医院体检机构年体检总量的十分之一，曾荣获“中国健康管理十佳体检机构” 等多项国家级荣誉称号。', '10月17日北京健康扶贫基金会“国奶扶贫工程”暨健康扶贫战略合作启动签约仪式在承德市举行。中国致公党中央支部主委、办公厅局长钱叶用，北京健康扶贫基金会执行理事长朱定良，北京健康扶贫基金会常务副理事长兼秘书长刘小平，中国公益研究院副院长高玉荣，中国乳制品协会副理事长高扶良出席签约仪式。市委副书记张泽峰出席签约仪式并致辞。副市长王成出席签约仪式并讲话。', '此次“国奶扶贫工程”暨健康扶贫战略合作活动由北京联慈健康扶贫基金会联合中国致公党中央支部、中国公益研究院等单位共同发起。在签约仪式现场，北京健康扶贫基金会与承德市分别签订了向贫困家庭0—3 岁婴幼儿无偿捐赠三年国产婴幼儿配方奶粉协议和健康扶贫三年战略合作框架协议。在交接奶粉捐赠牌匾之后，由与会领导和嘉宾分别向贫困家庭婴幼儿家长代表发放捐赠的婴幼儿配方奶粉。', '10月17日由承德日报与阿里巴巴天天正能量联合举办的2017 寻找“最美家乡人”大型公益活动尘埃落定，经过多位专家和评委的多轮评选，最终有10 组团体和个人荣获2017承德“最美家乡人”荣誉称号。名单如下：塞罕坝机械林场望火楼孟庆林夫妇；全军“时代楷模”王锐；编写儿歌倡议做文明市民的九旬老人尹忠；有演唱会后主动捡荧光棒不知姓名的最美女孩；有常年帮扶贫困群众，感召身边众人加入公益事业的爱心企业家王树卫；有共同签下捐献遗体志愿书将“生命”留在人间的一对老夫妻，他们默默地做着有益于他人的事情，却不愿意公开自己的姓名；有司机被电晕命悬一线时，挺身而出舍己救人的80 后农民寇景伟；有在危重病人生死关头，为医生抢救生命开辟绿色通道的交通民警朱洪涛；有获2017“马云乡村教师奖”提名的祁凤兰、刘志付、郝振凯；有立足7 路公交战线将岗位创文明进行到底的一群巾帼模范。', '10月17日至19日天津市政府副市长李树起带领天津市政府代表团一行来承德市对口帮扶县（市）考察。李树起一行分别到对口帮扶的围场、隆化、平泉、兴隆、承德县考察了10 个帮扶项目。', '10月18日承德八中董琳老师在2017 年中国社会艺术协会音乐基础教育委员会举办的SAE 教学能力规范·钢琴师资认证培训中，顺利完成全部课程，被中国钢琴协会授予全国钢琴教育优秀教师称号。', '10月20日丰宁国有林场管理处平顶山林场内的几处冰臼内发现了两亿年前的生物“仙女虾”。该物种在地球上生存已经超过两亿年，与恐龙同时代，因为其外形优美，被称为“仙女虾”。', '10月24日国家发改委、国家人社部等10部委联合下发通知，公布全国135个县为第三批结合新型城镇化开展支持农民工等人员返乡创业试点，宽城满族自治县成功入选。', '10月29日春秋航空新增承德——石家庄——上海新航线，承德市民可以乘坐飞机去上海。', '10月29日中国盲人协会公布：散文诗《奔向光明的颂歌》在首届全国盲人诗歌大赛中荣获一等奖，作者丁建华是本次大赛中唯一一名荣登光荣榜的承德人。', '11月1日承德全市社区卫生服务中心将儿童免费体检从原来的0至3 岁扩大到0至6岁。', '11月1日承德市第十六中学举行速度轮滑场竣工典礼暨河北省冬季体育传统项目学校、承德体育运动学校冬季体育项目分校授牌仪式。全国只有徐州市云兴小学建有此类场地，承德市第十六中学把场地改造成功，意味着其成为全国第二家，北方唯一一家在校内有专业轮滑场地的学校。', '11月2日中华全国新闻工作者协会主办的第二十七届中国新闻奖评选揭晓，承德日报社报送承德晚报参评的新闻作品《潮河情·滦水行——京津冀三地媒体大型联合采访系列报道》荣获全国新闻界最高奖“中国新闻奖”。', '11月2日WCEC2017 世界电子商务大会在北京国际会议中心召开。承德市高新区全承游——旅游智慧平台作为承德市市企业代表之一，受邀参加了会议，凭借企业的突出业绩和在旅游平台的强势竞争力、长远的战略规划以及优秀的电商平台，在本次大会中获得WCEC2017 年度旅游行业最具发展潜力奖。', '11月2日国家农业农村部从全国500 名品德高尚、业绩突出、农民满意的基层农技人员中，择优遴选出100 名“全国最美农技员”。河北省3 人获此殊荣。其中，承德县头沟农业技术推广综合区域站的高级农艺师梁久杰位列其中。', '11月5日 由国家文化部艺术发展中心和承德市人民政府主办的“中国·承德——刺玫瑰”国际微电影节颁奖仪式在承德市畅达大剧院举行。本次颁出了包括刺玫瑰奖、金奖、银奖、铜奖、最佳剪辑、最佳摄像、最佳编剧、最佳导演、最佳男演员、最佳女演员、最佳外语片、优秀奖等多个奖项。2017“刺玫瑰国际微电影节”共有640 部来自世界各地的影片报名参加评奖，作品质量较高，充分显示了“刺玫瑰国际微电影节”较强的吸引力和影响力。最终，最佳男主角奖和最佳女主角奖分别由《不良因子》的男主角嵇波、《小山的秘密》女主角陈利获得。微电影《避暑山庄第73景》获得“刺玫瑰国际微电影节”金奖；纪录片《拾年》获得刺玫瑰大奖。', '11月6日宽城满族自治县化皮溜子镇西岔沟村被认定为河北省特色民俗村类美丽休闲乡村。', '11月7日承德市重点工程停车场改造配建城市绿地公园项目（老二中停车场）开工，预计明年10 月底完工。城市绿地公园项目总用地面积7.9 万平方米，停车场总用地面积1.4 万平方米，能停48 辆大巴车和176 辆小轿车。', '11月8日 中央美院助学助教基地挂牌仪式在承德八中艺术高中举行，标志着承德八中艺术高中正式成为中央美术学院助学助教基地。', '11月9日承德县玉龙山庄幸福家园敬老院党支部书记兼院长丁玉龙获第六届全国道德模范提名奖。', '11月9日在中国社区卫生协会和四川省卫生计生委联合主办的第十二届中国社区卫生服务发展论坛开幕式上，国家卫生计生委基层卫生司副司长诸宏明宣读了《关于发布2017年全国百强社区卫生服务中心名单的通知》，河北省承德市双桥区西大街街道办事处社区卫生服务中心被评为全国优秀社区卫生服务中心，并荣获“全国百强社区卫生服务中心”称号，成为河北全省四个获此殊荣的单位之一，也是承德市唯一获此殊荣的单位。', '11月10日 由国家农业农村部主办的全国农村创业创新项目创意大赛总决赛在苏州落下帷幕。丰宁平安高科实业有限公司参赛的“菊苣功能性农产品产业化项目”经过激烈角逐，从成长组20 个项目中脱颖而出，获得第二名。', '11月10日宽城峪耳崖镇后庄村人民调解委员会主任杨文元被国家司法部表彰为“全国模范人民调解员”。', '11月13日国家人力资源和社会保障部、住房城乡建设部评选表彰了一批全国住房城乡建设系统先进集体、先进工作者和劳动模范。承德热力集团公司被授予“全国住房城乡建设系统先进集体”荣誉称号，是全国唯一一家获此殊荣的供热企业。', '11月16日至12月5日承德市对房地产开发企业和房地产中介机构开展商品房销售价格行为专项检查，对捂盘惜售炒卖房号操纵市场价格等行为进行严查。', '11月16日纪念“中国——卢森堡建交45周年”金山岭长城纪念封揭幕仪式在金山岭长城举行。', '11月17日自5 月15 日至今，经过基层推荐、资格审查、专家评审，经市政府第十四届第四次常务会议审定，决定授予李兰杰、钱晓国、刘春海、王玉宏、耿金川、王春民、高树满、安丽萍、梁彦民、董树国10 名科技工作者首届承德市“科技创新十佳”称号。', '11月17日由中国生态文化协会组织专家评选的“2017年度全国生态文化村”结果出炉，河北省有5 个村落入选，宽城满族自治县桲罗台镇椴木峪村是承德市唯一入选村落。', '11月17日全国精神文明建设表彰大会在北京举行，承德市多家文明单位、文明村镇、文明校园和先进个人受到表彰。塞罕坝机械林场总场党委书记、场长刘海莹参加表彰大会，并代表全国文明单位在大会上发言。', '在表彰大会上，承德市文明办荣获第四届全国未成年人思想道德建设工作先进单位荣誉称号。塞罕坝机械林场总场、承德银行股份有限公司、承德市卫生和计划生育委员会、承德市公安局交通警察支队、承德市审计局、承德避暑山庄及周围寺庙景区管理委员会、承德医学院附属医院、中国建设银行承德分行、河北怡达食品集团有限公司9个单位荣获第五届全国文明单位称号。承德市鹰手营子矿区滨河路小学、承德市实验小学、承德市双滦区第四小学3所学校荣获第一届全国文明校园称号。承德市双滦区偏桥子镇小贵口村、丰宁满族自治县胡麻营镇河东村、承德县新杖子镇苇子峪村、滦平县虎什哈镇西营坊村、宽城满族自治县亮甲台镇北五沟村、隆化县七家镇西道村6个村荣获第五届全国文明村镇称号。承德市玉龙山庄幸福家园敬老院党支部书记兼院长丁玉龙荣获第六届全国道德模范提名奖荣誉称号。', '2017年世界厕所日暨中国厕所革命宣传日活动11月19日在北京举行。国家旅游局发布了自2015年中国“厕所革命三年行动计划”实施以来先进单位榜单，承德、哈尔滨、成都、西安等10个城市获得“厕所革命优秀城市奖”。', '11月21日14时许随着由海南航空执飞的HU7159航班降落在承德普宁机场，承德—石家庄—海口航线就此开通。至此，承德机场开通了6 条航线，分别通达上海、广州、深圳、西安、海口、济宁、石家庄7 个城市，基本形成了承德机场航线的网络布局。', '11月23日第四届全国基层党建创新案例评选结果公布，平泉市获优秀案例奖，为河北省唯一获奖城市。', '11月28日为更好地发挥农村中学科技馆公益项目实施效果，不断适应和满足广大农村地区青少年日益增长的科普需求，中国老科协决定对承德市6个民族县市重点中学给予支持，建设农村中学科技馆公益项目。6个民族县市即：围场、丰宁、宽城、隆化、滦平、平泉，支持每县市各20万元，总共120万元。6 所中学即平泉市小寺沟中学、宽城满族自治县第三中学、丰宁满族自治县第四中学、围场满族蒙古族自治县第一中学、隆化第二中学和滦平第二中学。', '12月1日截至即日，“厕所革命”开展三年以来，承德全市共新建改建旅游厕所809 座，直接投资近2.3 亿元，并涌现出金山岭长城景区厕所、避暑山庄金山厕所、双塔山旅游厕所等一批高颜值、高品质的厕所。', '12月1日由人民日报全国党媒公共平台和人民网联合主办的首届全国党媒优秀原创视频评选结果揭晓。中共兴隆县委组织部自制的微视频《组织部的年轻人》从全国268部作品中脱颖而出，喜获2017 全国政企优秀原创视频“十佳作品奖”。', '12月2日在“国家宪法日”即将到来之际，由中国法学会法治文化研究会主办，《民主与法制》社、中共承德市委政法委、市法学会协办的“法治乡村”大型系列宣传暨典型经验推广活动在双桥区大石庙镇石门沟村启动。', '12月2日是“全国交通安全日”，当天，河北省公安厅交通管理局在省会石家庄举办“尊法守规明礼安全文明出行”主题活动。活动现场颁发了“零违法油奖励”自律挑战赛年度大奖，河北全省共5 名好司机获“文明交通自律挑战赛”年度大奖，其中包括承德市驾驶人兰晓峰。', '12月3日河北省塞罕坝机械林场代表一行3人启程赶赴位于肯尼亚的联合国环境规划署，参加联合国第三届环境大会。', '12月3日2017全国候鸟旅居小城共建大会暨第四届国际候鸟（粤港澳大湾区）健康旅居产业论坛在深圳举行。会上发布了“2017中国候鸟旅居小城”入选名单，河北10个县（市、区）上榜，其中兴隆县、围场满族蒙古族自治县、平泉市入选全国十佳。', '12月5日联合国环境规划署宣布，中国塞罕坝林场建设者获得2017年联合国环保最高荣誉——“地球卫士奖”。', '12月6日一架红色的小型救援直升飞机降落在中国人民解放军第二六六医院的广场上，随即，一辆载有重症伤员的救护车停到直升机前，在医护人员的护送下，患者成功向其他医院转移……一场紧急救治的演习，标志着承德市“空中救援”平台的成功建立，今后市民如出现紧急病情，将可通过“空中救援”获得快速救治。', '12月7日由中国交通运输协会、海南省商务厅、海南省交通运输厅主办的，中国物流品牌大会暨2017中国物流业大奖“金飞马”奖颁奖仪式在海南隆重举行。河北旅游职业学院获得“最受物流行业欢迎的院校”奖。', '12月8日“互联网+儿童保护”行动暨中国儿童虹膜防丢网络平台承德站启动仪式举行。这是继沧州、保定、石家庄后，河北省第四个启动虹膜录入工作的城市。平台首次将先进的虹膜识别技术应用于儿童安全领域，为0-12岁的儿童录入虹膜信息，建立儿童虹膜数据库，从而提高失踪儿童被找回几率。', '12月8日承德市市主城区（双桥区、双滦区、承德高新技术产业开发区）成功被确定为“十三五”国家服务业综合改革试点区域。', '12月8日国家文化部下发了《文化部非物质文化遗产司关于公布2018 年度非遗保护传承观察点名单的通知》，公布了2018年国家级非遗保护传承观察点32个，丰宁满族自治县入选，为河北省唯一入选县域。', '12月8日由中国大学生体育协会与中国和球运动推广委员会联合主办的“2017 年全国大学生和球锦标赛”落幕，承德市河北民族师范学院与9省区市19支高校代表队激烈角逐，获得普通组冠军。', '12月9日“中国体育彩票·避暑山庄杯”第五届国际轮滑冰上自由式轮滑（轮转冰）公开赛在河北承德开幕。来自国内外的79支轮滑代表队，1380名运动员同场竞技。', '12月10日第十二届河北省精神文明建设“五个一工程”奖评选揭晓，由承德市组织创作并选送的河北梆子《卧云岭》和歌曲《当个好官有啥难》2部优秀作品榜上有名。', '12月11日正在北京出席“中国环境与发展国际合作委员会”年会的联合国副秘书长、联合国环境规划署执行主任埃里克·索尔海姆在接受中国青年报·中青记者采访时说，塞罕坝三代人不懈努力植树造林的故事激励着所有的人，他们用行之有效的方式让森林回来，并证明退化的环境是可以修复的。当前，全球许多地区都在进行植树造林的工作，塞罕坝林场建设者的事迹将推动这一进程。', '12月11日第十届亚洲气枪射击锦标赛在日本拉开战幕。承德籍射击运动员杨皓然代表河北省入选了国家队的出征名单。比赛中，杨皓然发挥出色，携队友夺得男子10米气步枪成年组比赛团体冠军。', '12月12日中共河北省委书记王东峰与塞罕坝机械林场“地球卫士奖”获奖代表进行座谈。他强调，河北全省广大党员干部群众要认真学习贯彻习近平总书记关于塞罕坝机械林场的重要批示精神，大力弘扬塞罕坝精神，深入推进全省生态文明建设和绿色发展。会议结束后，王东峰、许勤等将一件围巾披在林场第一代建设者陈彦娴的肩上，表达崇高敬意。', '12月13日中共中央国家机关工委主管的重要党刊《紫光阁》（2017 年第12 期）以《搭建“公述民评”的“三方联动”监督平台——聚焦电视问政的“承德样本”》为题，对承德电视问政工作的成功经验和做法进行了专题报道，承德电视问政工作经验走向全国。2017 年6 月19 日，旨在践行习近平总书记“以人民为中心”治国理政理念的电视问政节目在承德电视台正式开播。目前已播出15期，共有14 个部门接受了问政，播出回访整改1 期，受到广大群众的普遍欢迎，引起了社会各界的强烈关注。', '12月13日 河北省文明委公布了首届河北省文明城市（城区、县城）名单，承德市入选首届河北省文明城市名单，荣获首届“河北省文明城市”称号，平泉市入选首届河北省文明城市县级市名单，滦平县、围场满族蒙古族自治县荣获首届“河北省文明县城”称号。', '12月13日国家农业农村部下发了《关于启动第一批国家农业可持续发展试验示范区建设开展农业绿色发展先行先试工作的通知》，公布了第一批40个国家农业可持续发展试验示范区，围场满族蒙古族自治县入选，成为河北省唯一入选县域。', '12月14日河北省政府副省长王晓东带领省有关部门负责同志到承德市调研。王晓东先后实地考察了承德大数据研发展示中心和“厕所革命”工作开展情况。随后召开座谈会，听取省、市有关部门和企业关于第三届省旅发大会筹备和中美友谊示范农场建设情况汇报，现场研究解决工作中存在的困难和问题。', '12月15日在中央电视台重大主题宣传新媒体平台“1 号线上”举行的2017 年“大美中国·喜看金秋”微视频展播中，滦平广播电视台选送的《秋到白草洼》微视频荣获“大美微视频”，滦平荣获2017 年“最美收获地”称号。', '12月15日 一部在承德市农村全程取景拍摄的公益题材电影《来自星星的少年》在承德大剧院举行了首映仪式。', '12月19日承德市第十四届人民代表大会常务委员会第六次会议决定免去魏莉、邓子来的承德市人民政府副市长职务。', '12月20日在首届《中国绿色时报》年度峰会暨2017中国森林氧吧论坛上，丰宁满族自治县平顶山森林公园被评为“2017中国森林旅游年度成长力旅游地”。全国获此殊荣的19个单位中，河北省仅此一处。', '12月22至23日 国家环境保护部党组书记、部长李干杰在承德市围场满族蒙古族自治县、隆化县开展定点扶贫调研慰问，参观塞罕坝机械林场展览馆，走访慰问贫困户，查看扶贫项目，并召开定点扶贫工作座谈会。在座谈会上，李干杰听取承德市环境保护和扶贫开发有关情况的汇报，听取围场、隆化两县以及七家镇、唐三营镇、韩家店乡、山湾乡、海岱沟村脱贫攻坚工作汇报，对进一步推动精准帮扶、支持两县打好精准脱贫攻坚战提出要求。', '12月22日京承高速公路承德收费站仿清式收费遮棚项目顺利通过竣工验收，标志着承德市“迎送八方客”的南大门门户建筑正式落成投入使用。', '12月22日由国家体育总局组织的2017年全国体育事业突出贡献奖评选工作结束，承德市体育运动学校荣获“全国体育事业突出贡献奖先进集体”。此次评选河北省仅有三家单位入选，其中承德市体育运动学校是河北省唯一一所获奖的单位。', '12月22日由教育部学校规划建设发展中心主办的首届电子商务实战技能大赛在厦门落下帷幕。宽城职教中心“龙卷风”代表队荣获本次大赛中职组团体二等奖。', '12月24日2017——2018年全国大众速度滑冰马拉松系列赛（承德避暑山庄站）首站比赛，在避暑山庄内湖区冰面上鸣枪开赛。该赛事已连续四年在承德市举办。', '12月25日至27日 河北省人大常委会副主任、财经委主任委员王雪峰带领省人大财经委调研组来承德市就2017 年计划和预算执行情况及2018 年计划和预算安排情况进行调研。调研组一行先后前往德鸣大数据产业园、河北航研制冷设备有限公司、承德舒适家用品有限公司、避暑山庄企业集团酒文化博物馆、承德华净活性炭有限公司、绿河现代食用菌产业扶贫园区进行实地考察，分别听取了承德市政府、平泉市政府工作情况汇报，并与各相关部门负责人进行了座谈。', '12月25日国家减灾委员会、民政部下发“关于公布2017年全国综合减灾示范社区名单”的通知。河北省有60个社区入选，其中包括承德5个：承德市畅园社区；承德市滨河社区；承德县杨村社区；隆化县隆化镇四道营村社区；围场满族蒙古自治县大头山乡双月村社区。', '12月27日国家民政部将双滦区确认为首批全国农村社区治理实验区，该实验区的实验内容为“以农村基层党建为统领，推动多方主体参与农村社区治理”。实验时间从2018 年1 月至2021年1月，为期3 年。', '12月28日 由中共河北省委网信办和新华网共同主办的“中国网事·感动河北”2017年度网络人物颁奖典礼在河北地质大学春秋讲堂落幕。10位（组）草根英雄荣获年度网络人物称号，承德市丰宁满族自治县中职生孙海宁荣获年度网络人物称号，塞罕坝机械林场群体被授予特别奖。', '12月28日 国家文化部公示了第五批国家级非物质文化遗产代表性项目及代表性传承人名单，其中河北有45人上榜，滦平县“抡花”当代传承人梁志福上了“国家榜”，成为承德市该批次国家级非遗传承人名录中唯一上榜非遗项目。', '12月28日在人民日报社人民论坛杂志社、国家治理周刊、人民智库主办的“习近平新时代中国特色社会主义思想研讨会——2017 第四届国家治理高峰论坛年会”上，发布了2017精准扶贫典型经验课题成果，10家地方政府、10家企业分别获得“2017精准扶贫10佳典型经验”。平泉市产业扶贫的“三零”模式位列其中。', '12月29日中国地方志指导小组办公室在北京人民大会堂举办首届中国地情论坛暨首届全国名村论坛，河北省承德市围场满族蒙古族自治县《庙宫村志》 成功列入首批“中国名村志文化工程”，是河北省唯一列入此工程的村志。', '12月30日国家发改委印发首批国家农村产业融合发展示范园创建名单，滦平县农村产业融合发展示范园入选。', '12月30日“为梦想而歌唱”承德首届流行音乐大赛颁奖盛典暨2018 跨年演唱会在承德剧场举行。此次活动由承德广播电视台FM1006 旅游音乐广播与承德市音乐家协会流行音乐学会合力打造。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>市财政局加强综合治税助力全市财政稳步增长</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017-12-21</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F12%2F21%2Fart_362_9889.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_9889</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['本网讯（冯艳霞、刘洋） 今年以来，我市综合治税工作紧紧围绕服务领导决策、服务税收征管，服务部门履责“三个服务”意识，服务中心工作，积极参与财源建设调查，不断开创综合治税服务大局的新路子；开发建设综合治税信息平台，形成信息管税的强大合力，助推全市综合治税工作新发展；组织开展税收专项清查堵漏增收，不断建立完善综合治税新机制。1——11 月份，全市共采集涉税信息174 万条，税务部门有效利用97 万条，通过综合治税增加收入9.9 亿元，占全市税收收入149.1亿元的6.6%，同比增收4.5 亿元，助力我市财政收入持续稳定增长。', '服务中心工作，积极参与财源建设调查，不断开创综合治税服务大局的新路子。为落实市委、市政府生态强市、魅力承德建设的战略部署，建立可持续性发展的财源体系，实现财政与经济的良性互动，市财政局组织开展了全市财源摸底和发展建设调研，市综合治税办积极参与财源建设调查，牵头组成专题调研组为财源建设出谋划策。通过基础数据搜集、税收贡献调查、数据挖掘分析、专题座谈交流、外地学习考察等方式，形成了《承德市财政局关于大力培植财源增强财政实力提升经济发展活力的调研报告》，对全市财源基本情况、存在的主要问题等进行详细分析和研究，形成了提升财源建设水平的思路举措、工作建议，得到了市委、市政府主要领导的批示。省财政厅赵建国副巡视员对我市立足培育新的税收增长点，加强税源建设，不断开创综合治税服务大局的新路子的做法给予充分肯定。', '开发建设综合治税信息平台，形成信息管税的强大合力，助推全市综合治税工作新发展。近年来，在各级综合治税办、综合治税成员单位的大力配合下，我市综合治税工作不断取得新进展。遵循依托大数据，建立信息管税新格局的总思路，在总结隆化县金鹰税源管理系统经验的基础上，对标山东省、长沙市做法，我市与全国最大的财政政务软件提供商用友公司合作，研发了承德市综合治税信息系统。该系统旨在通过涉税信息采集、整理，筹建起全市综合治税数据库，在此基础上建立完善数据挖掘、数据比对、纳税评估、监测分析应用的模型和流程，促进数据信息到成果的转变。经过近一年的努力，全市综合治税信息系统完成招标采购、系统主体功能研发等工作，进入涉税数据采集、功能测试完善阶段。全市综合治税信息管理系统的上线运行，必将形成信息管税的强大合力，助推我市综合治税工作的新发展。', '组织开展综合治税专项清查，堵漏增收，不断建立完善综合治税新机制。今年以来，全市依托综合治税信息平台，以信息治税为支撑，全力推进了省统一部署的财政投资建设项目源头控税等12 项税收专项清查和全市“6321”税收专项清查。结合税源实际状况，通过大数据分析、纳税辅导、走访调研等途径，全面摸清税收征管到位情况，找准税收漏点，分析管理难点，抓住关键环节，有针对性地制定源头控税措施，堵塞税收漏洞，公平行业税负。以信息采集应用为主线，建立信息管理、信息应用、专项治理相互协调、互为依托的综合治税工作运行机制。建立工作反馈机制，对各项专项清查工作逐项总结，梳理工作开展情况，分析查找存在问题与差距，研究提出改进措施。对清查中好的经验做法及时总结推广，将部门配合职责固化为工作制度，形成源头控税的长效机制。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>10</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>政协承德市第十四届委员会年工作综述</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2018-02-01</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F2%2F1%2Fart_360_58404.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_58404</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['本网讯 2017年是我们党和国家发展进程中具有划时代意义的重要一年，中共十九大胜利召开，中国特色社会主义进入新时代。十四届市政协与时代同行，走过了不平凡的发展历程，在中共承德市委的领导下，动员各级政协组织、各参加单位和广大政协委员，坚持以习近平新时代中国特色社会主义思想引领航向，深入贯彻落实中共十八大、十九大精神，紧紧围绕省第九次党代会、市第十四次党代会的安排部署，突出团结和民主两大主题，把协商民主贯穿履职全过程，坚持在继承中创新发展，聚焦中心、担当作为，凝心聚力、真抓实干，政协工作实现良好开局，为开创新时代建设生态强市、魅力承德新局面做出了积极贡献，续写了政协事业新篇章。', '强化政治责任。团结引领各党派团体和各族各界人士，高举中国特色社会主义伟大旗帜，坚定“四个自信”，坚持政协性质定位，紧紧围绕唱响中华民族伟大复兴中国梦的承德篇章，夯实团结奋斗的共同思想政治基础。强化“四个意识”。坚持党的领导，坚决维护习近平总书记在党中央和全党的核心地位，坚决同以习近平同志为核心的党中央保持高度一致，与省委、市委同心同向同行，确保中央和省市委各项决策部署在政协工作落地生根。强化理论武装。深入推进“两学一做”学习教育常态化制度化，坚持用习近平新时代中国特色社会主义思想武装头脑，认真贯彻落实新发展理念。通过党组理论学习中心组集中学习、党员干部宣讲、组织专题辅导、文艺书法绘画展演等多种形式，深刻领会党的十九大报告的思想精髓、目标任务、基本方略和战略部署，准确把握新时代政协工作的新部署新要求。强化使命担当。在继承历届政协良好工作基础上，确立了“在全国有影响、在全省有位置、在全市有作为、在全民有口碑”的目标要求。坚持目标导向和问题导向，加强和改进调研视察工作，增强建言深度和实效。', '广泛汇聚力量助推协同发展和脱贫攻坚。深入开展“四引四帮”主题实践活动。截至2017 年底，各级政协组织、各参加单位和广大政协委员共引进绿色产业项目102 项、总投资81.8 亿元，引进发展资金24.9 亿元，引进高端人才104 人，引进科技成果52 项；帮建脱贫项目164 项，帮办惠民实事941 件，帮扶困难家庭1.3万户、捐款捐物1568 万元，为5412 名困难学生捐助资金702 万元，涌现出一批优秀单位和个人。聚焦水源涵养功能区建设深入协商议政。将加快推进农村垃圾污水治理列为常委会专题议政重点课题，并作为“1 号提案”进行重点办理。自2017 年6月初开始，经过3 个多月的实地调研、专项视察和专题协商，在丰宁、围场、隆化、滦平建立了4 个示范点，组织相关人员深入滦平、兴隆、承德县进行现场协商办理，并赴安徽、陕西学习考察，市政协十四届三次常委会会议进行了专题协商议政，向市委市政府提交了《坚持集中与分散处理相结合，整体提升全市农村生活垃圾污水治理能力的建议》，提出4 项12 条对策建议。市委书记周仲明、市长常丽虹和多位党政领导作出重要批示，指出：强化水源涵养、生态支撑，这是个大问题、硬任务，市政协“1 号提案”抓住了承德市生态文明建设和农村环境治理的关键，从情况分析、理念视野到解决的路径和举措，全面、系统、创新、求实，对推动这项系统工程启发很大。市委市政府“两办”以正式文件将政协建议印发。《承德日报》进行了系统综述，《人民政协报》作了专题报道。紧扣转型升级绿色发展积极建言献策。市政协十四届二次常委会会议围绕推进农业供给侧结构性改革、加快脱贫攻坚步伐进行了专题协商议政，提出23 条具体建议。市委市政府主要领导给予高度评价并作出重要批示，要求有关部门系统研究、抓好落实。在省政协十一届二十三次常委会会议上，市政协提交了《发展功能农业，提升产品品质，扎实推进农业供给侧结构性改革》的大会发言，被编入省政协向省委省政府报送的会议材料汇编。围绕推动市委市政府《关于实施质量强市加快绿色崛起的实施意见》的贯彻落实，对标山东等地先进经验，系统地提出建议。围绕推进康养产业发展，专程到山东威海、四川攀枝花和贵州遵义、赤水等地学习考察，以政协专报向市委主要领导提出建议。同时，就加快农村集体经济股份权能改革、推进特色小镇建设、推动潮河流域建立水环境横向生态补偿机制、支持科技型中小企业创新助力实体经济发展等，提出一批高质量、有价值的决策建议。', '深化与各民主党派和工商联的合作共事。建立了市政协党组成员分工联系市各民主党派、工商联制度和秘书长联席会议常态化制度。党组成员与党外副主席在党组集中领导下独立负责地做好分管和协管工作。开通重大事项和重要工作绿色通道，鼓励和支持各民主党派、团体和无党派人士充分利用政协平台参政议政、开展民主监督。市各民主党派专职副主委、工商联专职副主席兼任市政协相关专委会副主任，增强了政协工作的凝聚力。支持党派团体发挥各自优势服务承德发展大局。市民革协调“中青城投”与市政府签订了战略合作框架协议，加强在生态建设、脱贫攻坚、产业发展等领域的合作；市民盟积极组织盟员进社区开展司法援助；市民建连续多年开展大型公益捐赠活动，帮助基层医疗单位解决救护车辆不足问题；市民进、市农工党和市九三学社动员所属党员、会员广泛开展文化、医疗、教育和科技下乡活动，与京津两市区县对口委员会建立战略友好合作关系；市工商联深入开展“千企帮千村”精准扶贫行动，加强与外埠工商联和商会的沟通联系，邀请中冀投资集团与市政府签订战略合作框架协议，与相关单位开展全面对接合作，引导市民营企业家和驻承商会积极开展科技扶贫、捐资助教、扶危济困等活动；市侨联积极邀请旅菲各校友会联合会来承考察，吸引旅菲侨胞投资兴业；团市委、市妇联、市总工会、市科协、市文联、市残联、市社科联等各人民团体充分发挥各自职能，在围绕中心服务大局中作出了积极贡献。用真情办实事促进民族团结、宗教和睦。注重发挥少数民族、宗教界委员的独特作用，积极支持和推动少数民族乡村经济社会发展；加强与宗教界的联系联谊，坚持经常性地深入我市五大宗教活动场所走访调研，促成“恢复市区药王庙为道教活动场所”问题得到圆满解决。充分发挥港澳台侨代表人士在对外联络、招商引资、信息交流等方面的积极作用。通过举办新年茶话会、召开座谈会等方式，用中共十九大精神统一思想、增进共识、凝聚发展合力。', '着力提升委员履职能力。在携手迁安市政协利用市委党校举办政治知识培训班的基础上，2017 年开办了三期承德“政协大讲堂”，结合常委会专题议政性会议，邀请国家知名专家学者进行授课，收到良好效果。着力激发委员主体作用。建立了“五携手”工作机制，让委员主体作用发挥得更充分更有效。着力强化民主监督职能。认真贯彻落实中共中央《关于加强和改进人民政协民主监督工作的意见》，协助市委制定出台了我市的《实施意见》。2017 年，围绕“精准扶贫、精准脱贫”和“转作风、优环境、促发展”两项重点，对“六种”精准扶贫模式，执法部门、行政审批和窗口服务部门的服务意识、办事效率、工作落实、机关风纪等进行了监督。围绕省政协重点工作，组织开展了对“滥挖山体河道”情况进行的专项民主监督活动，及时向省政协报送了《关于推进清洁取暖改善大气环境质量》的专题调研报告。着力推动文史资料工作创新作、出精品。《图说热河革命史》正式出版，《和合承德》完成书稿大纲编写工作、进入初稿写作阶段，完成《热河抗战教辅材料》编印前期工作，开展了《承德政协70 年掠影》和《政协口述史》谋划与征编工作。与北京外国语大学合作完成翻译作品《海外承德（热河）研究译丛》前期工作并进入实施阶段，在该校历史学院成立大会上向出席会议的18个国家的22 所海外“孔子学院”赠送了市政协编著的文史书籍，受到普遍赞誉。着力加强政协宣传工作。《人民政协报》、中国新闻网、《河北日报》、省政协《乡音》杂志等诸多国家和省级新闻媒体，对我市弘扬塞罕坝生态文明范例加强生态建设和环境保护、市政协开展“四引四帮”主题实践活动助力协同发展和脱贫攻坚、加强农村生活垃圾污水治理推动水源涵养功能区建设等情况，进行了广泛深入报道。市政协创新性工作举措及其成效，被省政协直报省委省政府的《政协视角》登载，在全省政协系统推广。', '加强制度体系建设，推动政协工作制度化、程序化和规范化。制定完善了党组工作规则、主席会议工作规则、常务委员会工作规则、专门委员会工作通则和关于进一步加强与市各民主党派和工商联及县区政协工作联系的暂行办法、加强和改进专题调研工作的指导意见、加强和改进领导干部作风的规定等一系列制度规范。认真落实重大事项请示报告制度，科学制定协商民主工作计划，呈报市委批准后组织实施。重要会议和每项调研、视察考察活动后，编制《政协会刊》和《会议纪要》，及时留档并跟踪督办落实。加强思想行动自觉，切实改进工作作风。常委会组成人员带头转变作风，深入基层和一线开展调研视察，尽政协所能为承德发展办实事、为百姓谋福祉。加强管党治党责任，始终把纪律规矩挺在前面。2017 年4 月下旬专门召开了第一次党风廉政建设工作会议。坚持市政协机关每周五下午固定日学习制度；组织机关全体人员并邀请市各民主党派和工商联干部到市廉政教育基地进行廉政教育。认真开展“一问责八清理”和“微腐败”专项治理，严格遵守中央八项规定及其实施细则，以“转、优、促”为引导，下大力整治不作为慢作为乱作为行为。全力支持市纪委驻市政协机关纪检组工作，自觉主动接受纪检组对政协工作开展情况的全过程执纪监督。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>10</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>承德代表团赴秦皇岛学习考察</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017-09-27</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F9%2F27%2Fart_9945_203289.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_203289</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['秦皇岛市委书记孟祥伟，市长张瑞书，市领导田金昌、刘辰彦、薛永纯、李国勇、冯国林、冯志永、李春、赵方出席相关活动。我市市领导韩福才、刘文勤、张泽峰、丁伟、吴清海、苏铁成、张富民参加学习考察。', '24日，我市代表团一行先后到北戴河游客中心、国际康养中心、昌黎葡萄小镇、金士酒庄、天女小镇、板厂峪景区等旅游龙头项目进行实地参观，考察山海旅游观光铁路，体验铁路沿线的花海油葵景区、开埠地码头车站以及海誓小院等项目。所到之处，代表团成员纷纷用手机拍下沿途美景，对各个旅游项目建设的理念、功能、品牌等情况进行了详细了解。在随后的座谈会上，代表团认真听取了秦皇岛市承办省旅发大会相关工作情况介绍。', '周仲明首先对秦皇岛市精心的安排、周到的服务表示感谢，对秦皇岛市承办第二届省旅发大会取得的优异成绩表示祝贺。周仲明说，秦皇岛刚刚举办了一届极具感染力、极具冲击力、极具震撼力的旅游产业发展大会，为全省全域旅游发展提供了鲜活经验，尤其是为承德举办好全省第三届旅发大会提供了生动样板，这次学习考察，对承德的意义非比寻常。', '周仲明指出，这是一次学习之旅，我们要学习秦皇岛在筹办大会过程中强烈的责任意识、机遇意识和担当意识，学习运用新理念指导新建设的思路，学习大手笔谋划、大手笔运作各类旅游项目，学习坚持实事求是、创新发展、创新体制办会，学习充满激情、真抓实干的干部作风，学习始终坚持以人为本、坚持旅游产业发展与惠及民生紧密结合的发展理念。', '周仲明指出，这是一次收获之旅，我们一路参观、一路学习、一路思考，在旅游产业发展上，既让我们看到了差距和不足，又找到了下步努力方向，增添了成功办会的信心。', '周仲明指出，这是一次友情之旅，承德与秦皇岛一衣带水、情同兄弟，邻居越走越近，亲戚越走越亲，这次学习考察，我们收获了无比宝贵的先进经验，更收获了真挚的友谊情感，希望两市进一步加强联系，建立更加紧密的协作关系，积极推动更宽领域、更高层次的交流与合作。', '孟祥伟代表秦皇岛市四大班子和300万港城人民对承德市代表团表示欢迎，并指出，在第二届省旅发大会上，秦皇岛充分展示了自己的风采，其成功之处在于按照精简、务实、发人深省的办会总要求，在具体工作中，注重把握好旅游发展会和业的关系、旅游项目新和旧的关系、项目观摩点、线、面的关系、项目形象展示虚和实的关系、政府和企业的主体关系、项目建设质和量的关系、筹办会议成本和收益的关系、办会目标物和人的关系等八个关系。这次旅发大会尽管取得了成功，但也从中查找到许多不足，明确了我们今后努力的方向。', '孟祥伟表示，承德作为全国首批历史文化名城和优秀旅游城市，生态旅游、森林草原观光游、皇家文化等旅游资源体量和品质是当之无愧的河北之最，特别是习近平总书记对塞罕坝林场建设者感人事迹作出重要指示，以塞罕坝生态文明建设范例为榜样，大力弘扬塞罕坝精神，在全国引起了强烈反响。我们坚信在省委、省政府的坚强领导下，省旅发大会一届比一届圆满，也期待着第三届省旅发大会在承德精彩呈现。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>10</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>刘文勤在市政协加快推进我市主城区现代公共文化服务体系建设季度协商会上要求加大力度补齐文化短板创新机制解决供需矛盾</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017-10-18</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F10%2F18%2Fart_360_59784.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_59784</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 刘文勤在市政协加快推进我市主城区现代公共文化服务体系建设季度协商会上要求 加大力度补齐文化短板 创新机制解决供需矛盾', '刘文勤在市政协加快推进我市主城区现代公共文化服务体系建设季度协商会上要求 加大力度补齐文化短板 创新机制解决供需矛盾', '本网讯（记者管陈子） 10 月17日，市政协召开加快推进我市主城区现代公共文化服务体系建设季度协商会议。市政协主席、党组书记刘文勤主持会议并讲话，市政府副市长郭士刚出席会议并讲话，市政协副主席、党组副书记柴山，市政协党组副书记王学，市政协副主席关继高、信祥，市政协领导胡晓红，市政协党组成员高嵩，市政协秘书长单化军出席会议。', '会议协商讨论了市政协专题调研组《关于加快推进我市主城区公共文化服务体系建设的建议（草案）》；部分市政协委员、市公共文化服务体系建设领导小组成员单位负责人、基层公共文化服务从业人员代表进行了发言。', '刘文勤指出，此次协商会议将加快推进我市主城区现代公共文化服务体系建设作为协商议题，推动解决我市公共文化服务工作中存在的一些亟待加强和解决的问题，回应政协委员的呼声和人民群众日益增长的精神文化需求，是贯彻落实市第十四次党代会关于确保脱贫摘帽、全面小康，加快建设生态强市、魅力承德总目标的现实需要，也是创建文明城市的重要举措。对此，市政协高度重视，将之列为重点协商议题，组成专题调研组，深入基层调查研究，并赴先进地区学习考察，通过实地调研、发放调查问卷、召开不同层面座谈会、聘请专家把脉会诊，形成了本次会议的建议稿草案。建议稿凝聚了全市上下的集体智慧，是本次季度协商会议的重要议政成果。会上各阶层代表从各自不同角度，针对我市公共文化服务体系建设中存在的实际问题提出很好的意见和建议，为建议稿的修改完善提供了很好的指导。', '刘文勤强调，一是要在解决思想站位上下功夫。文化资源是承德突出的优势，但我们要看到差距，要把落实公共文化服务体系建设摆在以人民为中心发展的高度，摆在增强“四个意识”、坚定“四个自信”的高度，摆在脱贫攻坚和全面小康建设的高度，摆在落实承德“三区一城”发展定位，建设生态强市、魅力承德的高度来认识。二是要在补齐文化短板上下功夫。在硬件设施建设上推动文化中心建设，解决好有效利用问题，推动资源共享，加强人才培养和引进。三是要在解决供需矛盾上下功夫。把群众的需求掌握准，把现有的产品供应好，把非遗文化“活起来”，把京津文化引进来，把创新文化培植起来。四是要在体制机制创新上下功夫。进一步落实好市县两级财政稳定投入机制，注重研究社会力量办文化的激励机制，加大落实好政府购买服务机制，探索走好开展乡镇文化双重管理机制，积极推动将公共文化服务体系建设纳入政府考核。', '郭士刚充分肯定了市政协专题调研组《关于加快推进我市主城区现代公共文化服务体系建设的建议（草案）》，并就如何加快推进我市主城区现代公共文化服务体系建设提出指导性意见。他说，在今后的工作中，市政府将结合本次季度协商会议的精神，持续加大文化投入，不断完善公共文化设施，积极发展公益性文化事业，全面提升现代公共文化水平，努力为全市人民构建良好的现代文化服务体系。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>市教育局赴赤峰市学习考察</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F9%2F25%2Fart_9945_203279.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_203279</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['日，承德市教育局局长王国维同志带领局有关领导、相关科室负责人和部分普通高中校长赴内蒙古赤峰市进行学习考察，考察组先后到红旗中学和锦山中学进行实地考察，详细了解了赤峰市近些年在高中教育管理体制改革方面的主要做法和经验，并与赤峰市教育局就实施高中带动战略、推动区域教育均衡发展等问题进行了座谈交流。考察组一致认为，赤峰市实施的高中带动战略取得了宝贵经验，对我市制定出台《加快普通高中教育改革与发展的意见》具有借鉴意义，希望今后双方能够加强交流、互学互鉴、取长补短、共同发展，为教育事业创造更加良好的发展环境。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>10</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>承德代表团赴秦皇岛学习考察</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F9%2F25%2Fart_360_59662.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_59662</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['本网讯（记者郎宝生）9月23日至24日，市委书记周仲明、市长常丽虹率代表团赴秦皇岛市学习考察秦皇岛承办第二届省旅发大会的先进经验与做法，通过学习观摩、座谈交流，巧借他山之石，创新思路、开拓视野，更好地完成我市承办第三届省旅发大会任务。', '秦皇岛市委书记孟祥伟，市长张瑞书，市领导田金昌、刘辰彦、薛永纯、李国勇、冯国林、冯志永、李春、赵方出席相关活动。我市市领导韩福才、刘文勤、张泽峰、丁伟、吴清海、苏铁成、张富民参加学习考察。', '24日，我市代表团一行先后到北戴河游客中心、国际康养中心、昌黎葡萄小镇、金士酒庄、天女小镇、板厂峪景区等旅游龙头项目进行实地参观，考察山海旅游观光铁路，体验铁路沿线的花海油葵景区、开埠地码头车站以及海誓小院等项目。所到之处，代表团成员纷纷用手机拍下沿途美景，对各个旅游项目建设的理念、功能、品牌等情况进行了详细了解。在随后的座谈会上，代表团认真听取了秦皇岛市承办省旅发大会相关工作情况介绍。', '周仲明首先对秦皇岛市精心的安排、周到的服务表示感谢，对秦皇岛市承办第二届省旅发大会取得的优异成绩表示祝贺。周仲明说，秦皇岛刚刚举办了一届极具感染力、极具冲击力、极具震撼力的旅游产业发展大会，为全省全域旅游发展提供了鲜活经验，尤其是为承德举办好全省第三届旅发大会提供了生动样板，这次学习考察，对承德的意义非比寻常。', '周仲明指出，这是一次学习之旅，我们要学习秦皇岛在筹办大会过程中强烈的责任意识、机遇意识和担当意识，学习运用新理念指导新建设的思路，学习大手笔谋划、大手笔运作各类旅游项目，学习坚持实事求是、创新发展、创新体制办会，学习充满激情、真抓实干的干部作风，学习始终坚持“以人为本”、坚持旅游产业发展与惠及民生紧密结合的发展理念。', '周仲明指出，这是一次收获之旅，我们一路参观、一路学习、一路思考，在旅游产业发展上，既让我们看到了差距和不足，又找到了下步努力方向，增添了成功办会的信心。', '周仲明指出，这是一次友情之旅，承德与秦皇岛一衣带水、情同兄弟，“邻居越走越近，亲戚越走越亲”，这次学习考察，我们收获了无比宝贵的先进经验，更收获了真挚的友谊情感，希望两市进一步加强联系，建立更加紧密的协作关系，积极推动更宽领域、更高层次的交流与合作。', '孟祥伟代表秦皇岛市四大班子和300万港城人民对承德市代表团表示欢迎，并指出，在第二届省旅发大会上，秦皇岛充分展示了自己的风采，其成功之处在于按照“精简、务实、发人深省”的办会总要求，在具体工作中，注重把握好旅游发展“会”和“业”的关系、旅游项目“新”和“旧”的关系、项目观摩“点、线、面”的关系、项目形象展示“虚”和“实”的关系、政府和企业的主体关系、项目建设“质”和“量”的关系、筹办会议成本和收益的关系、办会目标“物”和“人”的关系等八个关系。这次旅发大会尽管取得了成功，但也从中查找到许多不足，明确了我们今后努力的方向。', '孟祥伟表示，承德作为全国首批历史文化名城和优秀旅游城市，生态旅游、森林草原观光游、皇家文化等旅游资源体量和品质是当之无愧的“河北之最”，特别是习近平总书记对塞罕坝林场建设者感人事迹作出重要指示，以塞罕坝生态文明建设范例为榜样，大力弘扬塞罕坝精神，在全国引起了强烈反响。我们坚信在省委、省政府的坚强领导下，省旅发大会一届比一届圆满，也期待着第三届省旅发大会在承德精彩呈现。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>10</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>承德深化放管服改革优化政务环境</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2017-09-28</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F9%2F28%2Fart_406_83968.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_406_83968</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['本网讯（记者孙涛，通讯员刘畅）我市把开展相对集中行政许可权改革组建审批局作为深化“放管服”改革重要抓手，市县同步推动，积极探索，创新实践。截至目前，我市所有县区行政审批局全部对外挂牌，实现了全覆盖。', '成立行政审批局是我市深入落实中央“放管服”改革任务要求，加快政府职能转变，不断提高行政效能的一项重要举措，也是更好地服务市场主体和人民群众的重大民生工程。为此，市委、市政府主要领导和市直相关部门先后4 次赴宁夏银川、天津滨海新区等地学习考察，深入谋划制定契合中央和省要求、符合承德实际的改革办法。各部门行政审批职能划转到行政审批局后，打破了部门之间的界限，有利于进一步简化行政审批环节，通过信息内部共享共用，彻底破解了行政审批存在的“两头跑”“体外循环”等问题，让群众少跑腿。', '为适应信息化需求，我市研发了行政审批系统、政务协同办公平台、政务监察考核平台等业务应用系统，打造“网上行政审批局”，大幅提高行政审批效率和服务质量，进一步激发市场活力，优化发展环境。为确保规范运行，实行行政审批标准化建设，我市编制了行政审批办事指南，梳理优化了审批流程，实行并联审批、重点项目全程分段代办，从机制上提升审批效率。为保证改革后审批与监管环节的有效衔接和协调联动，市委、市政府顶层设计、统筹协调，在强化组织领导、把握关键节点、严格纪律规矩等方面进一步制定完善相关工作制度，实现了改革期间干部队伍思想稳定、行政审批工作正常开展、政务服务不断延伸。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>10</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>承德召开省旅发大会项目建设存在问题调度会</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017-05-24</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F5%2F24%2Fart_360_60892.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_60892</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['本网讯（记者孙涛）5月23日，我市召开省旅发大会项目建设存在问题调度会。市委副书记张泽峰主持会议并讲话，副市长苏铁成出席会议。', '在听取了相关部门的汇报后，张泽峰要求，各部门要针对围场、丰宁两县和御道口牧场管理区旅发大会项目建设中在用地保障、道路建设、美丽乡村以及线网“并杆并线”等方面提出的问题，尽快拿出解决方案，形成书面报告及时反馈。2018年省旅游发展大会在承举办具有重要意义，是一次提升我市及我省旅游产业发展的重大机遇。各级各部门要进一步统一思想，提高对旅发大会的认识，及时组织召开专项专题调度会，切实提高工作效率，把握好这一机遇，把思想统一到办好精彩、精湛、震撼的全省第三届旅游发展大会上来。', '张泽峰强调，要通过学习往届旅发大会的成功经验、做法，进一步提升我市举办旅发大会的层次和标准。市旅发委要发挥好牵头抓总作用，积极组织干部外出学习考察，并邀请高水平的专家开展有针对性、高质量的讲座，不断解放思想，提升眼界，切实提高项目规划、包装和业态创新的水平。 市直各有关单位要建立“1+4”的工作机制，成立专班，抓紧明确各项职责，切实承办好2018年第三届全省旅游发展大会，实现承德旅游发展水平的整体提升。', '苏铁成就下一步工作提出了具体意见。他指出，各部门要明确职责，强化担当，明确专人对照目标任务加快推进，同时要积极主动向省里汇报，及时协调解决项目推进中的重点难点问题，确保项目进度。由市旅发委牵头，会同丰宁、围场两县逐个节点、逐个项目地进行对接，严格按时序进度加快建设。项目审批过程中要加大调度力度，各部门要主动作为，超前谋划，确保圆满承办好全省第三届旅游业发展大会。', '市委农工委、市旅发委、市国土局、市环保局、市规划局、市住建局、市交通局、市农牧局、市林业局、市水务局、市工信局、市行政审批局、市传输局部门主要负责同志及供电公司、铁塔公司、移动公司、联通公司、电信公司主要负责同志出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>10</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>承德市行政审批局关于全市承德办事一次成改革实施方案政策解读</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2019-01-16</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F1%2F16%2Fart_9940_187751.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9940_187751</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['承德市人民政府 政策解读 承德市行政审批局 关于《全市“承德办事一次成”改革实施方案》 政策解读', '李克强总理在今年《政府工作报告》中指出，“要深入推进‘互联网+政务服务’，使更多事项在网上办理，必须到现场办理的也要力争做到‘只进一扇门’‘最多跑一次’”。省委省政府', '“双创双服”活动将持续深化“放管服”改革、推动政务服务提质提速提效，作为一项重点内容。', '在今年市人代会上，市政府提出市县同步开展“承德办事一次成”改革。根据领导指示，春节前我局安排专人到浙江“最多跑一次”改革试点城市衢州市进行学习考察，结合实际，着手起草全市改革实施方案。2月27日', '，丽虹市长专门召集我局领导班子成员，对起草“承德办事一次成”改革实施方案进行安排部署。', '我局抽调专人成立工作专班调研谋划。晋宇市长高度重视、全程指导，分别到我局和市人社局、双桥区、高新区行政审批局实地调研，多次主持召开专题推进会和研讨会，推敲《方案》的结构框架和具体措施。初稿形成后，亲自动手，逐字逐句进行修改。4月7日下午，仲明书记、丽虹市长、晋宇市长专题听取《方案》起草情况，对进一步修改完善《方案》提出了具体要求。4月11日上午，市政府常务会审议通过了该《方案》。为了借鉴外地成功经验，进一步对《方案》进行完善，4月18日至21日，晋宇市长带领相关县区和部门负责同志专程到武汉、杭州、嘉兴等地学习考察外地推进政务服务改革的经验做法。考察结束后，晋宇市长主持召开座谈会，交流学习考察体会，组织进一步研究修改完善《方案》，最终《方案》经市委全面深化改革领导小组第二十八次会议审议通过，于5月2日正式印发。', '我局抽调专人成立工作专班调研谋划。晋宇市长高度重视、全程指导，分别到我局和市人社局、双桥区、高新区行政审批局实地调研，多次主持召开专题推进会和研讨会，推敲《方案》的结构框架和具体措施。初稿形成后，亲自动手，逐字逐句进行修改。', '在文件结构上，共六个主要部分：一是指导思想，二是基本原则，三是主要任务，四是配套措施，五是实施步骤，六是工作要求。', '其中，核心内容是第三、第四部分。计划实施六项重要改革任务，分别是梳理公布“承德办事一次成”改革事项清单，开发应用网上服务平台，完善软硬件服务设施，推行政务服务标准化管理，深化重点事项流程再造改革，加强作风纪律建设。推行“六全”服务模式，分别是服务全进入，窗口全功能，流程全优化，代办全覆盖，首办全问责，邮寄服务全推行。', '“承德办事一次成”改革是一场执政理念深刻变革的硬仗，因此全市上下一定要把思想和行动统一到市委、市政府决策部署上来，打赢“承德办事一次成”改革攻坚战。', '“办事一次成”改革并不意味着所有事项都一次办成，对与人民群众直接紧密联系的事项要一次办成，有些事则是全流程中的哥哥环节一次次办成。', '市县两级要按照全市统一标准和时序进度，同步组织实施。市政府对改革的整体思路、目标任务、方法步骤、保障措施等进行顶层设计、统一部署。', '要深入推进‘互联网+政务服务’，使更多事项在网上办理，必须到现场办理的也要力争做到‘只进一扇门’‘最多跑一次’”， 省委省政府', '“双创双服”活动将持续深化“放管服”改革、推动政务服务提质提速提效，作为一项重点内容的大背景下提出的，对于当前改善承德市营商环境，打造百姓满意的政府，提高政府政务服务水平具有重要意义。', '“承德办事一次成”改革实施适用于行政权力内的行政许可、行政给付、行政征收、行政确认、其他类事项及公共服务事项。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>10</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市机关事务管理局就机关食堂服务保障工作进行学习考察</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2019-03-28</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F3%2F28%2Fart_11904_323080.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_11904_323080</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['按市委、市政府关于关爱机关干部身体健康的部署要求，市机关事务管理局会同市财政局，于3月26日-27日赴张家口市和隆化、丰宁两县学习考察机关食堂餐饮服务保障工作，主要对供餐标准、运行管理、供应保障、厉行节约、改善就餐环境及提升从业人员技能等6个方面学习了先进经验和先进做法，为下一步出台我市《党政机关食堂管理办法（试行）》提供有益参考和有效借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>10</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>内蒙古宁城县政府及有关部门来我局学习考察</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2019-01-11</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2019%2F1%2F11%2Fart_9944_266644.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_266644</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['月5日，由宁城县政府、县交通运输局、县财政局等部门主要负责人组成的考察团来我局学习借鉴“国家一号风景大道”建设先进经验、做法等。考察组对我市六大']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>10</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>对政协承德市第十四届委员会二次会议第号提案的答复</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018-12-24</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F12%2F24%2Fart_9949_209859.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9949_209859</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['承德市人民政府 建议提案 对政协承德市第十四届委员会二次会议 第0015号提案的答复', '您提出的“关于积极发展居家养老加快提升养老服务水平的建议”的提案收悉，现答复如下：', '截止到2017年底，全市60周岁以上老年人口69.6万，占全市人口总数的18.2%，人口加速老龄化、老年人口高龄化、老年人家庭空巢化、部分老人失能化“四化”叠加现象不断加重。老年人口以每年3%的速度递增，', '居家养老(服务)是指以家庭为核心、以社区为依托、以专业化服务为依靠，为居住在家的老年人提供以解决日常生活困难为主要内容的社会化服务。服务内容包括生活照料与医疗服务以及精神关爱服务等。主要形式有两种:由经过专业培训的服务人员上门为老年人开展照料服务;在社区创办老年人日间服务中心，为老年人提供日托服务。近年来全市各级民政部门以社区为依托，以项目建设为抓手，坚持党政主导、社会参与，着力整合为老服务资源，建成覆盖城乡的居家养老服务网络，服务功能不断提升。', '立足老年人不断发展的实际需求和养老事业发展的新形势，不断完善居家养老服务体系建设，近几年来，我市相继出台一系列工作意见及奖补政策，印发了《承德市老龄事业发展和养老服务体系建设“十三五”规划》、《承德市社区和居家养老服务设施建设规划(2018年—2020年)》、《关于对养老机构进行奖补的实施办法》等，明确了居家养老服务工作的指导思想、目标任务、功能定位、政策措施。', '立足老年人不断发展的实际需求和养老事业发展的新形势，不断完善居家养老服务体系建设，近几年来，我市相继出台一系列工作意见及奖补政策，印发了《承德市老龄事业发展和养老服务体系建设', '为加快推进居家养老服务设施建设，一是积极争取省级补贴资金，每个综合型居家养老服务中心给予80-50万元的补贴资金，累计争取并拨付资金1360万元；二是安排福彩公益金，为补齐居家养老服务设施资金缺口，我局出台新政，在省级补贴资金基础上再给予50-30万元的补贴；三是争取市级财政预算资金，按照每张床位100元的标准申请居家养老服务中心运营补贴，累计争取并拨付资金100余万元。', '为加快推进居家养老服务设施建设，一是积极争取省级补贴资金，每个综合型居家养老服务中心给予', '一是推进综合型居家养老服务中心建设，以街道办事处为单位，完成居家养老服务中心建设任务，其建筑面积不少于750平方米，目前全市已建和在建项目16个，覆盖率89%，已达到2018年底前居家养老服务中心覆盖80%以上城市街道的目标。二是推进居家养老服务站建设。以社区居委会或大型生活小区为单位完成居家养老服务站建设，作为居家养老服务中心在社区落实服务的末端网点和服务配送的支援网点，目前全市已建居家养老服务中心135个，覆盖率82%。', '一是推进综合型居家养老服务中心建设，以街道办事处为单位，完成居家养老服务中心建设任务，其建筑面积不少于', '积极应对“互联网+”时代的新形势、新要求，打造信息化养老服务平台，满足老年人多元化的服务需求。一是建立基本数据库。建立和完善老年人口数据库、居家养老服务中心（站）和志愿者服务数据库，动态更新，目前入网老人9600人。二是健全服务网络。以“12349”平台为依托，依托承德电信云平台打造互联网+养老的新模式，为老年人提供居家生活、居家健康、居家安全三大类居家养老服务，构建“没有围墙的养老院”，目前签约线下服务企业3000家。', '所有居家养老服务中心充分体现综合性、医养结合的特点，按照标准内设医务室或与医疗卫生机构签订医疗服务合约，充分利用闲置的医疗机构的空置床位，将康复技术、医疗技术和养老服务相结合，打通康复、医疗、托养最后环节。', '帮助家庭护理人员掌握相应的老年技术护理、生活照料、康复护理、心理护理等知识和技能，安排福彩公益金70万元采取政府购买服务的方式招标确定实施单位，', '帮助家庭护理人员掌握相应的老年技术护理、生活照料、康复护理、心理护理等知识和技能，安排福彩公益金', '在全市范围免费开展居家养老护理技能培训活动。培训内容包括养生知识、康复护理、急救知识等，参与对象为高龄老人、失能、半失能老人家庭护理人员，居家养老服务中心专兼职人员及社区居民等，历时一年累计培训156场次，覆盖全市所有社区居委会。每场次参加人员30至50人，累计培训7000余人。居民反响热烈，认为此次培训贴近老年人实际需求，发挥实效作用大。', '在全市范围免费开展居家养老护理技能培训活动。培训内容包括养生知识、康复护理、急救知识等，参与对象为高龄老人、失能、半失能老人家庭护理人员，居家养老服务中心专兼职人员及社区居民等，历时一年累计培训', '为学习外地的先进经验及管理模式，2016年相关科室业务人员赴德国考察雷纳范公司旗下的居家养老中心，今年主管局长和科室具体工作人员又与利华副席赴兰州、西安进行学习考察，开阔了视野，拓宽了思路。', '特别是城市中心区，大都为寸土寸金的黄金地段，作为居家养老服务平台的服务设施原先没有列入社区规划，缺少足够的场地开展居家养老照护服务。', '现有的居家养服务内容大多以家政服务项目为主，还不能充分满足广大老年人多元化的服务需求，居家照护服务的瓶颈制约比较突出。同时，在服务内容和行为上还欠缺相应的规范，服务供求双方均存在较大的安全风险隐患。', '居家养老服务设施资产重、投资大、回报率低，运营居家养老服务项目风险较大，目前支持政策不足，社会资本进入居家养老服务市场渠道不畅、积极性不高；', '大力发展城市居家养老服务，对破解日趋严峻的养老服务难题、切实提高老年人生活质量具有重要意义。为此，我们将进一步深化养老服务业改革、转变发展方式，在深入推进、深化内涵、深度创新上下功夫，努力推进优质居家养老服务新发展。重点做好以下四方面工作：', '完善老年人数据库和健康档案，加强与预约诊疗系统、双向转诊系统、远程会诊系统、电子病历系统、120急救系统等对接，组建医养融合、信息互通的数据平台，发挥注册护士、退休医生等在家庭出诊、家庭护理、家庭病床等延伸性医疗服务的作用。社区居家养老服务中心（站）、居家养老社会组织与基层医疗卫生机构签订协议，为老年人提供专业的医疗保健和上门医护服务，2020年实现社区居家养老医养融合全覆盖。', '完善老年人数据库和健康档案，加强与预约诊疗系统、双向转诊系统、远程会诊系统、电子病历系统、', '强化措施，加强基础设施建设，规范服务标准，整体推进居家养老服务提档升级。开展居家养老服务标准化试点工作；持续拓展服务内容，合理设置服务项目，从解决老年人助餐、日间照料等“受欢迎又管用”的服务项目出发，开发一些可操作、能落地、反响好的服务项目，服务内容；建立养老服务评估制度。对养老机构等级评定、高龄失能老人护理补贴、养老机构运营补贴等项目进行评估，通过评估科学确定机构等级、照料护理等级和养老服务补贴领取资格等。', '强化措施，加强基础设施建设，规范服务标准，整体推进居家养老服务提档升级。开展居家养老服务标准化试点工作；持续拓展服务内容，合理设置服务项目，从解决老年人助餐、日间照料等', '激发市场活力，提高社会化程度，让更加优质的居家养老服务惠及更多老年人。一是深化政企合作。充分利用“线上线下”服务资源，进一步提高“12349”平台的运行效率。不断优化服务方式、拓展服务内容，培育社会组织和企业提供居家养老服务； 二是推动政社互动。建立健全市、辖市（区）、街道（镇）三级社会组织培育孵化基地网络，重点培育养老便民、公益慈善、社区服务等社会组织。以助餐、护理、照料等服务项目为切入点，通过公办民营、无偿提供场地、设备、水电费等方式，引入、培育、发展社会组织和企业，为居家老年人提供价格合理的多样化产品和服务。', '激发市场活力，提高社会化程度，让更加优质的居家养老服务惠及更多老年人。一是深化政企合作。充分利用', '完善政府购买服务制度。制定民政公共职能购买服务目录，落实购买资金，健全购买机制，重点列出可以向社会组织购买的社区事务、养老服务、社会福利、社工服务等民生服务和社会治理事项，逐步构建政府监管、社会监督、社会组织自律的综合监管体系。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>10</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>刘宏伟主持召开承德市城市总体规划年编制工作调度会</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018-05-03</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F5%2F3%2Fart_9945_191587.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_191587</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['月26日，市政府副市长刘宏伟同志主持召开新一轮城市总体规划编制工作调度会，传达学习市委十四届四十二次常委会会议关于雄安新区规划建设的指示精神，研究推进城市总体规划修编工作。会议要求，一是要深入挖掘承德地方特色，明确城市发展定位，充分体现京津冀协同发展、水源涵养和“两山”理论。二是要注重“多规合一”，与城市总体规划同步开展专题研究和专项规划编制工作，做好规划统筹与衔接。三是建立市委市政府主导，各级各部门全面参与的总体规划编制机制，要细化实施方案，压实部门责任，对规划编制涉及的重点、难点问题进行全面梳理和重点调度。四是加强学习考察，要充分借鉴先进城市总体规划编制工作经验，取长补短，切实提高规划编制水平。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>10</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>承德市国土资源局年工作要点</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018-11-26</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F11%2F26%2Fart_9941_220230.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_220230</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['2008年总体工作思路：以党的十七大、省委七届三次全会和市委十二届三次全会精神为指导，按照建设沿海经济社会发展强省和承德“立足赶超、跨越发展”的总要求，全面落实科学发展观，进一步转变观念、强化职能、改进作风，切实履行好保护资源、保障发展、维护权益、服务社会的职责，牢固树立“守土有责”观念，深入开展“基础管理年”活动，为我市经济社会又好又快发展提供持续有力的资源保障和优质高效的服务，推进全市国土资源管理工作再上新台阶。', '（一）落实基本国策，切实加强耕地保护。完善和落实基本农田保护长效管理机制，进一步加强监管，强化基础工作力度。严格执行基本农田保护“五不准”，确保基本农田数量和质量的稳定。严格执行基本农田保护公示制度，加大对违法占用基本农田的查处力度，进一步完善基本农田保护责任制和管理体系制度。大力推进土地开发整理，进一步规范项目管理，积极争取省级土地开发整理项目15个，资金5000万元，增加耕地5000亩，实现耕地总量动态平衡且略有盈余。认真落实“占补平衡”制度，争取占补平衡指标10000亩。', '争取使用更多的省预留建设用地指标。三是充分利用承德钒钛基地列入省重点产业支撑项目的机遇，加大跑办力度，积极协调发改及相关部门，争取更多的建设用地指标。四是统筹安排各类建设用地，加大对重点项目的支持力度。按照突出重点、保障重点的原则，优先保证国家和省重点项目、争取使用更多的省预留建设用地指标。三是充分利用承德钒钛基地列入省重点产业支撑项目的机遇，加大跑办力度，积极协调发改及相关部门，争取更多的建设用地指标。四是统筹安排各类建设用地，加大对重点项目的支持力度。按照突出重点、保障重点的原则，优先保证国家和省重点项目、大额外资项目、高科技项目以及符合产业政策的项目用地，把有限的建设用地指标用在刀刃上，切实保障全市经济社会发展用地需求。', '（三）继续推进土地置换，加大内涵挖潜工作力度。进一步挖掘潜力，加大土地置换工作力度，力争新增置换建设用地指标达到5000亩以上。对置换出的建设用地指标做到科学规划，精打细算，重点保障城镇发展以及工业生产性建设项目用地需求。针对我市未利用地资源丰富的优势，积极引导项目建设单位使用未利用地进行项目建设，同时进一步对未利用地开发利用进行科学规划。', '（四）加大土地收购储备工作力度，提高政府宏观调控能力。认真落实国土资源部、财政部、人民银行联合印发的《土地储备管理办法》，加大土地收储工作，扩大土地收储规模，增强政府的调控能力。结合城市改造，认真调研，对存量土地力争做到“应收尽收”，盘活存量土地资产。针对城市规划区内可用于城市建设发展的平整地块已经十分有限，城市建设发展用地十分紧张的形势，积极推进城市发展“进川上山”，对适于城市建设发展的川地、坡地、山底台地进行积极协调规划部门将相关地块纳入城市总体规划和建设用地规划，同时进行收购储备。加大所储备的土地前期开发力度，实行“净地”出让，提高土地供应能力。全市土地收购储备面积力争达到10000亩。', '（五）大力推进集约节约用地。坚持“开发节约并重，节约优先”的原则，积极探索建立有利于促进资源节约集约利用的激励约束机制。结合实际，细化土地投资强度、开发进度、土地利用程度等具体控制性指标，为集约节约用地提供执行依据。加大闲置土地清理力度，对没有按期开发的闲置土地依法收回。在建设用地预审、审批和供地时，严格执行建设用地定额和土地投资强度指标，实现集约节约用地。凡不符合控制指标要求的，不得供地。', '坚持整顿、整合、规范并重，认真处理好“五个关系”（勘查与开发、开发与保护、保护与发展和局部利益与整体利益、当前利益与长远利益的关系），逐步实现“四个转变”（矿业经济由只注重经济效益向经济效益、资源效益、生态效益、社会效益并重转变，矿业开发由“多、小、散”向集约化、规模化、集团化转变，矿业经营由粗放型经营向集约型深加工转变，由集中或经常性整顿矿业秩序向法制化、规范化转变），推进矿业结构调整和产业产品结构升级，实现全市矿业经济的规范、科学、协调、可持续发展。', '（一）继续保持高压态势，加大矿产资源整顿工作力度。坚持常年抓整顿，克服麻痹思想和畏难情绪，继续保持矿业秩序整顿的高压态势，严格落实“六制一办”制度，按照“三不留一毁闭”的标准，坚决打击“两无”、“两越”、“两非法”以及以采代探、采取破坏性方式开采矿产资源、持超期证开采等九类违法勘查采矿行为，深入开展严厉打击各类违法勘查采矿行为专项行动，确保专项行动取得实效。严格落实动态巡查、矿山实测、违法行为举报、监察、检察、公安国土联合执法、重点案件督办等制度，有效发现、制止、打击违法行为，维护稳定的矿业秩序。市局对各县区局、各乡镇国土资源所动态巡查、矿山实测等工作进行不定期抽查检查，抽查面不少于30%，发现工作不落实的，严格追究相关人员责任。加大违法开采勘查案件的打击力度，既要处理事，又要处理人，还要在媒体进行公开曝光，起到震慑作用。', '（二）强力推进矿产资源整合工作，发展规模矿业经济。严格执行矿产资源总体规划，加强矿业权出让管理，规范矿业权出让行为。对矿业开发进行科学指导，合理布局，严格执行新上矿山企业最低规模标准，同时通过鼓励引导、政策支持、推广先进经验等形式，积极引导矿山企业按照“技术合理、经济可行、各方自愿”的原则，积极参与和支持整合工作。鼓励矿山企业采取自愿联合、兼并收购等市场化配置方式进行整合。进一步落实好矿产资源整合“攻坚”方案的实施，确保2008年底整合工作的验收。', '（三）加强矿产资源勘查，力争实现找矿突破。一是加强基础地质研究和找矿理论创新。加强与科研院所和驻市地勘单位的联系与沟通，充分发挥和调动科研院所和驻市地勘单位的作用，解放思想，更新观念，运用新理论、新方法，指导和推动全市地质勘查找矿工作。二是用好用足政策，多渠道筹措勘查资金。继续加强“国有大、中型危机矿山接替资源勘查项目”和国家、省专项资金勘查项目的申报工作，进一步加大市本级财政支持和勘查资金匹配力度，力争市本级筹措勘查资金2000万元。三是攻坚克难，重点勘查，重点突破。对于12个具有找矿前景的含铁勘查空白区、部分磁异常区完成地质普查工作，以铁、钼、金、银等矿种为突破口，以重点成矿区带和成矿靶区为重点，集中人力、物力、财力实施重点勘查，立足大型或超大型超贫钒钛磁铁矿产地，加强深部（富矿）勘查找矿工作，加快找矿的步伐，力争3-5年内找到一批可供建设的大中小型矿产地，为全市经济发展提供可靠的资源保障。四是统一规划，统一勘查，探索和实施矿产资源储备制度。全面实施探矿权设置方案制度，有计划、有步骤地设置探矿权；进一步加大对铁、钼等主要矿种的勘查投入，进行矿产资源储备，保证我市国民经济和社会发展对资源的长远需要。五是强化服务意识，努力为勘查工作创造良好的外围环境。加强对驻市地勘单位的协调和支持，关注资源的勘查重点和投入以及矿产资源的配置和开发利用。帮助地勘单位共同争取勘查项目，争取更多的勘查资金，在设置勘查项目上给予大力支持。', '（四）加强绿色矿山建设，实现矿业经济与生态环境协调发展。继续扎实推进“百矿披绿”工程，积极争取矿山环境治理项目，全市完成150个绿色矿山建设任务。在全市范围内开展以千矿、千万株树为主要内容的矿山环境治理“双千工程”，利用今冬明春的有利时机，完成绿化1000个矿山、栽植1000万株树木的任务，并扎实开展“建设100个花园式矿山”活动，把全市矿山生态环境保护与治理工作不断引向深入。协调财政等相关部门，认真实施矿山生态环境恢复治理保证金制度，有效解决矿山生态环境建设资金不足和企业积极性不高的问题，积极开创全市矿山生态环境治理与保护工作的新局面。', '（一）加强基层所站建设，提高服务能力。切实抓好国土资源所规范化建设，按照《国土资源所规范化建设实施意见》的要求，完成30个国土资源所规范化建设任务。切实提高国土资源所职工政治素质、业务素质培训，规范工作程序，增强服务意识，提高服务质量。严格基层所干部职工的管理和监督，建立健全严格的约束激励机制和考评机制，建立健全国土资源所工作人员不定期培训制度，不断提高基层所工作人员的整体水平。不断完善国土资源所档案管理和业务工作规范化建设。进一步改善基层所工作条件，健全各项管理制度，确保基层所的各项工作规范有序，为服务地方经济发展做出应有的贡献。', '（二）加强国土资源市场建设。严格按照国家宏观调控政策的要求，充分发挥市场机制配置土地资源的基础性作用，强化政府对土地的集中统一管理。严格落实经营性用地、工业用地招拍挂出让制度，积极推进经营性基础设施用地招拍挂出让，严格按照国有土地使用权出让规范管理土地市场。严格执行国务院关于土地出让收支管理的规定，加强征收管理，足额收缴出让金。严格执行探矿权采矿权招标、拍卖和挂牌出让制度，完善招标拍卖挂牌出让程序，按照有关规定严格协议出让矿业权。', '（四）扎实做好地籍管理工作。加强土地确权登记规范化管理。在现有的基础上，完善土地登记制度，加强信息化建设，完善土地登记的窗口办证和网上审批制度。与规划、耕保、利用、监察等部门协调配合，全面完成2008年的土地利用变更调查工作。在第二次土地调查的基础上，加快推进农村土地所有权登记发证工作。', '（五）加强测绘管理工作。组织开展测绘法的宣传培训工作。加强测绘统一监督管理和开展测绘成果监督检查工作，加强测量标志保护，落实测绘职能。加大基础测绘工作力度，力争2008年6月底前完成总投资700万元的承德市建成区1：500比例尺地形图实测和市规划区1：2000比例尺数码航测工作，建设三维地理信息系统。', '（六）加强储量管理。全面开展矿产资源储量动态监督管理工作，对全市所有持证矿山进行储量地质测量，建立技术档案和台帐，对储量数据库进行及时更新。切实做好储量报告评审、备案和矿山年度处理报告审查工作。做好矿业权委托评估、建设项目压覆矿产资源审批登记、地质资料汇交等工作。加强矿产资源供需形势分析、论证和前瞻性研究，为矿产资源的合理开发利用提供科学依据。', '（七）切实做好地质灾害防治工作。进一步完善全市地质灾害信息网络建设。积极编制《承德市2008年地质灾害防治预案》，扎实做好2008年地质灾害防治工作。', '（八）切实做好信访稳定工作。坚持分级负责，限时办结，强化县区局、基层所的责任，把信访工作的重点解决在县区局、基层所。全年信访案件办结率达到90%以上，上级转办案件办结率达到100%。做好征地和失地农民权益保障工作。严格按法定程序征地，做好征地补偿安置工作，研究制定失地农民保障政策，严格社会保障费用不落实的不得批准征地的政策规定。', '（九）完善电子政务建设。进一步加大软硬件投入，增加科技含量，提高县区国土资源信息网的建设水平，建立国土资源信息网上公开发布制度，实现国土资源网上公开查询。各县区局在和市局实行网络对接的基础上，进一步完善不足，查找差距。加强网络管理人员的业务培训，土地、矿政主要行政审批事项全面实行网上审批，进一步提高办事效率。', '（十）进一步规范财务管理。严格按照《专项资金管理办法（试行）》规定，进一步规范国土资源专项资金的监管。坚持增收节支并重，保障机关工作的正常运转。', '（十一）加大国土法律政策宣传力度。继续深入贯彻《中华人民共和国土地管理法》、《矿产资源管理法》和《中华人民共和国测绘法》，加大宣传力度，保证各项法律法规的全面落实。积极开展对县、乡、村级干部国土资源法律知识宣传教育培训活动，采取专报、报纸、党校讲课等多种形式，加大对各级党委、人大、政府、政协的宣传力度。制定目标责任制，把新闻宣传和政务信息宣传纳入市局对各科室、各县区局考核范围，年终严格进行考核、通报。', '（十二）加强事业单位管理。加强事业单位管理，在业务、财务管理上依法依规办事，依法经营，研究创新管理模式，积极探索大财务的管理模式。加强事业单位队伍建设，增强市场观念，强化服务意识、提高办事效率，树立良好形象。', '（一）强化学习培训，提高业务管理素质。一是坚持集中学习和自学相结合。积极开展建设学习型机关活动，制定年度培训计划，坚持每半个月周五下午集中学习制度。强化职工自学的意识。加强对乡镇基层所职工学习培训，市局举办全市国土资源系统乡镇国土资源所长培训班，各县区局切实抓好国土资源所工作人员的培训。二是坚持外出培训。组织职工到先进地区和单位学习考察，到高校参加集中培训，开展形势多样的学习培训，增强职工的学习意识，提高为人民服务的本领。三是扎实深入开展为经济社会发展服务、为基层企业群众服务、为政府科学决策服务，努力创建服务型国土形象。四是深入开展解放思想大讨论活动。结合系统实际，认真查找在思想作风、工作作风、工作实践中存在的突出问题，认真进行整改，提高。通过学习，促进全体职工强化大局观念，增强服务意识，提高业务水平，形成积极向上、干事谋事的工作氛围。', '（二）狠抓依法行政，提高依法行政素质。加强依法行政教育，促进依法合规办事，严禁不作为、乱作为等违法违纪行为的发生。巩固土地执法百日行动活动成果，加大动态巡查和案件查处工作力度，严厉打击违法行为。健全完善国土资源执法监察信息员工作制度，明确职责，加强培训，切实发挥信息员的作用。加大执法监察工作力度，严厉查处国土资源违法行为。市局对各县区执法监察工作，坚持“属地管理、督办为主、直查为辅”原则，充分调动县区局工作积极性。全年执法监察案件办结率达到90%，行政复议胜诉率达到100%以上。对违法违规案件，不仅要查处事，而且要查处人，依法追究责任。对典型案件，要公开调查、公开处理、公开结果。积极配合纪检监察、检察、公安的等部门切实抓好以查处非法批地、未批先用、批少用多、非法低价出让国有土地使用权等行为为重点的专项行动和严厉打击以9类非法勘查开采为重点矿业秩序整顿专项行动，以监察促监管。', '（三）高度重视领导班子建设，提高县区局领导水平。进一步加强局领导班子建设，坚持民主集中制原则，提高决策的民主化、科学化，努力把局领导班子建设成“政治上强、团结协调、开拓创新、廉政勤政”的班子。切实加强县区局领导班子建设，市局党委不定期对县区局领导班子开展谈话谈心活动，增进班子团结，提高谋事、干事、干成事的能力和水平。积极探索能上能下、能进能出的领导干部管理体制，增强县区局班子活力。', '（四）切实加强系统党风廉政建设和预防腐败工作。全面落实党风廉政建设责任制，始终坚持标本兼治、综合治理、惩防并重、注重预防的方针，切实抓好职工廉政教育，进一步规范国有土地出让和矿业权出让，从源头上加大预防腐败工作力度。进一步健全党风廉政建设责任制和会审、听证、责任过错追究等各项制度，明确责任，完善考核，严格监管，严格奖惩，同心协力，下定决心把党风廉政建设和反腐倡廉工作各项措施落到实处。对系统内涉及党风廉政建设的问题不护短、不回避，加大查处力度，同时在系统内进行通报，进行反面剖析，起到警示作用。', '（五）切实加强系统政风行风和机关效能建设。强化机关作风和效能建设，以勤政廉政、提高效率、优化环境、执政为民、促进发展为主要内容，以公开、便民、高效为重点，建立健全长效机制，进一步完善各项管理制度，用制度管人管事，努力提高全体人员的政治思想觉悟、依法行政水平和实际服务能力，树立国土资源部门良好形象。加大行风建设明察暗访和督查力度，全年开展5次以上的大规模专项督查，对督查情况要在系统内进行通报。', '（六）扎实开展解放思想大讨论活动。积极开展以落实科学发展观，推进国土资源管理工作再上新台阶，为实现承德新跨越做贡献为主题的解放思想大讨论活动。把开展解放思想大讨论作为学习贯彻党的十七大、省委七届三次全会和市委十二届三全会精神的一项重要举措，精心部署，周密组织，按照确定的方法步骤开展活动，确保不走过场。把解放思想大讨论活动与日常工作紧密结合，两不误、两促进。', '（七）强化责任追究，提高系统执行力。对领导交办、批办工作、信访工作、本职业务工作等，半年内有三次不落实的，进行诫勉谈话，超过三次的，采取组织措施。切实加大督查督办工作力度，对档案管理不规范、巡查监管不到位、矿山实测不落实、年度地籍不变更等不作为、乱作为以及各种失职渎职、违法行政行为，严肃追究责任。要端正工作态度，强化工作责任心，以高度的责任心和事业心做好本职工作。对上级机关安排部署的工作，提出的工作要求，做出的各项决策，必须认真贯彻落实。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>10</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>市考察团赴新疆考察对口支援工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018-08-31</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F8%2F31%2Fart_360_57696.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_57696</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['本网讯（记者李敏，通讯员石胜杰）日前，市委常委、农工委书记吴清海率由市发改委、卫计委、旅发委、民政局、商务局等部门负责同志及部分企业负责人组成的考察团，赴新疆尉犁县和新疆生产建设兵团第二师三十三团，考察交流对口支援工作，看望慰问我市援疆干部。', '新疆生产建设兵团第二师副师长、河北省援疆工作前方指挥部指挥长樊成华会见了考察团一行，并对我市援疆工作给予了高度评价。尉犁县和三十三团主要负责同志陪同，市政府党组成员、市发改委主任刘海峰参加考察。', '考察团一行先后赴尉犁县和三十三团考察了我市援建项目和两地基础设施、产业园区、电商基地、民生项目等情况，并与当地党政军主要领导举行座谈交流，就规划引领、园区共建、产业融合、精准帮扶等相关事宜进行了深入研究对接。 考察期间，考察团还代表市委、市政府看望慰问了我市援疆干部。', '在考察中，吴清海指出，此次考察既是深入贯彻落实省委书记王东峰“新时期援疆工作要升级再加力”重要指示和市委援疆工作有关要求的一项务实之举，又是一次学习考察、走访慰问、对接合作、共谋发展之行。通过实地考察和座谈交流，我市向对口支援地区学习了加快发展的新理念、新经验，与对口支援地区达成了共谋发展的新共识、新意向。同时，也激发了援疆干部的新动力、新干劲。', '吴清海要求，要与对口支援地区加强规划层面合作交流，利用市本级乡村振兴战略规划编制契机，为更好促进当地经济社会发展确定“时间表”和“路线图”。要加大精准帮扶工作力度，在产业发展、旅游开发、基础设施、医疗卫生等支援方面升级加力上水平。要加快完善对接交流机制，由市援疆办牵头，明确专人负责，加强日常管理，做好后续对接工作。同时，我市各县（市）与尉犁县八个乡镇建立“一县对一乡（镇）”的全方位对口结对共建机制，互帮互助，促进双方农民脱贫增收致富，维护社会稳定长治久安。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>10</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>承德市党政代表团赴北京市怀柔区学习考察交流</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018-05-08</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F5%2F8%2Fart_360_58965.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_58965</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['本网讯(记者郎宝生） 5 月7 日，省人大常委会副主任、市委书记周仲明，市委副书记、市长常丽虹率我市党政代表团赴北京市怀柔区学习考察交流。北京市怀柔区委书记常卫，区委副书记、区长卢宇国出席座谈会。周仲明、常卫分别讲话。', '怀柔区人大常委会主任彭丽霞、区政协主席武占刚，区领导迟行刚、朱家亮、刘久刚、李志遂、焦宝军、郭士刚，承德市人大常委会主任韩福才、市政协主席刘文勤，市领导李晋宇、丁伟、路立营、任武军、苏铁成等出席相关活动。', '周仲明代表市四套班子和全市人民，向怀柔区长期以来给予承德的关心支持表示衷心感谢。周仲明说，这次到怀柔考察，是认真贯彻党中央扶贫开发重大决策部署、深入落实京冀对接扶贫协作工作精神，也是对标学习、合作交流。怀柔区超前的战略视野、先进的发展理念、以人为本的发展思想和过硬的干部作风令人印象深刻，特别是怀柔加大对承德、对丰宁的帮扶支持力度，两地合作更加紧密，感情日益深厚。', '周仲明指出，两地资源共享、生态共建、产业互补，合作共赢的空间广阔。希望围绕落实《全面深化京冀扶贫协作工作三年行动框架协议》，进一步完善对接沟通机制。依托怀丰产业园，加快推动园区产业对接合作。 全面深化怀承协作发展，共同打造生态环保、影视文化、会展旅游、协同创新、汽车产业、食品经济“六大协同发展联合体”。', '常卫指出，围绕落实党中央和北京市委、市政府的要求部署，怀柔要在资金项目、产业带动、工作机制等方面进一步向精准扶贫工作聚焦，坚持主动对接、做好服务，落实好双方两次对接工作形成的一致意见，切实形成一股劲、一盘棋的工作局面。', '常卫表示，怀承两地在合作发展上应进一步发挥自身优势特色，不断在生态协作、创新发展、影视文化、旅游休闲和汽车制造、食品饮料等方面加强合作，建立更加紧密的沟通机制，积极探索在更多领域、更深层次开展全方位合作，努力推动两地实现更高水平、更高质量发展。', '会上，丰宁满族自治县介绍了对口帮扶合作项目进展情况，与会领导和部门单位进行了座谈交流。', '在怀柔期间，我市党政代表团先后学习考察了国家中影数字制作基地、北京电影学院新校址、北汽福田戴姆勒股份有限公司、中科院力学研究所、怀柔科学城。', '怀柔区直有关部门，科学城筹备办，相关镇、院所、企业负责同志，承德市政府秘书长，市直有关部门及丰宁满族自治县主要负责同志参加相关活动。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>10</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>承德市市场监督管理局年工作总结与年工作谋划报告</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2018-03-12</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F3%2F12%2Fart_9941_223115.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_223115</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['承德市人民政府 工作总结 承德市市场监督管理局2017年工作总结与 2018年工作谋划报告', '今年以来，在市委、市政府的正确领导下，坚持“监管惟严、服务惟实”的原则，以“六个专项行动”为总抓手，促发展、强监管，各项工作均取得明显成效，市以上部门和媒体正面宣传1081篇，省市领导批示表扬近20次，再次被中央文明委授予全国文明单位称号。', '今年以来，在市委、市政府的正确领导下，坚持“监管惟严、服务惟实”的原则，以“六个专项行动”为总抓手，促发展、强监管，各项工作均取得明显成效，市以上部门和媒体正面宣传', '（一）深入开展食品安全监管专项行动。主要是食品生产环节专项整顿提升、销售环节食品安全专项整治、餐饮业专项整治、保健品化妆品专项整治等四项子行动，同时积极争创省级食品安全示范城市。110家蜜饯行业食品安全追溯体系建设取得实效。食品电子备案追溯管理平台得到完善优化。持证餐饮单位量化分级率达98%，“明厨亮灶”、“清洁厨房”任务全部完成。完成重大活动保障105次。共抽检食品4108批次，化妆品82批次，查处案件1450件。正配合公安部门侦破“6.23特大网络销售有毒有害食品案”，国家食药总局毕井泉局长批示：“卓有成效，应予表彰”。塞罕坝及坝上地区大规模食品安全整治攻坚成效明显。全市较大食品安全突发事件（Ⅲ级）应急演练圆满完成。原国务院食安办副主任、国家食药总局副局长滕佳材一行在2017年春节前食品安全监管工作检查中，对我市工作给予了充分肯定。销售环节食品追溯体系建设走在全省前列，在2017年年初全省食品药品监管工作会议上进行交流。省食安办2016年度综合考核位列第二档次（共四个档次），在党政领导班子考核中增加了0.77分。', '主要是食品生产环节专项整顿提升、销售环节食品安全专项整治、餐饮业专项整治、保健品化妆品专项整治等四项子行动，同时积极争创省级食品安全示范城市。110', '全市较大食品安全突发事件（Ⅲ级）应急演练圆满完成。原国务院食安办副主任、国家食药总局副局长滕佳材一行在2017', '（二）深入开展药械安全监管专项行动。主要是药品生产企业专项整治、药品流通安全专项整治、医疗器械安全专项整治等三个子行动。共抽检药包材10批次、各类药品599批次，协助省药品检验研究院完成国家药品评价性抽验51批次，抽检医疗器械73批次；共查处药品、医疗器械案件436件，移送公安机关2件。上报药品不良反应、医疗器械不良事件3410例。3家药品生产企业通过省局GMP认证，药品生产企业GMP跟踪检查完成率、药品批发企业GSP跟踪检查覆盖率均达100%。积极探索药品生产企业风险评估与生产实践结合，与颈复康药业集团合作制作“药品单品种风险评估实施建议表”。参与制定、修改了《承德市公立医疗机构药品采购推行“两票制”实施方案( 试行)》等12个与“医改”有关的文件。', '主要是药品生产企业专项整治、药品流通安全专项整治、医疗器械安全专项整治等三个子行动。共抽检药包材10', '（三）深入开展市场主体帮扶专项行动。主要是市场主体增量、商标兴企、融资活企、党建促企等四项子行动。“六证合一、八证合一、一照”与简易注销改革全面实施。省内首创实施“银行代办照”、“证照联办”新举措，市委书记周仲明、市长常丽虹、市委副书记张泽峰等市领导与省工商局局长刘云峰均批示肯定，并在全市宣传推广，国家工商总局政务信息、省工商局简报专刊刊登了我局做法。新增“缘天然”、“菇芳源”、“五谷农庄”、“三融”、“亚欧”、“神栗”等驰名商标6件，总量达11件。新增地理标志商标4件，总量达10件。“宽城板栗”地理标志商标入选国家工商总局和中国工商报联合开展的“商标富农和运用地理标志精准扶贫”十大典型案例，副省长沈小平对此作出重要批示：“可喜可贺！继续大力推进，充分发挥其辐射和带动作用”。助企融资136.07亿元，超额完成60.08%。全市非公企业设立党组织690个，覆盖企业2020个，设立团组织105个，覆盖企业42个。', '主要是市场主体增量、商标兴企、融资活企、党建促企等四项子行动。“六证合一、八证合一、一照”与', '省内首创实施“银行代办照”、“证照联办”新举措，市委书记周仲明、市长常丽虹、市委副书记张泽峰等市领导与省工商局局长刘云峰均批示肯定，', '，国家工商总局政务信息、省工商局简报专刊刊登了我局做法。新增“缘天然”、“菇芳源”、', '“宽城板栗”地理标志商标入选国家工商总局和中国工商报联合开展的“商标富农和运用地理标志精准扶贫”十大典型案例，副省长沈小平对此作出重要批示：“可喜可贺！继续大力推进，充分发挥其辐射和带动作用”。助企', '（四）深入开展企业信用监管专项行动。主要是市场主体信息公示、市场主体公示信息抽查、合同格式条款整治、无照经营查处、红盾治污和红盾护农等六项子行动，提前完成了2016年度市场主体年报公示工作目标，市场主体综合年报率列全省第三，企业年报率列全省第二，在全省年报工作推进视频会议上，做了经验交流发言。编制了我市政府部门涉企信息统一归集目录清单、市本级市场主体行政审批后续监管清单（2017版）、失信企业联合惩戒措施清单。“双随机、一公开”工作取得重大突破，实现了监管部门全覆盖、监管机制全覆盖、“一单两库一细则”和抽查事项全覆盖、跨部门联合抽查全覆盖、实地督导全覆盖等“五个全覆盖”，初步形成了具有我市特色的落实机制，走在全省前列。省政府两次考核均对我市工作给予充分肯定和高度评价，先后两次作为典型在全省部门联合抽查工作会议和全省“双随机、一公开”监管全覆盖推进会上作交流发言，市长常丽虹、时任副市长薛寒均批示肯定。代政府起草了我市劣质散煤专项实施方案，开展了劣质散煤管控“百日会战”行动，抽检煤炭经营户310户共502批次，覆盖率100％，合格率88%，查处案件170件；抽检加油站360个共560批次，覆盖率80％，合格率87%，查处案件64件。查处无照经营案件581件，查处重点领域“霸王条款”案件88件，查处农资违法案件270件。', '主要是市场主体信息公示、市场主体公示信息抽查、合同格式条款整治、无照经营查处、红盾治污和红盾护农等六项子行动，提前完成了2016', '“双随机、一公开”工作取得重大突破，实现了监管部门全覆盖、监管机制全覆盖、“一单两库一细则”和抽查事项全覆盖、', '省政府两次考核均对我市工作给予充分肯定和高度评价，先后两次作为典型在全省部门联合抽查工作会议和全省“双随机、一公开”监管全覆盖推进会上作交流发言，市长常丽虹、时任副市长薛寒均批示肯定。', '代政府起草了我市劣质散煤专项实施方案，开展了劣质散煤管控“百日会战”行动，抽检煤炭经营户310', '（五）深入开展市场秩序优化专项行动。主要是整治不正当竞争突出问题、保护商标专用权、整治虚假违法广告、网监执法等四项子行动。查处不正当竞争案件204件，罚没款156.4万元。查处商标侵权案件63件，罚没款36.6万元。对全市商标印制单位进行了全面检查。对重点媒体开展广告发布事前、事中行政约谈146次，行政指导335次，广告监测平台查看率、处理率均为100%，查处案件55件，罚没款65.2万元；强化网络商品交易行为监管，代市政府起草了网络市场监管处际联席会议制度，组织召开了第一次联席会议，查处网络违法案件13件，罚没款9.07万元。查办传销案件2件，均移交公安机关。', '主要是整治不正当竞争突出问题、保护商标专用权、整治虚假违法广告、网监执法等四项子行动。查处不正当竞争案件204', '（六）深入开展12315护民生专项行动。主要是消费升级助力、维权效能提升、红盾质量维权等三项子行动。多种形式开展消费教育引导，“3·15”期间就发布各类信息168篇次，达历年之最，国家工商总局政务信息进行了经验交流。我市旅发大会前与移动公司合作开通小区短信发送业务，向来承的20余万外地游客发布温馨提示。创建放心消费示范单位279家、示范街6条。与市文明办、市旅游局、市消协联合开展放心消费进景区观摩推进活动，8家级以上、9家级以下景区完成创建。成功解决1起涉及1000余人因经营者不按约定履行合同的群体投诉，妥善处理了2起共涉及2500余人的健身预付卡群体投诉事件，有效避免了两节和十九大期间群体上访事件的发生。联合市城管局、双桥区局约谈我市某网络科技有限公司，解决了95件“共享单车”不能正常退还服务押金的群体投诉，为消费者挽回损失2.8万元。强化流通领域商品质量监管，抽检热点商品762批次，查处违法案件676件。连夜部署清查“3·15”晚会曝光商品的做法和成效被国家工商总局《政务信息》刊登。市长常丽虹、副市长郭士刚、时任副市长薛寒、省工商局副局长陈润芝均对消费维权工作给予肯定。全省两次推进会均对承德工作予以表扬。2017年综合考评列全省第二位。', '主要是消费升级助力、维权效能提升、红盾质量维权等三项子行动。多种形式开展消费教育引导，“3', '二、坚持把加强干部队伍建设摆在更加突出位置，持续打造“想事、干事、干成事、不惹事”的干部队伍', '建立了以市局党组为统领，机关各科室和所属事业单位为分支的责任体系，健全了“一把手”负总责，班子成员“一岗双责”，科室（单位）负责人直接负责的工作机制，制定落实主体责任清单，明责定界。“一把手”亲自谋划推动，逢会必讲廉政；班子成员坚持将廉政与业务工作同抓互促。组织全体党员干部认真查找“四个意识”、党内政治生活、党风廉政建设等方面存在的问题，逐一列出清单，提出改进措施。', '进一步完善依法行政制度，研究制定行政执法公示、执法全过程记录、重大执法决定法制审核等“三项制度”，建立健全了相关工作机制。研究制定了假药认定办法，规范假药认定程序。针对机构改革后法律、法规以及规章的立改废情况，清理行政处罚依据，修订原行政处罚裁量标准。进一步完善了执法监督检查、案件评查机制，继续深入开展“规范执法杯夺杯竞赛活动”，探索建立了食品药品“双随机”工作机制，建立了与检察机关食品药品安全领域合作机制，进一步规范执法，提升效能。', '（三）加强能力建设。以“四个意识”教育为重点，结合“转优促”活动，推动“两学一做”学习教育常态化、制度化。积极按照市委市政府部署和要求，局党组会议专题研究贯彻落实措施，采取了局党组集中学习、组织全体干部职工大会学习与支部自主学习相结合的方式，认真学习贯彻党的十九大精神，做到了分层次、全覆盖。近期，在国家食药总局高级研修学院开展了学习十九大暨干部能力提升培训班。继续完善上级培训与本级培训、传统培训与网络培训、集中培训与日常培训相结合的干部教育培训体系，组织对标省内外先进地区学习考察10余次，举办、参加培训班39期，参训人员达3310人次。', '以“四个意识”教育为重点，结合“转优促”活动，推动“两学一做”学习教育常态化、制度化。积极按照市委市政府部署和要求，局党组会议专题研究贯彻落实措施，采取了局党组集中学习、组织全体干部职工大会学习与支部自主学习相结合的方式，认真学习贯彻党的十九大精神，做到了分层次、全覆盖。近期，在国家食药总局高级研修学院开展了学习十九大暨干部能力提升培训班。继续完善上级培训与本级培训、传统培训与网络培训、集中培训与日常培训相结合的干部教育培训体系，组织对标省内外先进地区学习考察10', '（四）加强作风建设。积极开展“转作风、优环境、促发展”活动，严格按要求开展“微腐败”专项治理和“一问责八清理”专项行动，做到了边清理边整改、边规范边提高，推动了机关作风持续好转。做好牵头全市商事登记制度改革、事中事后监管、治霾不力中的散煤治理、规范涉企行政执法检查等四项清理工作。 “微腐败”专项治理中，市局机关自查自纠问题3件，查缴资金16.1万元。“八清理”专项行动中自查自纠问题537件，均完成整改，对2个单位、8人给予通报批评，对2人谈话提醒，移交驻局纪检组问题线索2个，修改完善规章制度16件。', '积极开展“转作风、优环境、促发展”活动，严格按要求开展“微腐败”专项治理和“一问责八清理”专项行动，做到了边清理边整改、边规范边提高，推动了机关作风持续好转。做好牵头全市商事登记制度改革、事中事后监管、治霾不力中的散煤治理、规范涉企行政执法检查等四项清理工作。 “微腐败”专项治理中，市局机关自查自纠问题3', '执法程序、文书服装等的诸多不统一，一定程度上损害执法的严谨性和权威性，影响了执法效率。', '2018年承德市市场监督管理局工作总的要求：深入学习贯彻党的十九大精神，以习近平新时代中国特色社会主义思想为指导，紧紧围绕市委、市政府和省工商局、省食药局的工作部署，按照高质量发展要求，以开展“双创双服”活动为主线，全力推进商事制度改革、推动市场监管改革创新，努力打造一流的营商环境。推进实施“食品安全监管、药械安全监管、市场主体帮扶、企业信用监管、市场秩序优化、12315护民生”等六个专项行动，在市场主体培育、争创驰名商标、“双随机、一公开”监管、消费维权、食品药品安全等重点工作上实现新突破。', '深入学习贯彻党的十九大精神，以习近平新时代中国特色社会主义思想为指导，紧紧围绕市委、市政府和省工商局、省食药局的工作部署，按照高质量发展要求，以开展“双创双服”活动为主线，全力推进商事制度改革、推动市场监管改革创新，努力打造一流的营商环境。推进实施“食品安全监管、药械安全监管、市场主体帮扶、企业信用监管、市场秩序优化、12315', '一是围绕商事制度改革，服务发展大局，打造宽松便捷的市场准入环境。重点抓好“证照分离”试点推进工作，按照“四最”要求（环节最少、审批最快，效率最优、帮扶最好），开展好“双创双服”工作。全年培育市场主体2.8万户，鼓励新兴主体开展商标注册，推荐认定中国驰名商标3件以上，培育地理标志证明商标5件以上。', '重点抓好“证照分离”试点推进工作，按照“四最”要求（环节最少、审批最快，效率最优、帮扶最好），开展好“双创双服”工作。全年培育市场主体2.8', '按照“党政同责”要求，推进建立各级领导组织及工作运行机制，层层分解任务，将食品安全监管专项整治工作的各项举措落到实处，严把从农田到餐桌的每一道防线，促进食品产业高质量发展，全力保障人民群众饮食安全。', '加强对高风险药品生产经营企业和品种的监管，组织开展药品单品种质量风险分析，完善关键环节和控制点的风险防控举措。开展药品流通领域违法经营行为集中整治。实施医疗器械生产经营质量管理规范，监督指导医疗器械生产经营企业建立健全相应质量管理体系。', '认真执行新《中华人民共和国反不正当竞争法》，严厉打击混淆仿冒侵权、商业贿赂、互联网不正当竞争等重点领域行为。加大打击传销和规范直销工作力度。加强网络市场监管，优化网络市场协同共治。以驰名商标、涉外商标和老字号商标为重点，严厉打击侵犯商标专用权行为。以医疗、药品、保健食品等为重点，加大虚假违法广告整治力度。以维护农民合法权益为重点，深入实施红盾护农。', '五是围绕消费者至上理念，打造安全放心的市场消费环境。以与群众生活生产密切相关的商品以及新型消费品为重点，强化流通领域商品监管执法，抽检商品不少于700批次。抓好放心消费创建、星级示范店创建工作。深入推进12315“五进”工程和放心消费进景区创建活动，延伸消费维权触角。加强“大消保”机制建设，发挥保护消费者权益办公会议作用，构建社会共治良好局面。', '以与群众生活生产密切相关的商品以及新型消费品为重点，强化流通领域商品监管执法，抽检商品不少于700', '六是围绕促进诚信经营，打造以信用监管为核心的监管新模式。牵头做好“双随机、一公开”工作。在做好外部跨部门联合抽查的同时，加强内部“双随机”联合抽查，抽查比例不低于5%，抽查结果公示率达100%。做好企业、农民专业合作社和个体工商户2017年度年报信息、即时信息及履行职责过程中产生的信息公示工作。继续清理整顿现有散煤和成品油经营市场，严厉打击销售劣质散煤和不合格成品油违法经营行为，散煤销售网点主体、成品油经营主体抽检覆盖率达100%。', '牵头做好“双随机、一公开”工作。在做好外部跨部门联合抽查的同时，加强内部“双随机”联合抽查，抽查比例不低于5%', '深入学习党的十九大精神，把服务于人民群众美好生活的需要作为出发点和落脚点，按照“严谨、务实、创新、高效、廉洁”的要求，加强干部队伍的自身建设，提高领导班子的向心力、凝聚力和队伍整体的执行力。结合“两学一做”学习教育、纪律作风整顿转变工作作风，提高机关工作效率与质量。严格落实“两个责任”，切实履行“一岗双责”，加强警示教育、监督执纪，提升廉洁自律能力；寓服务于监管之中，增强服务意识、强化服务能力，提升群众满意度，大力创建学习型、实效型、清廉型、满意型机关，努力构建一支政治过硬、业务精通、作风优良、业绩一流的市场监管队伍。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>10</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>承德市行政审批局关于学习宣传贯彻党的十九大精神开展四强化四争创活动的实施方案</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018-04-12</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2018%2F4%2F12%2Fart_9945_279732.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_279732</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['承德市人民政府 领导活动 承德市行政审批局 关于学习宣传贯彻党的十九大精神开展 “四强化四争创”活动的实施方案', '承德市行政审批局 关于学习宣传贯彻党的十九大精神开展 “四强化四争创”活动的实施方案', '为深入学习贯彻落实党的十九大精神和省委九届五次全会、市委十四届二次全会精神，动员全局干部职工把思想统一到党的十九大精神上来，把力量凝聚到实现党的十九大确定的各项目标任务上来，全面提升行政审批效率和政务服务水平，推动新时代生态强市、魅力承德建设，局党组研究决定，在全局广泛开展学习贯彻落实党的十九大精神', '以党的十九大精神、省委九届五次全会精神、市委十四届二次全会精神和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党中央、国务院和省、市一系列重大决策部署，坚持依法行政与改革创新相结合、作风建设与能力建设相结合、软件建设与硬件建设相结合，解放思想，开拓创新，奋发有为，努力建设一流队伍，提供一流服务，营造一流环境，争创一流业绩，打造优质高效的行政审批体系和便民利企的政务服务体系，以行政审批工作水平的稳步提升助推全市发展环境不断优化，推动经济社会又好又快发展。', '在机关各科室、公共资源交易中心组织学习宣传贯彻党的十九大精神、开展“四强化四争创”活动，教育引导全局干部职工和大厅工作人员不忘初心、牢记使命，以永不懈怠的精神状态和一往无前的奋斗姿态，不畏艰难，真抓实干，力争全局各项工作走在全省前列。', '坚持理论与实践并重，深入学习党的十九大报告、新修订的《中国共产党章程》和各项决议，全面掌握蕴含其中的新理论新观点新论断，', '以认知完善促进头脑清醒，确保政治坚定，自觉在思想上政治上行动上与党中央和省委、市委保持高度一致', '；深入学习领会党的十九大的鲜明主题、主线灵魂，过去五年历史性成就和历史性变革，中国特色社会主义进入新时代的新论断，我国社会主要矛盾发生变化的新特点，“两步走”的战略安排，全面从严治党的总体要求和主要任务，党章修正案的新成果新要求，不断提高统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局的业务能力和实际本领；深入学习市委、市政府建设“生态强市、魅力承德”的各项决策部署，找准行政审批工作融入经济社会整体发展的切入点，进一步理清贯彻落实党的十九大精神的思路、方向、重点，深化行政审批制度改革，推动行政审批效率、政务服务效能不断提升；深入学习创新、协调、绿色、开放、共享五大发展理念，以全新的视野深化对“市场在资源配置中起决定性作用、更好发挥政府作用”的认识，在实践中创新，在改革中前进；深入学习开展行政审批业务所需专业知识，练就过硬技能，促进干部职工综合素质不断提高，为高标准完成各项工作奠定坚实基础。', '；深入学习领会党的十九大的鲜明主题、主线灵魂，过去五年历史性成就和历史性变革，中国特色社会主义进入新时代的新论断，我国社会主要矛盾发生变化的新特点，', '坚持依法行政与为民服务相结合，充分发挥行政审批局作为行政审批制度改革主力军的牵引带动作用，学习借鉴外地改革经验，加强实践探索，指导、督导各县市区行政审批局加快推进改革任务，不断丰富完善“一局一章管审批”的体制机制；建立实施一次性告知、限时办结、全程在线、联合勘验、重大项目会商等工作机制，不断提高行政审批工作的规范化水平；建立实施行政审批与日常监管信息共享、协调联动工作机制，推动行政审批与日常监管工作密切配合、衔接到位；建立实施“代办、领办、转办”工作机制，立足办事人员需求，主动靠前服务；按照“贴近基层、就近管理”的思路，持续向县区下放行政审批事项，按照“取消一批、整合一批、改进一批”的思路，进一步优化行政审批流程，缩短审批时限，提高工作效率，确保全局行政审批工作效率提高一半以上，提高企业和群众的满意度。', '坚持依法行政与为民服务相结合，充分发挥行政审批局作为行政审批制度改革主力军的牵引带动作用，学习借鉴外地改革经验，加强实践探索，指导、督导各县市区行政审批局加快推进改革任务，不断丰富完善', '坚持实体大厅与网上大厅同步建设，着眼实现“承德办事一次成”，进一步完善软硬件设施，畅通多种办事渠道。硬件方面，加强工作窗口标准化建设，统一办公用品设置，做到整齐划一；完善政务服务大厅综合服务功能，增设宣传板块和宣传橱窗，营造“放管服”的浓厚氛围；配套建设便民服务设施和生活设置，满足工作人员、来局办事人员的多层次需求。软件方面，积极适应党的十九大关于转变政府职能、深化简政放权、创新监管方式的新要求，研发完善行政审批软件系统，加强行政审批局官方网站、微信公众号、移动APP建设，推广网上审批和自助终端申请、办理业务，让信息多跑路、群众少跑腿，打造便捷高效、便民利企的政务服务环境。', '坚持思想建设和制度建设同步发力，开展“不忘初心、牢记使命”主题教育，引导全局干部职工和大厅工作人员牢记党为中国人民谋幸福、为中华民族谋复兴的初心和使命，牢记行政审批部门服务发展、服务人民的职责和任务，锤炼作风，团结协作，争创佳绩；健全完善大厅管理规章制度，做到用制度管人管事，时刻文明服务、规范服务，树立党员干部和行政审批队伍的良好形象；严格监督执纪问责，模范遵守党章党规，不折不扣落实中央八项规定和省、市一系列有关作风纪律的要求，不断增强党员和干部队伍自我净化、自我完善、自我革新、自我提高的能力，以实际行动带动全市发展环境不断优化。', '把学习习近平新时代中国特色社会主义思想和党的十九大精神，与“学习赛罕坝、加快走新路”大讨论活动、“转优促”活动结合起来，作为党组理论学习中心组学习的重点内容，列入今年第四季度和明年全年党员干部理论学习计划，创新形式，丰富载体，组织全局党员干部原原本本、逐字逐句深入学习，分专题进行专题辅导、体会交流，力求学懂、弄通、做实。建立机关理论学习日制度，将每周五下午确定为机关理论学习日，定期组织集中学习，定期交流心得体会，适时开展党的十九大精神知识竞赛。严格落实中央和省委、市委关于全面从严治党的各项要求，加强作风建设。开展“不忘初心、牢记使命”主题教育，重温入党誓词，强化宗旨意识，深入农村、社区、企业开展党员志愿服务活动，营造学习贯彻党的十九大精神的浓厚氛围（牵头领导：徐立新，牵头科室：机关党委）', '围绕学习贯彻落实党的十九大精神、加强领导班子和干部建设、深化行政审批制度改革，分层次召开机关科室负责人座谈会，各县市区行政审批局局长座谈会，企业家和群众代表座谈会，广泛听取意见建议，研究改进工作的方法措施。（牵头领导：闫景会，牵头科室：办公室）', '局领导带领各科室负责人分批次到广东、浙江和天津滨海新区、宁夏银川等地学习考察外地深化行政审批制度改革的经验做法，结合我市实际，改进提升工作。确定调研课题，组织工作人员以科室为单位深入到企业和群众中间开展专题调研，重点查找影响行政审批效能提升的瓶颈制约，研究解决问题的思路办法，撰写调研报告，提出针对性意见建议。（牵头领导：岳建华，牵头科室：政策法规科）', '对划入我局实施的行政许可事项进行认真梳理，按照“贴近基层、就近管理”的思路，研究提出下放事项的建议清单，报请市政府按程序下放县区实施。（牵头领导：岳建华，牵头科室：政策法规科）', '在制定印发《优化投资建设项目行政审批流程若干措施》的基础上，制定完善相关配套制度。启用行政审批专用章。对现有各事项行政审批流程进一步优化，实现审批时限至少压缩减半，整体审批效率提升60%以上。（牵头领导：魏占军、闫景会、岳建华；牵头科室：政策法规科；责任科室：各行政审批业务科室）', '在制定印发《优化投资建设项目行政审批流程若干措施》的基础上，制定完善相关配套制度。启用行政审批专用章。对现有各事项行政审批流程进一步优化，实现审批时限至少压缩减半，整体审批效率提升', '联合市编委办成立督导组，赴各县市区专题督导行政审批局组建工作，确保年底前各县市区行政审批局全部组建完成、并轨运行。（牵头领导：徐立新，牵头科室：运行监管科）', '加快推进机构设置、人员划转、干部配备、资产交接等工作，健全完善有关公共资源交易的各项规章制度，2017年底前完成机构组建，业务工作衔接到位。（牵头领导：李云腾，牵头科室：公共资源交易监督科、公共资源交易中心）', '加快推进机构设置、人员划转、干部配备、资产交接等工作，健全完善有关公共资源交易的各项规章制度，', '在现有工作措施的基础上，进一步制定完善“一次性告知”“代办、领办、转办”等大厅运行管理工作制度，确保各项工作规范、平稳、有序开展。制定实施政务服务大厅定期巡察、检查工作制度，坚持定期与不定期相结合，对工作人员的仪容仪表、言谈举止、到岗到位等情况进行监督检查，发现问题及时处理。落实“党员先锋指数”管理办法，制定量化考评和奖惩措施，开展“党员示范岗”“文明服务窗口”等评比活动，激励干部职工夺旗争星、事争一流，力争窗口工作“零失误”“零投诉”。（责任领导：徐立新，牵头科室：运行监管科；责任科室：各行政审批业务科室）', '与省政府、市直部门和研发企业加强沟通联系，立足需求加快建设全市统一、覆盖县乡、功能完善的新型政务服务平台。加强网上审批系统、自助办理终端的应用推广，提高网上办件、自助办件的比例。（牵头领导：刘全立，牵头科室：办公室）', '在现有设施的基础上，进一步升级政务服务大厅和公共资源交易市场的硬件设施；结合成立市公共资源交易中心，对现有办公用房统筹安排，按照功能进行适当改造，满足业务工作需要和办事人员的多层次需求，打造文明规范、公开透明、优质高效、便民利企的机关文化。（牵头领导：闫景会；牵头科室：办公室）', '2017年10月25日至10月27日。召开局党组会议，研究制定落实党的十九大精神的具体措施，制定“四强化四争创”活动实施方案。召开全局干部职工大会，集中传达党的十九大精神和省委、市委关于学习贯彻落实党的十九大精神的工作要求，对开展“四强化四争创”活动进行安排部署。', '2017年10月28日至11月20日。各牵头科室对承担的工作进行研究分析，制定工作方案，细化任务，明确时间表和路线图。各牵头科室于11月20日前将专项工作方案经主管领导批准后，报机关党委统一印发实施。', '2018年11月21日至12月31日。对学习宣传贯彻党的十九大精神“四强化四争创”主题活动进行回顾，总结经验做法，查找存在问题，并针对问题制定改进提升的工作措施，推动全局整体工作水平不断提升。各牵头科室于2018年12月10日前各专项任务工作总结报机关党委汇总。', '领导小组下设办公室，负责全局整体活动的组织、协调、督导以及信息宣传等工作。办公室设在机关党委，办公室主任由王丽松同志兼任。', '认真学习宣传贯彻党的十九大精神，事关党和国家工作全局，事关中国特色社会主义事业长远发展，事关最广大人民根本利益，对于动员全党全国各族人民更加紧密地团结在以习近平同志为核心的党中央周围，高举中国特色社会主义伟大旗帜，为决胜全面建成小康社会、夺取新时代中国特色社会主义伟大胜利、实现中华民族伟大复兴的中国梦、实现人民对美好生活的向往继续奋斗，具有重大现实意义和深远历史意义。全体党员干部要切实增强政治意识、大局意识、核心意识、看齐意识，切实把思想和行动统一到党的十九大精神上来，更加坚定自觉地贯彻落实党的十九大做出的各项决策部署，确保全局学习宣传贯彻党的十九大精神“四强化四争创”活动取得实实在在的效果。', '认真学习宣传贯彻党的十九大精神，事关党和国家工作全局，事关中国特色社会主义事业长远发展，事关最广大人民根本利益，对于动员全党全国各族人民更加紧密地团结在以习近平同志为核心的党中央周围，高举中国特色社会主义伟大旗帜，为决胜全面建成小康社会、夺取新时代中国特色社会主义伟大胜利、实现中华民族伟大复兴的中国梦、实现人民对美好生活的向往继续奋斗，具有重大现实意义和深远历史意义。', '机关各科室、公共资源交易中心要组织广大党员干部静下心来，原原本本、全面系统地学习党的十九大精神，吃透精神实质，掌握核心要义，做到学懂、弄通、做实。领导班子成员要以身作则、率先垂范，', '将学习宣传贯彻党的十九大精神、开展“四强化四争创”活动作为提升党员干部队伍整体素质的重要抓手，增强学习本领，善于学习、勇于实践，打造学习型党组织和学习型干部队伍；增强改革创新本领，提高创造性开展工作的能力，提高运用互联网技术和信息化手段开展工作的能力；增强依法行政本领，牢固树立宪法法律至上、法律面前人人平等的理念，自觉做到尊法学法用法守法，依法履职；增强抓落实本领，坚持讲实话、谋实事、出实招、求实效，雷厉风行、久久为功，把各项工作做实做细。', '领导班子成员对牵头工作要认真研究部署，加强检查督导，务求取得实效，切忌形式主义。机关各科室、市公共资源交易中心要在局党组的统一组织下，把学习贯彻落实党的十九大精神同日常工作紧密结合起来，创新形式载体，探索方法手段，努力增强活动的吸引力感染力和针对性实效性。各科室和公共资源交易中心负责人要统筹抓好日常工作和学习宣传贯彻党的十九大精神“四强化四争创”活动，进一步加强科室自身建设，树牢服务意识，严格科室人员管理，加强同原职能部门的工作联系，周密组织推动工作，确保“两不误”“两促进”。全体党员干部要强化政治意识，遵守政治纪律，自觉学习、宣传党的十九大精神、贯彻党的十九大精神，立足岗位抓学习、创新思路谋发展，切实把学习热情转化为推动工作的强大合力，把党的十九大精神不折不扣地贯彻落实到工作的全过程和各方面。', '领导班子成员对牵头工作要认真研究部署，加强检查督导，务求取得实效，切忌形式主义。机关各科室、市公共资源交易中心要在局党组的统一组织下，把学习贯彻落实党的十九大精神同日常工作紧密结合起来，']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>10</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>承德市党政代表团赴湖州咸阳西安学习考察</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F5%2F8%2Fart_360_60791.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_60791</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['本网讯（记者郎宝生、董云峰）继5 月2 日至3 日深圳招商推介之后，5 月4 日至6 日，市委书记周仲明、市长常丽虹带领我市党政代表团赴浙江省湖州市，陕西省咸阳市、西安市学习考察。学习借鉴湖州市生态文明建设地方立法、咸阳市袁家村发展乡村旅游、西安市曲江新区和西咸新区发展文化旅游产业园区的好经验好做法。市领导刘文勤、丁伟、王素芝、蔡福浩、苏铁成、董正国参加学习考察，当地党政负责同志及有关部门、市县负责人参加相关活动。', '我市党政代表团一行先后考察了湖州南太湖治理、莫干山镇，咸阳马嵬驿民俗文化体验园、礼泉县袁家村，西安曲江新区规划展示中心、曲江池遗址公园、大唐芙蓉园、西咸新区泾河新城乐华城·幸福小镇项目。代表团一行边走边看边议，与考察地相关负责人沟通交流互动，在踏查、座谈中加深了解、提高认识。', '紧锣密鼓的学习考察，大家收获颇丰。5 月6 日下午，我市党政代表团召开了学习考察座谈会，周仲明作总结讲话。', '周仲明指出，要全面加强招商引资工作。要充分发挥自身优势，抢抓京津冀协同发展和南资北移等机遇，围绕主导产业，盯住北京、天津、深圳、上海等重点区域，招大商、大招商，做到“对接一个项目、引来一批企业、打造一个产业”。各县区要成立招商引资工作领导小组，“一把手”带头抓招商，调动各方资源，形成招商合力。', '周仲明强调，要坚定不移地推进生态文明建设。要认真学习借鉴先进地区经验，加快推进生态建设和环境保护立法。要进一步强化“绿水青山就是金山银山”的发展理念，深入研究利用生态文明政策，守住生态底线，推动绿色发展，加快创建国家生态文明试验区。', '周仲明强调，要大力发展特色文化旅游。要深入挖掘利用特色文化资源，丰富旅游业态，推动文产城游融合发展。要重点引进大龙头、大集团，打造一批有规模、有特色、有吸引力的重点项目，加快建设美丽乡村和特色小镇，推动承德文化旅游产业加快发展。', '周仲明强调，要全力推进园区开发和科技创新。要进一步解放思想，创新园区管理机制，创新项目运作机制，全力打造发展平台，为产业发展提供有力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>10</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>借他山之石开拓崭新业绩承德市党政代表团赴湖州咸阳西安学习考察侧记</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F5%2F8%2Fart_360_60787.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_60787</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 借他山之石开拓崭新业绩——承德市党政代表团赴湖州、咸阳、西安学习考察侧记', '这是一次解放思想、开拓思路的学习之旅。这是一次更新观念、实干实政的求实之旅。5 月4 日至6 日，我市党政代表团一行赴浙江省湖州市，陕西省咸阳市、西安市进行学习考察。借鉴湖州生态文明建设地方立法、咸阳乡村旅游发展和西安曲江新区及西咸新区发展文化旅游产业园区的好经验好做法，广借他山之石，学思践悟，真抓实干，促进承德又好又快发展。', '湖州市是环太湖地区惟一因湖得名的城市。“苏湖熟，天下足”的谚语反映了湖州作为鱼米之乡的富庶。湖州之所以成为“天下粮仓”，源于太湖的一泓清水。但是，进入上世纪90 年代末，蓝藻的频发让湖州人一度陷入尴尬。“既要保护好生态，又要追求经济发展，实现太湖保护与开发的双赢”，湖州“举太湖旗、打太湖牌、做太湖文章”，累计投入300 多亿元开展太湖水环境整治，使流入太湖的水质连续9 年保持在III 类以上，切实打通了“两山”转化的通道。', '2016 年7 月1 日，《湖州市生态文明先行示范区建设条例》正式实施，这是全国首部专门就生态文明先行示范区建设进行立法的地方性法规。《条例》对当地生态文明规划建设、制度保障、监督检查、公众参与等作出了明确规定。我市党政代表团成员表示，承德正在创建国家级生态文明示范区，要积极学习湖州经验，加快建设步伐。', '当前，我市置身于京津冀协同发展的大格局，肩负着“京津冀水源涵养功能区、同步解决贫困问题”重大历史使命，既要“生态支撑、水源涵养”，又要“脱贫摘帽、全面小康”，想要实现转型突围，就要誓守生态和发展两条底线，牢固树立“绿水青山就是金山银山”的理念，像保护眼睛一样保护生态环境，像对待生命一样对待生态环境，以最严格的环境保护制度，把承德的秀美山川保护好。市委书记周仲明说，“要通过生态文明建设地方立法，让生态保护有法可依，以生态文明引领构建“十大绿色产业”体系，努力走出一条生态保护与经济发展的‘双赢’之路”。', '“行遍江南清丽地，人生只合住湖州”，道出了湖州良好的人居环境，莫干山镇正是湖州良好人居环境的典范。', '莫干山镇坐落在莫干山脚下，这里是天目山余脉，群山连绵，林木葱郁，云遮雾绕。全镇以原生态为依托，以“洋家乐”品牌为支撑，以“裸心养生”为特色发展高端乡村旅游产业，形成了以“低碳环保、中西融合”为理念，以“洋家乐”为代表的民宿经济为支撑带动乡村发展的莫干山模式。“莫干山庾村（现名燎原村）不仅环境优美，村民素质也非常高，可以说是发自肺腑地维护着生态，保护着环境。”一路走，一路看，党政代表团成员对有着“万国别墅博览园”美誉的莫干山镇啧啧称奇，“以一流的生态环境吸引游客，以一流的设施和服务留下游客”。“莫干山尽在不言中”，让游客的脚步慢下来、身子停下来，真正形成了美景吸引游客，游客拉动经济，富村强民反哺生态建设的良性循环。这对于我们承德发展乡村旅游业，打造美丽乡村，加快脱贫致富奔小康非常有借鉴意义。', '来到咸阳，马嵬驿民俗文化体验园是不能不去的。该园总占地233 亩，合理利用了自然的台塬地势、沟壑地形，李家坡村民废弃的窑洞院落，以杨贵妃凄美爱情的历史故事为依托，用泥塑的形式叙述了马嵬驿的由来。是一个集马嵬古驿站文化展示、文化交流、原生态餐饮、民俗文化体验、休闲娱乐、生态观光、环境保护于一体的新概念生态园。“修旧如旧，独具特色，在深度挖掘历史文化的同时，又做到了因地制宜，浑然天成，朴素大气。”代表团成员们纷纷竖起了大拇指。', '随后，我市党政代表团来到了有着中国乡村旅游第一“网红”之称的袁家村。在停车场，挂着鄂豫皖等外地牌照的汽车排成了长龙，乡村旅游之火可见一斑。走在石板铺垫的老街上，欣赏老艺人的皮影制作，手绘年画，走进老作坊，观看传统石磨榨油和酿酒、酿醋工艺，要一壶关中茯茶，聆听昂扬有力的“弦板腔”或在艺术长廊和创意青年交流思想，在小吃街、回民街饱飨关中美食，大快朵颐。', '从八十年代的村集体经济模式，到如今从现代设计与乡愁情怀中探索出的旅游大休闲模式，袁家村所讲述的就是一个资源贫瘠的西北山村励精图治的故事。袁家村党支部书记郭占武介绍说：“小吃街的醋、油、酒等原材料均为村民作坊按统一标准自制，图的就是一个原汁原味。”目前村里已经发展农家乐58 户，占总农户的95%以上，一户一个特色，一户一个品牌。2016年，全村共接待游客570 万人次，旅游总收入突破8000 万元。', '作别咸阳，奔赴西安。十三朝古都西安与清朝夏都承德都历史悠久，体味西安历史与现实的激情碰撞，交流承德加快发展的畅想，每名代表团成员心中都充满了期待。', '西安市曲江新区是文化部首批命名的两个国家级文化产业示范区之一，是陕西省、西安市确立的以文化和旅游为主导的城市发展新区。如今的曲江，入区文化企业近6000 家，涵盖了所有文化创意产业门类，CCBD、QCIC 两个超级文化产业聚集区格局初成。', '此外，在“大众创业万众创新”的时代召唤下，曲江新区抢抓以“互联网+”为代表的科技革命机遇，组建了西安文化科技创业城作为西安首个新型创业孵化器，并在随后打造了曲江创意谷产业园，建成创业城苗圃园区、产业聚集园区。目前，20 万平方米创客空间初具规模，一个以“文化+科技+无限可能”的产业园区正在推动曲江文化产业迈入转型发展新高度。', '在曲江新区规划展厅，代表团成员们详细了解了新区发展规划和历程，并纷纷表示：“曲江新区依靠文化、旅游和科技‘三驾马车’，不断扩大文化张力、生态引力和产业活力，实现了产业高端化、文化时尚化、城市国际化、环境品质化，确实品质高、生态优、产业强！我们搞园区建设，要进一步解放思想，搭建园区开发建设平台，在创新体制机制、管理机制和运作机制上下更大的功夫，以园区的发展为生态强市、魅力承德建设添砖加瓦。”', '中国第一个全方位展示盛唐风貌的大型皇家园林式文化主题公园——大唐芙蓉园坐落在曲江新区内，与大雁塔遥遥相望。', '湖岸曲折，楼台高耸，烟柳明媚，水满花盛。“盛唐文化已经作为一个重要元素融入到了西安这座城市之中。”曲江管委会姚立军介绍说，管委会定位于“城市文化运营商”，依托丰富文化遗产，整合历史文化资源，通过创意包装和策划实施一批重大文化项目打造旅游景区，形成文化旅游集群，并带动其他文化产业门类发展，形成文化产业规模优势，最终实现城市价值的兑现和提升，同时通过价值的提升来反哺文化产业发展。“这为我们承德做好遗产保护、城市发展等工作提供了鲜活的、可复制的经验”。', '在西咸新区泾河新城，代表团一行考察了乐华城·幸福小镇项目。该项目以中国首个过山车主题乐园——乐华欢乐世界为龙头，包括互动体验游乐、生态养生度假、高端商务休闲、自然绿色住宅四大板块，各种配套服务设施齐全，2016 年累计接待各地游客超过1000 万人次，直接和间接带动就业近万人。', '乐华城项目进一步带动了人气，促进了现代服务业的集群、集聚发展，完善了陕西旅游产品结构，开启了体验式、参与式文化旅游新时代，值得借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>10</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>承德市人民政府办公室关于印发承德市行政审批局筹建工作方案的通知</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F5%2F8%2Fart_9943_305410.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9943_305410</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['承德市人民政府 公告公示 承德市人民政府办公室关于印发承德市行政审批局筹建工作方案的通知', '《承德市行政审批局筹建工作方案》已经市委全面深化改革领导小组第十四次会议审议通过，现印发给你们，请结合实际抓好落实。', '为进一步深化行政审批制度改革、优化发展环境、释放经济社会发展活力，根据《中华人民共和国行政许可法》的相关规定，按照《承德市市县推行相对集中行政许可权组建行政审批机构的实施意见》，制定承德市行政审批局筹建工作方案。', '以党的十八大和十八届三中、四中、五中、六中全会精神、省第九次党代会精神为指导，全面贯彻落实习近平总书记系列重要讲话精神，正确履行政府职能，优化政府组织结构，深化行政审批制度改革，建立决策、审批、监管既相互制约又相互协调的运行机制，打造集中审批、分类监管、高效服务的政府治理模式，为推动全市经济社会又好又快发展，加快建设生态强市、魅力承德提供体制机制保障。', '根据省编委办、省法制办《关于同意承德市及所属县区设立行政审批局的通知》（冀机编办﹝2016﹞231号）意见，开展相对集中行政许可权改革，成立承德市行政审批局,加挂承德市政务服务中心和承德市公共资源监督管理办公室牌子，实施一套人马、三块牌子的管理体制，行使市级权限范围的行政审批权并对行政审批行为及结果承担相应法律责任，实现一局一章管审批。大力推进行政审批体制机制改革和相关配套改革，建设功能完备的行政审批软硬件系统，打造快捷、高效的行政审批体系和便民、利企的政务服务体系。', '按照应进必进、分类实施的原则，将市政府办（市政府法制办、市政府外事办、市金融办）、市发展改革委（市粮食局、市物价局）、市教育局（市教育工委）、市民政局、市财政局、市人社局（市公务员局）、市交通运输局、市水务局（市移民工作办公室）、市农牧局、市林业局、市商务局、市卫计委、市市场监督管理局（市工商行政管理局、市食品药品监督管理局、市政府食品安全委员会办公室）、市旅游发展委、市文物局、市质监局、市民宗局、市文广新局、市环保局、市司法局、市住建局、市城市管理局、市人防办、市档案局24个部门实施的行政许可事项和属于行政许可事项前置手续或环节的其他事项，原则上划转到市行政审批局实施。市城乡规划局、市国土资源局、市安全生产监督管理局3个部门实施的行政许可事项，在机关内部归并整合成立行政审批科，进驻市行政审批局（市政务服务中心、市公共资源监督管理办公室）设立窗口实施。市公安局实施的行政许可事项在市公安局各办事中心办理。实行垂直管理的市国税局、市地税局、市公安消防支队、市国家安全局、承德无线电管理局、市气象局、市烟草专卖局、市邮政管理局8个部门实施的行政许可事项，在市行政审批局（市政务服务中心、市公共资源监督管理办公室）设立工作窗口实施。（市编委办负责；市行政审批局筹建办、市法制办、承担行政审批职能的市直和中省直各单位配合）', '对划转到市行政审批局（市政务服务中心、市公共资源监督管理办公室）的事项进行梳理，找出相关事项之间的法律关系、业务关系和逻辑关系，全面掌握审批事项的职权依据、申请条件、提交资料、办理流程等构成要素。按照中央和省、市放、管、服改革的部署要求，进一步削减审批要件、减少审批环节、压缩审批时限，优化审批流程。创新行政审批工作机制，建立完善清单管理、现场办公、联合审查、统一评审、论证听证等制度，实行一表申请、一窗受理、关联审查、多证联办的审批模式。（市行政审批局筹建办负责；承担行政审批职能的市直和中省直各单位配合）', '根据划转到市行政审批局（市政务服务中心、市公共资源监督管理办公室）各事项的业务量情况、专业化程度、审批流程繁简等因素，研究制定市行政审批局（市政务服务中心、市公共资源监督管理办公室）的主要职责、内设机构、人员编制方案建议，经市编委会研究同意后，报市委、市政府批准。', '与原职能部门的职责，明确将有关部门的行政审批职责划转到行政审批局，审批职责划转后，原职能部门的主要职责是负责本行业发展战略、发展规划、有关政策、行业标准的制定和实施，加强市场活动监管，加强公共服务的有效供给。', '按照编随事走、人随编走的原则，从市直部门在编在岗的行政审批业务骨干中，挑选优秀年轻干部划转到市行政审批局（市政务服务中心、市公共资源监督管理办公室）工作。挑选干部的基本条件为：政治素质过硬，坚决拥护党的路线、方针、政策，自觉遵守国家法律法规；具有公务员身份或参照公务员法管理的工作人员身份或事业单位干部身份；熟悉政策法规，热爱行政审批工作，吃苦耐劳，为民服务意识和综合协调能力强，具有强烈的事业心、责任感和敬业精神；大学本科以上文化程度；品德优秀，公道正派，自律严格，务实清廉，群众基础好。优先划转副处级和科级后备干部。（市委组织部负责；市编委办、市人力资源和社会保障局、市财政局、市行政审批局筹建办配合）', '将现市政务服务中心作为市行政审批局（市政务服务中心、市公共资源监督管理办公室）机关办公和行政审批办事场所。按照组建机构与改造设施同步进行的思路，制定软硬件设施升级改造方案，按照功能分区对办事大厅、停车场等设施进行改造，建设功能齐全、设施完善、智能便民的行政审批大厅和公共资源交易大厅。在满足行政审批和公共资源交易工作需求的前提下，增强市行政审批局（市政务服务中心、市公共资源监督管理办公室）综合服务功能，为社保、医保、公积金、不动产登记、出入境管理、车辆税征收以及供水、供电、供暖、供气、通讯等与项目建设密切相关的服务事项进驻市行政审批局（市政务服务中心、市公共资源监督管理办公室）做好准备工作。（市行政审批局筹建办负责；市财政局、承担公共服务职能的市直和中省直相关单位配合）', '在全市智慧政务建设的总体框架内，建设开通市行政审批局（市政务服务中心、市公共资源监督管理办公室）官方网站，面向社会公开行政许可事项的名称、依据、条件、程序、时限、收费标准、办理结果等内容，接受社会各界监督。对市直部门行政审批数据信息进行整合，研发网上行政审批系统。同时，研发基于移动终端的承德掌上审批APP系统，打造立体化行政审批平台，实行实体行政审批大厅与网上办事大厅、线上审批与线下审批、网上审批与掌上审批多种形式相配合的行政审批服务模式，提高行政审批效率，提高服务质量。（市行政审批局筹建办负责；承担行政审批职能的市直单位配合）', '建立实施审监分离工作机制，对划转到市行政审批局（市政务服务中心、市公共资源监督管理办公室）的事项，由市行政审批局（市政务服务中心、市公共资源监督管理办公室）行使审批权，由市直相关部门行使监督管理权。行政审批过程需要的现场勘察、专家证审、论证听证等工作，由原职能部门配合市行政审批局（市政务服务中心、市公共资源监督管理办公室）完成。部分专业性较强的行政审批事项，由原职能部门出具意见。依托全市智慧政务系统做好信息双向反馈，市行政审批局（市政务服务中心、市公共资源监督管理办公室）第一时间将审批情况告知市直相关部门，市直相关部门及时将上级对口部门有关行政审批工作的文件、会议精神和事中、事后监管情况告知市行政审批局（市政务服务中心、市公共资源监督管理办公室），推动审批与监管工作有效衔接。制定完善规范行政审批行为、加强市行政审批局（市政务服务中心、市公共资源监督管理办公室）机关内部管理的规章制度，探索实行重大项目容缺受理、限时补报等工作机制，打造市行政审批局（市政务服务中心、市公共资源监督管理办公室）与市直部门互通互联、紧密合作、协调高效的工作格局。（市行政审批局筹建办负责；承担行政审批职能的市直和中省直各单位配合）', '坚持蹄疾步稳、统筹推进，按照抓机构组建、流程优化、智慧政务的顺序，分五个步骤实施。', '2017年4月完成。主要开展两项工作：一是成立承德市行政审批局筹建工作领导小组和筹建工作组，从市委办、市政府办、市委改革办、市编委办和市发改委、市市场监管局、市住建局、市人防办、市水务局、市卫计委等具有行政审批职能的部门抽调干部到市政务服务中心集中办公，统筹推进学习考察、调研论证、机构设置、软件开发、硬件改造等筹建工作。二是研究制定《承德市行政审批局筹建工作方案》，报市政府常务会议和市委全面深化改革领导小组审议。', '2017年4月完成。主要开展四项工作：一是组织部分县区和市直部门相关同志召开座谈会，对事项划转工作征求意见。二是对市直部门行政审批人员队伍进行摸底。三是制定《承德市各工作部门划转至市行政审批局（市政务服务中心、市公共资源监督管理办公室）的行政许可事项建议名单》和《承德市各工作部门划转至市行政审批局（市政务服务中心、市公共资源监督管理办公室）的其他事项建议名单》，提出未划转行政许可事项进驻市行政审批局（市政务服务中心、市公共资源监督管理办公室）办理方式的建议，报市委、市政府研究。市行政审批局（市政务服务中心、市公共资源监督管理办公室）正式对外办公后，面向社会公开。四是启动市行政审批局（市政务服务中心、市公共资源监督管理办公室）软硬件设施升级改造工作，加快推进行政审批系统软件研发和市行政审批局（市政务服务中心、市公共资源监督管理办公室）官方网站建设。', '2017年4月完成。主要开展两项工作：一是召开全市推行相对集中行政许可权改革暨组建行政审批机构动员大会，对市和县区同步组建行政审批机构进行全面部署。二是编制完成《承德市行政审批局（市政务服务中心、市公共资源监督管理办公室）三定方案》。', '2017年4月完成。主要开展五项工作：一是完成事项划转工作。二是完成市行政审批局（市政务服务中心、市公共资源监督管理办公室）领导班子配备工作。三是完成市行政审批局（市政务服务中心、市公共资源监督管理办公室）内设机构组建工作。四是完成筹建市行政审批局（市政务服务中心、市公共资源监督管理办公室）必需经费的拨付工作，确定并拨付开办费，采购和支付方式实施特事特办。五是市行政审批局（市政务服务中心、市公共资源监督管理办公室）对外挂牌。', '2017年6月底完成。主要开展九项工作：一是落实三定方案，完成市行政审批局（市政务服务中心、市公共资源监督管理办公室）工作人员划转工作和业务培训工作。二是完成《事项活页》《办事指南》编制工作。三是完成市行政审批局（市政务服务中心、市公共资源监督管理办公室）办公场所软硬件设施升级改造、相关办公设备采购工作。四是完成市行政审批局（市政务服务中心、市公共资源监督管理办公室）各事项所需文件资料、证照证书、网络密钥、专用设备等移交工作。五是完成国土、规划、安监等部门行政审批科和中央垂管部门、省垂管部门、部队序列部门行政审批窗口进驻市行政审批局（市政务服务中心、市公共资源监督管理办公室）工作。六是根据市行政审批局（市政务服务中心、市公共资源监督管理办公室）的承载能力，确定进驻的公共服务机构，采取招标方式，择优选择具有相关资质、与行政审批工作相关的中介服务机构，组织搬迁进驻，形成中介、审批、办证紧密链接的整体机制。七是进一步优化行政审批工作流程，制定《行政审批事项标准操作规程》，建立阳光透明的行政审批运行机制，推行行政审批服务标准化。八是制定完善并全面推行岗位责任、首问负责、服务承诺、即时办结、事中事后监管等相关工作运行机制和标准化运行机制，制发文件，公布实施。九是封存原市直部门行政审批用章，启用市行政审批局（市政务服务中心、市公共资源监督管理办公室）行政审批专用印章，以新的行政审批机制面向群众和市场主体开展服务。明确市行政审批专用印章的法律效力，在本市范围内通行有效，涉及个别在全省全国使用的，依法采取相应方式实施。', '开展相对集中行政许可权改革、组建市行政审批局（市政务服务中心、市公共资源监督管理办公室），是一项涉及方方面面的系统工程，必须统一思想、科学分工、协调联动、统筹推进。', '行政审批制度反映政府与社会、政府与市场、政府与公民良性互动的特定需求，需要跟随经济社会发展因需而设、因时而变。组建市行政审批局（市政务服务中心、市公共资源监督管理办公室），是我市落实党中央、国务院和省委、省政府全面深化改革部署，深化行政审批制度改革的重要举措，对于优化发展环境、激发市场活力、促进创新创业、构建社会秩序具有十分重要的现实意义。各级各部门和各级领导干部，一定要站在推动全市整体发展的高度，以对全市人民负责、对历史负责的态度，充分认清这项工作的重大意义，在思想上和行动上自觉与市委、市政府保持高度一致，统一思想，坚定信心，高标准抓好工作落实。', '组建市行政审批局（市政务服务中心、市公共资源监督管理办公室），是对市政府组成部门权力、利益的重大调整，需要在不断地研究探索中前进。筹建工作领导小组办公室要认真学习研究中央和省相关政策，积极稳妥地做好整体谋划和落实推动工作。领导小组各成员单位要密切配合、统筹协调，按照本部门承担的职能，各司其职，扎实做好各环节工作。编制部门负责制市行政审批局（市政务服务中心、市公共资源监督管理办公室）三定方案，做好行政审批事项和编制划转工作；组织部门负责做好市行政审批局（市政务服务中心、市公共资源监督管理办公室）领导班子配备工作；人社部门负责工作人员划转工作；财政、档案等相关部门负责做好国有资产、档案交接等相关工作。承担行政审批职能的市直部门，要将配合开展筹建市行政审批局（市政务服务中心、市公共资源监督管理办公室）工作摆上重要议事日程，主要领导亲自负责，组织力量对本部门实施的行政许可事项进行认真梳理，对照《河北省行政许可事项通用目录》，对完成本部门实施的行政许可任务所需工作人员数量进行测算，制定将本部门行政审批业务骨干划转到市行政审批局（市政务服务中心、市公共资源监督管理办公室）的工作方案，妥善做好证照密钥移交和干部职工的思想引导等工作，做好行政审批事后监管。', '自市行政审批局挂牌至6月底为过渡期。过渡期内，已明确划转的行政许可事项，仍由原职能部门实施，待事项划转到位后，由市行政审批局实施。目前市直各部门驻市政务服务大厅的工作人员，暂不撤回，留在大厅协助开展市行政审批局筹建工作。过渡期结束后，根据市政府统一安排，撤离大厅回原部门工作。', '将市行政审批局（市政务服务中心、市公共资源监督管理办公室）筹建工作列入市直部门综合考核。市纪委、监察局全程介入，对筹建工作实行全方位、无盲点的监督。对不执行市委、市政府决定，推诿应付、落实不力的单位及其主要负责同志、主管领导，对不服从组织决定的干部，依据有关规定严格执纪、严肃问责。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>10</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>张泽峰就我市承办年省旅游发展大会线路项目建设情况进行督导考察</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2017-05-08</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F5%2F8%2Fart_360_60786.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_60786</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 张泽峰就我市承办2018年省旅游发展大会线路项目建设情况进行督导考察', '本网讯（记者王畅）5月6日至7日，市委副书记张泽峰就我市承办2018 年省旅游发展大会线路各项目建设情况进行督导考察。他强调，要进一步提高认识、统一思想、提升层次标准、营造浓厚氛围、盯死项目、抓好结合与整合，办精彩、精湛、震撼的旅游发展大会。', '张泽峰沿2018 年省旅游发展大会计划路线，先后到塞罕坝森林小镇、图尔根（雁鸣湖）自驾车营地、太阳湖、大峡谷、御道口行宫（开幕式会场）、御道口冰雪温泉城、雍乾狩猎场、御道口温泉小镇、康熙驿站、五道沟游客服务中心、丰宁永太兴行宫和茶盐古镇、天成号驿站、鱼儿山牧场、京北（岗子）房车营地、神仙谷景区天马飞行小镇、黄龙山驿站、中国马镇（闭幕式会场）等项目实地督导考察。每到一处，张泽峰都仔细听取项目介绍，查看项目建设的进展情况，并要求有关单位和部门要做细做实项目前期准备工作，抓紧时间加快项目建设。', '张泽峰要求，要进一步提高认识、统一思想，充分认识到2018 年省旅游发展大会在承举办是一次提升我市旅游层次、 旅游水平的重大机遇，必须千方百计把握好这一机遇，把思想统一到办好精彩、精湛、震撼的全省第三届旅游发展大会上来。要进一步提升层次和标准，通过组织干部学习考察、邀请专家讲座、规划等多种方式，不断解放思想，提升眼界和层次，做到“领导有主意、专家有新意、企业有创新”，切实提高项目规划、包装和业态创新水平。要进一步营造浓厚氛围，干部人人说，群众口口传，让游客都能知晓明年省旅发大会在这里举办。要把项目盯死，建立相应的机制和保障，设立相关机构，通过拉练、通报、调度等多种方法，确保项目进度。要抓好结合和整合，要把项目建设与脱贫攻坚结合，服务百姓、致富百姓。要实现当前与长远结合，各方面要素和优势结合，秉持生态优先、绿色发展的必要性、鲜明的特色和科技的可靠性。各有关部门要撸起袖子加油干，用思想上的“快刀”斩开阻碍发展的“荆棘”，切实承办好2018 年省旅游发展大会，实现承德旅游发展水平的整体提升。', '市委办、市委农工委、市交运局、市旅发委、中国中建设计集团风景规划设计研究院、河北民族师范学院、丰宁满族自治县、围场满族蒙古族自治县、御道口牧场管理区有关负责同志和专家参加督导考察。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>10</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>承德市供销合作社年工作总结</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2017-04-26</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F4%2F26%2Fart_9941_221332.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_221332</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['年初以来，在市委、市政府的领导和支持下，承德市供销合作社紧紧围绕全市三农工作大局，按照改革强社、服务兴农的总体思路，坚持供销合作社主导的行业指导体系和社有企业支撑的经营服务体系两条主线，不断深化改革、强化服务，突出抓好项目建设，全面完成了省市综合改革任务及市委市政府重点工作任务目标,全市供销系统改革发展呈现良好态势,在围绕市委市政府工作中心服务三农工作中发挥了重要作用。', '年初以来，在市委、市政府的领导和支持下，承德市供销合作社紧紧围绕全市三农工作大局，按照改革强社、服务兴农的总体思路，坚持供销合作社主导的行业指导体系和社有企业支撑的经营服务体系两条主线，不断深化改革、强化服务，突出抓好项目建设，全面完成了省市综合改革任务及市委市政府重点工作任务目标', '作为全省供销社综合改革的试点市，2016年，全面完成省社下达的改革任务目标是承德供销社全年工作的重中之重。承德市供销合作社紧密结合承德实际，按照试点先行、稳妥推进，重点突破、典型带动的原则，积极谋划、主动作为，供销社综合改革试点工作高标准完成了省社下达的任务指标，顺利通过全省综合改革验收。全市供销合作社系统为农服务能力、经济实力和社会影响力显著提升。', '供销社综合改革试点工作高标准完成了省社下达的任务指标，顺利通过全省综合改革验收。全市供销合作社系统为农服务能力、经济实力和社会影响力显著提升。', '1、搭建政银企户保供销金融扶贫平台。在深化供销社综合改革工作中，我市将发展农村合作金融体系与精准扶贫相结合，在滦平县培育了政府、银行、农民合作社联合社、农户、保险五位一体的金融扶贫发展新模式，形成典型经验，并以市政府名义出台了《承德市政银企户保供销金融扶贫平台管理暂行办法》，按照双审、双保的模式，着力搭建破解农民融资瓶颈平台，全市形成了供销社主导、市场化运作、全链条防控、多渠道融资的金融扶贫工作格局。政银企户保供销金融扶贫平台建设经验得到了全国总社、省社和市委市政府的高度重视，两次在总社王侠主任召开的座谈会上做典型发言，9月22日，全省金融扶贫工作现场会在我市召开并在全省推广。市委市政府高度重视，把政银企户保供销金融扶贫平台打造成为了全市精准扶贫工作的重要平台和主要抓手。', '在深化供销社综合改革工作中，我市将发展农村合作金融体系与精准扶贫相结合，在滦平县培育了', '政府、银行、农民合作社联合社、农户、保险五位一体的金融扶贫发展新模式，形成典型经验，并', '按照双审、双保的模式，着力搭建破解农民融资瓶颈平台，全市形成了供销社主导、市场化运作、全链条防控、多渠道融资的金融扶贫工作格局。政银企户保供销金融扶贫平台建设经验得到了全国总社、省社和市委市政府的高度重视，两次在总社王侠主任召开的座谈会上做典型发言，9', '2、组建农村产权交易中心。市政府明确供销社是全市农村产权流转交易工作的主管部门，各县区把已成立或未建的农村产权交易中心归口供销社组建、运行和管理。目前，市、县、乡农村产权交易中心全部建成并具备运营条件，其中围场、丰宁、隆化、滦平、宽城、承德县实现与省农村产权交易中心联网对接，全市共流转土地2953亩，交易金额262万元。', '供销社是全市农村产权流转交易工作的主管部门，各县区把已成立或未建的农村产权交易中心归口供销社组建、运行和管理。目前，市、县、乡农村产权交易中心全部建成并具备运营条件', '，其中围场、丰宁、隆化、滦平、宽城、承德县实现与省农村产权交易中心联网对接，全市共流转土地2953', '3、启动了承德农村合作银行组建工作。在政府主导下，成立了市长为组长的领导小组，市金融办和市社抽调人员组建筹建机构，市财政和市供销社已筹集资金1亿元，拟募集社会资本4亿元，组建承德农村合作银行，申报方案获省政府批准，已进入银监会申报审批程序。', '4、筹建新合作相互保险公司。根据国务院有条件的供销合作社可依法设立农村互助保险组织，开展互助保险业务的相关精神，4月12日，中国人保集团与河北省供销社达成共同组建新合作互助保险组织合作意向。目前，承德市供销系统各级社、企业积极参与省社新合作互助保险组织筹建，分别以主要发起人和一般发起人的身份成为互助保险组织会员为农民开展土地流转履约保证险和农产品成本价格险等保险产品，建立一个当地政府管得住、用得上，群众信得过，具有自己特色，为当地经济发展服务的保险公司。各市县设分公司。', '根据国务院有条件的供销合作社可依法设立农村互助保险组织，开展互助保险业务的相关精神，4', '1、坚持市场化方向，成立承德供销集团。市委市政府对市供销社建设以社有企业为支撑的经营服务体系和以供销社为主导的行业指导体系工作十分重视，就成立承德供销集团问题进行了专题研究，决定成立与市供销社人财物彻底分开、独立运行的集团法人单位，成为全市五大直接隶属于市政府管理的大型企业集团之一。今年1月承德供销集团正式注册成立，4月市委批准成立承德供销集团党委。承德市供销集团经营管理制度进一步完善，超10亿元的企业资产已全部划转集团公司，一批重点项目相继落地。全系统购销总额80亿元，实现利润681万元，市本级供销社经济实力有明显提升，成为供销社发展的新亮点。承德供销集团的成立，是我市认真贯彻落实《中共中央国务院关于深化供销合作社综合改革的决定》精神，全面深化社有企业管理体制改革的一次全新探索，在新型资产运营管理体系的建立上又向前推进了一步。各县供销社全部按照三位一体改革要求，成立了供销集团或资产中心，供销社+联合社+供销集团（资产中心）三位一体组织架构已经形成，开始运行。', '市委市政府对市供销社建设以社有企业为支撑的经营服务体系和以供销社为主导的行业指导体系工作十分重视，就成立承德供销集团问题进行了专题研究，决定成立', '与市供销社人财物彻底分开、独立运行的集团法人单位，成为全市五大直接隶属于市政府管理的大型企业集团之一。今年1', '承德供销集团的成立，是我市认真贯彻落实《中共中央国务院关于深化供销合作社综合改革的决定》精神，全面深化社有企业管理体制改革的一次全新探索，在新型资产运营管理体系的建立上又向前推进了一步。各县供销社全部按照三位一体改革要求，成立了供销集团或资产中心，供销社+', '2、健全理事会、监事会制度。强化供销社主导的行业指导体系建设，理顺工作关系，经市委市政府批准设立市供销社监事会机构，配备了正处级监事会主任，监事会组成人员已经到岗就位，监事工作开始运行。8个县社参照市社做法，向县委、县政府提交了完善供销社监事会制度的报告，积极协调编制等有关部门给予支持，所有县区均已成立供销社监事会。', '强化供销社主导的行业指导体系建设，理顺工作关系，经市委市政府批准设立市供销社监事会机构，配备了正处级监事会主任，监事会组成人员已经到岗就位，监事工作开始运行。8', '县社参照市社做法，向县委、县政府提交了完善供销社监事会制度的报告，积极协调编制等有关部门给予支持，所有县区均已成立供销社监事会。', '1、坚持合作制原则，基层社多元化改革稳步推进在全省率先示范推广了两社融合模式，即基层社领办农民合作社，农民合作社改造基层社，实现两社在组织、经营、服务上深度融合，协同发展，共建成具有两社融合性质的新型基层供销社120个，吸纳230家农民合作社加入新型基层社，直接参与26个主导优势和特色产业发展，带动农民就业8.3万人，每年帮助农民增收近8亿元。', '基层社领办农民合作社，农民合作社改造基层社，实现两社在组织、经营、服务上深度融合，协同发展，共', '2、推进体制创新，联合社实体化改革全面开展。经市政府批准，市供销社联合所有县级农民合作社联合社，注册成立了承德市供销农民合作社联合社。按照打造市场经营主体、为农服务载体、合作经济组织联合体的标准，以基层社和农民合作社为成员，逐级联合组建跨产业、跨区域的综合性农民合作社联合社，全市组建乡镇级供销农民合作社联合社188个，实现市、县、乡农民合作社联合社全覆盖。为了提升基层组织建设水平，打造功能齐全，职能完备的全新基层供销合作社，争创省级示范供销社，我市将培育示范供销社作为供销合作社综合改革的重点工作来抓，确定重点、谋划方案，着力打造了围场、承德县、平泉三个县级示范供销社以及平泉县黄土梁子、承德县三家等一批销售总额在亿元以上、包含社区综合服务中心、合作金融超市、电商平台的24个基层示范供销社。', '按照打造市场经营主体、为农服务载体、合作经济组织联合体的标准，以基层社和农民合作社为成员，逐级联合组建跨产业、跨区域的综合性农民合作社联合社，', '全市供销社综合改革工作取得显著成效，为农服务能力、自身经济实力、在党委政府占位以及社会影响力都得到了显著提高。一是影响深远。今年4月份全国总社主任王侠、今年4月份全国总社王侠主任、省长张庆伟、省委副书记赵勇、市委书记周仲明都对我市建立供销金融扶贫平台做法给予充分肯定，并分别做出了重要批示；新华社、《人民日报》、《河北日报》、《承德日报》、河北电视台、承德电视台都报道了我市供销社综合改革事迹；我市供销社综合改革工作经验在京津冀沪渝四市一省供销社协同发展协作会议上进行了介绍，得到了与会人员的高度评价。二是支持力度大。我市在省支持供销社综合改革方案基础上又增加了８项货真价实内容，其中市级财政列入专项资金3000万元，用于组建承德农村合作银行；市级财政每年安排500万元、县区财政每年不少于100万元的资金列入同级财政预算，用于支持供销社主导的公益性农产品批发市场建设；财政每年安排300万元，县财政每年安排100万元专项资金列入财政预算，设立供销社系统农民合作社发展基金，用于支持供销社改革和农民合作社发展；全市设立政银企户保供销金融扶贫平台风险补偿金2.5亿元。各级财政列入预算的资金支持力度前所未有。', '为农服务能力、自身经济实力、在党委政府占位以及社会影响力都得到了显著提高。一是影响深远。今年4', '、《河北日报》、《承德日报》、河北电视台、承德电视台都报道了我市供销社综合改革事迹；我市供销社综合改革工作经验在京津冀沪渝四市一省供销社协同发展协作会议上进行了介绍，得到了与会人员的高度评价。', '1、充分发挥政银企户保担保平台作用，为精准扶贫提供融资服务。在市委、市政府的高度重视下，各县区积极作为，强劲推动，供销、扶贫、财政、农业、银行、保险等部门合力攻坚，政银企户保金融扶贫担保平台在全市精准扶贫工作中发挥了重要作用。截至目前，共到位扶贫贷款风险补偿基金6.23亿元，可撬动银行授信贷款规模62亿元，平台已发放贷款34.14亿元，涉及农户82000余户，有效缓解了农民融资难、融资贵的问题，形成了政府能协调、农民用得着的农村扶贫金融模式，为三农工作发展提供了资金支持，供销社成为我市脱贫攻坚的重要力量。探索了多户联保模式、龙头带动模式、公司+合作社+农户模式等多种扶贫支农模式，供销社在乡、村一级设立金融超市，农民可以足不出乡（村）就可以实现向平台申请50万元以内贷款，2000元以内取款以及存款、转账、保险、产权交易、电话缴费、网上购物、邮件寄送等便捷服务。政银企户保平台合作金融业务向农村延伸和拓展，解决了农村金融服务最后一公里问题。', '2、搭建农村资源配置平台，为农民提供农村产权交易服务。着力推进市、县、乡三级农村产权交易平台建设。市县两级都建成了农村产权交易中心，制定完善了管理制度，完成了办公设施配备，操作软件调试，人员岗前培训等工作，具备了运营条件。滦平、丰宁、隆化等6个县实现与省农村产权交易平台对接，兴隆县与北京平台进行了对接。市政府出台了《关于引导农村产权流转交易市场健康发展的实施意见》。市农村产权交易中心专门赴山东进行了学习考察，进一步开拓了视野和思路，待各县区农村资产确权工作完成后，交易平台业务将及时全面展开。', '着力推进市、县、乡三级农村产权交易平台建设。市县两级都建成了农村产权交易中心，制定完善了管理制度，完成了办公设施配备，操作软件调试，人员岗前培训等工作，具备了运营条件。滦平、丰宁、隆化等6', '3、加快推进农产品现代流通网络建设，为农民生产生活提供电商服务。承德农产品冷链物流园项目是全市重点民心工程，今年，供销社下大力量抓好这个项目建设工作，预计明年年底建成投入使用。该园区总建筑面积30万平方米，设有农产品区、电子商务区、物流配送区、农产品加工区、低温冷藏区、名品展示展销区、生活服务区七个功能园，园区建成后，设计年交易量200万吨，交易额100亿元，将成为华北地区规模最大、功能最完善、配套设施最齐全、辐射范围最广的绿色、安全、高效的农产品冷链物流集散中心和批发中心。加快市县农产品电子商务建设，8个县与省社农交汇、八方联采等网上平台进行了对接，全市发展电子商务村级服务站189家，其中50个美丽乡村建设示范村建成电商服务站25家，供销社农产品电子商务经营额达1600多万元。', '4、在现代农业发展和美丽乡村建设上担当作为，为农村提供全程社会化服务。适应新型城镇化和城乡一体化日益推进，农村居民消费结构不断升级的新趋势，大力发展农村社区综合服务中心，开展全方位、一站式服务，满足农民多样化、个性化需求。全市依托基层供销社共建设乡镇综合服务中心30家，依托供销社网络延伸，建设村级综合服务社1300家，为农民提供日用消费品、农资供应、农产品收购、文体娱乐、便民金融等多样化服务。', '适应新型城镇化和城乡一体化日益推进，农村居民消费结构不断升级的新趋势，大力发展农村社区综合服务中心，开展全方位、一站式服务，满足农民多样化、个性化需求。全市依托基层供销社共建设乡镇综合服务中心30', '把项目建设作为供销社改革发展的重要抓手，举全社之力，奋力攻坚，寻求突破。抓住京津冀协同发展和行业综合改革的有利时机，瞄准上级政策支持，加大项目跑办力度，截至目前，开工建设项目达12个总投资43.3亿元。服务三农的能力和行业的社会影响力明显增强。承德农产品冷链物流产业园总投资20亿元,已被省发改委列为河北省十三五期间重点扶持的农产品流通项目, 目前已完成投资1.4亿元，全市建成或正在开工建设的农产品交易市场、县城商贸综合体等重点项目22个。总投资10亿元的承德县商贸综合体项目三期和总投资11亿元的隆化县商贸综合体项目一期工程完成主体工程。围绕美丽乡村建设，累计投入2亿多元，建设了30家集公益性和经营性为一体的乡镇综合服务中心，为60多个乡镇、200多个行政村提供社会化服务。积极争取上级农业综合开发供销社示范社项目资金840万元，共投资2289万元，实施了承德市副食品总公司产业融合项目。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>10</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>承德市党政代表团赴天津市学习考察回访汇报</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2017-03-30</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2017%2F3%2F30%2Fart_9945_201669.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_201669</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['李鸿忠代表天津市委、市政府对承德市党政代表团来津考察表示欢迎。他说，去年11 月天津与河北两省市签署1+4合作协议以来，津承各部门通力合作，两市五对区县建立结对帮扶关系，各项对口帮扶工作扎实推进。30 多年前，承德倾力支持引滦入津工程建设，为天津送来了生命之源，天津人民心怀感恩、铭记在心。在习近平总书记亲自谋划、亲自推动的京津冀协同发展重大国家战略大背景下，天津与承德以帮扶之援续写兄弟之缘。天津要坚决落实党中央决策部署，把有限的援助资金与无限的津承真情结合起来，与全社会的无限力量结合起来，充分发挥市、区两级优势，抓深入、抓落实、抓落地，确保扶贫协作和对口帮扶工作取得更大突破。希望以承德党政代表团来津为契机，深化两市在轨道交通、生态环保、产业发展等领域合作，共享京津冀协同发展成果。', '周仲明代表承德市委、市政府对天津的大力帮扶表示感谢。他说，此次承德党政代表团带着感恩之心、诚挚之心来津考察学习。一条滦河水，浓浓津承情。特别是对口协作和结对帮扶，让津承之情亲上加亲，一批新的协作项目取得实质性成果。承德将认真落实1＋4合作协议，感恩天津、学习天津、服务天津、借力天津，把天津经验转化为承德做法，落实到生态建设、水源涵养、脱贫攻坚各项工作中，把天津帮扶承德的深情厚谊传达给全市广大干部群众，借力帮扶，激发内生动力。承德将继续积极营造良好服务环境，推动帮扶项目尽快落地生效，早日实现小康目标。承德坚决把各项工作做好，以优异的工作实绩，回报天津人民浓浓援助之情。承德将始终坚守生态底线、坚持绿色发展，为京津冀生态环境质量持续改善和生态文明建设水平提升，做出积极贡献。', '天津市委常委、常务副市长段春华，市人大常委会副主任散襄军、副市长李树起、市政协副主席李文喜，市政府秘书长，市委、市政府副秘书长，合作交流办主任及东丽区、西青区、津南区、北辰区、武清区委书记，市直有关部门负责同志，中德应用技术大学、建筑设计院及相关企业负责人分别出席相关活动。承德市领导韩福才、丁伟、路立营、陈德光、魏莉、柴山，市政府秘书长，市直有关部门及围场满族蒙古族自治县、兴隆县、平泉县、隆化县、承德县等政府负责同志参加学习考察和回访汇报。', '在津期间召开了两地对口帮扶工作座谈交流会。周仲明介绍了承德市落实天津对口帮扶承德工作有关情况，李树起总结归纳了帮扶取得的初步成效并安排部署了下一步天津对口帮扶承德工作。', '天津市东丽区、津南区、西青区、北辰区、武清区分别与我市承德县、隆化县、平泉县、兴隆县、围场满族蒙古族自治县签署了《携手奔小康行动协议书》，通过一对一结对，在产业、教育、医疗卫生、干部人才、文化旅游、生态环保、劳务协作等领域开展合作，推动精准帮扶。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>10</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>农村基层党建五项工程助力扶贫攻坚</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2016-11-18</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F11%2F18%2Fart_360_62744.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_62744</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['本网讯（记者马思稳，通讯员张雪松）今年以来，我市全力实施农村基层党建“五项工程”建设，全面助力脱贫攻坚。', '实施“堡垒示范”工程。今年初，全市共排查农村软弱涣散基层党组织363 个，其中906 个贫困村排查软弱涣散基层党组织275 个，全部择优派遣了“第一书记”和帮扶工作队，明确县级领导包保责任制。', '实施“致富先锋”工程。做好村庄规划，盘活发展资源，找准致富门路，打造“一村一品”“多村一品”的特色产业，辐射和带动贫困农户创业创富。全市贫困村党员干部中，1341 名致富带头人创办领办专业合作社1158 个，辐射带动6.3万名贫困群众，成为了组织引领群众脱贫致富的“领头雁”。', '实施“能力提升”工程。将村干部教育培训纳入全市干部教育培训总体规划，通过采取专家学者授课、领导干部辅导、先进典型示范、实地学习考察等方式，全面提高村党组织书记和村干部引领经济发展、服务农民群众、化解矛盾纠纷、带领群众致富的本领。', '实施“能人返乡”工程。鼓励、支持和吸引在外优秀人才返乡创业，目前已有1894 名在外创业有成人员回乡创业。采取“支部+能人”“能人+公司”“能人+合作社”“能人+基地”等模式，建设一批返乡创业园区，在资金、项目、技术等方面给予重点扶持。全市累计对返乡能人提供扶持资金9188 万元，扶持创业项目704 个。', '实施“结对帮扶”工程。安排驻村工作组所在单位的党员干部与帮扶村贫困户结对帮扶，开展“四帮四送”，即帮思想、帮技术、帮解难、帮项目，送政策、送科技、送法律、送信息。全市各级派驻单位党员干部共与贫困户结对7.49 万个。工会组织深入开展职工精准帮扶普惠化行动、困难职工创业就业扶持行动，加大龙头企业工会组织建设，发挥广大会员领富、带富作用。共青团组织积极开展“脱贫攻坚党旗红、青年建功当先锋”活动，在贫困村建立青年脱贫攻坚突击队612 个，培养青年致富带头人2833 人。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>10</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>我市党政代表团赴河北邢台学习考察</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2016-05-20</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F20%2Fart_9945_200550.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_200550</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['5 月12 日，市委书记周仲明、市长常丽虹率承德市党政代表团赴河北邢台学习考察，学习邢台招才引智推进校地合作加快园区建设、深化行政审批制度改革等方面的好经验好做法，共商两地深化合作大计。 邢台市委书记张古江，邢台市委副书记、市长董晓宇，邢台市委常委、常务副市长宋文玲、邢台市人大常委会副主任尹全峰、邢台市政协副主席冯利敏，邢台市委秘书长宋洪修陪同考察，并参加相关活动。我市领导刘文勤、张树民、丁伟、吴清海、王学，邢台市南和县委书记，威县委书记、县长，任县委书记、县长，邢台市部分市直部门主要负责同志，我市各县区委书记、县区长及部分市直部门主要负责同志参加学习考察。 12 日上午，我市代表团一到邢台首先参观了南和县农业嘉年华项目，学习南和县抢抓京津冀协同发展机遇、招才引智推进校地合作等方面的经验做法。该项目总投资3 亿元，项目规划建设综合服务区、创意风情馆、高效农业示范区、农业迪士尼主题乐园、精致乐活体验区五大功能区，涉及农业品种之多、运用技术之先、涵盖形式之广，在国内外农业嘉年华项目中前所未有。在实地参观创意风情馆各个展厅后，周仲明对项目给予高度评价，称赞该项目为推进河北农业现代化、精准化、智慧化起到了引路导航作用。 下午，代表团参观了威县行政审批局、市民服务中心。近年来，以被确定为全省综合改革试点为契机，威县深化行政审批制度改革，在全省率先成立行政审批局，实现一枚印章管审批，并建立全省首家县级市民服务中心，推动集中审批与现场服务深度融合。代表团实地了解了审批局和市民服务中心运行情况，周仲明认为邢台集中现场审批，大大提高了效率，为各地创造了宝贵经验。承德将以此次考察为契机，进一步深入学习威县做法，在承德大力推广邢台的改革经验。 我市代表团还参观了威县经济开发区规划建设情况，实地考察了北汽有限公司（威县）生产基地。北汽有限公司（威县）生产基地是威县对接京津重大成果之一。项目总投资约33 亿元，计划新上轻型客车、微型客车、城市SUV、皮卡和2 条新能源汽车生产线，引进相关零部件配套企业。代表团实地参观了生产线和产品，认为这个项目是转型升级的典范，为提升产业发展的层次和水平提供了良好范本。 最后，我市代表团学习考察了任县邢州湖公园南水北调项目。在听取任县委书记、县长李海林对相关情况的介绍后，周仲明说，任县借助国家南水北调方略，引黄河水入任，开展八湖十二河全县域水生态修复工程，一举多得，值得我们认真学习。 邢台市委书记张古江代表邢台市委、市政府，对承德市党政代表团来邢考察表示欢迎。希望邢承两地加强交流、互通有无，深化合作、共同进步，为建设经济强省、美丽河北做出更大的贡献。 两市就进一步深入合作事宜交换了意见。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>10</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>京津冀巾帼创业行暨妇女农业示范基地观摩团到承德市现场观摩</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2016-05-25</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F25%2Fart_360_61675.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61675</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 “京津冀巾帼创业行”暨妇女农业示范基地观摩团到承德市现场观摩', '本网讯 为加强京津冀三地妇女融合和发展，促进农业示范基地交流与合作，进一步推动农村妇女创新创业，5 月24 日，“京津冀巾帼创业行”暨农业示范基地项目观摩团到我市滦平县现代农业示范园进行观摩。', '5 月23 日至27 日，京津冀三地妇联联合开展“京津冀巾帼创业行”暨农业示范基地项目对接活动。三地主管部门重点学习考察其他地区科技含量较高、示范带动效应明显、具有协同发展潜力的巾帼现代农业科技示范基地、手工编织基地、妇女创业就业基地及众创空间等，以此加强三地妇女的融合和发展，促进农业示范基地的交流合作，推动农村妇女创新创业。', '吴清海首先向观摩团一行的到来表示热烈的欢迎，他说，承德地域广阔、区位优势明显、水资源丰富、森林覆盖率高、文化底蕴深厚。一市连接“京津冀辽蒙”五个省市区，直通京唐、曹妃甸、天津、秦皇岛四大港口，“环京津、环渤海”两大优势并存，是国家首批24 个国家历史文化名城之一，被誉为“天然氧吧”和“华北绿肺”。此次“京津冀巾帼创业行”观摩对接活动意义深远，为“十三五”期间京津冀的协同发展起好步、开好头，建立了友谊的桥梁，搭建了三地女企业家相互交流的平台，必将为加快推进京津冀协同发展注入更多女性力量。欢迎大家到承德多看一看，实地感受这片热土的生机与活力，多提宝贵的指导意见。同时，祝愿三地的经济交往越来越密切，人民的友谊地久天长。（记者 孙涛）']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>10</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>承德日报评论员围绕全市发展大局在重点工作上实现新突破</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2016-05-17</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F17%2Fart_360_61624.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61624</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['心动不如行动，行动贵在落实。学习考察，关键是要把别人的经验变成自己的思考、变成自己的行动、变成自己的发展成效。切实用好我市党政代表团赴江浙宁及邢台学习考察成果，最重要的就是要把这次学到的好理念、好经验、好做法真正理解好、消化好、吸收好，变成我们自己切切实实的行动。我们要认真贯彻落实中央和省委、市委一系列重要决策部署，切实增强贯彻落实的自觉性，出真招、用实劲，实干、苦干、巧干、敢干，在事关全市发展大局的重点工作上取得新突破。', '理念是先导，行动是关键。在京津冀区域来看，我们的生态环境确实首屈一指，但是与盐城、安吉，尤其是桐庐相比，无论是绿化档次、水平，还是植被盖度，我们都还存在一定差距。作为京津冀水源涵养功能区，承德有着诸多的发展优势和比较优势，但是发展却不尽人意，究其根本，就是在具体落实上还存在欠缺，在行动上还没有新突破。我们必须认真学习他们的好经验、好方法，进一步统一思想、坚定信心，树立“一切围着发展转、一切为了发展干”的强烈发展意识，把发展作为第一要务，始终坚持发展为上、实干为本，敢于担当、狠抓落实、一年接着一年干，打定主意就干、干就干到最好，确保各项工作不断取得新进展。', '用好学习考察成果，要在聚焦绿色发展、巩固生态优势、发挥生态引力上取得新突破。绿色发展是承德的根本，要把这个理念深入人心，通过实施“再造三个塞罕坝”、六篇水文章、京津风沙源治理、京冀水源林、滦河武烈河流域治理、绿色矿业示范区建设等一系列生态工程，坚定不移地走出一条通过“发展生态”实现“生财聚财”、通过“涵养水源”实现“拓展财源”的多赢之路，真正把绿水青山变成金山银山；用好学习考察成果，要在聚焦转型升级，加快发展十大绿色产业上实现新突破。转型升级事关承德发展命脉，事关承德事业前途。考察的盐城大数据产业园，银川智慧城市、世界电竞中心，杭州电子信息大数据产业，他们正在全力转型升级，大力发展“高精尖特”的新型产业，而且行动迅速、措施有力、成效显著。我们要围绕确定的“十大绿色产业”，坚持“绿色化、特色化、差异化、增量调整”思路，通过“增量调整”实现存量和增量的互补，靠项目的增量，实现扩总量、调结构、增比进位，打一场转型升级的漂亮仗；用好学习考察成果，要在聚焦全面改革，释放市场活力上取得新突破。坚持“非禁即许”原则，再造审批流程，为市场主体清障松绑、助力加油，从根本上破除制约承德发展的障碍；用好学习考察成果，要在聚焦创新驱动，营造“双创”环境、拓展“双创”空间上取得新突破。发展的动能在创新，发展的潜力也在创新。这次学习考察，形成的一个强烈共识，就是创新是引领产业转型升级的核心动力， 是唯一的方向和出路。必须坚持把创新作为引领承德发展的第一动力，营造“双创”环境、拓展“双创”空间，为承德实现跨越发展培育新动能；用好学习考察成果，要在聚焦城乡统筹，供给侧小镇和美丽乡村建设上取得新突破。小康不小康，关键在老乡。“脱贫摘帽、全面小康”，必须以美丽乡村建设为总抓手，建成一个美丽乡村，实现“一个村”的整村脱贫。建成一个特色小镇，实现“一个片区”整体脱贫；用好学习考察成果，要在聚焦产城融合，全面提升园区建设管理的质量和水平上取得新突破。取人之长，补己之短。用好考察成果，关键是要学习别人的优点，补齐承德发展的短板。园区是承德最大的短板，同时也是未来稳定增长的支撑、转型升级的龙头、绿色发展的示范、城市建设的引擎，我们要坚定信心，强化基础设施、运营模式、特色产业等，建设“第四代产业园区”。全市上下都要强化这种意识，顾全大局、服从全局，不折不扣抓好落实，为建设生态强市、魅力承德添砖加瓦。', '“一发不可牵，牵之动全身”。重点突破，带动全局。全市各级各部门要以此次学习考察为契机，适应新常态，谋划新蓝图，以夙兴夜寐、只争朝夕的精神，励精图治，顽强拼搏，实现重点工作的新突破，开创全市各项事业的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>10</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>我市党政代表团赴江苏盐城学习考察</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2016-05-19</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F19%2Fart_9945_200545.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_200545</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['为进一步解放思想、开阔眼界、对标先进，日前，市委书记周仲明、市长常丽虹率承德市党政代表团赴江苏盐城，浙江湖州、杭州，宁夏银川，河北邢台学习考察。5 月8 日至5 月9 日，我市党政代表团第一站来到江苏盐城，学习盐城高新技术产业发展、园区建设等方面的好经验好做法，共商两地深化合作大计。 盐城市委副书记、市长王荣平，盐城市委常委、秘书长潘道津，盐城市人大常委会副主任曹友琥，盐城市副市长、滨海县委书记李逸浩，盐城市政协副主席马成志陪同考察并分别参加相关活动。市领导刘文勤、张树民、丁伟、吴清海、王学，各县区委书记、县区长，部分市直部门主要负责同志参加学习考察。 8 日晚，一到盐城，两市就进行了经济社会发展情况交流，周仲明、王荣平分别讲话。 周仲明在讲话中说，盐城有良好的发展环境、广阔的发展前景、巨大的发展潜力，值得我们学习的地方很多。盐城历史悠久，是革命老区、红色之城，是江苏沿海中部枢纽城市。近年来，盐城借助国家一系列开放政策，充分利用国家与韩国合作搭建的平台，园区建设迈出了巨大发展步伐，取得了突出成绩，是地级市中的典范。我们要学习盐城的发展思路、发展理念，学习盐城广大党员干部干事创业的良好精神面貌，一心一意干事业、齐心协力谋发展的精神状态。承德区位独特，是首都北大门，一市连五省市区；历史文化厚重，5000年的契丹文化、3000年的红山文化、300年的山庄文化，素有一部山庄、半部清史的美誉。承德开发、开放较晚，解放思想任务重，需要不断对标先进、加强学习，不断更新观念、开阔视野、提升境界。目前，承德面临京津冀协同发展、京沈高铁贯通、国家生态文明建设、脱贫攻坚、环境保护等一系列重大机遇，正在探索可持续发展的新路子。承德要实现跨越赶超、迅速崛起就要抢抓机遇、挑直超车。希望两市加强交流，携手共创美好未来。 王荣平首先对承德党政代表团到盐城考察表示热烈欢迎。他说，盐城位于一带一路与长江经济带连接点，是国家可持续发展试验区、国家创新型试点城市、中国优秀旅游城市、国家园林城市、国家卫生城市、中国投资环境百佳城市、最美中国·生态旅游目的地城市，是中韩自贸协定明确的中韩产业园地方合作城市。产业发展特色鲜明，汽车及新能源汽车、环保科技、清洁能源、电子信息、大数据、航空产业、海水淡化、智能终端、健康产业等优势产业加快发展，产业基础厚实。2015 年全市财政收入477.5 亿元，位居全国同类地级市第9位。今年预计突破500 亿元。盐城以改革创新为动力、质量效益为中心、绿色发展为路径，适应新常态，把握新机遇，稳定经济增长，加快转型升级，大力改善民生，加快建设创业、开放、生态、幸福、厚德的美丽盐城。承德生态在全国前列，是华北绿肺，生态氧吧，是首都的天然屏障，发展潜力巨大，希望两市加强沟通，共创辉煌。 5 月9 日，代表团一行首先来到盐城环保科技城，考察中科睿污染控制工程项目，考察我国大气污染防治综合服务商——江苏科行环保。江苏中科睿污染控制工程中心项目是中国科学院过程工程研究所与江苏盐城环保科技城管委会共建的污染控制技术研发及产业化平台，它承担污染控制技术研发科研课题研究和创新创业人才引进的重大任务；江苏科行环保先后荣获中国驰名商标全国企事业知识产权试点单位等60 多项省级以上殊荣。这里科技与人才的汇聚，令代表团同志深感震撼。在中韩盐城产业园，一园三区的发展格局，重点发展十大合作产业的经验做法令代表团的同志十分感触、深受启发。我市代表团还考察了韩资工业园、奥新新能源汽车公司、东风悦达起亚三工厂、江苏省盐城大数据产业园。 周仲明高度赞扬了盐城改革发展取得的巨大成就和宝贵经验。他在考察中说，我们要认真学习盐城的先进理念和方法，积极借鉴盐城在加快产业转型升级、发展园区经济的成功实践，切实用好并深化这次学习考察的成果，真正做到学思践悟，把我们的产业结构调整好，把供给侧结构性改革搞好，加快建设生态强市、魅力承德。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>10</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>我市党政代表团赴宁夏银川学习考察</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2016-05-19</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F19%2Fart_9945_200547.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_200547</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['5 月11 日，市委书记周仲明、市长常丽虹率承德市党政代表团赴宁夏银川学习考察，学习借鉴银川高新技术产业发展、园区建设、金融产业发展、行政审批制度改革等方面的成功经验和做法，研究适应经济新常态、落实发展新理念的思路举措，加快推进生态强市、魅力承德建设。 宁夏回族自治区党委常委、银川市委书记徐广国，银川市委副书记、市长白尚成，银川市委副书记杜银杰，银川市委常委、纪委书记、宁夏回族自治区党委第三巡视组组长左新军，银川市委常委、组织部长、党校校长周云峰分别出席相关活动，市领导刘文勤、张树民、丁伟、吴清海、王学，银川市部分市直部门主要负责同志，我市各县区委书记、县区长及部分市直部门主要负责同志参加学习考察。 11 日上午，我市党政代表团先后考察银川滨河新区规划展示馆、智慧银川大数据中心，随车参观了国际科教城和滨河黄河大桥工程。下午考察了银川iBi育成中心、银川市民大厅和银川阅海湾中央商务区。在考察期间，我市代表团边看边议，每到一处都热烈交流。考察银川市民大厅时，先后在办事大厅、市民讲堂、电子监察室等地了解银川市民大厅运行、市民办事等方面的情况。银川市充分发挥市场主体准入审批事项集中办理的优势，以信息化为支撑，打破区划限制，构建了多点受理、同城通办、信息共享、审管联动的模式。我市代表团的同志们表示，银川在行政审批制度改革工作中思路清晰、特点突出，具有创新精神，许多成果值得承德学习借鉴。下午，在银川国际交流中心举行两地发展工作交流座谈会。徐广国、周仲明分别讲话，常丽虹、白尚成分别介绍了承德、银川经济社会发展情况。 徐广国代表银川市委、市政府对承德市党政代表团到银考察表示欢迎，并简要介绍了银川市经济建设情况。他说，作为宁夏内陆开放型经济试验区核心区的银川，在一带一路倡议中发展后劲足，充满机遇。在积极适应经济新常态工作中，银川市围绕新业态，实施反梯度战略，抢占先机和制高点，大力发展新产业。他说，承德具有生态良好、区位优越、文化厚重、资源丰富等优势，经济社会和各项事业都在持续和加快推进。希望两市今后进一步加强交流，创新思路和模式，以信息产业为先导，扩展领域，促进合作发展。 周仲明对银川市经济社会发展取得的成绩给予高度评价。他说，这是一次学习之旅，银川市视野开阔，勇于创新，锐意进取，经济社会各项事业实现了快速发展，给考察团留下了深刻印象。近年来银川在产业转型升级、新型城镇化建设、园区建设和行政审批制度改革等工作方面，创造了很多先进经验和发展模式，值得承德认真学习借鉴。这是一次收获之旅，银川引领时代、站立潮头，代表团同志都受到了震撼、开拓了视野、坚定了信心、取到了真经、激发了干劲。这是一次友谊之旅，我们不仅收获了无比宝贵的先进经验，更收获了真挚真切的友谊情感。我们将进一步加强两市之间的相互了解，建立更加紧密的协作关系，积极推动两市间大范围、宽领域、多层次的合作与交流，实现优势互补、合作双赢。 徐广国、周仲明还围绕大数据产业发展、智慧城市建设、电子竞技发展等方面，就实现新合作交换了意见。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>10</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>承德日报评论员大兴实干之风持续提升干部执行力</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2016-05-18</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F18%2Fart_360_61632.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61632</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['理论事关命运，作风决定成败。切实用好学习考察成果，最终要落实在行动上。而检验行动的成效，关键是看干部的作风硬不硬，干事创业的精气神强不强。只有切实转变干部作风，增强干事创业的激情，不断提升干部的执行力，才能最终把学习考察成果转化为实实在在的成效。', '干部作风是一个地区事业发展的根本保障，是地区间综合竞争力的核心内容。作风是一种执行力，干部作风决定成败。领导干部的执行力，是作风的综合反映，抓作风就是抓从谋划到落实的关键， 转作风就转变了工作徘徊不前的被动局面。学习考察的五个地区一个共同值得学习的特点就是“抓落实”。学习他们抓落实的精神，就是要发扬“锤子钉钉子”的精神，就是要发扬“抓铁有痕、踏石留印”的精神，就是要发扬“咬定青山不放松”的精神。', '为政之要，贵在执行落实。没有执行力，就没有凝聚力，没有公信力，没有发展力。这既是对党员领导干部的最基本要求，也是党员领导干部干事业、谋发展的基石，更是承德实现科学跨越发展的关键所在。各级各部门要大兴实干之风， 层层负责抓落实。坚决与市委、市政府保持高度一致，市委、市政府确定的事情，不折不扣地抓落实，做到政令畅通、执行有力、不折不扣、掷地有声；大兴实干之风，还要高效快速抓落实。对各项工作安排，一刻也不能拖、一时也不能等，说干就干、马上就干，干就干成、干就干好；大兴实干之风，更要事争一流抓落实。干工作决不能“只求过得去，不求过得硬”，美丽乡村、乡村旅游、特色小镇、园区建设，包括其他各项工作，都要争先进位、争创一流，要在全国“数得着”，在全省“叫得响、站得住、拿得出手”。', '道虽迩，不行不至；事虽小，不为不成。大兴实干之风，就是要紧密围绕市委确定的中心工作，不懈怠、不折腾、不动摇，一张蓝图画到底，咬定青山不放松；大兴实干之风，就是要敢于担当，坚持原则，不避风险，攻坚克难；大兴实干之风，就是要坚决向“庸懒散贪”等不良作风开战，戒奢戒躁，锐意进取，勇往直前；大兴实干之风，就是要最大限度地凝聚一切发展力量，万众一心，群策群力，营造干事创业的良好氛围和风清气正的政治生态。', '一个地区或部门，干部作风有改进，事业就有新发展。作风强不强，直接决定着发展的成效。当前承德困难比别人多、基础比别人差，干同样的工作、取得同样的成绩，我们要付出两到三倍、甚至更多的努力。因此必须动员全市党员干部，以澎湃激昂的热情，拿出“拼命三郎”的精神，把一天当两天用，把晚上当白天用，把节假日当工作日用，发扬“5+2”“白加黑”“不知疲倦、滚石上山”的精神， 争分夺秒、发奋图强，为承德发展尽心尽力，为造福百姓尽职尽责。', '“空谈误国，实干兴邦。”全市各级各部门要大兴实干之风，不断提升执行力，以“明知山有虎、偏向虎山行”的锐气，冲锋陷阵、迎难而上的胆识，大胆开拓、敢为天下先的魄力，功成不必在我”的定力，“但问耕耘、莫问收获”的境界，踏石留印、抓铁有痕的实干精神，全力推进承德各项事业发展，为建设生态强市、魅力承德作出新贡献。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>10</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>创新发展理念破除加快发展思想障碍一论切实用好我市党政代表团赴江浙宁及邢台学习考察成果</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2016-05-14</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F14%2Fart_360_61606.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61606</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 创新发展理念 破除加快发展思想障碍—— 一论切实用好我市党政代表团赴江浙宁及邢台学习考察成果', '创新发展理念 破除加快发展思想障碍—— 一论切实用好我市党政代表团赴江浙宁及邢台学习考察成果', '“他山之石，可以攻玉。”日前，我市党政代表团赴江苏、浙江、宁夏及我省邢台四地学习考察。通过实地参观、座谈交流，大家专心“看”，认真“悟”，动脑“想”，开阔了视野、增长了见识，看到了差距、激发了干劲，理清了思路、受到了启迪，明确了方向、充满了信心。学习考察，关键是要把别人的经验变成自己的思考、变成自己的行动、变成自己的发展成效。我们一定要切实用好此次学习考察成果，把这次学到的好理念、好经验、好做法真正理解好、消化好、吸收好，变成我们自己的东西，转化为推动“生态强市、魅力承德”建设的强大动力。', '理念是行动的先导，发展理念引领发展实践。对一个地方来讲，成败得失、发展快慢，最关键的、管长远的，取决于发展理念，取决于战略思路，取决于目标定位。只有发展理念入脑驻心，才会有明确的方向和高度的执行力。从江苏盐城中韩产业园、东风悦达起亚三工厂到邢台威县北汽有限公司生产基地，从“中国美丽乡村”发源地浙江湖州安吉县到被誉为“中国最美县城”的浙江杭州市桐庐县，从盐城大数据产业园、环保科技城，到宁夏银川滨河新区、阅海湾中央商务区，从邢台威县行政审批服务改革到银川市民服务中心……这些地区“一切围着发展转、一切为了发展干”的强烈发展意识、“新理念跟着新实践、新办法跟着新理念”的创新思维、“从市场找办法、向开放要效益”的运营模式、“靠改革活内力、靠环境增引力”的求变意识、“敢干实干巧干、一年接着一年干”的担当奉献精神和“打定主意就干、干就干到最好”的激情工作状态，令人震撼、让人赞叹。他们的发展实践为我们创新发展理念，破除加快发展的思想障碍，进一步推动全市各项工作再上一个新台阶，提供了可资借鉴的样本。', '对标先进，换位思考，看清差距，迎难而上。对承德而言，与先进地区的差距，表现在为经济总量、财政收入等“看得见”的差距，更表现为发展理念上“看不见”的差距。承德经济发展体量小、结构差，增长方式转变、产业结构调整之所以步伐缓慢，与其说缘于包袱沉重、任务艰巨，不如说是缘于思想保守、理念滞后。尤其是，先进地区贯彻新发展理念的自觉、解放思想的意识、运作项目的理念、推动工作的境界和持之以恒的精神上，是我们最欠缺的、也是最值得学习的。“明者因时而变，知者随事而制。”我们必须清醒地认识到，“十三五”时期，我们面临的困难和问题“相互交织、严峻复杂”，但我们的历史机遇更是“千载难逢、前所未有”。新形势、新任务、新要求，全市上下要创新发展理念，以夙兴夜寐、只争朝夕的精神，在新一轮竞争中争取主动，赢得先机。', '学深学透，更要学以致用。对标先进，是为了更新观念，少走弯路。我们不能听了很激动，看了很震动，回来没行动。要进一步聚焦新发展理念，在破除加快发展的思想障碍上实现新突破。要必须大胆解放思想，摒弃不适应、不适合甚至违背新发展理念的旧思想、旧观念、旧心态，在理念上实现根本性转变；要必须以解放思想大讨论活动为契机，牢固树立“八破八立”思维，从传统的路径依赖中摆脱出来；要脚踏实地、真抓实干，把思想和行动高度统一到创新、协调、 绿色、开放、共享的发展理念上来，统一到全市“十三五”时期目标任务上来，统一到广大群众对我们的殷切期盼上来。', '学然后知不足，思然后知奋进。全市各级各部门要以这次学习考察为契机，结合既定目标战略，围绕学习对标新理念、新思路、新经验，对原有工作进行再谋划、再部署、再推动、再落实，切实把学来的好经验、好做法、好思路用在发展上，同心协力、凝心聚力、竭尽全力，共同推动生态强市、魅力承德建设的生动实践。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>10</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>我市党政代表团赴河北邢台学习考察</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2016-05-13</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F13%2Fart_360_61603.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61603</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['5 月12 日，市委书记周仲明、市长常丽虹率承德市党政代表团在邢台学习考察。图为周仲明（右二）、常丽虹（左二）在邢台市委书记张古江等陪同下一同考察威县经济开发区北汽有限公司（威县）生产基地。 本网记者郎宝生徐凯摄', '本网讯（记者郎宝生）5 月12 日，市委书记周仲明、市长常丽虹率承德市党政代表团赴河北邢台学习考察，学习邢台招才引智推进校地合作加快园区建设、深化行政审批制度改革等方面的好经验好做法，共商两地深化合作大计。', '邢台市委书记张古江，邢台市委副书记、市长董晓宇，邢台市委常委、常务副市长宋文玲、邢台市人大常委会副主任尹全峰、邢台市政协副主席冯利敏，邢台市委秘书长宋洪修陪同考察，并参加相关活动。我市领导刘文勤、张树民、丁伟、吴清海、王学，邢台市南和县委书记，威县委书记、县长，任县委书记、县长，邢台市部分市直部门主要负责同志，我市各县区委书记、县区长及部分市直部门主要负责同志参加学习考察。', '12 日上午，我市代表团一到邢台首先参观了南和县农业嘉年华项目，学习南和县抢抓京津冀协同发展机遇、招才引智推进校地合作等方面的经验做法。该项目总投资3 亿元，项目规划建设综合服务区、创意风情馆、高效农业示范区、农业迪士尼主题乐园、精致乐活体验区五大功能区，涉及农业品种之多、运用技术之先、涵盖形式之广，在国内外农业嘉年华项目中前所未有。在实地参观创意风情馆各个展厅后，周仲明对项目给予高度评价，称赞该项目为推进河北农业现代化、精准化、智慧化起到了引路导航作用。', '下午，代表团参观了威县行政审批局、市民服务中心。近年来，以被确定为全省综合改革试点为契机，威县深化行政审批制度改革，在全省率先成立行政审批局，实现“一枚印章管审批”，并建立全省首家县级市民服务中心，推动集中审批与现场服务深度融合。代表团实地了解了审批局和市民服务中心运行情况，周仲明认为邢台集中现场审批，大大提高了效率，为各地创造了宝贵经验。承德将以此次考察为契机，进一步深入学习威县做法，在承德大力推广邢台的改革经验。', '我市代表团还参观了威县经济开发区规划建设情况，实地考察了北汽有限公司（威县）生产基地。北汽有限公司（威县）生产基地是威县对接京津重大成果之一。项目总投资约33 亿元，计划新上轻型客车、微型客车、城市SUV、皮卡和2 条新能源汽车生产线，引进相关零部件配套企业。代表团实地参观了生产线和产品，认为这个项目是转型升级的典范，为提升产业发展的层次和水平提供了良好范本。', '最后，我市代表团学习考察了任县邢州湖公园南水北调项目。在听取任县委书记、县长李海林对相关情况的介绍后，周仲明说，任县借助国家南水北调方略，引黄河水入任，开展“八湖十二河”全县域水生态修复工程，一举多得，值得我们认真学习。', '邢台市委书记张古江代表邢台市委、市政府，对承德市党政代表团来邢考察表示欢迎。希望邢承两地加强交流、互通有无，深化合作、共同进步，为建设“经济强省、美丽河北”做出更大的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>10</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>对标先进求发展学思践悟增信心我市党政代表团赴邢台市学习考察侧记</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2016-05-13</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F13%2Fart_360_61600.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61600</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 对标先进求发展学思践悟增信心——我市党政代表团赴邢台市学习考察侧记', '同样地处京津冀优势位置，看邢台如何抢抓机遇，迎难而上，推动全市经济社会可持续发展？', '5 月12 日，我市党政代表团又把目光聚焦到我省的邢台市，学习考察邢台在现代农业、园区建设、行政审批制度改革等方面的经验做法，领略邢台在加速推进协同发展、转型升级、创新突破方面取得的新成果,感受绿美邢襄经济发展的脉动。', '南和县农业嘉年华项目、威县行政审批制度改革、北汽有限公司（威县）生产基地……短短一天时间，学习考察内容涉及现代农业、深化改革、项目建设、产业转型、园区发展、城市改造等各个方面，内容十分丰富。', '5 月的燕赵大地,气温开始逐渐攀升。比当地气温更高的是学习考察团全体成员对标先进、谋求发展的心情和当地干部群众的热情。', '“土豆栽在气桶里、同一棵植株,上面挂紫茄,下面还能长番茄……数百种奇花异草、瓜果蔬菜和绚丽彩灯、游乐设施有创意地组合在一起，形成了一道道奇特亮丽的景观”，学习考察的第一站，代表团来到了南和县的农业嘉年华项目，刚进园区，大家就被这里的高科技和美丽景观吸引住了。', '“农业嘉年华是在农业中融入科技、文化创意理念，打造集观赏、娱乐、创意于一体的现代都市农业新模式，项目规划面积446 亩，分为综合服务区、创意风情馆、 高效农业示范区、农业迪士尼主题乐园、精致乐活体验区5 个功能区”，南和县委书记李超英向大家介绍了项目的总体情况。', '创意风情馆是农业嘉年华核心部分，占地99 亩，建设连栋温室4.1 万平方米，设置了疏朗星空、畿南粮仓、本草华堂、童话果园、花样年华、同舟共冀6 个主题场馆。', '学习考察中，大家在各个场馆内往来穿梭，有的拿相机拍下资料，有的围着讲解员仔细了解情况，看得十分认真仔细。', '“滦平未来农业发展的方向还是要提高土地贡献率，走现代高端农业之路。‘南和农业嘉年华’的农业发展模式给了我们很大启发。滦平具有独特的区位、生态、交通优势，我们的兴春和、尚亚、美绿源等现代农业园区基础非常好，我们将结合脱贫攻坚和美丽乡村建设，以国家现代农业科技园区和全国电子商务进农村综合示范县为翘板，大力推进一二三产业深度融合，在‘产业高端化，园区景区化’上大做文章，实现农业发展新突破。”滦平县委书记蔡福浩说。', '“中国强，农业必须强；中国美，农村必须美；中国富，农民必须福”。市农工委常务副书记、美丽办主任刘宝龙认为，南和农业嘉年华项目的成功经验，对于承德美丽乡村建设、休闲农业发展等具有重要借鉴意义。他说：“我们要学会抓什么、怎么抓，把美丽乡村建设和休闲农业、乡村旅游等有机结合，按照优美生态环境、多元产业功能、独特村容村貌、良好精神风貌的标准，突出规划引领，带领农民创建一批天蓝地绿水静、安居乐业增收的承德版美丽乡村。”', '日就顺利开园迎客。总投资3 亿元的现代农业项目——南和农业嘉年华一期工程仅用118 天便竣工投运，‘跑’出了南和项目建设史上的加速度。”讲解员介绍说。', '“实现跨越发展，产业项目建设不能‘小步走’，必须以快为先，跑步前行”，南和在项目建设上的速度和质量给代表团成员留下了非常深刻的印象。“这正是我们需要认真学习借鉴的”。大家纷纷表示。', '在全省率先公开晒县级“三清单”，通过清权、减权、制权、晒权，确保“职权事项进清单，清单之外无权力”；', '在全省首个成立行政审批局，一枚行政审批专用章，将分散在26 个不同部门的166 项审批职责全部划转到行政审批局，42枚公章被封存；', '威县委书记安庆杰坦言，惟有改革才能发展，惟有改革才能在新常态下释放持续的动力。改革有风险，但是，不改革未来的风险会更大；改革有压力，但是，不改革未来的压力会更大。', '也正是因为这种决心和气魄，让改革带给威县更大的收获：去年，审批局67 人承担了原来26 个部门近300 人的审批职能，精简了230 余人，累计办理事项32000余件，审批效率平均提高75%以上。', '围着办事窗口请教问题，聚在一起轻声讨论交流。在威县行政审批局，代表团看得仔细、听得认真、学得深刻。', '“威县以成立行政审批局为抓手，以一章、一超市、三个清单为突破口，大力推行审批制度改革，使政府管理更加高效，权力运行更加透明，市场活力更加充足。体现了改革的魄力和决心”。市委副秘书长、改革办常务副主任刘秉奇说，“通过学习，进一步开拓了我们的视野，在改革的理念思路上受到了很大启发。对标先进，我们将在解放思想、创新机制、强化担当等方面迈出更大步伐，拿出真招实举，真抓实干，推动全市的改革工作多出亮点，多为全市发展作贡献。”', '市行政审批中心主任李云腾说，威县行政审批制度改革走在了全省前列，率先组建了行政审批局，实现了“一章一证一超市”，极大地提升了审批效率。看了以后很受触动，很有启发。行政审批制度改革法律政策性强、政策面广，牵一发而动全身，难度很大，但是威县做到了。我市的行政审批制度改革有一定的基础，具备了较好的条件。下一步，要认真学习总结威县经验，创新管理体制，理顺运行机制，力争早日实现“一证一章一平台，一号一网一超市”。', '2009 年以前，威县的工业几乎一片空白。仅仅两年时间建设，威县经济开发区就升级为省级经济开发区，规划总面积31 平方公里，入驻企业达到219 家，初步形成了电子信息、汽车及零部件、农产品深加工三大主导产业和通用航空、新材料两大新兴产业。', '威县经济开发区的快速发展，让代表团成员产生了浓厚的兴趣。而探寻它的发展之路，大项目起到了重要的带动作用。', '走近开发区内的北汽有限公司（威县）生产基地，一批漂亮的白色商务客车吸引了大家的目光。', '公司负责人蔡利江介绍说，这个项目总投资约33 亿元，由北京汽车集团有限公司旗下的北京汽车制造厂有限公司投资， 占地850 亩，打造集研发、生产、销售于一体，具备整车批量生产的汽车生产基地。预计全部建成后，年可产传统型和新能源型乘用车、出租车整车10 万辆。希望通过带动汽车上下游的相关产业发展，在开发区形成完整的产业链条。', '“学习考察了邢台威县经济开发区和北汽集团生产基地项目，感觉到邢台在项目谋划上高起点，建设上大手笔，形成了产业链条的聚集，非常值得双滦学习借鉴”。双滦区区长赵振清说，双滦区目前也在积极推动汽车及零部件相关产业发展。2009年，总投资37 亿元的北汽福田汽车部件系列项目落户双滦，目前一期已经建成运营，2015 年实现产值1.27 亿元。今年，高精尖零部件项目也将达产见效。近期，还将积极推动新能源汽车、发动机整机组装、车联网运营服务平台等项目加快落地，未来还将积极谋划建设整车生产项目，把双滦建设成为北汽福田新能源智能化产业基地，着力打造工业转型升级创新区。', '学然后知不足，思然后知奋进。一天的学习考察虽然很短暂，但大家的收获很多。代表团成员表示，一定要学思践悟，进一步解放思想，积极借鉴先进经验，努力破解我市经济社会发展面临的突出问题和矛盾，为建设生态强市、魅力承德贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>10</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>周仲明在我市党政代表团学习考察总结会上强调对标先进真抓实干切实把学习考察成果转化为推进生态强市魅力承德建设的强大动力</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2016-05-14</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F14%2Fart_360_61604.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61604</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 周仲明在我市党政代表团学习考察总结会上强调：对标先进真抓实干切实把学习考察成果转化为推进生态强市魅力承德建设的强大动力', '周仲明在我市党政代表团学习考察总结会上强调：对标先进真抓实干切实把学习考察成果转化为推进生态强市魅力承德建设的强大动力', '本网讯（记者郎宝生、董云峰）5 月13 日，我市党政代表团举行学习考察总结会。市委书记周仲明出席会议并讲话，市长常丽虹主持会议。市领导刘文勤、张树民、王学等出席会议。市政府秘书长，各县区委书记、县区长，高新区负责同志，赴苏浙宁及邢台学习考察的其他同志参加会议。', '周仲明指出，这次学习考察活动，收获很多、启发很大、感触很深。考察的五个城市，他们强烈的绿色发展理念、惊人的发展速度、强劲的发展态势，以及干部群众昂扬向上的精神面貌，给我们留下了深刻的印象。他们在创新思路、破解发展瓶颈等方面走在了前列，值得我们学习。', '周仲明强调，围绕怎么看，抓好怎么干是当务之急。要学习对标他们一切围着发展转、一切为了发展干的强烈发展意识。发展是第一要务，我们考察的市县，当地干部、企业家，谈得最多的就是怎么更好发展、怎么更快发展、怎么绿色发展、怎么跨越发展。我们更要自我加压，增强加快发展的紧迫感和责任感。要学习对标他们新理念跟着新实践、新办法跟着新理念的创新思维。我们许多新机制推行较慢，究其原因就是理念落后、思想保守，要适应新常态，创造新思路、想出新办法，“不管土法洋法，管用就是好法”。要学习对标他们从市场找办法、向开放要效益的运营模式。从各地的发展实践看，发达地区更多地运用市场手段来解决问题，不仅能把难事办成、把好事办好，还减轻了政府负担。要学习对标他们靠改革活内力、靠环境增引力的创新意识。银川的行政审批有效避免了“互为前置”“重复审查”等问题，既提高了审批效率，又实现了便民利民，更铲除了滋生腐败的土壤，我市对创新求变的要求更加迫切。要学习对标他们敢干实干加巧干的担当负责精神。学习他们不是完全的照抄照搬，而是学习他们的思路、方法。要学习他们打定主意、保持定力、说干就干的激情工作状态。', '针对怎么干，周仲明强调，要进一步聚焦新发展理念，在破除加快发展的思想障碍上实现新突破，把好理念、思路和方向关口，脚踏实地、真抓实干；要进一步聚焦绿色发展，在巩固生态优势、发挥生态引力上取得新突破，坚守“绿水青山就是金山银山”理念，把工作做好；要进一步聚焦转型升级，在加快发展十大绿色产业上实现新突破，加快优势企业转型升级；要进一步聚焦全面改革，在释放市场活力上取得新突破，大力推进行政审批制度改革、投融资体制改革、农村“五权”改革和国有企业改革，全面激发活力；要进一步聚焦创新驱动，在依靠创新引领产业转型升级上取得新突破，实施“科技型企业三年倍增工程”，扶持培育一批科技小巨人；要进一步聚焦城乡统筹，在特色小镇和美丽乡村建设上取得新突破，以美丽乡村建设为总抓手，实现“脱贫摘帽、全面小康”。抓好美丽乡村片区建设，做好公司化运营，突出特色发展乡村旅游，大力推进特色小镇建设，抓好农业产业龙头，切实抓好县城和主城区建设；要进一步聚焦产城融合，在全面提升特色园区建设管理的质量和水平上取得新突破。要全面加强园区基础设施建设，推进“园区三年攻坚计划”，创新建设运营模式，加快破解园区基础设施投资瓶颈；要引进行业协会，大力发展特色产业；要进一步聚焦作风建设，在持续提升执行力上取得新突破，转变作风、激情工作，敢于担当，不断开创我市经济社会发展新局面。', '周仲明最后强调，要结合我们的既定目标战略，围绕学习对标新理念、新思路、新经验，对原有工作进行再谋划、再部署、再落实，切实把学习考察的好经验好做法转化为推动我市又好又快发展的强大动力和实际成效，加快推进“生态强市、魅力承德”建设。', '常丽虹在主持会议时强调，要学思践悟，真正把解放思想的闸门打开，把创新、协调、绿色、开放、共享的发展理念树牢，把加快发展的方向和路径找对，把各种要素、资产和资源用足盘活，把推动跨越发展的精气神鼓足。我们一定要进一步学习借鉴外地经验，真正把先进地区的好理念、好经验、好做法，学习好、理解好、吸收好，以更加饱满的精神状态、更加务实的工作作风，力促我市转型升级、城市建设、园区发展、美丽乡村、脱贫攻坚等各项重点工作有一个大的变化和提升。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>10</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>点赞塞上江南智慧银川我市党政代表团赴宁夏银川学习考察侧记</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2016-05-12</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F12%2Fart_360_61594.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61594</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 点赞“塞上江南智慧银川”——我市党政代表团赴宁夏银川学习考察侧记', '这是一片充满神奇的土地,沃野千里银川平原，穿起了周边的城市、乡村，串成“塞上江南”最美的项链。', '这是一片气势如虹的土地，滨河新区、智慧银川大数据中心、阅海湾中央商务区的快速崛起，奏出绿色发展的美妙音符。', '这是一片奔腾开放的土地，从曾经的互联网经济荒漠，到现在的创业者梦工场，银川iBi 育成中心让许多年轻人每天都被梦想唤醒。', '探寻塞上江南的发展之路，解析智慧银川的城市巨变，循着这条主线，5 月11 日，我市党政代表团踏上了这片西部热土，学习考察宁夏银川在智慧城市、金融产业发展、行政审批制度改革等方面的经验做法。', '从高起点规划的银川滨河新区到展示银川崭新容颜的阅海湾中央商务区，从建设银川iBi 育成中心到推动行政审批制度改革……大家专心“看”，认真“悟”，动脑“想”，增长了见识，受到了启迪，激发了干劲，充满了斗志。', '从新近通车的滨河黄河大桥上，俯瞰九曲黄河，黄河军事文化博览园、银川舰纪念馆、滨河新区规划展示馆尽收眼底，宛若一幅画卷缓缓展开。这里就是滨河新区。', '“我们以内陆开放试验区、‘银榆鄂’能源金三角、沿黄经济区等战略实施为机遇，以‘产城一体’、‘全域银川’、集聚现代产业、统筹城乡发展等全新城市建设理念为魂来规划滨河新区。”银川滨河新区管委会副主任杨宏伟介绍说。', '“规划大手笔，建设高品质”，代表团成员对银川以滨河新区建设为新引擎，推动“全域银川”发展的理念非常感兴趣。', '“通过考察，完全改变了我们此前对银川黄土高原的想象。没想到城市生态环境这么好，绿化覆盖率达到40.9%，人均公园绿地面积15.9 平方米”，市规划局局长高中卫说，“一天的学习考察虽然短暂，但是银川开放发展的思想理念非常值得我们学习。他们充分利用好国家‘一带一路’等重大政策机遇，解放思想、先行先试，不是跟在别人后头跑，而是创新发展思路，走出了一条适合自己的发展之路。与银川一样，承德也面临着许多机遇，要通过这次学习考察，进一步解放思想，发挥优势，把承德建设的更美好、更富裕。”通常很多人都是在展会、展厅或者文字材料上看到有关智慧城市的介绍与描绘，却很少有机会能够走进一座真正的智慧城市看看它到底是什么样子。代表团的许多成员也不例外。5 月11 日，代表团一行走进了智慧银川大数据中心。“近年来，银川市以社会服务和管理应用为突破，通过创新的‘一云、一网、一图’顶层设计架构和全新的PPP商业模式，在智慧政务、智慧交通、智慧环保等10大重点领域13 个模块建设上独显特色，形成了可复制、可推广的‘银川模式’。”中心主任介绍了智慧城市建设的经验做法。', '在银川大数据中心，556 平方米三大展厅全面呈现了大数据中心的架构，展现了为市民生活和城市管理带来诸多便利的智慧应用体验方案，引得考察团一行不时驻足，详细询问，连连称赞。', '“银川大数据中心是智慧城市的核心组件之一，而银川大数据中心堪称智慧银川的智慧大脑。”中心负责人介绍说。', '“银川是全国首个也是唯一一个以城市为单位进行顶层设计的智慧城市，通过与中兴集团的合作，进行平台整合和系统集成，打破了国内常见的部门垂直项目运作模式和信息孤岛现状，打造了国内首个城市级数据运营中心”。在市住建局局长刘宏伟看来，正是有了以大数据为代表的信息技术支撑，倒逼了城市建设管理、行政审批服务等政府工作的流程再造，从而提高了效率，实现了更好地为民服务。', '据了解，2015 年4 月，国务院总理李克强主持召开座谈会，在听取银川智慧政务建设的相关汇报后称赞道：“这既是简政放权，也是信息化支撑。”并当即指示“组织相关部门要专门去看一下”。', '当年5月，工信部部长苗圩带队考察银川后表示：“整合资源建设智慧政务平台，加快行政审批改革、简政放权走在全国前列，将总结经验在全国复制、推广……”', '银川的智慧政务建设究竟有哪些独到之处？“可复制、可推广”的“银川模式”到底是什么样？一个个问题的答案，引起了考察团成员浓厚的兴趣。', '走进位于银川市金凤区阅海湾中央商务区东侧的银川市民大厅，许多市民和单位正在各个窗口办理业务。', '“我们这个大厅从2014 年12 月22日起正式运营，面积达12.5 万平方米，将26 个部门153 项行政审批权划转到新设立的行政审批局7 个业务处室，由80 多人直接办理，审批人员减少了80%，真正实现了“让市民推开一扇门就能办成一揽子事。现在，每天平均要接待1.2 万—1.4万办事人，最多每天可支持5 万人前来办理各种手续。”银川市行政审批局局长杨兆华介绍说。', '在大厅，一个贴着封条的柜子十分显眼，59 枚公章被封存其中。杨兆华说，审批职责集中化后，2015 年1 月12 日正式封存废除了59 枚公章，启用“银川市行政审批局行政审批专用章”，实现了“一枚印章管审批”制度。', '“银川的经验对我县的行政审批制度改革具有重要的借鉴意义”。在了解到银川156 项行政审批事项办理时限已由法定的4080 个工作日减少到880 个工作日后，隆化县政府县长李东说，行政审批制度改革的核心就是改革原有的体制机制，改革固有的制度体系，创新“放管服”的新模式。要真正做好这项工作，必须坚定改革的信心，敢于顶住压力，敢于创新突破。同时，要依靠科技手段，通过大数据、云计算，整合审批、管理流程，提高服务效率。', '在银川学习考察，不光是智慧城市建设和行政审批制度改革让考察团成员“惊艳”，银川的互联网和金融产业发展也让大家直呼“了不起”。', '一个是当下时髦的互联网、金融产业，一个是地处大西北相对不发达省份，在许多人印象中，这两者似乎没有太多关联。', 'IBI 是信息产业、生物技术、知识产权三个英文字头。在银川IBI 育成中心，一批“互联网+”企业实现了对传统产业再造，借助互联网衍生出新业态。', '“IBI 育成中心是年轻人的世界，是创业者的梦工场，我们要做的就是‘你有想法，我帮你实现’”。银川开发区管委会副主任梁亚彬说，银川IBI 育成中心与银川中小在线资信服务有限公司联合，打造了国内首家小微企业“创新、创意、创业”互联网柜台服务系统，为创业者提供金融、知识产权、技术和市场推广等方面支持。', '“很震惊，没想到西北省份能崛起这样一座集信息技术、文化创意、生物技术、服务外包等为一体的高科技产业技术服务区、产业集聚区和孵化基地”。承德县委书记齐建文认为，银川最值得学习的就是这种不怕困难、迎难而上、敢于创新的精神。他说：“承德县在大数据等互联网产业发展上已经具备了一定基础。下一步要重点抓好北京供销大数据集图承德德鸣大数据产业园项目的建设，同时加快引进一些大企业、大项目，尽快形成沟通上下游的大数据产业链条。”', '国家大战略，宁夏新使命。阅海湾中央商务区是宁夏内陆开放型经济试验区的一个窗口，中国——阿拉伯国家经贸论坛永久会址的主体景观就坐落于此。', '行走在中阿之轴的轴线上，雕梁画栋的中国古典风格建筑与新月穹庐的阿拉伯风情建筑交相辉映，和谐交融，这些独具魅力的景致吸引了代表团的目光。', '“听了商务区负责同志的介绍，有很多感触。商务区建设折射出银川许多值得我们学习的宝贵经验”。双桥区委书记宋成立认为，银川思想解放、思路开阔，抢抓发展的意识强烈。通过新兴产业的引领作用，经济发展的势头强劲。特别是城市建设高端大气，城市管理精心精致，让每一个建筑都是一幅作品。', '一个个问题摆在面前，一个个想法在心中酝酿，一场思维的碰撞即时展开。发展的思路更加开阔，道路更加明晰，信心更加坚定……']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>10</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>我市党政代表团赴浙江湖州杭州学习考察</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2016-05-11</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F11%2Fart_360_61589.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61589</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['5 月10 日，市委书记周仲明、市长常丽虹率承德党政代表团在浙江安吉、桐庐学习考察。图为周仲明（右二）、常丽虹（左一）等一行考察桐庐城市展示中心。 本网记者徐凯 郎宝生摄', '本网讯（记者郎宝生） 解放思想更新观念谋创新，学思践悟实干实政促发展。5 月10 日，市委书记周仲明、市长常丽虹率我市党政代表团赴浙江省湖州市、杭州市学习考察。学习两地在特色小镇和美丽乡村建设等方面的成功经验和做法，牢固树立“绿水青山就是金山银山”的理念，打造“看得见山，望得见水，记得住乡愁”的承德版美丽乡村。', '浙江省委常委、杭州市委书记赵一德，杭州市委副书记、市长张鸿铭，湖州市委副书记、市长陈伟俊，杭州市委常委、秘书长许勤华，湖州市委常委、秘书长高屹陪同考察，并参加相关活动。市领导刘文勤、张树民、丁伟、吴清海、王学，杭州市政府秘书长、市委副秘书长，桐庐县委书记、县长，县直相关部门负责同志，湖州市政府秘书长、市委副秘书长，安吉县县长、县政协主席及农办、相关企业负责同志，我市各县区委书记、县区长，部分市直部门主要负责同志参加学习考察。', '代表团一行首先来到湖州市安吉县天荒坪镇余村。2005 年8 月15 日，时任浙江省委书记习近平到余村考察，肯定了余村走绿色发展之路的做法，首次提出了“绿水青山就是金山银山”的重要论述。余村在“两山”理论的指引下，凭借得天独厚的自然环境和悠远厚重的历史文化，发展休闲旅游，2015 年被评为国家级民主法治村和省级美丽宜居示范村，是浙江省首批全面小康建设示范村，国家美丽宜居创建村。在这里，周仲明说，余村先后关停矿山、水泥厂和一大批竹筷企业，不断加快脚步，走绿色发展道路，成为国家级美丽宜居创建村。这表明转型是阵痛，不转型是长痛、是死胡同，承德要充分借鉴，走生态发展之路。', '在横山坞村，我市代表团重点考察了目莲坞自然村。这里没有保洁员，通过网格化管理对卫生问题实行承包制，每一个家庭负责一定区域的环境卫生保持，整个村庄整齐洁净。周仲明说，目莲坞村坚持走“因地制宜、实事求是、穿衣戴帽、就地改造”的路子，不搞大拆大建，这样符合实际，避免了不必要的浪费，值得借鉴。在“两山”创客小镇，我市代表团同志纷纷拍照保存资料，留下这里创新、创意、创业的巨大启发。', '5 月10 日下午，我市党政代表团来到杭州市桐庐县桐庐展示中心。周仲明说，桐庐是中国最美县，每一座楼房都是作品，都是精品；每一个村都体现着“中国画城、潇洒桐庐”的风采。承德各级领导干部要充分学习桐庐先进的理念，结合各县区、各部门实际把承德所担负的工作做好。随后我市代表团学习考察了环溪村、荻浦村。环溪村、荻浦村人文底蕴厚重、古建筑众多，村庄整洁有序，古建筑保护开发工作做得很好。通过美丽乡村的建设，有力地促进了当地的经济社会发展。随着游客的增多，带动了农家乐项目等发展，村民们生活在这里，不仅环境宜居，通过买卖土特产、小吃等进一步增加了收入。', '桐庐县环溪村，整村分布式污水处理工程花钱很少，办了大事。荻浦村古树参天，猪栏茶吧、牛栏咖啡环境清幽，实现了变废为宝。周仲明说，大家要学习先进的思想理念，充分发挥党员干部先锋模范作用，从一点一滴做起、从实际出发，学习两个村把历史文化与现代旅游高度融合，使脏村、差村、乱村变成特色旅游村。环溪村、荻浦村最大的特点是文化，文化在吸引人，文化在聚集人，文化在激励人，文化在鼓舞人，文化在影响带动着经济社会整体发展。我们要边看边学，学思践悟，把美丽乡村建设与脱贫攻坚结合起来，抓好“脱贫攻坚党旗红”工作。要结合承德实际，深入基层、不断探索，以旅游特色产业、美丽乡村片区建设为重要发展方向，加快建设生态强市、魅力承德。要着力抓好生态产业发展，抓好美丽乡村基础设施建设，在继承中保护生态、在保护中利用生态、在利用中开发生态，不断实现承德的持续发展和跨越赶超。', '我市代表团一路考察，一路惊叹，一路深思，一路收获。桐庐县的“美丽乡村”建设是浙江省的典范。近年来，桐庐县大力强化环境立县和全域景区化意识，提出“宁可速度慢一点，也要保护好山水；宁可各项荣誉少一点，也要合力抓经济；宁可政府支出紧一点，也要挤钱惠民生”的理念，把美丽乡村建设与乡村旅游发展、文化特色、产业发展、农民增收相结合，相继实施了农村生活污水和生活垃圾处理、村庄整治、富民产业培育、改水改厕、农居改造等一系列新农村建设项目，实现美丽乡村建设全覆盖，让农民在家门口就能“有景可看、有钱可赚”，得到更多的实惠。周仲明说，要认真学习桐庐的先进理念和方法，积极借鉴桐庐在加快产业转型升级、建设美丽乡村等方面的成功实践，求真务实，不断开拓承德持续发展新局面。', '考察期间，我市代表团还学习考察了滨江商住综合体（富春江水利风景区），桐庐健康小镇及江南养生文化村。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>10</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>我市党政代表团赴宁夏银川学习考察</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2016-05-12</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F12%2Fart_360_61596.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61596</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['5 月11 日，市委书记周仲明、市长常丽虹率承德市党政代表团赴宁夏银川市学习考察。图为两市在银川举行两地发展交流座谈会。 本网记者郎宝生摄', '本网讯（记者郎宝生）5 月11 日，市委书记周仲明、市长常丽虹率承德市党政代表团赴宁夏银川学习考察，学习借鉴银川高新技术产业发展、园区建设、金融产业发展、行政审批制度改革等方面的成功经验和做法，研究适应经济新常态、落实发展新理念的思路举措，加快推进“生态强市、魅力承德”建设。', '宁夏回族自治区党委常委、银川市委书记徐广国，银川市委副书记、市长白尚成，银川市委副书记杜银杰，银川市委常委、纪委书记、宁夏回族自治区党委第三巡视组组长左新军，银川市委常委、组织部长、党校校长周云峰分别出席相关活动，市领导刘文勤、张树民、丁伟、吴清海、王学，银川市部分市直部门主要负责同志，我市各县区委书记、县区长及部分市直部门主要负责同志参加学习考察。', '11 日上午，我市党政代表团先后考察银川滨河新区规划展示馆、智慧银川大数据中心，随车参观了国际科教城和滨河黄河大桥工程。下午考察了银川iBi育成中心、银川市民大厅和银川阅海湾中央商务区。在考察期间，我市代表团边看边议，每到一处都热烈交流。考察银川市民大厅时，先后在办事大厅、市民讲堂、电子监察室等地了解银川市民大厅运行、市民办事等方面的情况。银川市充分发挥市场主体准入审批事项集中办理的优势，以信息化为支撑，打破区划限制，构建了“多点受理、同城通办、信息共享、审管联动”的模式。我市代表团的同志们表示，银川在行政审批制度改革工作中思路清晰、特点突出，具有创新精神，许多成果值得承德学习借鉴。下午，在银川国际交流中心举行两地发展工作交流座谈会。徐广国、周仲明分别讲话，常丽虹、白尚成分别介绍了承德、银川经济社会发展情况。', '徐广国代表银川市委、市政府对承德市党政代表团到银考察表示欢迎，并简要介绍了银川市经济建设情况。他说，作为宁夏内陆开放型经济试验区核心区的银川，在“一带一路”倡议中发展后劲足，充满机遇。在积极适应经济新常态工作中，银川市围绕新业态，实施“反梯度”战略，抢占先机和制高点，大力发展新产业。他说，承德具有生态良好、区位优越、文化厚重、资源丰富等优势，经济社会和各项事业都在持续和加快推进。希望两市今后进一步加强交流，创新思路和模式，以信息产业为先导，扩展领域，促进合作发展。', '周仲明对银川市经济社会发展取得的成绩给予高度评价。他说，这是一次学习之旅，银川市视野开阔，勇于创新，锐意进取，经济社会各项事业实现了快速发展，给考察团留下了深刻印象。近年来银川在产业转型升级、新型城镇化建设、园区建设和行政审批制度改革等工作方面，创造了很多先进经验和发展模式，值得承德认真学习借鉴。这是一次收获之旅，银川引领时代、站立潮头，代表团同志都受到了震撼、开拓了视野、坚定了信心、取到了真经、激发了干劲。这是一次友谊之旅，我们不仅收获了无比宝贵的先进经验，更收获了真挚真切的友谊情感。我们将进一步加强两市之间的相互了解，建立更加紧密的协作关系，积极推动两市间大范围、宽领域、多层次的合作与交流，实现优势互补、合作双赢。', '徐广国、周仲明还围绕大数据产业发展、智慧城市建设、电子竞技发展等方面，就实现新合作交换了意见。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>10</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>促协同绿色发展的动力与源泉深入学习市委十三届八次全会精神加快建设生态强市魅力承德述评之三</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2016-01-25</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F1%2F25%2Fart_360_64183.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_64183</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 “促协同”：绿色发展的动力与源泉——深入学习市委十三届八次全会精神加快建设生态强市魅力承德述评之三', '“促协同”：绿色发展的动力与源泉——深入学习市委十三届八次全会精神加快建设生态强市魅力承德述评之三', '地缘相接、人缘相亲，地域一体、文化一脉。京津冀三地历史渊源深厚、交往半径相宜，协同发展是上上之举。', '展望“十三五”，京津冀合作更为紧密，交通一体化、生态环境保护、产业升级转移等重点领域正加快推进。', '对承德而言，京津冀协同发展是战略性的历史机遇，是发展的良机，搭上这趟发展的“高速列车”，就能借势借力，快速发展。', '市委书记周仲明在市委十三届八次全会上指出，“促协同”就是要抢抓京津冀协同发展的重大机遇，强力推进经济社会全面发展和提档升级。京津冀协同发展，是全局性、长期性、战略性的机遇。我们要紧紧围绕“京津冀水源涵养功能区、国家绿色发展先行区、环首都脱贫攻坚示范区、国际旅游城市”的“三区一城”发展定位，全力打造经济社会发展的“创新之源、动力之源、活力之源”。', '精准谋划，主动对接，全力引进项目企业，优化承接环境，借势推动改革创新，承德抢抓协同发展重大机遇，凝心聚力，真抓实干、苦干，奋发作为，着力培育经济社会发展的动力“源泉”，全市“脱贫摘帽、全面小康”的发展目标正在加快实现。', '梧高凤必至，花香蝶自来。发展环境越优良，就越能在京津冀协同发展中争取更多的“话语权”，吸引更多的优秀产业、项目落地发展。', '环保、交通和产业升级转移是京津冀协同发展的三个重点领域，有关专家认为，环保和交通需要“先行”，产业升级转移则是重点领域。', '放眼紫塞大地，天蓝水净，林茂山青，园区错落，道路纵横，这些都是承德在京津冀协同发展中最有力的“声音”。“十二五”以来，承德不断发挥优势，提升承载能力，着力构建最为优质的企业发展环境，为京津优质项目落地和产业转移打下了坚实的基础。', '生态是承德最大的优势。通过良好的“生态引力”，承德吸引了越来越多的京津高端生产要素和优质资源，抢占区域发展制高点，走出了一条生态保护与经济发展的双赢之路。', '2015年11月13日，中关村智慧环境产业联盟承德展示中心等9项承德与中关村企业协同创新合作项目揭牌。同年12月3日，承德与世欣蓝汛科技股份有限公司正式签署《大数据产业园项目合作协议》。同时，全国第一家数据资产证券化服务机构、华北地区第一家数据资产交易平台——河北大数据交易中心正式启动。同年12月21日，中关村互联网文化创意产业园承德园首批企业入园暨中国微电影基地落户高新区，这是中关村在北京之外首家落地的互联网文创产业园区。', '与中关村的合作如火如荼，展现着承德在京津冀协同发展中取得的硕果，越来越多的京津项目落户承德，目前，承德与中国电子信息产业集团、戴尔、浪潮、腾讯、数海科技、神州数码等20家单位和企业签订了合作协议，一批重大项目相继落地运营。“十二五”期间，承德与京津合作项目累计达到434个，总投资达4070亿元。', '目前，承德的交通环境不断改善，地域优势逐渐放大。2015年12月30日，承张高速建成通车，作为北京大外环的重要组成部分，承张高速不但完善了承德 “两环十射”高速路网，更进一步拉近了承德与北京、天津的距离。同时，承德机场即将通航，京沈高铁、承平高速、赤曹高速、京锡高速等一批重大交通项目加快推进。', '此外，承德的承载能力正不断提升。承德大数据产业等5个“微中心”扎实推进，环首都农产品基地等4个园区列入省京津冀产业转移重点平台，并积极承接北京一般性制造业，区域性物流基地、专业市场等部分第三产业，部分高校、教育、医疗培训机构等社会公共服务功能，部分行政性、事业性服务机构和企业总部的外迁。', '更好的生态环境，更强的承载能力，让承德在京津冀协同发展中逐渐占据主动。接下来，承德将在生态环境质量在京津冀保持领先，加快园区配套工程，提高非首都功能疏解的承接能力，以高新区为龙头，以“五个微中心”为重点，以各县区特色产业园为支撑，加快构建“特色鲜明、功能互补、统筹协调、错位发展”的园区建设格局。借鉴“一区多园”的做法，重点引进京津国家级行业协会，联合一级开发，破解园区基础设施投资瓶颈制约。加快建设以支柱企业为龙头的“企业群体特色园”，大力引进同行业相关的产业项目，争取“引进一个战略支撑项目，带来一个产业集群，形成一个特色产业园区”。', '承德基础弱，底子薄，欠账多，与京津差距较大。越是这样，就越需要“走出去”，开放市场，深化对接，打造龙头，将京津高端资源“引进来”，逐渐弥补经济社会发展的差距，唯有如此，才能让“一体化”发展真正落到实处，让广大百姓同享发展成果。', '高站位决定高起点，高起点决定高水平。承德精准功能定位，精准对接跑办机制，精准打造平台，谋划一批重大事项和重点项目，积极对接顶层设计。围绕国家《京津冀协同发展规划纲要》和省《实施意见》对承德的定位，制定出台了我市《贯彻落实意见》，共有33个重大事项列入《京津冀协同发展规划纲要》，40个重大项目和事项列入《“十三五”时期，京津冀国民经济和社会发展规划》，21个事项列入京津两市协同发展《实施意见》，71个重大事项和项目列入我省协同发展《意见》。', '深入推进“五合一”对接京津招商模式，每个产业对应一个全国行业协会联络组织、一个国家部委列规划给支持、一个京津部门协助转移对接、一个科研单位提供技术依托、一个行业龙头带动整体产业。制定出台了《市级领导对接北京联合跑办工作机制》，坚持一月一调度，建立对接项目库，实行滚动管理。“十二五”期间，先后到37个国家部委争取支持，与京津19个区县、34家行业协会组织、56所大专院校及中学、68个科研单位、31 家医疗机构、150家央企京企展开深入合作。', '“十二五”期间，承德共引进重点旅游项目70个，总投资664.14亿元，累计完成投资227.1亿元，争取上级发展专项资金7500万元，8个项目进入北京产权交易中心和北京旅游交易平台。包括兴隆县在内的5个县市将在3年内联合打造京东休闲旅游区。中日友好医院、北医三院、北京天坛医院、天津肿瘤医院、天津泰达国际心血管病医院、解放军307医院等16所京津著名医院与承德医疗机构签订合作协议开展医疗合作。积极与人社部全国人才中心和北京人才中心交流对接，探索建立京津冀统一、开放、有序的人力资源市场，参加了“2015年环渤海暨京津冀区域人才智力交流洽谈会”等人才招牌活动，接待各类人才 4680人次，达成引进意向2129人……', '深化对外开发，引资与引智并举，引外与启内并进，招商与落地并重，承德正加快赶上京津的发展步伐。', '放眼“十三五”，承德将把对接工作落实到产业项目、资金政策和发展成效上。瞄准重大政策、政府、行业、高校、企业、市场等重点领域开展对接，重大事项争列国家规划和试点，精准承接非首都功能疏解和产业转移，构建产业发展技术依托，吸引优质资源向承德聚集，拓展国际市场。', '京津产业转移，对承德的产业来说，既迎来了发展的良机，同样也面临着巨大的冲击和挑战。随着京津优秀产业将承德的发展“底线”不断抬高，一些落后的、跟不上时代发展步伐的企业将被逐渐淘汰。', '以协同发展倒逼深化改革，承德深入转变政府职能，全面深化国有体制改革，创新推动农村综合改革，加快推进投融资体制改革，积极支持企业上市融资，各项改革不断深入，取得了实效。', '2013年9月，兴隆县公共资源交易服务中心开始试运行，从而把工程建设项目招投标、政府采购、国有土地使用权和矿业权出让等公共资源交易，纳入规范化、法制化的轨道，加快推动政府职能转变。', '截至2015年底，市本级向城区下放行政权力31项；建设司法公开示范区2个，建成48个农村中心派出所，新建137个乡镇基层人民法庭；为全市339 个后进村选派了第一书记，“集中连片”打造34个基层党建示范区（带）、465个示范点；不断加快农业和农村体制改革，大力兴建多家现代农业园区，全市新增千亩以上蔬菜园区8个、百亩以上食用菌园10个、省级中药材园区19个。', '改革的“红利”为我市产业发展提供了良好的发展环境。但要进一步推动产业提档升级不能仅靠改革，更要创新，这样才能构筑产业发展、提档升级的最有力支撑。', '京津是科技创新的“前沿阵地”，有着大量的科技创新人才和成果，只要我们借力协同发展，将这些成果引进、转化、落户承德，就能激发我市全面创新，加快转型升级步伐。', '为此，承德借力京津高科技成果转化及人才引进，促进、带动我市科技型企业发展壮大，通过大力推进“承德中关村协同创新共同体系示范区”建设、争创“国家级科技成果转化承接区”、大力发展“众创、众包、众扶、众筹”等支撑平台，加快实现我市企业由资源驱动型向科技引领、创新驱动型转变，科技型中小企业“裂变式”增长。在加强高端人才的“柔性引进”的同时，积极培育创新人才，通过培训深造、学习考察、挂职锻炼等形式，增强承德本地企业专家的创新能力，从根本上解决企业创新不足问题。', '京津的优势就是承德的资源，京津的需求就是承德的市场。展望未来，只要承德紧紧抓住京津冀协同发展的重大机遇，就定能推进经济社会全面发展和提档升级，打造经济社会发展的“创新之源、动力之源、活力之源”，实现“增比进位，全面小康”的发展目标，加快建设“生态强市、魅力承德”。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>10</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>我市党政代表团赴江苏盐城学习考察</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F10%2Fart_360_61582.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61582</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['5 月8 日至9 日，市委书记周仲明、市长常丽虹率承德党政代表团在江苏盐城市学习考察。图为周仲明（右二）、常丽虹（右三）等一同考察中国盐城环保科技城。 本网记者郎宝生摄', '本网讯（记者郎宝生） 为进一步解放思想、开阔眼界、对标先进，日前，市委书记周仲明、市长常丽虹率承德市党政代表团赴江苏盐城，浙江湖州、杭州，宁夏银川，河北邢台学习考察。5 月8 日至5 月9 日，我市党政代表团第一站来到江苏盐城，学习盐城高新技术产业发展、园区建设等方面的好经验好做法，共商两地深化合作大计。', '盐城市委副书记、市长王荣平，盐城市委常委、秘书长潘道津，盐城市人大常委会副主任曹友琥，盐城市副市长、滨海县委书记李逸浩，盐城市政协副主席马成志陪同考察并分别参加相关活动。市领导刘文勤、张树民、丁伟、吴清海、王学，各县区委书记、县区长，部分市直部门主要负责同志参加学习考察。', '周仲明在讲话中说，盐城有良好的发展环境、广阔的发展前景、巨大的发展潜力，值得我们学习的地方很多。盐城历史悠久，是革命老区、红色之城，是江苏沿海中部枢纽城市。近年来，盐城借助国家一系列开放政策，充分利用国家与韩国合作搭建的平台，园区建设迈出了巨大发展步伐，取得了突出成绩，是地级市中的典范。我们要学习盐城的发展思路、发展理念，学习盐城广大党员干部干事创业的良好精神面貌，一心一意干事业、齐心协力谋发展的精神状态。承德区位独特，是首都北大门，一市连五省市区；历史文化厚重，5000年的契丹文化、3000年的红山文化、300年的山庄文化，素有“一部山庄、半部清史”的美誉。承德开发、开放较晚，解放思想任务重，需要不断对标先进、加强学习，不断更新观念、开阔视野、提升境界。目前，承德面临京津冀协同发展、京沈高铁贯通、国家生态文明建设、脱贫攻坚、环境保护等一系列重大机遇，正在探索可持续发展的新路子。承德要实现跨越赶超、迅速崛起就要抢抓机遇、挑直超车。希望两市加强交流，携手共创美好未来。', '王荣平首先对承德党政代表团到盐城考察表示热烈欢迎。他说，盐城位于“一带一路”与长江经济带连接点，是国家可持续发展试验区、国家创新型试点城市、中国优秀旅游城市、国家园林城市、国家卫生城市、中国投资环境百佳城市、最美中国·生态旅游目的地城市，是中韩自贸协定明确的中韩产业园地方合作城市。产业发展特色鲜明，汽车及新能源汽车、环保科技、清洁能源、电子信息、大数据、航空产业、海水淡化、智能终端、健康产业等优势产业加快发展，产业基础厚实。2015 年全市财政收入477.5 亿元，位居全国同类地级市第9位。今年预计突破500 亿元。盐城以改革创新为动力、质量效益为中心、绿色发展为路径，适应新常态，把握新机遇，稳定经济增长，加快转型升级，大力改善民生，加快建设创业、开放、生态、幸福、厚德的美丽盐城。承德生态在全国前列，是“华北绿肺，生态氧吧”，是首都的天然屏障，发展潜力巨大，希望两市加强沟通，共创辉煌。', '5 月9 日，代表团一行首先来到盐城环保科技城，考察中科睿污染控制工程项目，考察我国大气污染防治综合服务商——江苏科行环保。江苏中科睿污染控制工程中心项目是中国科学院过程工程研究所与江苏盐城环保科技城管委会共建的污染控制技术研发及产业化平台，它承担污染控制技术研发科研课题研究和创新创业人才引进的重大任务；江苏科行环保先后荣获“中国驰名商标”“全国企事业知识产权试点单位”等60 多项省级以上殊荣。这里科技与人才的汇聚，令代表团同志深感震撼。在中韩盐城产业园，“一园三区”的发展格局，重点发展十大合作产业的经验做法令代表团的同志十分感触、深受启发。我市代表团还考察了韩资工业园、奥新新能源汽车公司、东风悦达起亚三工厂、江苏省盐城大数据产业园。', '周仲明高度赞扬了盐城改革发展取得的巨大成就和宝贵经验。他在考察中说，我们要认真学习盐城的先进理念和方法，积极借鉴盐城在加快产业转型升级、发展园区经济的成功实践，切实用好并深化这次学习考察的成果，真正做到学思践悟，把我们的产业结构调整好，把供给侧结构性改革搞好，加快建设生态强市、魅力承德。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>10</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>承德市粮食局工作总结和年重点工作安排</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2016-03-09</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F3%2F9%2Fart_9941_221974.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_221974</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['十二五期间，面对各种困难和挑战，在市委、市政府的坚强领导和省局的关怀指导下，市、县粮食部门认真贯彻落实国家粮食安全新战略和全市发挥优势、高点起步、开放创新、绿色崛起的总要求，立足全市经济社会发展和三农工作大局，抢抓机遇求突破，攻坚克难促发展，圆满完成了各项工作任务，多项工作实现新突破，为确保全市粮食安全、促进经济社会发展做出了积极贡献。', '和全市发挥优势、高点起步、开放创新、绿色崛起的总要求，立足全市经济社会发展和三农工作大局，抢抓机遇求突破，', '（一）建市场强产业保供给，助推承德杂粮特色产业绿色崛起。抢抓国家全面启动我省粮安工程建设机遇，充分发挥我市主产优质杂粮优势，立足做强小杂粮特色产业，对接京津市场，保障辖区成品粮油市场有效供给，全力以赴谋划建设了总投资1.5亿元的承德市小杂粮（成品粮油）批发市场项目，列入国家、省重点支持项目，得到市委、市政府高度重视。现已完成项目总体规划设计，力争年底前完成项目一期工程新建粮食仓房库容量3万吨、维修改造仓容2.7万吨任务。', '总体规划设计，力争年底前完成项目一期工程新建粮食仓房库容量3万吨、维修改造仓容2.7万吨任务。', '（二）坚持不懈抓项目，促进粮食流通大发展。围绕粮食产业发展方向，结合研究制定十三五粮食行业发展规划，谋划了一批粮食产业重点项目25个，总投资8.7亿元。5年来，全力争取国家、省、市粮食仓储设施、维修改造危仓老库资金1.2亿元，新增仓容8.7万吨，维修改造仓容25万万吨，实现了历史性突破。争取国家补助资金260万元，建立了国家粮油质量承德监测站，提升全市粮油质量检验监测能力，并通过了国家专家组现场考核验收。紧紧抓住京津冀协同发展重大机遇，大力推进与中储粮、中粮、京粮和省粮集团粮食购销合作，建设国家、省储备粮基地，搞活粮食流通，维护全市粮食安全。累计争取国家跨省移库储备粮14.5万吨，引进央企、省企资金1.5亿元，代购代销代储粮食20多万吨。辖区内存储国家、省储备粮达65万多吨，位居全省前列，进一步夯实了粮食安全物质基础。', '围绕粮食产业发展方向，结合研究制定十三五粮食行业发展规划，谋划了一批粮食产业重点项目25个，总投资8.7', '（三）全力打好扭亏增盈攻坚战，千方百计做大做强国有粮食企业。2013年以来，面对市本级国有粮食企业实力弱小，设施落后，经营萎缩，管理粗放，效益低下，生存发展难以为继局面，强力实施企业扭亏增盈攻坚行动，加强国有资产监管。先后研究制定了《直属国有粮食企业管理办法》、《企业领导干部管理办法》等一系列制度，明确企业法人代表责任，坚持对经营者实行经营风险抵押金和重奖重罚，建立完善财务总监派驻制度，对企业各项费用支出严格实行刚性成本预算管理，千方百计帮助企业拓宽增收渠道，营造良好发展环境，彻底扭转了企业连年亏损局面，引导企业步入良性发展轨道。我局做大做强国有粮食企业的做法，得到省局的充分肯定，连续两年在全省粮食流通工作会议上进行了经验交流。', '年以来，面对市本级国有粮食企业实力弱小，设施落后，经营萎缩，管理粗放，效益低下，生存发展难以为继局面，强力实施企业扭亏增盈攻坚行动，加强国有资产监管。先后研究制定了《直属国有粮食企业管理办法》、《企业领导干部管理办法》等一系列制度，明确企业法人代表责任，坚持对经营者实行经营风险抵押金和重奖重罚，建立完善财务总监派驻制度，对企业各项费用支出严格实行刚性成本预算管理，千方百计帮助企业拓宽增收渠道，营造良好发展环境，彻底扭转了企业连年亏损局面，引导企业步入良性发展轨道。我局做大做强国有粮食企业的做法，得到省局的充分肯定，连续两年在全省粮食流通工作会议上进行了经验交流。', '（四）创造性开展军粮进学校，提高新时期粮食部门社会服务能力和服务水平。鉴于近年来我国各地学校主食安全事故频发和我市学校供粮渠道庞杂混乱，质量不稳定、监管难度大的状况，积极与教育部门联手，依托不断完善形成的军粮供应体系，按军粮供应质量标准供应学校，维护学校餐桌粮油质量安全。现已在市区和围场、兴隆、宽城、平泉4个县全面展开，供应大中专院校和中小学121所，师生人数48000多人。与此同时，加强军粮配送中心建设，在市区政府惠民工程蔬菜直营店设立军粮专柜30个，强力推进军粮进机关食堂、进医院、进社区，重塑国有粮食企业成品粮油市场主渠道地位，得到社会各界高度认可和好评。国家军粮办领导、省局领导在不同场合多次给予高度评价，多次在全省军粮供应工作会议上进行典型交流，先后接待省内外粮食部门和军供企业30多个单位上百人前来参观学习考察。', '鉴于近年来我国各地学校主食安全事故频发和我市学校供粮渠道庞杂混乱，质量不稳定、监管难度大的状况，积极与教育部门联手，依托不断完善形成的军粮供应体系，按军粮供应质量标准供应学校，维护学校餐桌粮油质量安全。现已在市区和围场、兴隆、宽城、平泉4', '强力推进军粮进机关食堂、进医院、进社区，重塑国有粮食企业成品粮油市场主渠道地位，得到社会各界高度认可和好评。', '国家军粮办领导、省局领导在不同场合多次给予高度评价，多次在全省军粮供应工作会议上进行典型交流，先后接待省内外粮食部门和军供企业30', '（五）认真履行抓收购保供应稳粮价部门职责，让党委、政府放心满意。切实抓好粮食收购工作，5年来全市各类粮食企业收购粮食375万吨，做到了农民余粮应收尽收，有效保护了种粮农民利益；军粮供应连续15年超额完成省下达计划，保证了军需民用；建立健全县级粮食储备1.98万吨，下达市级成品粮油储备1500吨，各级政府调控粮食市场能力普遍增强；根据国家、省粮食局等有关部门的部署，圆满完成了国有粮食企业库存检查任务，我市粮食库存账实相符、质量良好、储存安全、轮换及时、常储常新，承储各级储备粮企业一符四无和科学保粮率均达到了100%。粮食行政执法规范有力，及时查处涉粮违法案件8起，维护了粮食正常经营秩序，没有发生粮油质量安全监管事故，确保了人民群众舌尖上的安全。隆化、围场、平泉被命名为全省粮食流通监督检查示范单位。', '根据国家、省粮食局等有关部门的部署，圆满完成了国有粮食企业库存检查任务，我市粮食库存账实相符、质量良好、', '储存安全、轮换及时、常储常新，承储各级储备粮企业一符四无和科学保粮率均达到了100%', '（六）高度重视安全生产和信访稳定，推进平安粮食建设。市局安全生产连续6年被市政府评为安全生产监管工作先进单位。加大信访稳定工作力度，积极化解了大量信访隐患，妥善解决了会龙大厦破产企业等一些历史遗留问题，解决了王国庆、王峰等上访人长达10年未决的疑难复杂信访案件，结束了老干部长期上访告状的历史，维护了社会大局的稳定。', '加大信访稳定工作力度，积极化解了大量信访隐患，妥善解决了会龙大厦破产企业等一些历史遗留问题，解决了王国庆、王峰等上访人长达10', '（七）多项工作实现新突破，一些工作跃入全省、全国粮食系统先进行列。按照全市统一部署，市局深入开展了党的群众路线教育实践活动，认真践行三严三实要求，始终把党风廉政建设和反腐败抓在手上，认真落实党组党风廉政建设主体责任，创先争优、勇于担当的责任意识进一步增强，为粮食工作提供了坚强保证，一些工作跃入全省、全国粮食系统先进行列。全国粮食库存检查会议在我市召开，国家粮食局对我市的粮食监督检查工作给予了充分肯定，局机关3名职工受到国家局通报表扬；国家局领导和省局领导多次到我市调研粮食工作，我市被确定为全国军粮供应军民融合发展示范典型；市局被评为全省国有粮食企业振兴工程、粮食统计工作、军粮供应、监督检查、仓储管理先进单位；滦河粮食储备公司荣获全国粮食系统弘扬四无粮仓精神先进单位，1名职工荣获全国粮食系统先进工作者。', '按照全市统一部署，市局深入开展了党的群众路线教育实践活动，认真践行三严三实要求，始终把党风廉政建设和反腐败抓在手上，认真落实党组党风廉政建设主体责任，创先争优、勇于担当的责任意识进一步增强，为粮食工作提供了坚强保证，一些工作跃入全省、全国粮食系统先进行列。全国粮食库存检查会议在我市召开，国家粮食局对我市的粮食监督检查工作给予了充分肯定，局机关3', '在取得成绩的同时，我们也清醒认识到，根据守住粮食流通工作底线，实现全面建成小康社会目标的总体要求，全市现代粮食收储供应安全保障体系远没有建成。随着我市粮食产量的增加、供需形势的变化，粮食收储仓容能力不足、物流通道不畅、应急供应能力薄弱、质量安全隐患较大、粮情监测预警滞后、产后损失浪费严重等矛盾和问题叠加交织，对保障粮食收储供应安全提出了巨大挑战，如不及时有效解决，将成为推进新四化同步发展和保障全市粮食安全的短板。必须抓紧推进粮安工程建设，全面提升粮食收储供应安全保障能力。', '以邓小平理论、“三个代表”重要思想、科学发展观为指导，深入贯彻党中央、国务院，省委、省政府和市委、市政府关于保障国家粮食安全的一系列决策部署，全面落实守住管好天下粮仓，做好广积粮、积好粮、好积粮三篇文章总要求，坚持稳中求进总基调，抢抓京津冀协同发展新机遇，落实粮食安全责任制，以夯实粮食流通基础、筑牢粮食流通底线为核心，加大政策支持和资金投入，改善粮食流通基础设施条件，全面提升粮食收储供应安全综合保障能力、宏观调控能力和抗风险能力，确保粮食安全。', '按照上述思路，到十三五期末，要全面建成售粮便利、存储安全、物流通畅、供给稳定、应急高效、质量安全、调控有力的粮食收储供应安全保障体系，形成布局合理、结构优化、竞争有序、监管有力的现代粮食流通新格局。', '可用仓容满足粮食收储需要，彻底消除危仓老库带病储粮，基本消除等露天存粮，粮食收储机械化、自动化、信息化水平明显提升。', '八大粮食物流通道功能更加完善，做好物流节点工作，推进原粮四散化，跨区域的物流运输更加顺畅。', '粮食应急供应网络更加完善，应对突发事件应急保障能力显著提升，救助受灾群众口粮供应得到基本保障，部队军粮保障及时有效，应急粮食储备物资快速运抵灾区集结点，确保灾区不断粮，供应有保障。', '——粮油质量安全综合保障能力全面提升。放心粮油的零售网络覆盖80％以上的社区、乡村。建成从田间到餐桌全产业链的粮油质量安全追溯体系，粮食质量安全指标的综合检验能力达到70%以上，检验效率明显提高，粮食检验监测技术水平显著增强，确保城乡居民吃到放心粮油。', '——粮情监测预警体系全面建成。粮情监测预警能力不断加强,建成指标科学合理、技术先进适用、监测灵敏高效、数据权威可靠、发布及时通畅的粮情监测预警体系,努力实现未动先知未涨先知未抢先知。', '——粮食产后节约减损取得明显成效。每年减少粮食产后流通环节损失浪费5000吨以上，损失浪费率下降40%以上，粮食消费更加科学合理，形成全社会节粮减损长效机制。', '统筹生产与消费、近期与长远、产区与销区、省内市场与省外市场，进行统一规划，并衔接行业及各类专业规划。注意处理好当前急需与长远发展、经济建设与国防建设的关系。抓住最重要、最关键的环节，建设一批粮安工程的重点项目，发挥引领、主导和带动作用。', '坚持全市一盘棋，做到功能互补、结构合理，避免重复建设。统筹粮安工程各项任务，整合存量资源，优化增量资源，提升整体功能。', '全面深化粮食流通领域改革，充分发挥市场在资源配置中的决定性作用，更好地发挥政府作用。粮食收储供应体系建设要与全面深化农村改革加快推进农业现代化相适应，与协同推进新四化相适应。用改革的思路推进粮安工程建设，既要加大政府投入，也要积极引导社会多元主体参与粮食流通基础设施建设。', '坚持高标准、高起点，注重用高新技术改造传统粮食行业，用信息化引领带动粮食流通现代化。实施科技兴粮和创新驱动发展战略，健全技术创新市场导向机制，加快粮食科技支撑新突破。进一步推进产学研用相结合，大力提高粮食行业的科技含量。', '针对粮食仓储设施建设基础性、战略性和公益性等特点，充分发挥政府投资的支持和带动作用。综合应用土地、财税、金融、保险等政策杠杆，多渠道筹措建设资金。充分调动各级财政、企业和社会力量等各方面的积极性，加大投入力度，高效利用资金，加快建设进度，提高建设质量和水平。', '强化各级政府粮食安全责任，按照全面落实粮食安全省长责任制的要求，将粮安工程建设各项任务纳入粮食安全地方行政首长责任制范围，切实守住本地区粮食流通工作的底线。改革项目管理方式，严格按照有关规定履行建设程序，落实项目法人责任制、招投标管理规定、工程监理制和项目合同制，强化项目运行情况的跟踪管理，严格落实建设主体责任，确保建设项目取得实效。建立考核评估机制，加强规划考核评估，建立动态评估机制，会同有关部门对规划实施情况进行督促检查，开展中期评估，不断调整和优化规划实施方案和保障措施，加强项目建设和资金管理，保证投资效益和建设效果，促进规划工程建设目标和任务顺利实施。', '围绕十三五时期工作目标任务，2016年着力继续加强仓储物流设施建设，建立粮食仓储设施维修改造长效机制，全面推进应急供应体系、粮食质量安全、粮情监测预警系统、粮食节约减损等粮食流通领域基础设施建设，实现十三五良好开局。重点抓好五个方面的工作：', '（一）加强粮食仓储物流设施建设。全力以赴推进承德市小杂粮批发市场项目二期工程，建设粮油批发交易中心、电子商务中心、成品粮油配送中心、粮油质量检验中心。鼓励指导国有粮食企业利用退城进郊、兼并重组等形式，盘活存量资产，做大增量资产，同时创新投融资方式，鼓励社会多元化主体参与，加快建设粮食仓储设施，完善相关配套设施，形成适应粮食安全需要的收储能力。加快粮食危仓老库维修改造，完成7亿斤粮食仓房维修改造和功能提升，消除危仓老库带病存粮。提升仓储设施技术水平，积极推广绿色生态智能储粮技术和粮食品质分析、质量追溯、真菌毒素和重金属超标粮食消解技术等质量监测技术。推进仓储信息化建设，逐步实现粮库数字化、智能化，提高仓储管理水平。', '全力以赴推进承德市小杂粮批发市场项目二期工程，建设粮油批发交易中心、电子商务中心、成品粮油配送中心、粮油质量检验中心。鼓励指导国有粮食企业利用退城进郊、兼并重组等形式，盘活存量资产，做大增量资产，同时创新投融资方式，鼓励社会多元化主体参与，加快建设粮食仓储设施，完善相关配套设施，形成适应粮食安全需要的收储能力。加快粮食危仓老库维修改造，完成7', '（二）完善粮食应急供应体系。按照每个乡镇、城市街道至少有1个应急供应网点要求，健全粮食应急供应网点219个，使应急能力覆盖所有村庄和社区居民点。以现有军粮供应配送中心为骨干，结合危仓老库维修改造，整合资源，建设区域性粮油应急配送中心4个，提高应急事件发生时的供给、调运、配送能力。增强粮食应急加工、储运能力，将应急加工企业增加到4个，应急储运企业增加到25个，形成功能齐全、反应灵敏、快捷高效、应急应战的粮食应急加工储运体系。', '按照《全国粮食质量安全检验监测能力十二五建设规划》要求，继续提升市级粮食质检机构的检验监测能力。在县（市、区）级依托质监、卫生等综合检验机构或现有大中型粮食企业化验室，承担基层粮食质量安全监管的技术服务，建立覆盖全市的粮食检验监测体系。建立放心粮油质量安全管理体系、粮食流通质量安全追溯体系，加强粮食企业诚信、信息征集、评价体系建设，规范粮食企业经营行为。提升粮食质量安全应急处置能力，防止发生区域性、系统性粮食质量安全风险，为粮食生产、流通和消费提供服务。建立粮食质量安全应急预案，建立产销区联动追溯机制，健全组织机构和应急处置体系，提升污染粮食和粮食质量安全应急处置能力。', '建立完善的全市粮情信息指标体系和建设上联国家、覆盖全省的粮情信息统一采集平台。构建粮情监测预警分析系统，努力实现对粮食市场的预报预警，为粮食调控提供依据。推进核心业务信息系统建设，按照国家、省局部署推进智慧粮食相关项目建设。', '（五）促进粮食节约减损。实施农户科学储粮专项建设，使实施项目的农户储粮损失率由8%左右降低到2％以下。加强粮油仓储设施建设，消除露天储粮和危仓老库，推广绿色、高效、实用的仓储技术，改善粮食储存设施条件，明显降低储存环节的损失。加强粮食运输、装卸设备升级改造和粮食物流体系建设及物流信息技术的推广应用，减少粮食运输环节的损失。引导企业成品粮适度加工，鼓励开发全谷物等营养健康食品，明显提高成品粮出品率。加强粮油加工企业节粮减损技术改造，推广节粮节能降耗工艺技术和设备，提高大米、小麦粉、食用植物油出品率，减少加工环节损失。强化粮油科学消费引导，充分利用世界粮食日暨全国爱粮节粮宣传周、粮食科技活动周等平台和社会媒体，深入开展形式多样的爱粮节粮、反对浪费宣传教育活动，广泛普及全民粮油营养健康科学消费知识，提高全社会爱粮节粮意识，建立长效机制。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>10</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>绿水青山就是金山银山我市党政代表团赴浙江安吉桐庐学习考察侧记</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2016-05-11</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F11%2Fart_360_61588.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61588</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 “绿水青山就是金山银山”——我市党政代表团赴浙江安吉、桐庐学习考察侧记', '拥有得天独厚的生态资源优势，如何在加快发展的进程中，贯彻落实好习近平总书记提出的“绿水青山就是金山银山”重要思想？勾勒出“望得见山，看得见水，记得住乡愁”这一充满诗情画意的和谐美景，美丽乡村建设的承德“落地版”怎么办？“升级版”如何干？', '他山之石，可以攻玉。带着这些亟待解决的问题，怀揣对早已名声在外的安吉、桐庐美丽乡村的憧憬，5 月10 日，我市党政代表团学习考察的第二站来到“中国美丽乡村”发源地浙江湖州市安吉县和被誉为“中国最美县城”的浙江杭州市桐庐县。', '“‘加快建设京津冀水源涵养功能区，同步考虑解决周边地区的贫困问题’，这是习近平总书记在京津冀协同发展中对承德的核心定位。浙江安吉是习近平总书记‘绿水青山就是金山银山’科学论断的发源地、桐庐是‘中国最美县城’。安吉、桐庐的生态文明和美丽乡村建设已经走在了全国前列，我们把考察的目光聚焦在这两地，就是要认真学习总结他们生态建设的做法，为京津冀水源涵养功能区和‘生态强市、魅力承德’建设提供可借鉴的宝贵经验”，这是市委书记周仲明对这次学习考察活动的深层次定位。', '“对承德和安吉、桐庐而言，生态都是第一优势、都是可持续发展的第一竞争力。安吉、桐庐绿水青山就是金山银山的生动实践，美丽乡村建设的经验非常值得我们学习，大家一定要结合承德实际认真学习、深刻领会、学深学透，通过强化规划引领，创新投融资体制，充分挖掘文化内涵，因地制宜建设美丽乡村。”这是市长常丽虹对这次安吉、桐庐之行提出的具体要求。', '这里是浙江最早发展“农家乐”的地区之一，为全省和全国制定“农家乐”标准体系提供了样板，开启了乡村旅游的先河。', '更值得骄傲的是，安吉县余村是时任浙江省委书记习近平“绿水青山就是金山银山”理念的发源地，这一提法已经成为我们党指导工作的一个重要科学论断。', '这是一个三面青山环绕，入眼皆是美景的江南小镇。凌空俯瞰，漫山翠竹将小村涂抹成一片舒展开来的绿叶，澄澈的余村溪穿村而过，成为“叶脉”上最为动人的风景。', '曾几何时，青灰的山石是余村最重要的创富资源，采石企业曾让村经济独领风骚十余年，也曾因环境污染、生态破坏、安全事故多发而成为山间疮疤。从粉尘蔽日的采矿加工，到依山傍水的绿色经济，小山村凭借什么寻回发展的“初心”？', '2003 年安吉提出创建全国首个生态县的目标，村里开始陆续关停矿山和水泥厂。许多村民既失去了工作，又对未来充满迷惘。', '正在这个时候，2005 年8 月15日，时任浙江省委书记的习近平在余村考察时得知村里痛下决心关停矿山和水泥厂、探寻绿色发展新模式，给予了高度评价，认为是“高明之举”，并首次提出了“绿水青山就是金山银山”的科学论断。', '十年弹指一挥间，余村人早已将总书记的教导转化为行动力。余村生态文明与绿色经济一起发展，绿水青山同金山银山共同成长。', '“如何把生态优势转变为发展优势，余村的发展之路生动诠释了‘绿水青山就是金山银山’的发展理念，与我市生态强市、魅力承德建设一脉相承。承德也有许多这样的村子，山清水秀、风光秀丽，我们要把安吉的经验学深学透、学以致用，打造更多、更美、更富裕的承德版的美丽乡村”，市旅游局局长王成军说。', '安吉之美，在于成片的竹海和茶山，横山坞村目莲坞自然村就藏身在这片美丽的竹海和茶山中。', '“人居环境优美、乡村风景秀美、农民生活甜美”， 目莲坞的美深深地吸引了代表团的目光。大家纷纷拿出相机，将自己所需要的资料和素材摄入镜头。', '市农牧局局长张学东说：“这次外出学习考察，增长了见识、开阔了眼界，安吉的美丽乡村建设确实让人震撼，回去后我们要认真总结，探索其‘真经’，把美丽乡村建设与美丽农业、品质农业、功能农业、产业扶贫等相互融合，促进美丽乡村、城乡统筹、美丽经济的可持续健康发展。”', '在考察中，代表团发现，在互联网+时代，安吉又赋予“绿水青山就是金山银山”理论新的时代内涵。', '“用一座城市的力量，去圆年轻人的一个梦想”。今年3 月28 日，安吉“两山”创客小镇正式开园。', '一走进安吉大道南侧、凤凰山脚下，代表团就被这里随处可见的一幢幢现代化办公楼和一群群朝气蓬勃的创业者所吸引。', '安吉县城投集团董事长周江龙介绍说，这个小镇与一般的互联网创业集聚区不一样，主要是吸引怀揣把绿水青山源源不断转化为金山银山理想的互联网精英来创业，助推经济转型升级，再创发展优势，提升互联网学习与创业环境，打造赤金足银的“两山”互动新标杆。', '“安吉县委、县政府‘店小二’式的精准服务值得我们认真学习”。平泉县委书记董正国说：“目前，我们在华北物流产业园区创建了创业孵化基地，并推出了创业‘套餐’，为符合条件的入驻者提供创业场所和办公设备，3 年内免收管理类、登记类和证照类等行政事业性收费，按照政策给予物业水电费补贴、创业补助、社会保险补贴等。同时，为入驻创业孵化基地的创业者提供小额贷款、税费减免、创业培训、跟踪服务等十位一体服务。下一步，关键要加大政策的宣传力度，让更多的创业者聚集，打造平泉版的特色创业小镇。”', '边走边看边交流，边记边学边思考。临近中午，顾不上用餐和休息，在学习考察湖州安吉后，考察团又驱车来到了杭州桐庐县。', '几年前，旷世名作《富春山居图》在海峡两岸合璧展出，富春江两岸的旖旎美景让观众如痴如醉。', '画作的取景地就是浙江桐庐县，这座距杭州约90 公里，人口仅有40万的小县背靠大奇山，环抱富春江，拥有令人艳羡的生态资源。', '站在位于27 层的桐庐城市展示中心，“潇洒桐庐、中国画城”的美丽风光尽收眼底。桐庐县委书记毛溪浩向代表团详细介绍了城市规划、建设的先进理念。随后，大家来到一处在建项目。', '白墙黑瓦、雕梁画栋，一片正在建设的徽派建筑气势初显，远远望去，宛如一片宫殿群。在桐庐，一座专注于健康产业的健康小镇正在拔地而起。', '“健康小镇占据的是环境最好的一块区域，这是浙江唯一规划从事健康产业的聚集区，我们拒绝了很多工业项目来搞健康小镇”。 健康城管委会主任潘武伟介绍说。', '“不能追求短期利益。如果没有绿色高端产业，宁可留白。”桐庐的发展理念让代表团成员感触很深。', '“绿色发展承载着生态强区的梦想与希望，转型升级决定着营子经济的上下进退”，在营子区委书记李伟看来，探寻桐庐发展之路，对营子区转型升级、发展战略性新兴产业具有重要的借鉴意义：“健康养老产业也是营子要重点打造的新兴产业。目前我们已经与北京航天中心医院签署了托管合作协议，在营子区建设康复养老产业园区。我们要认真学习桐庐先进的发展理念和干事创业的激情，推动全区相关产业项目的发展。”', '古木参天，枝藤溢翠，一派田园风光；民居特色鲜明，文化氛围浓厚， 室内设施现代，一派新农村气象。5 月10 日下午，代表团一到桐庐县环溪村、荻浦村就被深深震撼。', '美丽乡村全覆盖，资金怎么办？“村集体收入从哪来？”“垃圾污水如何处理？”一进村，代表团成员就纷纷提问，急切地了解美丽乡村建设的秘诀。', '在荻浦村，代表团看到“传说”中的牛栏咖啡、猪栏茶吧后发出这样的惊叹，更为他们把闲置多年的牛栏猪舍“变废为宝”,既保存了游客对农村乡愁的记忆，又注入了现代小资生活的时尚元素的做法点赞。', '代表团一致认为，我们的差距突出体现在思想解放程度上。这样的古朴村落承德也有很多，关键是没有通过创意和创新，发挥出更大的优势。', '“我们的差距更多地体现在思想、理念和作风上。目前，丰宁正在全力推进美丽乡村片区建设，安吉、桐庐的经验为我们提供了很好的范例，回去后要把这次考察学到的经验做法用到具体工作中，发展以乡村旅游为支撑、与新农村建设相结合的样板工程，推动全县的美丽乡村建设”。丰宁满族自治县委书记方志勇说。', '一天时间，近12 个小时、10 多个考察点，快门按下了无数次，笔记记录了一大摞，每个人都受益匪浅，收获颇丰。', '“学深学透，学以致用”“打造好承德版的美丽乡村”……相信每一位代表团成员都有自己的收获和感悟！']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>10</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>借得东风好扬帆我市党政代表团赴江苏盐城学习考察侧记</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2016%2F5%2F10%2Fart_360_61581.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_61581</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 借得东风好扬帆———我市党政代表团赴江苏盐城学习考察侧记', '如何切实解放思想，更新观念，少走弯路？与优秀“标杆”对比，向“高标准”看齐，启迪思路，无疑是求真务实之举。', '5 月8 日至9 日，市委书记周仲明、市长常丽虹带领承德党政代表团学习考察的第一站选择了江苏省盐城市，学习考察他们在高新技术产业发展、园区建设等方面的好经验好做法，推动全市“生态强市、魅力承德”建设。', '“东方湿地之都，仙鹤神鹿世界”。美丽的盐城，地处中国东部沿海中部，江苏省中东部，是江苏沿海地区新兴的工商业城市，也是长江三角洲重要的区域性中心城市。', '最美人间五月天。走进盐城，市区内大片大片盛放的蔷薇倾泻而下，空气中沁着花香；沿海湿地的芦苇荡里，麋鹿等珍禽异兽忽隐忽现。', '绿的不光是这里的城市、湿地，更是这里的产业发展模式和结构。“绿”是盐城当下的主色调。', '园，从韩资工业园到奥新新能源汽车公司，从东风悦达起亚三工厂、研发中心到大数据产业园再到环保科技城，江苏盐城绿色发展的生动实践深深吸引着代表团成员，他们带着问题，一路走、一路看、一路问、一路议，更是一路收获。', '“一座‘城’改变一座城”，这是盐城亭湖区委书记李东成在向考察团介绍情况时，对盐城环保科技城的定位。', '他介绍说，中国盐城环保科技城紧紧围绕“国际先进、国内一流”的发展目标，始终坚持“产业化方向、市场化机制、国际化眼光、资本化运作”的发展要求，已成为国内产业特色明显、发展速度最快、领军企业集聚较多、研发创新能力领先的环保综合型技术园区。先后被授予“中国首家环保产业集聚区”、“中国环境产业最具竞争力园区”等24 项省级以上荣誉。', '国内外110 多家环保领军企业入住；拥有国家级企业技术中心11 家、省级以上高新技术企业38 家；在煤炭清洁燃烧、催化剂再生、膜技术、土壤修复等方面拥有核心自主知识产权……听了情况介绍后，代表团对盐城环保科技城的发展理念、发展速度赞不绝口。', '“我对盐城环保科技城‘科技为先、产业兴城’的思路印象深刻。我们看到的几个企业、项目都是科技成果转化为产业优势、发展优势的典型案例。”市科技局局长李威说，“中科睿赛污染控制工程就是最典型的例子，这是中科院过程所和园区管委会共建的污染控制技术研发及产业化平台。下一步，我们将把盐城的经验带回去，引进和推动更多的、前沿的科技成果在承德实现转化。”', '随后，代表团走进中韩盐城产业园区。这里到处可见韩国元素和文化，仿佛一下子跨越了黄海来到了韩国。', '2015 年6 月1 日，中韩自贸协定签订，正式明确盐城为中韩产业园合作城市。盐城致力将中韩盐城产业园打造成江苏开放型经济新名片，成为江苏呼应“一带一路”倡议的新的重要支点和平台。', '“多年以来，我们始终坚持把韩国作为扩大开放的重点区域和友好交往的优先方向。目前韩国已成为盐城市第一贸易伙伴国和第一外资来源国，盐城市也成为全省韩资大企业最集中的城市。”听着产业园区负责人的介绍，代表团成员深受启发。', '“抓住用好中韩自贸协定这一千载难逢的重大战略机遇，源于盐城‘一张蓝图绘到底’的坚持，通过多年持续不断的用力，才有了这样的规模。这也是我们承德要认真学习的地方”，双滦区委书记路立营说，“在去园区的路上，路旁树立着一块弘扬‘马上就办’‘事在人为、干就干好’作风的大牌子，盐城人的执着和韧劲特别值得我们钦佩，这也是当下双滦区乃至承德市产业发展最需要的。”', '园区内的江苏奥新新能源汽车有限公司诞生了我国首辆具有自主知识产权的碳纤维新能源汽车。', '成立于2009 年7 月，位列全国同类专用电动车企业前三强，是专业从事研发、制造、销售纯电力驱动交通车辆的国家高新技术企业。现有专业技术团队60 余人，获得新能源汽车专用整车生产资质，获得专利75 项，有38 款产品纳入国家公告目录，拥有整车集成等三大业内核心技术和自主知识产权。', '“创新是驱动发展的第一动力，是实现转型升级的关键所在”，听了公司的介绍，宽城县委书记祁海东很有感触，“我县新上的玄武岩石纤维及其复合材料项目就属于创新驱动发展的一个尝试。这种新型材料2002 年被国家列入863 计划，2004 年被列为科技型中小企业创新基金、国家级火炬计划。投放市场后可广泛应用于军事、民用领域，成为县域经济和企业发展新的增长点。”', '东风悦达起亚汽车有限公司自2001 年落户盐城以来，先后建成3 个工厂，成为江苏省规模最大的乘用车生产企业和全国主流汽车制造企业之一。', '公司管理部朱部长介绍说，第三工厂以冲压、焊装、涂装、总装及发动机车间组成全自动生产线，是集高效、环保、节能于一身的现代化汽车制造工厂；研发中心与第三工厂同步建设，完全按照韩国现代起亚汽车全球区域研发中心标准建设，专业从事传统汽车整车和新能源汽车的研发设计、试制、试验及零部件的研发、试验工作，软硬件能力国内领先、国际先进，达到国际一流合资企业水平。', '“在去东风悦达起亚三工厂的路上，我们看到有许多供应配件的集装箱运输车，这些都是为工厂做配套服务的上下游企业，它们与工厂一起形成了整车项目的全产业链，这也是大项目带来的聚集效应”，市发改委主任王毅认为，承德在项目推介招商时要学习盐城经验，找到行业龙头企业，引进大项目，发挥它的1+100 的葡萄串效应，形成涵盖上下游的完整产业链条，使之成为全市转型升级、绿色发展的助推器。', '顾不上舟车劳顿的疲惫，简单吃过午饭，代表团又马不停蹄地来到江苏省盐城大数据产业园学习考察。大数据产业也是此次代表团在盐城学习考察的又一项重要内容。', '比区位：盐城是中国东部沿海的重要交通枢纽，承德具有一市连五省市的区位优势；比生态：盐城和承德空气质量均位居全国前列，好空气、好生态是两市的靓丽名片。同时两市都具有地质条件稳定、清洁能源充足等优势，是发展大数据产业的首选之地。', '目前，盐城大数据产业园，作为部省市合作共建的重点产业园区，已被纳入江苏省互联网经济、云计算和大数据产业发展总体规划，是国家战略中中韩自贸协定——中韩（盐城）产业园的重要组成部分。而国家工信部出台的大数据产业总体规划，更是将承德列为重点支持范围；“京冀6+1 合作协议”，将承德确定为“京津冀大数据走廊”上的核心支撑城市；河北省“十三五”规划，明确提出支持承德建设“国家绿色数据中心”。', '“目前落户华为云计算数据中心、 软通动力、华夏脉络等大数据项目78个，引进‘两院’及外籍院士6 名、国家专家和双创领军人才80 多名，中科院绿色数据中心、中关村（盐城）大数据产业联盟、中关村大数据资产评估中心盐城分中心、南京邮电大学大数据研究院等平台机构相继落户，‘载体——平台——应用’的产业功能体系初步形成”，大数据产业园工作人员介绍了产业的相关发展情况。', '“起点高、发展快是盐城大数据产业发展的特点，我们将认真总结盐城产业发展的经验和做法”，市工信局局长宋清礼说，“学深学透更要学以致用，下一步，我们要把学到的东西应用到推动承德大数据产业发展上，使大数据产业成为全市转型升级、绿色发展的重要支柱性产业。”', '对比，对接，对标；惊叹，共鸣，“得解”。在盐城的考察虽然短暂但很充实。一路走来，代表团一行既深刻感受到江苏盐城经济发展的蓬勃态势和领先的发展理念，又深刻领悟到改革、创新、转化已然成为盐城经济发展的强劲动力。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>10</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>赴北京怀柔区和昌平区学习考察</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2015-12-01</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2015%2F12%2F1%2Fart_9944_245923.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_245923</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为了深入推进京津冀一体化建设，促进我市乡村旅游产业快速健康发展。我局组织各县区旅游局、重点旅游乡镇、村和经营单位共33人，于4月16日--17日赴北京密云、怀柔和昌平就乡村旅游发展情况进行学习考察。重点了解乡村旅游典型业态、发展机制、扶持政策以及合作组织建设等情况。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>10</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市工商联召开第十四届执行委员会第四次会议</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2015-03-12</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2015%2F3%2F12%2Fart_360_66189.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_66189</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['本网讯 （记者杨丽红，通讯员石志强）3月11日，市工商联召开第十四届执行委员会第四次会议。会议号召全市各级工商联组织和广大会员企业真抓实干、锐意进取，汇集起全面深化改革、推进依法治国的强大正能量，助推我市民营经济适应新常态、实现新发展，不断开创工商联事业新局面。', '市委常委、市委秘书长刘文勤出席会议并讲话。市人大常委会副主任张树民，副市长刘新宇，市政协副主席王学，市政协副主席、市工商联主席段晓岩出席会议。段晓岩代表市工商联第十四届常委会作了工作报告。', '刘文勤在讲话中指出，全市工商联组织和广大非公经济主体要进一步认清形势、明确任务、履职尽责、锐意进取，在推动我市科学发展、绿色崛起和建设美丽幸福承德事业中发挥更大作用。要抢抓京津冀协同发展的重大发展机遇，分析形势，谋求发展。京津冀协同发展是我市面临的最大机遇，要充分发挥好全市工商联组织联系非公经济界的桥梁和纽带作用，充分发挥好引领非公企业发展的牵头抓总作用，和全市广大非公企业经营者一道，认真研究和把握国家产业政策和市场走向，结合我市产业布局，促进非公经济健康发展；在严峻复杂的经济形势下，民营企业要咬紧牙关渡难关，力促转型升级抗风险，自我创新创业增强活力，注重企业文化建设聚合力，依法诚信做示范，勇于担当尽责任；全市各级工商联要开拓视野，发挥商会协会作用，组织分行业对标性学习考察，及时了解企业所需所求，出好点子，为企业服务；及时了解企业发展困难，为企业排忧解难，充分发挥先进企业、企业家示范引领作用，为民营企业发展聚集正能量。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>10</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>全市农业农村工作半年总结暨交流研讨会召开</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2015-08-13</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2015%2F8%2F13%2Fart_360_65146.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_65146</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['本网讯（记者赵可会）8月11日，全市农业农村工作半年总结暨交流研讨会在行政中心召开。', '会议指出，我市在京津冀协同发展的历史进程中，实现了新作为，在脱贫攻坚、林果经济、农村面貌改造提升等方面取得了良好实效。面对当前严峻的经济形势，我市积极研究新业态，探索新模式，建立新机制，用市场的规律、开放的思维扎实推进现代化农业发展进程。一批重大事项实现了重大突破，一批重点项目取得了重大进展，一批改革事项取得了扎实成效，一批创新举措收到了良好成效。1—7月份，我市农业综合产值增长4.2%。', '会议要求，我市要牢牢把握京津冀一体化的重大机遇，进一步明确思路、强化举措、只争朝夕，扎实构建现代农业经营体系。要发挥好“规划”这把金钥匙的引领作用，统筹做好全市现代农业发展布局；要发挥好“项目”这个牛鼻子的牵引作用，扎实推动一二三产融合发展；要发挥好“改革”这把利剑的推动作用，全面激发农业农村发展活力；要发挥好“生态”这张王牌的辐射作用，着力推动生态产业做大做强；要发挥好“政策”这一行政手段的推动作用，着力从根本上解决好“三农”问题。', '会议强调，全市农口系统要严格按照“三严三实”的总要求，扎实推进各项工作。既要抓好当下，又要立足长远，把提高农产品质量效益作为主攻方向，把促进可持续发展作为主要力度，把改革创新的机制作为根本动力，唤醒沉睡的生态资源，让沙滩变草原，让生态变资源，激活各类农村生产要素，打造天蓝地绿水清的资源环境，推动我市“三农”工作再上新台阶。', '市直农口各部门主要负责人，各县区分管农口工作负责人参加了此次会议，就进一步做好“三农”工作进行了交流研讨和总结汇报，并提出了意见和建议。', '8月12日，吴清海带领与会人员赴北京中农春雨休闲农场、密云蔡家洼农业园等学习考察了现代农业发展经验。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>10</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市质监局年元旦春节期间廉洁自律和厉行节约十条禁令</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2015-01-09</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2015%2F1%2F9%2Fart_9943_228655.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9943_228655</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['承德市人民政府 公告公示 市质监局2015年元旦春节期间廉洁自律和厉行节约“十条禁令”', '7.坚决禁止公款购买赠送贺年卡及烟花爆竹、烟酒、花卉、食品、土特产品等年货节礼（慰问困难群众职工除外）；', '8、坚决禁止以学习考察名义变相公款旅游，禁止将走亲访友、外出旅游等非公务活动纳入公务接待范围；']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>10</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>中国农大节水农业示范区落地围场隆化两县</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2015-06-08</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2015%2F6%2F8%2Fart_360_64753.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_64753</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['本网讯 （记者孙涛，通讯员万紫锦、曹士国）为切实发挥承德在京津冀协同发展中的水源生态涵养作用，探索解决制约我市农业产业发展与节水矛盾的核心问题，日前，中国农大节水农业示范区落地围场、隆化两县。', '市农牧局经过多方努力，多次到中国农大进行对接，并于4月8日邀请中国农大副校长王涛、旱作节水专家李光永教授及黄兴发教授到我市就开展生态节水、农业面源污染进行考察和座谈论证。随后组织市、围场和隆化县农牧局相关技术人员到内蒙古赤峰市翁牛特旗沐禾节水设备有限公司进行学习考察。中国农大、赤峰市沐禾节水设备有限公司与承德市及隆化、围场两县农牧局共同合作，分别在隆化县汤头沟镇山前农场，建立20亩水稻膜下旱种直播节水滴灌试验示范区。在围场满族蒙古族自治县牌楼乡牌楼村姜平家庭农场，建立130亩马铃薯膜下滴灌节水试验示范区。目前，两个试验示范区工作进展顺利，处于正常田间管理阶段。', '此项工作的开展填补了我市水稻、马铃薯两个主栽作物节水灌溉模式的空白，实现水、肥、药一体化有效控制，解决节水、控肥、控药以及农业面源污染等制约农业产业发展的核心问题，更好地为京津涵养水源，促进京津冀一体化协同发展。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>10</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>双节将至承德市纪委提前敲警钟</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2014-12-29</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2014%2F12%2F29%2Fart_362_10978.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_10978</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['本网讯（记者黄永力，通讯员承纪宣）元旦、春节将至，12月24日，承德市纪委监察局发出通知，重申、强调“十个坚决禁止”，要求切实加强节日期间的党风廉政建设，促进领导干部廉洁自律，做好厉行节约工作，坚决防止各种奢侈浪费和不廉洁行为发生。', '“十个坚决禁止”是：坚决禁止巧立名目，以加班费、奖金、补贴等名义违规滥发钱物；坚决禁止年底突击花钱，超预算支出“三公”经费；坚决禁止公款大吃大喝，特别是利用培训中心、机关食堂搞宴请、娱乐活动；坚决禁止搞团伙、迎来送往，用公款相互走访、相互送礼、相互宴请，跑官要官；坚决禁止收送礼金红包、会员卡、商业预付卡及各类有价证券；坚决禁止公车私用、领导干部私驾公车；坚决禁止公款购买赠送贺年卡及烟花爆竹、烟酒、花卉、食品、土特产品等年货节礼（慰问困难群众职工除外）；坚决禁止以学习考察名义变相公款旅游，禁止将走亲访友、外出旅游等非公务活动纳入公务接待范围；坚决禁止用公款报销个人费用，以及向下级单位和管理服务对象摊派费用；坚决禁止党员干部在任何场所参与任何形式的赌博活动。', '市纪委监察局要求，各级党委（党组）要认真履行主体责任，立足早部署、早提醒、早检查、早预防，提要求、明政策、严管理，将相关纪律要求层层传达到每个部门、每名党员干部，积极倡导文明、节俭、廉洁的节日新风，努力革除铺张、奢侈、庸俗的陋俗积弊，推动节日期间崇廉尚洁社会风气的形成。各级纪检监察机关要切实担负起监督责任，畅通监督渠道，创新监督方式，利用电话、邮箱等广泛受理投诉，加大明察暗访力度，实现常态化全覆盖监督，发现有令不行、有禁不止，上有政策、下有对策，顶风违规违纪的，从快处理、严格追究，形成有效震慑；对典型问题，从严查处外，一律予以公开曝光，切实发挥警示教育作用。对党委（党组）、纪委（纪检组）工作不力、放任纵容，导致地方和部门违规问题频发，以及发生严重事件的，严肃追究党委（党组）的主体责任和纪委（纪检组）的监督责任，全力打造清廉“双节”。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>10</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>承德市纪委十个坚决禁止加强两节期间党风廉政建设</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2014-12-28</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2014%2F12%2F28%2Fart_360_65804.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_65804</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['和合承德网讯 （记者成玉，通讯员承纪宣）2015年元旦、春节将至，12月24日，市纪委监察局发出通知，重申、强调“十个坚决禁止”，要求切实加强节日期间的党风廉政建设，促进领导干部廉洁自律，做好厉行节约工作，坚决防止各种奢侈浪费和不廉洁行为。', '“十个坚决禁止”是：坚决禁止巧立名目，以加班费、奖金、补贴等名义违规滥发钱物；坚决禁止年底突击花钱，超预算支出“三公”经费；坚决禁止公款大吃大喝，特别是利用培训中心、机关食堂搞宴请、娱乐活动；坚决禁止搞团团伙伙、迎来送往，用公款相互走访、相互送礼、相互宴请，跑官要官；坚决禁止收送礼金红包、会员卡、商业预付卡及各类有价证券；坚决禁止公车私用、领导干部私驾公车；坚决禁止公款购买赠送贺年卡及烟花爆竹、烟酒、花卉、食品、土特产品等年货节礼（慰问困难群众职工除外）；坚决禁止以学习考察名义变相公款旅游，禁止将走亲访友、外出旅游等非公务活动纳入公务接待范围；坚决禁止用公款报销个人费用，以及向下级单位和管理服务对象摊派费用；坚决禁止党员干部在任何场所参与任何形式的赌博活动。', '市纪委监察局要求，各级党委（党组）要认真履行主体责任，立足早部署、早提醒、早检查、早预防，提要求、明政策、严管理，将相关纪律要求层层传达到每个部门、每名党员干部，积极倡导文明、节俭、廉洁的节日新风，努力革除铺张、奢侈、庸俗的陋俗积弊，推动节日期间崇廉尚洁良好社会风气的形成。各级纪检监察机关要切实担负起监督责任，畅通监督渠道，创新监督方式，利用电话、邮箱等广泛受理投诉，加大明察暗访力度，实现常态化全覆盖监督，发现有令不行、有禁不止，上有政策、下有对策，顶风违规违纪的，从快处理、严格追究，形成有效震慑；对典型问题，从严查处外，一律点名道姓予以公开曝光，切实发挥警示教育作用。对党委（党组）、纪委（纪检组）工作不力、放任纵容，导致地方和部门违规问题频发，以及发生严重事件的，严肃追究党委（党组）的主体责任和纪委（纪检组）的监督责任，全力打造清廉“双节”。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>10</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>市司法局围绕大局履职尽责为全市经济发展提供优质高效的法律服务和法律保障</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2014-07-19</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2014%2F7%2F19%2Fart_9941_223680.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_223680</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['承德市人民政府 工作总结 市司法局围绕大局履职尽责为全市经济发展提供优质高效的法律服务和法律保障', '百名律师牵手巾帼维权行动和律师与见义勇为英雄手拉手、法律服务进企业、进社区等专项活动。', '及时对政府法律服务顾问团进行调整，将30名优秀年轻律师充实到顾问团，推动政府依法论证、依法评估、依法决策和依法行政。继续', '每天指派2名律师到市接访中心值班，为市委、市政府提出法律建议，为上访人提供法律咨询和帮助。与电视台联合，开办了律师信箱节目，为当事人答疑解惑，受到观众好评。上半年，全市律师办理刑事、民事、行政、仲裁等案件5676件，提供法律援助762件。', '加强业务建设、队伍建设、文化建设和作风建设，开展公证文书质量大检查、带领公证处主任到先进发达地区学习考察，提升公证员素质，提高办证质量。', '机构组织开展了行风建设专项活动，各鉴定机构规范化建设和服务质量明显提高。全市出具鉴定3200件，无一件错鉴、假鉴事故发生。各级', '。加强综合法律服务中心建设。6月份，市司法局在围场县召开了全市综合法律服务中心建设现场会，学习、观摩、推广围场县经验。目前，建成并规范运行的综合法律服务中心1家，正在建设年底前完成3家，还有7个县区正在谋划之中。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>10</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>名大学生村干部的田野青春梦</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2013-08-25</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F8%2F25%2Fart_360_68595.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_68595</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['夏末秋初时节，走进位于滦平县双庙村的大学生村干部创业示范基地，鲜嫩的青椒青翠欲滴，一串串西红柿挂满枝头……这是县里9名大学生村干部创业梦结出的硕果。', '这9名大学生村干部来自滦平的9个偏僻农村，为了能找到一个项目让村里的乡亲们致富，他们通过外出学习考察，结合滦平县的资源、区位优势，萌发了带领村民种植有机蔬菜的想法。', '今年3月份，这9名大学生村干部共筹集了7万余元做为本金，成立了滦平县大学生村干部创业示范基地，在滦平镇双庙村承包了占地13亩的8个大棚，从事绿色无公害蔬菜的种植，开始了他们的靠自己创业并最终带领乡亲们致富的梦想。', '村民议论纷纷，“新来的大学生村干部要大棚创业致富，说什么有机蔬菜，你说这新鲜不新鲜。”', '“对啊，他们大学生，说说文化程度高，但都是书上的玩意儿，哪有真正动手干过，一大堆理论知识。”', '不光是村民议论纷纷，家长们也不是很支持。“我们这么费劲地供你上学，毕业后就是回来种地的啊。好好干好你的村干部，别东想西想的。”', '“面对这质疑和反对，我们曾经也彷徨过。但是，到平泉县参观大学生村干部创业项目，很受鼓舞，坚定了我们创业的想法。”朱国荣说：“我们是大学生，有知识，但是缺少经验。创业路正是丰富和完善自我的一个过程，在基层农村更有我们发挥聪明才智的广阔空间。只要我们一步一步朝着目标，成功，总会向自己，迎面走来。”', '大棚内的西红柿开花了，可是朱国荣他们却怎么也高兴不起来。因为，他们发现小花刚刚开就枯萎掉落了。', '6月，朱国荣他们终于迎来了一个收获的季节。看着一袋袋的豆角、尖椒被车拉走，销往北京新发地、综合性超市，心里有着说不出的欢喜。', '质优的有机蔬菜已经让这9名心怀创业梦想的青年赚到了“第一桶金”，5个月的创业经历，使这9名大学生村干部们收获匪浅。他们的大学生村干部创业示范基地不仅示范成功，还增加了当地10多名群众就业机会，提高了他们的收入。', '“别说，还真让你们几个小孩折腾起来了，真不错！你们也给咱们村看看，适不适合干这个大棚不，要是能干的话，咱们也盖几个大棚！”现在很多村民都希望自己村的村干部能够回到本村帮助他们致富。', '“我们作为大学生村干部，我们很自豪，在创业的路上充满了质疑和困难，但无论什么时候，我们都不会放弃。今后我们要扩大基地规模，回到自己所在村发展，带动本村农民致富……”对于未来，朱国荣和她的伙伴们信心十足。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>10</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>我委圆满完成清华大学京津冀协同发展干部素质提升专题研修班研修课程</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2014-07-17</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2014%2F7%2F17%2Fart_9945_194682.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_194682</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['承德市人民政府 领导活动 我委圆满完成清华大学京津冀协同发展干部素质提升专题研修班研修课程', '京津冀协同发展上升为重大国家战略。为进一步开阔视野、拓展思路、准确把握政策、客观分析形势、全面提升发改队伍的整体素质和能力水平，经党组研究决定7月4日至 8日，我委组织全委各部门48名机关干部，到清华大学参加京津冀协同发展干部素质提升专题研修班。', '本次研究班共设置九门课程: 全面讲授了宏观经济形势与政策分析、京津冀协同发展战略、生态城市建设、领导者的压力管理、依法行政与行政问责、干部素质提升、领导政务礼仪、等方面课题。授课教师均为清华、北大、人大教授级讲师，授课内容严谨详实，授课方式风趣幽默。学员与讲师积极互动交流，达到了良好的学习效果，圆满完成了此次提升学习。研修班学习期间组织参观了中关村国家自主创新示范区，3D打印技术、大数据技术、生态能源产品，等一系列我国自主研发、世界最前沿的科技成果展示，让各位学员在倍感骄傲的同时也对我国高新技术产业发展有了更加系统的认识。参加此次研修班的全体机关干部严格遵守活动纪律，服从组织管理，按时参加学习考察活动，无迟到早退现象，得到了清华大学培训部的积极评价。', '京津冀协同发展是我市发展的重大机遇，我委以发挥优势、高点起步、开放创新、绿色崛起为总原则积极与京津对接，经过努力争取，我市正式被列为全国首批19个循环经济示范城市创建单位之一，是全省唯一的地级市；成功争列国家主体功能区建设试点，将努力探索建设人与自然和谐相处的示范区和推进生态文明建设的先行区；成功争列首批国家生态文明先行示范区，在国家发改委组织的评审中我市位列华北地区第1名；这一批示范区的争列，将为我市在国家层面争取政策、资金，跑办项目等方面提供必要的前提条件。', '我委将以此次学习到的理论知识与未来工作实际相结合，进一步着力顶层设计，加强政策规划对接；加快推进产业对接协作，积极承接转移；调整优化城市布局和空间结构，争列首都经济圈发展和京津冀城市群规划编制；扩大环境容量生态空间，加强生态建设和环境保护；不断推进实现市场一体化进程，推动京津冀多领域合作平台建设。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>10</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>承德市民宗局年工作要点</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2014-03-11</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2014%2F3%2F11%2Fart_9944_283883.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_283883</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['年是全市民族宗教工作大事聚集、任务艰巨的一年，全年工作总体要求是：以党的十八大和十八届三中全会精神为指导，紧紧围绕市委、市政府工作大局，认真落实党的民族宗教工作方针政策，以民族工作抓团结发展，宗教工作保和谐稳定为主线，以民族工作谋发展、促团结、抓繁荣、机关工作转作风、聚合力、能保障为重点，抓深入具体、抓完善提高、抓特色创新，抓作风转变，努力实现新的作为，为服务全市科学发展，建设美丽幸福承德作出应有贡献。', '以党的十八大和十八届三中全会精神为指导，紧紧围绕市委、市政府工作大局，认真落实党的民族宗教工作方针政策，以民族工作抓团结发展，宗教工作保和谐稳定为主线，以民族工作谋发展、促团结、抓繁荣、机关工作转作风、聚合力、能保障为重点，抓深入具体、抓完善提高、抓特色创新，抓作风转变，努力实现新的作为，为服务全市科学发展，建设美丽幸福承德作出应有贡献。', '以民族团结进步为主线，着力加快发展，着力特色创新，推进民族经济和社会各项事业的快速发展。', '发挥好桥梁纽带作用，加强对上对下协调联络，指导帮助宽城、围场两自治县，抓好前期谋划衔接、会议组织、服务接待和后期兑现落实等关键环节，争取一批具有基础性、拉动性的产业和项目得到重点支持，有效提升议定项目的含金量，力争省政府现场办公支持力度实现新的突破；争取各方支持，整合多方资源，抓好以民族示范村、特色村寨和百村帮困工程为重点的项目建设，开展少数民族特色产业培训，适时召开特色村寨建设现场推进会，科学谋划、重点打造一批环京津少数民族特色村寨，争取各类项目资金不低于1000万元；积极主动做好民贸工作，认真研究国家促进民族企业发展的优惠政策，指导民贸县、民品定点企业用足用活政策资源，发挥民贸重点市的优势，单体做大做强，整体形成规模；深入开展民族优惠政策落实情况调研，从承德实际出发，在生态保护、资源补偿等方面寻求更大的政策支持空间。', '以迎接全国民族团结进步表彰表彰大会为契机，与《民族区域自治法》颁布30周年宣传活动相结合，创新工作载体，拓展创建范围，扎实开展好第五个民族团结进步宣传月活动，采取民族团结进步征文、少数民族文艺汇演等形式，大力宣传民族团结进步模范集体、模范个人的先进典型事迹，凝聚正能量，培树新典型，争创全国模范典型；着力提升民族事务治理能力，推进城市少数民族流动人口服务管理体系建设，健全民族关系监测、预警和突发事件调处的长效机制，及时妥善处理影响民族关系的热点、难点问题和突发事件，依法协调民族关系，全力维护民族团结；高度重视，大力加强尊重少数民族风俗习惯的宣传教育，会同有关部门切实加强清真食品生产经营监管和执法检查，有效预防和化解苗头问题，避免矛盾纠纷扩大升级；举办少数民族干部、民族地方干部政策理论培训班，提升政策理论水平和业务能力。', '加强少数民族文化研究、文艺作品创作和人才队伍培养，会同有关部门继续抓好少数民族文化遗产的挖掘、整理、保护、传承，指导民族县、自治县，重点扶持、打造一批民族、地方特色鲜明，主题思想积极向上的少数民族文化、文艺精品，适时举办全市少数民族文艺汇演；开展少数民族教育政策贯彻执行情况监督检查，努力提升民族教育的质量和水平，协调有关部门，继续推进河北民族师范学院委省共建和中央民大对口协作，加强与蒙八协的交流与合作，继续争取增加交换生数量、扩大专业范围、拓展交换省区；以河北民族师院、河北蒙中和平泉黄土梁子中学三个省级少数民族传统体育训练基地为重点，抓好组队训练工作，参加全省第九届少数民族运动会并力争取得好成绩，充分展示民族大市的风采；举办少数民族特色产业和实用技术培训班，提升科技素质，提高脱贫致富技能。', '深入开展党的群众路线教育实践活动，认真查摆存在问题，深刻剖析问题成因，切实加强整改提高，建立长效机制，改进工作作风；创造条件，组织全局干部职工和系统骨干到国家民委干部学院、国宗局干部培训中心以及先进地区集中开展业务培训、学习考察，开阔视野，增长才干；开展好重点、难点、热点问题的调查研究，了解新情况，分析新问题，形成新思路，制定新举措。', '通过抓班子，带队伍，建立健全各项工作科学规划、民主决策、目标管理、考核奖惩、廉洁从政、责任追究等一系列激励保障机制，努力营造领导班子风清气正，干部队伍积极向上的工作环境，充分调动各方面的积极性，在全局唱响和谐合力，务实创新，想事干事，创先争优的主旋律，精诚团结，合力攻关，切实增强凝聚力和战斗力。', '按照定责，履责、问责的要求，将年度重点工作进一步细化，对目标任务、工作标准、完成时限提出纲性、量性要求；加强信访稳定工作，强化属地责任；重视老干部工作，落实好相关待遇；突出预防教育，认真落实党风廉政建设责任制，按照一岗双责的要求，强化教育监督，加大落实力度，为全局工作的开展提供强有力的政治保障。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>10</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>中共承德市委办公室承德市人民政府办公室印发承德市村级厉行节约制止奢侈浪费行为的指导意见</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2014-06-30</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2014%2F6%2F30%2Fart_360_66527.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_66527</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 中共承德市委办公室 承德市人民政府办公室印发《承德市村级厉行节约制止奢侈浪费行为的指导意见》', '中共承德市委办公室 承德市人民政府办公室印发《承德市村级厉行节约制止奢侈浪费行为的指导意见》', '为加强农村党风廉政建设，进一步规范村级干部履职行为，强化村级干部作风建设，切实解决当前一些村干部违反廉洁履职规定和奢侈浪费的问题，依据《关于加强农村基层党风廉政建设的意见》、《农村集体经济组织财务公开规定》、《农村基层干部廉洁履行职责若干规定（试行）》、《河北省村集体财务管理条例》、《河北省农村集体资产管理条例》、《河北省厉行节约制止奢侈浪费行为实施细则》等相关规定，结合我市实际提出如下指导意见。', '村级集体经济组织应遵循勤俭节约、量入为出的原则，以管好、用好、发展好村集体资金、资产、资源和维护好广大群众民主权益为核心，强化对村级财务的管理和监督，厉行节约，反对浪费，严格控制和压缩公务接待、学习考察、奖金补贴、交通差旅等非生产性支出，把有限的资金更好地用于村级集体经济发展和公益性事业支出。村级干部应严守纪律，严格按程序、按标准、从严从简办理村务活动，坚持实事求是、公开透明，主动接受各方面的监督。建立健全村级干部厉行节约制止奢侈浪费行为方面的长效机制，规范村级非生产性支出范围和标准，有效推动村级干部廉洁履职，有力促进农村经济发展和社会和谐稳定。', '1、干部报酬。各县区党委、政府要依据《中共河北省委关于进一步加强农村基层党组织建设的意见》（冀发〔2008〕14号）相关规定，进一步规范村级干部基础职务补贴和绩效补贴及享受误工补贴人员的发放范围、发放标准、发放程序、资金渠道。严禁村组干部未按规定程序，擅自扩大补贴范围和提高补贴标准。', '2.公务接待。村、组一律取消行政性招待费，全市各级、各部门工作人员执行公务一律不准在村、组就餐。严禁村级干部之间相互宴请。对违规支出的招待费用，一律由消费个人承担。', '3.学习考察。各村不得组织无实质内容、无明确目的学习考察。上级部门组织村组干部学习培训或外出参观考察的，按文件规定标准核销费用。严禁以学习培训、招商引资、参观考察、接受红色教育等名义，组织村“两委”班子成员、党员、村民代表、村民组长及其他人员变相公款旅游。', '4.车辆使用。严禁擅自购置和配备小汽车，对确需配备小汽车的，必须经村“两委”班子会议研究，提请村民大会或村民代表大会讨论决定，并按程序上报审批。购车标准参照党政机关公务用车配备标准执行。加强对村集体公车的使用管理，严禁出借公车和公车私用。', '5.村级福利。村集体原则上不得用集体资金垫付应由村民个人缴纳的费用。由村集体出资，全体村民或符合条件的村民同等享受的福利，享受对象的确定、福利标准等由村“两委”班子会议讨论后，经村民大会或村民代表大会讨论决定后执行。严禁村组干部未按规定程序擅自决定享受福利范围和标准。', '6.村级债务。严禁村组干部违反程序规定，擅自举债，增加村集体负担。因村级经济发展需要，村级财务无力支付时，应合理举债，并通过村“两委”班子会议讨论，经村民大会或村民代表大会讨论通过后，根据实际需要，确定借款数额。严禁村组干部举债用于支付报酬、奖金、其他各类福利等支出。', '7.资产处置。涉及村集体土地征用、变卖、出租，购置大型或大批物资设备，固定资产的变卖和报废处理，“一事一议”筹资筹劳等重大事项，必须经村民大会或村民代表大会讨论决定。严禁未按规定程序擅自处置村集体资产、资源，造成村集体资产流失。', '8.其他支出。严禁村组干部用集体资金为个人购买商业保险。严禁以支持帮扶、联谊等各种名义用村集体资金向国家工作人员赠送红包、礼金、会员卡、购物卡、烟酒、土特产品等。', '2.加强宣传培训。采取举办集中培训、专题辅导等多种形式，加强对村组干部的教育培训，把各项规定和要求传达到每名村组干部，切实让每名村组干部懂规矩、用规矩、守规矩。同时，要加大宣传和公开力度，畅通举报渠道，方便群众监督。', '3.强化监督检查。县区纪检监察机关、乡镇纪委要加大对村级违反厉行节约规定案件的查处力度，对典型案件进行点名道姓通报；县区农经部门要加强检查和审计监督，对存在的问题进行及时纠正和处理；乡镇农经站要切实履行好日常监管职责，严格审核把关，对违反规定的支出不予入账核销；村民监督委员会要定期对本村所发生的财务支出进行全面审核，对违反规定的票据不予签字，对存在的问题及时向乡镇纪委报告。', '4.严格责任追究。对因把关不严、监管不到位而引发群众越级上访或群体性上访的，严肃追究相关责任人员以及领导的责任。对村级干部违反规定的，依照相关规定给予廉政谈话、通报批评、组织处理或者纪律处分，造成经济损失的由个人承担；涉嫌犯罪的，移送司法机关依法处理。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>10</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>我市全力推进科学发展绿色崛起</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2013-06-04</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F6%2F4%2Fart_362_11776.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_11776</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['本网讯 （记者马思稳，通讯员王泽辉）我市在大讨论活动中，紧紧围绕“四大攻坚战”，确立“科学发展、绿色崛起”定位和“十年翻两番”目标，谋划全力打好“八场硬仗”，以干部群众思想观念大解放，推进改革开放大提速，营造创新驱动大环境，形成后起直追、弯道超越的强劲态势。', '坚持理性辩证地把脉市情，确立发展赶超目标。全市党员干部深刻认识到承德最基本的市情，在市级层面，初步聚焦“一小五低”六方面问题：“一小”就是经济总量太小。“五低”，一是发展水平低；二是产业层级低；三是市场发育程度低；四是城镇化水平低；五是居民收入低。从原因分析，主要归结为“三个不到位”：思想解放不到位，改革开放不到位，环境优化不到位。分析了比较优势，在自然和历史禀赋方面，概括为“五最一特”：“五最”，即区域面积最大，森林覆盖率最高，水资源最丰沛，矿产资源最丰富，文化特色最鲜明。“一特”，是指区位最为特殊，环抱京津、近邻三港、一市连通五省市区。同时深刻反思、牢牢抓住承德正处于机遇叠加、弯道超越新阶段的特点，进而确立一个发展定位：“科学发展、绿色崛起”；明确“两个翻番”奋斗目标：到2020年，全市生产总值、全部财政收入和城乡居民收入比2010年“翻两番”，争列全省第二梯队。', '坚持科学合理地选择重点，部署全力打好“八场硬仗”。一是全力打好转型升级硬仗。做好“有中生新”文章，推动钒钛制品、装备制造、食品药品加工等传统产业上层级；推动特色农业扩规模、提档次和文化旅游服务业做大做强。', '做好“无中生有”文章，着力在尾矿利用、清洁能源、现代物流等战略新兴产业发展上寻求突破。二是全力打好招商引资硬仗。抓住“百家民企进河北”机遇，扩大开放成果。三是全力打好园区建设硬仗。改革现行管理体制，将南部新城划归高新区统一管理，连同张百湾、六沟、凤山3个市本级产业聚集区，形成“1+3”产业发展平台。四是全力打好活化金融硬仗。在用活融资手段、撬动社会资本的同时，重点依托矿业、林业、水务、交通、旅游五大集团，推动资源变资本、变资金、变效益。五是全力打好新型城镇化建设硬仗。立足山区特点，坚持多点带动、多极发展，做强做优中心城市，做大做特县城，做靓做美小城镇。六是全力打好扶贫开发硬仗。借助国家政策机遇，因地制宜发展林果、食用菌、中药材、设施蔬菜等“扎根”产业，实施农村面貌改造提升行动，加快脱贫致富步伐。七是全力打好全民创业硬仗。降低准入门槛，加强政策扶持，培育市场主体，引导百姓创业，鼓励能人创业。八是全力打好基础设施建设硬仗。织密“路网”，全力构建“两环十射”高速公路网，打开对外通道，畅通域内循环；建设“水网”，提升涵养能力，改善生态环境；改造“电网”，增强保障能力。', '坚持灵活多样地实化载体，助推活动快见成效。将活动的内容与形式有机结合，谋划了12件实事。一是开展“我为建设美丽幸福承德献一策”活动。征集党员干部、社会各界对河北科学发展、建设美丽幸福承德的良策。二是开展一次市级领导集中调研。确定了经济转型、招商引资、活化金融等12项调研课题，市党政领导调研不少于5天，6月中旬市委集中听取汇报、研讨交流。三是开展一次城市对标考察。确定江苏扬州市进行全面对标，选定山东潍坊市进行特色现代农业专项对标。四是开展一次理论学习中心组集中学习。五是组织一场学习辅导，围绕“四种思维”，邀请领导、专家和先进地区党政领导专题辅导。六是出台一系列转变政府职能、提高行政效率的规定，进一步削减审批事项和环节，减少行政事业性收费。七是制定一套吸引力较强的招商引资政策，完善鼓励政策，在高新区先行先试。八是组织一系列招商活动，参加省“5·18”经贸洽谈会、“5·28”赴北京招商活动，开展一次赴德国法兰克福招商。九是明确“十年翻两番”目标，修订重点经济社会指标。十是集中开工一批基础设施建设、生产性和社会事业性项目。十一是制定领导干部外出学习考察制度。十二是推出一批特色理论和实践成果。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>10</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>双滦赴省内先进县区考察学习</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2013-05-31</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F5%2F31%2Fart_360_70015.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_70015</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['本网讯（张剑君、徐中伟、白子军）对标先进找差距，立足区情谋发展。5月22日至5月24日，赴丰南、曹妃甸、霸州、固安等地进行考察学习后，双滦区又于5月29日迅速组织副处级以上领导干部及各部门党政一把手召开大讨论对标先进学习考察活动座谈交流会。“开阔了思路、增长了见识，触及了心灵，更触动了解放思想的阀门”，会上通过深入交流，参加考察学习的领导干部达成了这样一种共识。', '丰南、曹妃甸、霸州、固安等地，是省内经济发展较发达县（区），品牌资源独特，经济实力雄厚，发展气势迅猛。通过考察学习，双滦区重新审视与先进地区的差距与不足，以解决学什么、怎么学、怎么干三个问题，找准发展顽疾，对症下药，确保将看到的、学到的、想到的与双滦的各项工作结合起来，落实到具体行动上，体现到发展成果上。', '一是解决学什么的问题。学习解放思想的深度，学习超前谋划的远见，学习持续努力的恒心；二是解决怎么学的问题。结合双滦实际学，在产业发展上重点学如何衔接配套、做粗拉长，在企业发展上重点学如何转型升级、做大做强，在城市发展上重点学如何提升规划、产城融合；围绕自身工作学，各单位、各部门的带头人要带头学习，带头解放思想，整体推动全区以思想观念的转变实现发展方式的转变；针对困难问题学，要立足产业基础、围绕发挥优势前进突破；要根据发展形势学，学习市场的思维、开放的思维、科技的思维、法治的思维，综合运用市场的手段、开放的方式、科技的力量、法治的办法来推动工作、促进发展。三是解决怎么干的问题，要解决体制机制问题，要放宽选人用人途径，要破解土地瓶颈制约，要着力推进金融创新，要掀起全民创业热潮。', '通过考察学习、召开会议交流，双滦区进一步增强了领导干部的发展意识和责任意识，提高工作能力和水平，在全市争先进位的竞争中，双滦将会不断有所作为、有新作为。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>10</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>标本兼治惩防并举正风肃纪优化环境全市反腐倡廉建设取得明显成效</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2013-07-29</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F7%2F29%2Fart_360_68408.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_68408</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 标本兼治惩防并举 正风肃纪优化环境——全市反腐倡廉建设取得明显成效', '今年以来，市纪委认真贯彻标本兼治、综合治理、惩防并举、注重预防的方针，积极推进惩防体系建设，深化反腐倡廉教育，加强对权力运行的监督制约，严肃查处违法违纪案件，坚决纠正不正之风，反腐倡廉建设取得了明显成效，为建设美丽幸福承德提供了坚强保证。', '加强对遵守党章和政治纪律情况的监督检查。按照保持党的先进性和纯洁性的要求，切实维护党章的权威性和严肃性，坚决查处和纠正违反党章的行为。加强遵守政治纪律情况的监督检查，认真开展政治纪律教育，把政治纪律教育纳入反腐倡廉宣传教育的总体部署，在承德反腐倡廉教育网中重点安排政治纪律教育课程，协调组织部门和市县两级党校把政治纪律教育作为党课教育、党校培训的重要内容，努力实现政治纪律教育的经常化、制度化、规范化。', '加强对重大决策部署落实情况的监督检查。紧紧围绕加快转变经济发展方式开展监督检查，重点加强对重大决策执行情况的监督检查。深入开展对节能减排和环境保护、水资源保护和水利改革发展、耕地保护和节约集约用地、做好“三农”工作和扶贫开发等政策落实情况的监督检查。深入开展专项资金综合治理，把扶贫、农业综合开发、小流域治理等6类专项资金列入重点检查内容，把城镇保障性安居工程、土地出让收入和支出、土地整治专项资金列入重点审计内容，加大民生问题和环境问题专项资金检查工作的力度。积极开展部门巡察工作，把执纪执法及收费部门作为重点督导巡察对象。认真落实省委巡视整改要求，督导相关县区制定并落实整改措施。同时，整合完善了监督检查措施，研究制定了监督检查长效机制，保证政令畅通。', '集中力量开展立项检查。围绕城市规划执行、停车场乱收费治理、矿山与河流治理、“三类事项”办理4方面存在的突出问题，依法开展了城市建设环境、旅游环境、生态环境和行政效能的立项监察。对擅自调整容积率并严重影响城市规划的项目，严格按《中华人民共和国城乡规划法》的有关规定进行处理，并依法追究监管部门的责任；以我市旅游旺季景区周边停车场乱收费为重点，做好对政府各职能部门对旅游环境开展监督检查工作情况的再监督，建立协调督办制度，注重发挥部门职能作用，破解我市旅游环境多年的顽疾；以矿山复绿工程和武烈河、滦河流域综合整治入手，督导相关职能部门切实落实中央和省市有关部署，带动生态环境整体改善；对行政许可事项、非行政许可审批事项、行政监管事项等三类事项的办理情况进行综合监督检查，把每一事项的申请、受理、审查和送达环节全部纳入监督检查范围，实施全程动态监督，保证监督检查深入有效。', '加大改善“两个环境”工作推进力度。实施改善“两个环境”九个专项行动攻坚月活动，重点工作任务逐月分解，建立台账，认真落实省纪委监察厅关于改善发展环境和生态环境的两个《问责规定》，实行两级纪检监察机关协调联动，对一些典型案件公开曝光。上半年，分别在2月、4月集中开展了优化发展环境督导活动，按规定对44名违规人员和5个责任单位进行了问责。重点开展了违法排污“三查”行动和改善空气质量专项行动，督导相关职能部门对损害生态环境的有关责任人和企业进行了依法处理，有效遏制损害生态环境行为的发生。', '集中力量开展好纪检监察机关牵头负责的专项工作。按要求认真开展“双减双提”专项行动，截至6月底，审核确定市本级行政许可项目207项，非行政许可审批项目39项，行政监管项目48项，建议取消下放34项。并将所有“三类事项”办理流程固定为受理、审核、审批、办结四个环节，清理互为前置审批事项71项，平均办结时限由法定20.57天压缩到9.98天，审批效率提高51.48％。同时，充分运用电子监察手段，1-6月份，共监察行政审批事项475827件，办结466213件，办结率97.98%。发出预警894次，异常73次，红牌11张。抓好规范行政处罚自由裁量权专项行动，将市本级4000项行政处罚自由裁量权细化为14401项处罚标准。明确“首违不罚”事项1389项，执行“下限处罚”标准8303项，需集体研究决定处罚标准6615项。同时，建立和完善了具体行政处罚事先法制审核、重大行政处罚集体讨论和行政处罚卷宗评审等6项制度，推进行政处罚法治化、制度化。', '组织开展万名群众大评议工作。围绕市委、市政府着力改善“两个环境”专项行动中关于万名群众大评议工作的安排部署，在全市范围内开展了万名群众大评议活动，对评议中的1个群众不太满意系统、10个群众不太满意单位、9个群众不太满意窗口单位，通过市委办、市政府办文件和新闻媒体进行了公开通报，并责成制定了整顿和改进措施。同时，对存在违反评议纪律问题的单位进行了全市通报，并依纪依规对相关责任人进行了处理。继续办好“百姓热线”，半年来，全市共播出政风行风热线类节目185期，100个单位做客直播间，问题的解决率和听众的满意度都在94%以上。', '加强了中央八项规定及省市有关要求落实情况的监督检查。先后制定了《关于2013年春节期间改进工作作风加强廉洁自律工作的通知》、《贯彻落实2013年春节期间改进工作作风加强廉洁自律工作的通知的安排意见》、《关于春节前后开展改进作风加强廉洁自律监督检查工作的通知》等文件。与公安、税务等部门组成4个联合督查组，累计暗访各类饭店和歌舞厅、洗浴等娱乐场所600余家，发现问题13个，对相关问题进行了全市通报；对105个违反中央八项规定的案件线索，进行了调查核实，并根据发现的突出问题，制定了配套文件，多层次多渠道地对落实中央八项规定工作进行规范与监管。', '加大对领导机关和领导干部作风方面突出问题的整顿力度。坚决反对形式主义、官僚主义、享乐主义和奢靡之风，督促各级领导班子开好民主生活会，认真开展批评与自我批评，增强党内生活原则性和实效性。坚决制止奢侈浪费和以权谋私，继续做好公务用车专项治理，查处案件16起。加强对各级党政机关公务招待费监管,严格执行审批卡制度和月报告备案制度，坚决杜绝公费吃喝、相互宴请、奢侈浪费行为。认真落实领导干部重大事项报告制度,严格实行领导干部重大事项事前、事后“双报告制度”，重点查处了2起县处级领导为儿女大操大办婚事问题，收缴违纪资金4.27万元。严控公费外出学习考察，认真落实领导干部出国（境）学习考察备案制度。严格评优评先审查程序，建议取消3人（单位）的评选资格。同时，积极探索建立干部作风状况评价机制，制定工作方案，从不同层面不同类别选取了2个县区、8个市直部门作为试点单位开展了相关工作。', '加强基层党风廉政建设。按照减少审批程序、减少办理时间、减少来人次数，增加征求意见环节、增加集体审议环节、增加民主监督环节的原则，扎实推进党务公开和基层重要事务规范化工作，对2个党的地方组织党务公开试点、8个党的基层组织党务公开示范点、8个基层重要事务规范化管理联系点，优化公开“流程”设计，使工作程序更加简捷、管用、易操作。按照具有承德特点的农村党风廉政建设“制度优化、科技支撑、组织保障、责任考评”四位一体工作模式，从加强标准化建设入手，提高构建质量。分别按照“十有”和“六有五落实”的要求，加强纪工委、乡镇纪委和村务监督委员会的“三委联建”。以市纪委全会确定的工作目标为重点，深化“两卡一书一台账”工作机制，强化日常管理，定期下发提示卡、督办卡和限期整改通知书，将台账执行情况、重大决策部署落实情况等日常工作绩效纳入党风廉政建设责任制考核，实现日常管理、工作推动、量化考核有机结合，进一步发挥了党风廉政建设责任制的龙头作用。加强国有企业和高等院校的党风廉政建设工作，着重加强对企业领导人员特别是主要负责人的监督和责任制考核，着重解决高校在招生录取、基建工程、科研经费等方面存在的突出问题。', '坚持查处大案要案。半年来，突出查办重点，完善办案机制，着力查处乡科级以上大案要案和“小官大腐败”案件，滥用职权、不作为、乱作为、慢作为等损害“两个环境”的案件，奢侈浪费、经商办企业等违反廉洁自律规定的案件，执纪执法部门、工程建设、土地征占、新闻媒体等重点行业中的腐败问题。截至6月底，全市共初核案件173件，新立案件151件，结案146件，党政纪处分161人，其中涉及处级干部1人，科级干部33人。', '坚持查处发生在群众身边的腐败问题。深入开展民生领域突出问题专项治理，认真纠正食品药品安全、保障性住房、环境保护、安全生产、执法司法、公务员考录和国有企事业单位招聘等方面突出问题。重点治理金融领域吸储“贴水”、放贷“吃回扣”、乱收费，医疗服务“收红包”等公共服务行业中的不正之风，严肃查处工程建设领域的违法违纪行为、传媒从业人员以职谋私、涉农服务中损害农民利益、违法违规征地拆迁、公路“三乱”、教育和流通领域乱收费等问题。重点查办了承德统建集团企业改制时隐匿国有资产等问题的案件，某镇副镇长等5人骗取、贪污拆迁补偿款案，某财政所所长骗取国家财政补贴款案；查实了某县路政执法人员违规设立流动治超站点乱罚款问题、某县森林公安分局违规在高速公路设卡检查问题；重点解决了电信运营在居民区网络服务中垄断经营问题，保证了网络用户对电信运营商的自由选择权。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>10</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>双滦区规划分局召开对标先进学习交流会</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2013-06-04</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F6%2F4%2Fart_9945_202712.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_202712</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['近日，双滦区规划分局召开了大讨论对标学习考察座谈交流会，对随区委、区政府赴唐山市丰南、曹妃甸，廊坊市霸州、固安等地学习考察的经验、成果进行总结交流。通过对标活动提高了认识，学到了经验。', '突出大字，前瞻性强，牵引发展。与双滦区同为城市主城区的丰南区的城市总体规划就明确了在全国找位置，在全省争第一的战略目标，按照超前十年，五十年不落后的理念，科学进行城市规划；', '突出实字，落地性强，融入发展。霸州市的城市规划事实上就是旅游产业发展规划，城市的空间形态、用地布局都用来为胜水泉乡', '突出精字，景观性强，服务发展。曹妃甸区港口、港区、港城一体发展，每一个片区、每一栋工业建筑都用心设计，体现了无处不精心、无处不精细、无处不精美、无处不精彩的要求，成为城市一道亮丽的风景线。', '学习固安等地区，敢于聘名家、请大家高标准编制各项城市规划，为高水准城市建设奠定基础；']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>10</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>政协承德市委员会五年工作综述</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2013-04-03</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F4%2F3%2Fart_360_69663.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_69663</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['本网讯 在十二届市政协任期的五年中，市政协紧紧围绕科学发展和加快转变经济发展的大局，以我市建设国际旅游城市和“323”发展思路为中心，在中共承德市委的领导下，坚持以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，团结和动员各民主党派、工商联、各族各界人士和广大政协委员，积极投身于全市经济建设、政治建设、文化建设、社会建设和生态文明建设之中，认真履行职能，有效发挥汇聚力量、建言献策、服务大局的作用，努力在推动参政议政成果转化为党政决策、推动工作落实上取得新成效，整体工作务实、创新、活跃，为推进科学发展、富民强市做出了应有的贡献。', '本届以来，市政协始终坚持把对承德调整经济结构、建立现代产业体系有重大影响的钒钛产业作为参政议政的第一件大事来抓。通过对标先进系统建言、向上呼吁争取支持、助推钒钛产品创新升级、关注推动重大项目等一系列措施和手段，促进了我市钒钛优势的发挥，加快了钒电池项目的研发、应用以及产业化方面的进展步伐。始终坚持推动文化旅游产业大发展，从推动旅游体制改革、推动发展旅游新型业态、推动文化旅游产业深度融合等方面入手，经过深入学习考察、实地调查研究和广泛征询意见，为市委决策提出了切实可行的意见建议，并经多次汇报和努力，争取到全国政协副主席郑万通带队的全国政协“加强文化遗产保护利用、建设承德国际旅游城市”调研组来我市视察调研，实现了将我市建设国际旅游城市上升为省级发展战略。始终把建设“生态承德”、推进可持续发展作为履行职能的一项重要任务，围绕矿山安全和环境治理、重点景区生态环境保护利用、循环经济发展和改善农村环境、水资源保护利用和减排工作等重点问题和关键环节不断予以关注和推动。针对推进老城区“中疏”落实、助推城市管理上水平、推动综合交通运输体系建设等课题，借鉴先进经验、连续跟踪视察、深入一线调研，持续助力城市建设与管理，为市委、市政府建言献策，并争取到多个项目得到省里的重点支持。', '按照协商在决策之前的原则，围绕编制“十二五”规划等重大课题积极深入调研，以常委会专题议政等形式向市委、市政府系统地提出建议。同时，就加强承德水资源保护作为京津冀区域经济社会发展战略纳入国家“十二五”规划、把承德交通能源基础设施建设纳入国家西部开发范围予以重点支持、把加快少数民族地方发展列入省“十二五”规划、把承德避暑山庄及周围寺庙保护利用工作列入河北省重点文化工程、促进欠发达地区义务教育均衡发展和县域文化产业发展壮大等一系列重大问题，通过各种形式向省反映、争取支持。在规划实施过程中，综合运用多种履职形式，组织政协委员、县区政协和市直相关部门，相继就推进环首都绿色经济圈建设、加强矿山建设和尾矿库资源综合利用、加快传统制造业转型升级、发展服务业及城市“夜经济”、推动市高新区和新兴产业聚集区规划建设与发展、促进旅游职业学院提升办学水平等事关全局的重大项目和重点工作，系统地开展视察和调研活动，配合市委、市政府为推动“十二五”规划顺利实施开展履职服务。围绕“保增长”积极助力企业发展和重点项目建设。', '把新型社区建设逐步提升到加强和创新社会管理的高度来认识并加以推动。以发展居家养老服务业为切入点，组织力量深入调研、了解群众关切，推动新型社区建设起步发展；就统筹解决社区办公用房、加快改善硬件设施、提升社区干部素质、解决相应待遇、增强综合服务功能等推进社区建设工作中急需关注和解决的问题，多次向市政府提出建议。指导和推动了双滦区以御祥园小区为重点、建设3个在全市具有示范作用、在全省有典型作用、在全国有影响作用的一流新型社区试点，为确保全国新型社区建设现场会的成功召开起到了重要的推动作用。认真贯彻落实中共中央近几年连续出台的1号文件精神，站在统筹城乡发展的高度，不断加大对发展农业主导产业、提升农村经济发展水平、促进农民增收的关注和推动力度。致力于改善民生民计，针对市区热网改建、市区中小学校 “迁、改、扩、建”、医疗纠纷调解机制、教育机制改革等一系列百姓关注的热点问题积极建言献策，努力在构建和谐社会中发挥作用。', '不断探索提案工作的新方式新方法，采取多种措施帮助委员知情明政、聚焦全市重大问题，引导委员经常性地深入基层调查研究，注意倾听群众心声、意见和要求，力求提案有见地、真管用、能见效。注重完善提案办理机制，在坚持主席、副主席和专委会督办重点提案的基础上，实行市级领导和市直部门“一把手”领办制，有效提高了提案的办理落实效果。尝试开展了“双向互评”、提办双方面对面协商、对老案积案实行《政协提案工作通报》等办法，不断加大对重点提案的督办落实力度。积极实践“开门办文史”工作，先后组织委员开展了“红山文化”、博物馆规划与建设、非物质文化遗产保护与传承等调研活动，积极打造“承德文史”三个系列书籍，编纂完成首部《承德市政协志》，荟萃了自市政协成立以来60多年的大事要事、组织机构、主要工作与活动、人物、文献等资料，是本届政协形成的具有存史价值的重要工作成果。坚持党的基本方针，扎实做好民族宗教工作。加强同民族宗教界人士的沟通联系，全面做好促进民族团结、宗教和睦的各项工作。积极呼吁争取国家有关部委对修缮修复六世班禅在承德须弥福寿之庙驻锡地、在承德建立国家统一战线教育培训基地等项目给予支持。', '不断夯实团结奋斗的思想政治基础。把学习作为经常性的重要任务，坚持学以致用、用以治学，通过多种形式组织政协委员、市政协各参加单位和机关干部，全面系统地学习贯彻中共十七大以来党和国家的大政方针及其各项决策部署，努力提高践行科学发展观的自觉性和坚定性。特别是中共十八大召开后，精心组织迅速掀起学习贯彻中共十八大精神的热潮，增进思想共识，形成共谋发展共推改革的合力。高度重视委员队伍建设。以建立完善履行职能机制为重点，探索实行政协委员履职登记制度，制定了《关于加强市政协委员队伍建设充分发挥委员主体作用的办法》，并统一印制了《政协委员参政议政登记册》，对委员的权利、义务和履职活动情况进行全面规范并予以记录，有效激励和规范了委员的履职行为。不断完善“履职服务”的具体形式。有效发挥政协委员的群体优势，注重提高视察调研效果，在已进行专题调研的基础上开展持续的跟踪调研，努力推动议政成果得到有效转化与落实。大力加强机关干部队伍建设。通过抓学习、重实践、促转变，政协机关干部队伍的服务能力和水平逐步提高，工作活力和工作规范进一步增强。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>10</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>承德市城乡规划局年工作总结及重点工作安排</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2013-03-29</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F3%2F29%2Fart_9941_222432.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_222432</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['2012年，在省住建厅的正确领导下，我局深入贯彻落实科学发展观，按照着力在打造精致、彰显独特、凝聚典雅、凸显生态、建设宜居、宜游、宜业之城上下功夫、求突破的工作思路，不断提升规划理念，着力提高管理水平、工作效率和服务质量，为推进承德国际旅游城市建设作出了应有的贡献。全年共编制各类规划290项，包括空间发展战略规划，绿核区域规划、北部新城整合规划等2项分区规划，综合交通体系规划修编、中心城区公共服务设施布局规划、城市风貌特色近期建设规划等5项专项规划，优化完善了闫营子、冯营子高铁商圈、车站路至世纪城、太平庄、西区滦河组团、滦广新区、下二道河子等地段7项控制性详细规划，', '完成275个基层建设年活动帮扶村村庄环境综合整治规划和村庄规划。研究出台了建设项目交通影响评价编制管理办法和城市建设档案管理办法等2项城市规划管理制度。核发一书两证156项。1人次获得省住建厅先进个人。争取省部级规划编制专项补助资金670万元。', '城乡规划编制和管理工作快速推进，规划引导城乡经济发展的龙头作用得到更加充分的发挥。一是规划引导重大基础设施建设职能充分发挥。结合城市发展需求，完成承德城市空间发展战略规划、绿核区域规划、近期建设规划，实现了城乡规划战略意图的贯彻，避免了项目实施的盲目和无序。同时，对行政中心搬迁、北区污水处理厂和热源厂、上板城污水处理厂、殡仪馆、双滦污泥厂等重大城建项目的选址问题认真组织论证，努力做到科学决策。二是规划引导城乡科学发展职能充分发挥。围绕高质量实现规划全覆盖的工作目标，积极组织或督促指导开展各类专项规划(城市综合交通、给水排水、公共设施、燃气、城市色彩等)、控制性详细规划(冯营子高铁商圈、车站路至世纪城、太平庄、西区滦河组团、滦广新区、下二道河子等地段)以及重大项目规划设计(如滦河发电厂六期工程、天然气利用一期工程、避暑山庄水环境治理工程)、重要地段修建性详细规划(如大石庙RBD、北部新城、红石砬公元欧洲城)的编制工作。根据做大中心城区、聚集优势产业、培育市级财源的原则和要求，组织编制了城市空间发展战略规划，指导相关县区完成六沟、张百湾、凤山和上板城高新区四片区的产业规划和总体规划编制工作。确定了两带多组团的中心城市发展格局以及人口300万、建成区面积300平方公里的中心城市目标。三是政策引导城市产业发展职能充分发挥。为从根本上解决老城区交通拥堵、建筑密集、人口集中、公共服务配套设施落后的顽疾，我们举全局之力推进老城区中疏，对老城区居住人口分布状况、居住建筑密度和城市功能布局等情况进行摸排调查和梳理研究，形成了《关于近期推进老城区中疏实施意见》并上报市政府实施。以控制住宅建设为重点，采取四级规划控制，严格限制高度、疏减密度、控制强度，对老城区住宅建筑继续做减法。规划逐步疏出老城区117家中省直、市直党政机关及所属事业单位、区直党政机关以及12家生产性企业、170家五金建材经销点、4家汽修企业，腾出城市空间，建设多形式的街区公园、绿地、停车场等。力争经过3—5年的努力，把老城区建设成为功能合理、特色鲜明、宜居宜游、充满活力的城区。为配合市政府经营好城市，强化了对城市及周边土地的规划储备工作，城市土地挖潜增效工作卓有成效。申报国家和省历史文化名城保护补助资金670万元，其中申报滦河老街和二道牌楼历史文化街区保护规划国家级专项补助资金100万元，申报保护历史文化名城相关规划编制省级专项补助资金570万元。四是规划引导新农村建设职能充分发挥。大力开展村庄规划调研，强力推进基层建设年活动帮扶规划编制工作，确保了275个帮扶村村庄环境综合整治规划和村庄规划按时完成。组织开展传统村落调查，5个村庄参加国家级传统村落评选。督导兴隆县完成13个灾后重建村庄规划编制、审批工作。', '在全力推进各项业务工作的同时，狠抓规划干部队伍建设，和谐团队创建工作成效显著。一是强化服务创新。克服困难，主动作为，全力破解城中村改造、三年大变样、外庙拆迁涉及的回迁房建设难题，完成冯营子、偏岭城中村改造、碾子沟回迁房等一批急难项目规划条件出具和建筑方案审查工作，让百姓真正感受到城市的变化，享受到城市发展的成果。注重研究法律法规和上级政策，找准规划与实际的结合点，高水平把双峰寺水库移民安置、大佛寺南侧、喇嘛寺村等地块规划意见。结合着力优化两个环境，不断强化工作措施，着力提升服务水平，深入推进行风建设，取得了实实在在的成效。全年出具规划条件及附图152份，积极跑办省政府完成博物馆和民族团结展览馆批复手续，扎实推进河北北汽福田、昌升现代城等一批重点项目规划审批，无超期办理项目。开展建设项目规划验线48项、验基56项、规划验收21项，确保了城乡规划依法实施。二是强化和谐发展。帮扶工作确立发展规划、培育致富产业、实施实事帮扶和救济困难户为工作重点，大力帮扶基层建设年帮扶村、扶贫开发联系点，较好地实现了预期目标。其中基层建设年活动工帮扶村总投资500余万元的十件实事和自选项目全部实施。实施了局党政正职周六公开接访和党政副职周五市信访联合接待中心接访、各科室负责人轮流陪访制度，组织6个工作组下派60名机关干部深入县区、街道、乡村和建设单位等基层单位开展大走访活动，集中解决疑难问题。在建设项目规划选址、规划条件出具、方案审查阶段，坚持依法行政，民主监督，超前解决群众关心关注的实际问题，努力从源头上预防和减少信访案件的发生，实行一把手周六公开接访、其他班子成员有访必接等制度，全年共办理信访案件8件，群众来信、来电咨询1000多人次，均得到了稳妥处理和满意解答，连续三年全系统未发生赴省进京非正常上访事件。三是强化队伍建设。引进了4名高学历人才，11人开展在职研究生学习，规划设计队伍得到了新鲜血液补充，规划管理人员知识结构得到优化，促进了各项业务工作的有效开展。邀请省住建厅专家教授郭林书来承就《中华人民共和国行政强制法》和《河北省城乡规划条例》进行讲学授课。积极组织参加住建部、省厅和市里组织的各类外出学习考察、业务培训、学术交流等活动，共计5期60余人次。四是强化群团组织。完成了局机关支部的换届选举，组织开展了有声有色的群团活动，如春节联欢、西柏坡精神教育实践活动、博爱一日捐、贫困村爱心捐款捐物等有意义的活动，融洽了团队关系，凝聚了队伍人心，促进了和谐机关建设。同时，积极倡导政治品德、职业道德、社会公德、家庭美德，努力创建成为市直机关文明单位。', '市规划设计院全年已完成或正在设计的各类项目70余项，合同产值1800余万元。市规划展览馆不断强化窗口作用，全年接待参观人员近五万人次，社会效益显著。市城建档案馆工作规范有序，全年对城建档案收集、整理、归档1545卷，接待档案查阅200人次，调阅档案1057卷;开展了档案行政执法工作，加强了对重点建设项目、地下管线工程项目文件资料的收集。同时，还突出对各县城建档案工作的实地检查、督促和指导。', '一年来，尽管我们认真做了一些工作，但是距离党和人民的要求还有很大差距，特别是在当前规划审批和规划执法主体分离的体制下，规划落位不够的问题需要认真研究、合力破解。同时，我们自身需要着力解决三个方面问题：一是着力解决规划站位高度、深度和前瞻性不够的问题；二是着力解决个别同志存在唯书唯上、不敢担当以及业务技能、作风建设等方面不能适应城市发展新要求的问题；三是着力解决规划宣传手段单一、形式不活、氛围不浓，深入群众不够的问题。', '2013年全市城乡规划工作将深入贯彻十八大精神，紧紧围绕着力改善发展环境和生态环境，以规划编制研究、管理与服务创新、中心城市功能提升、重点工程建设和队伍建设五大工程为抓手，促进城乡规划事业健康发展，为建设国际旅游城市作出应有贡献。', '一、着眼于提高水平，推动规划编制研究取得新突破。坚持把规划编制与研究作为首要任务，努力为规划实施管理提供更为科学的理论指导和更为全面的上位依据。', '1、全方位提升城乡规划编制水平。上半年对《城市总体规划》实施评估并启动修编。完成《承德城市空间发展战略规划》向省政府备案工作，为统筹区域发展、做大做强中心城市和总规修编奠定基础。指导六沟新兴产业聚集区、张百湾新兴产业示范区和丰宁凤山新兴产业示范区规划编制和实施。编制《承德市城市综合交通体系规划（修编）》和《承德市老城区慢行系统规划》，系统开展对城市道路、对外交通、旅游交通、慢行交通和公共交通的规划研究。同时，完善修编中心城区范围内特别是承德新城的控规，使其真正成为城市建设与管理的依据。', '2、编制中心城区建设高度控制规划。整合《承德避暑山庄及周围寺庙文物保护总体规划（2011—2020年）》、《承德避暑山庄外八庙风景名胜区总体规划》和《承德历史文化名城保护规划》成果，完善现状地形图和建筑立面资料，对中心城区逐片区、逐街道进行梳理和研究，提出分区控制原则和要求。', '3、编制完成《承德市城市特色符号规划》。全面推进城市风貌、色彩等特色定位研究工作，形成规划控制要求，加强对重要地段、重大项目建筑设计的精细化引导，推动文化与建筑深度融合，彰显和塑造城市特色。', '4、强化镇村规划编制力度。兴隆县、滦平县、丰宁县总体规划加快审批，其他五个县对现行的城市总体规划实施情况进行评估并启动修编工作。省、市重点镇加快编制覆盖全部建设用地的控制性详细规划和重点专项规划。各县完成城市规划区以外的全部乡镇的规划编制工作。', '二、着眼于服务发展，推动规划管理与服务创新取得新突破。围绕进一步提高规划管理规范化和服务优质化水平，进一步优化管理与服务体制机制，强化技术支撑，完善管理制度，实现管理与服务的提速增效。', '5、着力改善两个环境。开展好保护山水特色、城乡环境综合整治、优化行政审批、行业协会治理等4项专项行动。区别对待、分类处置在建房地产项目，对涉及开山的房地产项目要停止审批、依法处置和限期治理。着眼长远，研究制定管理办法，切实保护好山体，严禁各种违规开山搞房地产建设行为。推动《承德市城市规划区内山地开发利用规划控制办法》尽快审批，并严格执行。', '6、保护生态和景观。在继续坚持以控制性详细规划作为基本依据出具规划条件的同时，对可能出现高切坡、大开挖的地块提出更加明确的控制要求，避免破坏生态及严重影响安全和景观等行为的发生。', '7、进一步提高办事效率。理顺建筑外立面装修规划审批程序等规划管理体制及工作机制，规范管理，精简事项，简化流程，不断提高运行效能、办事效率和服务水平。', '8、着力推进信息化建设。进一步拓展、深化数字规划建设，巩固和运用好各项成果，通过统一的图形技术标准及准确的指标审核体系，有效提高规划审批的科学性和准确性，提升行政效能和项目办理速度。着力推进机关标准化工作，争取获得质量管理标准认证。', '三、着眼于集聚发展，推动中心城市功能提升取得新突破。强化规划统筹引领，围绕中心城市集聚发展，不断提高建成率、配套率和达标率，推动中心城市功能不断提升。', '9、有序推进大中疏。老城区要在现有基础上继续控制增量、疏减存量、梳理总量，完善城市功能，优化人居环境。加快生产性企业外迁和原址建设，合理引导各类批发性商业、建材装饰及汽修业迁出老城区，加快中心城区市场体系的提质改造。', '窝南部的契机，结合滦河治理工程的实施，重新对南部新城各片区的功能和用地布局进行优化统筹，重点打造秋窝行政办公中心、闫营子CBD商务中心、冯营子高铁商圈和大石庙居住中心。', '11、进一步完善北部新城区域功能。完成双峰寺水库及周边区域、承德机场临空经济区、双峰寺至老西营区域控制性详细规划。', '12、加强三个产业聚集区与中心城区的交通联系。规划东三西三六条沟通三个产业聚集区的快速通道，连通东环快速路、单塔子经绿核至新杖子快速路和高速公路西环线，形成南北相连、东西相通、贯穿一体两翼的组团间交通快线。', '四、着眼于促进发展，推动重点工程建设取得新突破。进一步强化目标意识和服务意识，全力推进我局承建和帮办的重点建设项目，不折不扣地完成市委、市政府交办的任务。', '13、推动招商引资工作取得新突破。进一步强化落实意识，坚定不移地将招商引资作为第一要务，加大力度，拓展招商成果。', '14、突出改善民生。把基础设施、社会公益、保障性安居工程及好事实事项目作为规划管理服务重点，提供主动、超前、优质服务，及时办理项目规划手续。', '15、大力推行阳光规划。切实加强城乡规划与实施管理工作，强化公众参与和社会监督，开展城乡规划公开公示工作，提高城乡规划公众参与度，充分体现城乡规划的公共政策属性。', '16、继续加大建设档案管理工作力度。深化馆藏档案数字化加工处理和转换，搞好建设项目全过程声像档案的接收和归档工作，扎实开展地下管线档案管理。', '五、着眼于队伍建设，推动自身建设取得新突破。围绕深入学习和贯彻党的十八大精神，从素质提升、作风转变和廉洁自律等方面着手，进一步加强规划队伍建设，着力建设一支眼界宽、思路宽、胸襟宽，有信念、有本领、有担当、有正气的规划团队，为城乡规划事业持续发展提供坚强保障。', '17、加强班子和队伍建设。推进学习型机关建设，落实局党委中心组学习制度，建立领导班子定期务虚会制度，以局党委中心组学习带动全局系统学习。认真执行并不断完善各项干部管理制度，树立正派加政绩的用人导向，为城乡规划事业持续发展提供人才和智力支撑。', '18、强化人员培训。实施全市城乡规划行业人才培训计划，联合大专院校开展多层次专业技术培训和学历教育，提高行业专业水平。组织市内规划管理人员赴先进地区培训考察，着重学习在城乡统筹、名城保护、新区建设的规划引导等方面的经验。', '19、切实转变工作作风。深入贯彻落实中央、省委和市委关于密切联系群众、转变工作作风的各项要求，牢固树立廉洁从政意识，强化全心全意为人民服务的宗旨意识，用实际行动，维护好规划系统干部职工的良好形象。认真做好信息、信访、建议提案办理、保密、综治和平安建设等工作。开展规划进社区、进农村、进企业宣传活动，努力塑造公开、公正、廉洁、高效的良好形象，积极主动为基层和企业排忧解难。', '20、加强廉政建设和反腐败工作。贯彻落实住建设《关于推广应用城乡规划管理廉政风险防控手册的通知》，加强城乡规划领域廉政建设。进一步从源头上预防和治理腐败，规范行政审批权力，健全和完善适合规划工作特点的行政效能监督机制。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>10</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>丁锦霞到滦平县调研</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2013-03-23</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F3%2F23%2Fart_360_69583.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_69583</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['本网讯 （记者乔溪，通讯员王海岩）3月21日，市深化加强基层建设年活动领导小组组长丁锦霞到滦平县调研基层建设年活动和便民服务中心建设。丁锦霞强调，要充分发挥群众的主体作用抓好基层建设年活动；进一步推进便民服务中心建设，更好地方便群众办事。', '丁锦霞先后看望了承德医学院驻付营子乡付营子村、大唐河北发电有限公司驻巴克什营镇古城川村、河北经贸大学驻滦平镇岔道口村、中国石油天然气管道局驻张百湾镇西井沟村等4个工作组，为工作组带去了生活用品。', '在广泛听取大家的意见建议后，丁锦霞指出，深化基层建设年活动能否取得实效，帮扶项目建设是关键。一是在项目规划上要广泛征求群众意见，取得群众的支持和拥护，通过进组入户，走访座谈，准确了解群众所急所想所需所盼，根据群众切实需要，把项目选准、选好、选实。二是在项目建设上要让群众广泛参与。通过典型示范，组织到先进村学习考察等方式，激发群众干事创业的热情，增强自身“造血”功能，实现主动脱贫；同时要注重增强基层组织工作活力，通过基层组织的宣传发动，充分调动群众建设家园的积极性，与工作组一道做好帮扶项目建设，要把好事办实办好。三是在项目推进上，驻村工作组要积极联系派出单位和项目管理部门，多争取支持，力争近早确定帮扶计划，落实帮扶资金，尽快让群众见到实效，得到实惠。', '在实地察看付营子乡和滦平镇两地的便民服务中心后，丁锦霞强调，在便民服务中心建设上，要通过合理下放审批权力和加强办公网络建设，进一步扩大服务内容，提高业务办理效率，更好地方便群众办事。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>10</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>五进五到确保承德市驻村工作组迅速开展工作</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2013-03-05</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F3%2F5%2Fart_360_69462.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_69462</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['本网讯 （记者乔溪，通讯员汪振刚、张雪松）全市深化加强基层建设年活动动员大会后，市深化加强基层建设年活动领导小组积极落实省、市委决策部署，结合本地实际进一步促进驻村工作科学化、规范化，启动了“五进五到”活动，确保各驻村工作组迅速进村入户开展工作。', '入户走访做到“五进”。一是十八大精神进农家。把组织党员干部群众学习宣传贯彻党的十八大精神作为首要任务，积极开展宣讲，利用老百姓通俗易懂、喜闻乐见的文体活动，营造学习贯彻十八大精神的浓厚氛围。二是民情调查进农家。在“走访不落一户、宣传不少一人”基础上，做到《致帮扶村党员干部群众的一封公开信》、驻村干部民情联系卡发放到户，认真开展“五知五问五清”问卷调查活动。详细记录《民情日记》，逐户填写《户情调查表》，形成有思想、有深度、高质量的《村情民情调查报告》辑印成册。三是政策法规进农家。把今年中央和省委1号文件精神作为宣讲重点，采取集中培训以及边入户走访、边发放惠农政策明白卡、边宣传政策法规的“三边”做法，确保惠农政策传达到村、落实到户，使群众真正明白“惠在何处、惠从何来”。四是技能培育进农家。结合帮扶村实际，把农村实用技术和致富项目宣讲入户，让群众找思路、选项目。组织村民走出去学习考察，邀请农业专家到村，通过举办讲座、发放资料、现场咨询等方式，把农业技能培训到家门口、讲解到田间地头。五是关爱扶助进农家。大力开展扶贫济困送温暖活动，看望慰问贫困户、五保户，帮助特困生，关怀留守老人和儿童，组织机关干部捐款捐物，邀请医疗机构到帮扶村开展义诊，让帮扶村群众切实体会到党的温暖。', '驻村帮扶实现“五到”。一是发展规划制定到村。在问计于民、不断了解村情民意基础上，制定切实可行的幸福乡村建设和扶贫工作发展规划，因地制宜培育壮大特色产业，积极推进“一村一品”建设。二是帮扶方案具体到事。认真谋划“自选动作”，会同乡、村共同研究制定帮扶方案。坚持认真做好宣传组织群众工作，按照“四议两公开”方式选择具体帮扶项目，确保体现群众意愿。各派出部门根据帮扶方案，在资金、项目、人才、技术、信息等方面给予大力支持，确保项目顺利实施。三是目标责任承诺到组。以“五项目标”、“七项任务”为主要依据，结合驻村工作组制定的帮扶方案，确定共性目标与项目目标。要求驻村工作组与县级活动办签订目标责任承诺书，作为年底考核驻村工作组实绩的重要内容，推动帮扶任务落实。四是联系群众直接到户。要求驻村工作组组长联系村“两委”负责人、1名党员、1名村民代表、3名以上生活困难群众，每名工作组成员联系1名村“两委”班子成员、1名党员、1名村民代表、2名以上生活困难群众。五是启动内力组织到人。通过多种形式动员广大群众积极参与建设年活动，通过筹工筹劳或采取“一事一议”方式兴办基础设施建设项目，发挥主体作用。引导群众参与产业结构调整，带头兴办各类企业和项目，积极参与经济合作组织。广泛动员群众开展村庄环境卫生整治活动，带头落实保洁措施，形成推动工作落实的内在动力。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>10</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>农民增收共富的脊梁兴隆县农民专业合作社四朵金花引得百花争妍</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2012-11-12</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F11%2F12%2Fart_360_70700.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_70700</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 农民增收共富的脊梁——兴隆县农民专业合作社“四朵金花”引得百花争妍', '“之所以强调发展林果产业，还有一个重要原因，就是它不仅是个农民致富增收问题，而且是一个共富问题。现在兴隆农户间富裕程度的差距，主要是果树多与少的差距。如果林果产业发展上去了，贫富上的差距将会明显缩小。”', '日前，兴隆县委书记王瑞林在一次加强基层建设年活动调度会上说，全县年产板栗8.5万吨、山楂25万吨，产量居全国县级第一。但随着农业产业化的发展，目前的果品产量不能满足县内企业需求，仅承德栗源食品加工园区建成投产后，年消耗山楂10万吨、板栗10万吨，再加上县内其它几十家果品加工企业，果品供应将出现缺口。虽然现在人均达到200株果树，但根据林业部门的调查，林果产业发展的潜力仍然很大，到全县农民人均达到三五百株果树的时候，农民的富裕水平、致富能力都会有一个很大的提高。“所以,要继续实行大栽大育，大干3年，栽满插严。造林栽果是兴隆农民的看家本领，也是最大的优势，一定不能把我们这个看家本领丢了。”', '兴隆有着“中国山楂之乡”、“中国板栗之乡”、“华北最绿”、“京津后花园花果山”、“京畿凉岛”、“天然氧吧”和境内的雾灵山自然保护区被评为“京郊最美的50个景区”第一名的美誉。', '据县委常委、农工委书记、副县长杨兢成介绍，兴隆的生态成果是通过一代又一代人付出的艰辛和汗水换来的。特别是近30年来，兴隆的县领导换了一届又一届，干部换了一茬又一茬，但林果立县的决心、信心没有变，并每届都有新举措。一任接着一任干，“一张蓝图绘到底”，“咬定青山不放松”。', '王瑞林说，虽然兴隆是林果大县，但还不是经济强县，要实现强县的目标，就必须把生态资源转化为生态资本，将生态优势转化为经济优势。', '2007年以来，市级、省级、国家级农民专业合作社和龙头企业的蓬勃兴起，为兴隆林果业的发展注入了强劲动力。', '“几年前，当别村苹果1元1斤还卖不动的时候，俺们村的普通苹果就能卖到10元3斤，富硒苹果卖到7元1斤，礼品果论个卖的话50元1个。”', '说起这一切，本村的人津津乐道，外村的人眼红、嫉妒……兴隆县车道峪村是如何做到的呢？', '车道峪村是个典型的小山村，“要矿没矿，要企（业）没企（业）”。在自然条件的限制下，村民只能在一亩三分地里刨食，村民的日子过得紧紧巴巴的。', '1996年，赵久广被选为车道峪村支书，卖过米面、收过废品的他一上任就开始琢磨怎样改变这一现状，“再富的矿也有采完的时候，我要为村民找到‘永久性的财富’，让村民富起来，日子好起来。”', '赵久广把目光瞄向了苹果。上世纪90年代初，车道峪村就有村民开始栽种苹果，但那时都是一些国光、黄元帅等老品种，秋天一到，果是产了不少，可是3毛钱1斤都卖不动。但赵久广却拿定主意：“种苹果肯定会比种粮食收益好。”', '刚一上任，他就从家里拿出800元钱，领着种植大户到山东学习考察苹果的种植及市场情况。那时，800元可不是个小数目！这件事他妻子至今仍感慨不已：“那个时候，我一年到头也不舍得为自己添件衣服，连一根冰棍都舍不得买。”', '考察归来，车道峪村就确定了大力发展“红富士”苹果的思路。不到3个月，赵久广就带领全村人集中连片嫁接、新栽“红富士”500亩。为了保证水源，赵久广带头组织干部群众在树下建起了管道网，还铺设上山铁管3000米。', '2007年，在县农工委、供销社等部门的帮助下，成立兴隆县“富兴”果品农民专业合作社，“富兴”取“富裕兴隆”之意。在合作社的带领下，全村苹果生产实现了育种、剪枝、打药、施肥、浇水、采摘、包装、销售“八统一”，并建起苹果加工生产线，实现从分级、清洗到包装一条龙。', '“果树开花施肥剪枝什么的，合作社给指导；苹果成熟了，合作社统一负责卖，我们都不用操心。”村民们乐呵呵地说。', '在合作社和全村人的共同努力下，车道峪村的“富兴”牌苹果越来越好卖，价格节节攀升。“去年秋天苹果下树，不到年底就卖光了。”村民陈友良说。', '苹果好卖了，村民的日子好起来了，几乎家家都建起了新房，有的还买了小汽车。看着村民日渐富裕，赵久广考虑的是如何把这份好生活延续下去。由合作社组织成立了农民夜校，每周日晚上邀请省市县农业专家来讲课，传授种植管理技术。', '“夜校可帮了我们大忙，好多种植技术都是在那里学到的。现在我们村的妇女走出去都是技术员，外村来请去干活还得150元一天呢！”村民赵久亮说。', '“村民富了，更要加强学习，综合素质提高了，好生活才能持久。”村里的夜校原来只讲科技课，赵久广又加了“三课”——法律课、党课、文艺课。不光要抓致富，还要让全村人的精神面貌上一个台阶。', '“是合作社帮了我们，解决了一家一户想办而办不了办不好的事。”赵久广说，“前两年引进的国际先进品种‘三优’苹果，过两年就要进入盛果期了，到时候平均亩产可达4500公斤，每亩收益可达2.5万元。”', '9月6日，兴隆县政府县长薛青松带领农口各部门到半壁山镇现场办公，为“富兴”果品农民专业合作社支招把脉。“现在‘富兴’苹果的质量和声誉都没有问题，缺乏包装、缺乏精品包装：小包装2个苹果可叫双喜临门，4个苹果可叫四季发财，6个苹果可叫六六大顺，8个苹果就叫八仙过海。”薛青松说，“以后兴隆所有的苹果都要打这个牌子，要使之成为北京的名优品牌，将车道峪打造成‘富兴’苹果的集散地。”', '“我们合作社要建一个1000吨的气调库，到那时我们就敢和北京各大超市签订常年供货合同了。”赵久广说，“以后家家户户的日子将会越过越好。”', '兴隆县地处燕山深处，主峰雾灵山纵卧其境内西北部。与北京、天津及河北的遵化、迁西接壤。北京那边就是兴隆，就边界距离而言，北京与兴隆零距离，因为北京的密云和平谷与兴隆接壤，边靠边，界挨界，村相邻，路相通，人相往。兴隆的版图就像一片树叶，翠绿而迷人。', '森林覆盖率高达65.76%，是华北最高的县份。海拔比北京高500多米，年均降雨量740毫米，比北京多200多毫米，是河北省降水最丰沛的地区，有“一年下72场浇陵雨”之说。生态好、空气湿度大、纯净度高，三种因素共同作用，夏季气温比京津低6-8摄氏度左右，形成了昼夜温差大、清凉舒爽的小气候。兴隆白天的热没有难熬的痛苦，夜晚的清凉送来的是惬意的享受。整个夏天兴隆人享受着绿色环保的天然大空调，这在北京周边200公里范围内是绝无仅有的。“气候湿润近似海滨，树木葱茏不让江南”，“百里两季，周边皆热她独爽”，这是诗人对兴隆夏季的赞誉。', '公元前1661年，满清入关在河北省遵化建清东陵，兴隆作为这座皇陵的“后龙风水禁地”，被封山至1915年才得以有人居住，封禁时间长达254年，1930年，始建兴隆县。', '兴隆也曾走过弯路。自清末至上世纪70年代，在“以粮为纲”思想的指导下，由于片面追求粮食产量，忽视生态建设，陡坡开荒、毁林种粮，对森林资源过度采伐，造成了严重的水土流失，兴隆的生态环境曾遭到严重破坏。农业内部结构比例失调，自然灾害连年不断，粮食产量低而不稳，兴隆人民饱受疾苦。', '改革开放后，为改变贫穷落后的面貌，县里的决策者们通过冷静分析，把目光投向了“山”上，把关注点集中到了“林”上。提出“以林为主、粮果并举、多种经营、提高效益”的发展方针。', '连续多年由县财政出资，免费向群众提供林木种苗。出台文件规定“地随树走、谁栽谁有”和“谁造林、谁管理、谁经营、谁受益”。发布了“禁牧禁伐禁开荒禁污染”四道禁令。', '2000年以后，各地资源、能源产业日益兴盛。县委专门召开发展战略研讨会，得出的结论是：林果业是受益面大、藏富于民的产业，群众要致富离不开果树；矿业虽然对财政贡献较大，但是在发展过程中不可避免地会产生资源消耗、环境污染等问题。兴隆要想实现又好又快发展，必须坚持以林果及其加工业为主。为此，提出“发展生态经济，建设绿色兴隆”的思路，实施“林果立县、工业强县、旅游兴县、城镇化带县”四大主体战略，大力发展生态经济。从“以林为主”到“林果立县”，兴隆在发展林果业上的认识层次越来越高，工作内涵越来越丰富，思想观念越来越坚定。', '30多年来，生态环境明显改善，森林覆盖率由17.5%提高到65.76%。兴隆虽然山高、坡陡，但却做到了“小雨中雨不下山，大雨清流缓出川”。即使在枯水季节，大河小溪依旧清水潺潺，长年不断。每年可向京津水源密云水库输水4750万立方米，潘家口水库输水6750万立方米。', '徐开义是个本地人，高中毕业后先是当了几年小学教师，后又开了几个铁矿。他想，铁矿石是不可再生资源，早晚会开采完的。人，到了一定境界，想到的就不是光为了自己赚钱了。什么项目既可富民，又能带来生态和经济的可持续发展呢？于是，徐开义选择了板栗加工项目。', '2007年，他成立了紫瑜珠板栗农民专业合作社，现为国家级示范社，辖长城沿线百里板栗带上8个乡镇，120多个自然村，3万多农户。拥有绿色基地1.5万亩，其中有机板栗基地1100亩。', '多年来，坚持免费为社员提供培训、技术及产中产后服务，以栗农为主体，服务与经营并举，上联市场，下联栗农。年加工能力在5000吨以上，产品远销日本、美国、马来西亚、新加坡等国，是中国目前最大的板栗加工企业。2011年，实现销售收入6000万元，总利润400多万元，社员户均增收2.5万元。', '十月进兴隆，红果遍地红。红果又名山楂、山里红、胭脂果。山清水秀美如画，兴隆山楂甲天下！兴隆山楂肉质肥厚而柔韧，味酸甜而清口，营养和医疗保健价值极高，有消积、化痰、防暑降温、提神醒脑、增进食欲等功效。近年来，临床研究有降低胆固醇以及降压利尿作用。据文献记载，早在明嘉庆年间，兴隆的山楂被视为贡品、珍品。', '1983年，资源清查时，全县山楂面积仅有2.5万亩，产量5706吨。当时县委、县政府专门就山楂一项提出了“三年大育、五年大栽、实现大地一片红”的口号。', '1988年，青松岭镇建立起果品加工厂，研制出全国第一瓶红果（山楂）果茶，并很快占领北京等各地的市场，成为1992年巴塞罗那奥运会上，中国跳水、游泳队的指定饮料。一时间，“青松岭”牌果茶在市场上风光无限。', '曾几何时，红遍全国的兴隆红果，由于管理粗放，品质下降，加之深加工用量少、没有跟上，致使上世纪90年代中期兴隆山楂的价钱一落千丈，最低时只卖到几分钱1公斤。“摇钱树”一度变成了“伤心树”。', '由1公斤几分钱没人要，到1公斤2元多抢着买，几经沉浮的兴隆红果又“红”了起来，原因何在？“是科技创新提升了果品品质，是高科技深加工及农民专业合作社的发展壮大提高了红果的附加值。”王瑞林一语中的。', '2007年，旭东山楂登记注册时社员只有50户，现已发展到遍及5个乡镇的870户。每年收购时社员均享受高出市场价格0.1元的优惠价。', '2010年，与天津华旗食品有限公司签订了有机山楂销售订单，以高出市场价格10%的价格销售，完成订单销售6000余吨，实现销售收入700多万元，让社员真正得到了更高的利益回报。', '几年来，旭东山楂农民专业合作社不断扩大有机山楂基地面积，现已拥有有机山楂基地6800亩，同时，合作社通过统一技术培训、购买生产资料、施肥、修剪、管理、加工、销售、品牌“八统一”，大大增强了产品的质量、信誉和市场竞争力。', '谈起今后的打算，合作社理事长刘旭东信心满怀：明年设计投资500万元，建一座2000吨的低温冷藏库；创建旭东山楂农民专业合作社网站与商务部新农村商务网对接，实现网上订单销售；建一处山楂果品打浆生产线，真正实现产供销一条龙，让社员享受到更多的利益。', '2002年3月，通过朋友介绍与河北农大和河北定州优质核桃种苗基地取得了联系。将自己多年当“破烂王”和从事运输生意积累下来的50多万元资金，全部投在了自家承包的荒山上。引进日本清香核桃苗和接穗，通水、通电、通路。在自家承包的荒山上，搞起了栽植和利用野生核桃树嫁接日本清香核桃实验。', '经过不懈的努力，实验取得成功。引进的树苗和改接的核桃树长势良好，耐寒性强，果实饱满。3年后进入盛果期，收获日本清香核桃1万个，河北农大以每个2元的价格全部回收。“核桃论个卖，听起来都新鲜，而且卖到了2块钱一个。”在当地引起了不小的震动。2004年底，王长发也因此以高票当选为村支书、主任，并连任至今。', '当上村干部的王长发，自感身上的担子重了、责任大了，只考虑自己家的事不行了。如何带领群众共同致富成为他沉甸甸的心事。', '一家一户，土地太少，毕竟成不了大事。他开始探索土地承包经营权流转新机制，建立起“股份+合作”的土地流转路子和“底金+分红+劳务收入”的土地流转分配方式。', '2007年，《中华人民共和国农民专业合作社法》施行后，他敏锐地观察到农民专业合作社的运行机制，就是自己昼思夜想的那种把农民组织起来搞规模种植、规模经营、培育农产品市场竞争主体、保护农民利益、提高农民收入的方式。', '依据当地实际，他提出：按照“群众自愿、土地入股、集约经营、收益分红、利益保障”的原则，引导农户以土地承包经营权入股，共同组建合作社。', '具体运作，采取股份制经营方式。村委会负责园区规划、水利设施配套、统一组织苗木采购、栽植，成立专业人员队伍负责管护。入股方式。采取土地入股和资金入股两种方式。分红方式。3年内不分红，以土地入股的村民可以在原承包地内种植矮秧作物；3年后不得再种植任何作物，以地入股的，无论盈亏每亩享受补贴400元，按股支付。其余收益、风险按股分配或承担。', '此举一出，加之王长发种植日本清香核桃已经取得成功，并效益显著，立即得到了群众的积极响应。张家三分，王家半亩，173户245亩地很快汇聚在了一起，打破了过去的户与户之间的地界限制。本村村民资金入股10.2万元，栽植日本清香核桃1.1万株。同时，通过工商注册，成立了北水泉乡日本清香核桃农民专业合作社。', '“没风没浪没风险，省心省事省工夫。”“既能分红，又能打工赚钱，收入成倍增长，绝对是件好事。”农民反映，土地流转后日子过得比以前更舒坦了。', '如果说良好的运行机制是合作社内在动力的话，那么有效的政府支持则是不可或缺的外部条件。在县乡的大力支持下，园区下方占地60亩的养殖小区已经建设完工。采取出租圈舍、偿还贷款、粪便为园区核桃树施肥的方法，既为农村剩余劳力提供了就业机会，增加了农民收入，发展壮大了村级集体经济，又为园区生产绿色、无公害果品提供了天然农家有机肥。', '北水泉乡日本清香核桃农民专业合作社的成功运作，有效地解决了政府“统”不了、部门“包”不了、单家独户“干”不了的难题，让人眼前一亮。“我们现在不开矿，收入也不少，而且核桃树能活上百年，子孙后代都能得到实惠。”王长发说。', '兴隆的潜力在山，希望在山。目前，以板栗、山楂、苹果、核桃为主导品种的各类果品发展到82万亩。发展各类农民专业合作社331家，其中国家级1家，省级10家，市级18家，直接带动5.9万农户。', '与此同时，以果品资源为主大力发展农副产品加工业，现有国家级龙头企业1家，省级龙头企业2家，市级龙头企业28家，年加工果品能力30余万吨，农业产业化率达到68%。产品有10大类120多个品种，畅销全国20多个省市，并远销日本、美国、新加坡、俄罗斯、香港等国家和地区，年创产值6亿元。通过发展以果品为主的农副产品加工企业，全县有3000多名下岗职工实现了再就业，有4.5万多户农民从事林果储运、加工、销售及相关行业，年工资性收入近1亿元，实现了生态、经济和社会效益的“三赢”。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>10</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>丁锦霞到承德县调研深化基层建设年活动</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2013-03-19</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2013%2F3%2F19%2Fart_360_69556.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_69556</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['本网讯（记者乔溪，通讯员王海岩）3月15日，市深化加强基层建设年活动领导小组组长丁锦霞到承德县看望省直驻村工作组并就活动开展情况进行调研。丁锦霞强调，要充分发挥群众的主体作用，进一步增强基层工作活力，突出抓好农村基础设施建设和富民产业发展，将深化基层建设年活动真正落在实处。', '丁锦霞先后看望了省直驻承德县六沟镇郝季沟村、八家乡南杖子村、下板城镇石湖村、大营子乡大营子村工作组，为工作组带去了生活必需品。', '丁锦霞指出，继续深化基层建设年活动，是在基层宣传贯彻党的十八大精神的重要举措，是加快推进扶贫开发的重要载体，是改进干部工作作风、密切联系群众的重要抓手,群众对此寄予厚望。在活动中，要充分发挥群众的主体作用，进一步增强基层工作活力，突出抓好农村基础设施建设和富民产业发展，让群众得到实实在在的好处。', '丁锦霞强调，做好基层建设年活动，走访调研要到位。要按照“五知五问五清”要求，进组入户，走访群众，掌握真实情况，听到群众的心里话，准确了解群众所急所想所需所盼。要摸清底子，为下一步帮扶工作找对路子。项目规划要科学合理、符合民意。按照省十方面实事的具体安排意见，在项目确立上要广泛征求村“两委”班子、党员、村民代表及村民意见，一定要把项目选准、选好、选实，把“好事实事”办好；在项目内容上既要帮助谋划基础设施建设项目，又要帮助解决村级财富积累难题，还要帮助拓宽农民增收致富渠道；在具体实施上要统筹安排，科学施工，尽快让群众见到实效。要注重发挥群众的主体作用。要进一步增强基层组织活力，通过基层组织来调动群众的积极性，让更多的群众参与到活动中来；通过示范带动，组织学习考察等方式启发群众发展意识，开阔致富思路，激发干事创业的热情，增强自身“造血”功能，实现主动脱贫。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>10</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>滦平招商引资成效显著实际利用外资万美元</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2012-10-26</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F10%2F26%2Fart_360_70568.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_70568</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['今年以来，该县立足三大经济板块发展定位，结合招商经验，更新招商方法，多次派出招商工作队，与北京科技发展交流中心进行合作，成功在京举办招商推介会4次，先后吸引7批112家企业来滦平实地考察，并与北京资源集团、中交通力建设股份有限公司等19家企业达成初步合作意向。同时，加大与京津、珠三角发达地区联系，多次外出学习考察，先后参加香港“4·18”、廊坊“5·18”、厦门“9·8”等9场大型招商考察活动，成功与13家企业签定合作协议，总投资金额达333.8亿元。通过多方努力，与9家央企合作项目取得积极进展，其中河北大唐国际承德LNG项目、盛达高新复合材料2个项目已落户承德张百湾新兴产业示范区，其余6个项目正在深入洽谈。截至目前，实际利用外资1235万美元，占年任务的102.9%。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>10</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>北京市政协年委员暑期读书班在我市开班</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2012-07-24</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F7%2F24%2Fart_360_72056.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_72056</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['本网讯（记者李敏，通讯员刘洋）7月23日，北京市政协“2012年委员暑期读书班”在我市开班。在为期5天的学习考察中，委员们将结合学习贯彻北京市第十一次党代会精神，就进一步加强新形势下党外代表人士队伍建设、认真总结北京市政协5年工作进行座谈研讨，对下届政协工作提出意见建议，并对我市旅游产业和重点畜牧龙头企业等进行实地参观考察。', '北京市政协副主席陈平、秘书长闫仲秋，河北省政协副主席赵文鹤，市领导丁锦霞、郑晓东、刘文勤、陈树峰出席开班仪式。', '省政协副主席赵文鹤在致辞中介绍了河北省经济社会发展及政协工作情况后指出，加强人民政协学习工作，建设学习型政协组织，是坚持和完善中国共产党领导的多党合作和政治协商制度的必然要求，是服务党和国家工作大局的必然要求，是推进人民政协事业发展的必然要求。此次北京市政协委员暑期读书班在承德举办，不仅为河北与北京两地政协加强联系、交流信息、增进友谊、促进合作搭建了一个很好的平台，也为我们向各位委员当面请教、学习取经提供了一个难得的机会。对于这次学习班中所采用的好做法、讲授的好内容，我们将认真学习，积极借鉴，并以此来加强和推进河北省政协的自身建设。', '市委副书记、组织部长丁锦霞代表市四大班子，对北京市政协委员暑期读书班学员的到来表示最诚挚的欢迎，并介绍了我市经济社会发展情况。丁锦霞说，承德与北京山水相连、地缘相近、人文相亲。多年来，京承两地以水联姻、因山联谊，交流往来更加密切，合作机制不断创新。长期以来北京市政协领导和委员对承德经济社会发展给予了高度关注、关心和支持。“2012年委员暑期读书班”在承德举办，为我市向北京市政协领导和委员请教学习提供了一次难得的机会。希望大家在承德多走走、多看看，凭借政协委员的智慧和大都市建设管理经验，为承德经济社会发展提出宝贵意见。', '北京市政协副主席陈平在动员讲话中首先感谢河北省政协和承德市委、市政府、市政协对“2012年委员暑期读书班”在承德举办给予的大力支持，并希望各位委员在亲身领略承德独特魅力的同时，更加全面、真切和深入地了解承德，力求此次承德之行有新收获、新感悟，积极为推动北京与河北以及京承战略合作献计出力。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>10</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>辆爱心轮椅捐献给兴隆县残联</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2012-09-12</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F9%2F12%2Fart_360_72379.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_72379</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['本网讯（通讯员 张江涛）为了解决贫困肢体残疾人对轮椅的需求，提高他们参与社会生活的能力，日前，北京市怀柔区工商联到兴隆县学习考察，与兴隆县残联建立良好关系，为兴隆县残疾人捐赠了价值6万余元的轮椅100辆，切实解决了该县残疾人出行难。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>10</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>发展跨越赶超的引擎我市党政代表团赴京津珠三角考察招商系列报道之强化举措篇</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2012-06-08</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F6%2F8%2Fart_360_71751.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_71751</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 发展——跨越赶超的“引擎”——我市党政代表团赴京津、“珠三角”考察招商系列报道之强化举措篇', '发展——跨越赶超的“引擎”——我市党政代表团赴京津、“珠三角”考察招商系列报道之强化举措篇', '何为引擎？机车的动力之源。在赴深圳、北京、天津考察中，亲眼目睹发达地区飞速发展的成果，深刻思索京津、“珠三角”领军全国的先进做法，我们最深的体会是：无论是深圳质量、北京效应还是天津速度，它们核心的经验就是始终把加快发展作为头等大事来抓，坚持能快则快。', '特别是面对各种挑战与机遇，面对一系列错综复杂的问题，能够抢抓发展机遇，破解发展难题，实现经济快速发展。对于正处在爬坡过坎、弯道赶超阶段的承德来说，经济发展是第一要务，是经济欠发达地区面临的十分重要的任务。', '这次考察学习的三个城市，都是我国经济最发达、对外开放度最高、科学发展质量最好的地区。三地在解放思想程度、推进工作力度、产业发展集聚、新城规划建设和加速城市转型发展上，有许多好方法、好措施、好经验值得我们认真学习借鉴。', '不断地解放思想是深圳、天津改革开放和经济社会发展取得巨大成功的一大法宝。改革开放以来深圳进行了几次重大的解放思想：一是在改革开放初期，深圳大胆提出在社会主义国家办经济特区的新想法，不断突破计划经济体制束缚，开启了深圳城市发展的新纪元；二是在邓小平南方谈话前后，面对姓社姓资的质疑，深圳顶住压力提出了建立社会主义市场经济体制的新目标，率先建立社会主义市场经济体制基本框架；三是进入新世纪后，深圳提出了“争当推动科学发展、促进社会和谐排头兵”的新目标，并确立从“深圳速度”向“深圳质量”真转真变的发展思路，率先启动了产业转型升级和发展方式转变。天津的思想解放意识之强，超乎想象；抢抓机遇力度之大，震撼人心；工作要求之高，令人敬佩；精神状态之好，激荡人心，天津人以 “五加二，白加黑”的精神忘我工作，推动全市经济社会呈现出前所未有的大发展。', '深圳市一方面超前布局了战略性新兴产业，出台了新材料、文化创意和新一代信息技术产业规划及政策，与生物、互联网、新能源形成六大战略性新兴产业规划政策体系；另一方面，大力发展现代服务业，积极开展国家服务业综合改革试点。“文化＋旅游”、“文化＋科技”等文化产业新业态特色凸显；', '北京市加快发展生产性服务业，金融中心城市功能进一步增强，信息服务、商务服务、科技服务带动作用更加突出。中国技术交易所就是生产性服务业的代表，业务主要循着“技术、产权、交易”这三个维度展开，以科技资源整合中国最大最全的技术资源平台，以技术产权化推动技术要素的价值确定，以技术交易实现技术资源的流动与价值升值；', '天津市紧紧围绕构筑高端化、高质化、高新化现代产业体系，进一步加大结构调整力度，以大项目建设为支撑，以科技创新为动力，努力促进三次产业优化升级，不断提高经济发展的质量和水平。国家级高新技术产业化基地达到19个。', '深圳市定位为经济特区、全国经济中心城市和国际化城市，启动建设了光明、坪山、龙华、大鹏4个新区建设，定位高、立意远、气魄大，使城市规划更加完善，城市空间大幅拓展，城市品位愈加彰显，不仅成为生态绿色人居的典范城市，而且迅速成为投资的热点地区，走出了一条新型城镇化道路；', '天津市定位为国际港口城市，北方经济中心和生态城市，考察期间，通过夜游海河、考察天津市文化中心和天津市规划展览馆，让我们深深感到“立足千年，做城市百年规划”的震撼力。中心城区全面提升，坚持走内涵式、服务性、创新性、都市型发展路子。231座楼宇入驻企业超过1万家，海河游成为新亮点。滨海新区确定了“一核双港、九区支撑、龙头带动”的发展策略；响螺湾商务区、于家堡金融区建设全面启动。', '深圳东部华侨城占地近9平方公里，由华侨城集团斥资35亿元精心打造成国内首个集休闲度假、观光旅游、户外运动、科普教育等主题于一体的大型综合性国家生态旅游示范区，主要包括大侠谷生态乐园、茶溪谷度假公园、云海谷体育公园、大华兴寺、酒店群、天麓大宅等六大板块，已成为深圳的名片和发展现代旅游业范本之一。2011年，接待国内外游客500万人次，实现税收收入8亿元，提供就业岗位5000多人；', '北京中关村经过20多年的发展建设，已经聚集以联想、百度为代表的高新技术企业近2万家，形成了以电子信息、生物医药、能源环保、新材料、先进制造、航空航天为代表，以研发和服务为主要形态的高新技术产业集群，形成了“一区多园”、各具特色的发展格局，成为首都跨行政区的高端产业功能区。2011年，中关村企业总收入1.92万亿元，约占全国高新区的七分之一，对北京市经济增长的贡献率达到24%；', '天津市航空航天产业聚集区，随着空客320系列飞机总装项目的落地，从无到有，以年均180%的速度成长，产业规模迅速扩大，目前总产值突破200亿元，产业规模位列全国第四。以空客大飞机、中航直升机、彩虹无人机、新一代大推力运载火箭、直播通信卫星等龙头产品为标志，形成“三机一箭一星”的发展格局，被确立为中国航天在21世纪重点发展的四大基地之首。', '深圳东部华侨城以生态造梦，以文化铸城，用5年的时间沉淀出一个山与海的精华之作，人与自然的结晶之城，成为国家生态旅游示范区。其根本原因就在于做到了大自然与人文的协调结合，原生态与现代科技的完美融合，实现了生态、经济、文化、社会效益的和谐统一；深圳华强文化科技集团秉承“文化+科技”的发展模式，以环幕4D影院、特种电影成套设备、原创动漫产品、文化科技主题公园等产品作为载体，用高科技手段重新包装、诠释中国文化，将中国文化逐步推向世界。天津海河夜景的独到之处就在于，宁静中包含着厚重的历史，壮丽里显示出多彩的沧桑。', '通过学习考察，我们深刻地认识到，市场经济条件下，市场的主体是企业，政府则是提供服务的主体。深圳市一直严遵以市场为导向、以企业为主体、以国内高等院校和科研院所为依托，建立了官、产、学、研、资、介相结合的研究开发体系。天津市自2007年以后，积极转变政府职能和干部作风，以让“企业做主人，政府做服务员”的理念，为企业提供无微不至的保姆式服务，凡是落户天津的企业，听到最多的就是“你们还有什么问题需要政府解决？”', '认真梳理、吸纳考察中学到的宝贵经验和新的理念，各县区、各部门要迅速实现从“开眼界”到“找差距”到“换脑筋”的跨度，重新审视自己的行政效能、工作作风、服务理念和管理模式等能否适应市场经济的总要求，能否适应“跨越发展、后来居上”的总目标。要把解放思想落到实处、见到实效，真正找到自身存在的问题在哪里，思想解放的方向在哪里，科学管用的举措是什么等一系列深层次问题的答案。', '进而，按照市委、市政府确定的“一体两翼”城市发展布局和“5+2”现代产业体系，遵循“大字当头、强在其中；快字当头、好在其中”的发展思路，从更高的境界、更宽的视野、更高的起点上，把承德拥有的区位、文化、生态、资源等诸多优势发挥到极致，促进我市经济社会和各项事业实现更好更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>10</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>提升吸引力竞争力的关键所在</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2012-08-10</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F8%2F10%2Fart_360_72141.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_72141</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['发展环境包括经济环境、政治环境、社会环境、自然环境、人文环境等很多方面，是一个地区改革开放程度、市场发育程度、和谐稳定程度的综合体现，是社会文明进步水平、人民群众生活水平、可持续发展水平的重要标志。在市场这只无形大手的指挥下，发展环境以其魔术般的魅力，吸引着资金、技术、人才等各种生产要素，向能够发挥最大效益、获得最大回报的地方流动、聚集，使得一些地区迅速崛起。环境就是吸引力，环境就是竞争力，环境建设对于承德具有现实而深远的重大意义。“323”发展战略，把“软环境”作为三大支撑之一，既是着眼推动承德更好更快更大发展的势在必行之举措，更体现了市委、市政府彻底改变承德发展环境志在必得之决心。', '承德近些年发展有了长足进步，但与发达地区相比还有很大差距。这种差距，不仅表现在经济发展的速度、质量、效益上，而且反映在思想、观念和环境上。今年上半年，市委、市政府组织党政代表团赴先进地区学习考察，面对“深圳质量”、“滨海崛起”，大家很受震动，也为他们在优化环境上所下的功夫、花得本钱所触动。与承德条件差不多的张家口市，近几年发展势头也很猛，不仅吸引了沃尔沃的落户，还建成了全国闻名的滑雪乐园。这些都充分说明，外在条件固然重要，主观努力也不可少。硬件建设不是一朝一夕的功夫，但软环境建设却可以立竿见影，我们每一位执政者都应当深刻思考，如何把我们的环境打造得更好、更优。', '当前，承德正处在爬坡过坎的关键阶段，面临着加快发展与加速转型的双重任务，也面临着难得的发展机遇。比如，前所未有的扶贫政策和支持，令广大群众欢欣鼓舞；一批重大基础项目相继获批，为发展注入了强大活力；钒钛资源产业化开发与综合利用上升到国家战略层面，将有效引领全市产业优化升级。按照“323”发展战略，资金、土地等关键性制约正在破题，基础设施、产业发展、脱贫攻坚、城乡建设各条战线全面推进。爬过这道坎，承德必将迎来根本性的跨越、大踏步的发展。但是，如果发展环境得不到改善，仍然是工作“踢皮球”、审批“不规范”、办事“中梗阻”、政策“打折扣”、遇事“潜规则”、服务“跟不上”，不仅外地企业不愿来，本地的企业也留不住，再好的项目也难以落地，再好的机遇也难以抓住，再好的目标也是水中花、镜中月，纸上谈兵，难以实现。同时，作为旅游城市，我们的形象也会大打折扣。', '改善软环境，打造硬实力。市委、市政府已经发出号召，关键是要动真的、来实的，全市上下形成合力，把各项要求落到实处。在思想观念上，消除贫困文化心态，强化经营运作理念，自觉树立尊商、重商、亲商、爱商的意识，一心一意、一视同仁、一诺千金、一尘不染，为企业和群众提供优质贴心的服务；在行政效能上，进一步规范审批行为，减少审批环节，做到程序最简、时间最短、收费最低，推动政府管理从“缺位”、“越位”到“归位”；在作风建设上，唱响“谁砸承德环境、就砸谁饭碗”的强烈声音，狠抓严处一批反面典型，铲除“拦路虎”，搬掉“绊脚石”，从骨子里拔掉那些制约发展的“毒瘤”；在选人用人上，坚持凭党性、凭公心、凭本事、凭实绩使用干部，树立“干事创业有舞台、跑官要官无市场”的用人导向，以风清气正的政治生态，引导各级干部把全部心思和精力都用到干事创业、推动发展上，以软补硬，以快补晚，把承德打造成优质要素竞相涌流、市场主体活力迸发的投资福地和创业乐土。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>10</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>实现绿色生态腾笼换鸟打造特色产业田野车间</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2012-10-14</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F10%2F14%2Fart_360_70492.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_70492</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['编者按：作为一个农业大县，怎样走活农业这盘棋呢？滦平县立足实际，在转变观念，提升境界上创先争优，在转变方式，调整结构中争先创优；在破解难题中抢抓机遇，在统筹协调中加快发展，使传统产业由单纯注重量的增长向速度质量同步提升转变，逐渐跳出靠资源低水平开发、企业低成本扩张、产业低级推进的格局。经过不懈探索，科学地回答了滦平“怎么办、怎么干”的时代命题。', '滦平县把培育农业新兴产业作为抢占转型升级“制高点”的“利剑”，让新兴产业持续“发力”、高速“扩张”，使发展格局呈现出“绿色”。面对新的目标任务，滦平全面建设小康社会到了关键时期，农业转型升级的攻坚期，更是科学发展的重要机遇期。凝心聚力谋发展，扬帆远航正当时。滦平县产业布局调整，激发了农牧业立足集约和规模优势、由大谋强的激情和信心，掀开了滦平农业产业化转型升级新篇章。', '今天本报刊登《实现绿色生态“腾笼换鸟” 打造特色产业“田野车间”》，滦平县打造环首都绿色经济特色生态循环农业转型升级纪实长篇通讯，他们的做法值得各县区学习和借鉴。', '近日，驱车来到滦平乡镇采访，记者迎着秋收的讯息，放眼望去，满目的施工热潮，大片大片的园区和现代化模式的大棚，在秋风中巍然挺立，似乎在向人们诉说着绿色的故事……深切感受到了环首都绿色经济特色生态循环农业转型升级奔涌着强劲发展动力，一排排现代化大棚在夕阳折射下熠熠生辉，如同“田野车间”又悄然兴起，这里的民营企业以千家万户流转土地为依托，形成争相投资农业产业化的新景观。园区里设施蔬菜青翠欲滴，瓜果飘香；一座座标准化养殖小区整齐划一，鸡肥猪壮，六畜兴旺；现代化循环农业园区内机器轰鸣，一派繁忙的建设景象……特色农业快速崛起，使滦平田野乡村处处呈现出勃勃生机，使农牧业实现了向规模化、园区化、标准环保化、现代化的新跨越。', '滦平县依矿而起，因铁粉而兴，依托资源优势，创造了一个又一个财富奇迹，同时也带来了污染：污水大量排放，空气质量欠佳，河流受到污染。', '“发展决不能以牺牲环境为代价，发展必须生态优先，在巩固现有基础上，不断扩大生态建设成果。”县委书记杨猛说。', '如今，“白”的塑料温室大棚是特色农业主导产业，同时，一批高新技术农业产业稳步崛起，正在改变着滦平的经济版图。', '在采访中得知，作为首都北京的水源地和生态屏障，为打造好首都“后花园”，滦平县站在发展“清洁畜牧业，微生物转化业，有机农产品加工业”的高度，实现“畜牧养殖清洁化，园区建设规模化，蔬菜种植有机化，循环农业现代化”的农业特色模式。始终把自身放在京津冀都市发展的大格局中来谋划，特别是作为环首都发展重点县，全力构建环首都绿色经济圈生态经济发展先行区，已经成为滦平全面性的战略发展宏图。', '今天，创新、转型、调整、升级正成为转变经济发展方式最热门的词语，成为滦平县上下的共识。', '大开放：解放思想，更新观念，站在新起点，大手笔谋划农业产业化转型升级，是打开大发展、快发展、跨越式发展的“金钥匙”', '打开解放思想“总阀门”，树立科学发展新理念，滦平县着力摒弃阻碍科学发展的旧思想、旧观念，为又好又快发展提供不竭动力。', '滦平县委、县政府“一班人”进行反复调研论证认为：新世纪，需要新思想；新阶段，需要新的理论指导，只有解放思想，更新观念才是惟一出路。坚持用发展的观念解难题，用发展换空间，用发展求效益，坚定肉鸡、生猪、设施菜三大主导产业发展不动摇，积极转变公司养殖方式，在市场经济条件下，谁发展得快，发展得好，谁就占据市场份额就大，谁就掌握了经济工作的主动权。种种因素，决定了不发展不行，用一般的速度来发展也不行。', '在深化改革过程中，滦平县生态建设与经济发展之间的矛盾日益显现，资源型经济与生态环境保护之间的矛盾尤为突出。俗话说，靠山吃山，但如何才能真正“吃好”？为禁止对山区资源的掠夺或开发成为县委、县政府一班人“赶考”的时代命题！', '强化建设现代化农业的科技支撑，是滦平发展现代农业的重要支撑。县委书记杨猛说，环境是最大的资源，生态是永久的财富，开启资源型迈向科学发展的生态之门，就要遵照“生态环境是资本，生态环境是资产，生态环境是资源”的市场理念。', '跳出滦平看滦平，坚持把“富民强县”作为必须坚持的最终落脚点。县委副书记、县长关继高说，切实遵照“以人为本”的理念，实现“富民”与“强县”的高度统一，在加强经济发展的同时，不断增加人民群众收入，让广大群众充分享受经济社会快速发展的成果，在发展中充分得实惠。', '一场执政理念的深刻洗礼，一场执政为民的生动实践，深入学习实践科学发展观活动给滦平带来了发展机遇，实现了翻天覆地的变化。', '岁月见证历史，历史昭示未来。每一种新举措带来的惊喜，都传达出滦平科学发展的豪情与雄心，富民强县的情怀与温暖。“善弈者得势，不善弈者谋子”，发展之道亦然，在新的起点上寻求跨越，滦平所得之势便是科学发展。', '一系列的重大决策和思路，一个个举足轻重的举措无不体现全县上下把握“科学”精髓，突出“发展”主题，提高发展全面性、持续性，用“科学”与“发展”的和谐音符，汇成全面协调发展的华彩乐章。', '变传统优势为科技优势，变分散养殖为集约经营，特殊的自然条件，特殊的地理环境，特殊的区位优势，特殊的市场需求成为经济结构调整和增长方式转变的有力“助推器”。使“公司+基地+农户”旧的饲养模式向“清洁畜牧业+微生物业+有机种植业”新的现代循环农业方向转变。“不求所有，但求所得，不求所属，只求作用，不求形式，只求发展，不求全面，只求特色”……思路一变，天宽地阔。', '在困难和挑战中奋力前行，顽强战胜各种困难，努力避免大起大落，经济保持平稳较快发展，跌宕起伏的新世纪，滦平写下充满希望的答卷。', '“不发展最不科学，讲发展必须科学”，滦平县对资源消耗型的传统经济增长模式进行变革，依托技术革新产业链，大力倡导发展循环经济，促进“原字号”产业层次由“小”转“大”，由“低”转“高”，推动“原字号”转型升级。', '随着滦平县农业产业化的不断发展，全县肉鸡、肉鸭、生猪、蔬菜四大主导产业形成了一定规模，肉鸡年饲养量达到3500万只，肉鸭350万只，生猪75万头，蔬菜17.6万亩。', '滦平的农牧业生产形成了一定发展骨架，也出现了一些新情况、新问题，特别是载畜量过重导致了粪污治理压力明显增大，过去由于盲目发展，缺乏科学统筹规划，畜牧养殖布局过于分散，离村庄水源较近，特别是鸭粪的污染给群众的生产生活带来了一定的影响，为此，发生了多起群众上访事件。', '针对上述问题，县委书记杨猛，县长关继高带领县四大班子成员、乡镇和县直各主要领导组成党政考察团奔赴山东、山西30强省市学习考察。', '山东、山西等都已摆脱了农业产业传统的“摊大饼”发展模式，走上了统筹推进，协调发展之路，功能区划分科学合理，谈到那次远行，杨猛心中感慨万分，“我们再固守旧有模式，必将被别人越甩越远”。', '通过学习、沉淀、梳理、思考，滦平县借鉴外地的先进经验和做法，立足本地实际，就肉鸡、肉鸭、生猪、蔬菜四大主导产业，即“4+1”的产业格局进行了再研究、再梳理，一致认为，肉鸭产业基地规模小、散而乱、污染重、效益差，必须转变饲养方式，上规模、上水平，发展现代化工厂，按照“清洁畜牧业+微生物转化业+有机蔬菜种植业”的循环模式上规模、上水平，使全县的种植业、养殖业基本实现标准化、现代化、清洁化和园区化。为此，县委、县政府提出今后三年要实现“两增两减”（增加设施蔬菜种植规模，减少传统农作物种植面积；增加养殖基地的单体规模，减少散养户和养殖小区数量）的目标要求，使农业产业向现代化、规模化、清洁化、工厂化发展。', '奋力摆脱各种冲击，加快转变发展方式，向新的高度发起冲刺，催人奋起的新世纪，滦平写下蕴含希望的答卷。“医治现代农业产业大发展的‘良药’就是科学统筹，制定面向未来的整体规划”。县委副书记、县长关继高说，这成为滦平农业产业转型升级中具有标志意义的节点。站在历史的节点上回望，可以清晰地看到新世纪以来，科学发展更深刻、更鲜明地烙印在滦平经济发展的坐标上。', '大统筹：优化发展环境，吸引产业聚集，高起点规划产业，高标准设置项目，全力实施好“8142”工程，打造经济崛起的强力支撑带', '滦平县把面向农业上项目作为农业产业化建设进程，提高农业综合效益，增加农民收入的有效途径，他们积极鼓励民间投资向农业产业聚集，于是一批“农”字号企业如雨后春笋般地脱颖而出，无数个生产原料农田“田野车间”也就应运而生。', '龙头企业与“田野车间”相互依托，共同发展，有力地推进了农业结构调整和产业化建设进程。', '循环经济是一种新的生产方式，是一种建立在闭环型物质流动模式技术体制基础上的经济模式，也是一种新的发展观。', '滦平的“循环经济”更新了环境在经济中的位置，将环境变为生产力要素，变为经济健康发展的内在要素，促进因素，它所追求的是经济发展与环境保护共赢。', '肩担重任自步急，在新历史发展节点上，科学发展，必将在滦平大地上激扬起更豪情的跨越，孕育出更美好的希望。', '科学合理规划，按照远离村庄，远离水源，远离目视面的要求，使畜禽养殖摆放由川地向山沟转移，由水源地上游向现代循环农业园区内转移，使种植养殖真正循环起来，在确保现有6个有机肥厂投产运行基础上，再规划上万吨以上有机肥厂10个，特别大型沼气池项目要配套到规模养殖场，配套到标准园区、实现沼气发电，沼渣沼液上菜的循环，实现粪污处理 “零排放”。', '数据令人感叹！“8142”工程就是滦平新兴环首都经济圈的畜牧养殖的产业布局。创建8个现代循环农业园区、新建10个现代化肉鸡规模养殖场、改扩建400栋万只半自动化大鸡舍、改扩建200个千头养猪场，提升养殖业现代化水平。到2014年底，设施菜种植面积达到20万亩，肉鸡饲养量6000万只以上，生猪饲养量110万头。', '新兴农家企业集群发展规模效应日益凸显。滦平县决定加大对农牧业领域的投入，结合脱贫攻坚示范区建设，县里出台了《关于以环首都脱贫攻坚示范区建设为统领，全面提升新时期农业农村工作的决定》，明确提出今后3年，县财政每年安排农业产业化扶持资金不少于5000万元，每个日光温室补4万元，冷棚补5000元，大鸡舍每个补3万元，每个肉鸡，肉鸭现代化养殖场补50万元，每头基础母猪补1000元，解决和提供一定规模的水电配套，一系列优惠政策的出台，极大地调动了农民建棚的积极性。', '一项项新举措的出台，一个个“老大难”的化解，一张张笑脸的绽放，成为“解决人民群众最关心、最直接、最现实利益问题”的有力注解，使现代农业产业提速，真正给农业发展插上现代化翅膀。', '面向县内外，搞好招商引资。政策出台后，曾把眼光投向矿老板和建筑商，他们积极参与农业产业化的生产经营，通过政策宣传吸引，内引外联，全县先后有25家矿老板、建筑商、蔬菜经营个体大户到滦平建园区、办养殖场。', '这些项目，必须是有质量，有效益的项目，它带来的经济发展，不是简单粗放的发展，而是集约式的发展，统筹协调发展，有利于结构调整，有利增长方式转变。', '建设规模之大，拉动作用之强，经济社会效益之明显等项目在这里排兵布阵，一个个带动力之强，颇具竞争优势的特点产业集群将崛起于山城，从而打造出新世纪滦平经济发展新的引擎。8个现代循环农业园区已开工3个，虎什哈、大屯、付家店规划开工建设面积2万多亩，建设日光温室800栋，目标已完成350栋。与之相配套的现代化养殖场、有机肥厂、育苗工厂、生态餐厅、观光采摘等附属项目相继开工建设；新建或改建10个现代化规模肉鸡养殖场，已落实投资主体7个，其中开工建设2个；万只以上半自动化大鸡舍已开工60栋；新建或改扩建的25家规模养猪场已全部完成投资，年底之前将全部投产。肉鸡、生猪、设施菜三个产业上半年的投资达2.35亿元，其中财政投入3500万元，吸引民间资本2亿多元。', '发展中促转变，在转变中大发展。如今滦平传统产业由单纯注重质的递增速度，随着质量不断提升超越，逐渐跳出靠资源低水平开发、企业低成本扩张，产业低级推进的格局，正在实现“腾笼换鸟”。', '滦平县环首都经济圈项目建设，是滦平大开放的缩影。站在新的起点上，滦平敞开胸襟借鉴、吸纳首都范围内的文明发展成果，打造出滦平新的经济增长极。', '“农村是产业的载体，产业是农村的依托，农村之争在产业，产业之争在项目”。杨猛认为，滦平正行进在农村功能转型与产业转型并行的道路上，改善农村环境，离不开吸引高端产业，发展高端产业，离不开良好的农村环境，只有实现良好的互动，经济社会才能稳步前行。', '“惟一”就意味着无二，在市场规划面前更意味着机遇和巨大财富。滦平得天独厚的竞争优势与全市、全省和全国经济发展大势相得益彰，引来战略投资者关注的目光和客商的脚步。', '绿色的大山连绵逶迤，见证了这激动人心的一刻，分享着紫塞儿女把绿色梦想逐步变成现实的喜悦。', '大棚内红色的番茄，绿色的豆角，紫色的茄子，黄色的青椒……园区大棚里五彩缤纷，品种各异。', '机遇具有时效性，先一步可能海阔天空，慢半拍就可能步步被动。滦平抓住扶贫开发和农业农村工作面临的机遇，打好种养殖产业规范提升战役，减少传统农作物播种面积，增加设施蔬菜种植和设施果品栽植面积，建设潮河流域，“服务首都型有机蔬菜基地”，减少散养户和养殖小区数量，增大养殖基地单体规模，集中建设现代化养殖场，使潮河、滦河两大流域支流河道得到有效治理。', '立足农牧产品的加工转化壮大农业龙头企业，调整主导产业发展模式，实现由“基地县”向“生产加工县”的转变，进一步支持华都、博亚、三元等龙头企业，拉长产业链条。充分发挥全国农牧产品加工创业地优势，引进知名品牌企业，提高蔬菜等农产品深加工。', '滦平处于环首都绿色经济圈，既是新一轮国家扶贫开发重点县，又被省委、省政府列入“环首都脱贫攻坚示范区”，县域经济转型升级和扶贫开发迎来了历史性机遇。他们对108个农村集中建设现代化，规范化循环农业园区，变农民为产业工人，通过“流转地租+务工工资”就业方式，实现稳定脱贫，3年内在全县增加1万名贫困劳动力县内就业。', '开创三农工作新局面，绘就农业产业发展新画卷。滦平农牧人以服务“三农”，服务发展，服务大局为出发点和落脚点，围绕肉鸡、生猪、设施菜三大主导产业的发展抓规划，抓发展、抓推进、抓落实。', '滦平农牧系统以服务引导农业结构调整为主线，为更好地强化服务职能，结合正在进行的“创先争优”进村入户调研活动，坚持领导包户，包乡镇，包园区，班子成员包扶联系点，典型大户；全局三分之二的干部和职工全部沉下去，下基层，上一线，蹲点包户，包棚；技术人员采取送技术上门的方式，使农民掌握致富本领和种养技术。', '在实施“8142”工程中，做到规划落实在图上，责任落实到人上，目标落实到地上，服务落实到点子上。农牧人始终把滦平的发展视为自己的责任，把滦平兴衰当成自己的使命、视责任为己任，把使命当生命、主体在乡镇，服务在农牧！', '在特色产业这个战场上，检验着他们抢抓机遇意识，检验着他们一心一意谋发展本领，检验着他们加快发展的成效。形成比、学、赶、帮、超的良好局面。', '滦平承载的是农业产业大发展明天，只有形成特色鲜明，优势突出，富有竞争力的产业体系，才能构筑起滦平更快更好发展的基石，为全面建设小康社会奠定坚实基础。', '只缘风雨鸡鸣苦，终得东方灿烂明。滦平环首都经济圈谋篇布局，诠释的正是我市构筑特色产业基石的发展思路和战略举措。截至目前，全县共完成日光温室建设800栋，种植露地菜14200亩，蔬菜种植总面积达到17.51万亩，生产蔬菜4.07亿公斤；肉鸡出栏屠宰量达到2300万只；肉鸭出栏屠宰产量达到231万只；生猪出栏46万头，特别是大屯、虎什哈、付家店三个现代化循环农业园区相继开工，流转土地面积达到7000亩。到处机声隆隆，成百上千的建设者正在这块土地上鏖战。实现了农牧业增量的新跨越。', '滦平展现的，是滦平可持续发展之路，加快转变增长方式，探索一种新型农业产业化发展模式，真正使经济增长建立依靠科技进步，高效利用资源，保护生态环境，提高质量效益基础之上。', '着力破解民生难题，加大惠及民生投入发展成果人民共享——凸现民生的新世纪，滦平县书写温暖人心的答卷。', '站在历史的节点上回望，可以清晰地看到新时代，科学发展更深刻，更鲜明地烙印在滦平经济发展的坐标上。', '未来的滦平，农业产业示范区是赏心悦目的，因为“绿色”、“健康”是她的主色调，以新的发展理念，构筑农业绿色循环经济产业集群，是滦平一道最靓丽的风景线，折射出滦平可持续发展之路。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>10</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市政协组团赴张家口学习考察文化产业</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2012-05-21</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F5%2F21%2Fart_362_12997.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_12997</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['本网讯（记者马国臣，通讯员杨光）5月15日至18日，市政协就学习借鉴蔚县剪纸产业化经验和做法、推进我市文化产业发展专题赴丰宁满族自治县进行了视察，随后赴张家口市进行学习考察。学习考察团由市政协主席郑晓东、副主席于列、秘书长王庆林带队，部分省、市政协委员及有关人士参加了考察。', '考察团一行在丰宁满族自治县先后视察了秀莲剪纸艺术馆、冬阁艺术馆、丰宁民间工艺展销中心、丰宁非遗展览馆、滕氏布糊馆等，并召开了座谈会。在座谈会上，郑晓东指出，丰宁县委、县政府谋划文化旅游重点项目，促进文化旅游结合的意识非常强，发展文化产业的思路符合中共十七届六中全会的精神要求。剪纸产业是我市文化产业的一部分，是部分县区的特色文化传承，小剪纸能做大文章。在发展这些文化产业中，要注重文化产品的融合、创新、发展，形成产业链。', '5月16日至18日，考察团一行赴张家口市在考察云泉禅寺、大境门，涿鹿县中华三祖庙、民族图腾柱后，着重考察学习了蔚县剪纸产业发展情况。听取了蔚县负责同志情况介绍后，郑晓东说，剪纸产业化是我们这次来蔚县的学习考察重点，蔚县剪纸种类丰富，不仅保持发扬了传统工艺，而且与其他多种艺术形式相结合，使剪纸艺术在创新中不断发展提高，尤其是在研究市场需求中不断开拓和占领市场。定期召开剪纸艺术节，不仅为剪纸艺术的发展奠定了基础，还使蔚县成为中国乃至世界的剪纸艺术中心。蔚县把发展剪纸产业作为调整经济结构，转变发展方式的突破口，把文化软实力变成了促进经济社会转型发展的硬支撑，使剪纸产业成为蔚县走向全国走向世界的排头兵，这些经验非常值得承德举一反三，认真学习借鉴。郑晓东希望两地民间艺术家们经常相互交流，取长补短，将剪纸艺术发扬光大，将剪纸、布糊画等文化产业越办越好。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>10</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>一把金钥匙开启致富路市政协市委办帮扶鹰手营子村脱贫侧记</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2011-12-07</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F12%2F7%2Fart_360_72663.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_72663</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 一把金钥匙开启致富路——市政协市委办帮扶鹰手营子村脱贫侧记', '11月初的一天，太阳刚从薄云中钻出，承德县新杖子乡鹰手营子村的村民们一改往年的习惯，从各自的家中聚集到山梁上，围拢在果树旁，凝神静听市林业局林果专家李子海教授现场讲解冬季果树管理的知识。这是市政协副主席陈树峰第14次带领专家和相关部门到这个村传授果树种植和管理技术。', '鹰手营子村位于承德县新杖子乡北部，全村总面积7000亩，可耕地面积1417亩。这个村毗邻市区，但是农业基础设施差，农业发展缓慢。土地承包后，村民始终在温饱中徘徊。2007年，全村人均收入不足650元，村集体经济收入干净得如同一张白纸。', '2008年，按照市委的统一部署，鹰手营子村作为市政协副主席陈树峰的扶贫联系点，由市委办公室负责帮扶。', '2008年的春寒料峭中，陈树峰带领市委办的同志，与村里的党员和村民组长促膝谈心，说思路，谋划建设一个“花果山庄”式的新农村。４年间，协调市县扶贫办、林业局、水务局、农开办等部门，跑资金、引项目，实施“林果富村富民”战略，为村里稳定富、长远富打下了坚实的基础。', '第一村民组组长孙海清还深深地记得，2009年2月26日他随陈树峰副主席去邢台前南峪村、水门村、内丘县富岗山庄等地学习考察当地苹果产业发展情况。', '孙海清说，走进那几个地方就像做梦，那里的自然环境还不如我们，可人家的果树管理得就像芭蕾舞演员，富岗牌的苹果不是论斤卖，是论个卖，一个买到几元钱，听说在石家庄一箱苹果只20个，就卖了168元。', '参观回来后，从村干部到各小组长深受启发，产生了共同心愿：看看前南峪村人，在自然条件恶劣的条件下，靠种植果树走上了致富路，我们一定发挥自身优势，一定发展果品产业强村富民。', '在市、县乡各级领导和村干部的共同努力下，村民转变了陈旧观念，消除了贫困心态，走上了打造“花果之乡”的路子，实施了果树种植和管理“七个硬仗”。从2008年开始，市、县林业局先后扶持村里总价值39万元的各类果树13万株。', '水的问题是鹰手营子村发展果树产业的瓶颈。为了从根本上解决水利问题，确保果树健康发展，水务局、农开办先后投资300万元，打机井8眼，配套机井5眼，修80立方米的蓄水池8座，铺设地下管道15000米，出水口百余个，安装变压器一个，山上硬化路面1.5公里，修环山路15公里，并建成几座大型停车场。', '党员尹学，一心扑在果树上，栽植了十六七亩果树，各种果树总计2000余棵。历经几年的努力，现在果树已陆续结果，今年光大枣一项就卖了万余元，苹果卖了近万元。', '李春风对果树的管理就像对自己的孩子一样，把果园管理得井井有条。今年的秋天，130余棵苹果树，就卖了将近2.5万元，大部分是市里人来采摘的。他说，他还有几百棵苹果树没有结果，不善言谈的他心里对未来充满了希望。', '刘井清把自己家的陈年老屋翻盖成了8间房，办起了土色土香的农家饭庄，生意甚是红火。村子里产的水果摆在了他的门前，卖给前来吃饭的城里人。', '在市县各方面的帮扶下，村容村貌有了很大改观。几年里，清理了村内和村庄周边堆放多年的垃圾，改造了村内1.5公里道路，村里安装了路灯；投资3万元，实施了自来水改造工程，使本村80%以上户吃上了自来水。', '2010年底全村人均收入由帮扶前2007年不足650元提高到2125元。再过两三年，村庄将会掩映在花果飘香的果园里。孙建军']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>10</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>承德市公安局年公安工作总结</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2012-04-10</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F4%2F10%2Fart_9941_224062.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_224062</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['年，全市公安机关在党委政府和上级公安机关的领导下，忠实履行维护稳定、打击犯罪、服务经济、保障民生的神圣职责，整体警务能力和工作水平有了明显提升。', '根据辖区维稳和公安工作现状，市公安局党委谋划了集防范打击犯罪、强化治安管理、加强队伍建设、展示公安形象于一体，带有综合施治性的重大举措，即以紫塞利剑严打整治行动为载体，统筹各个专项行动，凸显了整体效应。', '共破获经济案件**起，抓获犯罪嫌疑人**人，挽回经济损失**万元，有效维护了市场经济秩序。', '全市公安机关 领导包案、挂图作战、签军令状、战时激励等多种措施，以全警动员、全力以赴的态势缉捕历年逃犯。在历时7个月的时间里，全市公安机关出动数百个追捕组，足迹踏遍全国各地。至 12月15日行动结束，共抓获各类逃犯**名，清网率达87.87%，重大逃犯到案率全省排名第一，被省公安厅荣记集体二等功。隆化89. 07.20命案等一批大要案逃犯相继落网，在社会上引起强烈反响，中央、省市级多家媒体予以报道', '市公安局党委切实找准公安机关在国际旅游城市建设的职能定位，组织全市公安机关积极主动为全市经济社会发展保驾护航。', '在承赤、承秦高速、张唐铁路等重点项目工区增设安保机构，增派公安民警，年内共调解涉企纠纷1102起。', '向市委提交了《关于加强旅游环境整治保障国际旅游城市建设的报告》，实施了加强旅游治安管理多项措施，依法查处涉旅刑事治安案件，妥善处理相关矛盾纠纷，先后打掉伪造、变造景区门票团伙2个，查获伪造票证价值12万余元，抓获违法犯罪嫌疑人14人，有力维护了我市旅游治安秩序。', '旅游旺季，组织武警、巡警、治安巡逻队在城市中心区、县城镇开展加强型治安巡逻，起到了良好的震慑效果，街面两抢一盗发案率同比下降8%，救助服务群众1000余人次，赢得各界好评。', '双桥、双滦分局四个派出所为试点，充实一线警力，实行功能分区，成立执法办案队、治安巡逻队、社区民警队和信息综合室，使社区民警真正沉下去，集中精力做好基础工作。通过推行这一模式，做强派出所效果初步显现出来。', '个偏僻落后的派出所，分别由市局党委成员包保、对接，帮助解决实际困难，使这些单位面貌发生了明显改观。', '结合市委部署的察民情、解民忧、保稳定百日下基层活动，市局领导班子成员轮番深入县分局巡回检查督导，并从各警种和相关职能部门抽调100名科级干部协助基层一线单位开展工作，解决了一批事关稳定和民生的问题。', '加强警官培训基地建设，是提升全市公安机关实战能力、实施现代警务战略的需要。为进一步推进此项工作，市公安局邀请公安部、中国人民公安大学、省公安厅等单位教育训练方面的专家，来承进行考察论证。一年来，市公安局按照专家提出的', '修缮训练场馆，改造训练场地，添置办公设备，更新路面和水电设施，朝着打造承德公安新品牌的目标扎实迈进。年内，共接待省公安厅组织的大型培训13次，效果良好。', '市局党委客观分析承德公安现状，正视差距与不足，解放思想、对标先进，大力推进对接唐山工作，以加强承唐区域警务协作，促动承德公安事业发展，加快与京津唐的对接并轨。期间，组织了涉及各层级干部、各警种部门的大规模学习考察唐山活动，对照唐山公安机关先进警务模式和相关工作经验，开展全方位的研讨、反思、对接活动，找准了加压奋进的切入点，向市委市政府提交了对标先进谋求承德公安发展进步的专题报告。在反复论证、多次协商、认真筹备的基础上，与唐山市公安机关签署了警务协作框架协议，围绕加强情报信息共享、重大安保任务、突发事件处置、打击流窜犯罪、警务资源互补等方面，启动了区域警务战略协作机制，开创了全省地市级警务合作的先河。', '为提升全市公安民警敬业履职、奉公执法、为民服务的能力，更好地适应新时期公安工作需要，局党委在全市范围内组织开展了做党的忠诚卫士、做群众的贴心人、做公正执法的模范主题实践活动，共组织开展专题讨论500余次，举办群众工作方法系列讲座34场，进行公安传统教育162次。在全市广大公安民警中，开展研读《把信送给加西亚》活动，强化民警队伍忠诚意识、责任意识，提升全市公安机关落实力、执行力。创新方法加大察实情、访民意工作力度，由市局政工部门牵头，采取不打招呼、吃住自理的形式，每季度对各县分局和基层所队进行一次群众满意度问卷调查。从统计结果看，人民群众对全市公安机关的满意率平均达到95%以上。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>10</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>滦平结合实际打造富裕和谐县城</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2011-11-19</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F11%2F19%2Fart_360_72538.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_72538</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['本网讯 （王海洋）滦平县按照全市“讲公德、讲诚信、讲礼仪，树国际旅游城市形象”实践活动安排，结合本县实际，重点开展两项活动，打造富裕和谐县城。', '以“三提一转”为实践载体，全面推进创先争优。该县围绕“滦平大发展、我们怎么干”的主题，广泛开展基层调研和“对标先进谋跨越”活动，先后组织各层面党员干部1230人次，分赴山东、北京等地学习考察；围绕提升“勤政敬业”和“诚实守信”形象，在全县干部中开展弘扬“范振喜精神”、守望长城的“周万萍精神”两个主题活动。打造“讲标准普通话，做诚信滦平人”品牌，推进社会诚信体系建设；以庆祝建党90周年为节点，组织了红歌大家唱、千人太极展演、千名机关干部参加“2011中国长城徒步走大会”等系列活动，展现了滦平人民团结向上、奋发有为的精神状态；抽调418名机关干部组成了209个“群众工作队”，下派到全县200个行政村和9个居委会，有针对性地开展为期一年的群众工作。', '弘扬滦平精神，为经济社会发展提供强大精神动力。公开向社会各界征集滦平精神表述语1200多条。经过反复酝酿，最终将滦平精神确定为“崇德重信、开放包容、坚韧不拔、众志成城”。目前，已在县城和乡村的主要街道、重要交通路口设置了“滦平精神”宣传标语、广告牌20余块，通过电视台讲解、悬挂标语、设置宣传牌等形式，进行广泛宣传。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>10</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>承德市工业和信息化局二一二年工作要点</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2012-03-30</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2012%2F3%2F30%2Fart_9941_218712.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218712</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['为进一步统筹全市工业和信息化工作,理顺发展思路，突出工作重点，强化具体措施，圆满完成年度各项工作任务，特提出2012年全市工业和信息化工作要点。', '认真贯彻落实市委十二届八次全会和市经济工作会议精神，靠增量调结构、靠优势保增长、靠技改提质量、靠开放增实力，积极抢抓机遇、破解制约，推动全市工业加快转变发展方式。狠抓重点项目建设，大力实施技术改造，加快发展民营经济，加速推进信息化建设，深入开展对标行动，努力开创工业和信息化工作新局面。', '、加强对工业经济形势的分析研判。密切关注工业经济走势，围绕重点县区、重点行业、重点企业，完善月份预测预报分析制度，进一步提高预测、预警、预控能力和水平；跟踪了解重点行业要素供应、产品销售、价格、效益等情况，及时提出指导意见和应对措施，引导企业合理安排生产，千方百计拓市场、挖潜能、增产量。', '、加强工业运营监测和运行调度。进一步健全和完善工业经济运行监测协调保障机制，加强应急协调，促进供需的有效衔接。推进企业一套表改革，及时协调解决企业生产经营中遇到的突出问题，在生产要素上予以重点保障，特别是在煤、电、油、气、运等方面，保障企业正常生产经营。', '、加强对企业的帮扶。健全完善投产达效、产需衔接和银企对接三个长效工作机制，通过一系列有效措施着力解决工业增长乏力、企业市场开拓难、融资难和项目建设缓慢等问题。重点支持工业50强企业和在建项目，确保33个工业新增长点项目按时达产达效。全力抓好销售收入超亿元和税收500万元以上企业采取有效措施实现增产增效，对重点企业上门服务，采取一企一策的办法帮助解决实际问题；加强对停产半停产企业的服务指导、跟踪协调，努力创造条件，帮助尽早复产；对百万元以上亏损企业，实施领导分包帮扶制度，采取针对性措施，力促扭亏增效。', '、全面落实市政府《加快推进工业技术改造工作的实施意见》，把工业技改项目作为转方式、调结构的重要载体，促进两化融合、加快推进新型工业化的有力抓手和优化投资结构、提升质量效益的有效途径，充分发挥技改资金的引导作用，用好市县两级技改专项资金，形成政、银、企协力推动机制，精谋实作、强力推进。', '加大项目谋划力度，力争市级技改项目新增入库100项以上，省级技改项目新增入库50项以上，国家级项目新增入库10项。', '抓住重点，把握关键，全力推进重点项目建设。努力建设一批规模大、效益好、带动能力强的重点项目。抓好平泉涡轮垂直轴风力发电机生产、隆化钛通钛产品深加工、联想控股乾隆醉酒业集团技改扩能等35个技改项目。', '鼓励扶持苏垦银河连杆、天宝机械和新新机电等成长性强的企业，争取更多企业列入省巨人计划。', '、发挥优势，突出特色，抓好产业基地项目建设。一是抓好钒钛资源综合利用产业基地建设，推进钢铁企业兼并重组，扶持和打造3-5家钒钛新产品试验示范企业。二是抓好智能化仪器仪表基地建设。巩固与京仪集团战略合作伙伴关系，拓展合作领域，加大研发创新力度，培育龙头企业，解决仪器仪表产业小、散、弱的问题。三是抓好全国尾矿综合利用基地建设。逐步落实《基地建设实施方案》中所列重点项目，加强与北京金隅、冀东水泥等企业集团的战略合作，推进尾矿建材产品综合开发利用。', '、完善工业技改重点项目管理制度，加强日常管理、调度和监督检查。对重点技改项目实行计划管理、月通报、季调度等制度，每半年组织开展一次重点技改项目现场观摩考察活动，促进交流，学习经验，缩小差距，加快发展。', '、全面落实各项扶持政策。把扶持民营经济，尤其是中小企业做大做强作为工作的突破口，按照市政府《关于进一步优化发展环境加快民营经济发展的实施意见》的要求，抓好各项扶持政策的宣传解读、检查督导和跟踪评估，着重完善服务举措、增强引导能力。督促市、县（区）落实中小企业发展专项资金，扶助中小企业加快发展，让各项优惠政策真正惠及企业，促进民营经济总量、质量和效益稳步提升。', '、优化民营经济发展环境。认真贯彻落实中小企业服务年工作部署，集中开展强服务、解难题、帮企业，保增长主题活动。着重加强中小企业服务平台建设，培育典型示范企业，推广成功经验，力促民营经济发展环境进一步优化。创建1个国家级中小企业综合窗口服务平台，对已有的12家省级中小企业创业辅导基地进行改造提升，力争新增2个省级中小企业创业辅导基地。', '、引导中小企业实现集群发展。着力提升产业集群建设水平，力争列入省级中小企业产业集群2个，并将已获省级产业示范集群的宽城矿业集群的经验做法向全市推广。', '、提升素质，加快民营经济创新步伐。深入实施民营经济组织人才队伍建设提高工程，加大培训力度，举办多种形式的企业家培训活动。积极培育科技含量高、成长性好的中小微企业，提高企业技术创新能力和市场竞争力。', '、全力推进智慧承德建设。抓住承德列入省智慧城市试点市的有利契机，围绕服务民生、服务经济、服务国际旅游城市建设，落实好《智慧承德总体规划》，建设市信息资源中心，整合信息资源，为全市搭建信息化基础运行平台；建设智慧旅游云平台、地理信息框架、城市一卡通、数字信息亭、无线城市、用户仪表物联网平台、中小企业信息平台。', '，提升信息化水平。深入贯彻落实《河北省推进信息化与工业化融合促进现代产业体系建设的指导意见》，积极探索我市两化融合的新模式，不断培育两化融合重点企业，在增加数量和提高质量的基础上，加快推进信息技术与产业产品融合进程，促进结构调整和方式转变。', '、做好网络安全保障工作，创造可靠环境。认真落实承德市网络安全协调领导小组各项工作要求，不断增强和改善网络信息安全的软硬件水平，构筑起坚实的安全防护体系，确保基础信息网络和重要信息系统安全运行。强化网络安全防范，认真组织开展好网络安全应急演练活动，创造安全可靠的信息网络环境。', '、不断改善提升银行业与担保业合作水平，扩大合作范围，牢固合作基础，努力搭建担保与金融机构信息沟通和长期合作的平台。逐步加强与开发银行、华夏银行及其它外埠银行的交流合作，进一步延伸合作的广度和深度。年内组织2—3次政、企、银、担保对接合作活动，有效缓解中小企业融资难。', '加强融资性担保机构和小额贷款公司建设。全市融资担保机构达到16家，形成35亿元担保能力，小额贷款公司发展到26家，贷款能力达到20亿元。', '、进一步完善监管手段，落实监管措施，加大对融资性担保机构、小额贷款公司监管力度，防范和打击吸收社会公众存款和非法集资、非法放贷、关联交易、套取银行资金等违规违法行为，杜绝各类社会和经济问题的发生，实现融资性担保机构稳妥、健康、可持续发展。', '、加大引资和项目跑办力度，用足用好扶持政策，积极争取国家、省各类项目资金的支持，年度争取各类扶持资金达到1亿元。', '、内引外联，全面对接央企、京企，加强与国内和世界500强及沿海省市知名企业的战略合作，开展小团组招商，引进更多的项目、资金和技术。', '、组织开展学习考察活动，学习先进地区与知名企业的成功经验与做法，开扩视野，增进交流，寻求合作。', '、全力推进对标行动。把加强对标行动、提高对标成效，作为提升企业和企业家综合素质的关键，借上力、活手段、求实效、出精品、树形象，切实做到以对标找差距，以对标上水平，以对标强实力。', '、完善督导考核机制，全方位开展对标。认真落实省关于企业对标工作的相关要求，做到组织机构到位，认识到位，措施到位，力争到2012年底规模以上企业100%开展对标行动。抓好141家对标重点企业能效达标，建立主体主动、政策驱动、典型引动、环境促动、协调联动的工作机制，强化对标工作考核，加强督导检查，落实奖惩措施。', '。以企业领导、高管人员和重点岗位操作人员为培训主体，不断扩大培训的覆盖面，由主导行业逐步扩大到中小企业、第三产业及农副产品加工业。', '、严格行业准入制度。认真落实国家、省各项行业准入政策，加强对钢铁、水泥、农药、乳制品等重点行业准入的掌控力度，强化对稀有资源开采生产及农药等重点产品的监控，抓好食品安全管理，认真组织落实好禁化武核查工作。', '、指导工业企业加强安全生产管理。以矿山、民爆行业为重点，健全、规范指导管理体系，全面推行一岗双责、法人代表承诺制度。积极推行工业行业安全标准化建设，督导企业以管理标准化、操作标准化、现场标准化为核心，按时完成安全生产标准化的达标工作。建立行业管理联动机制，强化对工业行业安全生产的督导检查，确保全年安全生产无事故。', '、扎实做好节能减排工作，全面完成省里下达的淘汰落后产能任务。深入调研，认真做好工业能源消费量控制指标的下达和调度工作，加强对重点用能企业的节能管理，推进重点节能工程，确保规模以上工业能源消耗总量控制在860万吨标准煤以内，规模以上工业万元增加值能耗同比降低5 %以上。推广先进适用清洁生产技术，组织筛选、申报1-2个具有示范带动作用的项目，', '、推进企业技术创新，加强工业企业品牌建设。认真筛选40个科技创新项目，申报国家、省技术创新示范企业及项目，提升科技发展水平。积极推广先进质量管理方法，力争新增省著名商标8—10家，省名牌产品13个，省优质产品11个。', '、切实减轻企业负担。充分发挥各级减负办作用，会同市县监察部门，开展减轻企业负担专项行动，抓典型、促改进。', '、抓好机关思想建设。把加强机关党的思想建设、组织建设和作风建设作为提高效能，树立形象的出发点和落脚点，认真组织开展', '、抓好机关制度建设。严格落实机关各项工作制度和纪律规定，加强机关廉政建设和精神文明建设，讲原则、求实效，做到有令必行、有禁必止，提高各项制度的执行力。加强机关财务管理，增收节支，确保机关正常运转。进一步加强人事管理，完善干部评价、考核、选拔制度，提升干部职工的战斗力、凝聚力。', '、抓好机关作风建设。大兴求真务实、艰苦奋斗、清正廉洁、创新奉献之风，认真落实党风廉政建设责任制各项要求，深入开展五讲一比一热爱活动。认真组织开展学习培训活动，提高广大干部的政治素质、业务能力和道德修养。加强服务型机关建设，增强为企业服务的能力。', '、抓好机关环境建设。按照构建温馨、和谐、富庶、强势之局的总体要求和目标，大力倡导事事争一流、人人是形象的工作风气。开展争创市级文明单位活动，不断加强和改善机关内外部环境，提高软硬件水平，丰富文化活动，提升机关形象和品味。', '、推进管理创新，夯实工作基础。把创新贯穿工作始终，在工作质量、工作方法和工作业绩上求创新、提质量、增效率。', '、抓好信访稳定工作，营造良好和谐的氛围。做好离退休老干部的服务工作，认真落实国家各项待遇，切实帮助老干部和困难职工解决生活、医疗等方面的困难和问题。积极化解矛盾，解决好企业改制遗留问题。', '、加强宣传，营造干事创业的良好氛围。大力宣传工作中的好经验好做法，倡导新风、培树典型、弘扬正气，营造比学赶帮超，谋实事、干成事、创业绩的良好舆论氛围，号召广大干部职工爱岗敬业、人争先进、事争一流，不断提升工信部门的外向度。', '抓好直属事业单位班子建设和人才干部队伍建设，努力提升自我管理和自我发展能力。大力拓展经营业务范围和领域，不断壮大经济实力，切实解决困难单位的生存与发展问题。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>10</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>党旗红耀绿野山川隆化县深入开展创先争优活动巡礼</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2011-06-22</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F6%2F22%2Fart_360_73551.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_73551</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['创先争优，核心是加强党的建设，主题是推动发展、改善民生、促进和谐，把党的先进性融注在工作实践中，体现在经济社会发展的实效上——这是隆化广大党员干部形成的共识。', '创先争优活动开展一年来，隆化这片土地上发生了翻天覆地的变化：生态建设凸显成效，城镇面貌焕然一新，工业经济顺势而上，新农村建设如火如荼，现代农业全面提升……', '走进苔山轻化工园区，人来车往，机器轰鸣，焊花飞舞，一派繁忙景象。这是隆化集聚各方力量建立起来的一个新型综合工业园区。截至6月份，入园企业达到58家，在建项目12个。', '车过张三营镇北4公里处的磨盘山脚下，一条刚刚绿化、亮化过的村级水泥公路，直达管家营村活动中心。该中心建筑面积750余平方米，配备了电脑、电视机、VCD等相应配套设施，是目前该县规模最大、标准最高、功能最完善的村级组织活动中心之一。', '2010年，该县完成了31个省级项目村和54个自整村建设；为现任村干部发放补贴442万元，为离任村干部发放补贴37.5万元，实现了干有所得、退有所养的工作目标。', '依托这样一批阵地，借助这样一些措施，隆化县基层党组织的创先争优工作得以扎扎实实地开展起来。', '位于偏坡营乡榆树底村的蔬菜日光温室小区，几年前还是一片只能靠天收的自留地，现如今，一座座高标准的日光温室整齐划一，温室内的各种蔬菜青翠欲滴。目前，蔬菜合作社拥有蔬菜基地4800亩，两镇一乡20公里连成了一条蔬菜产业带，入社社员300余户、1500余人。入社社员人均分红1.15万元，社员务工人均收入7000元，解决了300余名剩余劳动力的就业问题，构建了产业党建推动产业发展的新格局。', '“做出承诺后，党组织要考核你，群众的眼睛盯着你，只有履行好承诺才安得下心。”这是隆化基层党员们的共同心声。在创先争优活动中，全县基层党组织和党员分别作出承诺1933项、16889项,已向群众兑现承诺事项14925项,帮助解决突出问题7158件。', '创先进、走在前，争优秀、作表率。该县坚持把党员领导干部、村党支部书记和党员优秀典型3个层面作为关键群体，提出了“创先争优、干部先行”的口号，在深入开展“周反思、月总结”活动，督促中层以上干部记工作日志的同时，分期对全县乡镇党委书记、乡镇长等领导干部进行了专题培训，切实提升他们抓发展的能力本领。组织100名优秀村支部书记到发达地区学习考察；专门设立50万元致富创业基金，对“一好双强”村书记进行扶持；极大激发了村干部干事创业热情，确保了各项工作落实。', '为让每个基层党组织和党员“创”有标准、“争”有标杆，该县创新提出了“五比五看五作为”创争推进载体。把对标先进、争创一流作为第一动力；把凝聚人心、永葆本色作为第一取向；把加强组织、服务民生作为第一落点；把推动发展、促进和谐作为第一要务；把事业兴达、群众满意作为第一标准，不断推动创争活动向纵深开展。', '通过“典型学习宣传月”、“践诺服务月”、“年度目标创争月”等6个系列主题月活动，各级党组织及党员帮办富民项目156个，协调落实帮扶资金2600万元，推动发展、促进和谐、加强组织、服务群众取得阶段性成效。', '“要激发全县干部群众创先争优热情，领导干部必须发挥好示范带头作用。要结合单位实际，突出实践特色，在重点项目建设、城镇三年上水平、改善民生等重点工作的主战场上创先争优！”隆化县在创先争优中找准了切入点。', '今年以来，围绕全县领导干部的实际需求，举办“高层讲坛”5期，让全县各级领导干部以更高层次、更高站位、更高水平去思考问题，去谋划和推动工作。', '韩麻营钛产业聚集区、苔山轻化工业园区、郭家屯铅锌工业园区建设取得重大进展，茅荆坝、七家温泉城项目建设已初具规模。初步形成了“矿钛、矿材、矿磷”三个一体化，金风、阀门、新华联合等一大批骨干企业异军突起；“肉牛、水稻、蔬菜、杏果”四大主导产业稳步发展，具有隆化特色的现代农业之路逐步完善；“一线三区”休闲旅游业发展格局初步形成，“红色旅游基地、森林温泉之都、历史文化名城”的品牌渐渐打响。', '“政之所兴，在顺民心；政之所废，在逆民心。”该县从解决和改善广大群众最关心、最现实的就业、住房、医院、学校等方面入手，切实为群众办实事、办好事，让广大群众切身感受到创先争优活动带来的新变化。', '——扩大就业再就业。新增就业岗位2380个，安置下岗失业人员再就业1100人以上，劳动输出7万人以上。', '——提高教育教学质量。完成盛德希望小学和县城第一小学教学楼改扩建任务，新建县城第四小学，满足城乡孩子入学需求。', '——方便交通出行。抓好建设街、迎宾大道等县城道路改造建设，新建“村村通”公路100公里，通村率达到98%以上。', '——增加文化活动场所。启动实施了规划馆、博物馆、图书馆项目，全面完成了25个乡镇的文化站建设任务。', '“民生的事是天大的事、老百姓的事无小事”。创先争优活动中，隆化县26名县级领导深入联系点指导调研均达10次以上，共为联系点送去项目130多个，到位帮扶资金500多万元，开展领导点评活动5015人次，创先争优联系点基本实现了生活水平、生产条件、居家出行、健康状况、致富能力“五个明显改变”。目前，全县25个乡镇乡乡建立了群众工作站、362个行政村成立了群众服务室，实现了群众工作全覆盖。建站以来，全县各工作站共调处矛盾纠纷1009件次，代理信访55件，均得到有效解决。', '正是创先争优的深入开展，使隆化“十一五”的发展有了一个精彩的“收官”，但“十二五”的重任又摆在了面前，隆化正以对标晋位谋大事、集中力量办大事、转变方式成大事的气魄来提升竞争力，发挥每一个基层党支部、每一名党员的作用来凝聚带动力，通过推进创先争优活动，谱写全县经济社会发展的新篇章。 姜国锋 伊帅']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>10</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>承德市年教育工作总结</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2011-04-12</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F4%2F12%2Fart_9941_218437.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218437</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['2010年，我们以科学发展观为指导，以创先争优活动为动力，认真贯彻全国教育工作会议、《国家中长期教育改革和发展规划纲要（2010-2020年）》以及温家宝总理教师节兴隆重要指示精神，求真务实、开拓进取，不断提高对建设国际旅游城市的贡献率。教育事业继续呈现持续、快速、健康、协调发展的良好态势。', '坚持把学习领会国家教育大政方针贯穿工作始终，着力提高教育系统干部政策理解力、执行力，增强改革创新意识，谋划教育发展长远规划。国家《教育规划纲要》发布后，通过举办讲座、专题会议、集中宣讲等形式多样的活动，领会精神实质，并传达到每一个层面、每一位教师。从8月份起，在市政府统一领导下，市教育局由领导班子成员带队，抽调专门人员，围绕6大方面分别成立调研组，深入基层开展调查研究，历时2个月，形成20万字调研成果，并辑印成册，召开了成果交流会。将调研成果吸纳进规划编制工作中，专门组织精干力量组成专家组承担编制任务。经过反复论证、修改，11月份编制出我市中长期教育改革和发展规划的征求意见稿，并向社会公开征求意见，修改后形成送审稿，待市委、市政府审定后正式发布后组织实施；同时加强了对各县区编制工作的指导。', '二、推进了三项建设（学校安全工程、城市区中小学布局调整、校长教师队伍），进一步优化教育资源配置', '一是坚持用校舍安全工程整合各类教育工程项目，校安工程年度建设任务顺利完成。完成了中小学校舍安全工程规划修订工作，累计整合资金6.17亿元，其中争取中央资金11609万元、省级资金12153万元，市、县投入3.8亿元，规划项目165个。新建、改造面积41万平方米；加快推进了农村标准化学校建设，列入农村学区建设年度规划的5所标准化初中、19所标准化小学基本建设完成，部分学校已投入使用。全市在标准化初中和小学就读的学生比例达到了81.5%。教育信息化和装备现代化水平稳步提升，完成了20所初中、50所小学的规范化、标准化实验室建设任务。营子区新建84个电子白板教室，在全市率先基本实现了“班班通”。围场县完成了城域网建设，全县所有规模以上小学和中学全部连通。《河北教育》2010年第9期以《让农村孩子享受高质量的教育——承德市推进义务教育均衡发展纪实》为题对我市推进学区建设做了宣传报道。二是按二期《规划》，在继续实施2009年8个续建项目的同时，启动了3个市区学校改、扩建项目。承德二中、承德电大实现了整体搬迁；伴随“五区三带”城市规划布局调整的推进，滨河新区1所标准化初中、2所标准化小学已完成规划设计。三是加强了校长教师培训。完成了480名中小学后勤校长参加的“后勤工作管理与创新”的校长提高培训工作。完成了123名校长的任职资格培训、147名中小学骨干高级研修校长培训、445名教育行政干部培训工作。组织了9名县区教育局长和校长参加国家和省级培训；认真贯彻温家宝总理到滦平、兴隆两县视察学校的重要指示精神，围绕市政府《关于加强农村教师培训，提高农村教师素质的意见》，制定了《农村教师培训方案》和今后5年培训规划。实施骨干教师培养工程，骨干教师培养培训工作实现了新突破。启动了以“六定”为主要形式的骨干教师培养工程，从2010年开始对选拔出的骨干教师培养对象实行三年一轮的持续跟踪培养，年内分批次、分学段、分学科完成了743人的市级骨干教师培养的集中培训，各县区共集中培训2500余名中小学县级骨干教师培养对象。承德、丰宁、围场等县区以组织校长高级研修班、开办学术论坛、聘请学者专家讲座、建立名师工作站，外出学习考察等多种形式，更新了校长教师观念、提升了理论素养。四是加强了教师队伍管理。认真实施教师补充准入制度。圆满完成了特岗教师招录工作，共招录729名特岗教师。教师资格认定顺利进行，543人通过各项考核，获得教师资格证书。制定出台了《承德市中小学教学名师队伍管理办法》，加强名师队伍管理使用，充分发挥名师示范带动作用。开展了名师帮带和送教下乡活动，选派29名“支教”教师到农村任教，选派260名专兼职支教教师奔赴农村学校参加支教活动，以提高农村学校师资水平。重点加强了对滦平巴克什营镇偏桥村教师的培训和定点帮扶。下发了《承德市关于落实义务教育学校绩效工资的实施办法》，制定了考核方案，以绩效考核为重点，严格按照省相关要求，推进义务教育学校实施绩效工资工作。', '三、实施了“三提”工程（基础教育质量提高、职业教育发展提速、高等教育办学水平提升），大力促进教育协调发展', '认真贯彻落实市政府《关于加快基础教育发展全面提高教育质量的决定》，不断深化教育教学管理体制和方式方法改革，研究创新举措，11月份召开了全市全面提高教育质量推进会。一是进一步完善了县区教育局直管学区中心校和初中、学区中心校直管小学和幼儿园的管理体制。推行年级管委会管理模式，减少层级、降低重心，学校内部教育教学管理运行机制的高效便捷优势初步显现；开展了义务教育阶段学校管理水平“规范校”、“特色校”和“品牌校”创建工作，全市340多所学校通过规范化学校评估，其中40所学校被确定为特色校创建重点。继续全面推进了学校文化建设，引导学校建立科学的教育教学管理评估体系，推进学校管理由经验型向文化型转变，对56所学校文化建设先进单位进行了表彰。二是以课堂教学的改革创新为重点，致力于全面提高教育教学质量。成立了高中备考工作指导组和学科中心备课组，形成了引领合力。继续深化初中新课程改革和推进高中新课程改革，确立了一批初高中课堂教学改革示范校；加强教育科研工作，促进科研成果转化。三是完善了“三级指导、三抓到校”的市、县区、学区、学校教研网络，加强了兼职教研员队伍的培养，出台了《承德市中学兼职教研员管理办法》。创新教研模式，创建覆盖全市基础教育各学段、各学科教研基地校，辐射作用日益彰显。四是基础教育质量实现新突破。今年全市中考优秀率、及格率分别为22.28％和65.73％，比上年提高4.31和2.62个百分点；普通高考应届考生二本以上上线率为17.06%，比上年提高2.65个百分点。', '一是进一步加强基础能力建设。全年争取省级以上项目3个，资金2182万元，县级政府投入和学校自筹9000万元，全部用于中职学校基础设施建设和实训实习设备购置。同时争取到3个千万项目列入省发改委“十二五”基础能力建设计划。二是不断提高中职办学水平。全年中职招生18323人，职普招生比例基本达到“大体相当”。毕业生就业率达到97.3％。工业学校通过了首批国家级示范性中职学校评估验收，平泉职教中心通过国家重点校验收。三是积极开展教产结合、产学结合、工学结合等办学模式探索。根据职业岗位能力要求，开展不同程度的专业结构和课程设置改革和调整。工业学校“一体化”、双滦区职教中心“模块化”教学改革效果显著。四是加强了对口升学工作的引导和管理。今年全市1107名毕业生参加对口升学考试，本科、专科上线率分别达到6.59%和94.85%。五是参加全省中职学校技能大赛成绩突出。2010年，参赛的学校数量、学生数量、专业数量较2009年成倍增长，共选派31支代表队参加了全省中职学校学生技能大赛，共获得各类奖项124项。六是系统谋划教育合作重点项目，扩大教育开放外联。积极参加与北京对接项目洽谈，签订教育交流合作协议。组织部分学校赴京津企业考察，参加全国合作办学洽谈会，与10余所学校达成了合作意向。选派了三所学校5名中学校长及外办人员出访交流或参加合作项目，选派1名教师赴英国友好学校教授汉语，河北民族师院和承德一中被省教育厅命名为国际汉语推广省级示范基地。七是加强职业学校教师培养，培训电子电工、钳工等专业课教师60名，基础课教师150名，通过公开课和说课评比等形式提高专业课骨干教师和“双带工程”授课教师专业技能，5人被评为河北省中等职业学校骨干教师，21人被评为市级骨干教师。', '依托教育园区资源优势，高等教育的办学实力、服务经济社会能力不断增强。一是学校结构更加合理。在市委、市政府的支持下，经过不懈努力，原承德师专经教育部批准升格为河北民族师范学院，结束了市属高校无本科院校的历史；原承德卫校经省政府批准升格为承德护理职业学院，使我市高校达到6所，形成了涵盖医学、旅游服务、石油工业、师范教育、远程教育等门类比较齐全、布局基本合理的高校结构布局；河北旅游职业学院顺利通过省级示范校验收。二是教学科研成果显著。各高校突出办学优势，加大了精品课程研发力度，承德医学院建成省内唯一的中药学科省级重点实验室，承德石油高专钻井施工操作等10门课程被确定为国家级精品课程、河北旅游学院模拟导游被确定为国家级精品课程，河北民族师院着眼于满族文化研究，在清史研究、避暑山庄文化、纳兰性德研究等领域在全国领先，其中，承德清音会被确定为国家非物质文化遗产。同时，各高校进一步强化了服务地方经济的能力，承德石油高专与市高新区签订了共建智能化仪器仪表研发基地的校企合作协议，河北旅院研发的以黄芩为主的中草药种植累计为当地农民增收2.1亿元。', '此外，圆满完成了全市高考考务平台建设。全市16个考点、916个考场全部安装监控设备，与各级考试部门实现远程互联， 2010年中、高考实现了“考试平安无事故，考务准确无差错”目标。加强了学校德育和体育卫生工作，结合创建国际旅游城市开展了“为名城添光彩”系列活动，成功举办了全市中学生运动会和阳光体育展示活动，以手足口病为重点组织了多次卫生检查，确保广大师生身体健康。', '（一）深入开展创先争优活动，不断提高教育系统党建科学化水平。5月份开始，按照上级统一部署，广泛深入开展了创先争优活动。结合教育系统特点，以“学纲要，促发展，创先争优上水平”为主题，按教育行政部门、大中专院校、中小学幼儿园和民办学校4个层面创新载体、分类指导。活动部署周密、参与面广、特色鲜明、效果明显，受到省、市委督导检查组的充分肯定。12月份，经过精心筹备，成功举行“播种希望”全市教育系统创先争优专场文艺演出。以创先争优为契机，规范了9所民办学校基层党组织建设。对10个先进基层党组织、32名优秀共产党员和8名优秀党务工作者进行了表彰。直属学校党支部发展新党员12名，发展预备党员18名，为党组织增添了新鲜血液。对机关党支部进行改选，进一步加强了机关党组织规范化建设。', '（二）提高经费保障和学生资助水平。全面落实了各项免费政策和公用经费保障政策，不断提高保障水平。落实农村中小学公用经费19351万元，生均公用经费标准达到小学550元、初中750元，分别比省定标准高出195元。为农村全部和城市义务教育阶段贫困学生免除教科书费3778.247万元，惠及学生65.97万人。做好中职学校家庭经济困难学生和涉农专业学生免除学费工作。与市财政局、市发改委、市人力资源和社会保障局联合下发了《关于中等职业学校家庭经济困难和涉农专业学生免除学费的实施方案》，进一步完善了资助机制，规范了资助行为。争取不同教育段学生资助奖励项目总资金1.13亿元，惠及学生9.25多万人。', '（三）创新督导手段。完成了2009年度市政府对县区教育的综合督导评估。平泉县、围场县、丰宁县、滦平县、双滦区被评为“教育发展先进县”，隆化县、兴隆县被评为“教育投入先进县”。围场、平泉县通过了省政府普及高中阶段教育验收。兴隆县、营子区通过了省政府县域教育综合督导评估。对各县区校安工程、教师队伍建设等教育重点工程项目开展了全方位专项督导。创新了督导方式，按照“突出重点，有所侧重”的原则，在原有“一票否决”项目基础上，对每个县区侧重督导1—2项教育重点工作。', '（四）加强师德建设、党风廉政和行风建设。加强了教师职业道德的常态化管理。开展了《中小学教师职业道德规范》的学习教育活动和省、市师德标兵评选活动，4人被评为省级师德标兵，61人被评为市级师德标兵。组织了师德标兵座谈会和河北省教育系统创先争优三育人标兵巡回报告会。在教师节期间，通过电视、报刊等新闻媒体，集中宣传了优秀教师的先进事迹，为广大教师树立了学习的榜样。', '严格按照“一岗双责”要求，落实党风廉政建设责任制，加强党风廉政长效机制建设。坚持以“履职尽责、规范权力”为主题，突出抓好干部作风建设长效机制工作，扎实推进行政权力运行监控机制建设。先后制发了一系列专项文件，对电子政务、行政指导、政务公开等方面工作做出具体部署和详细安排。确定了105个行政权力动态行使过程中可能出现的风险点和防范措施，制定了明岗定责、明权定责目录，科室职位说明书和工作流程图。', '加强了教育系统行风建设和高校惩防体系建设。制发了《关于2010年进一步治理教育乱收费工作的意见》，组织全市1421所学校对收费情况进行了自查，市县两级组成35个检查组，对662所学校自查情况进行了抽查。规范了机关收费行为，对科室现有收费项目逐一进行清理、登记，保留收费项目16个。加大了案件查处和监督检查工作力度，今年市县两级共受理群众电话举报和来信来访199件次，其中立案13起，结案13起，涉案人员26人，其中7人受到了党纪处分，19人受到政纪处分。认真开展了市级民主评议学校工作。', '（五）强化安全稳定工作。继续实施领导干部“两包一保”（包点包案保稳定）；召开了全市教育系统安全稳定暨综治工作会议；针对全国学校安全严峻形势，研究制发了《承德市加强学校内部安全防范工作暂行规定》，对全市学校安全保卫工作进行了拉网式检查，发现问题及时整改。按照属地管理原则，加强了对市直学校监管。市财政划拨100余万专项资金，在市直中小学、幼儿园校内重点部位安装了监控设备，购置了警械，积极争取为市直学校配备了保安员。加强学校内部安保力量，抽调教师组建校内护卫队，在市直学校、幼儿园成立保卫处，充实了专职保卫人员。', '此外，未成年人思想道德建设、职业与成人教研、机关党建、教育人事代理、教育信息惠民服务、勤工俭学、关心下一代和老干部等项工作都取得了很好的成绩。总结一年来的工作，我们还存在以下亟待解决的问题：', '一是校长、教师管理体制、机制急需改革完善，教师队伍的整体素质有待提高。二是基础教育质量虽有提升，但普通高中的教学质量亟待提高。三是市区学校布局调整推进速度缓慢，需探索建立校长、教师校际交流等推进义务教育均衡发展的激励机制。四是职业教育品牌学校和特色专业相对较少，需加强中职招生统筹力度。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>10</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>滦平大力加强基层党组织建设</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2011-06-09</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F6%2F9%2Fart_360_73450.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_73450</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['本网讯（贾鹏飞、刘剑霞）滦平充分发挥各级党组织领导核心作用和党员的先锋模范作用，围绕“三提一转、创先争优”活动的开展，带领广大人民群众加快推进全县经济社会发展，为全面完成保增长、保民生、保稳定各项工作任务提供了坚强的组织保障。', '提升素质，建设谋事干事的硬队伍。该县加大基层组织建设力度，不断提高党建工作整体水平。围绕“双育工程”，把“两贴近”、“两服务”作为培训的出发点和落脚点，组织农牧、科技等涉农部门，指导每个乡镇建立了1处以上学习成果转化创业实践基地。全县共聘请县外专家、教授36人次来滦平授课，组织不同层面的党员干部1500余人次赴外埠学习考察，有1500余名农村党员被培养成科技能手和致富带头人。', '实施“双千工程”，在全县范围内选派千名机关党员与千户农户结对子，为当地企业和农民解决实际问题。截至目前，共帮助农户落实致富项目271个，协调解决资金及物资折款800多万元，办实事3000余件。', '规范运行，夯实基层党建软环境。制定完善了《县委常委会会议细则》，对“民心工程”、重大项目建设、公共财政资金使用等涉及经济社会发展全局的重大决策，以及事关群众切身利益的决策事项，实行了向社会公示和听证制度，自觉接受社会各界监督。', '对基层党委抓党建工作的责任进行细化，制定出台《关于进一步加强基层组织建设工作的意见》，把考核结果作为综合评价基层党委领导班子工作实绩的主要依据之一。目前，全县“五个好”乡镇党委和村级党组织分别达到总数的68%和71%，涌现出了张百湾镇党委、西沟乡党委等一批获得省、市表彰的先进集体。', '建设阵地，构筑党建工作实基础。把基层阵地建设、党员干部教育培训、远程教育建设等作为增强党建阵地建设水平，打牢基层党建工作基层的重要抓手。与北京大学、清华大学等高等院校紧密协作，建立了县、乡、村三级干部外训基地；投资400多万元在全县各乡镇、村、社区、两新组织、党员示范户中建设远程教育接收站点205个，为120个辐射示范功能较强的站点配备了多媒体，为提高全县干部教育培训工作水平起到了积极的推动作用。', '结合 “双千工程”，采取部门帮扶、县乡财政扶持、周边企业赞助、村自筹等途径，累计投资3100余万元，新建村级组织活动场所112处、维修改造65处，进一步完善了村级组织活动场所的配套设施。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>10</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>围场以市委全会精神为指引推动县域经济又好又快发展</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2011-01-04</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F1%2F4%2Fart_360_74543.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_74543</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['本网讯 （杨旭）市委十二届七次全会召开后，围场满族蒙古族自治县迅速组织召开县委中心组学习会议、政府常务会、党政班子联席会、县委常委扩大会议，认真学习贯彻市委全会精神，对“十二五”发展纲要初稿及2011年工作思路和目标进行再研究、再部署，并要求各乡镇、各部门要全面深入学习全会精神，凝神聚力，合力攻坚，在“十二五”期间实现县域经济社会的科学发展、和谐发展、加快发展。', '通过学习市委全会精神，该县委、县政府深刻认识到下一个五年是围场缩小差距，实现赶超的关键时期。立足谋划好“十二五”规划，全面总结“十一五”经验和不足，组织有关部门负责人就城建建设、休闲旅游产业发展等方面问题外出学习考察，组织召开党政班子联席会听取“十二五”规划专题汇报，召开座谈会深入研究谋划，书面征求各层次意见、建议，重点专项规划委托权威机构编制，力争使 “十二五”规划更科学、更符合围场实际。', '据了解，“十二五”时期，围场将继续坚持科学发展、坚持生态优先理念，加快转变经济发展方式，立足清洁能源大县、休闲旅游大县、现代农业大县、造型材料大县四个定位，加快四合永工业聚集区、半截塔农副产品加工聚集区、坝上清洁能源产业聚集区、坝上旅游产业聚集区四个园区建设，持续壮强薯、牛、菜、电、矿、游六大产业，着力调整经济结构、着力发展特色主导产业、着力扩大对外开放、着力保护生态环境、着力改善基础设施条件、着力保障和改善民生，力争实现GDP增长1倍、财政收入增长2倍、固定资产投资“十二五”累计比“十一五”累计增长2倍。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>10</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>政协委员为社区建设鼓与呼市政协围绕推进社区建设及养老服务发展履职纪实</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2010-12-21</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F12%2F21%2Fart_360_74468.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_74468</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 政协委员为社区建设 “鼓”与“呼”——市政协围绕推进社区建设及养老服务发展履职纪实', '政协委员为社区建设 “鼓”与“呼”——市政协围绕推进社区建设及养老服务发展履职纪实', '12月6日，尽管屋外寒风凛冽，但双滦区行宫社区服务站专为老人开办的“日间照料室”里温暖如春。78岁的韩守城老人和72岁的乔银祯正在悠闲下跳棋，老友相聚，其乐融融。', '行宫社区服务站大厅的显眼位置，写着两行大字：“昔日皇家故地 今朝百姓乐园”。这似乎是对韩守城老人，还有社区里的许多居民生活的一种写照。', '在双滦区，像这样设施完善、特色突出、惠及万千居民的城市社区共有13个，占社区总数的81%。“自今年年初，双滦区居家养老服务试点工作启动后，社区服务理念大大改观，服务水平迅速提升。借全市‘四有一创’活动的‘东风’，全部城市社区建设实现了提档升级，投入1585万元，通过新建、改造，使区内各社区的办公用房面积达到了500平方米至1400平方米。办公经费从2000元提高到了2万元，明年将提高到3万元。在全市率先出台《居家养老（助残）暂行办法》，成立了双滦居家养老服务中心，投入230万元推行了助老服务“一键通”，全区75岁以上老人的入网费、服务费全部由政府买单，全区已有近2000户独居、空巢老人安装了一键通呼叫器，为老人解决医疗、饮食、购物、调解等20余项服务需求。居民们只要来到紫罗兰色的社区服务站就如同回到了家一般，代表着永恒的美与爱的紫罗兰色已经成为了社区居民眼中的温馨色、贴心色、暖心色。”双滦区副区长刘玉铁如是说。', '周源委员是参加市政协组织赴上海学习考察的成员之一。在双滦实地调研社区建设进展之后，她深有感触地说：“真没想到承德也可以建成这么好的社区，硬件设施比起上海毫不逊色，人员素质极大提升，他们在工作中释放出的热情足以感染每一个人！”', '9月26日，副省长宋恩华到双滦调研后指出，双滦区社区建设标准之高，功能之齐全，在全省也不多见，称得上全省一流。', '刘玉铁告诉记者：“能得到这样的成绩，离不开市委、市政府的正确决策，同时，也离不开市政协3年来，不断给予的关心和指导。”', '双桥区的社区建设工作也映衬了这一点。该区以建设与国际旅游城市相协调、相适应的社区工作体系为目标，着力破解老城区社区软硬件建设的难点问题。目前已投入专项资金2000多万元，统筹改善社区办公用房，提高社区干部待遇和办公经费标准。记者在碧园社区看到：社区一站式服务大厅、党建、民政、社保、综治、96096便民热线等10大类70多项便民服务门类齐全，“一站式服务、一门式受理、一个来回办结”的服务模式着实方便了社区居民。', '“围绕改善民生发挥作用始终是市政协履职的重点，也是广大委员关注的热点。2008年以来，市政协把与群众利益关系最直接、最现实的社区建设工作和养老服务发展问题作为切入点，把发展养老服务纳入提升社区建设整体水平的重要内容，先后组织省、市政协委员进行较大规模的调研、视察7次，召开各种形式座谈会22次，形成专题报告、建议4份，集体提案和委员个人提案13件，引起了市委、市政府主要领导和相关部门及县区对这两项工作的高度重视。”市政协副主席陈树峰在接受记者专访时这样说。', '我市社区建设起步于2002年。当时，全市共有212个社区居委会，70%的社区没有办公用房，在居民印象中，社区就是“一间破房子，两张破桌子，三个老妈子”，工作也仅限于“守摊子、盖章子、下通知、扫院子”。据市民政局基层政权和社区建设科科长林瑞国回忆说，当年6月份，市委、市政府下发了《关于加强城市社区建设和管理的意见》（承办[2002]9号）等有关文件，将全市社区调整为153个，使社区规模趋于合理，并建立了社区组织体系。', '2008年1月，在石家庄参加省“两会”的市政协主席郑晓东与几位驻承省政协委员认真讨论这些问题，回来后便安排两位委员撰写相关建议。去年2月又将此议题列入即将召开的市政协十二届二次会议大会发言内容，并安排市政协社会法制委员会组织委员进行专题调研，亲自修改审定《对我市社区建设的思考与建议》的大会发言。《建议》提出，各级党政领导应当把社区建设工作列入重要议事日程，在现有基础上逐年创造条件，使社区建设适应城市化进程的需要；应着力做好改善社区硬件建设、提高社区干部整体素质和相应待遇、规范社区管理运行机制、提高社区服务的质量和水平等五方面工作。大会发言引起了市委、市政府领导的高度重视。市长张古江当即做出批示，要求市政府分管领导及民政局和双桥、双滦区主要领导阅研，尽快拿出具体的措施，全面提升我市的社区管理、服务水平。会后，市政协又及时将大会发言转为《关于在现有基础上抓好我市社区建设的几点建议》的集体提案，作为市政协年度的重点督办提案。并于当年7月份，再次组织委员到双滦、双桥进行调研，推动工作落实，并形成了《关于我市现阶段推进社区建设工作急需关注和应解决的几个问题及建议》，报送市委、市政府。市委书记杨汭、市长张古江又做出重要批示。一些建议内容被市委、市政府在相关文件中采纳。', '依托社区发展养老服务是有效应对人口老龄化，提升社区管理和服务水平的必然选择。而新型社区建设与发展必然要求将社区建成居民生活的乐园、老年人养老的乐园。市政协如是认为。', '同年，市政协又组织部分省、市政协委员专程赴上海市徐汇区和静安区学习考察居家养老服务和机构养老服务经验，形成了《积极应对人口老龄化严峻形势，加速培育发展我市养老服务的几点建议》的报告。提出了“要制定我市养老服务发展规划、大力推进居家养老、民办机构养老、优化发展环境、培育专业化养老服务队伍和加强行业监管”等六方面建议。引起市领导重视。今年，市政协又形成了《关于借鉴外地先进经验，尽快在我市启动居家养老服务试点的建议》和《关于落实我市养老服务发展优惠政策的建议》两份集体提案，作为年度重点督办提案。上半年，围绕搞好居家养老服务，推动开展社区建设试点，市政协又多次与双滦区和市民政部门进行沟通、协调，并确定了在双滦区以御祥园社区为主，建设2—3个硬件设施、综合服务水平在省内一流的高标准试点社区。', '市政协围绕推动社区建设和养老服务发展的履职工作得到了市委、市政府领导的高度重视和支持。去年12月，市委书记杨汭、市委副书记、组织部长丁锦霞，又专门派人到市政协征求对社区建设工作意见，并在市委印发的相关文件中综合吸纳委员们提出的建议。', '今年3月，我市出台了《推进“四有一创”加强城市社区建设的意见》，决定利用3年时间，实现城市社区“有人干事、有钱办事、有场所议事、有章理事”，80%以上的社区创建成为文明社区的目标。并明确由市委副书记、组织部长丁锦霞主抓。全市探索出了“组织部门抓总引领、民政部门牵头指导、有关部门齐抓共管”的社区工作机制，构建起了“四有一创”的社区建设“承德模式”。并被作为城市“名片工程”，按照统一标准、统一设计的要求，设计筛选出了社区办公用房外观效果图和社区徽标，确定了紫罗兰色为社区房屋外墙色彩。社区在服务标识、装修装饰风格、一站式服务大厅、制度建设等基本做到了统一规范。在3个区率先开通了96096便民服务热线，并把96096确定为承德社区服务居民的品牌。社区建设上实现了由管理到服务功能的转型。为应对人口老龄化这一社会难题，特别突出了居家养老服务内容，如亲情配餐、日间照料、康复保健、医疗服务、一键通网络平台和十分钟服务圈等服务项目建设。目前，全市41%的社区已基本达标，不仅社区面貌有了很大改观，而且管理服务水平有了很大提升，得到了社会各界的广泛赞誉。记者 鹏玉']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>10</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>奋勇直追正当时围场信心十足迎战十二五</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2011-03-25</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F3%2F25%2Fart_360_74993.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_74993</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['满载着“十一五”沉甸甸的收获，伴随着“十二五”豪迈入场的序曲，围场激情演绎“十二五”的大赛已经拉开。', '“十二五”时期，是围场加快转变经济发展方式，实现科学发展、富民强县、缩小差距的关键时期。从“十一五”的“热身”，走到“十二五”鸣枪出发的“起跑线”，围场如何起跑？如何发挥优势，奋勇追赶？为此，坚持科学发展，坚持生态优先是围场制定的战略战术。', '如果把“十一五”比喻一场长跑比赛，那么围场在这场比赛中收获的不仅仅是成绩，更多的是方向、信心和勇气。围场县委、县政府的决策者们深刻认识到下一个五年是围场缩小差距，实现赶超的关键时期。为谋划好“十二五”规划，专门组织全县各级干部深入学习中央和省市委全会精神，全面总结“十一五”发展经验，带领有关部门就城镇建设、休闲旅游产业发展等方面外出学习考察，组织召开党政班子联席会、座谈会进行专题研究谋划。在此基础上，确定了围场“十二五”发展的指导思想，即围绕加快转变经济发展方式这条主线，突出坚持科学发展、坚持生态优先；立足清洁能源大县、休闲旅游大县、现代农业大县、造型材料大县“四个定位”；持续壮强薯、牛、菜、电、矿、游“六大产业”；强力打造四合永工业集聚区、半截塔农副产品加工集聚区、坝上旅游产业集聚区、坝上清洁能源产业集聚区“四个聚集区”，着力调整经济结构、着力发展特色主导产业、着力扩大对外开放、着力保护生态环境、着力改善基础设施建设、着力保障和改善民生，最终实现GDP增长1倍（由“十一五”末的50亿元增加到100亿元）、财政收入增长2倍（由“十一五”末的3.45亿元增加到10亿元）、固定资产投资增长2倍（由“十一五”时期的158.4亿元增加到450亿元）的“三个倍增”目标。', '薯、牛、菜、电、矿、游六大主导产业是围场县委、县政府通过多年探索和实践，确实适合围场发展的富民强县产业。 经过“十一五”的洗礼，在注入现代产业发展元素的大背景下，六大主导产业竞相追赶，并逐渐显现强大的发展力量。尤其是以生态、绿色环保为发展理念指引下的现代产业体系初露端倪。', '以生态休闲为重点，优先发展旅游业是围场“十二五”产业发展战略一大亮点。围场是旅游资源大县，具有良好的产业基础。2010年，围场共接待游客120万人次，实现旅游收入7.8亿元，产业发展势头强劲。为顺应河北省建设环京津休闲旅游产业带、承德市建设国际旅游城市的战略，“十二五”期间，围场把旅游产业摆在突出位置，优先发展、重点发展、加快发展，集中打造坝上旅游产业聚集区，并以旅游产业为龙头，带动生态工业、现代农业和服务业的发展，以此活跃县域经济发展全局。并将通过打造精品、提升产品档次，挖掘底蕴、提升文化品位，延伸链条、提升产业内涵，创新举措、提升管理水平，强势推介、提升品牌形象等“五个提升”，实现围场由旅游资源大县向旅游产业大县和旅游经济强县的转变。到2015年，力争年接待游客150万人次以上，实现旅游收入10亿元以上。', '以绿色有机为重点，加快薯、牛、菜、果、菌、鸡等现代农业产业发展，实现富民强县，是围场“十二五”时期农牧业瞄准的主攻方向。大力发展绿色、有机农业，加快建设马铃薯、肉奶牛、蔬菜、食用菌、果品、肉鸡等特色农产品基地，到2015年，全县新增有机食品认证8个、绿色食品认证10个。扩大骨干龙头企业规模，加快建设一批重点农产品深加工项目，到2015年，规模以上龙头企业新增50家，农业产业化经营率由53%提高到65%。严格标准化生产，加快建设标准化种植、养殖示范区，到2015年，马铃薯、胡萝卜标准化示范区均达到10万亩，肉牛、奶牛、肉鸡标准化示范区分别达到50个、20个和300个，农产品检测率达到98%以上。加快发展休闲观光农业，在旅游沿线乡村建设以有机蔬菜和时差果采摘、特色畜禽养殖、现代农业示范等各类休闲观光基地，使现代农业与休闲旅游有机结合、相得益彰。', '“十一五”期间，围场风电累计投入资金100亿元，风电装机并网发电94.3万千瓦，年发电能力10亿千瓦时，实现产值5亿元，风电产业实现增加值占规模以上工业的59%、实现税收占全部工业的31%。大力发展生态工业，让围场干部群众有了跨越赶超的信心和动力。“十二五”，围场将全力推进风电、水电、风光综合开发，积极推进地热、生物质能开发利用，加快电力输出系统工程建设，提高清洁能源产业规模实力。到2015年，清洁能源产业装机达到330万千瓦以上，实现工业增加值15亿元，占全县规模以上工业增加值的70%以上。以资源整合和环境保护为前提，加大以硅砂、萤石为重点的矿产资源整合力度，优化资源配置、严把准入门槛、淘汰落后产能、加强科技创新，加速产业向规模化、集团化、品牌化发展。到2015年，矿业实现产值8亿元以上，增加值2.5亿元以上，实现税金8000万元以上，建成全国优质造型材料生产基地。', '强化生态建设、加强基础设施建设、推动园区建设、加快和谐围场建设，这“四项建设”是围场“十二五”时期实现又好又快发展的根基。', '生态是围场发展的“王牌”。在生态建设上，围场将以巩固建设国家生态功能区为重点，坚持“生态优先”理念，继续实施好防沙治沙、退耕还林后续产业扶持等重点生态建设工程，提高林草植被覆盖率，到2015年，森林覆盖率达到60%，提高6.9个百分点。', '基础设施薄弱一直是制约围场发展的“瓶颈”。“十二五”期间，围场将以完善交通、电力和城乡功能为重点，积极推进承锡高速公路、御大公路、通村公路等一批重点项目建设，构建四通八达的公路交通网络。到2015年，全县公路总里程达到5080公里，其中高速公路通车里程将达165公里。争取多丰铁路复线、承锡铁路、坝上通用机场开工建设，努力构建复合型交通体系。抓好城镇体系建设，立足“低碳生态、山水宜居、休闲旅游、满蒙特色”的城市定位，加大县城绿化、美化、亮化和节点打造工程力度，到2015年，全县城市化率达到40%以上。', '把园区建设作为吸引资金、技术、人才、信息集聚的有效途径。将以项目引进为重点，加大政策倾斜和资金投入力度，全力推进产业聚集区做大做强。到2015年，四合永工业聚集区建成省级产业聚集区，半截塔农副产品加工聚集区建成市级产业聚集区，全县聚集区建成区面积达到5000亩以上，入区企业70家以上，年实现产值20亿元、税金2.5亿元，安排就业5000人以上。', '在和谐围场建设上，以保障改善民生为重点，进一步加大投入力度，推进教育、卫生、计生、文化、体育等社会事业统筹发展。千方百计扩大就业，大力发展劳务经济，“十二五”期间，全县转移就业38万人以上，城镇登记失业率控制在3.65%以内；加快城镇和农村基本医疗保障体系建设，扩大城乡居民保险覆盖面，到2015年，新农合覆盖率达到95%，城镇居民医保覆盖面达到100%。', '决战“十二五”的大赛已经开始，奔驰在冲向终点的跑道上，围场已经明确了前进目标，凝聚了前进动力，奋勇直追正当时！']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>10</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>风清气正好扬帆年全市反腐倡廉建设回眸</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2011-02-23</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2011%2F2%2F23%2Fart_360_74804.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_74804</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['过去的一年，是我市加快国际旅游城市建设、加速经济发展转型升级的攻坚克难之年，是克服诸多困难和挑战，经济社会发展取得明显成效的一年……', '这一年，市委、市政府把反腐倡廉建设作为推动科学发展的重要保障和各项工作落实的重要举措，与经济社会发展同部署、同落实、同检查、同考核；', '这一年，全市各级各部门认真贯彻以人为本、执政为民理念，把党风廉政建设的出发点和落脚点放在维护、实现和发展好广大人民群众的根本利益上，关注群众的期盼；', '这一年，全市各级纪检监察机关充分发挥组织协调和监督检查职责，全面加强惩治和预防腐败体系建设，党委统一领导、党政齐抓共管、纪委组织协调、部门各负其责、依靠群众支持和参与的反腐倡廉工作格局进一步形成；', '这一年，党风廉政建设和反腐败工作在给力国际旅游城市建设，保障经济社会平稳较快发展上，继续发挥着不可替代的作用。', '加快国际旅游城市建设，必然要有大批工程项目开工建设和大量资金的投放使用，确保项目、资金和干部的安全，显得尤为重要', '——加强对重大项目的监督检查。推行领导分包、部门包建责任制，特别是对政府投资的项目实行决策责任追究和后评价制度；深入开展工程建设领域突出问题专项治理，对2008年以来政府投资和使用国有资金的所有建设项目，以及总投资在2000万元以上的非政府投资项目，从规划审批、建设程序、工程质量、资金使用等方面进行全面检查, 立案查处19起违纪违法案件，纠正问题13个，有效地保障了项目的顺利实施。', '——加强对关键环节的督导监察。重点对城市规划执行情况进行专项监察，对15处违章建筑进行了依法强制拆除，增强规划执行的刚性；加大对城市拆迁、改造、建设重大工程的监管力度，对新开工和在建的廉租住房项目、经济适用住房、棚户区改造等项目进行督导检查，对66个未办理施工许可证的工程项目进行了查处，确保了城镇面貌三年大变样阶段性任务的圆满完成；', '——加强监控预警机制建设。对重点工程从招投标、征地拆迁、工程设计变更、工程质量管理和建设资金管理五个方面，查找风险点，确定风险等级，制定防范措施，规范工作流程，并层层签订廉政建设责任状，个人签订廉政承诺表，确保了工程、资金和干部的安全。', '密切党群干群关系，优化经济发展环境，离不开作风建设做保障。“履职尽责，规范权力”，不仅主题鲜明，而且落实有力', '——“门难进、脸难看，话难听、事难办”，“不作为、慢作为、乱作为”是干部作风上的诟病。对此，市委以“履职尽责、规范权力”为主题，持续推进干部作风建设年活动。围绕“权力”这把双刃剑，对市级行政审批事项再行削减下放228项，县级削减下放40%以上，保有审批事项平均简化环节1.7个、缩短时限6.2天。在此基础上对所有行政权力进行“定岗明责”，并纳入到电子监控系统，让权力规范运行、阳光运行。在此基础上，制定“作风建设一票否决”办法，常年开展暗访和不定期双互查，全年共纠正18起乱收费乱罚款案件，重点处理了35起不作为、乱作为的典型案件，对36名当事人给予了党政纪处分。与此同时，开通作风建设网上监督平台，继续深入开展“网络直评”行风活动，扩大评议面、延伸直评线，让权力行使接受公众的监督。', '——全面治理涉农乱收费、乱集资、乱摊派行为，统一收费标准，取消不合理收费项目，全年共清查强农惠农项目2229个，涉及金额5000余万元，纠正违规问题14个；全面治理教育、医疗等领域的不正之风，查处乱收费资金77余万元；对群众关注的住房公积金以及社会保险、退耕还林、就业再就业、扶贫救灾等专项资金进行跟踪监督、重点审计，查处问题15个，提出整改建议14条；对群众反映强烈的“小金库”问题、公费外出学习考察问题、公务用车配备和招待费管理问题等集中进行了清理和规范。', '每一项举措的实施，治理的是顽症，消除的是诟病，换来的是发展环境的优化和群众利益的维护。', '把实践中得出的规律性认识用于反腐倡廉建设，把行之有效的做法上升为体制机制制度，惩防体系建设全面推进', '——着眼于监督，按照“制度+科技”的方式，以制约权力为关键，以制度建设为根本，以信息技术为支撑，建立了全省首家市县乡村四级联网的音频同步电子监察系统，在全国率先将审批、处罚、收费、给付等行政权力纳入电子监察系统，实现行政权力全部网上运行和全程网络监控。', '——着眼于预防，建成了集交易场所、信息平台、交易程序、交易规则和评审专家库于一体的“五统一”的公共资源交易平台，成为全省第一个实现统一集中管理、运行一步到位的社区市。对中介机构集中进行清理、整治、规范，制定了《中介机构管理暂行办法》，初步建立了综合监管长效机制。', '——着眼于对领导干部的监督，进一步健全党风廉政建设责任制，实行了党政主要负责人“不直接分管人事、财务、项目”和“三重一大”事项集体决策、“末位表态制”等制度。', '——着眼于对基层的监督，在兴隆县探索开展了乡镇督导巡察试点工作，加强对乡镇党政负责人的监督。目前，丰宁、承德、隆化、围场的乡镇巡察工作也已相继展开。', '坚持教育与惩处两手抓，让广大党员干部在正面教育中受到洗礼，从反面典型中受到警示，筑牢拒腐防变防线', '“二十年的养育四十年的培养，一失足成千古恨，对不起父母，愧对党；二十年的拼搏四十年的理想，转眼间灰飞烟灭，斗志顿失，不再想”。这是一名处级领导干部因收受贿赂，被判刑10年在狱中写下的。', '教训是深刻的，代价是惨痛的。如何使党员领导干部不犯错误、少犯错误，市委决定在全市开展“为各级党员干部做百场清正廉洁辅导讲座”活动。截至去年底，全市已开展讲座200余场，近2万名党员干部受到了教育。', '在廉政讲座同时，建立了“廉政教育在线”网站，完善了董存瑞烈士陵园廉政教育示范基地和承德监狱、上板城监狱两个警示教育基地建设，组织对718名拟提拔副处级以上领导干部进行了党政纪知识考试，在丰宁尝试了党员干部“廉政任职资格考试”制度，对2009年以来新提拔或任用的县处级领导干部及配偶进行了集体廉政谈话……', '惩处是最有效的教育。去年，全市各级纪检监察机关充分发挥反腐败协调联动机制的作用，共初核案件线索1260件，立案727件，结案727件，党政纪处分709人，组织处理18人，移交司法机关追究刑事责任9人，其中涉及县处级干部9件，涉及乡科级干部90件。', '回眸过去的一年，反腐倡廉建设始终坚持围绕中心、服务大局，努力保证党委政府重大决策部署的贯彻落实；始终贯彻以人为本、执政为民理念，认真解决反腐倡廉建设中人民群众反映强烈的突出问题；始终做到把上级的决策部署与本地实际紧密融合，着力推进惩治和预防腐败体系建设，注重保护干部干事创业的积极性。', '尽管如此，党风廉政建设和反腐败斗争形势依然严峻、任务依然艰巨，成效明显和问题突出并存，防止力度加大和腐败现象易发多发并存，群众对反腐败斗争期望值不断上升和腐败现象短期内难以根治并存。但我们坚信，在市委、市政府的坚强领导下，在各级党委政府和广大党员干部的共同努力下，在社会各界和广大人民群众的参与支持下，党风廉政建设和反腐败斗争一定会不断取得新的胜利。记者 苗成功']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>10</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>我市创新项目谋划推进管理机制</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2010-04-04</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F4%2F4%2Fart_360_76885.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76885</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['本网讯 （遇建军、李麒麟）为进一步强化项目管理，加大项目谋划和推进力度，使项目快落地、快建设、快见效，我市今年结合实际，创新项目谋划、推进和管理机制，取得了明显效果。', '创新项目谋划机制。立足承德资源、区位、生态、文化优势，按照建立现代产业体系，打造国际旅游城市的发展要求，建立管理部门专人研究、项目单位主体谋划、业内专家参与合作的“三位一体”项目谋划体系，发挥政府在项目谋划中的引导作用，突出企业在项目谋划中的主体地位，体现高校、科研机构在项目谋划中的智力优势，多方联动生成项目，有效增加项目源，实现由单个项目谋划向项目群和产业聚集谋划转变，由项目单位谋划为主向职能部门、项目单位和科研机构共同谋划转变，由围绕本地资源、产业等现有条件谋划项目向注重依靠科研成果转化，借鉴发达地区经验，努力形成“谋划储备一批，开工建设一批，竣工投产一批”的良性循环。进一步加强市、县（区）两级和相关经济部门项目工作力量，把工作重心转移到项目谋划上来，通过培训，提高业务人员的素质和水平，使项目办及相关部门业务人员真正成为专业谋划人才。对各县（区）和市直相关部门从事招商和项目工作的领导和工作人员，分层次、分批组织大轮训，并有计划、有目的地组织相关人员外出对口学习考察；定期、定向发布需要谋划的重大项目，与企业对接，引导企业积极谋划。同时，采取招标、委托等方式，聘请专业咨询机构和业内专家，帮助谋划项目，提高项目谋划层次和水平。', '创新项目引进机制。通过搭建大平台、瞄准大企业、组织大营销，引进一批符合我市主导产业发展的立市、立县大项目、好项目。搭建大平台。依托承德钒钛、旅游、生态资源优势和产业基础，组织高规格的产业发展论坛，邀请领导、专家、企业家，借脑引智，研究承德产业发展，推介承德产业项目。瞄准大企业。深入研究能与承德产业发展相衔接的国际国内知名企业发展战略和投资意向，制定优惠政策，创造符合这些企业来承德投资发展的环境和条件，开展靶向性招商活动，以资源优势吸引投资，以优质服务促其落户。组织大营销。一是依靠一批谋划成型的项目，在北京、上海、长三角、珠三角等地集中开展项目推介活动，进行项目直接营销。二是集中组织国际国内大企业高管人员来承考察观光，借机宣传、扩大影响。三是投资制作城市形象宣传片，通过各种媒介广泛宣传，对城市进行整体营销，全面提升城市形象，扩大承德影响。', '创新项目推进机制。改进分包重点建设项目方式，对于已筛选确定的全市重大项目，本着谁主管、谁负责的原则，实行分口管理，全程负责。在总结项目领办、代办工作基础上，要进一步落实实施《承德市推行投资项目审批代办制实施意见》进一步加大项目审批领代办工作力度，以此为突破，全面优化项目前期工作环境。开展市级领导牵头谋划推进重大项目活动，市级党政领导每人每年牵头谋划一个５亿元以上重大项目，着重引进落地一个亿元以上重大项目；人大、政协班子每年谋划１－２个５亿元以上重大项目，引进落地２－３个亿元以上重大项目。市县两级都要设立项目谋划推进工作专项资金，专项用于重大项目谋划推进工作，并采取以奖代补的方式，建立重大项目推进实施奖励机制，对当年落地的重大项目的责任部门和牵头人给予奖励，调动谋划推进项目的积极性，推动全市项目建设实现突破。', '创新项目管理机制。实行省重点项目争列工作目标管理。年初下达各县区争列省重点建设项目目标任务，纳入年度考核。实行经济部门项目工作目标管理。在对县区实行项目工作目标管理的同时，将交通、电力、旅游、城建、文物、教育、卫生、文化、水务、农业等部门一并纳入目标管理，按年度下达项目谋划、推进、落实的目标任务。实行市级重点项目择优管理。为引导重点项目建设工作方向，起到导向作用，结合我市实际，制定市级重点建设项目分类标准，筛选一批符合产业政策、有利于结构调整、能够促进产业聚集和园区建设、具有引领带动或支撑作用的项目列为市级重点项目，进行重点扶持、重点推进和管理。实行更加完善的项目考核办法。在原有的重点项目管理考核办法的基础上，进一步加大项目开工率、竣工率和投资完成率的考核力度，以促进项目建设快落地、快建设、快见效，保障投资任务的完成。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>10</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>市政协赴北京廊坊考察乡村旅游发展业态</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2010-05-04</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F5%2F4%2Fart_360_77066.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_77066</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['本网讯 （记者鹏玉）４月２９日至３０日，由市政协主席郑晓东带队的“乡村旅游业态”考察团赴北京、廊坊进行考察。', '考察团一行先后到北京怀柔区桥梓镇凤山百果园、昌平区香堂文化新村、廊坊金丰农业科技园分别就乡村旅游“公司型”、“公司加农户型”、“农户合作社型”、“村委会加公司型”等发展模式及文化新村、创意农业等创新业态进行实地考察。', '４月２７日，考察团在廊坊召开了座谈会，郑晓东在座谈会上讲话。他指出，目前北京已发展１０种乡村旅游业态，市委、市政府对市政协的相关建议高度重视，并认真采纳。目前承德乡村旅游具备相当的优势。承德县的新杖子村、双滦区的东西平台村等在地理位置、种植面积、采摘水平、口碑及发展前景等方面都具备扎实的基础，但承德在发展乡村旅游方面仍存在眼光低、思路窄、方法少、水平低的问题。此次政协将重点扶持发展离市区较近、有一定基础条件的新杖子“农业公园化”旅游、双滦区东西平台村千亩梨花坡的“创意农业”。', '郑晓东强调，在发展乡村旅游上，要把农业业态与城市功能相结合，在面向本地消费者的同时，围绕打造国际旅游城市，扩大发展规模。同时要树立城乡互动发展理念，促进农业产业结构调整。通过学习考察，可以看出农业公园化发展要求采摘品种多、地点多，形成采摘园群体。因此，要根据不同特色，进一步打造、提升，扩大规模宣传；加入科技元素，增强现代感；加强餐饮娱乐水平，提升休闲度假理念，以果香田园为主题，打破行政区划，推动传统林果业转型升级。要强调政府发挥主导作用，规划先行，积极争取项目支持。同时，乡村旅游必须让农民作为参与者和受益者，实现把第一产业的资源转化为发展第三产业的资本，让农民在家门口挣钱，零距离就业。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>10</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>学习求深入实践有成效发展更科学承德县学习实践科学发展观纪实</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2010-02-28</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F2%2F28%2Fart_360_76671.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76671</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 学习求深入 实践有成效 发展更科学——承德县学习实践科学发展观纪实', '从去年３月开始，一场执政理念的深刻洗礼，一场执政为民的生动实践——深入学习实践科学发展观活动给承德县带来了发展的生机，崭新的变化：', '全县上下进一步形成科学发展共识，科学发展思路更清晰；一批制约发展的突出难题得到破解，人民群众得到更多实惠，县域经济持续快速发展。', '理念的变化，激发了前进的动力，生动的实践，化作发展的激情！学习实践活动之所以取得如此成果，关键是坚持了“党员干部受教育、科学发展上水平、人民群众得实惠”的总要求。承德县委组织部长李吉先说：学习实践活动做到了措施实、结合紧、载体新，使得学习求深入，实践有成效，发展更科学。', '学习实践活动开展以来，承德县委把学习实践活动作为当前首要的政治任务和推进全县科学发展的重要契机，用科学发展的理念统一全县党员干部思想，坚持在真学、真懂、真用上下功夫，通过思想的大解放开创工作的新局面。', '为使学习落地生根，承德县丰富学习培训资料，做到内容丰富，适合不同群体。除省市统一下发的书籍资料外，该县辑印市委十二届五次全会文件精神和市委杨汭书记《坚定不移地走出一条符合承德市情的科学发展之路》的讲话１６０００册，精印了刊载活动基本内容的４页明白纸１．８万份，绿色农业栽培管理技术、实用法律法规等各类书籍、小册子１２０００余册，中央党校教授主讲的科学发展观授课系列光盘３４４套，辑印了学习实践活动“调研文集”，编印了科学发展观宣讲培训资料，编印了有代表性和事迹突出单位的经验交流材料，全部免费下发给基层党员使用借鉴。', '发挥“三级党员服务中心”作用，抽调专门人员组建科学发展先进事迹和理论学习、农业科技知识、法律法规、涉农政策等４个巡回宣讲服务团，以“流动党校”的形式，与“万名农村党员培训工程”相结合，为基层提供“菜单”，让各单位“按需点菜”。启动“板城讲堂”并结合假日党校、空中党校、网络党校等形式对参加活动的党员进行全方位、立体式辅导。与此同时，在全市率先推出“新时期党员标准四字歌”、“企业经营管理人才培训工程”与“新农村建设双带头人培养工程”相结合，选派１００名村支书、１００名村主任赴外地学习考察，大力提高基层党员干部的综合素质。目前，已组织各类宣讲培训２６５场次，受众３．３万人次。', '学习实践活动是一次深刻的思想革命，提高了思想境界，深化了发展意识，树立了科学发展的理念。', '开展学习实践活动，重在见实效。力量，在查找差距中集聚；激情，在明确方向中迸发。通过开展深入细致的学习，找到了差距，明确了方向；通过采取扎实有效的措施，着力解决了一批群众反映强烈、影响科学发展的突出问题。', '承德县紧紧围绕活动主题，突出实践特色，自觉运用科学发展观的立场、观点和方法，有的放矢，集中攻坚，解决突出问题，全力应对金融危机影响，确保经济社会平衡较快发展。', '结合保增长为企业解困。制定了促进企业复产、减缓税费、限禁检查、整顿企业周边秩序的政策措施，对重点企业、重点项目实行“一对一”、“多对一”帮扶，深入企业协调解决生产经营中的难题，落实增服务、减负担的各项举措，千方百计保证重点企业正常生产和重点项目建设。', '结合保民生实施五项工程。认真组织实施“民心工程”，总投资近１亿元的县医院整体迁建工程、总投资１８００万元的承希学校建设项目已投入使用。实施“家电下乡工程”，核定并兑付补贴资金５１万元。实施“扶贫解困”工程，资助困难学生４５５０名，筹集捐款７３．３８万元，解决五保供养中心五保户入住难题。实施卫生惠民工程，下拨农村医疗救助金５９．８万元，对５２２户因病致贫家庭实施医疗救助。实施基础设施攻坚工程，新硬化乡村道路３００公里，新建廉租房、经济适用房等保障性住房６．９万平方米，解决了３１个村、１万人的安全饮水问题。', '结合保就业加大服务力度。实施就业再就业工程，解决了２．５万人就业。认真落实“五缓四减三补两协商”优惠政策，对２２家就业困难企业补贴２２８万元，稳定就业岗位１１２９个。开发公益岗位，累计安置就业困难对象１３８０人次。加大职业介绍和劳务输出工作力度，在外务工总量达到７２９５８人。', '结合保稳定化解矛盾纠纷。在新中国成立６０周年大庆之际，进一步加大解决问题力度，集中排查矛盾隐患４次、重点排查６次，排查各类矛盾纠纷４０８件，化解３７９件，实现社会和谐稳定。', '结合抓党建强化基层组织建设。突出活动重点，扎实推进党的基层组织建设。制定印发了《农村党建工作专用经费管理办法》，设立了“农村党员发展基金”，投资近４００万元用于村级组织活动场所建设，完成整顿转化后进农村（社区）党组织２５个，新建非公有制企业党组织２个，分４批次对３３５名新当选的村党支部书记和村委会主任进行了任职资格培训，新发展党员４８９名，累计培训党员５万余人次，培养农村党员致富能手１１０名。', '承德县学习实践活动之所以取得预期效果，关键是特色突出，实践有的放矢，载体新颖有效。该县在坚持高标准完成“规定动作”的同时，精心设计活动载体，丰富活动内容，创新活动方式，做到了“一村一主题、一乡一规划、一单位一载体”。', '在学习调研阶段，开展了“全会精神学习周”、“走访调研周”、“全员调研周”，以行业、系统、界别为单位开展了“学习实践科学发展观，我们应该怎么办”大讨论活动，在全县范围内开展了“千人答题、万人征询”活动，发放答题试卷２８００余份、征询问卷１１０００余份，破除影响和制约科学发展的思想障碍。在事关全县、各行业、各单位怎样科学发展、怎样做到科学发展等重大问题上形成共识。', '在分析检查阶段，开展了“十访两会一对照”活动，开展“调研报告评奖”和“学习实践科学发展观主题有奖征文”活动，大力推进“紫塞先锋”工程和“领头雁工程”，集中开展破解发展难题活动，下力气解决了一批影响力大、涉及面广、关系群众切身利益的大事、难事。', '在整改落实阶段，扎实开展“保、送、转、促”（保增长、送服务、转作风、促和谐）、“三进三送一问”（进百企，进千村，进万家；送服务、送技术、送信息；问践诺）和“办、送、解、促”（办实事、送温暖、解难题、促发展）等活动，确保了整改落实阶段各项任务的高质量完成。结合庆祝建党８８周年、庆祝新中国成立６０周年，重点抓好党的基本理论和知识的学习，广泛开展了“爱国歌曲大家唱”、“主题演讲比赛”等群众性爱国主义教育活动。', '学习，实践，再实践，再学习。独具特色、富有成效的学习实践活动，为科学发展构建了长效机制，学习实践活动综合效应逐渐显现。基层组织建设不断加强，党员思想认识普遍提高，思想进一步解放；科学发展思路得到明晰，全县矿业经济占比逐渐下降，依赖程度越来越小，农业产业化位置逐渐突显，经济支撑多元化对财政收入增长作用明显，全县经济走上更加科学的发展轨道；大量突出问题稳步解决。目前，全县解决突出问题７３３１个；人民群众得到更多实惠。２００９年，县财政用于民生的支出达到９．８亿元，同比增长１１．４％；第二、第三批活动单位共结成帮扶对子１８６２对，为群众办实事好事４９６４件，帮扶落实致富项目４４０个，帮助落实款物折合２１２０万元，办成了一批涉及交通、饮水、就医、就业等方面的好事实事；县域经济结构调整步伐加快。２００９年，三次产业投资分别增长３６．７％、４７．６％、４９．３％，万元ＧＤＰ综合能耗下降５％，万元工业增加值能耗同比下降３５．１％，化学需氧量、二氧化硫排放总量分别下降５％和４．８％。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>10</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>驻市省政协委员考察我市县域经济发展情况</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2010-04-27</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F4%2F27%2Fart_360_77029.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_77029</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['本网讯（记者李海滔、实习生尹丽萍）市政协主席郑晓东４月２５日至２６日带领部分驻市省政协委员赴平泉、滦平考察了解县域经济发展和城镇化建设情况。', '４月２５日下午，考察组一行赴平泉县实地考察了该县城市理念养成基地、菌文化博览中心和契丹文化博物馆、河北金稻田生物科技股份有限公司工厂化杏鲍菇生产科技示范园、承德绿世界活性炭有限公司，重点了解文化与产业结合等情况；４月２６日上午，考察组赴滦平县实地考察了承德三元金星鸭业有限公司、河北滦平华都食品有限公司、承德博亚农牧有限公司、世济医院，了解农业产业化项目和省政协委员建功立业等情况。每到一处，委员们都详细询问企业产品、产量、市场、销售等方面的情况，共同探讨产业发展，并就某些项目的合作达成共识和初步对接意向。', '在考察过程中，郑晓东对平泉、滦平两县科学发展、跨越发展、和谐发展取得的成绩予以充分肯定，指出，委员们通过实地学习考察开阔了眼界，受到了教育，增长了知识，对提高参政议政能力起到了积极的促进作用。他指出，经济危机对我市经济发展带来了不利影响，我们要化压力为动力，变挑战为机遇，加快转变经济发展方式，以推进提高产品的科技含量来提高产品的市场竞争力和企业的国际竞争力，促进规模生产，提高劳动生产率、降低生产成本，推动产业稳步发展。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>10</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>市委书记杨汭等领导赴广东省进行学习考察</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2010-04-27</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F4%2F27%2Fart_360_77033.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_77033</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['在考察中，市领导与广东省三市和中国广东核电集团领导分别就共同合作加快推进承德核电项目、城市建设、开发区建设、旅游产业发展等方面进行了深入对接、交流和商谈，取得了实实在在的效果', '图为市委书记杨汭（左二）等市领导在中广核集团公司领导陪同下到广东岭澳核电站二期工程主控室进行考察。翟礼伟 摄', '图为市委书记杨汭（左二）等市领导在中广核集团公司领导陪同下到广东岭澳核电站二期工程主控室进行考察', '本网讯（通讯员张旭东、记者贾建勇）虽然时间短、日程紧，但内容丰富、涉及事项重大、接触层次高，使这次考察成为一次对标先进、解放思想之旅，成为一次深入对接、加强合作之旅。４月２１日至２５日，应中国广东核电集团公司邀请，市委书记杨汭带领市委常委、市委秘书长阮树平、副市长李维及市国资委、市旅游局、市高新技术产业开发区主要负责同志赴中国广东核电集团总部进行工作访问。访问结束后，先后到广东省深圳市、中山市、肇庆市就城市建设、开发区建设、旅游产业发展等方面进行学习考察。', '广东省中山市市长李启红、肇庆市委书记覃卫东分别会见杨汭一行，并对两市情况进行了全面介绍，广东中山、肇庆和承德三市领导分别进行会谈，就有关工作深入交换了意见。通过这次考察，对标先进发达地区，进一步切身感受到我市在经济社会发展上的差距，同时，也结合承德实际，特别是本着加快推进我市建设国际旅游城市步伐的目的，有分析、有针对、有比较、有总结地实实在在学习了发达地区先进经验，对我市经济社会发展具有重要借鉴意义。', '在中广核集团公司总部访问期间，杨汭与中广核集团总经理贺禹举行了会谈，双方在坦诚、务实的气氛中回顾了承德市与中广核集团在共同开发建设中广核集团承德核电项目中取得的成果，分析了核电发展的形势，并就双方共同加快推进承德核电项目，进一步加强合作深入交换了意见，取得了重大共识，双方表示在此基础上，要进一步加大项目前期工作力度，共同争取国家有关部门的支持。随后，杨汭一行实地参观了大亚湾核电站、岭澳核电站一期和在建的岭澳核电站二期工程，就核电站的工作原理、工作流程以及安全防护等问题进行了详细考察，并与主要工程技术人员进行了深入座谈。杨汭指出，要组织全市市级领导干部分期分批到大亚湾核电站进行学习考察，充分认识核电项目的巨大发展潜力，学习掌握核电基本知识，走出在发展核电项目上的认识误区，在加快推进我市发展核电项目上形成共识。', '在深圳市期间，杨汭一行实地考察了深圳市东部华侨城大型综合性国家生态旅游示范区，并与华侨城公司副总经理彭帮勇就旅游项目的建设开发理念、管理运作模式、景区内演艺文化发展等方面进行了深入会谈。杨汭指出，深圳东部华侨城项目的开发建设以及经营管理的成功经验，对于我市建设国际旅游城市具有很强的借鉴意义。我市的旅游部门要不断深入学习，既要学习整体建设管理模式，也要学习具体操作和运营方法，关键要学理念、学创新、学管理，学以致用，促进我市旅游产业大发展、快发展。', '在中山市，杨汭一行重点考察了城市建设。先后参观了孙文西路文化步行街、商业博物馆、中山市文化艺术中心、孙中山故居和中山市火炬开发区国际会议中心、工业产品展览馆、电子信息工业园区以及明阳风电公司。杨汭指出，中山市火炬开发区的快速健康发展，为我市开发区的建设发展提供了宝贵经验。在今后的工作中，要不断加强两地开发区之间的合作与联系，通过学习先进经验不断提高项目运作的能力和水平。要高起点规划，高标准建设我市高新技术产业开发区；市高新技术产业开发区要组织机关干部到中山市火炬高新技术产业开发区进行学习考察，并安排一定数量干部进行挂职锻炼，不断提高我市高新技术产业开发区的干部队伍素质和水平。', '在肇庆市考察期间，杨汭认真听取了肇庆的经济社会发展情况介绍，先后参观考察了十研堂——国家级制砚大师艺术馆、七星岩风景区，就景区的管理体制、运营模式与主要领导进行了深入交流，杨汭指出，肇庆市和承德市都是历史文化名城，在经济社会发展等方面具有很多相似之处，两市合作空间很大，今后要不断加强两市在更高层次、更深领域的交流合作，学习肇庆市在文化产业和旅游产业发展上的先进经验，充分挖掘历史文化，促进我市文化产业发展和旅游产业跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>10</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>承德市政协年工作综述</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2010-01-23</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F1%2F23%2Fart_360_76489.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76489</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['本网讯 市政协十二届二次会议以来，提案委员会共收到提案344件，经审查归纳合并后，立案269件。提案经51个承办单位办理，产生了明显成效，为推动我市科学发展、促进社会和谐做出了重要贡献。', '在经济建设方面，委员们以促进发展为第一要务，围绕加强和改善宏观调控、推动区域经济社会协调发展、加强城镇化建设、优化发展环境、促进农业农村发展、增加农民收入、谋划水资源战略、矿产资源有效管理等问题提出意见和建议。在教科文卫体方面，主要围绕加大科技投入，发挥科技优势、大力发展文化产业，提升教学质量、加强文化遗产保护、深化医疗卫生改革步伐等方面提出意见和建议。在和谐社会建设方面，提案主要围绕规范社区建设、食品安全、就业、完善社会保障、拓宽就业渠道、构建和谐医患关系等方面提出意见和建议。实践证明，政协提案已经成为人民政协履行政治协商、民主监督、参政议政最广泛、最直接、最有效的一种方式。', '市委、市政府、市政协领导高度重视政协提案，要求各承办单位认真办理，注重落实。并尝试市政府领导及市直部门“一把手”重点提案“领办制”。截至2009年12月30日，提案已经全部办复。', '（一）健全办理机制，着力增强办理实效。在提案数量持续增加的情况下，坚持分出层次，突出“精品”，尝试市政府领导和部门“一把手”领办重点提案，以此推动整体办理质量的提高。一是加强重点提案的促办工作。二是加强督办的调查研究工作。三是推动承办单位与提案者加强沟通协商，督办活动中通过与承办单位协商，选择部分提案请提案者介入到办理之中。', '（二）采取有效措施，努力提高提案质量。为使委员提出高质量提案，市政协常委会把提高提案质量作为着力点，在各个环节采取措施：一是做好服务工作。二是发挥典型示范作用。三是严格把好提案审查立案关。四是严把确定承办单位关。', '（三）共同协调联动，多渠道发挥提案作用。提案工作是一项具有全局意义的工作。为了更好地开展提案工作，发挥其作用，大会后一是将全会提案目录及重点提案内容，及时印送，供领导了解政协提案情况。二是将提案全部题目及督办重点分送政协各专门委员会，作为督办提案和调研时参考；三是按照分工将提案分别提供市政府领导阅示，掌握相关部门情况。四是采取多种方式，加强与新闻媒体的联系，积极宣传报道提案工作，进一步扩大提案工作的社会影响。', '新的一年里，提案委员会将按照科学发展观的要求，把解决当前突出问题与建立长效机制紧密结合起来，在广泛征集提案的基础上，继续发扬改革创新精神，扎实有序地推进提案工作。', '本网讯 2009年，市政协财经委在政协常委会和主席会议的领导下，认真履行职责，开拓进取，各项工作取得新进展，为促进我市经济又好又快发展，构建和谐承德做出了新贡献。', '一年来，市政协财经委组织4次调研。其中，全市工业企业技术改造与技术创新调研活动历时两个月，调研组先后深入到双滦、承德县两个工业园区及承钢等7家企业进行调查，并赴四川攀枝花市就钒钛资源综合利用情况进行了学习考察，形成的《选准产业调整动作，强化科技支撑力度，尽快提高我市钒钛资源综合利用水平》的调研报告，提出了四条具体建议。该报告经市政协第十二届第七次常委会会议审议通过，为市委市政府科学决策提供了参考。《关于实行政企联动，帮扶中小企业共渡‘经济严冬’的四点建议》、《关于统筹考虑颈复康药业集团公司和华北制药天星公司改革、发展、动迁、建设相关问题的建议》及《关于在建筑设计、施工监理、竣工验收环节全面落实“禁实”规定，着力推广使用新型建材的建议》等三个调研报告，所提建议得到了市委市政府领导的重视，批示有关部门研究参考。', '2009年11月下旬财经委组织部分委员对我市设施农业发展情况进行了视察。先后深入平泉县和市蔬菜研究所实地考察了设施农业发展情况，参观了市农业科技成果展。委员们对我市设施农业发展取得的成绩给予了充分的肯定，建议总结推广平泉经验，进一步加大工作力度，扩大规模、优化产品结构、搞好精深加工及推进产业化经营进程，促进全市设施农业快速、健康、安全发展。', '一是组织部分联谊会会员赴北京、西藏、日本及韩国学习考察，取得较大收获。二是积极配合市金融办举办了银企对接(民营专场)贷款签约会，共有6家银行与16家民营企业签订了3.39亿元的贷款协议。三是连续第六年开展资助承德二中希望班贫困生活动，2009年新增资助生34名，资助标准由每生每年1000元提高到2000元。', '本网讯 2009年，社会和法制委员会紧紧围绕市委、市政府中心工作，立足专委会自身优势，始终把关注民生，促进社会和谐稳定作为参政议政履行职能重点，先后就养老服务产业、社区建设、完善社会保障体系等热点、难点问题开展了一系列调研、视察活动，取得了较好的参政议政效果。', '随着我市城市经济、社会快速发展，社区建设正处在一个重要发展阶段。2009年年初，专委会积极组织委员对全市社区建设情况进行专题调研，形成了《对我市社区建设的思考与建议》的市政协十届二次全会大会发言。会后，提交了《关于在现有基础上抓好我市社区建设的建议》的专委会集体提案，被列为市政协年度重点督办提案。 2009年7月底，在陈树峰副主席带领下，对相关部门办理落实提案情况进行跟踪视察，并形成了《关于我市现阶段推进社区建设工作急需关注和应解决的几个问题及建议》，提交市政府，引起市领导重视。张古江市长批示：“市政协所提问题和建议应予重视并切实解决、采纳。第一，要落实社区建设的主体，区政府负责；第二，市直有关部门（规划、建设、民政、财政）等部门要予以支持；第三，转发三区和市直有关部门阅研。”并在去年11月底市委起草的《关于进一步加强我市社区建设工作的实施意见》中认真采纳了政协建议。', '开展城镇居民基本医疗保险是完善社会保障体系、推进小康社会建设、构建和谐社会的重要举措。去年10月份，专委会就此议题组织委员先后深入双桥区潘家沟街道办事处、市民族师专附中、市城镇居民医疗保险中心等单位实地视察，详细了解情况，针对工作中遇到的有关问题进行了认真研讨，形成了《关于积极推进我市城镇居民基本医疗保险制度建设的五点建议》，以市政协专报形式报市政府，引起高度重视。', '本网讯 2009年，教科文卫体委员会紧紧围绕市委、市政府的中心工作，选准角度，突出特色，履行专委会职能，组织和引导有关委员、社会各界人士，围绕乡村旅游、教育均衡发展等问题开展调研和跟踪调研，与兄弟委员会和有关艺术团体联合组织专题书画展，编辑出版《承德市政协书画文集》，为构建和谐承德做出了贡献。', '推进“市区中小学教育均衡发展”是市政协去年的重点议政课题，为进一步督促建议的落实，10月底，教科文卫体委对《在城镇面貌“三年大变样”中同步推进市区中小学教育均衡发展的建议》落实情况进行了跟踪调研。市教育局对市政协的《建议》和跟踪调研非常重视，主要领导亲自通报了我市制定实施《双桥区中小学校布局调整二期规划》情况和对政协《建议》贯彻落实情况，并向市政协报送了《承德市教育局关于落实政协承[2008]6号&lt;建议&gt;情况的报告》。从三个方面全面反馈了市区中小学教育均衡发展布局规划情况，加大了市政协专题调研成果在行政运行中的作用。', '为庆祝新中国和人民政协成立60周年，由专委会牵头和兄弟委员会承办了承德市各界人士庆祝“双六十”书画展。经过征集、初选、评选、入展四大步骤，共征集书画作品316件，展出作品 161件，有36件作品分别获国画、书法一二三等奖。书画展呈现出征稿范围广、作品数量多、各界代表性强、艺术水平高的特点。展出期间约有4000多人次参观展览。还共同完成了《承德市政协书画文集》的编辑出版工作。', '针对我市旅游管理体制机制方面的问题和在城市建设三年大变样建设中加强公益文化设施的建设问题，专委会撰写了《关于尽快组建“承德旅游文化集团”的建议》，《关于我市图书馆、群艺馆新馆建设有关问题的建议》的集体提案。《关于我市图书馆、群艺馆新馆建设有关问题的建议》引起市政府主要领导重视，批示“规划出选址意见，争取列入明年任务盘子”。在委员提案方面，教科文卫体和旅游方面的提案93件，占提案总数的31%。在市政协主席会议确定的5件“一把手督办提案”中，张学军、侯青林、王承阳委员的3件提案被列为重点督办提案，张铁民、郭靖涛、路喜存、成玉等一大批委员的提案引起市政府领导和有关部门的高度重视。', '本网讯 2009年，市政协人口资源环境委员会在常委会会议、主席会议的领导下，深入贯彻落实科学发展观，围绕市委、市政府“科学发展、富民强市”的战略目标，以促进我市人口、资源、环境协调发展为重点，认真履行专门委员会的职能，组织委员积极提交提案、开展调研和视察活动，加强专门委员会的自身建设，使专委会参政议政能力和工作质量有了新提高。一年来，共提出提案23件，开展专题调研5次，专项考核1次，联谊活动3次，较好地完成了年初确定的各项工作目标。', '一是认真进行“水资源战略”调研。与市民盟、九三学社、市水务局就“谋划我市‘水战略’，树立全民‘水意识’”的相关课题联合进行了调研，调研成果被作为十二届市政协第二次全体会议大会发言，在全会上建言献策，得到市委、市政府领导的重视。二是积极参与“乡村旅游”调研。2009年6月份至9月份，参与了发展乡村旅游专题调研，完成了《发展乡村旅游各级政府应做些什么》的报告，在2009年9月份召开的十二届市政协第八次常委会会议上作了主题发言，得到了市委主要领导的肯定。三是对城市绿化、沼气建设等工作进行调研。4月份，组织部分常委、委员对城市周边绿化工程进行专题调研，向市政府提出了《关于认真落实〈全民义务植树条例〉，广泛深入开展全民义务植树活动的五点建议》。7—9月份，组织部分常委、委员就沼气建设情况进行调研，形成了关于我市农村沼气规划、建设和使用管理工作方面的建议,拟在市政协第三次全体会议上建言献策。四是对全市矿山生态环境治理调研成果进行跟踪调研。为了落实市委、市政府领导对市政协《关于加大矿山生态环境综合治理力度，加快绿色矿山建设速度的五点建议的报告》的批示精神，通过指定相关职能部门进行专题汇报、对主管部门进行登门走访、咨询等方式，对全市矿山生态环境综合治理进行了跟踪调研，了解、掌握了相关工作的进展情况，并提出了继续抓好矿山综合治理的意见、建议。五是按照市政协主要领导的指示，5月份组织部分委员就潘家口水库环湖游项目进行座谈，向市领导报送了《怎样把潘家口水库环湖游项目切实谋划运作好的建议》。', '本网讯 2009年，文史委积极探索“开门办文史”的新路径，使工作领域不断延伸，较好地完成了年度的征集资料、编辑专业书籍以及开展相关题目调研、组织委员履职“两大任务”。', '1、编辑《河北文史资料全书·承德卷》。出版《河北文史资料全书》，是河北省政协纪念文史工作开展50周年、展示文史成果的一项重要工作。从3月下旬开始，市政协文史委在认真学习研究《河北文史资料全书》编辑方案的前提下，集中精力对所选文稿实施编辑。经过文字扫描、识别、校对、整理、编辑，以及遴选图片、图片扫描处理和制作等程序，最终编辑定稿，并已处理成电子文本。《河北文史资料全书·承德卷》共7编、250万字、 460篇文稿、600余幅图片。', '2、参与协作工程、承担《河北人文精神丛书》的组稿。《河北人文精神丛书》中的《峰火作家群》、《情系古遗产》和《劳模追踪》3卷涉及承德。根据《征编大纲》要求，在全面的摸底后，适时开始了征编工作。目前，《情系古遗产》一书的相关稿件已依据编辑方案要求，着手组织撰写。其余两卷业已征集基础资料，正等待编辑方案下达再行撰稿。', '3、征集资料、初步梳理《承德文史》第八辑拟选稿件。年内，对所征集到的资料，按“古史考辩”、“文化遗产”、“往事追踪”、“人物春秋”等栏目进行了初步梳理，初选稿件已有40万字。同时，征集了10万字和千余幅相关资料，进一步丰富了资料库存。', '4、开阔视野，积极探索“开门办文史”新路径。结合专业特点，围绕市委、市政府重点工作组织委员调研视察。一是档案工作视察。组织新老委员先后视察了围场县档案馆新馆建设、县档案馆馆藏档案、县法院办结案件档案、县民政局民生档案和市档案馆“照片资料库”、“社科成果库”、“侵华日军罪证资料库”、“珍贵影像纪录片库”4个专项档案库库存档案。视察后，形成了两期《政协专报》。二是博物馆布展内容与运营方式考察。按领导的安排，组成专题调研组，到北京对首都博物馆、中国国家博物馆和军事博物馆等进行了实地参观考察。撰写了《关于借鉴首博经验搞好承德博物馆的布展与运营管理的建议》，报送市政府有关领导参阅。', '5、组织联谊活动，增强专委会凝聚力。先后组织委员参观考察了承德一中新校区、参观考察了普陀宗乘之庙日军刻字墙和避暑山庄永佑寺陆合塔日军刻字等活动。通过开展活动，丰富并活跃了委员会的工作内容，加深了委员间的联系与沟通，进一步融洽了大家的感情，增强专委会凝聚力。', '本网讯 2009年，港澳台侨联络委员会、民族和宗教委员会，紧紧围绕全市的中心工作和市政协总体工作部署，始终牢牢把握各民族“共同团结进步，共同繁荣发展”和“推进祖国和平统一大业”的工作主题，坚持以促进社会和谐稳定的参政议政为工作重点，充分发挥专委自身优势，积极开展调研、考察、视察、扶贫等活动，取得了明显的成效，较好地发挥了职能作用。', '紧密结合新形势、新任务，先后组织委员学习胡锦涛总书记在人民政协成立60周年大会上的讲话和《中华人民共和国民族区域自治法》、《河北省实施（中华人民共和国民族区域自治法）若干规定》等文件精神；就新疆“7.5”严重暴力犯罪事件、建国60周年、人民政协成立60周年和香港澳门回归祖国进行座谈；先后组织开展人民政协知识和民族、宗教、对台、侨务政策答题活动、“宗教为经济社会发展发挥积极作用”活动和“建功立业”活动。在专委会委员中，以践行科学发展观为主题，开展了“进一言，献一策”征求意见、建议活动。同时大力开展专题理论研究和调研活动，先后组织撰写6篇研讨文章参加省政协、省委宣传部和省民宗厅联合组织召开的“发挥宗教积极作用，促进社会和谐发展”研讨会，被选中5篇。其中2篇作为研讨会重点发言。', '1、以贯彻落实《中华人民共和国民族区域自治法》为重点，先后组织开展了“民族县参照自治县有关待遇的延伸问题”的专题调研、研讨活动，会同市人大组织开展迎接省人大、省政协到我市就《中华人民共和国民族区域自治法》和《河北省实施（中华人民共和国民族区域自治法）若干规定》贯彻落实情况进行执法检查和视察活动，针对市县在贯彻落实“一法一规”中存在的问题，提出了意见及建议。同时会同省政协民族宗教委员会就《关于我省民族乡经济社会发展情况》开展调研，结合我市实际，对如何促进少数民族地区更好更快发展，提出了各级政府要进一步完善支持民族地区发展的措施以及进一步加强现场办公和对口帮扶制度，逐步增加民族乡特殊经费和补助金等意见和建议，得到了省政府采纳，将民族乡的补助金由过去的3万元增加到6万元。十二届二次全会上，《关于继续坚持和完善市、县政府对民族乡现场办公制度》的提案，得到市民宗局的重视，制定了市、县对民族乡继续实行现场办公的落实意见。《关于提高农民科技素质加强农民技能培训》的提案，被市农业局采纳，举办农业实用技术培训班。', '2、以应对金融危机，为我市经济平稳较快发展服务为重点，适时组织专委会委员到承德钢铁公司开展了“应对金融危机，树立坚定信心 ，促进企业发展，积极作出贡献”的调研活动，使委员们统一了思想，鼓足了干劲，汇聚力量。为推动我市企业进一步发展创造了条件。', '3、以扩大开放、引资引智为重点，积极参与和开展旅游产业发展情况考察、调研活动。在省政协港澳委员和香港环渤海五省市社团考察团来我市参观考察旅游产业发展情况活动中，在主席和主管主席的领导下，精心筹划、主动作为，积极争取相关部门的支持和配合，并结合考察团对承德的旅游产业发展提出的意见和建议认真总结，向市政府提交了《关于省政协港澳委员和香港环渤海五省市社团对承德旅游产业发展情况的报告》以及17条意见和建议被市政府采纳，使这次考察取得了圆满的成效。同时，对外广泛联谊，先后周密接待广东海外侨胞考察团、台湾大陆商务中心股份有限公司考察团，市委、市政府相关部门联系，为推介承德、为服务我市经济建设搭建了平台。', '以加强宗教场所有效管理，促进宗教活动有序、健康、正常开展为重点， 先后对我市、县宗教活动场所建设情况开展了视察活动。对新建的活动场所提出了在保证信教群众进行经常性宗教集体活动的同时，要融旅游观光、标志性建筑为一体的综合功能的建议，被民宗部门采纳，市天主教堂、市基督教堂将于明年投入使用。在接待了北京市政协民族和宗教界上层人士来承德考察活动，联合举办了书法笔会和座谈交流会，邀请市委统战部负责同志作“康乾盛世成功的民族政策和重大历史事件”情况介绍，得到了与会同志和宗教界人士的高度评价。', '以面向农村、服务社会为重点，在省政协的帮助和支持下，积极争取省政协港澳委员扶贫捐资助教资金，在宽城满族自治县修建了柳树底下中心小学学校和板城中学宿舍楼。此项活动的开展，推动了县财政教育配套资金向偏远落后农村乡镇学校转移。', '按照省政协港澳台侨和外事委员会的要求，我专委还对2009年承德市农村归侨侨眷遭受旱灾、风雹等自然灾害受灾情况进行了调查统计，对受灾严重、经济状况差的归侨侨眷情况上报省政协港澳台侨和外事委员会，争取给予支持和帮扶。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>10</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>为科学发展富民强市建真言献良策市政协年工作综述</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2010-01-20</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F1%2F20%2Fart_360_76479.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76479</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 为“科学发展 富民强市”建真言献良策——市政协2009年工作综述', '２００９年，面对危机和挑战，市政协常务委员会按照中共承德市委“保增长、调结构、强基础、惠民生”的总体部署，一方面动员组织广大政协委员特别是经济界委员积极应对各种困难和挑战，恢复生产，发展企业，致力于保增长，同时又紧紧围绕涉及我市长远发展和关系民生的重大问题开展系统调研，从大处为调结构、惠民生献策；另一方面，努力把政协委员调研视察的过程变成细化市委、市政府决策，总结基层经验，完善相关举措，推动工作落实的过程，为促进我市“科学发展、富民强市”做出了应有的贡献。', '同时，多方探索提高政协视察调研水平的具体形式，推动政协议政成果不断转化落实。一是发挥政协委员群体智力优势，一次调研视察形成多项议政成果。如去年４月份进行调研视察过程中除重点研究钒钛产业、养老服务产业发展问题外，还向市委、市政府报送了《关于在谋划推进市区企业外迁时统筹考虑颈复康药业集团公司和华北制药天星公司改革、发展、动迁、建设相关问题的建议》等３份专项建议，均被市委、市政府主要领导和分管领导批转有关方面研究落实。二是知行并举，尝试市、县区、乡、村四级联合考察调研。在去年６月开展的京承乡村旅游考察调研中，组织各县区政协副主席、１１个乡镇的政协联络员或党政负责人、１３个乡村旅游重点村干部代表，历时６天，行程２０００余公里， 赴京承两地２２个乡村旅游典型村进行了对比性学习考察，使县、乡镇、村三级干部既看到了与先进地区的差距，学到了发展乡村旅游新业态的新鲜经验和做法，又推动他们将学习成果转化为加快发展乡村旅游的实际行动。三是对上年调研视察的部分问题实行跟踪调研，推动工作落实。如，围绕加强社区建设问题，不仅在十二届二次全会安排了大会专题发言，还在对市区社区建设情况进行跟踪调研基础上，又向市政府提交了《关于我市现阶段推进社区建设工作急需关注和解决的几个问题及建议》，市长张古江批示转发三区和市直有关部门阅研。', '试行重点提案“领办制”，探索“开门办文史”，是去年政协提案和文史工作创新性的实践并初步取得良好效果。去年，在继续调动政协委员和政协参加单位深入基层调查研究撰写提案积极性的基础上，自觉转变提案工作思路，把由市政协主席、副主席和专委会督办重点提案改为试行由市政府分管副市长和部分市直部门“一把手”领办。“城管体制改革”、“承德水资源战略”等重点提案都取得良好效果。“开门办文史”赋予了政协文史工作新的活力，并形成多项议政成果。如市委、市政府两办根据市政协《关于在市政府机构改革前加强档案管理工作的意见》下发了《关于在政府机构改革中加强档案管理工作的通知》；向市政府提交的《关于借鉴首博经验搞好承德博物馆布展及运行管理的建议》，受到多位市委、市政府领导的好评并批示要求有关部门认真研究这份《建议》中提出的有关问题。坚持统筹兼顾，认真做好民族宗教、港澳台侨等履行职能的其他工作和基础性工作。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>10</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>承德市供销合作社关于组织学习转型突破天地宽来自围场县新拨乡综合服务中心的调查的通知</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2009-10-19</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2009%2F10%2F19%2Fart_9945_197904.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_197904</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['承德市人民政府 领导活动 承德市供销合作社关于组织学习《转型突破天地宽—来自围场县新拨乡综合服务中心的调查》的通知', '承德市供销合作社关于组织学习《转型突破天地宽—来自围场县新拨乡综合服务中心的调查》的通知', '市委研究室9月份对围场县新拨乡综合服务中心进行了全方位调研，撰写了题为《转型突破天地宽—来自围场县新拨乡综合服务中心的调查》，市委书记杨汭，市委常委、宣传部长、农工委书记刘学军两位领导近日分别做出重要批示，对新拨乡综合服务中心实现了从传统供销社向以“合作”为标志的综合服务中心转型，给予了充分地肯定，并对全系统的工作提出了新的希望和要求。市社要求全系统的广大职工要在认真学习借鉴新拨乡综合服务中心的经验的基础上，全面认识和拓展市委领导批示精神，并以此为契机，解放思想，拓宽视野，立足当前，着眼长远，推进各项工作的开展。要在确保全面完成年度工作目标的基础上，立足优势，突出特色，打造亮点，培育典型，重点突破，带动全局，谋划好今后一个时期的全面工作，在此基础上尽快向县委、县政府汇报各自的具体工作思路和实施意见，并加大力度，强化落实，使全系统的整体工作上位次，特色工作出精品，为全市新农村建设做出出色的贡献。', '在体制转轨、经济转型大潮的冲击下，众多供销社昔日“一枝独秀”的风光已不复存在，有的惨淡经营，步履维艰；有的改制买断，人去楼空；有的债务沉重，资不抵债……而在围场县新拨乡综合服务中心（以下简称“新拨中心”），却是另一番生动景象：楼房崭新艳丽、市场整齐宽敞、交易繁忙有序，下棋的悠闲自在、看书的怡然自得、配货的忙个不停……这里呈现的生机与活力，与其它日益衰败的基层社形成了鲜明对比，成为新形势下供销社转型升级、服务三农、科学发展的新模式、新亮点。', '“新拨中心”地处围场县新拨乡核心地段，原是新拨乡供销社的一个老院。县供销社主任郎凤玉形容创办之前的情况说，“职工都下岗，一个主任守个空院子、拿个空章子、围着空桌子、留着库房的空架子。外欠银行贷款60多万元，银行曾一度要以此院抵押还贷。”到底是“弃”还是“保”？又怎样“保”？县供销社一班人面临着抉择。经过深入调研、外出学习考察，他们对近几年农村形势发生的新变化和农民对生产生活的新需求有了更深刻认识，下决心要把新拨这个全县保存最完整的老供销社留下来。2007年，县供销社将改制后剩下的9亩老院，加上征用4户农民3.5亩院落，共计占地12.5亩，规划建设了建筑面积8048.42平方米的综合服务中心，2008年5月22日交付使用。在中心创办过程中，面临最大的问题就是近790万元的工程投资还没落实。为筹措这笔巨款，县供销社想尽了一切办法。其中职工改制安置费直接转为股金130多万元、以县城供销商场抵押向信用社贷款150万元、发动职工集资100多万元、底商出售融资240多万元、县社资产管理公司投资160多万元。', '“新拨中心”的定位不同于农村基层普通服务网点，其特点就在于面向农民、服务农村，既有商品经营，更注重公益服务。中心容纳固定商户32家，设立市场摊位100个。主要业务按性质可分为经营性服务和公益性服务两大类。经营性服务除提供日用品、农资、家具、家电等基本消费，还包括医疗、餐饮、修理、洗浴、摄影、理发、通信、储蓄等综合服务。公益性服务包括“引市进院”的集贸市场、戏台和礼堂、信息发布厅和触摸式信息查询机、娱乐健身室、图书阅览室、法律事务所等。“新拨中心”囊括了农民日常生产生活的各方面需求，已经成为新拨乡的贸易中心、科技传播中心、文化中心和娱乐休闲中心。', '“新拨中心”的发展定位决定着其必需采取市场化、松散型的运行机制，呈现“公益服务＋自主经营＋招商管理”的独特管理模式。中心高级管理层设主任、副主任、财务、物业4个岗位。基本运营层分公益服务管理、自主经营管理和招商经营管理三大块：一是公益服务管理。均是无偿使用、专人管理。其中，戏台、棋牌室、图书室由1名乡退休干部义务管理；聘用４人负责科技厅的科技宣传、信息查询、测土施肥配方等工作；在农贸市场聘用2人清扫卫生、1人管理市场。二是自主经营管理。由内部4名下岗职工承包经营肥料、种子、农膜等农业生产资料和农产品收购。三是招商经营管理。出租32处底商，按计划引进经营性服务项目，商户自负盈亏、自主管理。', '“新拨中心”运营一年多来，取得了较好的社会效益和经济效益。开展各类培训4 场次，接待信息咨询3000人次，代办服务1210 件，组织文体活动、演出39场次，开展志愿服务16次，调处矛盾纠纷34起；2家专业合作社、30多户经纪人依托中心开展业务，组织大型交易活动16次，年实现交易额上亿元，安置就业220人；中心农资销售和农产品收购经营收入400多万元，年缴税金50多万元；中心自身年收承包费15万元、出租收入20.8万元，除支付聘用人员工资、水电费外，盈余30多万元。', '——活跃了农贸市场，解决了农民“卖难”、“买难”问题。通过“新拨中心”这个综合购销平台，实现农民日用消费品、农业生产资料与农副产品的双向流通，农民消费更便利、更放心、更实惠，增收更及时、更快捷、更顺畅。', '——建立了文化阵地，丰富了农民文化生活。中心的文化演出，既吸引了外来演出团体，也带动了本地群众主动参与、自娱自乐的积极性；科技知识的宣传推广，解决了农民生产生活中的“疑难”问题，文明乡风悄然兴起。', '——化解了矛盾，融洽了党群干群关系。通过规范管理，净化了当地农村市场，维护了经营秩序，避免了商户间的抢摊占地纠纷；农闲和茶余饭后，农民可以到服务中心看书、上网、听戏、洗澡、玩棋、健身。农民业余生活充实自在，社会稳定了，政府与百姓的关系更融洽了。', '——取缔了马路市场，缓解了交通压力。“新拨中心”的建成，使集贸市场进院，商户摊点进场，马路市场不见了，多年的占道经营问题得到解决，周边环境得到了优化。', '曹旭永，新拨乡党委书记。他说:“新拨综合服务中心的建成，解决了多少年来政府想办，又办不好、办不了的事。尤其是有些政府部门想办的公益服务项目，单靠哪一个部门都会受到制约，也很难办到。‘新拨中心’利用现有优势，一家搭台、多家唱戏，最终把这个惠民项目建成了。”', '王华庭，52岁，代尹下村农民，已组织唱戏14年。对中心带来的变化感触颇深。他说：“原来是站没站的、坐没坐的，演员没场地、群众不愿来。现在中心建了戏台，组织唱戏、放电影，方便多了，即使下雨也不影响，群众冒雨也愿意看。”', '王亚学，29岁,新拨村农民，经营农用车修理。他说，“原来修车在路边，搭个简易棚，十天有八天没事干，一年收入也就1万多元。搬进中心后，雇了两名维修工人，条件好了、环境好了，顾客感觉规范，信誉可靠，喷漆、维修的一个接一个。刚一个多月，就挣了1.5万元，估计今年能挣8、9万元。”', '卜玉祥，55岁，原新拨供销社下岗职工，在中心租了90平方米店面，担任中药材等农副产品购销经纪人。他说：“镇里建了服务中心真是大变样了，胡萝卜需要追肥，一个电话就送到地头；过去俺们很多东西都要到县城去买，现在不出村就能买到，还有质量保证。有了中心的信息支持，农副产品的销售渠道一下子就多了，再也不愁没销路了。”目前他已有10多个固定大户，每年交易量由原来的几吨提高到上百吨，收入也由原来的几千元，增加到6、7万元。', '思考之一：涉农服务组织要在新农村建设中有所作为，必须转变观念，适应时代发展潮流。改革开放以来，供销社系统的形势已经发生了根本变化。在系统内部，随着市场经济体制改革的不断深入，供销社的垄断经营地位受到了巨大冲击，绝大多数员工自谋生路，县以下基层社几乎名存实亡，未来发展面临挑战；在系统外部，供销系统所服务对象的需求也发生了巨大变化，呈现出农民对致富增收有了更高期待，对精神文化生活有了更高追求的“两高”趋势。供销社原有的职能已经不能满足农村日异发展的现实需要。改制以后，供销社何去何从的问题，非常现实地摆到人们面前。“新拨中心”的实践说明，“等、靠、要”没有出路，要发展绝不能走老路。只有以改革创新的精神，适应新形势，满足新要求，建立新机制，探索新途径，谋求新发展，真正在农村这块阵地上有所作为，才能实现自身存在的价值。这是新拨中心成功运作留给我们最深刻的思考。', '思考之二：涉农服务组织要在新农村建设中履行好服务职能，必须扎根农村，服务农民。供销社根在农村，本在流通，服务和发展离不开“三农”。承德有4万平方公里的广阔地域，农民居住相对分散，存在“买难”、“卖难”问题。同时文化生活贫乏、单调。“新拨中心”在选址、功能设置到提供服务，都充分考虑到方便群众生产生活这个基本要求，做到了以服务群众为中心，在推动发展、促进和谐等方面发挥作用的渠道进一步拓宽，服务质量不断提高，受到了农民的欢迎。“新拨中心”的实践说明，只有牢固树立“为民服务”理念，工作重心沉下去，转移到服务“三农”上来，供销社等组织才能真正成为推动农村发展、富民增收的主阵地，成为团结、凝聚党员干部群众的“和谐家园”。', '思考之三：涉农服务组织在新形势下发挥好作用，必须把服务社会主义新农村建设作为出发点和落脚点。“新拨中心”以便民、利民、安民为目的，整合医疗、购物、文化教育、科技传播、农业生产等各方面资源，对原本分散的政策、项目、投资和服务等实行有计划的集中调配，解决了群众最需、最急、最盼的问题，这是社会主义新农村建设的题中应有之意。“新拨中心”的实践说明，只有落脚于社会主义新农村建设，才能融入地区发展“盘子”，使供销社等服务组织的经营服务成为人民群众满意工程，才能在农村有市场、有需求、有竞争力。', '思考之三：涉农服务组织在新形势下发挥好作用，必须把服务社会主义新农村建设作为出发点和落脚点。', '思考之四：建好村镇综合服务中心需要政府主导，多元参与，形成合力。“新拨中心”的建成运转在规划、选型、定位及启动资金、贷款协调等方面得到了市供销社的指导支持外，还得益于县委、县政府的高度重视、扶持，县直有关部门也给予了积极的扶助和配合。“新拨中心”的实践说明，如果没有党委、政府和相关部门的大力支持、配合，供销社等服务组织要完成系统、综合、配套的服务平台建设，是难以顺利进行的。只有相关部门齐抓共管、形成合力，有些具体问题才能得到及时解决。', '一是盘活资产，加快推进基层供销社转型。目前全市还有基层供销社104个，已建立综合服务中心的有60个，建议彻底摸清剩余44个基层社的底数，对地理位置优越、经济相对发达、市场有需求、开发有预期的基层社，盘活闲置资产，借鉴和推广“新拨中心”模式，用全新理念和机制创建综合服务中心，重构服务三农的新平台。', '二是给予必要的政策资金支持。建议对不具备建设条件的乡镇，给予一定的财政补贴，或以奖代补。借鉴邯郸武安的做法，政府按工程造价的30%投入资本金，组织供销社、商务局、发改委等涉农部门参与，吸纳多种资本，保证文化娱乐等需要“搭钱”的公益项目的投入。', '三是鼓励更多的服务主体参与建设。积极组织农技、农机、医疗、保险、通讯、文化等其他涉农主体参与村镇综合服务中心建设，或者直接兴办、委托代理，以及多个主体共同兴办，真正形成为农服务综合体，形成扎堆效应。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>10</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>以开放的思维招商的实效加快建设国际旅游城市步伐</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2010-01-04</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F1%2F4%2Fart_360_78371.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_78371</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['国际旅游城市是具有国际影响力、吸引力、聚集力和知名度的旅游目的地城市。国际本身就体现着开放性特点和世界眼光。开展“四大一推一建”活动，其中之一就是要通过创新突破的大招商，进一步强化开放意识，提高开放水平，以更深邃的世界眼光、更开阔的国际视野、更睿智的战略思维来定位承德的未来发展，以扎实的举措和优良的环境，激发市内外生产要素的活力，形成建设国际旅游城市的强大动力。', '不开放不行，放弃了开放就等于放弃了发展；不大力度开放也不行，减小了开放力度就等于延缓了国际旅游城市的建设进程', '承德能有今天的发展成就，得益于开放。站在新的历史起点上，建设国际旅游城市，谋求承德更大发展，更需要强力推进大开放，促进大招商。这是当前最为重要、最为突出、最为迫切的任务。既是政治责任，又是发展需要；既是时代潮流，又是人民期盼；既具备现实基础，又面临难得机遇。其一，顺应城市的发展规律。凡是国际著名的旅游城市，都是开放的城市；凡是旅游业发达的城市，都是资金、信息、技术等生产要素高度聚积的城市。承德这座城市因避暑山庄而建而兴，因康乾盛世对塞外的土地开禁、开放开发而发展。所以，承德从一开始就是一座开放、包容的城市。今天，打造“精致、独特、典雅、生态、宜居、宜游”的城市特质，推进国际旅游城市建设，既要依靠全市上下的不懈努力，更要遵循城市发展的一般规律，顺应各类市场要素向城市流动的趋势，实现优化配置和战略重组，形成资本聚集“高地”，让战略投资者“进得来”，让优势企业和产品“走出去”，参与全球竞争，才能提高城市经济整体活力，真正推动国际旅游城市建设。其二，拥有无比广泛的合作领域。承德发展休闲旅游是老祖宗所留、大自然所赐、区位所赋和时代发展所需。特别是毗邻京津的区位优势和良好生态环境本身就是一块金字招牌。若不能以更大的力度推向世界，就会辜负大自然的馈赠和祖先留下的丰富遗产，必将丧失一次难得的发展机遇。同时，承德与京津唐在资源禀赋、发展阶段、产业发展上有着很强的关联性、互补性和配套性，尤其是一流的山水和文化旅游资源与这一地区的互补性、关联性强。当人们看惯了城市的水泥森林，必然更向往大自然的绿色森林；过惯了快节奏的城市生活，也必然更加渴望回归自然的休闲。环渤海这个经济和旅游的“金三角”，如果不延伸到避暑山庄、坝上草原，必将大为逊色。反之，利用环渤海等区域的要素集聚和拓展、双方旅游资源的品牌优势、日臻完善的交通网络和优越的区位条件、京津的人才优势，可以“借势、借力、借脑”发展。所以承德对外合作的领域宽广、空间巨大。其三，抢抓机遇、应对挑战的现实选择。现在承德大开放、大招商的硬件条件基本具备，两三年后还将大为改善，势头强劲的城市建设，富有预期的休闲旅游项目，对那些大企业、战略投资者的吸引力是巨大的，承德正面临前所未有的发展机遇。但同时也要看到，我市对外开放的规模和层次还处于较低水平，还不能适应建设国际旅游城市的需要。特别是随着曹妃甸产业聚集区、天津滨海新区等建设发展以及环渤海经济圈的加速崛起，承德更面临与发达地区发展差距可能拉大、被相同地区赶超的挑战。同时，金融危机的冲击，也暴露了我市项目引进的不足、园区建设的滞后，以及旅游、创意、城建等领域战略投资者的缺乏，其实质就是开放招商的差距。只有把握机遇、扩大开放，加速同周边区域、世界范围强力对接，借助外力加快发展，才能实现弯道超越，化解被边缘化的风险。', '环境是吸引力，也是生产力。现在开放上的差距，实质是发展环境的差距。只有好项目、大项目纷纷落地，各类高品质生产要素高度汇聚，市场主体积极创业兴业，外地投资者心仪向往，才是真正的好环境', '良好的发展环境是促进生产要素快速聚集、合理配置，提高开放招商水平的重要保证。一个投资环境优秀的城市，更容易受到战略投资者的青睐。现在，随着交通、通讯业快速发展和国际化大市场的形成，在不同区域投资的成本、利润和回报率差距越来越小。投资者不再把目光停留在小优惠、小承诺上。他们既看重硬件建设，更看重政府办事效率和综合服务水平、社会文明程度等软环境因素。去年以来，以开展干部作风建设年活动为契机，市委着力在刹浮气、削官气、除惰气、戒奢气、树正气上下功夫，解决了一些部门和干部存在的缺乏激情、缺乏标准、缺乏效率、缺乏实干等突出问题，纠正了一些不作为、乱作为行为，行政效能进一步提高，发展环境进一步优化。但也要清醒地看到，一些不良现象还时有发生、一些深层次的矛盾和问题还没有得到根本解决，影响和制约着大开放、大招商格局的形成。其一，提高思想认识。有的部门和干部口喊招商却不安商、不爱商，引项目时什么条件都答应，客商来了却这也不行、那也不行，甚至卡商、治商，表现为一种“围墙”心态、惯势思维。对标国际旅游城市，必须采取专题培训、学习考察等形式，引导广大干部群众进一步解放思想、提高认识。着力破除封闭内敛、稳字当头的保守心态，树立敢闯敢试、敢为人先的赶超意识；破除墨守成规、故步自封的思想束缚，树立勇于创新、勇于争先的思想观念；破除小富即安、稍进即满的小农意识，树立向好的学、与快的比的精神风貌；破除办事凭感觉、决策拍脑门的经验主义，树立运用理论、尊重规律的科学态度。其二，改进方式方法。有的批项目难、办手续慢，很多在别处能办成的事，在我们这里却办不成，在别处很快能办成的事，在我们这里却要拖很长时间。方式陈旧、方法老套、程序繁琐、收费过多是“病根”。各级领导干部要主动应对新形势、新要求，大胆探索、创新工作方式方法，下真功夫解决制约“大开发、大招商”的突出矛盾和问题。建立区域合作机制，在优势互补、互利共赢基础上，推进大开放的长久性，提高大招商的实效性。其三，转变工作作风。在日常工作中，依然存在不给好处不办事，给了好处乱办事现象；有的项目开工建设之时，就成为“唐僧肉”，有的群众瞎捣乱，有的干部出难题，谁都想“吃”一口。反映了我们党员干部的工作作风亟待转变。各级各部门特别是重点部门、关键岗位，要对照要求，看一看公开承诺制、首办责任制、限时办结制、项目领办代办制等执行得怎么样，项目包装策划的水平高不高；看一看在清理审批事项和减少行政收费上做得怎么样，还能不能再减少；看一看诚信意识和开放胸怀够不够，是否还存在宁肯自己搂着抱着不干，自己干不好又不让别人干等现象；看一看本部门本单位的政策规定是否有悖于市场主体投资兴业，服务意识是否满足投资者的需求。要主动揭短，敢于亮丑，能够让自己真正产生“痛”的感觉，深刻反思，加强整改，切实提速行政效率，提升服务水平。', '打造国际旅游城市，关键是招大商、引巨资，着力引进一批战略投资者，带动一批产业，活跃一方经济', '所谓战略投资者，不仅要有经济实力，还要有社会责任，也要有自己的商户群。建设国际旅游城市，我们不缺开发商，而缺战略投资者。引进一个房地产开发商，只能是政府一次性卖地，群众一次性住房，开发商赚钱走人；而引进一个战略投资者，就能够开发一块区域，跟进一批商户，带动一批产业，活跃一方经济。把大招商作为“四大一推一建”活动的重要内容，其目的就是要围绕建设国际旅游城市，立足高端需求，把环境做优做好，把投资者特别是战略投资者引进来，进而做强产业、做好民生、做优城乡统筹，推进城市发展。要组织全市各级党员干部开动脑筋，对标先进，深度谋划，广泛招商；要创新招商方式，采取“靶向性”招商、对接招商和源头招商，瞄准国字号、央字号和世界500强企业的特点和发展需求，招大商、引“大家”；要切实提高包装标准，细化包装流程，全面提高项目储备、项目可研、项目包装以及土地预审、立项批复等前期工作的质量，争取使一大批精心包装策划的大项目、好项目挤进省和国家项目盘子，进入战略投资者的视野；要推进市场化招商进程，推行委托招商、网络招商、以商招商、运用经济手段动员全社会力量参与招商。颜诚言']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>10</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>紫塞沃野写春秋我市发挥人才作用推动农村科学发展主题实践活动综述</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2010-01-07</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F1%2F7%2Fart_360_78390.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_78390</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 紫塞沃野写春秋——我市“发挥人才作用，推动农村科学发展”主题实践活动综述', '编者按：国以才立，政以才治，业以才兴。建设社会主义新农村，发展农村经济，增加农民收入，关键在科技，核心在人才。在当前深入开展的农村实践科学发展观活动中，如何创新载体，培养造就一大批有文化、懂技术、会经营的农村实用人才，使他们成为新农村建设的引领者和主力军？为此，承德市委组织部、市人才办结合落实人才队伍建设“四项工程”，在全市范围内组织开展了“发挥人才作用，推动农村科学发展”主题实践活动，切实加强人才资源开发的统筹谋划和宏观指导，有效破解制约农业发展的人才“瓶颈”，通过高层次人才结对帮扶，农村实用人才引领带动，区域人才资源共享互助等形式，为推动新农村建设提供了强有力的人才保证和智力支持，促进了我市农村稳定、健康、科学发展。', '记者穿行在广袤的农村, 感受到的是在科学发展观指引下如火如荼的新农村建设热潮和铿锵步伐：一排排标准化蔬菜大棚，一处处高标准养殖小区，一片片果树新品种推广基地不时映入眼帘，令人心旷神怡，精神振奋。', '在乡村田野、农舍炕头，新品种、新技术成了村民们热议的话题，听培训课、讲致富经成了农民们农闲时节的新“潮流”。随着市委组织部组织开展的“发挥人才作用，推动农村科学发展”主题实践活动的深入开展，广大人民群众调结构、兴产业、强技术、增收入的致富热情空前高涨。塞外大地，平畴沃野处处演绎着发展现代农业的恢宏乐章。', '专家咨询服务下基层—— 倾情服务新农村建设，为农民送去“金钥匙”叩开“致富门”。“把脉”三农发展，做到“授之以鱼还要授之以渔”', '在广大农村，人不出村，足不离田，农民们在家门口儿就能享受到专家优质的上门服务。这是承德市专家协会发挥各类人才知识和技术优势，组织各级专家深入基层，深入一线，送咨询服务、送专业技术、送先进文化、送优质教育、送医送药“五送”下基层活动所带来的新气象。', '多年来，各级各类专家行走在科技发展的前沿，是各个领域的“佼佼者”。在新农村建设中，他们又奔走在广大农村，为农业发展指点出路，为农民增收支招解难，成为农民致富路上的“贴心人”。', '“只有提高农民素质，用科技武装头脑，才是农民致富的根本保证……”围场满族蒙古族自治县马铃薯研究所所长、高级工程师丁明亚如是说。近年来，围场县马铃薯专家服务团紧紧围绕全县农业产业化的发展，采取“服务团+龙头企业+生产基地+农户”的形式，积极为农民提供产前、产中、产后一条龙服务。通过优化产业格局、提高科技含量以及延伸产业经营链条等做法，使产业规模不断壮大。目前，围场马铃薯播种面积达到3万多公顷，产值近4亿元。作为国家级马铃薯脱毒繁育中心的马铃薯研究所，在全县重点乡镇建立了原种繁育基地，在坝上区域建有优质一级种薯繁育基地，马铃薯已成为农民脱贫致富的主要渠道。围场成为全国马铃薯种植和繁育基地、鲜薯出口基地。', '在隆化县农村流行着这样一句话：“科技专家是财神，要想富得快去找服务团。”该县水稻专家服务团积极消化吸收国内外先进技术，在全县大力推广水稻旱育稀植，短短几年内，使全县水稻旱育稀植种植面积由6.5万亩发展到23万亩，亩产由原来的350多公斤增加到750多公斤，并且生态水稻平均亩产达到600公斤以上，创造了全省水稻推广面积、推广速度、社会效益三个第一，市管专业技术拔尖人才崔宣伟获得了省长特别奖。同时，隆化县被国务院外国专家局、国家科学技术部和农业农村部评为水稻旱育稀植生产先进县。', '兴隆县半壁山镇车道峪村有多年栽植苹果的历史，但由于品种老化和缺少技术、人才支持，所以苹果产量很低，卖不了几个钱。针对这种情况，该县林果服务团派出两名果树专家长年提供技术指导和培训，把一个个大字不识的普通农民培养成了深谙果树技术的“土专家”，村里还专门成立了苹果协会。车道峪村已成为远近闻名的“苹果村”，仅红富士苹果一项，全村人均年增收3000元以上。', '如今，置身于双滦区偏桥子乡的“农业专家服务示范区”，喇嘛寺村的80亩采摘园，隆化县韩麻营镇北沟村的3000亩生态园，承德县石灰窑乡药王庙村、野猪河村的供港蔬菜生产基地……人们时常会看到专家们围绕舍饲圈养、大棚蔬菜、集雨窖、优质家庭果园等工程进行科技咨询，深入到田间、大棚、养殖场进行现场指导的忙碌身影。五年来，市专家协会农业分会共举办科技讲座200余次，培训农民技术人员10000余人，科技咨询6000余人次，发放技术图书500余册、明白纸5000余份，推广新技术、新品种120余种，设立农业项目示范区10个，有效地提高了我市农业种植、养殖科技含量和农民技术水平，收到了显著的经济效益和社会效益。农民们形象地比喻：专家下基层，就是给我们送来了致富的“金钥匙”。', '以“服务社会、服务群众”为宗旨，创新载体，深化服务。2006年以来，市专家协会先后开通了“160111教育专家”、“160199医疗卫生专家”和“移动农业专家”咨询服务热线，专家“坐诊”热线，解决了许多百姓关心的热点和难点问题。此外，各级各类专家服务团结合各自特点经常深入乡村开展“面对面”的咨询服务。工业交通建设分会定期组织相关专家，开展社会主义新农村建设咨询服务活动，了解新民居建设情况，现场解答施工建设中遇到的道路、排水、电力等方面的具体问题，给予技术和资金方面的支持；文化艺术分会深入开展“送文化”下乡活动,丰富农民朋友的文化生活。用先进的文化艺术鼓舞群众，从基层一线广大人民群众身上汲取智慧，在基层火热的生活中收获鲜活的经验、真实的感动；教育分会通过开展多形式、多层次、多学科的观摩示范课和教学交流活动，把优质的教育送到基层各类学校，促进了基层校教学效果和教学质量的提升；医疗卫生分会经常组织医学专家，前往偏远山乡为当地农民进行义诊、送医送药，解决农民看病难、看病贵难题，深受百姓的欢迎。', '授之予鱼，还要授之予渔。要想让农民从根本上摆脱贫困，必须改变他们“想致富、缺门路、少技术”的现状，因此，科技培训与服务尤为重要。专家咨询服务下基层，“把脉”三农发展，找到了各类人才直接为“三农”服务的突破口，极大地满足了农村经济发展对人才和技术的需求，使广大农民迸发出了创造财富的原动力。各级专家咨询服务组织在广泛开展技术服务的同时，还积极通过集中办班、巡回讲课、电视观摩、现场指导等形式，培养了一大批技术骨干和致富能手，为推动新农村建设提供了强有力的人才保证和智力支持。', '百名专家扶百村——献策农村科学发展，用“金点子”鼓起农民“钱袋子”。激活农民“造血”功能，留下一支“永远不走的帮扶队”', '为了深入贯彻落实科学发展观，发挥人才优势，积极服务“三农”，市委组织部2008年正式启动“百名专家扶百村”科技扶贫、技术下乡活动，计划利用3年时间集中开展百名市县农业专家对口扶持100个贫困村。自开展帮扶活动以来，涉农专家们与帮扶村建立了长期而紧密的联系，他们不仅提供信息、技术和项目支持，同时也为贫困山村带来了早日脱贫的精神动力。', '驱车行进在承德县新杖子乡应手营子村，但见一排排依山而种的果树，连绵起伏，一望无际……在市管拔尖人才、市林业局果桑工作站站长、高级农艺师李子海的帮扶下，把应手营子村打造成承德近郊“花果园”的梦想正在逐渐成为现实。', '“多亏了李老师的技术指导，要不我也发展不到今天的规模……”村民李春林家原来有100多棵果树，但是自己缺乏管理技术，眼看着收成一年不如一年，干着急，没办法。李子海帮扶该村后，从果树的修剪、病虫害防治到果树御寒越冬、培育施肥，“手把手”地为他传授经验。现在，李春林的果园已发展到了200多棵，收益也翻了几倍。向李春林一样，应手营子村的许多果农尝到了科技种植果树的“甜头”。 李子海还通过深入调研考察，结合该村区域、土质、气候等特点，为应手营子村谋划了发展集观光、采摘为一体的休闲农业的长远规划，积极引导80多户果农成立种植专业合作社，走合作化生产经营的道路。如今的应手营子村2000亩果树园区初见规模，经济效益显著提高。', '窗外寒风刺骨，炕头热热乎乎。“这个节能吊炕就是好啊，既省柴又保温，可不像以前冬天那样挨冷受冻啦！”承德县安匠乡岭沟村村民李义春高兴地对记者说。在采访中，记者看到，不仅这种节能吊炕在该村得到了普及推广，家家户户还都用上了沼气灶。村民们说，这都要感谢专家连德奎。', '身为市管拔尖人才、承德县农牧局新能源办主任、高级农艺师的连德奎有一句名言：“动真情，扶真贫，啥话不说，把事办好。”自打儿接到帮扶任务的那天起，他就隔三差五地来到村里进行技术培训指导，跑项目、争资金，积极推动新民居建设。为该村争取项目资金12万多元，修建沼气池130个，建吊炕87铺，还把沼渣沼液通过技术转化为肥料，推动该村林果业的发展，提高了综合利用效益。', '“专家讲的都是我们平时遇到的技术难题，很实用，对我们的帮助太大了……”在双滦区偏桥子镇达连坑村，提起市管拔尖人才、市农牧局蔬菜站站长、农业推广研究员王玉宏的“农村讲堂”，村民们无不称赞。', '达连坑村有着20多年温室种植的历史，全村218户，农民收入80%靠大棚。王玉宏帮扶该村后，从改变菜农传统种植习惯，提高技术含量入手，积极开展技术培训和品种改良。同时，他还引进项目资金70多万元，对给该村传统温室结构进行科学改造，由过去化学防治病虫害向物理防治转变，实现无公害标准。积极推广温室秸秆生物反应堆发酵技术，通过这项技术的应用，提高了黄瓜单产30%以上。目前，达连坑村已发展蔬菜大棚120个，葡萄120亩，农民纯收入达到3850元，科技种植让农民鼓起了“钱袋子”。', '这些只是在“百名专家扶百村”活动中随意撷取的几个事例。在帮扶活动中，百名涉农专家走街串户，积极开展技术咨询、技术指导、技术培训等帮扶活动，推广应用最新科技成果和农业实用技术，提高农产品的质量和市场竞争力，实现所帮扶村项目、资金和技术的有效对接。在帮助农民致富创业的同时，示范培养农村实用人才，激活农民自身“造血”功能和可持续发展能力，积极培训组建有农民业务骨干组成的技术服务队，为农村留下一支“永远不走的帮扶队”。', '百千万农村实用人才创建—— 造就推动农村发展的主力军，让“土专家”成为致富“引路人”。实施“链式”帮扶,激励引导“本地的和尚好念经”', '在农村发展的广阔舞台上，实用人才是农村生产力中最先进、最活跃的部分, 是建设社会主义新农村的“排头兵”。', '近年来，市委组织部树立“大人才”观，根据农村实用人才“开发培养”工程的有关要求，深入开展“百千万农村实用人才创建”活动，即在全市培养选拔100名农村优秀实用人才、1000名农村实用技术标兵、10000名农村实用技术骨干，使其成为我市社会主义新农村建设的引领者和主力军。', '从1982年饲养20只蛋鸡起步，发展到集种鸡、蛋鸡饲养、雏鸡孵化、饲料加工及鸡场废弃物无害化处理于一体的链式产业，承德县孟家院乡的姜贵学完成了由“土专家”到市管拔尖人才的身份转变。现在，由他出任董事长的承德县金羽禽业有限公司，种鸡存栏2万只，销售雏鸡600万只，蛋鸡存栏4万只，总资产达到1693万元，成为市级农业产业化重点龙头企业。多年来，姜贵学通过对养殖户实行技术和资金帮扶，引领带动孟家院乡养鸡户105户，蛋鸡存栏27万只，全乡养鸡收入270万元，养鸡人均收入3200元。为更好地为养殖户服务，由他牵头成立的富农蛋鸡养殖专业合作社于2008年12月通过了有机食品认证和ISO9001国际质量管理体系认证，并注册了“姜氏”商标。', '承德县上谷乡闫杖子村富源种猪繁育有限公司经理闫占臣被乡亲们亲切地称为“猪司令”。作为全市培养选拔的100名农村优秀实用人才之一，闫占臣从1992年开始养猪，经过十几年的摸爬滚打、艰苦打拼，资产总额达到500多万元。“养猪不怕扎堆，产业越大市场就越大……”这是闫占臣时常挂在嘴边的一句话。2007年，他牵头成立了承德县益民养猪专业合作社，发展专业社成员100户以上，年生产1000头猪的养殖大户40户，年繁育商品猪5万头，实现销售收入6000多万元，带动起550多户农民发展养猪产业，使2000多口人告别贫困。目前，他正在积极创办“猪、沼、果”一体化生态种养模式，带动更多的农户一起走上现代产业化发展之路。', '有人说，在海拔1000多米的接坝地区搞蔬菜大棚难以想象，而围场满族蒙古族自治县哈里哈乡扣花营村村支书陈景和却做到了。扣花营村有1503口人，原来主要以种植玉米、土豆为主，种植结构单一，农民增收缓慢。2007年，村民孙涵、徐雅茹夫妇率先在自家耕地上试建占地0.7亩的“日光无公害温室蔬菜大棚”种植黄瓜，当年赢利1.5万元，在全村引起较大反响。2008年4月，村党支部书记陈景和组织60余村民前往内蒙古宁城县参观学习考察，积极进行结构产业调整，为村民协调土地互换、聘请农业技师技术指导和测土等工作。同时村集体出资20余万元帮助建棚户解决棚柱、骨架及棚膜等材料。陈景和还带头成立了农民蔬菜种植专业合作社，并注册商标，为农户提供生产资料、技术培训、联系销售等服务。目前，全村已发展大棚蔬菜种植大户27户，建蔬菜大棚52栋，占地100亩，预计今年可获益15万元，全村人均增收100元，安排农村剩余劳动力50人。', '致富还需引路人。在围场满族蒙古族自治县半截塔镇半截塔村，到村任职的大学生毛伟江就是这样一个“引路人”。他潜心发展食用菌产业，运用在学校学习的实用技术和营销知识，使所经营的食用菌产业迅速发展壮大，建成了占地25亩的食用菌园区，年可装食用菌40万袋，全年纯收入达到45万元。他充分发挥示范、服务和带动作用，向种植户无偿提供菌种和技术，解答技术难题，进行现场指导，使一大批食用菌栽培户走出了技术困境。为了给食用菌种植户在生产、加工、销售等方面提供更好的服务，毛伟江牵头成立了绿保食用菌专业合作社，发展成员115户，带领全村积极探索绿色生态产业的致富之路，他也因此成为全市培养选拔的10000名农村实用技术骨干之一。', '海阔凭鱼跃，天高任鸟飞。这些人都是在“百千万农村实用人才创建”活动中涌现出的乡土人才的典型代表。在创建活动中，广大农村实用人才依托优势，现身说法，研发新技术、推广新经验，千方百计开拓致富门路，“做给农民看，带着农民干，领着农民赚”，实现了“链式”帮扶，共奔小康。', '让“本地的和尚好念经”是“百千万农村实用人才创建”活动的出发点和落脚点。创建活动实行综合考评，梯次晋级，把农村基层的致富能手、能工巧匠等乡土人才纳入管理服务范围，一改过去只重视“外地的和尚会念经”的传统思维和做法，大力开发培养本地的“田秀才”和“土专家”，使他们成为带富的“引路人”。从而营造了鼓励农民干事业，帮助农民干成事业的良好氛围，为农民群众施展才华、创业致富提供了广阔舞台。据统计，截至目前，全市通过创建活动共培养选拔151名农村优秀实用人才（其中4名农村优秀实用人才首次被市委、市政府命名为市管拔尖人才），941名农村实用技术标兵，8766名农村实用技术骨干。', '农村优秀实用人才共享互助——优化人才资源配置，“走出去”与“请进来”相得益彰。搭建互助“桥梁”，推动促进“区域人才一体化”', '我市县域经济各具特色，农业产业区域化特点明显。在人才开发方面都不同程度地存在总量不足、结构失衡、素质偏低、分布不均、环境欠优以及市场发育不全等问题。这些问题不仅增加了人才培养、使用的成本，造成人才资源的浪费，而且还严重制约着农村经济发展速度。', '变“条块分割”为“流动共享”，促进“区域人才一体化”是市委组织部开展农村实用人才共享互助活动的战略思考。通过活动的开展，有效整合区域间人才资源，创新人才资源配置方式，搭建人才发挥作用的广阔平台，实现人才的优势互补，为推进县域经济发展提供重要支撑。', '记者在采访中发现，在“发挥人才作用，推动农村科学发展”主题实践活动的创建过程中，农村实用人才跨地域的共享互助始终是贯穿其中的。', '平泉县养猪大户宋宝金的发展离不开承德县富源种猪繁育有限公司经理闫占臣的帮助。宋宝金原来做服装生意，听亲戚说闫占臣通过养猪致富的事后，主动上门请教，想改行发展养猪产业。从圈舍建造、饲养管理、防疫灭病到市场销售、扩大规模，闫占臣尽心尽力，毫不保留地传授经验，给予支持。宋宝金从一个养猪“门外汉”，现在已经发展成为年出栏生猪2000多头的富裕户。依托地缘优势，闫占臣经常到平泉县小寺沟、南五十家子等地现身说法、巡回辅导、传授养猪经验，他的电话一天24小时开机，每天都能接到不下30个咨询电话，平泉县近500个养殖户都得到过他的技术指导。', '围场满族蒙古族自治县的毛伟江在发展食用菌产业过程中，与平泉县的很多食用菌大户保持着密切的联系，他们经常互通信息，交流经验，共克技术难关。毛伟江经常被邀请到承德县、隆化县等地进行技术培训。在自身发展的同时，他不但带动本村食用菌产业的发展，还深入到道坝子乡、龙头山乡等地进行现场指导，使一大批食用菌栽培户走出了技术困境。在他的帮助下，棋盘山镇棋盘山村四十五号的朱建华以及与大头山乡黄土梁村的司长林都建起了食用菌大棚，都发展成了当地有名的技术能手和食用菌种植大户。', '“走出去”求取经验，“请进来”传经送宝。在创建活动中，县域之间，乡域之间人才共享互助的事例不胜枚举。根据农业产业结构调整的需要，有的县区聘请外县专家定期到农村田间地头举行讲座，避免农民生产的盲目性，使新技术和新品种得到及时推广。有的县区针对当地存在的问题，利用冬季或农闲组织有专长、具有较高文化素质的实用人才到先进县区参观考察，启迪思路，开拓视野。为了适应农业产业化发展的需要，一些县区还积极引进农业产业化龙头企业经营管理人才和农村经纪人。', '人才是一种使用资源，只有“用”起来，才能真正发挥它的价值。在活动中，各县区积极做好“内引”和“外联”两篇大文章，实现了农村实用人才的互助与共享。', '“内引”就是通过激励引导，实现共同发展。在县域内的人才互助共享方面，各县区对优势农业产业及其带头人情况进行分析和梳理，建立农村实用人才数据库。对农村实用人才进行登记造册，建立健全农村实用人才台账，按照农村实用人才的专业特长、技术等级分类立档建库；充分发挥典型示范作用，积极组织“土专家”、“田秀才”巡回讲演、现身说法，介绍自己的典型事例及其取得的经济效益，激发农民学科技、用科技的积极性；鼓励实用人才采取多种形式对周围农民进行“传、帮、带”。通过县域内结对子方式把自己的知识、技术、经验等“活”的东西扎扎实实地传授给周围群众，让更多的农民掌握新技术，使用新品种，走上共同致富的道路。', '“外联”就是广泛联系合作，实现互利共赢。在县区间的互助共享活动中，一些县区间建立了联席会议制度，密切区域联系，沟通有关情况，交流工作经验，及时研究解决活动中遇到的问题；实现人才资源信息共享，相互之间提供本地农村实用人才信息，将对方人才纳入本地人才信息库，定期交流和对接人才供求信息；整合教育培训资源，县区间提前互通情况，本着统一就近、节约成本的原则，组织各自相关农村实用人才到对方参加学术研讨会、经验交流会、现场观摩、专家讲学等活动。', '区域人才合作是一种利益的联结，追求互利共赢是合作共建的原动力。互助共享活动开展以来，各县区根据双方不同的基础和发展需要，寻求合作的最佳切入点，确定合作领域，选准共享模式，实施重点突破，开展了一系列富有成效的联合招聘、联合培训、联合技术攻关等项目，实现了人才的优势互补和利益双赢。', '千帆竞技人才出，平畴沃野写春秋。“发挥人才作用，推动农村科学发展”主题实践活动让广大农村处处涌动着豪迈的创业激情。展望未来，一个风景如画、文明和谐的新农村令人心旌摇荡。通讯员 孙克健 记者 张青龙']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>10</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>承德市局赴鲁苏沪学习考察报告</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2009-06-22</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2009%2F6%2F22%2Fart_9945_197725.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_197725</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['3月3日至7日，由宋振华局长带队，各市局主要负责同志及省局有关处室和事业单位主要负责同志一行，赴山东、江苏、上海围绕质监事业发展，加强质量监管和技术机构发展与管理等内容进行学习考察，充分表明了省局党组对加强质量监管、强化技术机构建设、全面提升河北质监工作的信心和决心。通过此次考察，解放了思想，更新了观念，开阔了思路，增强了信心。下面就考察的感受体会和下一步如何抓好承德的质监工作汇报如下：', '（一）高度重视队伍建设。首先是狠抓思想解放、观念转变。如济宁市局连续三年在全系统开展解放思想大讨论，引导广大干部职工在高层次上解放思想，更新观念，大力破除小思进取和小富即安、小成即满的陈旧观念，下力气解决眼界低、起点低、标准低和思路小、气魄小、力度小的“三低三小”问题，在全系统牢固树立了抢抓意识、争先意识、创新意识，为事业的发展提供了有力的思想保障。第二，狠抓干部队伍建设。大力推进竞争上岗和轮岗交流。山东省实行省局机关与市局轮岗交流、异地交流，要求省局的干部必须下去，而且派主任科员到县局任职，还有的到企业挂职锻炼，自垂管以来人员来来回回已交流了几遍，干部也踊跃到基层去进行历练。江苏省局在省局机关大力推进竞争上岗和轮岗交流，在市县局组织开展领导干部公开选拔试点工作，采取上下交流挂职、机关和事业单位交流挂职等多种方式，培养和锻炼干部。第三，狠抓能力建设。一是抓培训，通过岗位培训、业务短训、党校学习、学习先进地区经验等方式，着力提高领导科学发展、依法行政的能力和水平；通过实行执法人员上岗必训和轮训、军训等提升实践技能和执法水平，推进执法队伍正规化建设；通过严格对审查人员、检验人员、监管人员、执法人员的培训考核，淘汰、转岗不合格人员，提高队伍整体素质。二是狠抓人才引进。创新人才引进的模式，加大人才引进力度，建立健全人才引进、培养和使用机制，着力培养和引进检验检测和技术创新人才，培养一批学科带头人、高精尖人才和技术骨干。如济宁市局聘请了两名院士指导开展项目研发和实验室建设，面向全国选聘了2名博士生和6名硕士生到鲁南质检中心工作。上海局采取空编运行，采取身份转变等方法吸引和留住人才。', '（二）高度重视技术机构项目建设。两省一市党组高度重视技术机构的项目建设，有专门的机构统筹谋划技术机构的发展，在省市技术机构的定位、项目谋划、人才、财力等多方面予以支持。如山东省局确定了省质检院、胶东质检中心、鲁南质检中心“三个质检高地”，给予多方面政策倾斜和支持。各地通过争取国家质检中心，承担科技项目，制定国家标准等，打造一流的技术机构。江苏省实施重点项目推进战略，每年评审1-2个重点项目，安排专项资金集中投入，建设国内领先、国际一流的项目。上海质检院已拥有7个国家质检中心，被总局授予“国家级上海产品质量监督检验研究院”，并还将投入6.2亿元打造新的基地。', '（三）高度重视体制和机制的创新。体制和机制的创新为事业的发展注入了活力。山东省局推出用流程管事，用制度管人的理念，济宁市局实行“一岗三责、目标管理、考核评议、成败备案、褒奖优胜、惩戒违纪、重用有为、淘汰末位”的管理措施；实施事业单位改革，打破原有的用人机制机制和分配模式，实行绩效工资制度，形成了因事设岗、因岗设人、凭工作考核、凭业绩用人的良好工作机制。江苏省局对现有制度进行全面清理，对垂直管理体制机制进行深入研究，按照提升运行效能、优化资源配置、完善业务管理的要求，健全垂直管理制度体系，提高系统合力和运行效率。山东省局实行了特种设备和稽查队伍垂直管理，强化了内部协调，形成了全系统的“一盘棋”；实施财务制度改革，将各直属单位财务人员统一到省局成立核算中心，统管各单位财务，市局也将市直单位及县局财务统一管理，并通过考核选用财务人员，提高了财务人员素质，强化了财务管理和内部审计把关，有效避免了违规违纪行为的发生，通过核算统筹，集中了财力，办了大事。', '（四）高度重视信息化建设。山东省局把“金质工程”作为实现质监系统长治久安的系统工程，本着“流程管事、制度管人”的管理理念，通过业务梳理、流程再造，建成了“一网、两台、三库、四系统”为主要内容的政务处理系统，提高了监管的时效性和有效性，减少了监管成本，提升了监管水平和行政执法能力。', '（五）高度重视质监文化建设。我们所到之处，都深深感受到了当地局浓厚的质监文化氛围，无论是机关还是技术机构，都着力打造机关文化走廊，业务展示大厅和文化理念宣传牌（栏）等一系列文化建设品牌。山东省局细化工作求发展，推行“精心、精细、精准、精益求精”理念，建立了度量衡和计量器具博物馆。济宁市局通过文化宣传、文物展示、演讲比赛、文娱活动等多种形式，将孔孟文化精华和质监业务工作理念有机结合，探索文化建设路子，引导大家增强事业心和责任感，激发了干部职工的工作积极性和创造性，形成了团结和谐、开拓进取、干事创业的良好氛围。', '（一）开阔了视野，解放了思想，增强了谋发展的意识。两省一市都把自觉融入发展大局，提升对经济社会发展的贡献度作为事业发展的根本，能够准确把握发展机遇，超前谋划，善于在逆境中培育和发现有利因素，能够围绕政府工作重点谋划项目搭建检测平台做服务文章，围绕社会做热点文章，围绕百姓做焦点文章，围绕企业做关注文章。各地在国家中心的建设和运行中都获得了当地政府在土地、资金和政策等多方面的支持。三鹿事件，河北质监受挫，而这些地方却借机取得党委政府的重视和支持，武装和发展了自己。这次考察学习到了各地先进的发展理念，超前的发展意识和抢抓机遇、创新进取的精神，开阔了视野，增强了谋划承德质监事业大发展的动力。', '（二）找到了差距，增强了事业发展的危机感和紧迫感。质监事业的发展离不开技术机构这一支撑，而技术机构的发展又离不开人才和项目，虽然承德质监系统近几年收入实现跨越式发展，但我们缺少人才，技术基础薄弱，能力不足的矛盾还很突出，还不能很好地适应经济发展的步伐，而且我们的体制机制、工作思路方法、管理理念等都与先进省市存在较大差距。如果我们不实现快速发展，不仅是落后，还可能生存下去都会有困难。因此，必须要知难而进、改革创新、真抓实干，咬住青山不放松，奋起直追，实现跨越式发展。', '（三）学到了经验，增强了发展信心。这次考察启发了我们的思路，找到了努力的方向和目标，对宋振华局长总结的三省市“强化技术机构的支撑是前提，人才的引进和流动是保障，加快事业发展是基础，创新思路和方法是动力，不断解放思想是先导”的基本经验有了深刻的理解；对朝申副局长提出的“确定发展理念，理清发展思路，坚定发展信心，加快发展步伐”的要求认识也高度一致。我们将不断地加强学习，借鉴先进经验，正确认识当前面临的困难和问题，坚定信心，认真谋划，抢抓机遇，迎难而上，为实现承德质监事业又好又快发展而奋斗。', '对于这次考察的情况，回承德后及时向班子成员进行了介绍，在省局党风廉政建设视频会后向所有参会人员进行了传达，将带回的照片在市局网站上发各县区局、各科所进行学习借鉴。并就如何学习借鉴先进经验进行了研究，对今后一个时期的工作做出如下安排：', '（一）进一步解放思想，推动事业发展。以扎实抓好学习实践科学发展观活动和干部作风建设年活动为重要载体，针对制约事业发展方面存在的突出问题，强化发展意识、忧患意识，争先意识，不断解放思想，转变观念，用解放的思想推动思想的解放，以求真务实，真抓实干的作风推进承德质监事业发展。', '（二）进一步加强能力建设，提升服务水平。要提升谋划工作的能力，结合单位实际抓紧研究谋划“十二五”发展规划，确定发展目标和发展措施，用规划引领事业发展。要提升行政许可、检验检测和行政执法能力，全面履行工作职能，体现部门价值与地位，服务经济发展。提升队伍能力，针对人员少，人才更少的现状，用好用足政策，加大人员培训和人才引进力度，加大干部交流轮岗力度，稳步推进干部队伍的素质建设。', '（三）进一步加强制度建设，创新管理机制。按照该完善的完善，该补充的补充，该修订的修订的原则，力争5月底前建立一套行得通、做到到、管得住的制度体系。要在机关认证的基础上，重新制定完善各项工作流程，严格按流程办事，提高工作质量和工作效率。', '（四）加快检测大楼和食品实验室建设。借鉴学习考察经验，重新摆布实验室和办公室布局，决定增加一层实验室用房。对每一个办公室、每一个实验室都重新设计建设方案，力争环境优美、设计超前、整齐划一。把1个市级、3个县级重点食品实验室建设作为当前重要任务，高起点谋划，高标准建设，高速度推进，达到省局示范点建设标准。', '（五）加强内部技术机构的整合。强化大系统观念，“一家人”思想，按照“划分、合作、调整”的思路，着手研究市、县技术机构整合工作，做强市局、做优县局，意在实现错位发展，避免重复建设和低水平建设。', '（六）抓紧推行集中支付工作。按照集中财力办大事原则，依照省局要求，研究制定承德市局集中支付实施意见和具体办法，确保搬入新楼后正式运行。', '（七）加快信息化建设。抓住新楼搬迁机遇，加强视频会议、机关（内外）网站、12365投诉举报系统等信息化建设，提高信息化建设水平。完成好县区视频网络建设工作。', '（八）谋划质监文化建设。认真借鉴外地经验，从精神文化、制度文化和环境文化、廉政文化四个方面，研究谋划质监文化建设，力争5月份拿出具体方案，结合新楼装修一并实施。', '（九）统筹推进各项工作。以扎实开展“质量和安全年”活动为主线，统筹抓好各项业务工作。一是严格监管，重点抓好食品、特种设备、日用消费品和重点产品区域整治工作，确保不出质量安全问题。二是夯实基础，强化质量、计量、标准、认证认可基础性工作，编制好《质量状况白皮书》和《特种设备安全状况白皮书》，为政府决策提供依据。三是抓好班子建设和队伍建设，重点抓好行风评议工作，为事业发展提供组织保障。四是一手抓收入，一手抓节约，重点在开源节流、消除监管盲区死角方面下功夫，克服经济不景气等不利因素，力争尽早完成年度预算任务。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>10</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>在全市司法行政工作调度会议上的讲话周源年月日</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2009-07-30</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2009%2F7%2F30%2Fart_9945_197746.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_197746</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['承德市人民政府 领导活动 在全市司法行政工作调度会议上的讲话周源（2009年7月22日）', '这次全市司法行政工作调度会议是经局党委研究决定召开的。会议的主要任务是总结上半年工作，安排部署下半年工作，进一步认清形势，解放思想，真抓实干，为完成全年目标任务，实现司法行政工作新发展打下良好基础。刚才，11位县（区）司法局长作了工作汇报，客观地反映了我市司法行政工作的基本情况，有许多亮点和经验值得交流和学习。可以说，全系统的工作基本实现了时间过半，任务完成过半。下面我根据局党委研究的意见，讲三个方面问题：', '上半年，在市委、市政府的正确领导和省司法厅的指导下，我们认真贯彻党的十七大和十七届三中全会精神，紧紧围绕全市经济建设中心，以开展深入学习实践科学发展观活动为主体，以维护社会稳定为首任，以夯实基层基础为重点，以强化队伍建设为保证，充分发挥司法行政职能作用，各项工作取得了新的进展。', '（一）法制宣传教育工作进一步深入。着力推进“五五”普法规划的落实，完成了全市“五五”普法中期评估督导检查工作。继续加强基层民主法制建设，第三批100个 “民主法治示范村”获得市政府命名表彰。坚持以“法律八进”活动为载体，开展了一系列丰富多彩、各具特色的宣传教育活动。组织全市专业普法人员赴廊坊市香河家具城学习 “法律进市场”先进经验；利用春节前农民赶大集等时机，组织各县（区）和市直有关部门，重点宣传与农民生活、外出务工人员维权相关法律知识；配合市委、市政府城镇面貌“三年大变样 ”工作，协调40多个市直部门统一行动，开展了较大声势的“送法进社区”活动，发放宣传资料3万份，宣传挂图100套，制作法律宣传展板100块。上半年全市共举办大型活动12次，参与人员5万余人。', '（二）基层基础工作进一步强化。人民调解“八进工程”稳步推进，“春风化雨”矛盾纠纷集中排查化解活动扎实开展。全市已建立乡镇（街道）调委会220个、村（居）调委会2671个、企事业（行业）调委会437个，基本形成了“横向到边、纵向到底、遍布城乡、扎根基层、多方参与、上下联动”的民调工作组织网络。上半年全市共排查调解矛盾纠纷10040起，调解成功9757起，调解成功率97.2%，防止民转刑案件23件，劝阻群众上访156件，防止群众械斗29起。人民调解员宣传和培训工作卓有成效。以纪念《人民调解委员会组织条例》施行20周年为契机，开展了以 “社会和谐?调解先行”为主题的系列宣传活动。全市共设立宣传点232个，发放宣传资料5万多份，解答咨询问题5000多个。举办人民调解员培训班267期、受训人员达14285人次。', '社区矫正工作全面展开。11个县（区）全部成立了社区矫正工作领导小组及办公室，各乡镇（街道）普遍设立了社区矫正工作站，基本形成了以司法所干警为主协管员为辅的专业队伍和由人民调解员、党员干部、矫正对象亲属等组成的志愿者服务队相互补充的两只社区矫正队伍。截至目前，累计接收社区矫正对象1192人，解除矫正137人。', '积极落实刑释解教人员衔接、跟踪帮教等9项制度，全市共有刑释解教人员4435名，各县（区）采取回乡安置、基地安置等方法，妥善安置刑释解教人员3761名，就业安置率达到85%。', '基层司法所规范化建设成效突出。全市四批138个国债资金项目建设所已全部建成并投入使用，总建筑面积达16000平方米以上，占全市司法所建制数的62.7%。各县（区）进一步落实了省政府对司法所人员配备的要求，全市已建乡镇（街道）司法所220个，现有工作人员509人，平均每所2.3人，比去年底增加了40人。其中专职司法所长209名，有66人享受副科级待遇。', '（三）法律服务工作进一步规范和拓展。以“保增长、促发展”专项法律服务行动为主线，组织律师成立法律顾问团，主动服务全市“六项行动计划”、城镇面貌“三年大变样”等重点工作，共参与重大工程项目建设122件，担任政府部门、民营及其它企业法律顾问162家，参与化解各类纠纷1309件，防范和化解重大群体性事件200件。', '大力开拓公证服务领域。上半年，各级公证机构共办理各类公证事项13202件，避免经济损失995万元。市公证处举全力参与全省重点工程“双峰寺水库移民拆迁”工作，得到市政府领导充分肯定。各级公证机构参与城镇面貌“三年大变样”等工作，办理房屋拆迁公证1万余件。继续开展公证行业“大手拉小手”活动，公证行业累计投入资金350多万元，为有实际困难的公证处提供信息、资金帮扶，实现了全市公证机构整体水平的提升。', '法律援助工作注重延伸服务，在市工会建立了法律援助工作站，在80%以上的村建立了法律援助联系点。推进法律援助人员进村入户、开展“学习雷锋扶贫助困”志愿服务月、“3·15”消费者权益日及市、县、乡、村四级联动的大型宣传活动，进一步提高了法律援助知晓率。各县（区）全部建立了“农民工法律援助中心”，上半年共办理农民工案件343件，受援农民工960人，追讨工资金额278万元。前六个月，全市共办理法律援助案件1206件，居全省第二位。特别是非诉讼法律援助业务快速发展，占结案总数的64%，得到省厅肯定。', '基层法律服务工作在教育整顿后不断规范，业务领域得到拓展。上半年全市基层法律服务所共担任法律顾问94家,代理各类诉讼事务1546件,为当事人避免和挽回经济损失70余万元。', '注重司法鉴定职业诚信工作，市、县两级司法行政机关建立健全了司法鉴定机构和司法鉴定人“司法鉴定执业诚信档案”。上半年全市各门类司法鉴定机构出具司法鉴定结论1500例，鉴定结论的采信率100%，无假鉴错鉴的发生。', '（四）司法行政队伍建设进一步加强。强化政治教育，结合开展的学习实践科学发展观活动、“五民”主题实践活动和“干部作风建设年”活动，强化干警队伍的大局意识、责任意识和服务意识。组织领导干部和机关干警开展 “问计基层群众”蹲点调研活动，着力解决执法不公、服务意识不强的问题。活动中坚持“常规动作不走样，自选动作有特色”的原则，通过广泛征集，梳理归纳为7大类130条意见建议，市局党委进行了认真研究，制定了切实可行的整改措施。深入开展 “机关效能建设”，按照“问事、问人、问责”的原则，明确了机关岗位风险点及风险等级，健全了行政权力运行监控机制，建立了首问责任制、限时办结制等七项行政效能制度，促进了工作责任的落实。认真贯彻落实党风廉政建设和反腐败工作责任制，市、县（区）司法局、下属事业单位认真履行职责，积极抓好自己责任范围的党风廉政建设和反腐败工作，在行政执法、干部任用、财务管理等方面加强检查监督，杜绝了腐败行为的发生。推进电子政务和政府信息公开工作，着手河北政法网的建设工作，为下一步推进机关应用电子政务平台进行办公做好了准备。', '回顾上半年，全市司法行政各项工作都取得了新的进展。司法行政的内在活力不断增强，对外形象逐步好转，社会影响不断扩大，职能作用得到更大的发挥。总的看，全市司法行政工作发展势头不错，但也存在一些不容忽视的问题，一是从整体看，工作创新不够，水平一般化，典型不突出。二是队伍综合素质有待于进一步提高，有的干部缺乏工作热情和激情，饱食终日，不思进取；有的干部水平和能力偏低，不适应当前工作的需要；一些法律服务从业人员执业水平和职业道德还有欠缺，违法违纪的问题时有发生。三是机关干部工作作风还需进一步转变，因循守旧，墨守成规，作风飘浮，推诿扯皮，久拖不办，效率低下等现象还不同程度地存在。四是经费短缺问题仍很突出，市局及部分县（区）法制宣传、人民调解、法律援助专项业务经费解决还不彻底，有的没有列入同级财政预算，有的列入了，但数额偏低，影响和制约工作的开展。这些问题都有待我们在今后的工作中努力研究和解决。', '同志们，今年是建国60周年，60周年大庆在即。今年受美国金融危机的影响，又是经济最困难的一年。国际国内形势非常严峻。国际反华势力虎视眈眈，“藏独”、“东突”分子活动猖厥，国内经济危机仍未缓解，人民内部矛盾凸显、群体性事件频发，稳定责任重大。作为政法机关之一的司法行政机关，担负着维护社会稳定，促进经济发展和社会和谐的重任。如何更好地发挥司法行政职能，有效化解社会矛盾纠纷，最大限度地减少不和谐因素，维护社会稳定是我们必须要思考的问题。我们只有进一步明确职责，强化措施，把我们承担的职能落实好，实现年初既定目标，才能为维护社会和谐稳定做出我们应有的贡献。', '距离年底还有五个月时间，做好下半年工作，对于实现全年工作目标非常关键。针对半年来的工作情况，按照省厅、市委、市政府的工作部署，我就如何做好今后五个月的工作，强调以下四点意见：', '要切实加强普法重点内容的宣传。当前尤其要突出抓好与经济社会发展、维护社会稳定和社会公平正义等方面密切相关的法律法规的学习宣传，配合全市重点工作，实行跟踪宣传。要针对部分地区、行业、部门群体性事件多，易发生不稳定因素的实际，有针对性地开展专项法制宣传教育，既要增强人们的维权意识，又要增强履行义务的意识，推动全社会形成尊重法律、崇尚法治的氛围。', '要以法律“八进”活动为载体，加强对重点对象的普法宣传教育。完善全市公务员和领导干部学法用法机制，促进公务员树立有权必有责、用权受监督、违法受追究的观念。各县（区）要提早谋划组织好 “12.4”法制宣传日活动。市法宣办已下发了《关于深入开展法制宣传教育活动的实施意见》，提出了一系列措施，一定要抓紧落实，取得实效。要抓紧制定切合我市务工人员实际的法制教育方案， 8-10月份市局将在市区和北京农民工聚集地组织两次“送法到工地”宣传活动。有任务的县（区）要主动配合，协调联动。其它县（区）也要结合各地实际，开展好此项活动。', '要创新普法形式，加强法制宣传教育阵地建设，开展人民群众喜闻乐见、生动活泼的法制宣传教育活动。市局在下半年安排二项重点活动：一是在柴场小区建立法制宣传一条街，组织市直40个部门设计 、制作3期法制宣传展板；二是举办我市第二届法制文艺汇演。对以上活动，各县（区）要积极参加，精心组织。11-12月份，市局将对县（区）“农村法制宣传一条街”、学校、社区“法制宣传长廊”、“法律八进”示范点创建等项工作开展情况进行专项检查考核。', '要深入细致地做好“五五”普法规划实施中的查漏补缺工作。今年是“五五”普法关键的一年，国家、省、市“五五”普法中期督导工作已经完成，抓好最后验收工作的前期准备至关重要。各县（区）要进行一次“回头看”，对存在的问题，要高度重视，制定具体措施，加以解决。要积极协调当地党委政府抓好难点工作的落实，特别是要抓好普法档案的规范工作。', '一是人民调解要有亮点。继续推进人民调解“八进工程”，不断扩大人民调解覆盖面，调解领域不断向环境污染、征地拆迁、劳资关系等重大纠纷扩展，村居调委会要达到100%，企业、行业、院校、医院、物业、市场和社团调委会要达到80%以上。深化“春风化雨”矛盾纠纷集中排查化解活动，特别要高度重视国庆60周年矛盾纠纷集中排调工作，各县（区）要提早制定方案，切实把好第一道关口，使矛盾纠纷排查率达到90%以上，调解率达到100%，调处成功率达到96%以上。继续开展人民调解员培训工作，8月份，以市政府名义召开人民调解工作会议，对2008年度先进单位和优秀调解员进行表彰，并对与会者进行培训。重视行业协会建设，完成市、县（区）人民调解员协会换届工作。要积极探索人民调解工作的新路子，建立人民调解与民事诉讼制度、劳动争议调解、信访工作间的衔接机制。按照省司法厅的要求和安排，要在基层信访局和法院建立“人民调解工作室”。各县（区）要抓好人民调解进信访和进法院的组织工作，对基层涌现的典型事例要善于发现总结和及时推广，形成工作亮点，为省厅在承德召开现场会奠定基础和创造条件。', '二是安置帮教要有特点。坚持开展定期排查，提高排查的有效性。将排查的重点放在对人户分离、外出务工以及出监所后直接流落社会的刑释解教人员，防止因脱管失控引发重新违法犯罪。做好2009年刑释解教人员信息管理接收与衔接工作，确保人人登记在册，衔接管理到位。加强职业技能培训工作，密切配合劳动和社会保障部门加强对刑释解教人员的职业技能培训，加强过渡性安置基地建设，市级至少要创办一个第三产业为主的经济实体，每个县（区）建立不少于一个具有一定规模的安置基地，解决部分刑释解教人员就业安置的矛盾和压力。对符合低保条件的刑释解教人员，积极协调民政部门落实低保政策。', '三是社区矫正要有闪光点。加强社区矫正工作队伍建设，全面开展业务培训。落实《承德市社区矫正工作流程规定》等三项制度，逐步实现社区矫正对象的分类管理，对重点对象进行重点管控，重点矫正，以实现制度化、规范化和高效化管理。加强与成员单位的沟通和协调，注意发挥公、检、法等部门的作用，健全市、县、乡、村四级社区矫正工作网络，将社区矫正工作全面推开并不断推向深入。', '进一步加强司法所规范化建设。利用国债资金完成了标准化建设的138个司法所要巩固成果，尚未使用国债项目建设的82个司法所，要迅速启动今年项目的落实，争取国债资金的继续投入，完成剩余部分司法所的建设任务。此外，各县（区）要尽快调查摸底，将新成立的司法所和原来漏报的司法所排出名单，写清基本情况，尽快与当地发改委沟通，列入建设盘子。同时将名单报市局。各县（区）对已建国债项目司法所要逐一建立档案，力争实现国债建设项目所软、硬件建设同达标。', '要进一步提高司法所人员素质，组织司法所长广泛开展作风纪律教育和业务培训大练兵活动。以选配专业素质高、业务能力强、工作作风实的司法所长为重点，加强基层司法行政队伍建设，全面提高基层司法行政队伍的综合素质。', '要切实加强对司法所工作的指导督查力度，整合基层司法行政工作资源，充分发挥司法所在法制宣传、人民调解、法律服务、安置帮教和社区矫正等方面的职能优势，更好地为基层党委政府服务，为人民群众的生产生活服务，使基层司法行政工作在维护社会稳定、促进经济社会发展中发挥更大的作用。', '根据全省司法行政基层工作调度会议精神，积极抓好司法部《关于进一步加强乡镇司法所建设的意见》，进一步理顺司法所管理体制，逐步将司法所建成县（区）司法局的派出机构，实现县（区）司法局与乡镇人民政府（街道办事处）双重管理、以司法局为主的管理格局。', '要巩固基层法律服务所的教育规范整治成果，教育引导基层法律工作者主动自觉地参与法制宣传、法律援助、人民调解、信访接待等工作，进一步拓展基层法律服务领域。市局将对此进行督导检查，对全市基层法律服务所主任进行职业道德和执业纪律集中教育培训。', '要继续以“保增长、促发展”专项法律服务行动为主线，引导和带动各级法律服务机构和工作人员积极参与到活动中来，为推进全市经济发展和社会稳定服务。', '在全市律师队伍中开展“中国特色社会主义法律工作者”主题教育实践活动，紧紧围绕我国律师是中国特色社会主义法律工作者的定位，着眼于提高律师队伍素质，增强服务能力。要继续加强律师行业的规范化管理，不断拓展律师服务经济、社会、法制建设的领域，律师年人均办案数量要高于全省平均值。健全律师执业档案，建立法律服务质量跟踪体系，加强律师出庭活动的监督，不断强化对律师行业的监管力度，力争无违法违纪和投诉被查处案件发生。创新服务方式，各级法律服务顾问团要充分发挥作用，为党委政府重大决策、重点项目建设提供法律建议，积极参与领导接访工作，介入重大、疑难信访案件，协助处理重大群体性和突发性事件。积极参与“三位一体”大调解活动，加强对律师代理群体性事件、敏感案件的指导，正确行使辩护权，努力实现法律效果与社会效果的统一。加强律师党建工作，实现律师事务所党的组织全部建立、律师党员组织关系全部接转，律师党组织和律师党员的核心作用和先锋模范作用得到充分发挥。', '要结合《中华人民共和国公证法》的深入学习，建立和完善公证员执业诚信、风险责任保险与投诉查处等监督与管理制度，强化公证质量问责，严把公证质量关，对因错证、假证而导致重大政治、经济影响的要严格问责，决不姑息。要在服务经济发展大局和维护稳定的前提下，积极拓展证源，继续保持人均办证量全省先进位次。继续开展“大手拉小手”同业互助工作，广泛开展交流活动，拓宽发展视野，改善公证办公环境和工作条件，县（区）公证处办公用房人均要达到25平方米。要探索建立和谐顺畅有利发展的局处关系，最终形成司法局、公证处共同发展的“双赢”局面。', '要认真贯彻落实全国第五次法律援助工作会议和全省法律援助工作会议精神，以纪念《法律援助条例》实施6周年为契机，继续组织有力度、有影响、有成效的宣传工作，在全市开展一次大型宣传咨询活动，落实便民利民措施。坚持以办案为中心，着力解决群众法律援助需求与法律援助提供能力不足的矛盾。继续把农民工维权案件作为法律援助工作的重中之重，简化程序，将失业下岗人员、零就业家庭和返乡农民工纳入援助范围，将就医、就学、就业纳入援助范围，不断扩大法律援助服务对象，做到应援尽援，确保完成省厅下达的办案数量增长20%的目标。要充分发挥法律援助机构的主导作用，整合社会资源，充分发挥律师、公证员、基层法律工作者、法律援助工作站和法律援助志愿者的作用，律师和基层法律服务工作者年办理法律援助案件至少要达到2 件以上。要加强规范化建设，各县（区）要逐步建立和推行法律援助服务质量监督考评制度，健全案件受理、审查、指派、承办、监督等各环节的程序规则。市局将加大对各县（区）法律援助经费使用情况的监督检查力度，逐步落实市、县（区）法律援助管理的双重职责，争取按照标准落实法律援助人员办案补贴，确保经费使用效力和资金安全。', '要高度重视司法考试工作，按照司法部“四严”要求， 确保实现“四最”目标。要切实加强司法鉴定行业的监管，继续健全完善规章制度，确保不出假鉴错鉴，年末实现省厅关于人均办理鉴定案件高于全省平均值、投诉率低于全省平均值的目标。', '加强劳教场所安全管理工作，确保实现“四无”目标。加强劳教人民警察队伍建设，严格执行国家的法律法规，提高教育挽救质量，劳教人员改好率达到90%以上。', '要切实抓好政法网建设工作，这是今年省委政法委安排的一项重点工作，也是我市司法行政系统提高信息化建设水平的难得机遇。时间、标准和任务要求都非常明确，要求八月十八日开通。各县（区）司法局必须高度重视，落实措施，把各项工作做到位。', '下半年的目标任务已经十分明确，下一步关键是抓落实，要采取各种行之有效的措施、把各项目标变为现实。', '（一）围绕目标抓落实。要牢固树立“全系统一盘棋”的思想观念，增强工作紧迫感，牢固树立责任意识、大局意识、竞争意识和服从意识，同心协力，共同把下半年工作做好。总体来讲，上半年各项工作发展良好，但也还有一些工作没有达到时间过半，任务过半，个别工作进度甚至远远落后于时间进度要求。年初市局已下发了本年度目标任务分解表，请各县（区）局和市局各科室对照年初工作要点及目标考核细则，对今年以来开展的工作一项一项对照检查，逐项分析梳理，找出存在的差距和问题，有针对性地制定措施，加大落实力度，确保全年各项目标任务圆满完成。', '（二）明确责任抓落实。一要明确领导责任。按照领导分工，市、县两级领导班子成员都要履职尽责，在其位，谋其政。二要明确岗位责任。一个岗位，一份责任。市局各科、室、所、中心都要围绕自身承担的职责和岗位要求，抓好指导和督导，切实履行好岗位职责，督促工作落实。', '（三）注重方法抓落实。要创造性地开展工作。创新是充满活力的前提，更是争先创优的保证。要有创新的理念，创造性的工作措施，创造性的工作实效，才能激励自我，激发活力，推动工作上档次，上水平。要借鉴性地开展工作。他山之石，可以攻玉。今天， 11个县（区）都汇报了工作，各有特色，大家可以相互学习借鉴，还可以走出去学习考察，开拓思路，开阔视野，互通信息，取长补短。要灵活性地开展工作，光肯干还不行，要学会 “四两拨千斤”，工作做到点子上，就是要突出重点，以点带面，以点上工作的突破推动面上工作的开展。', '（四）转变作风抓落实。要以学习实践“科学发展观”、“干部作风建设年”、“五民”主题实践、行政效能建设等活动为抓手，促进队伍作风转变，提高工作效率，推动工作落实。要深入基层，深入群众、了解群众诉求，帮助群众解决实际问题。当前，“不想事，不理事，不干事”的现象在我们系统不同程度地存在，有的人没有清醒地认识到自己处在什么岗位，应该干什么事，应该怎样干事，工作推诿扯皮，不负责任，无论做什么事都先考虑个人利益，患得患失。这对我们的整体工作带来很大危害。我们的司法行政干警、律师、公证员、基层法律服务工作者、法律援助工作者都身处重要岗位，肩负一定重任，我们要切实转变作风，用心想事、用心谋事、用心干事，既要干成事，又要不出事，以良好的作风推进司法行政工作实现大发展。要抓好行风民主评议工作。根据实际需要，各县（区）局行风民主评议工作今年要力争进入前6名。我在这里强调，年终考核时，行风评议工作实行“一票否决”：一是未进入前六名的取消综合评优资格，二是最后一名的，取消所有单项工作评优资格。请大家给予足够重视。', '（五）强化督查抓落实。今年省厅将对各设区市司法局工作进行全面考核，各项工作全部量化，并提出了具体目标和分值，同时提出四项“一票否决”工作。即，司法考试工作发生试卷泄密、团伙作弊等恶性事件的；劳教工作完不成“四无”目标的；信访工作发生一起司法行政系统内部五人以上进京赴省越级上访事件，或因工作失误引起群众不满，发生一起五人以上进京赴省越级上访事件的；民主评议结果名次靠后的。这四项出现那一项，都实行一票否决，不得评为实绩突出和较好。这是刚性要求，也是铁的纪律。市局也将按照科学发展观的要求，完善对县（区）司法行政工作的考核，修订考核细则，优化考核标准，适时组织年终考核，合理运用考核成果进行表彰奖励。各县（区）也要结合实际，制定切实可行的考核办法，以考核激励和推动基层各项工作的落实。', '同志们，时间紧迫，时不我待。半年已经过去，让我们继续发扬不畏艰辛、吃苦耐劳的精神，坚定信心，苦干实干，发扬成绩，弥补不足，全面完成今年各项任务，为维护承德的和谐稳定，全面开创我市司法行政工作新局面作出更大的贡献！']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>10</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>杨汭率承德市党政代表团赴山东省学习考察</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2010-11-22</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F11%2F22%2Fart_360_76284.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76284</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['·山东省副省长才利民专程到青岛市看望会见我市党政代表团，泰安、临沂、青岛、烟台四市党政领导与我市党政代表团分别会谈和深入交流；', '·我市党政代表团围绕休闲旅游、城市建设等内容共考察四市近30个重点项目和企业，取得丰硕成果。', '图为山东省副省长才利民（中）和市委书记杨汭（右一）等我市党政代表团领导一起在山东青岛啤酒博物馆考察。 贾建勇 摄', '本网讯（记者贾建勇）往返3000余公里，历时五天整，从燕山腹地到泰山脚下，从“红色临沂”到踏入胶东半岛，再到渤海湾亲身感受飞速发展的蓝色“海洋经济”。11月15日至19日，市委书记杨汭率承德市党政代表团赴山东省泰安市、临沂市、青岛市、烟台市就大力发展休闲旅游、加快城市建设等方面进行学习考察。', '市委常委、常务副市长宋立民，市委常委、宣传部长韩福才，市委常委、市委秘书长阮树平，市人大常委会副主任吴岳，市政协副主席陈树峰和各县区委书记、高新区工委书记、平泉县县长，市委政策研究室，市发改委、财政局、城乡规划局、城管局、文物局、旅游局的主要负责同志参加学习考察活动。', '在全市上下围绕“建设国际旅游城市”总目标而努力奋斗的关键阶段，在我市深入谋划“十二五”的重要时期，为学习借鉴发达城市的经验和做法，有针对性地促进各项重点工作上层次、上水平，推动我市“十二五”又好又快的发展是这次考察的主要目的。经过时间短暂但日程紧凑、作风深入、内容丰富的学习考察，我市党政代表团一行深受震撼，收获很大。', '考察期间，山东省副省长才利民专程到青岛市看望会见我市党政代表团，泰安、临沂、青岛、烟台四市党政领导亲自陪同，并与我市领导深入交流发展情况和合作意向。我市党政代表团先后实地考察了泰安市泰山风景区、山东天宇自然博物馆，临沂市规划局、市场发展史馆、沂南县竹泉村旅游度假区，青岛啤酒博物馆、天幕城、小青岛、海尔集团公司、青岛奥帆中心，烟台张裕酒文化博物馆和张裕文化中心、体育公园、城市规划展览馆等处，并先后与海尔集团和青岛市委、市政府举行座谈会。11月19日晚8点，在考察活动结束后，承德市党政代表团在烟台市东山宾馆驻地召开总结会，市委书记杨汭主持座谈会并讲了重要意见。', '在与会市领导分别讲了具体意见后，杨汭指出，这次学习考察虽然时间不长，但收获很大，从这四个城市总体看，至少有六个方面值得认真学习借鉴。一是每到一个城市都有一个长远的发展战略。它不是一个短期的、年度性的任务，而是一个符合本地实际，符合经济发展规律的长远的战略性思路。二是无论四个城市还是山东全省，都让人深深感受到咬定目标不放松，真抓实干，不摇摆、不折腾。三是唯实创新的经验非常可贵。一切从自己实际出发，不断地创新，在原有基础上和原有条件下赋予时代的内涵。四是市场经营的理念在各级干部心中已经树立起来。走的这四座城市，都注重创城市品牌，实际上就是一种市场经营理念。五是围绕中心形成合力干事业的劲头。六是永不满足的进取精神。', '杨汭指出，通过这次学习，结合我市实际，我们要重点从以下几个方面去认真研究和深刻思考。第一，要切实增强发展的紧迫感。这次我市党政代表团赴山东学习考察是处在一个重要时期。一是“十一五”即将过去，这是承德发展最快最好的时期，为下一步发展奠定了很好的基础，使承德站在了一个比较好的基础上向一个新的目标出发。二是“京津冀一体化”成为国家的重要战略，能不能抓住“十二五”实现承德又好又快发展至关重要。三是当前正处在加紧谋划“十二五”的关键时期，借鉴发达地区先进经验和做法具有重要的意义。第二，要紧紧抓住建设国际旅游城市这个主攻目标不放松。第三，要围绕这个目标强力推进发展现代产业和推进城镇化两大任务。实现建设国际旅游城市目标，这两个“轮子”必须快速前行。休闲旅游作为引领和带动整体经济发展的产业，要优先发展。城镇化对承德来讲，中心任务是要把中心城区和县城建设好，这是城镇化的主体和核心。不把中心城区建设好整个城市就没有竞争力，不把县城建设好县城经济就没有活力。推进城镇化，在城市建设上一定要尊重文化，能保护的要保护好，能挖掘的要深入挖掘，能利用的要充分利用，能发展的要加快发展。还要尊重自然，山、水、林、木都是城市的生命，顺势而为才是城市的特色。第四，实现这两个任务就要死死抓住项目这个核心。一定要抓住大项目，引进大的战略投资者，不能小打小闹，尤其要大开放、大气魄、大策划、大运作，打造出有品质的城市。第五，要下定决心加快体制、机制的改革创新。不改革没有动力也没有活力，也不适应科学发展、加快发展的新要求。第六，在城市建设、产业发展等重点工作中都要学习发达城市经验做法，更加重视人才培养，更加注重市民素质的提升，更加注重品牌的打造，加快基础设施建设，提升服务功能和水平。通过这次学习考察，各县区和各级各部门进一步解放思想，转变观念，开拓创新，强化责任，形成合力，以只争朝夕、赶超拼搏的干劲努力把承德的各项事业不断推向新的阶段，取得新的更大突破。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>10</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>市政府考察团赴两省五市学习考察圆满结束</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2010-12-06</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F12%2F6%2Fart_360_76380.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76380</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['本网讯（政综一）一路走来，从“煤电之城”阜新经济发展的“华丽转身”到鞍山向钢铁深加工要市场、要效益的“四个转变”，处处领略到东北老工业基地的振兴脚步；从“中国钒钛之都”攀枝花推进自主创新的大气魄到全国统筹城乡综合配套改革试验区成都的“大变革”，处处展现出西部大开发的铿锵步伐。11月26日至12月2日，市长张古江率领市政府考察团，赴辽宁省阜新市、鞍山市、沈阳市和四川省攀枝花市、成都市等“两省五市”进行学习考察。', '市政府副市长李维、贾玉英，市政协副主席、市发改委党组书记陈庆武，市政府秘书长王学，市工信局、国土局、环保局、科技局的主要负责同志，各县区长，开发区管委会主任，新城建设和钒钛基地建设指挥部办公室的负责同志及承钢、钛通、万利通、颈复康等企业的负责人参加学习考察。', '学习考察活动旨在深入贯彻党的十七届五中全会和河北省委七届六次全会精神，学习借鉴先进地区在产业聚集区和城市新区建设等方面的经验做法，进一步解放思想，找准差距，拓宽“十二五”规划思路，加快产业聚集区建设，提升城市发展水平，努力推动全市产业结构调整和经济发展方式转变。此次学习考察也是近年来市政府组织的层次最高、规模最大、行程最远、历时最长的一次外出考察。考察活动日程紧凑、内容丰富。每到一地，考察团都受到当地党委政府的热烈欢迎，并深入交流发展情况和合作意向。考察团先后考察了“两省五市”7个工业园区（开发区）和城市新区，3个城市规划馆，2个科技研发中心及近20家企业。一路考察、一路对标、一路问策、一路收获，大家做笔记、查资料、拍现场，认真求教，汲取经验，升华理念。考察团每一名成员都被各省市的发展氛围之浓所感染，为其发展速度之快所震撼，为其发展动力之强所鼓舞。', '考察期间，市长张古江反复强调，这是一次解放思想之旅、学习考察之旅、寻计问策之旅、深化合作之旅。通过学习考察，感触颇深、受益匪浅。总体看，几个城市至少有五个方面值得我们认真学习借鉴。一是用战略规划引领发展的大视野；二是咬定目标不放松的大气魄；三是产品向“精”、“特”纵深发展的大气势；四是牢牢把握循环经济理念、以产业园区支撑科学发展的大手笔；五是不断推进自主创新争创发展新优势的大力度。要通过学习考察，努力消化吸收先进地区的先进理念、得力措施和成功经验，牢固树立敢于冲破传统僵化模式的胸襟与气魄；不断激发干大事、创大业的勇气与智慧；充分展现加快发展、加速转型的活力与激情。', '学习考察结束前夕，考察团在成都市召开总结交流座谈会。受市长张古江的委托，副市长李维主持会议。大家说感想、谈体会、谋发展、议跨越，统一了思想，形成了共识。一要进一步明确发展战略和思路，用战略思维引领发展，用战略布局和平台支撑发展，用战略的开发理念延伸发展，尤其要坚持“大字当头、强在其中，快字当头、好在其中”的发展思路，更加注重提高经济发展的质量和效益，努力推进跨越式发展；二要进一步解放思想，要增强责任感和紧迫感，在产业统筹发展、经济环境建设、产业链条招商等方面做好解放思想、开拓创新的工作；三要进一步形成抓经济的合力，要像抓三年大变样那样抓工业聚集区建设；四要进一步优化发展环境；五要提高对外开放水平，改进招商引资办法，采取产业链招商、小团组招商、开发区和园区全员招商等举措；六要进一步加强自主创新，要加大财政科研经费投入，强化创新服务平台建设，坚持创新与中试、产业化生产有效对接，巩固企业技术创新主体地位，集中突破一批核心技术和关键技术，为产业发展提供坚强的科技支撑；七要进一步创新体制机制，勇于打破传统体制机制和发展路径的束缚，形成转型发展的巨大活力。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>10</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>承德县构建创先争优活动长效机制</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2010-11-17</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F11%2F17%2Fart_360_76253.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76253</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['本网讯 （通讯员陈德胜、王贺勋，记者陈建）承德县认真总结学习实践科学发展观活动好经验、好做法，构建长效机制，确保创先争优活动常抓不懈、常抓常新。', '健全农村党员教育培训制度。依托县、乡、村“党员服务中心”实施“万名农村党员培训工程”，组建了党员专家讲师团入农村进行巡回技术指导，对全县900余名企业、街道、下岗、农村等一线党员进行培训；组织优秀农村党组织书记到外地学习考察，开阔视野，不断提高农村党员的理论素养和“双带”能力，使全县90%以上农民党员掌握了一门以上的致富技术。', '在全县基层党组织和党员中开展“双承诺双评议”活动，全县共有844个基层党组织和17816名党员参加了承诺活动。同时健全“党组织建设抓书记、书记抓党组织建设”为主要内容的双抓责任制。每月召开一次党组织书记调度会，每季度分行业召开一次经验交流会。县委创先争优活动督导组定期或不定期对全县党组织活动开展情况进行集中督导检查，对存在的问题及时下发督导通知书，限期整改。', '把创先争优活动与培先转后工作有机结合起来。以全国先进基层党组织下板城镇朝梁子村、省级先进基层党组织两家满族乡大杨树村、县级先进基层党组织新杖子乡南台子村为标杆，对全县48个先进基层党组织和民营企业家姜桂学等10名优秀共产党员进行重点培树，并组织先进基层党组织书记和优秀共产党员在全县党员“双育工程”培训班上做典型报告，用身边的人和事教育广大党员。', '积极开展城乡党建互动。县直单位党组织与乡（镇）村党组织结对子，从人、财、物等方面进行帮扶，全县共选派86个县直帮扶单位科级干部组成23个工作组驻村工作，集中培树创先争优活动典型。截至目前，共落实帮扶资金125万元，帮扶项目36个，化解矛盾纠纷89件。培育主导产业12个，开展技能培训576人次。使基层党组织和党员学有标杆、赶有目标，形成个个争当“五个好”基层党组织，人人争做“五个模范”、优秀共产党员的良好局面。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>10</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>市委市政府召开全市休闲旅游产业发展大会</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2010-11-24</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F11%2F24%2Fart_360_76305.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76305</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['提出：举全市之力抓住关键环节解决突出问题推进休闲旅游产业大发展大繁荣 加快国际旅游城市建设步伐', '本网讯 （记者贾建勇、武海波）在深入谋划“十二五”发展的关键时期，11月24日，市委、市政府召开全市休闲旅游产业发展大会，贯彻中央十七届五中全会和省委七届六次全会精神，落实市委十二届六次全会确定的目标和任务，结合我市党政代表团赴山东四市学习考察体会，深入研究休闲旅游产业发展面临的形势，找准制约问题，确定工作任务，制定发展措施，以促进全市休闲旅游产业大发展、大繁荣，加快国际旅游城市建设步伐。市委书记杨汭、市长张古江分别在会上作重要讲话。', '市委、市人大、市政府、市政协全体领导，市法院院长、市检察院检察长出席会议。市委常委、常务副市长宋立民和市委常委、宣传部长韩福才分别主持了上午和下午的会议，会议进行了分组讨论和典型发言。', '杨汭强调，要充分认识休闲旅游产业在推进科学发展、加速转型升级中的重要战略地位，增强加快发展的责任感和紧迫感。第一，休闲旅游对于承德转变发展方式具有战略先导作用。休闲旅游是一、二、三产业的融合体，能够转化一产，提升二产，带动三产，促进三次产业转型升级。休闲旅游是消费型、绿色型、就业型产业，能够有效促进经济增长向消费、投资、出口协调拉动转变。能够逐步转变我市过度依赖矿产资源开发这种低层级的发展状态，调整优化产业结构。能够有效缓解社会就业压力，在改善民生、增加收入、促进和谐上具有重要作用。第二，休闲旅游对于提升承德区域竞争力具有核心引领作用。生态是我们最优的资源，文化的价值不可估量，山庄外庙是最响的品牌。休闲旅游最能够有效地整合、利用生态和文化这两大优势，打造区域核心竞争力；休闲旅游是一个高成长性的且是永远的朝阳产业。我市处在环首都经济圈，近邻消费潜力巨大的京津高端市场，经过努力完全能够将休闲旅游做成这个区域的龙头“老大”。第三，休闲旅游对于加快承德城镇化进程具有关键支撑作用。', '休闲旅游产业能够与城镇化互动共进，是城市产业的最佳选择，只有休闲旅游的快速发展，才能够持续带动城市人口和生产要素的聚集，从根本上加速城镇化；城市是旅游的最大产品、最响品牌和最直接载体。通过休闲旅游与城市建设的融合，我市就可以跳出先低端产业、后高端产业，先工业化、后城镇化的传统发展路子，发挥后发优势，实现后来居上。', '杨汭强调，要抓住关键环节，解决突出问题，全力推进休闲旅游产业快速发展。一要着力解决休闲旅游产品少、档次低的问题。要立足于观光旅游形成的品牌效应和吸引力，加快形成多元旅游型态，打造四季旅游产品。要把避暑山庄、外八庙这些宝贵的旅游资源与现代休闲项目配套起来，把良好的山水、冰雪、草原、温泉等生态资源与现代健康产业融合起来，把皇家文化、佛教文化、民俗文化与参与性娱乐项目结合起来，着力打造山庄外庙、坝上森林草原、金山岭长城三大精品板块，重点发展文化创意、健康养生、体育运动、休闲度假四大类旅游产品，真正把四季游的品牌树起来。二要着力解决旅游硬件设施支撑力弱的问题。加快完善旅游综合交通体系，加快提升旅游配套服务体系，加快建立旅游公共服务体系。三要着力解决服务水平低、质量差的问题。加强对旅行社、导游、市民和党政机关工作人员的培训管理，全面提高旅游服务水平，以世界的眼光，世界的胸怀，世界的风度，迎接世界宾客。四要着力解决宣传推介不够的问题。要包装大品牌，利用大平台，组织大活动，舍得大投入，集中资金，整合宣传资源，优化宣传方案，实现效益的最大化，效果的最优化。五要着力解决旅游开放度低的问题。要重视项目、会抓项目，善于把休闲旅游项目与一、二、三产结合起来，改造提升原有项目，积极谋划新的项目，创优发展环境，引进战略投资者。要重视人才，既注重培养本地懂经营、善管理的人才，更要积极引进国内外高端专业人才，为旅游发展提供智力支撑。', '杨汭强调，要切实加强领导，狠抓落实，形成推动休闲旅游产业加快发展的强大合力。第一，各级党委政府要真正重视、牢牢抓住。市、县都要组成高规格的旅游推进机构，“一把手”负总责。要抓规划，着力完善全市总体规划，细化三大板块具体规划，抓好配套专项规划，做到与产业发展相融合，与城乡建设相结合，以科学前瞻的规划引领休闲旅游产业健康发展；要抓创新，进一步理顺旅游管理体制，整合旅游资源，形成集合效应，完善旅游推进机制；要抓政策，加紧研究出台支持休闲旅游产业发展的各项支持政策以及有效招商的优惠政策；要抓队伍，加强旅游行业主管部门的力量，县区要保证旅游主管部门有人办事，有钱办事。第二，各级各部门要形成合力、真抓实干。要强化“大旅游”观念，牢固树立“一盘棋”思想，主动参与、协调联动。第三，全市上下要着眼长远、持续用力。各级各部门要结合自身实际，多做基础性工作，做实经常性工作，制定任务分解方案和具体落实措施，使每项任务都有人负责、有人承担，每项工作都有进度安排、时限要求、落实结果，每年都要办成几件推动休闲旅游产业发展的大事、实事。', '张古江指出，我市休闲旅游产业发展面临的总体形势可以 “三个关键阶段”作为基本判断，即正处于一个国内外旅游经济环境发生深刻变化、旅游消费提速升级的关键阶段；正处于一个经济区位功能发生转化，体制机制改革深化、基础设施约束弱化的关键阶段；正处于全行业升级转型发展、即将全面腾飞的关键阶段。要抢先角力，以先知先觉的战略眼光，准确判断承德旅游产业的发展形势。既要深刻认识国际国内旅游业发展的大势，更要牢牢把握我市旅游业已经具备的“天时、地利、人和”的有利因素，以更高的起点、更大的手笔、更充分的准备迎接旅游业大发展的到来。讲“天时地利人和”，归纳起来就是：“万事俱备不欠东风、资源禀赋不同凡响、肩上责任不容懈怠”。要顺势借力，以洞察先机的超凡睿智，牢牢把握承德旅游产业的发展优势。', '张古江强调，今后5-10年是我市休闲旅游产业发展的关键时期，要树立雄心壮志、对标先进地区、明确发展目标，实现率先发展。“十二五”期间的指导思想是：要以科学发展观为主题，以加快旅游业转型升级为主线，以建设国际旅游城市为总目标，推进观光游向休闲游、一季游向四季游、景点型向产品型、事业型向产业型、旅游城市向城市旅游转变，实现由旅游资源大市向旅游经济强市跨越，着力打造皇家文化和生态休闲国际旅游目的地。要明确四个定位，即产业定位、产品定位、市场定位、城市形象定位。要坚持四个原则，一是必须坚持大项目、大企业、大开放的原则，努力打造“顶天立地”的大产业；二是必须坚持政府引导与市场机制并重的原则，努力形成“铺天盖地”的大声势；三是必须坚持资源保护与开发并重的原则，努力保持“蓝天绿地”的大环境；四是必须坚持产业发展惠及民生的原则，努力营造“欢天喜地”的大氛围。要竭尽全力，以争先进位的超常举措，全力创造承德旅游产业的发展大势。做到规划先动、文化牵动、全市联动、体制推动、宣传带动“五动”并举，开创全市旅游产业发展的新局面。', '各县区委书记、县区长、主管旅游工作的副县区长，开发区工委书记、管委会主任；县区及开发区发改、财政、旅游等部门及重点乡镇政府主要负责同志；市直各单位、省属以上企事业单位、重点旅游企业、旅游景区、星级饭店、旅行社及部分市重点工业企业主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>10</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>市委统战部组织民主党派工商联负责人赴唐山对口交流考察</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2010-11-09</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F11%2F9%2Fart_362_8941.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_362_8941</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['本网讯 （胡希英、唐楠松）11月3日至4日，市政协副主席、市委统战部长姚华带领民革承德市委主委胡晓红、民盟承德市委主委曹凯、民建承德市委主委丁万明、民进承德市委主委孔庆龙、农工党承德市委主委雷威、九三学社承德市委主委贾珍山、市工商联主席段晓岩赴唐山对口交流学习考察。这是承唐两市民主党派、工商联第一次集体对口交流联谊活动，目的就是使承唐两市的民主党派主委、工商联主席带着感情、带着责任相互沟通、相互交流、共话友谊、共谋发展，在推动多党合作事业上结出新果实，在认识社会主义核心价值体系上得到新提高。', '双方就民主党派、工商联工作进行了切磋探讨，对于加强党派自身建设、树立践行社会主义核心价值体系、提高参政议政水平、密切与政府部门的联系、落实内部监督制度、冀东北五市民企合作联谊等交流了各自经验和体会。在唐期间，还参观考察了唐山市规划展览馆、唐山大地震遗址，生态建设工程南湖、曹妃甸工业园区、首钢指挥中心、矿石码头等，深为唐山近年发展建设的大手笔、大气魄、大变化所震撼。大家普遍认为，承唐两市地缘相近，人缘相亲，文脉相连，在工作中更应该互相交流、互相沟通、互相启发、互相借鉴，共同推进两地多党合作事业的发展。这次活动很有新意，不愧为开阔眼界之旅、学习借鉴之旅、思想解放之旅。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>10</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>杨汭张古江带领我市考察团赴北京故宫博物院学习考察</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2010-08-30</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F8%2F30%2Fart_360_75795.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_75795</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['本网讯（记者贾建勇、武海波）就加强世界文化遗产承德避暑山庄及周围寺庙的保护工作，8月30日，市委书记杨汭、市长张古江带领我市考察团赴北京故宫博物院学习考察。这是改革开放以来，我市就文物保护工作最大规模的学习考察活动，也标志着我市与故宫博物院的合作进入新的阶段。省文物局局长张立方共同考察。', '市委常委、宣传部长韩福才，市委常委、市委秘书长阮树平，副市长贾玉英和市直有关部门负责同志参加学习考察。实地考察结束后，双方举行座谈会。', '北京故宫博物院院长郑欣淼在致辞中说，承德作为清朝的夏都，与北京有着不可分割的密切关系，而作为清朝皇家园林的避暑山庄从历史上来讲就是清朝宫廷管理的重要部分。特别是新中国成立以来，避暑山庄与故宫在文物调拨、学术交流、古建维修技术与理念等方面都有着密切的合作交流。郑欣淼表示，承德避暑山庄及周围寺庙与故宫联系密切，又同是世界文化遗产，北京故宫博物院帮助和支持承德进一步做好文物保护工作是义不容辞的责任，我们将不断加强与承德在文物保护方面的合作，共同深入挖掘蕴藏其中的丰富文化内涵，共同做好文物的保护和优秀文化的传承、发展工作。', '杨汭在致辞中说，通过考察和听取介绍，感到不虚此行，很受教育，大开眼界。故宫博物院在展示、弘扬优秀历史文化，在利用文化的传承方面都做出榜样，特别是故宫博物院郑欣淼院长的讲话，既体现了对承德的关爱支持，也为我们今后更好地向故宫博物院学习，为双方进一步加强交流合作指明了方向，指出了路径。', '杨汭说，承德是一座因山庄外庙而建而兴的城市。山庄外庙和故宫博物院在清朝的文化记忆中一脉相承，在清朝皇家文化上共同承载着清朝的兴衰历史，连在一起才真正是清朝完整、全面、细致的历史展示。山庄外庙的文化内涵也应该像故宫一样得到很好的、进一步挖掘和展示。党中央、国务院一直对承德避暑山庄和外八庙保护工作高度重视，这体现了中央领导对承德的关爱，体现了站在一个更高层次上对历史文化的尊重，更为承德弘扬优秀文化，加快发展文化产业、文化事业带来了宝贵机遇。作为承德市本身，山庄外庙既给承德带来知名度，也是承德一个最大的文化资源，是承德人的财富，我们必须抓住机遇也有责任把瑰宝保护好、利用好、发展好。承德代表团这次来到故宫博物院，不光是学习考察，重要的是从现在开始和故宫博物院建立一种很好的合作关系。故宫博物院是世界级的，承德避暑山庄从它的资源文化角度也是世界级的，只是目前在管理、保护、利用上还没有达到这样的水平。我市从去年开始提出要建设国际旅游城市，目的就是把山庄外庙用国际的眼光、国际的品质利用保护和发展好。要通过这次学习考察着重学习故宫好的保护、管理经验和创新的理念。故宫博物院用现代技术和现代科技的手段让古老的文化焕发了青春，这方面承德更要很好的学习，再好的文化只有展示传承出来才有价值。故宫博物院拥有人才、技术和高站位的优势，我们要努力借助这些优势把山庄外庙保护好，这是双方共同的心愿，更是我们的责任，同时也是国家领导对我们的期望。双方今后要加强全面合作，包括加强对技术和管理人员的培训。京承高速已经通车，随着京承高铁即将开通，交通将更加便利，双方要从展览交换上形成更好的机制，以不断拓展合作空间，共同使山庄外庙和故宫这一脉相承又相依近邻的历史文化瑰宝相映生辉，走向全世界。', '考察团一行还听取了北京故宫博物院常务副院长李季关于故宫博物院的基本情况介绍，观看了文保方面的数字影片，考察了故宫武英殿文物保护工程。双方在座谈中达成一致共识，要在合作进入新阶段基础上，不断开展业务交流、建筑维修、文物清理以及展览、安防、技防等方面的合作，共同做好文物的保护和优秀传统文化的传承、弘扬工作。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>10</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>隆化三堂模式创新工作方式收效明显</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2010-10-10</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F10%2F10%2Fart_360_76005.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_76005</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['本网讯 （刘畅、祁立红）为提升各级党组织领导干部的领导能力和执政水平，加强党组织的工作力和战斗力，隆化县创新工作方式，着力推进学习型党组织建设，推行了“三堂”学习模式，取得了显著成效。', '请进来讲，开设“专家讲堂”。利用“高层讲坛”这一学习平台，该县积极邀请理论功底深厚的专家学者授课，拓宽了党员干部的眼界。今年以来，已开办“高层讲坛”5期，培训干部3000余人次，各乡镇、部门邀请讲师团围绕国家政策、科技、法律等授课近100次，受众人数7万余人。', '走出去学，开设“流动学堂”。该县组织干部近2000人外出学习考察，结合“下基层”、“下企业”等活动，把学习场所搬到乡镇、部门、工厂、企业和群众家里，针对存在的实际问题现场学习、现场研究解决。', '坐下来论，开设“讨论课堂”。结合开展“创先争优大讨论”活动，组织党员干部围绕学习中的心得体会、工作中存在的不足、在基层遇到的问题等进行集中讨论，通过讨论，发挥集体智慧，丰富自身知识面，找出解决问题的办法，达到提高自身素质和工作能力的目的。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>10</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>转变发展方式让软肋变硬宽城在同业对标中再造竞争新优势纪实</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2010-09-07</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F9%2F7%2Fart_360_75845.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_75845</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['承德市人民政府 本市要闻 转变发展方式让“软肋”变硬——宽城在同业对标中再造竞争新优势纪实', '近年来，依托丰富的矿产资源，宽城的工业经济突飞猛进，一日千里，各项经济指标在全市始终处于领跑的位置。然而，产业链条短、产品结构不合理、技术落后等问题也日益凸显。', '怎样转？怎么调？怎么变？如何让“软肋”变硬？如何再造竞争新优势已成为县委、县政府面临的严峻课题？', '为此，宽城县委、县政府领导亲自率队，赴吉林、辽宁、四川、云南、江西学习考察先进技术、经验和做法。', '“解放思想，科学发展”，宽城利用取回的“真经”，对工业经济发展进行了新的谋篇布局。', '——整合。资源是宽城最大的优势，也是宽城“二次创业”的根本依托。全县有单体矿山产能在20万吨以上的3家，10—20万吨的33家，5-10万吨的21家，5万吨以下的8家，规模普遍偏小。要实现新的发展，就绝不能走传统的粗放式开发的老路。该县按照“铁选一体化”的要求，坚持以资源为媒介、以市场为依托、以企业为载体，整合现有铁选企业，逐步使铁选企业单体产能达到30万吨以上，积极鼓励新上大型铁选厂，全力抓好在建铁选厂建设，确保年内新增铁精粉产能150万吨以上、产量100万吨以上。并力争通过1-2年的努力，将全县铁精粉产能稳定在1000万吨左右，对财政收入的支撑在15亿元以上，彻底实现“因铁而兴到因铁而强”。', '——改造。在与国内外一流企业对标考察活动中，企业家们认识最深的就是向科技要效益的好处，只有引进先进工艺、淘汰落后产能，才能促使企业提档升级。', '宽城把提升装备、技术和管理水平作为企业发展的战略基点和改造重点，不断引进新技术、新工艺、新设备和先进管理模式，调整内部结构和生产经营方式，促进集约化发展。天宝、京城等矿山企业利用新兴技术提升传统产业，引进推广使用电机变频器、新式破碎机、陶洗磁选机和尾矿干排等新设备、新工艺，综合节水10%、节电20%、铁精粉提高4-5个品位，吨利润增加150元。', '——延伸。该县把工作重点由采选调整为钢延，全力加快冶金主导产业结构调整升级步伐，加快县内铁选企业集团与钢铁企业进行整合重组进程，加快发展钢延及配套延伸产业。以隆城钢管厂、帝圣公司为依托，研发生产大口径复合钢管、复合钢板、民用和军工管材、大口径钢管、石油铸管等管材产品，达到年产不锈钢产品40万吨、钢管100万吨规模。在金融危机环境下，该县依托盛丰、兆丰两个钢铁支柱企业，使全县三分之二左右的铁精粉实现了就地加工转化增值，走活了全县经济一盘棋。', '——承接。宽城抓住承接沿海及京津地区技术转移这一区位优势，以在京的“国字号”大企业、大集团和科研院所为主攻方向，通过主动承接、重点承接、有效承接，着力嫁接引进一批科技含量高、附加值高、带动能力强、符合科学发展要求的加工制造、高新技术产业类项目，努力把宽城打造成为承接京津产业转移的主阵地和示范区。积极推进50万吨含钒钛低合金焊管、环保矿山设备制造、东梁金矿低品位黄金开发、3万吨粉末冶金项目二期建设进度，引导企业加大新产品研发力度，打造宽城的知名品牌。', '——转化。该县进一步在提钒用钛上下功夫，加快发展钒钛制品业。紧紧抓住我国正处于扩大内需、加快基础设施建设和产业转型升级的关键时期，对先进装备有着巨大的市场需求这一有利契机，积极搭建项目落地的最佳载体，把延伸钢铁产业链条，提升钢材的就地转化率作为主攻方向，引进消化吸收一批重大装备制造项目。总投资3.5万元的含钒钛低合金焊管生产线技术改造项目，淘汰落后产能，提钒技改，发展钒钛制品产业，竣工投产后可实现产值20亿元，实现利税1.5亿元。', '——培育。宽城在打造工业产业集群的同时,以超前的眼光、创新的思路,选择可获得良好经济效益、能带动相关产业发展的领域,着力引进培育战略性新兴材料产业链，这正是宽城转型发展开辟的又一条阳光大道。充分发挥白云岩、页岩等资源丰富的优势，大力发展培育页岩陶粒、页岩陶粒砌块、页岩砖等新兴产业，加快推进帝圣冷轧项目、金属镁及镁制品、新型干法水泥等项目的谋划和建设进度，全力打造全省最大的新型建筑节能保温材料生产基地和金属复合材料产业园。', '——规划。该县在宽城、龙须门和板城三镇之间规划建设了总面积20平方公里的龙城新型材料产业聚集区。聘请上海市政府发展研究中心对龙城新型建材产业聚集区进行总体规划，以主导产业、发展空间、功能区块、基础设施、配套设施及生态环保等为主要内容，立足宽城资源优势和产业基础，科学编制了新型建材产业聚集区规划及控制性详规，将聚集区规划为生产功能区、服务功能区、居住功能区三大功能区，引进高附加值、符合循环经济发展理念、与钢延产品、新型建材等主导产业息息相关并能进行组装配套的产业。按照规模化、集约化、集团化模式，对全县矿产资源进行整合和企业兼并重组，全力打造以长河为轴的长河矿业经济区。', '——引导。该县出台企业引资入区财税分成、入区企业税费优惠等促进产业聚集、生产要素向聚集区集中的产业激励政策，引导县内企业进区创业，吸引外地客商入区兴业。对入区项目，从土地价格、规费收取、纳税奖励等方面充分给予优惠，不断提高产业聚集区招商引资的竞争能力；在每年初财政预算中安排了1500万元专项资金，为跑办项目、争取资金、优化环境等项工作提供经费保障。截至目前，聚集区已入驻企业38家。今年1-6月份，园区企业完成投资12.5亿元，实现产值52.6亿元，实现利税4.79亿元。', '——扶持。为使龙城产业聚集区内路网结构合理，水资源丰富，电力供应充足，投资4000余万元建设了板城工农业引水工程；投资2.1亿元启动实施了双洞子水电站增容扩建工程，可新增蓄水量990万立方米；在聚集区内新建两座220千伏输变电站和110千伏输变电站，可满足未来10年产业聚集区用电需求；对区内龙须门至板城崖门子段二级路进行改造，积极争取了承秦高速公路、遵小铁路过境该区，并设立出口和站点，进一步优化了产业聚集区内路网结构。截至目前，在聚集区内实施了17项基础设施配套建设工程，总投资98472万元，其中县财政投入29100万元。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>10</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>兴隆实施人才暖心工程兴业富民强县</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2010-07-22</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F7%2F22%2Fart_360_75533.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_75533</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['本网讯 （张作承、盛江辉、陈义峰）兴隆县以搭建“五大人才平台”为基础，实施“人才暖心”工程，发挥人才的第一资源效应，兴业富民强县。', '搭建“亲才”平台，充分发挥组织部门人才之家的凝心聚力效应。实施各级领导干部人才制度和不定期沟通互动制度，由县人才工作协调小组定期发放“联系卡”，及时了解和掌握优秀人才的生活状况和工作实绩，并从政治、生活和工作上切实关心他们的成长。同时，对被批准命名的各类优秀人才，要求所在单位及相关主管部门在安排科研项目、外出考察和进修时给予优先考虑，并在经费上给予重点扶持。', '搭建“选才”平台，充分发挥人才的优势效应。在人才选拔上，坚持干部“一线历练，一线选拔”，“不让老实人吃亏”，注重从基层一线和经济建设主战场上选拔人才。近年来，县委选派342名干部到“三年大变样”和城建拆迁工作中，通过培养锻炼有85名干部走上新的领导岗位。实施“一村一名大学生”工程，选派120余名大学毕业生到乡镇基层工作。在20个乡镇建立了人才工作联系站，选拔了一批懂管理、会经营、有一技之长的“土专家”、“农博士”、“田秀才”。', '搭建“育才”平台，充分发挥人才的示范效应。大力实施“全民创业培训工程”和“特色人才示范基地”创建，通过开设“点播课堂”、“网络课堂”、“流动课堂”、“空中课堂”四大课堂，不断提高各类人才的创业能力，为县域经济发展提供内在动力。每年选派一批有发展潜力的领导干部和优秀人才到清华、北大等高等院校学习深造。适时组织各类优秀人才到经济发达地区学习考察，开阔视野，更新观念。每年培训、轮训各类人才达1.2万人次。另外，选送290名村干部，参加县农广校开办的农村经济管理实用技术函授大专班学习。采取“村来村去”的方式，选派89名优秀中专毕业生和高中毕业生，到承德职业学院学习深选，目前已毕业回村任职26名。', '搭建“引才”平台，充分发挥人才的集聚效应。大力实施“引优工程”，开辟人才聚合“绿色通道”，每年计划引进10名具有硕士学位或副高级以上职称的“双高”人才，50名左右具有本科学历且为全县新兴支柱产业发展所需人才，100名左右具有大专学历且为全县各行各类所需的专业技术人才。', '搭建“富才”平台，充分发挥人才的带动效应。通过排队帮促、分类指导等措施，加快民营企业的发展步伐，发挥民营企业吸纳各类人才的主导作用。围绕发展高效农业，加快培育优质果树、食用菌、蔬菜大棚、畜禽养殖等四大重点产业，不断放大果品加工、优质苹果等特色产业优势，为农村乡土人才更好发挥“双带”作用提供载体。实施以“百名专家扶百村、百名专家兴百企”为主要内容的“双百”科技工程和以“支农、支教、支医，帮扶困难群众”为主要内容的“三支一扶”活动，发挥“专家协会”和专业技术骨干的传、帮、带作用，以达到“帮扶一户、带动一片、致富一方”的目标。', '目前，已培育各类人才11296人，其中科技致富带头人892人，优秀人才126人。有132人获得绿色证书，有10人被省、市评为致富带头人、绿色创业者和拔尖人才。先后吸收627名农村实用人才加入党组织。现已扶持特色种植、养殖大户210多户，发展民营企业60多家，吸纳农村富余劳动力2400多人，创办农民专业合作社92个，有力地促进了全县农业产业结构调整，加快了投资兴业富民强县步伐。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>10</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>丰宁五大对接打造创先争优新格局</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2010-07-08</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2010%2F7%2F8%2Fart_360_75453.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_360_75453</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['本网讯 （焦春江、刘建国）5月中旬，丰宁满族自治县四大班子主要领导带领全县26个乡镇党委书记和部分县直部门负责人，先后到省内张北县和北京市怀柔区学习考察。自此，一场以“内学张北，外学怀柔，全面对标，追赶争先”为主要内容的对接行动全面展开。这是丰宁活化创先争优活动内容，打造创先争优新格局的一个生动写照。', '与干部作风建设紧密对接。在全县党员干部中开展以“扬正气，刹歪风；明岗位，定责任；强管理，提效能”为主题的肃风正位行动，对8名科级干部进行了组织处理和诫勉谈话。加大督查考核力度，制定各项督查考核办法及督查考核制度，评定考核结果并实施奖惩。规范岗位责任运行，建立岗位责任运行体系，制定业务运行程序和工作流程，进而搭建起便民利民平台。', '与转变发展方式紧密对接。在农业产业结构调整中实施“双调双增”工程，调整种植结构，调整饲养方式，实现山川增绿，农民增收；实施“一主两翼”战略，以奶业振兴为主导，做大做强肉鸡和蔬菜两大产业。目前已培育形成中兴农牧、丰鑫实业等龙头企业39家，发展农业专业合作社100多家，带动8万农户增收1.8亿元。在特色产业培育上，加大对风电开发、钼新型材料、木煤生产、有机奶加工等六大特色产业支持力度，目前已为企业协调扶持资金2亿多元。', '与调整经济结构紧密对接。取缔31家非铁选和小铁选企业，发展园区经济、设施观光农业、生态旅游业和水电、风电等清洁能源业。截至目前，规划占地30平方公里，集畜牧科技、装备制造、轻工食品等五类18家企业已入驻丰宁循环经济产业聚集区，年可实现产值30亿元。把休闲旅游作为第一战略支撑产业，一个规划、六大景区、八大产品体系的旅游休闲业“一六八”工程全面启动。', '与重大项目建设紧密对接。抓住京津产业转移机遇和国家发改委、民建中央帮扶优势，今年安排重点建设项目72个，总投资208.9亿元，计划年内完成投资89.4亿元。安排前期推进项目27个，总投资418.9亿元。目前重点项目已开工28个，一批重大立县项目和产业支撑项目快速推进。', '与“三年大变样”紧密对接。聘请加拿大宝佳国际建筑师有限公司对县城进行总体规划和控制性详细规划。2010年计划投资3亿元，重点实施以道路铺油、公园广场为核心的基础设施建设。实施滨河公园等新区建设和旧城改造“八片联动”工程，打造特色景观和精品建筑。加快新农村建设步伐，按照城镇社区型、小城镇带动型、工矿带动型、生态移民型、旅游服务型、联村建设型六种模式，同时启动38个示范村建设。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>10</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>市供销合作社实践活动重实效重点工作求突破</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2009-04-30</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2009%2F4%2F30%2Fart_9945_197675.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_197675</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['在学习实践科学发展观活动中，市供销合作社紧密联系部门工作实际，把深入开展解放思想大讨论主题实践活动与社直企业重点工作相结合，通过本系统12个党支部开展解放思想大讨论活动，扶持帮助社直企业在逆势中树立信心和勇气，以科学发展观指导工作，学以致用解难题，重点工作有了新突破，实践活动取得实效。', '市社农资公司作为农用物资供应的龙头企业，通过品牌优势和规模优势惠利农民，采取有力措施，确保农用物资供应充足。在今年春耕备耕农用物资工作上，做到早安排、早部署、早落实，抓好化肥等农用物资的储备、调运、销售工作，有利地促进了春耕生产。通过积极筹措资金，备足农资货源，购进各种优质化肥 2 万余吨，先后投放农村市场，为我市农业春耕生产作出了贡献。坚持价格政策，保护农民利益。严把进货质量关，杜绝假冒伪劣农资商品进入我市市场；积极配合工商、质监、农业等部门开展农资打假工作，积极参与农资检查和专项整治行动，设立举报投诉电话40部；严格经营条件和资质认定，公开明示农资服务承诺，对基层销售网点严格执行统一的配送价格和零售价格。发挥网络优势，提供优质服务。充分发挥全农资连锁配送中心及市、县、乡、村四级连锁店组织农资供应网络配送体系优势。各级供销合作社农资连锁配送中心出动车辆，送农用物资到村、到户、到田间地头，注重做好科技服务工作，采取墙报宣传、科技咨询、发放材料卡等形式，积极开展测土配方施肥，向农民推广新肥、新药、新技术，促进农业增效，农民增收。', '加大市蔬菜果品批发市场二期工程建设力度，确保二期工程建设如期完成，使检验检测系统、信息发布系统、无现金结算系统、电子交易系统等新兴业态在今年八月底前投入使用运营。抓紧信息发布系统的安装调试，把我市各产区蔬菜果品生产信息输入微机，同全国各大批发市场联网，根据产品采摘上市季节，不间断地发布生产信息，使农民生产的蔬菜果品产品找到更多的销路，实现农产品优质优价，让农民收入增加，得到实惠，有利的促进农产品进市。要严把农产品质量安全关，落实“市场准入制度”，坚持进场农产品检验检测制度，保证我市批发市场批出的蔬菜果品质量，确保消费者身体健康和生命安全；采取十项有效措施，确保市区居民“菜篮子”、“果盘子”的市场供应，满足和稳定市区居民的日常生活需要。', '认真履行食盐专营管理职能，加强盐业市场监管，通过实施食盐网络再造，加大私盐打击力度，保证全市人民用上“放心盐”。重点完成全市创建500个“食盐安全村”活动，全市已建立10个食盐连锁配送中心，整合食盐网点4620个，构建了以“海晶盐加盟连锁”为主要形式的食盐连锁经营网络，实现了食盐“商号、配送、管理、服务”四统一的管理模式和食盐精细化经营。积极拓展市场，扩大服务项目。按照市场需求，努力减少大包装食盐的销售量，增加小包装包装食盐的销售量，不断满足群众需要，在价格、服务方式、便民措施、营业时间等各个方面为用户提供方便，全市“入口盐、小包装、返款率”三项考核指标保持全省前列，抓住新的效益增长点，作好冬季道路融雪市场前期调查摸底工作，扩大服务领域。', '围绕今年国家确定的“安全生产年”、市政府确定的“安全生产攻坚年”，在系统内开展烟花爆竹安全经营专项整治活动。专项整治的重点是各级供销合作社的烟花爆竹企业在烟花爆竹运输、储存、销售等各环节的安全经营工作。落实企业安全生产主体责任，提高从业人员安全意识和业务素质，通过专项整治措施的落实，规范安全经营秩序，排查和治理安全事故隐患，确保烟花爆竹经营不出现安全生产重大事故。坚持“安全第一，预防为主”原则，采取“七统一”的管理措施，通过整顿和严格执行安全责任制，层层签订责任状，全面落实“法人代表安全生产承诺制度”，不断完善企业“三项制度”建设，确保运输、储存、销售各个环节的安全，实现批发零售环节零事故。', '在再生资源回收网点体系建设过程中，围绕建设资源节约型，环境友好型社会的要求，以发展循环经济，实现资源循环利用为指导方针，抓紧运作。最近市社领导带队与市土产日杂公司深入省内先进地区学习考察，借鉴外地先进经验，在搞好市场调查研究的基础上，落实市区再生资源网络项目，利用现有仓储设施，探讨经营再生资源开发，打造绿色回收网络体系，强化再生资源回收、集散和加工处理能力，以满足城市服务功能、净化人居环境，提升区域再生资源利用产业化水平。努力实现城市90%以上的社区建设再生资源回收站（点），100%以上人员纳入规范管理，100%以上再生资源回收进入指定的市场交易和集中处理，80%以上再生资源得到回收利用，形成以城市社区绿色回收站（点）为基础，集散市场为核心，加工利用为目的，点面结合的再生资源回收利用网络体系，促进再生资源行业经营健康、有序发展，为提升我市旅游文化名城影响力、净化城市环境发挥出作用。', '在实践活动中，市社党委着力为社直企业解难题，办实事，深入所属企业开展调研活动并现场办公，主要围绕“企业怎样实现科学发展”这个主题，采取协调相关部门关系等有效措施帮助企业走出困境。所属蓝宇工贸有限责任公司经营房地产、加油站业务项目，由于受到金融危机和房地产市场下滑、资金缺乏等众多不利因素的影响，困难重重，面对当前的暂时困难，积极应对，主动研究市场，重树信心和勇气，协调资金，扶持发展。通过采取企业、个人集资、领导班子成员用自家房子做抵压贷款等办法，使企业资金链得到衔接。并且认真研究房地产市场行情，利用发布信息广告、让利、与中介合作等有效途径，度过了难关。同时寻找企业新的效益增长点，调整经营布局，拟定把市区石洞子沟的汽车维修中心迁出，建成规范的“2S店”，使汽车销售同售后服务一条龙，把1100平方米修理车间腾出来，发展仓储业务，扩大经营范围，增加新的效益增长点。在汽车维修、加油站点窗口服务上，作到文明用语、周到服务，通过一系列行之有效的措施，扭转企业被动局面，年内预留50万元资金，确保职工“四金”的上缴、工资的正常发放，企业无一人下岗，稳定队伍，企业有一个安全有序的工作环境。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>10</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>承德市农业局年工作总结</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2008-06-12</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F6%2F12%2Fart_9941_218060.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218060</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['2006年是实施“十一五”规划的开局年，是全面推进社会主义新农村建设的起步年。加之春季严重的旱灾、农资市场整治工作艰巨、七县农业、畜牧两局合并后工作需理顺等特殊情况，全年工作呈现了时间紧、工作量大、任务重、要求高、困难多等特点。一年来，我局根据市委、市政府和省农业厅关于农业、农村工作的总体部署，按照年初确定的工作思路和目标，坚持以社会主义新农村建设为主题，以科学发展观为统领，以农业增产、农民增收为目标，克服困难，突出重点，狠抓落实，较好地完成了年初确定的工作目标任务。', '一、多措并举抓抗旱保春播强管理，粮食生产任务较好完成。今年，由于受降水、气温等方面因素的影响，造成了我市春播期间土壤墒情下降，形成了严重春旱，影响了春播工作的顺利进行。面对严重的旱情，各级农业农村部门采取了多种有力措施，抗旱保春播。市局多次召开会议研究抗旱工作，对有墒地块、墒情不足地块、干旱无墒地块分别提出了不同的抗旱技术措施，并组成8个工作组，深入县区指导抗旱工作。各县区也积极组织投入大量人力、物力、财力，全力抓抗旱，促进了春播生产。中期强化农作物田间管理，确保了粮食作物种管收等项工作的落实。2006年全市农作物总播种面积469.15万亩，其中粮食作物播种面积341.93万亩，总产109.26万吨。较去年减产1.9万吨，减幅为1.7%。其中：玉米播种面积187.33万亩(专用玉米67万亩、玉米制种11.46万亩)，产量73.78万吨、马铃薯播种面积58.34万亩，产量（折粮）10.91万吨，水稻24.62万亩（市农业局统计面积42.03万亩、产量20.42万吨）、产量11.5万吨，豆类25.87万亩、产量4.35万吨，谷子18.06万亩、产量4.23万吨，高粱3.71万亩、产量1.21万吨，秋收小麦8.47万亩、产量0.94万吨，其他粮食作物15.53万亩、产量2.34万吨；油料作物6.1万亩、产量 0.65万吨。虽然我市遭受严重春旱、玉米大斑病、低温冻害的影响，但通过各级农业农村部门及时采取救助措施，粮食作物仍然获得较好的收成。全市6个县落实粮食直补资金1336万元，7个县共落实良种补贴资金350万元、6个县落实农机补贴资金220万元。调动了农民种粮积极性。', '二、努力推进优势农产品区域布局，主导产业基地规模继续扩大。对全市确定重点发展的蔬菜、食用菌、马铃薯、玉米制种、中药材五大主导产业，通过召开现场会、办培训班、外出考察等多种措施，加大结构调整力度。各县区立足本地实际,采取有效措施,滦平、平泉、隆化、宽城、双滦等县区分别出台了无偿补贴资金、贴息贷款等优惠政策，促进主导产业发展。通过政策支持、项目带动等一系列措施，引导生产要素向优势产区集中。主导产业基地规模不断扩大。与2005年相比，今年，蔬菜播种面积已完成99.8万亩，比去年增加1.8万亩。其中设施菜22.2万亩，在设施菜中日光温室11.95万亩。蔬菜总产330万吨（商品量305万吨），比去年增加15万吨。总的看，设施果菜类蔬菜价格相对平稳，效益较好。越夏硬果番茄平均价格为0.92元/斤，平均亩产值11310元，平均亩纯收入7660元。温室黄瓜平均价格为1.3元/斤，平均亩产值21000万元。露地叶菜类蔬菜价格波动较大，效益偏低。主要原因是：4-6月份气温比往年同期相比偏低，加之南方蔬菜上市时间延长，使北方的错季菜上市价格受到影响。食用菌生产规模达到1.35亿盘（袋），产量11.3万吨，比去年分别增加1500万盘（袋）、1.3万吨。其中滑子菇6800万盘，香菇6000万袋，其它品种700万棒。今年食用菌生产体现了三个特点，一是生产大户增加。生产规模在5万盘（袋）以上的大户达到80多户。二是产品价格稳中有升，同比增长12%。三是新技术得到推广应用。在生产中大力推广了液体菌种，建立了9个奥运食用菌试验示范点。马铃薯播种面积58.34万亩，比去年增加3.81万亩。培育微型薯610万粒，比去年增加210万粒。其中围场县培育500万粒，市蔬菜所培育110万粒。今年马铃薯种薯规模扩大，达到10.3万亩，增加1.6万亩。推行了机械作业、大垄栽培、种薯脱毒、测土配方、病虫害综合防治配套栽培技术。玉米制种落实32万亩，与去年基本持平，其中市内基地11.46万亩。中药材种植面积16.16万亩，其中占用耕地面积10.02万亩，增加3.24万亩。在承德、宽城、丰宁等县建立了大规模示范基地。企业及市场建设稳步发展。在抓好基地建设的同时，积极加强龙头企业建设。今年新增市级以上种植业龙头企业16家，总数达到42家。其中省级重点9家，市重点33家。在42家龙头企业中种子产业8家，蔬菜产业9家，食用菌产业5家，马铃薯产业3家，中药材产业5家，粮食加工8家。全市共组建农民专业合作经济组织和行业协会87个，会员总数达到4.9万人，股金总额5340.19万元，带动农户24.9万户。涉及食用菌、蔬菜、马铃薯、中药材等各行业。新建农产品批发市场6家，总数达到43家。以蔬菜产品为主，年市场交易额20亿元以上。通过龙头企业和专业合作经济组织的带动，围场县建立以马铃薯、胡萝卜、甘蓝为主的订单菜基地3万亩，丰宁县建立以蔬菜、马铃薯、中药材等为主的订单基地3万亩，隆化县发展以大白菜、马铃薯为主的订单菜1万亩。出口农产品以胡萝卜、食用菌、蔬菜等加工产品为主，金额344.9万美元，大部分销往俄罗斯、日本、韩国等国。', '三、全面加强农业科技服务，农业科技推广取得新成效。今年以来，围绕种植业结构调整，全面加大科技试验、示范、推广和培训力度。农业科技普及率、入户率、贡献率分别达到91%、86%、46%。试验示范成效显著。全市农业系统共引进新品种182个，其中蔬菜品种141个，筛选出适合我市种植的新品种75个。按照省政府“一县一业一园”的要求，重点抓了丰宁鱼儿山镇蔬菜科技示范园、承德县上板城镇科技示范园两个示范园和围场新地乡蔬菜、平泉等地三个芦笋试验示范点建设，效果良好。黄瓜生物反应堆栽培技术试验成功，抗病性增强，产量增加，对棚室蔬菜生产具有较好的推广前景。从北京引进的30多个蔬菜新品种，田间试验表现良好。水稻、专用玉米、谷子、大豆等新品种的试验、示范、推广都得到了较好落实，承德、隆化、宽城等县的玉米新品种试验达到了国家先进水平。重点推广技术全面落实。年初确定重点推广的10项农业技术，都得到了落实，推广面积已完成632万亩次，其中测土配方施肥面积完成58.15万亩，平均每亩增产48公斤、亩节本增效35.7元。机械化保护性耕作技术完成19.3万亩，节水精播技术完成13.1万亩，在抗旱保春播中发挥了重要作用。全市农机总动力达到192.8万千瓦，增长7.5%。农机作业面积395万亩。全年共发生病虫草鼠害2090.2万亩次，防治面积1247.54万亩次，挽回粮油菜损失18.7万吨。加强疫情监测防治，使稻水象甲、毒麦、加拿大一支黄花等外来有害生物得到了有效防治。科技培训手段不断加强。新购置科技直通车7辆，我市是全国首家市县全部配备科技直通车的市。车内配置了计算机、投影仪等先进媒体设备和土壤肥料速测仪、农药残留检测等现代检测设备及培训光盘资料。7月份投入使用，直通车共出动60车次，播出科技光盘100余场，培训农民12500人；新建科技进村服务站84个，总数达到666 个。通过科技进村服务站，示范推广项目60项，培育科技示范户1148户，联系农户20855家，提供信息4156条，接受农民咨询82891人次；在兴隆县开通了电话语音服务系统；在全省首家成功地启动了农业专家移动服务热线，接受咨询1000余次；农技电波入户工程，共播出节目171期。有8部片在第五届河北省农业科教电视“兴农杯”评选中获奖；市农广校筹资160万元新建一座2020平方米的综合服务楼，招收大专以上自考新生1998人、中专新生1003人，组织农民中专脱产学员参加成人高考185人；新建村级农业科技广播站65个，总数达到148个，其中96个被省农业厅确定为标准化广播站；农业信息网络建设进一步完善，横向延伸完成了市林业、畜牧、水务三个部门联网设备采购等前期准备工作。纵向延伸全市所有乡镇全部利用计生网络联入农业信息网。通过扶贫办配备的234台“农商宝”光彩信息机，全部通过拨号方式联入农业信息网。按要求扎实开展了农村劳动力转移培训“阳光工程”，组织专家编写了教材，完成技术培训2100人。扎实开展了农业农村部第三批农村劳动力平等就业试点工作，得到了农业农村部督察工作组的好评。另外，在平泉县开展了农技推广体系改革试点工作，已完成前期调研和各项准备工作。科技培训扎实有效。科技培训手段的增强，为开展科技培训奠定了良好基础。全市共举办各种培训班1285期，现场教学641场，赶科技大集90次，发放技术明白纸62万余份。完成师资培训1500多人次，绿色证书培训11620人，实用技术培训62万人次。', '四、大力推行农业标准化生产，农产品质量安全管理工作得到加强。继续加大地方标准化规程的制订和实施力度。今年新通过了食用菌、马铃薯等11个生产技术标准，全市农业地方标准已达65个。全市共建立农业新品种、新技术标准化示范区52个，其中规模在1000亩以上的中心示范区15个，面积3万多亩。主要有丰宁大滩、鱼儿山镇蔬菜新品种及配套技术标准化栽培示范区、平泉卧龙镇食用菌提质增效技术示范区、围场克勒沟镇马铃薯综合配套栽培技术示范区、隆化张三营镇和承德县石灰窑乡测土配方施肥技术示范区、平泉县黄土梁子镇高油玉米示范区。以蔬菜、马铃薯、中药材、水稻等为主的农作物标准化生产基地完成270万亩。农产品质量监督检测水平进一步提高。在农产品检测方面进一步严格规范，加强对蔬菜生产基地和部分蔬菜批发市场的监督检测，共抽检92个批次，1123个样品，合格率98.3%，其中省厅抽样检测11个批次、230个样品，合格率99.1%。检测结果每月在承德电视台“三农天地”节目公布一次。通过全省农产品盲样综合检测考核，我市名列第一。我市的检测能力与农产品质量在全省均处于先进位次。无公害生产基础工作加强。新认定产地面积12.65万亩,产地认定面积达到55万亩。新认证无公害蔬菜产品12个，总数达到38个；加强无公害农药专柜建设，新建植保社区服务站20个，总数达到100个，建立示范区5万亩，辐射基地40多万亩。加强无公害蔬菜标准化村建设，创建标准化村61个；为应对北京市场准入，在滦平、承德两县抓了蔬菜基地销售试点；同时抓了三个部级乡村清洁循环利用工程试点，顺利通过了省厅验收；完成了怡达、格林等10个企业的绿色食品年度检查工作；抓了3个面源污染检测点，通过监测，获得有效数据850个。', '五、不断加大农业执法力度，农村经济和农资市场管理进一步加强。农业综合执法机构建设进展较快，有8个县区完成了农业综合执法大队建设。组织执法人员参加了推进农业综合执法及有关法律法规知识培训，为推进农业综合执法进程奠定了基础。农村经济管理进一步加强，有9个县区建立了农村土地承包合同仲裁机构，全年仲裁合同纠纷26起，调解纠纷62起。通过采取检查、督导、通报等措施，加大了农村财务委托代理服务制工作力度。有183个乡镇、2202个村推行了农村财务委托代理服务制，分别达到乡镇、村总数的88.8%和85.1%。在全市33个乡镇539个村实行了村级财务电算化管理。培训专兼职会计2051人，持证上岗率87%。按新会计制度已进行账改的村2241个，占村总数的87.4%。全市受理农业信访案件344起，已处理310起，其他案件正在调查落实之中。农民负担管理工作得到较好落实，全省农民负担考核，我市取得优秀成绩。农资市场得到净化，全市共出动执法人员3000多人次，印发宣传资料1.5万份，检查农资生产企业30个、经营门市3750个、农村集贸市场651个，查获假劣玉米种子7万多公斤、胡萝卜种子379桶，查获假劣农药2350公斤，农资市场得到净化。农机管理工作，完成农业机械检验23805台，核发号牌10950副，完成职业技能鉴定1118人，审验农机维修厂点896个、农机配件供应点380个，补办从业人员职业资格证103个，核发农机维修技术合格证21个。', '六、继续加大农业投入力度，开放项目建设成效显著。全市农业系统始终坚持“以项目调结构，促产业，求发展”的指导思想，不断加大工作力度。争取到位项目有新突破。落实国家级项目12个，总投资1475.12万元。主要有测土配方施肥、沼气池国债资金、苹果套袋、良种繁育及加工流水线、农机补贴等项目；落实省级项目17个，总投资1057.5万元。主要有玉米良种补贴、沃土工程、设施蔬菜建设等项目。市级专项资金项目16个，总投资214万元。引进国家、省、市农开办、扶贫办、科技项目9个，投资972万元。重点建设项目有新成效。生态家园富民工程，新建沼气池30577个。5 个县区全部完成了2005年沼气池国债项目建设任务。沼气物业体系建设加强，各县区都配备了沼渣沼液吸运车，全市共108台，有效地解决了沼气池出料难的问题，提高了沼气利用率。中央党校进修二班42位学员对我市社会主义新农村建设考察和农业农村部、国家发改委有关领导来我市调研时，对我市沼气池建设、国债资金使用情况都给予了充分肯定。省农作物种子检测分中心建设项目土建工程全部完工，正在进行设备采购，明年可投入使用。测土配方施肥项目进展顺利，丰宁、承德两县承担了部级测土配方施肥补贴项目，平泉县承担了省级测土配方施肥补贴项目。资金总额250万元，全部落实。全年共检测土样4700个，完成测土配方施肥面积58.15万亩。隆化县张三营镇测土配方施肥示范区被确定为省级示范区。招商引资项目有新进展。继续深化京承农业合作，加大招商引资力度。京承农业信息合作协议项目有效落实，我市有68家企业正式成为北京农产品产销协会会员。奥运蔬菜基地项目，在丰宁、围场等县落实了43个菌菜新品种试验和示范点。北京市农科院、农业局及有关县区领导和专家对我市奥运菌菜试验基地考察时，给予了好评。共引进市外投资企业20家，总投资105120万元，到位资金19372万元。其中规模较大的有丰宁县粮食局与玉源生物科技开发有限公司合作的玉米饴糖深加工项目、隆化县农牧局与深圳茂雄实业有限公司合作的蔬菜基地种植及加工项目、围场县政府与哈尔滨嘉宝公司合作的万寿菊种植及深加工项目，落户承德，提升了我市农产品深加工水平。完成了承德农业招商网的创建工作，编制了五大类71个项目在承德农业招商网上发布，扩大了招商引资覆盖面。另外，对全系统2005年农业专项资金以及2003—2005年的九类重点专项资金进行了全面清理，涉及资金总额5600万元，没有发现违纪问题。促进了项目建设。', '七、加强自身建设，工作作风进一步转变。认真谋划部署，明确任务，把握工作重点，抓好落实。年初下达了五大主导产业和沼气池建设任务，制定了12项重点技术实施方案，印发了各专项工作年度考核办法；组织召开了全市农业工作会议、半年工作汇报会议、种植业结构调整现场会议等全局性综合会议，召开了测土配方施肥、节水精播、设施蔬菜及时差蔬菜生产等现场会议，召开了种子管理、农药管理、农产品质量安全管理、主栽作物新品种推广等专项工作会议；组织到江西、秦皇岛等地就产业化、结构调整进行了学习考察；组织参加了第四届国际农产品交易会、全省农业信息化展及香港投资贸易洽谈会等招商活动；对新农村建设、京承农业合作和“一县一业一园”农业科技示范工程等重点工作分别制定了实施意见。认真研究了我市绿色农业发展现状和今后的工作着力点。以此为主要内容在全局技术人员、科级干部参加的会议上进行了研讨，并给市政协机关全体同志和各民主党派副主委讲了课，为推动绿色农业发展奠定了基础。通过有效措施，促进了各项工作的落实。认真组织开展了“学党章、知荣辱、树新风”活动。全局15个党支部的215党员参加了教育活动，整个教育活动与农业科技服务、农业行政执法、机关效能建设等农业实际工作相结合。组织开展以“八荣八耻”、农业科技知识等为主题内容的知识竞赛和演讲赛4次，送科技下乡3次，送法律入户2次，组织向环城绿化、支援西藏和灾区等公益捐款1万多元，请市委党校教授给全体党员讲了课。全面推行了首问责任制、办事限时制及办事回执卡等制度，作风建设不断提高。评选省中青年有突出贡献专家1名、新世纪学术技术带头人6名，推荐金龙杯振兴承德特别奖2名。绿色增收和“四五”普法工作受到了市委、市政府表彰，1人被评为“四五”普法先进个人，一名老干部受到了省委、省政府表彰。发展新党员12名，培养进步青年15名。市局被市委评为市级先进基层党组织。廉政建设不断加强。认真贯彻落实中央、省、市《关于建立健全教育、制度、监督并重的惩治和预防腐败体系实施纲要》，领导班子带头模范遵守各项廉政准则及相关规定，深入扎实地开展了商业贿赂专项治理工作和行政权力公开透明运行工作。两次组织副科级以上干部及党员收看了反腐倡廉录像片，开展了廉政歌曲“唱响月”活动，广大干部的防腐意识不断加强。继续加强对外宣传与服务。组织编辑制作农业专家服务热线、农机机播现场会等5期节目，在承德电视台“三农天地”栏目播放；在承德日报发表有关农业农村政策、沼气池建设、致富典型、病虫害防治等方面信息30多条；承德农业信息网，今年发布信息24000条，总计发布各类信息46000余条，市、县9个农业信息网站共发布信息10万多条。第二次全省农业信息网络评比我市获二等奖，8个县全部获奖。为提高农业信息网利用率，有2名工作人员专门到市电视台学习了专题片采编制作，编辑奥运蔬菜、结构调整现场会等三期视频节目在网上发布。市农机总公司改制工作进入改制程序，各项工作正在落实之中。另外，积极做好老干部工作，通过召开座谈会、走访慰问、建立联系制度等多种形式，为老干部办实事、解难题，得到了老干部的肯定，受到了市委老干部局的好评。', '总之，通过采取多种有效措施，促进了各项工作开展。但也存在着一些问题：一是农产品质量安全法已正式实施，如何抓好贯彻落实，涉及面广、工作量大，需加大工作力度。二是主导产业和重点工程建设任务各县区进展不平衡，集中度不够，直接影响着总体规模的扩大。如食用菌产业，各县都具备生产条件，但有些县发展速度较慢，优势没有充分发挥，需进一步加大指导力度。三是以种子、农药为主的农资市场管理工作还要从根源上进一步研究解决办法。这些问题，都需要在今后工作中加以改进和落实。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>10</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>承德市农业局关于上报承德市农业局年工作总结的报告</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2008-06-12</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F6%2F12%2Fart_9941_218059.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218059</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['承德市人民政府 工作总结 承德市农业局关于上报《承德市农业局2004年工作总结》的报告', '2004年，我局全面贯彻落实市委、市政府和省农业厅关于农业、农村工作的总体部署，认真执行中央、国务院关于促进农民增加收入的各项政策，按照年初确定的“提升蔬菜、食用菌、马铃薯、杂交玉米制种4个优势主导产业水平，抓好农业标准化、农业信息网站2个体系，实施好生态家园富民工程，推广12项农业新技术，实现设施蔬菜产业发展、无公害农产品生产、农产品加工龙头企业建设3个突破”的工作重点，精心组织，扎实工作，较好地完成了任务，各项工作都取得了新成效。', '今年，全市各级农业农村部门认真宣传贯彻了中央一号文件，全市粮食直补、良种补贴、农机具补贴资金达1822万元，全部得到落实。配合有关部门对基本农田进行了认真检查，完成了基本农田地力调查与质量评价任务，加大了基本农田的保护力度。中央惠农政策调动了农民种粮的积极性，加之雨水充足，科技服务到位，粮食生产出现了多年少有的好形势。今年，农作物播种总面积420.23万亩。其中，粮食作物336.26万亩，比上年增加5.48万亩，增长1.66%。全市粮食总产105.64万吨，比上年增加44.96万吨，增长74.1%，是1999年以来的第一个丰收年。除水稻由于积温不足减产外，玉米等其它粮食作物单产接近历史最好水平。', '全市在提高粮食生产能力的基础上，继续加大种植结构调整力度。重点抓了蔬菜、食用菌、马铃薯、玉米制种四个主导产业的发展，同时开发中药材、小杂粮产业和专用玉米生产，取得了新成效。初步形成了以围场和丰宁坝上为主的时差菜和以“三个百里长廊”沿线为主的设施菜基地；以平泉、兴隆、宽城三县为主的食用菌基地；以围场、丰宁、隆化三县为主的马铃薯基地。通过采取有效措施，既稳定了粮食生产面积，提高了粮食产量，又促进了结构调整，增加了农业效益和农民收入。农民人均纯收入达到了2110元，比上年1696元增长24.4%。', '产业基地规模扩大。全市蔬菜播种面积达到90万亩，比上年86.2万亩增长4.4%。设施蔬菜17万亩,其中日光温室9.5万亩，分别比上年增长9.7%和10.9%。以长货架硬果西红柿为主的越夏冷棚设施蔬菜发展迅速，达到9155亩。食用菌总规模发展到8620万盘（袋），比上年6450万盘（袋）增长33.6%。产量7.9万吨，产值6.35亿元。10万盘（袋）以上的大户达到120多户。平泉县食用菌达6060万盘（袋），试验栽培新品种黄伞、鲍鱼菇、姬松茸和反季节滑子菇成功，广泛使用了液体菌种，实现了周年生产、周年供应。围场县示范栽培高档次品种白灵菇125万袋，产量60多万公斤，产值370多万元，成效显著，成为我市北部气候冷凉地区发展食用菌生产的成功典范。马铃薯完成播种面积54.59万亩，总产鲜薯52.95万吨。全市机械化生产面积已达6万亩，增长20%。杂交玉米制种面积达到36万亩，其中市内繁种12万亩，外埠繁种24万亩。总产7.5万吨。中药材落实面积6.3万亩，比上年增加3.35万亩。丰宁、兴隆等县为制药厂发展订单生产，生产面积和品种都有新发展。杂粮生产从品种选优、对比、示范到深加工都较上年有新突破。专用玉米重点推广了高油647、115、宽诚1号等高油、高蛋白、高淀粉品种，面积达60多万亩，提高了经济效益。', '龙头企业建设上了新水平。蔬菜产业，围场县引建了旭日食品工业有限公司和福袁脱水蔬菜加工厂两个蔬菜生产深加工龙头企业，以胡萝卜、甘蓝为主，年加工蔬菜4100吨，实现了我市脱水菜生产零的突破，为延伸产业链条，开拓市场创出了路子。丰宁绿霸公司投资270万元，新建了冷库和加工车间，年加工蔬菜3000多吨，产品全部出口日本。承德县新注册了绿丰农业科技发展公司，带动了设施蔬菜发展。食用菌产业，平泉县新建冷库25个，3100平方米，总数达到40个，1.1万平方米。现已拥有大中型食用菌加工企业7家，小型11家，形成了食用菌系列产品生产加工体系。平泉县绿源公司食用菌加工改建扩能工程，目前已投入2000多万元，完成了主厂房和主要设备建设，发展成为集科研、生产、加工、经营于一体的中国北方最大的食用菌龙头企业。润隆食品有限公司收购了县外贸公司，扩大了企业生产和加工能力。马铃薯产业，丰宁县引进北京平安高科公司，高起点起步,带动发展集现代化农业种植、高科技的牧业养殖和旅游观光于一体的生态农业观光园区，全面实行现代化农场生产管理模式，投资1175万元新上了一套现代化电力喷灌设备，建马铃薯基地3000亩,发挥了较好的示范带动作用。全市种植业龙头企业省级达到7家，市级达11家。', '市场开拓有新成效。以蔬菜、马铃薯和食用菌为主，积极做好订单生产和出口销售。丰宁县与日本三商、北京辛普劳、联华、上海百事等公司签订农业订单4.2万亩，主要生产蔬菜、马铃薯、中药材。围场县建立马铃薯订单生产基地5000亩。承德县签订蔬菜出口合同2000多亩。承德大丰公司建成了1800亩商品薯生产基地。平泉县成功地举办了第三届中国北方食用菌交易大会，北方食用菌批发市场被农业农村部列为全国定点批发市场。全市农业专业化合作组织已达166个，参加组织人员达1.8万，带动农户16万户。市局三个事业站牵头成立了蔬菜、药材、植保三个协会，蔬菜协会，在发展硬果西红柿中，统一种子、技术、物资、销售等服务，起到了积极作用。承德成为京津和南方市场错季蔬菜重要的供应基地，食用菌出口在全国也占有了一定的份额。', '农业标准化工作实施力度加大。新制定了越夏硬果西红柿生产技术规程，全市地方标准总数已达35个。在农业标准化生产的实施过程中，通过抓宣传、抓培训、抓示范，采取建标准化生产基地、园区，严格投入品管理等多种措施，确保了农产品无公害生产。市级抓了9个标准化示范区，各县区分别落实了2—3个示范点，示范面积2万多亩。在蔬菜主产区新建植保社区服务站30个，全市已达60个，基本满足了供应高效低毒农药的生产需求。丰宁坝上蔬菜基地，采取了几户联保、相互监督的形式。这些都有效地提高了农产品质量安全水平。从市检测中心全年83个批次、856个样品的检测结果看，合格率高达99.8%，全省蔬菜质量抽检我市名列第一。无公害农产品监督检测工作走上正轨。市农产品监督检测中心经过紧张筹建顺利建成，并于当年5月份正式通过了省技术监督局计量认证，中心可独立承担相关4个项目、114个参数的检测，8个县的速测站也相继建成并投入使用，全市农产品监督检测体系和标准化体系初步建立，并走上正轨。无公害农产品生产能力明显提高。在完成161.6万亩产地环评的基础上，今年完成产地认定35万亩（已发证书），基本完成17种无公害农产品认证（报农业农村部待批），完成 7种产品的绿色食品认证，总数已达15个。', '重点推广的12项农业技术取得了显著成效。通过推广无公害蔬菜标准化生产技术，使我市蔬菜产量提高10%，农药使用量减少20%，化肥使用量下降15%左右，纯增经济收入4200万元；通过实施优质专用玉米栽培技术，筛选了高油647、115、宽诚1号等一批高油、高蛋白、高淀粉品种，提高了经济效益；马铃薯机械化综合配套技术的应用，平均亩增产550公斤；A级、AA级生态水稻高产稳产节水综合配套技术的实施，较普通水稻亩增效益139.9元；通过在八个示范区8000亩试验田进行的平衡施肥技术的推广，取得了亩增产11.3%的高效益。其它技术的推广也取得增产增收的显著成效。另外，开发了农业技术专家智能系统、地理信息系统和土壤施肥智能系统，并得到了利用。科技培训层次提高，内容充实，辐射面增大。以高层次技术培训为突破，市农业局分别请荷兰瑞克斯旺公司蔬菜栽培专家丁军博士、以色列海泽拉公司技术总管摩提先生及农业农村部、省农业厅等7名专家来承授课；聘请了北京市农林科学院李远新博士、农业农村部陆贵生高级经济师和天津黄瓜研究所杜胜利研究员为我市农业发展顾问，促进了高新技术推广。在科技大培训中，以无公害蔬菜生产、食用菌栽培、机械化马铃薯生产为主要内容，采取“明白纸”、光盘、网络、培训班等多种形式培训，取得了明显成效。全市共举办各种形式培训班1920期，发放技术资料44万多份。新建科技进村服务站34个，培训专业技术骨干3.5万人，实用技术培训54万人次。仅市农业局就组织召开现场会18场，参观20多次，科技下乡4次，办各种形式培训班56期，直接培训技术人员及农民2万多人。全市农业科技普及率达95%，农业科技贡献率达46%。新品种试验、示范成效显著。全市共引进试验示范农业新品种453个，仅蔬菜优新品种的试验示范就达到230个。瑞克斯旺公司、安莎公司、海泽拉、先正达等世界知名优质种子公司分别在我市建立了试验点。经过专业技术人员培育筛选出了一批在品质、产量、抗病性等方面表现好的品种，将在2005年扩大示范或继续试验。2004年设施菜生产也得到了快速发展，仅供越夏蔬菜生产的大棚就达9000多亩。“百利”越夏硬果西红柿平均亩产值6000多元，最高达到9000元，越夏彩椒每亩产值9000元，最高达14000元。成为农民增收的新亮点，为棚室夏季充分利用创出了路子。重点示范推广的高油、高蛋白玉米新品种，已发展到15万亩，为畜牧业发展和酒精生产提供了原料保障。专用玉米、大豆、水稻、谷子等优新品种的试验、示范的成功，都为来年品种的更新、推广提供了保障。通过与市职院技术合作，进行的马铃薯脱毒研究获得成功，收获微型薯13万粒。农业办学取得新成效。市农广校新招收专科以上层次学员1006人，中专学员550人。新建立了农村富余劳动力转移培训基地，培训农民工3347人，输出劳动力1000多人。兴隆县农广校与天津蓟县等校成功合作，招收自考本、专科学员130人，首次实现了跨区域合作办学，开辟出新的生源渠道。市农机校积极开拓学生就业市场，与北京开发区SMC集团等3个公司建立了合作关系，即将毕业的20名汽车运用专业学生已被预订，就业形势较好。', '争取项目有新突破。一年来，共争取到国家级项目6个,省级项目38个，资金总额4733.2万元。经过我们积极努力争取和部厅的有力支持，承德市农作物种子监督检测分中心建设项目、宽城优质专用玉米良种繁育基地建设项目、国家级专用玉米良种繁育中心建设项目等投资分别在320多万元以上的国家级项目已批复待建，沼气池国债资金项目争取到了5个续建县和2个新建县，总投资额2719.2万元，其中国家投资906.4万元。这是我局历年来争取到国家、省级项目最多、资金额度最高的一年。重点工程建设有新亮点。生态家园富民工程项目，全市新建沼气池52800个，占省下达任务的231%，在全省位居第一，市局和市能源办受到了省农业厅表彰；农业信息网络中心项目全面建成，并投入正常使用。自开通以来，发布信息8000余条，并成功地与北京市农委信息中心联网。另外，8个县的农业信息网络也全部建成并投入使用，我市农业信息网在6月份全省市级网站评比中，被评为优秀网站。国家级重点项目承德市防蝗应急站土建工程全部竣工。这些项目建设使农业系统的服务手段和农业的基础条件得到了改善。招商引资工作有新进展。围绕重点产业和龙头企业建设，认真组织谋划了2005年国家、省级农业投资项目、赴北京洽谈招商项目及市发改委要求上报的农业重点建设项目等项目的申报工作，谋划招商项目100多个。在市委、市政府组织的京承农业合作及项目洽谈活动中，赴京招商取得了显著成效。市农业局与北京三升集团达成了玉米秸秆加工协议，首批加工流水线将在平泉县建设，总投资可达5000万元，已完成选址、堪测、设计等工作。与北京市农林科学院达成了农业科技合作和蔬菜新品种试验示范及奥运蔬菜基地建设二个协议，与北京城乡网络中心达成了农业信息合作协议，5个县区与北京八里桥市场达成了合作协议，并开始实施。组织我市12家农业重点龙头企业参加了第二届中国国际农产品交易会，共有十个系列176个产品参加展示和展销，销售额达22.4万元，签约合同2个，并与30多个国内外商家达成了合作议向，为全市农业发展注入了新的活力。', '采取有效措施大力整顿了农资市场，全年共出动执法人员4000人次，张贴打假宣传标语4.5万份；检查种子经营单位638个、农药经营单位345个，化肥经销单位206家和8家企业。查获假劣种子33650公斤、假劣农药411公斤、违禁剧毒鼠药12.6公斤、伪劣化肥22吨；检查农机经营网点593个，整顿市场22个，对40家无证经营单位，重新办理了农机经营许可证，查处不合格农机件50个。农村经济管理，减税任务落到了实处，2004年取消特产税、农业税率降低3个百分点后，农业税综合平均税率降为3.8%，计征额降为5502万元，比上年降低4154万元，全市农民人均税负由89.6元减少到19.1元，降低78.7%。为了确保农民负担不反弹，全市在114个村、1140户建立了农民负担监测点。在专项收费治理中共查处案件17起，查出违纪资金322万元，5人受到党政纪处分。同时加强了农村财务管理，全市有107个乡镇实行了财务会计委托代理制，10个乡镇推行了农村财务电算化试点工作，农村财务管理工作进一步规范。农业综合执法，举办了全市农业行政执法培训班，指导双滦区成立农业综合执法大队，开展了农业综合执法试点工作，取得了明显成效。植物检疫，通过采取建立病虫害监测点、产地自检、异地联合检疫等措施，严把“三关”，依法施检。今年全市实施产地检疫11.27万亩，检疫合格种子3507.48万公斤。通过采取这些措施，有效地防治了农作物病虫害的发生和疫情传播，减少粮食损失5万多吨。', '2004年，农机工作得到了加强，农民购机、用机的积极性进一步提高。全年新增农机具2561台，已拥有各种农机具3万多台（件），农机总动力达168万千瓦，较上年增长6%，农业机械化水平不断提高。农机系列化作业面积增加。完成机械化系列作业面积31.34公顷，其中机械化耕地面积15.34万公顷（机械化深耕、深松完成6万公顷，机械化保护性耕作面积1万公顷），机械播种完成8万公顷（玉米机播6万公顷，小麦机播1万公顷，其它作物1万公顷），化肥机械化深施8万公顷。新型农机具试验、示范获得成功。新引进了节水穴灌施肥铺膜精播机，播种试验30亩获得成功。其铺膜、灌水、施肥、播种等复式作业一次性完成，与传统种植相比具有省时、省工、省种、省水等特点，亩节省成本70元、增产75公斤。同时，进一步加强农机具科研生产，围场县农机研制生产的马铃薯播种机，田间表现良好，平均亩产达3000公斤，并首次出口亚美尼亚60台。农机管理不断加强。共检验农机维修厂点700个、审定农机维修网点100个，完成农机维修职业技能鉴定325人；检验农业机械19441台，驾驶员审验14543人，核发号牌5475副、驾驶证3281本，均超额完成了任务。', '加强了党风廉政建设工作。围绕优化经济发展环境活动，大力加强了党风廉政建设和行风建设，分别组织召开了全市农业系统优化经济发展环境和党风廉政建设及行风建设工作会议。实施了党风廉政建设目标责任制和“双向”负责制。在系统内全面实行了“首问责任制、一站式服务制、办事时限制”；组织广大党员干部和技术人员深入乡村开展了“党的先进性春耕助农行动”和“阳光投诉”活动；组织党员干部学习“两个条例”，加强廉政教育，有效地促进了党风廉政建设工作。加强了思想教育工作。围绕学习宣传中央1号文件，在系统内开展了以“当好六大员，为农民增收做贡献”为主要内容的学习教育活动；请市委党校教师做学习“十六届四中全会精神报告会”，请省级劳模于贵勤同志做以“献身教育、服务三农”为主题的报告，组织党员干部向承德县孤山子小学捐款3000多元，衣物700多件。局班子成员与32个所属科站副科级以上干部进行了谈心谈话，对新提拔的10多名科级干部进行了诫勉谈话，大会听取了11位任职满一年科级干部思想工作汇报。思想教育工作体现了以人为本、提高素质、服务农业的特点。加强了争先创优活动的开展。在市、县两级农业系统内开展了争创“一流工作、一流公务、优秀公文、优秀论文”活动；为了学赶先进，就农业产业化经营、生态农业建设、绿色食品生产、农业项目等组织了8期外出学习考察活动，开阔了视野，找到了差距，明确了工作努力方向。2004年农业系统涌现出了一大批先进典型，受到了表彰奖励，有1人被评为全市十大杰出青年、1人被评为市级劳模、5人当选为科技十佳，市级以上拔尖人才达到12人。', '2004年，全年各项工作都取得了新成效，但也存在一定差距，有待进一步加强和改进。一是在抓农业产业化发展工作中，就支撑农民增收的主导产业规模扩张的速度还不够快；二是充分发挥全系统的积极性，争取项目资金，扩大开放外联上大项目，需进一步加强；三是按工作往深里做、往实里做的要求，仍存有一些不到位的问题；四是机关作风需进一步转变，不留死角，有待抓得再实一些。', '2005年，农业工作任务更加繁重，我们要以中央农村农业工作会议精神为指导，围绕“提高农业综合生产能力，确保稳定增产持续增收”的总目标，以继续大力推进种植业结构调整为主线，以科技创新为动力，做大做强龙头企业，提高农业产业化水平，突出承德特色农业，努力提高农业经济运行质量和效益，为促进粮食增产、农业增效、农民增收做出贡献，努力开创农业工作的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>10</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>承德市中小企业局年上半年工作总结</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2008-09-25</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F9%2F25%2Fart_9941_218095.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218095</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['今年上半年, 在市委、市政府的正确领导下，在省局的大力支持下，以党的十七大精神为指导，全面落实科学发展观，牢牢把握“立足赶超,跨越发展”的主基调，继续实施骨干带动、开放带动、科技带动战略，认真落实富民强市“六项行动计划”，实施“全民创业工程”，大力推进公平准入，鼓励全民创业，进一步优化发展环境，改善融资条件，推进服务体系建设，民营经济对全市经济的贡献率进一步提高，实现了又好又快发展。', '上半年，全市民营经济完成增加值193.85亿元，同比增长52.5%；实现营业收入617.75亿元，同比增长46.2%；上交税金39.57亿元，同比增长90.1%；完成固定资产投入74.38亿元，同比增长46.1%；从业人员50.29万人，同比增加3.4万人，实现了时间过半完成任务过半,为完成全年目标任务奠定了良好的基础。全市民营经济呈现以下主要特点：一是主要经济指标快速增长，效益继续提高。上半年全市民营经济增加值、营业收入、上交税金、固定资产投入等主要指标增幅均在40％以上，其中营业收入增长较快的是宽城县、双滦区、滦平县、平泉县，同比增长50％以上；上交税金增长较快的是隆化县、滦平县，丰宁县、双滦区，同比增长100%以上。全市民营经济呈现快速发展的态势，经济效益有了新的提升，民营经济营业收入税金率达到6.4％，同比提高1.8个百分点。二是资源优势得到有效发挥，采矿冶金业成为全市民营经济的重要支撑。上半年，采矿业经营单位个数达到4479个，同比增加279个，从业人员增加1万人，实现增加值84亿元，同比增长65%。全市496家民营规模工业企业中采矿冶金企业占62.7%；工业企业上缴税金中冶金矿山企业实现税金占80%以上。由于价格上扬的拉动和奥运前全市企业加紧生产，使全市民营经济税金增长较快。与此同时，我市民营经济充分发挥本地蔬菜、畜产品、食用菌、林果等农副产品资源优势，大力发展农业产业化经营。上半年，农副产品加工业经营单位个数达1136个，同比增长18%；实现增加值8.3亿元，同比增长62%。 建成国家级农业产业化龙头企业1个、省级13个、市级131个。怡达集团已进入全国农业产业化龙头企业行列，红源果业、绿源公司、三北种业等企业，实力进一步壮大，带动作用进一步增强。农业产业化经营的发展，为带动农民收入增加发挥了积极作用。三是固定资产投入增速较快，增强了民营经济快速发展后劲。上半年，固定资产投入不断加大，全市民营经济完成固定资产投入74.38亿元，同比增长46.1％，继续保持较快发展。增速较快的县区是平泉县、滦平县、隆化县、兴隆县。四是就业渠道拓宽，就业岗位增加，民营经济从业人员显著增加。上半年全市共有50.29万人在民营经济领域中就业，同比新增3.4万人。其中在民营企业中就业的21.34万人，同比新增1.56万人；从事个体经营的28.95万人，同比新增1.84万人。', '全面贯彻落实国家、省、市关于鼓励支持和引导个体、私营等非公有制经济发展和鼓励创业的各项政策规定，大力营造创业氛围，激活创业主体，优化创业环境，进一步放宽准入领域，降低创业门槛，拓宽经营范围，加大创业扶持力度，搭建创业平台，以创业带动就业。一是实施全民创业工程。认真落实富民强市“六项行动计划”，实施“全民创业工程”，制定3年发展目标。2008年，全市每千人民营企业个数达到1.35个，每千人个体工商户数达到31.8个；到2010年，全市每千人民营企业个数达到1.58个，每千人个体工商户数达到35.1个。二是加强对全民创业的督导。实行周报制度，每周上报全民创业进度。三是筹备全市全民创业大会。积极筹备全市全民创业大会，起草会议文件。完成市委、市政府关于推进承德市全民创业的决定征求意见稿，经有关领导审阅，纳入市委、市政府关于承德市推进全民创业建设创业型城市的决定中。完成市委、市政府关于六项措施推进全民创业的决定征求意见稿。', '为进一步促进全市民营经济健康、快速、持续发展，根据市委、市政府《关于推进民营经济跨越式发展的若干规定》和《承德市2007年民营经济暨创业工作目标及考核办法》要求，对县区2007年度民营经济工作目标完成情况进行考核，通过听取汇报、现场考察、查看资料等形式，经过综合评比，确定考核名次。通过对民营经济工作考核，使各县区对民营经济工作重视程度不断提高，都把发展民营经济列入县区重要工作日程，进一步突出发展主题，不断强化环境建设，加强服务意识，提高服务效率，使民营经济工作呈现出持续快速发展的局面，推进了全市民营经济又好又快发展。', '上半年来，继续围绕“发展园区经济，建设产业集群，培育壮大主导产业，迅速增强核心竞争力”的思路，加强对产业集群和园区经济发展的引导和规划，不断构建多元支撑体系，促进了我市中小企业产业集群和园区经济稳步发展。全市以农副产品加工、冶金、建材、服装加工等行业为主体的产业集群已发展到22个。其中年营业收入10亿元以上的产业集群已发展到6个，60亿元以上的1个，100亿元以上的1个。产业集群共实现营业收入328.4亿元，同比增长59.4%，占全市民营经济营业收入34%。产业集群中有生产企业1632个，配套企业394个，相关三产企业 1861个，产业集群占县域经济比重逐年增加。', '上半年，认真贯彻省统一部署，积极推进市、县信用担保机构建设，采取财政出资引导、鼓励民间资本参与的原则，广泛筹集资金，组建担保机构，促进对中小企业的融资服务，全市中小企业信用担保体系继续快速发展。在工作中不等不靠，主动适应形势，不断创新、调整工作思路，融资担保工作始终处于全省的先进行列。全市设立中小企业信用担保机构15家，注册担保资本金50500万元，其中：各级财政出资33548万元。累计为中小企业担保1839笔，担保贷款14亿元，其中：今年以来，为中小企业担保617笔，担保贷款近1.55亿元，在保责任余额3.72亿元。一是深入开展整合信用担保资源工作，不断扩大政策性担保资金实力。积极协调县区及有关部门，深入开展担保资源整合工作，政策性担保资金较2007年末增加4200万元，承德县担保公司加入市担保公司。二是积极协调金融机构与担保机构的合作。积极联系、走访各金融机构，寻求银保合作，与市各金融机构建立了工作信息沟通平台。三是努力提高担保机构的经营水平。组织有关人员到先进地区学习考察；参加国家、省的培训，提高从业人员的业务素质；借鉴先进经验，制定了我市担保机构运营的规章制度、操作规程及防范风险的措施。四是积极谋划与开行的合作，加强 “三台一会” 建设。协调市发改委、市财政局等部门，积极谋划与开行的合作，拓宽我市中小企业的融资渠道。不断加强市担保公司的自身建设，使之成为开行认可的中小企业融资担保平台。将承德市中小企业信用评价委员会改组，成立承德市中小企业信用促进会，建立健全各项工作机制。建立企业信用评价机制，采用国内先进的企业信用评价软件，从企业遵纪守法、经营管理者素质、企业发展潜力和前景、社会评价等五大类，涉及中小企业、金融、税务、工商、质量技术监督、环保、劳动、安监、统计、法院等多个部门，进行综合评价。建立企业贷款项目库，收集和储备企业资金需求信息，评价、筛选并向银行推荐。五是积极推进小额贷款公司试点工作，拓宽中小企业融资的渠道。积极协调市金融办等部门推动小额贷款公司试点工作；组织有关人员到廊坊等地考察学习先进经验。', '根据市委、市政府确定的“工业强市”战略，始终把加大投入和项目建设作为发展民营经济的首要任务，突出抓好重点民营企业项目建设。全市民营企业项目建设呈现出投资加大、新建项目增多、工业项目投资高速增长、项目前期工作进展加快的特点，项目建设势头强劲，发展后劲不断增强。新上投资百万元以上的大项目388个，其中千万元以上的大项目166个。以隆化县食品肉牛和杏仁脱苦深加工项目、宽城县河北新希望集团百万头生猪产业基地为代表的农业产业化提升工程项目达到118个。以隆化县钛产品深加工项目、双滦区冷轧薄板为代表的工业优化升级工程项目达到122个，风电水电“双百万级”建设工程项目达到8个；旅游产业升级工程项目达到22个，这些项目建设增强了民营经济发展后劲。', '充分利用毗邻京津的区位优势，以各种洽谈会、展览会为契机，内引外联广交朋友，为企业牵线搭桥，千方百计吸引资金上项目，解决项目资金不足，促进县区经济发展。全市借助市外企业新上项目26个，引进市外投资3.9亿元，其中利用外资0.6亿美元。组织参加省级以上大型对外经贸洽谈活动2次，有6家企业签约，协议金额3.8亿元。', '为了促进我市民营经济健康发展，扎实推进优化经济发展环境工作，促进民营经济快速健康发展。一是通过电台向社会做出了以“搞好宏观指导，搞好重点扶持，建立担保体系，搞好信息服务，搞好培训服务，搞好维权服务”为内容的十项承诺，并公开热线电话，接受全社会的监督。二是集中开展了“阳光服务”活动。“阳光服务”中接待群众60余人，发放宣传单2000余份。三是完成了省中小企业局“阳光热线”反馈情况，通过有关法律部门的帮助，解决了企业所提出的问题，使优化经济发展环境工作真正落到实处。', '为适应职能变化，提高服务水平，转变工作作风，深入基层调查研究，及时撰写有价值、有份量的政务信息和通讯报导，在各类新闻媒体发表，努力做到了善用媒体营造氛围，巧用媒体推动工作，借助媒体加强监督，收到了满意的效果。通过多方位的宣传，使我市的民营企业工作得到了各级领导和部门的大力支持，也为全市民营企业的发展提供了舆论支持。上报各类信息、通讯报道、典型材料60多篇，被有关媒体、单位采用40多篇，撰写的理论宣传文章在省、市报刊杂志上均有发表。上半年，通过联合新闻单位，利用各种媒体全面深入地宣传民营经济地位、作用以及扶持政策、典型经验和先进人物，营造了良好的舆论氛围。', '职业技能鉴定工作是省局开展的一项重要工作，是多渠道、多形式培养实用型人才，更好地为中小企业、民营经济发展提供人才支持的重要保障，开展此项工作政策性较强，工作难度较大。通过认真学习国家有关政策、精心组织、积极协调，按照规定程序组织并实施鉴定。6月12日，在省中小企业职业技能鉴定中心指导下，首批职业技能鉴定工作在腾飞中专学校圆满结束，鉴定汽车维修工（中级） 50人。此次考评鉴定工作，为进一步健全和完善中小企业技能人才工作体系奠定了基础，对推动我市中小企业技能鉴定工作的深入开展将起到积极的促进作用。', '近年来，我局始终把教育培训工作作为工作重点，常抓不懈。上半年，进一步解放思想，创新方法，不断完善人才培训服务体系，深入实施“适用人才聚集”、“重点人才培养”和“全员素质提高”三大工程，为中小企业发展提供坚强的人才保障和智力支持。一是召开培训工作会议，统一思想，明确目标。为认真贯彻落实全省中小企业人才培训工作会议精神，安排部署我市2008年人才培训工作，使人才培训工作取得新突破，召开了全市中小企业人才培训工作会议暨远程培训基地现场经验交流会。会议进一步统一了思想，拓宽了思路，使教育培训工作目标更加清晰，责任更加明确，为超额完成全年教育培训工作目标奠定了基础。二是组织企业参加“河北省中小企业人才招聘会”。组织我市泉力工贸集团公司等10家企业参加了省中小企业局在保定举办的“河北省第二届中小企业高校毕业生人才招聘会”。这次活动共接待咨询640人次，招聘需求岗位215位。企业收取应聘简历328份，现场初步达成意向45人。三是组织网上百日招聘高校毕业生活动。全市共有27家企业在网上发布招聘信息，发布招聘职位34个，为173人提供就业机会。四是加强和完善培训基地建设。我们对15家远程教育培训基地按照“动态管理、规范运作、提高效率、扩大影响”的思路，研究出台了《远程教育基地规范运作管理办法》。为充分发挥基地的辐射带动作用，引导中小企业建立健全自主培训体系，召开远程教育经验交流会，推广总结先进经验。五是筹备名家讲坛。“河北中小企业发展名家讲坛”是我省全面实施中小企业成长工程，推动中小企业更好更快发展的重大举措。我们精选主题，优选师资，准备举办一期。初步拟定7月21日，聘请清华大学特聘教授洪生，讲授《赢在绩效》，届时将有350名企业中、高层管理人员参加培训。', '我局不断提升素质，突出工作重点，扎实推进行风建设,将行风建设与业务工作同部署、同考核、同推进,实现了同发展。出台了《承德市中小企业行政管理系统2008年民主评议行风建设工作实施方案》，明确指导思想、重点内容、方法步骤、组织领导、目标责任。通过媒体向社会做出了关于加强民主评议行风建设的七项承诺，公布了行风监督电话，接受社会监督。深入企业开展服务，开展了廉政文化进企业、征求意见调查研究到企业、融资服务进企业、培训服务到企业、法律服务到企业五项服务活动。通过努力，使全局职工增强行风建设认识，转变工作作风，创新工作方法，提高办事效率，改进服务质量，确保年底行风评比进位。', '（一）落实“六项行动计划”，实施全民创业工程。一是全力抓好全省全民创业工作会议精神的宣传和贯彻，并筹备全市全民创业工作会议。二是做好全民创业政策的研究，协调、综合各有关部门的优惠政策，编制我市鼓励全民创业政策的宣传手册。三是搞好调查研究，了解中小企业、民营企业和创业者在经营、创业过程中的要求和问题，协调各方面进行解决。', '（二）加快扩大政策性担保公司的建设力度，加大各级财政资金的投入规模。各县区担保机构要参加市政策性担保公司的整合，2008年县区财政收入10亿元、5亿元、2亿元以上的,政策性担保资金要分别达到2000万元、 1000万元、500万元，全市政策性担保公司的资本金规模达到1.5亿元。到年底全市中小企业担保本金达到7亿元，担保业务量达到16亿元。', '（三）加大小额贷款公司组建的工作力度。年内小额贷款公司达到10家，注册资本金达到5亿左右，缓解创业者的融资难问题。', '（四）加大创业辅导基地建设的力度。一是进一步加大对创业辅导工作宣传力度。充分利用阳光行动等各种宣传活动和媒体，宣传国家创业辅导政策，鼓励个体工商户和民营企业积极创办小企业，开发新岗位。二是完善创业辅导中心的服务功能，密切与各合作单位的协作关系，逐步拓展创业辅导服务。三是落实发展目标，加快我市中小企业辅导基地的建设步伐，力争到年底有800家企业入驻。', '（五）加强创业培训工作，提高经营者素质和水平。一是认真做好督导，按时完成各项培训指标；二是扎实开展银河工程培训，组织企业按时参加培训；三是引导和帮助企业强化内部培训的主题功能，建立健全自主培训体系，加大培训投入，创新培训方式，丰富培训内容，全面提高从业人员整体素质。四是组织好7月21日由清华大学继续教育学院和市政府主办的“河北省中小企业名家讲坛——承德行”活动，参加培训人员350人以上。五是积极发挥已有的15家远程教育培训基地的作用，培训更多的人才。', '（六）加强法律咨询服务工作。充分发挥现有中小企业法律咨询中心的作用，为中小企业、民营企业和创业者提供法律咨询服务。', '（七）加大诚信企业评定工作力度。以打造“诚信承德”为目标，开展诚信企业评定工作，为中小企业发展创造和谐氛围。', '（八）进一步抓好全市民营经济考核工作。继续对县区民营经济发展进行考核，把“全民创业工程”作为一项重要内容增加进去，到年底对民营经济运行情况、全民创业进展情况，通过考核反映出来，并评出名次，表彰先进、督促后进。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>10</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>郑立志局长在全市科技工作会议上的讲话</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2009-03-26</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2009%2F3%2F26%2Fart_9945_197625.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_197625</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['这次全市科技工作会议，市领导非常重视。刚才，建国副市长作了重要讲话，分析了当前形势下加强科技创新的重要性，强调了今年的科技工作任务，我们一定要认真学习，深刻领会，抓好落实。下面，我讲几点意见。', '过去一年，全市科技系统以科学发展观为指导，紧紧围绕市委、市政府确定的经济发展目标任务和全省科技工作的总体部署，着眼于我市重点产业的技术创新，全力实施以“自主创新、高新技术开发及产业化、高新技术促进传统产业升级、科技创新与科技服务平台建设、节能减排和农业科技进步”等6大科技专项为主要内容的“科技创新先导工程”，积极开展“工业技术创新能力建设年”、“农业科技进步年”和“科技法规政策宣传落实年”活动。通过“项目与活动”共建，搭建对外科技交流合作平台，加速科技成果转化，进一步开创了科技工作新局面，为促进全市经济社会的又好又快发展提供了重要支撑。', '（一）重点产业技术创新能力实现新突破。紧紧围绕我市特色钢铁、仪器仪表和中药现代化三个重点产业，以培育壮大高新技术企业为目标，重点组织实施了5个自主创新和15项高新技术开发及产业化项目，为培育新的经济增长点，调整优化产业结构提供了有力支撑。一是实施了自主创新和高新技术开发及产业化专项。在钒钛钢铁方面，重点实施了《钒生产工艺优化及技术集成创新》、《氮化钒铁合成工艺技术和应用设备研究》和《钒钛磁铁矿提钒新工艺》等项目，形成了多项新技术的集成，提升了我市钒钛产业的创新能力，对钒钛资源的扩大利用和深加工起到突出的带动作用，同时在节能、降耗、环保等方面也取得明显成效。在仪器仪表方面，重点实施了《远传集中抄表系统及配套流量计的研制》、《煤矿企业定量装车及计量系统》和《智能插入式流量计》等项目，成功开发了远传集中抄表系统产品，并应用于居民供暖计量集中抄控；智能插入式流量计和煤矿企业定量装车及计量系统等产品实现了小批量生产。在中药现代化方面，重点实施了《黄芩规范化种植关键技术研究》和《河北道地中药材产业体系建设示范研究》项目，其中《黄芩规范化种植关键技术研究》项目列入国家科技部科技支撑计划，《河北道地中药材产业体系建设示范研究》为省级重大技术创新项目。通过研究黄芩苷提取工艺，黄芩苷含量提高到95%以上，并建立了种质资源圃50亩，野生原种生产基地150亩，利用退耕还林地建仿野生栽培生产基地5000亩。二是加强了高新技术企业培育和特色产业基地的建设。依照新实施的《高新技术企业认定办法》，认真组织了高新技术企业的筛选推荐工作，通过享受减免税等优惠政策，支持企业发展。截至2008年底，承德市在有效期内高新技术企业19个，高新技术产品20项，全市高新技术技工贸总收入实现71.2亿元，同比增长22.8%。大力加强国家火炬计划承德仪器仪表产业基地和河北省钒产品特色产业基地建设。在省科技厅的支持下，国家火炬计划承德仪器仪表产业基地建设取得重大进展，实施了“IC卡燃气表”等3个国家科技部火炬计划项目和“气体质量流量计”等4个省级科技项目，基地实现工业总产值超20亿元。滦平县河北省钒产品特色产业基地，组织实施了《钒钛磁铁矿提钒新工艺》等一批科技攻关项目，提升了产业的创新与竞争能力，基地内现有年产值5000万元以上的龙头骨干企业14家，2008年实现产值83.6亿元，利税24.5亿元。三是实施了节能减排专项。围绕矿山资源综合利用技术和环境综合治理，重点推广实施了《承德钒钛磁铁尾矿生态环境综合整治技术示范与推广》和《矿山生态修复与重建关键技术研究与示范》等项目，优先开展了钒钛铁精矿品位提高及节能降耗技术和回水循环利用技术研究，明显提高了尾矿的选出率，达到52%，实现了选矿节电5-10%，回水利用率达到80%。承德新新建材的“矿山固态废弃物再利用技术”已形成年处理尾矿沙80万吨、生产免烧砖4亿标准块、复合材料井盖5万套的生产能力，成为承德市最大的新型墙体材料生产基地之一。', '（二）农业科技进步取得新成效。一是加强农业重点领域科技项目支撑与创新。围绕玉米、马铃薯、食用菌、中药材、蔬菜等特色产业，培育和引进市场前景好、竞争力强的高产优质、专用型特色动植物优新品种50个，开发具有自主知识产权新品种9个；实施“国光苹果无公害标准化生产技术”等10余项开发项目，总结制订出14项主要农产品生产技术标准并进行了示范应用；支持承德绿丰蔬菜有限公司、承德绿世界公司等科技型龙头企业，运用高新技术提升改造工艺水平和产品深加工技术水平，开发出食用菌酱菜、真空速冻果蔬等深加工产品7项，增强了企业发展后劲。二是加强科技园区示范与推广。实施“一县一业一园现代农业科技示范工程”，引导和扶持创建省级示范县，依托隆化错季蔬菜产业和宽城仿野生热河黄芩产业，2008年我市新增隆化县、宽城县为省级第二批示范县，我市省级示范县达到4个。全市“一县一业一园农业科技示范工程”共建立核心示范区3.5万亩，引进专家32人，引进推广应用新技术新成果80余项，覆盖5万多农户，培育农业科技型龙头企业7家。开展“送农业科技进十万农户”专项行动，邀请市外专家，联合涉农部门，抽调科技人员1000余名，重点组织推广了21项先进集成化技术，实施首席专家负责制，做到长期稳定的技术指导和服务。据统计，全市共确定329名技术人员为市县总负责人，推广先进技术覆盖农户25.8万户。三是加强新农村科技服务体系和能力建设。加强了7个省级农业科技传播站建设，引进开发10余项新技术、新品种；选派农业科技特派员115人，进驻 187个村、12个企业，负责重点示范基地、示范园区、示范村、示范企业的帮扶指导工作，科技试点乡镇、村农民平均增收646元；指导示范村以生产经营大户为领头人，培育壮大各类农民生产协会、专业合作社等组织30余家，进一步增强了农户抵御市场风险的能力。四是积极开展“农业科技进步年”活动。按照市政府印发的《承德市农业科技进步年活动实施方案》，我们组织召开了全市“农业科技培训暨无公害蔬菜生产技术现场会”；联合市林业局举办了2008年果品大赛，共有苹果、梨、板栗、红果、大杏扁等8个参赛树种，12个系列、312个样品的干鲜果品参赛，涵盖了我市重点支持的优质果品基地、科技示范园区、专业合作社及果品生产大户；我们还联合市委宣传部、市农口部门、广电局和承德日报社等8部门共同开展了“承德市‘森源杯’农民科技知识竞赛”，在《承德日报》刊登试题，吸引12000余农民参加，电视决赛由市委、市政府主办，市委、市人大、市政府、市政协领导到场观看，并予以高度评价，社会反响很大。为配合知识竞赛的开展，我们还组织编印了《承德市农业科技实用知识1000问》手册发放到2万多农民手中。', '（三）科技创新服务平台建设取得新进展。一是加强了省级特色产业技术研发中心建设。支持承德颈复康药业集团有限公司与中国中医科学院中药研究所共同组建了“河北省中药新辅料工程技术研究中心”，为我市中药产业提供了技术创新的平台；进一步加强了“河北省仪器仪表工程技术研究中心”创新能力建设，先后开发了光纤测位仪等20多项新产品，12个产品初步实现了产业化。二是重点培育了钒钛、食用菌、马铃薯、蔬菜、种子等5个市级产业技术研究（开发）中心。引进或联合高校、科研院所专家，加强产学研联盟，推进了产业技术升级和快速发展。例如种子产业技术研发中心与中国农科院合作，引进优良的育种选系20多个，培育优良新品种3个，其中两个通过国家审定，在全市建立育种基地6万亩，拥有技术人员100多人。三是加强了承德市大水流量计检测站等科技服务平台的建设。承德市大水流量计检测站已能够开展流量计检测工作，目标是建成华北地区最大的流量计专业服务中心；承德市生产力促进中心被国家科技部列为国家级示范中心，开发区创业服务中心被省科技厅认定为河北省科技企业孵化器。', '（五）县区科技工作迈出新步伐。一年来，各县区紧密结合当地实际，创新发展思路，创新工作举措，共同推进了全市的科技进步。平泉县和兴隆县成为“国家科技富民强县试点县”，通过实施《食用菌特色产业循环经济配套技术开发与应用》和《山楂特色支柱产业技术开发与应用》国家科技富民强县项目，有力推进了两大产业的发展壮大，真正成为了富民强县的支柱产业，助推了县域农村经济的发展。2008年平泉县又被批准为“河北省可持续发展实验区”；承德县列入省级“富民强县示范县”行列，围场县、平泉县、隆化县、宽城县围绕县域特色优势产业，大力实施“一县一业一园现代农业科技示范工程”，先后成为省级示范县，围场县加强科技宣传工作，在省市综合评比中均居前列；滦平县钒产品产业基地列入“河北省特色产业基地”，双滦钒钛工业园列入首批省级产业聚集区；营子区整合游戏机产业资源，形成整体竞争优势；在优化完善创新环境中，平泉县、宽城县、承德县设立了“科技进步奖”，双滦区出台了“专利发明奖励暂行办法”，丰宁县、双桥区加强科普推广等工作，取得明显成效。', '总之，2008年，经过全市上下的共同努力，我们圆满完成了省科技工作目标任务，我市被评为“2008年度全省科技工作先进市”，宽城、平泉、围场、兴隆、隆化和滦平等6县被评为“2008年度全省科技工作先进县”；我们圆满完成了市委、市政府下达的“六项行动计划”重点科技工作目标任务，在市政府2008年度7项政务综合考核评比以及在承办、配合党委系统信息、督查、公文办理等工作中，被市委、市政府评为先进单位。这些成绩的取得，是我们广大科技工作者开拓创新、扎实工作的结果，是市县区科技局、市直各部门、各有关单位团结协作、共同努力的结果。在此，我代表市科技局向各县区、各部门、高校和企业表示衷心感谢。', '在看到成绩的同时，我们也清醒地认识到，当前科技工作与科学发展观的要求相比，还有许多不适应、不符合的问题；与全市经济又好又快发展的需要还存在一定差距。如：企业自主创新能力和集成创新能力还较弱，主导产业科技含量不高，高新技术产业发展规模小，在全省新一轮认定的208家高新技术企业中，我市仅有4家，具有自主知识产权的企业和产品少；现代农业技术开发和推广体系与功能还不完善；全社会科技投入还较少，科技风险投资体系还未建立，县区科技三项费投入与县域经济实力不相称；以产业为目标，企业为主体的产学研技术创新平台还没有建立起来，科技招商合作的力度有待于进一步加大。我们必须认真研究措施，努力解决科技发展过程中存在的问题。这需要全市科技系统团结一致，共同努力，也需要全社会广泛而有力的支持。', '二、认清形势，理清思路，把科技工作重心放到“保增长、调结构、强基础、惠民生”上来。', '当前，国际金融经济危机继续呈扩散、蔓延趋势，给我市经济带来很大冲击，凸显了我市资源型工业和单一产业支撑发展的瓶颈和后劲不足，我市深层次矛盾仍然是产业结构不合理、创新能力弱、城镇化水平低、市场主体发育不足等问题。现在承德已经进入了一个关键的发展期、转型期，历史表明，每一次大的危机常常伴随一场新的科技革命，每一次经济复苏都离不开技术创新。在新一轮产业结构调整和竞争中，要抢抓机遇，把加强技术创新能力作为调整结构、提高竞争能力的重要手段。对此，我们科技系统要把思想统一到市委、市政府的正确判断和决策部署上来，围绕我市提出的“保增长、调结构、强基础、惠民生”工作主线，加强作风建设，振奋精神，通过各方面扎实有力的工作，推进科技创新上水平，为今年经济平稳较快发展提供强有力的科技支撑。', '2009年，全市科技工作的总体思路是：以科学发展观和干部作风建设年统领全市科技工作，紧紧围绕“保增长、调结构、强基础、惠民生”工作主线和全省科技工作的总体部署，以推进我市钒钛钢铁、仪器仪表及装备制造、医药食品三大重点产业和现代农业的发展为重点，组织实施以自主创新、高新技术开发及产业化、高新技术促进传统产业升级、科技创新与科技服务平台建设、节能减排和农业科技进步六大科技专项为主要内容的科技创新先导工程，促进我市经济发展方式的转变。继续开展“工业技术创新能力建设年”、“农业科技进步年”和“科技法规政策宣传落实年”活动，加大国内外科技交流与合作，加强技术成果的引进和转化，通过项目与活动共建，持续改善科技工作环境，为全市经济又好又快发展做出新的贡献。', '2009年,科技工作的主要目标是:围绕重点产业实施重大自主创新和高新技术开发及产业化项目10项以上，集成推广农业先进适用技术20项以上；重点培育技术创新与服务平台4个，培育高新技术特色产业基地1个；组织开展项目洽谈会、现场会、专家讲座培训会和科技进步年联查等重大活动10项; 完成市委的4件科技要事实事和市政府的重点科技工作目标任务。', '（一）围绕增强重点产业技术创新能力，组织实施一批科技项目。一是抓紧抓好国家与省级项目的谋划和实施，培育特色高新技术产业发展新优势。围绕我市经济建设和重点产业的发展，瞄准国家和省科技工作重点，着力推进《钒电池技术开发及产业化》、《钒铝系列中间合金精炼技术开发及产业化》、《非晶硅太阳能电池板镀膜设备》和《治疗风湿骨病系列中药深度开发》等项目在国家和省立项，争取组织钒产品生产企业谋划申报一项国家级项目。同时，抓好省重大攻关项目《钒生产工艺优化及技术集成创新》项目的实施和《河北道地中药材产业体系建设示范研究》的组织验收工作。二是抓好市级科研项目的组织实施，推动重点产业技术创新。认真落实市政府《关于加强重点产业技术创新能力建设促进经济发展方式转变的意见》，今后三年内，重点支持钒钛钢铁、装备制造及仪器仪表、食品医药三个重点产业的技术创新，其中重大创新项目以成果转化和产业化项目为主。目前我们正在针对三个重点产业开展调研，希望各县区、企业积极配合，结合本地经济和科技发展的重点任务，尽快谋划组织项目。', '（二）围绕现代农业领域技术创新，组织实施一批农业科技攻关与示范推广工程项目。一是组织实施农业科技进步专项。围绕食用菌、蔬菜、马铃薯、果品等优势特色产业发展，重点组织开展无公害、绿色优质农产品标准化生产、农产品深加工等农业科技开发攻关项目，促进农业产前、产中、产后技术体系的合理衔接以及产业化发展，扶持壮大农业龙头企业，提高农业产业化水平；做好与中国农科院蔬菜花卉研究所、畜牧研究所、农业区划研究所、中国农大、河北农大的联合攻关与技术引进工作，提升产业技术水平。二是组织抓好农业科技推广与示范。继续开展“送农业科技进十万农户专项行动”，联合农口部门，组织科技人员开展农业先进适用生产技术“20推”，打造名牌产品，保障农产品质量安全；深入实施“一县一业一园”农业科技示范工程，培育优势主导产业科技园区；借省今年启动“燕山特色产业园区建设工程”的契机，抓好项目谋划和申报，推进我市农业特色产业园区建设和山区开发工作；抓好平泉、兴隆两个国家“科技富民强县试点县”建设，积极争取围场县列入2009年国家试点县，进一步做大做强富民强县支柱产业。', '（三）围绕可持续发展，组织实施节能减排科技专项。开展矿山企业综合节能减排新技术集成应用示范和节能减排示范小区建设；开展大中小学节能减排知识的宣传教育活动，提升全社会的环境保护意识；抓好平泉县的省级可持续发展实验区建设工作，加快培育隆化国家级可持续发展实验区，力争在1-2年内创建1个国家级可持续发展实验区。', '（四）围绕增强自主创新能力，加强创新创业平台建设。实施科技创新与科技服务平台建设专项，支持重点、骨干企业建立研发中心，支持企业与有关高等院校、科研院所组建行业性工程技术中心、重点实验室和产学研技术战略联盟等创新平台。一是抓好“河北省中药新辅料工程技术研究中心”建设，着力培育钒产品研发中心，积极与河北农大合作建立我市农业专家工作站，组织做好河北省仪器仪表工程技术研究中心的验收工作。二是继续加强科技中介服务机构建设。积极筹建仪器仪表企业专业孵化器，搭建承德市仪器仪表产业网络平台；抓好市政府与河北农大签署《市校发展战略合作协议》工作，建立长期全面科技合作关系，推进产学研联合；抓好市级以上生产力促进中心、农业科技传播站建设，增强研发和服务能力；抓好承德市科技专家库建设，健全网上技术市场，充分发挥专家库和网上技术市场的作用；加强承德中医药网站的建设，为全市中药种植、加工、新药的研究开发等提供信息服务，更好地促进与外界的信息交流。', '（五）围绕营造创新创业良好环境，组织开展科技活动。认真抓好“工业技术创新能力建设年”、“农业科技进步年”和“科技法规政策宣传落实年”活动的深入开展，丰富科技工作内容，增添科技工作活力。', '1、组织开展与京津的科技交流与合作活动。重点抓好承津仪器仪表企业对接洽谈活动、京承农业技术洽谈交流合作活动、农副产品精深加工技术交流洽谈会，做好邀请专家来承进行技术指导，进行自主创新及高新技术产业发展、农副产品精深加工与综合利用、专利知识宣传与培训的讲座，组织我市农业龙头企业赴北京健康产业中试与孵化中心进行合作洽谈。', '2、认真落实“农业科技进步年”活动。组织召开“奶牛饲养管理技术现场培训会暨送科技入户启动仪式”和“双孢菇优质生产技术现场会”；联合部门开展县区科技进步考核和农业科技进步年联查活动；组织科技龙头企业和农业技术人员到外地学习考察农产品深加工技术。', '3、积极开展“科技法规政策宣传落实年”活动。利用科技活动周、科普下乡以及组织开展科技创新政策专家解读培训等活动和形式，推进国家科技配套政策措施的落实；加大知识产权保护力度，研究制订《承德市专利战略纲要》，抓好2个省级知识产权优势培育县和2个专利试点企业，开展好专利宣传和执法检查活动。', '1、加强科技系统作风和党风廉政建设。深入开展学习实践科学发展观和“干部作风建设年”活动，认真抓好《开展“干部作风建设年”活动的实施方案》的贯彻落实，重点开展“科技创新专题调研月”、“领导干部结对”和“优化环境破解难题”三项主题实践活动，着力解决影响和制约科学发展的突出问题；按照建设“廉洁、勤政、务实、高效”的机关标准，严格落实首问责任制、限时办结制、AB岗工作制、责任追究制及政务公开等制度，重点解决好不作为和乱作为等问题，改进工作作风，切实增强事业心和责任感，提高行政效能和服务水平，杜绝因细节上的疏忽，程序上的不规范，造成全局的被动，损害科技系统的整体形象。加强学习型机关建设，抓好机关效能建设专家讲座和学习实践科学发展观大讨论活动，组织做好ISO9000认证复审工作；认真抓好科技系统党风廉政建设，落实党风廉政建设责任制，加强反腐倡廉教育，加强对行风建设的领导，做好民主评议行风工作。', '2、加强科技调研和宣传工作。围绕新情况、新问题，有重点、有针对性地开展调查研究工作，提高干部分析和决策能力。年内重点组织抓好一批省、市重点课题的研究，争取在重点产业技术创新、加强科技政策落实等方面提出创新的思路和举措，为领导决策提供参考；进一步加大科技宣传工作力度，依托省市主流媒体，扩大科技工作宣传的广度和深度；认真抓好政务信息考评奖惩工作。', '3、加强科技系统的目标考核与管理工作。制订完善《市科技局督查考核评价工作暂行办法》，加强对省、市目标工作的督导和检查，确保完成省市确定的各项目标任务；继续抓好对县区的科技工作目标考核工作，以全国县区科技进步考核及争创全国科技进步先进县区为契机，年内联合市直有关部门，抓好全国科技进步先进县区的考核工作，严格执行并落实“一票否决指标”，创建工作和考核结果真正体现县域科技经济发展实力，切实推动县域科技进步。', '同志们，今年经济形势严峻，科技工作任务繁重。我们一定要在市委、市政府的正确领导下，深入贯彻落实科学发展观，以开展“干部作风建设年”活动为契机，坚定信心，开拓奋进，以更优的作风、更好的服务、更高的效能，全面完成我们的各项科技工作任务，为建设创新型承德和促进全市经济平稳较快发展做出新的贡献！']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>10</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>承德市教育局年工作总结</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2008-06-11</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F6%2F11%2Fart_9941_218046.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218046</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['2003年，全市教育系统以邓小平理论为指导，认真实践“三个代表”重要思想，经受住了传染性非典型肺炎疫情的严峻考验，在市委、市政府的统一领导下迎难而上，奋起抗击，高扬“树正气、讲团结、求发展”的主旋律，一手抓防治非典，一手抓业务工作，做到了两手抓、两不误。不断更新观念，深化改革，提高办学质量和效益。各项目标任务已基本完成，有些工作取得了突破性进展。', '9月底，兴隆县、营子区在全省率先通过本年度新一轮“普九”复检。农村中小学危房改造工程进展顺利，改造危房总面积29536平方米，两期工程完成后，全市有8万多名中小学生的学习环境得到彻底改善。全市高考本科以上上线率接近全省平均水平，比去年提高0.41个百分点，高校录取率比去年提高1.3个百分点，10所原省级重点高中学校中有6所已经通过河北省省级示范性高中的评估验收，普通高中招生21000人。全市学前三年教育适龄儿童入园率达到41%，在全省排在第三位。今年11月初，兴隆、滦平两县通过了省普及学前三年教育县的评估验收。全市残疾儿童入学率达到86%，平泉县成为河北省首批普及特殊教育县。职业教育保持较好发展势头，高等职业教育招生1975人，中等职业教育招生13056人，在全省农村教育工作会议上，袁福副市长代表市政府第一个介绍了我市发展职业教育的经验。引进市外资金2832万元。我市5个专业代表队参加省职业学校学生专业技能大赛，获一个团体一等奖，两个团体三等奖，腾飞中专汽修专业代表队囊括全省个人前5名。', '在整个防控过程中，市教育局多次召开驻市各大中专院校一把手会议，不断强化责任，建立了“四个体系”：即指挥体系、应急体系、信息体系、责任体系；坚持了“五项制度”：即门卫管理体制、卫生消毒制度、晨检制度、联保制度、隔离制度；落实了“九项措施”：即广泛开展宣传教育，取消一切大型集体活动，加强对学生的管理，加强对教职员工的管理，明查暗访强化督查，对医务人员进行培训，成立医疗诊断技术组，加强对学校的安全管理，大力治理学校周边环境。', '——防控为主，兼顾教学。大中专院校调整教学计划，“五一”期间正常上课，做到防控非典与教学两不误市教育局从确保学生不荒废学业、维护社会稳定的角度出发，与市广电局密切配合，共同谋划开办“电视课堂”的方案。开设了“初中毕业班复习备考专题讲座”课程，每天3个小时，聘请直属学校和双桥区学校的名师进行授课。“电视课堂”受到了学生和家长的普遍欢迎。', '——精心谋划，周密组织，全力做好高考和中考工作。针对考生人数多，考点考场分布广，组织管理难度大的实际。我们制定了《考试期间防非典实施办法和紧急情况处理预案》，实行了领导责任制和责任追究制度，严格按程序把好各个关口。在中、高考和成人高考期间，从市、县纪检监察部门抽调干部到考点、考场任考试监察员，对考试工作进行全方位、全过程督察。定期召开考风考纪通报会，将考点考风考纪情况列入单位年度考核目标，制定了一整套互相制约的工作程序，确保防控非典和中、高考考试工作实现了“双胜利”。', '全市教育系统内部发生的病例为2例（确诊2例），占全市发病总数的11.1%，占全省学生发病总数的3.7%，占全省疫情学校总数的5.4%，从总体上讲，我市学校疫情较为平稳，市教育局被评为全市防非先进单位，四名同志受到市委和省教育工委表彰。', '——做好各县区的“两基”迎省复查工作。市目标考核办将兴隆、营子“两基”接受省三年复查工作列入市政府对市直有关部门和县区年度工作考核目标，重新调整完善了教育局领导班子成员联系县区制度。有关县区每月上旬向市政府教育督导室书面报告一次“两基”迎复检工作中存在的主要问题和解决办法及每个月的工作进度情况。特别是加大了迎检县区的实验室建设和仪器配备工作。督促迎检县区做好实验室的上档升类工作，查漏补缺，补充更新，装备教学仪器设备。春季订货近32万元，秋季定货20万元。市政府督导室牵头，有关科室参与，进行了三次有针对性的过程性检查督导。继续推广了隆化县治理学生辍学的典型经验，开展了“无辍学校、无辍乡镇”创建活动。确保了全市小学入学率99%以上，辍学率0.5%以下，初中入学率98%以上，辍学率3%以下。全市206个乡镇中有134个基本达到省定控辍标准，有40个乡镇辍学率接近省定标准。9月底，兴隆县、营子区顺利通过了省政府“普九”三年复检。', '——课程改革工作取得新进展。按计划今年又有2个县、3个区进入课改实验，使我市课改实验县（区）达到6个。有4401名中小学教师参予课改实验。各实验区参加各级各类培训15360余人次。', '——认真组织了培养学生动手实践能力的活动。举办了第一届中小学科普读书竞赛活动。组织“走向世界的中国”读书活动，获全国妇联、中宣部、教育部、共青团中央、中央新闻出版署和中央关心下一代委员会颁发的全国爱国主义读书教育活动优秀组织奖。组织参加了河北省初中数学、物理、化学竞赛，全国中学生（高中）生物学联赛，河北省初中生物知识能力竞赛。配合全市避暑山庄肇建三百年庆祝活动，举办了大学生英语演讲比赛，为避暑山庄肇建三百年国际论坛组织了中小学、幼儿园画展。参加了河北省首届中小学生艺术展演暨选拔参加全国第一届中小学生艺术展演活动。', '——中小学危房改造和布局调整。截止到今年9月底全市一期危房改造工程项目124个（含19个以奖代补项目），已全部竣工。改造D级危房62241平方米，总投资达2805.32万元。第二期一批中小学危房改造工程项目59个，工程总投资1799万元。预计改造危房面积29242平方米。目前，已有48个项目工程竣工，其余项目在年底可全部竣工投入使用。第二期二批中小学危房改造项目工程54个，总投资1913万元，改造危房总面积29536m2。目前，各种立项手续和前期准备工作，已基本完成，各项目工程已进入全面施工阶段，2004年暑期即可投入使用。三所寄宿制学校正在建设工程中，这两期中小学危房改造工程完成后，全市有8万多名中小学生的学习环境得到彻底改善。在加大危房改造力度的同时，积极稳妥地进行了中小学布局调整，全市初中由275所减少到263所，小学由2236所减少到2170所。', '——认真抓好示范学区建设，重点加强学前三年教育、小学英语教育、信息技术教育以及特殊教育的普及工作。目前，全市已有丰宁县、承德县等七个县区普遍开展了学区一体化建设，创建示范学区30个。', '今年普通高中招生21000人。教育教学质量有所提高，全市高考一本上线率接近全省平均水平，达到8.17%，比全省平均线低0.24个百分点。一次上本科线人数由去年的960人增加到1080人。高校录取率达到61.9%，比2002年提高1.3个百分点。在全面加强普通高中发展的同时，重点抓了省级示范高中建设，到去年全市10所重点高中，已有3所进入省级示范高中。今年，我们对其它7所学校先后两次进行督导，督促各县区进一步加大了学校建设力度。4月份宽城一中、已通过省评估组评估，定为试办省示范高中。该校图书馆经省验收，被命名为河北省一级图书馆。平泉一中、承德县一中11月中旬顺利通过了省评估组的评估。', '——重点对兴隆县、滦平县的普及学前三年教育工作进行督查，目前两县已经基本达到村村有幼儿园，50%的幼儿园达到了“三段、两基、五独立”。11月初，两个县接受了省评估组评估验收，评估组给予很高评价，认为两个县幼儿园在办园水平、幼儿园管理及教育理念方面都达到了全省先进水平。', '——为加快普及小学英语教育步伐，结合我市实际制定了全市普及小学英语的基本目标，目前全市小学三年级开设英语课的学校已经达到2029所，占学校总数的95.9%，已有20多所学校从小学一年级开设了英语课。', '——加大了普及特殊教育工作力度。加强了市聋哑学校的示范作用，改扩建了市聋哑学校，投资240万元，建成了一所占地16亩，建筑面积3600平方米的，门类齐全的市聋哑学校。有6个县建起了特殊教育学校。目前，全市残疾儿童入学率已经达到86%，平泉县已于9月份通过了省普及特教县评估验收，成为河北省首批普及特殊教育县，并于11月份在全省特教会议上作了典型发言。', '——信息技术硬件建设进一步加强。截至目前，全市选择河北省教育厅推荐资质公司建设计算机教室39个，装机1262台；新建多媒体教室16个；新建校园网4个，语音教室6个，累计投入资金840万元。全市中心小学以上学校有422所开设了信息技术教育课，占中心小学总数的75%。', '——承德市教育信息骨干网建设进展顺利。在县区教育局资金紧张、“非典”严重干扰的形势下，该项工作取得了较大的进展。目前，除兴隆、平泉外，其他县区已经与市教育骨干网连通。从2003年12月起全市教育系统办公自动化进入试运行阶段。', '——进行了信息技术课题研究。“中小学素质教育中多种媒体综合运用实验研究”被确定为“十五”部级课题，中央教科所确定我市为课题研究实验区。今年，我市开展了“中小学教师多媒体课件”与“多种教学媒体综合运用优质观摩课光盘”制作评比活动，优秀作品报送中央教科所参加全国评选。进行了2003年实验教学CAI课件评选活动。', '——筹建了承德职业教育集团。围绕“工业立市、农业强市、旅游旺市”的经济发展思路，服务工业、农业、旅游三大主导产业，以9个省级骨干专业为纽带，旅游服务、酒店管理、农村经济、英语护理等职教集团的创建工作正在进行之中。几个月来，中等职业学校主动与高职院校“牵手”开展联合办学，搞对口衔接。高等职业院校对中职学校建设和发展提供力所能及的支持与指导。', '——搞好职业教育执法检查。8月下旬，接受了省人大常委会职业教育检查组的执法检查，省检查组对我市贯彻实施《中华人民共和国职业教育法》、改革和发展职业教育所取得的成绩给予了充分肯定，特别是对我市领导重视职教、加大职教宣传、深化职教改革、加快职教发展、加速科技进步等方面的措施给予了高度评价。8月下旬，市人大常委会对承德、平泉、隆化县职业教育工作进行了执法检查。', '——全力抓好职业教育招生工作。首次允许实行公办学校和民办学校招生同等对待，公平竞争。同时规范招生秩序，整顿人才培养环境。外市招生人员在规定时间内进入了承德市人才市场，实行了集中办公。积极发展联合办学，围场、承德县、双滦职教中心与天津新兴技术学校开展联合办学。全市职教对口升学参加考试的有644人,其中专科上线612人,上线率为95.03%。全市高等职业教育招生1975人，中等职业教育招生13056人，共计招生15031人。', '——积极发展民办职业教育。认真贯彻“积极鼓励，大力支持，正确引导，依法管理”的方针，大力发展民办职业教育。成立了民办教育机构设置评议委员会，组织有关人员深入到民办学校，对其办学条件、办学方向、教育教学进行全面督导评估。对原有民办机构进行了年度检查和整顿，重新登记注册。围场卉源中学通过省专家评估，被确定为省民办教育明星学校。', '——加强职业指导与就业前训练教育。大力推进职业资格证书制度，严格职业资格证书的考核认定。同时搞好职教学生就业前训练教育工作。同时组织开展了全市职教学生计算机等级和英语水平等级考试工作，发放了等级证书。逐步实现职教学生凭“四证”（毕业证、职业资格证、全国计算机等级证和外语等级证）毕业。我市组织汽修等五个专业代表队参加了河北省职业学校学生专业技能大赛。', '——开展教学评估和合格评估认定工作。10月下旬，代省教育厅对全市5所省级重点中等职业学校的教学质量进行了全面检查和评估。11月上旬受省教育厅委托，对兴隆职教中心等6所省重点职业学校进行了教学评估，对两所国家级重点职业学校和23所中等职业学校进行了合格评估认定工作，评估结果均全部合格。承德卫生学校、承德工业学校接受了省政府的国家级重点职业学校验收。', '——认真开展了“绿色证书”教育和初中后“三加一”教育。制定了《关于在农村初中实施“绿色证书”教育的实施意见》，举办了三期师资培训班，召开了研讨会，10月份开始，全市地方、学校课程计划中每周安排两课时的“绿色证书”教育。今年，全市“三加一”教育人数达到10880人，培训率98%。使农村初中毕业生基本掌握1-2项农村技术和党在农村的方针、政策、法律、法规。', '——调整了高教园区建设方案。今年初，根据市委、市政府的意见，我们对高教园区项目的规划建设方案进行了部分调整，重新确定了分南北两个区规划建设高教园区的建设方案。一是对高教园区的总体布局进行了调整。在南部冯营子园区内规划建设承德石油、师专、职技学院、旅游学院四所院校。在北部桑蚕研究所处规划建设承德医学院。二是对高教园区的占地面积进行了重新规划。我们与规划部门一起，根据各高校的建设和发展规模，重新确定了各高校的建设用地指标。规划园区总占地4000亩，三是对高教园区的建设规模和投资总额进行了详细估算。重新确定了高教园区的建设规模为89.622万平方米，总投资为19.1亿元。', '——全面开展了征地工作。征地工作是上半年高教园区建设的重中之重，首批征地共2100亩地。4月1日正式开始征地工作。目前完成了地上附着物调查登记、地界地类勘测和绘制勘测定界图纸任务。研究制定了征地工作方案、征地补偿标准及地上附着物和青苗补偿标准。目前，已经省政府批准征用1050亩，其他征地工作年底前完成。', '——完成了环境影响评价报告表的编制和审批。编制了地质灾害评价书。各院校的可研和详细规划设计正在审批和编制过程中。', '——加强党风廉政建设。针对党员和党员领导干部在党性党风方面存在的突出问题，开展党风廉政教育。通过讲党课、专题报告、开展廉政假日活动、到警示教育基地直接听取部分服刑人员犯罪教训介绍等多种形式，教育广大党员和党员领导干部树立正确的权力观、地位观、利益观。充分利用反面典型积极开展廉政教育。在全体党员干部中开展党纪政纪条规学习教育。开展了树组工干部公道正派形象的学习教育活动。在全体党员干部中开展了“六个一”活动，即看一部警示教育片；读一本书（《以案为鉴，警钟长鸣——李真案件警示录》）；召开一次讨论会；重温一次纪律规定；开展一次党纪政纪条规知识测试活动；撰写一篇心得体会文章。制定下发了《党风廉政建设和反腐败工作实施意见》、《党风廉政建设和反腐败工作目标责任分解》等文件，要求领导班子成员严格按照工作任务认真抓好落实，责任到学校，责任到部门科室，责任到人。研究并制定了年度系统工作目标及任务。结合工作实际和今年工作重点将党风廉政建设和反腐败工作作为年终重点考核内容之一，与各县区签订了目标责任书。明确了党风廉政建设责任制由一把手负总责，分管领导各负其责，一级负责一级，哪一级出了问题，追究上一级领导的责任。实行领导班子成员包县区制度。认真坚持领导干部《个人收入申报》、《礼品申报》和《重大事项报告》制度。', '——进一步加强了教育系统行风建设。市、县、区和学校都做到了一把手挂帅、主管领导负责，职能科室责任明确。通过新闻媒体、政务公开和校务公开等形式向社会公开承诺行风建设目标。聘请行风监督员，主动接受社会各界和人民群众监督。采取召开学生家长座谈会、实行学校开放日、校长接待日及进行街头宣传、橱窗宣传等形式，广泛宣传行风建设，征求意见。实行领导班子成员包县（区）、包市直学校督导制度。为把承诺内容落到实处，在局机关和直属学校实行落实承诺内容责任制，把行风承诺内容细划为13项工作，分解到有关领导及所分管部门并纳入年度考核目标。', '——坚决治理教育乱收费。成立了以主管副市长为组长的治理教育乱收费领导小组，先后7次召开治理教育乱收费专题会议，与市政府纠风办、财政局、物价局制定出台了《2003年治理教育乱收费工作实施方案》，今年7月份，市纪委、教育局、监察局、财政局、物价局又联合发出《关于进一步做好治理教育乱收费工作的通知》，确定了2003年全市治理教育乱收费八个治理重点，统一规定了十二项自查自纠及检查内容。实行了对乱收费责任人处理的“追、免、待”的责任追究制度。市、县（区）两级从9月1日起，用了一个月的时间，组成联合检查组对教育收费工作进行了全面的检查，清理出乱收费10项，处理违纪收费203万元，其中95.9万元责令退款，（已有83.8万元退还给学生），责成县区处理99.4万元，检查组对无法退还学生的违法违规收费予以收缴7.65万元，有14人受到通报批评，2人受到待岗处理，3人受到党政纪处分，1人被免去校长职务。', '——师范类毕业生就业工作进展顺利。根据省、市政府关于今年毕业生就业工作的精神，制定下发了我市师范类毕业生就业工作的实施意见，组织县、区和直属院校参加了东北师大、河北师范类毕业生就业招聘洽谈会，为我市引进了42名市外，特别是省外全日制本科毕业生。目前已接收本科毕业生报到175人，其中落实就业单位140人；专科毕业生报到1127人，专升本和已落实就业单位395人；中专毕业生报到118人，已全部派遣回县区。根据省对张承两市高校招收定向生的照顾政策，经与有关部门和县、区多次协调，上报本科定向招生计划135人，省批准56人。', '——在广大教职工中开展了以“三爱”（爱教育、爱学校、爱学生），“三全”（全面贯彻党的教育方针、全面推进素质教育、全面提高教育质量），“三让”（让社会满意、让家长放心、让学生成才）为主要内容的师德教育活动。针对教师在师德形象上存在的突出问题，我们制定了《规范教师职业道德的中央八项规定》。建立健全监督机制，开展学校评教师，家长评教师，学生评教师活动，对违反规定的严肃查处。在全市教职工中重点开展了“教学标兵”、“师德标兵”、“管理标兵”三大标兵评比活动。教师节期间，表彰了365名“三大标兵”、100名“三育人”先进个人和10名“十佳”、20名优秀少先队辅导员。', '——加强了教师继续教育。全市有“汉语言文学教育”等15个学科的教师参加高师自考考试，及格率保持在50%—90%之间，多数学科及格率稳定在70%以上。5月份，我们在市电大成立了“承德市中小学教师继续教育中心”，具体负责全市教师培训的业务性工作。目前，该中心已经开始正常运转。今年，全市小学、初中、高中教师学历达标率分别达到99.65%、95.65%和76.5%，比去年分别提高0.08、2、0.7个百分点。小学教师专科率达到50.45%，初中教师本科率达到21.62%。中小学教研室采取上研究课、说课、评课、教研员进行理论讲座等形式，理论联系实际，坚持把“新课标培训”做实、做活。完成了新任校长任职资格、中小学校长“九五”提高扫尾培训和“十五”提高培训，举办了中小学骨干校长高级研修班。', '——认真抓好了语言文字工作。在滦平县召开了“承德市语言文字工作会议，落实了学校推普达标和城镇用语用字规范化责任制。积极组织开展了第六届推普宣传周活动，组织了对市电台、市电视台工作人员的播音监听，设置了宣传点和普通话测试咨询站。', '——勤工俭学和校园经济得到较快发展。努力提高校园经济的经济效益，指导县区开发新项目，如丰宁大兰营小学奶牛养殖、滦平平坊中学的葡萄种植等都取得了良好的经济效益。隆化县韩家店乡立足长远，为各学校划拨勤工俭学基地4000多亩，为学校校园经济的长远发展打下了良好基础。全市校办龙头企业保持了较好的发展态势，存瑞中学电控设备厂已经发展成为拥有千万固定资产的企业。丰宁二建已盈利近50万元。', '——开展了机关思想作风整顿。组织广大党员干部认真学习党的十六大精神、“三个代表”重要思想和新党章。制定学习安排计划，每周安排半天学习，定期检查学习笔记，交流学习体会。组织全体党员参加市委宣传部开展的学习十六大知识竞赛和中宣部、党建杂志举办的新党章知识竞赛，通过学习和参加竞赛，广大党员的理论知识得到提高。从加强机关文明建设，树立良好教育形象入手，针对机关干部中存在的问题，制定方案，进行了集中整顿，完善了《工作人员规范》、《工作协调规定》、《首问责任制》等制度和工作程序。使机关工作人员端正了服务态度，改变了工作作风。', '——针对教育改革与发展中的热点问题进行调研督导。今年9-11月，分基础教育、职业教育、高等教育和教育政策四个调研组，深入县区40多所学校调查研究，先后召开了市人大代表、市政协委员、大中专院校校长、县区教育局局长、重点中学校长等各方面人员参加的座谈会，在市委张古江副书记带领下，赴衡水学习考察，八易文稿，起草了全市教育工作综合汇报。继续加强了教育督导队伍建设，各县区都配备了专职督学。加强了教育督导制度建设，制定印发了《承德市人民政府教育督导规定》和对县区、乡镇政府教育工作督导评估方案。开展了加强城市教育费附加征管、初中控辍保学、纠正超大班容量等专项督导。', '——加大了外联引资力度。先后接待了教育部、省政府和省教育厅领导的视察，承办了国家和省教育厅组织的各类会议，今年共引进市外资金2382万元。', '——认真落实对离退休老干部的两个待遇，组织了丰富多彩的活动，使老同志老有所为、老有所乐。全市关心下一代工作有了较大进展。', '回顾过去的一年，全市教育工作取得了长足的进步和发展，在肯定成绩的同时，还存在着一些不足和问题。主要表现在：一是教育在全市小康社会建设中优先发展的战略地位没有完全落实，有的县区对教育投入不足，县区之间、县内乡镇之间教育发展极其不平衡；二是教育投入严重不足，初中、小学公用经费缺口大；三是优秀生源、优秀教师出现外流现象。四是高中发展成为制约基础教育的“瓶颈”，现有高中学校规模小，达不到普及高中阶段教育的需求。优质高中教育资源不足。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>10</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>承德市劳动和社会保障局关于申请年城镇居民基本医疗保险试点城市及工作计划的报告</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2008-05-23</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F23%2Fart_9943_314007.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9943_314007</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['承德市人民政府 公告公示 承德市劳动和社会保障局关于申请2008年城镇居民基本医疗保险试点城市及工作计划的报告', '承德市劳动和社会保障局关于申请2008年城镇居民基本医疗保险试点城市及工作计划的报告', '根据国务院2008年扩大城镇居民基本医疗保险试点城市的进度要求和《河北省人民政府关于建立城镇居民基本医疗保险制度的实施意见》，以及全省城镇居民基本医疗保险工作视频会议精神要求，现将我市城镇居民基本医疗保险基础工作落实情况向省联席会议办公室作以汇报，并提出列入2008年全国城镇居民医疗保险试点城市申请。', '从2006年11月开始，我们就着手城镇居民医疗保险的调研工作，对全市城镇居民总数、年龄构成、所需资金等情况进行了摸底和测算,经统计,全市（八县三区）城镇居民共计64.2万人，其中18周岁以下未成年人14.8万人，18-60周岁城镇居民33万人，60周岁以上老年人8.9万人，1-2级残疾人1万人，低保对象6.5万人。今年4月中旬，在全省医疗保险工作会议召开后，我局向主管市长汇报了城镇居民医疗保险工作的形势，以及我市的计划安排；4月下旬，由我局牵头，组织财政等部门赴外省市进行学习考察；5月中旬，参考外省市先期开展城镇居民医疗保险的做法，结合考察经验，我们起草了《承德市关于加快推进城镇居民基本医疗保险制度建设的实施意见》和《承德市市本级城镇居民基本医疗保险实施办法》两个文件初稿。我局专门成立了城镇居民医疗保险工作领导小组，对两个文件反复讨论修改，并征求财政等部门的意见，现已定稿。', '从2007年11月起，确定市本级（双桥区、双滦区）、滦平县、平泉县、宽城县、承德县作为试点先期启动，2008年扩大试点范围，营子区、丰宁县、隆化县、围场县、兴隆县也将启动实施，力争在2009年底覆盖全体城镇非从业居民。', '为了做好城镇居民医疗保险工作，加强有关部门的协调配合，经市政府研究决定，已建立了城镇居民基本医疗保险部门联席会议制度，并成立了联席会议领导小组。', '根据我市城镇居民医疗保险基础工作的开展，我们积极争取市政府对此项工作的重视和支持，近期市政府将专题研究我局代市政府起草的《承德市关于加快推进城镇居民基本医疗保险制度建设的实施意见》和《承德市市本级城镇居民基本医疗保险实施办法》，并按照工作日程要求，加快推进此项工作的实施，同时也希望得到省联席办和省厅领导的支持，把我市列入2008年试点城市。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>10</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>关于开展解放思想大讨论活动的安排意见</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2008-05-22</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F22%2Fart_9941_219979.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_219979</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['为落实市委在全市党员干部中开展以“以落实科学发展观，实现承德新跨越”为主题的解放思想大讨论活动要求，进一步解放思想，创新发展理念，大力推进畜牧水产业发展和社会主义新农村建设，结合我局实际，提出如下安排意见：', '高举中国特色社会主义伟大旗帜，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，以学习贯彻党的十七大精神、省委七届三次全会和市委十二届三次全会精神为主要内容，在全局党员干部中深入开展“落实科学发展观，发展现代畜牧水产业，繁荣农村经济，推进新农村建设”为主题的解放思想大讨论活动。着力解决影响我市畜牧水产业改革发展中的思想观念、发展思路、方法措施和机制体制等方面存在的突出问题，努力在破除影响“三农”发展陈旧观念和传统上下功夫，在构建和优化畜牧水产业产业结构，强化支撑保障能力上下功夫，在解决本部门领导作风、工作作风存在的突出问题上下功夫，进一步理顺工作思路，积极发展现代畜牧水产业，扎实推进社会主义新农村建设，促进全市畜牧水产业又好又快发展。', '此次解放思想大讨论活动总体安排三个月时间。在认真落实市委承发［2007］41号文件和市委赵书记动员大会讲话的基础上，全面学习和领会十七大精神，省委七届三次全会和市委十二届三次全会精神，结合实际，重点学习和把握党中央对解决“三农”问题的新要求、新举措，扎实深入、形式多样的开展好解放思想大讨论活动。具体方法分散与集中相结合，以集中学习为主。要求领导干部做表率，一把手亲自抓。大讨论中要开展“六个一”活动，即：处级干部讲一课、科级干部献一策、开展一次大调研、集中交流一次学习效果、集中交流一次谋划发展情况、组织一次学习考察，力争使本部门工作的1－2项在2008年实现新突破，实现市委提出的强化“五种意识”，实现“五新要求”的目标。', '本阶段分三个步骤：一是宣传发动。制定解放思想大讨论方案、意见，建立学习组织，召开本部门动员大会，把解放思想大讨论融入到工作中去，使解放思想大讨论活动入耳入脑，深入人心。二是学习提高。制定学习计划，组织本部门广大党员干部学习党的十七大报告、张云川同志在省委七届三次全会上的讲话和赵文鹤同志在市委十二届三次全会上的讲话等重要文件，深入学习和重点把握中央关于解决“三农”问题的新要求和新举措。撰写学习笔记和体会文章，单位一把手要亲自抓学习，抓动员，抓安排，听汇报。三是交流体会。12月中旬利用半天时间，各部门集中进行一次学习交流活动。', '本阶段分为四个步骤：一是调查研究。通过不同范围的座谈会、走访、设立征求意见箱、印发信函等多种形式，广泛征求不同范围、不同层次服务对象和社会群众的意见、建议，在此基础上谋划明年工作。二是查找差距。按照中央和省、市委要求，围绕“强化五个意识、实现五新要求”，找差距，查问题、议不足。三是归纳梳理。各科站以及党员干部个人对差距和问题进行归类、提炼、梳理。四是整体提高。结合找出的差距和问题，制定整改方案，提出整改措施，向社会公开承诺。1月中旬集中各科站主要领导交流谋划工作情况，重点是2008年工作思路、目标、重点、措施、突破点和对全市农业农村工作的建议。', '在前两个阶段的基础上，解放思想，更新观念，研究解决承德畜牧水产业经济实现新跨越的思路，目标和举措。', '（一）领导到位。成立以局长张玉华为组长，局党组其他成员为副组长的解放思想大讨论活动领导小组，领导小组下设办公室，办公室设在局机关党委，办公室主任由才庆山同志兼任。', '（二）组织到位。各科站要把开展解放思想大讨论活动作为学习贯彻党的十七大、省委七届三次全会和市委十二届三次全会精神的一项重要举措，精心谋划，周密部署，一级抓一级，一级带一级，层层抓落实。严格按照方案的具体实施步骤开展活动，确保不走过场。', '（三）督查到位。各科站要切实加强对大讨论活动的组织和领导，及时掌握进展情况，督促各项工作的落实。解放思想大讨论活动领导小组要对活动进展情况进行督导检查，及时通报活动进展情况，确保大讨论活动取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>10</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>承德市中小企业局年工作总结和年工作安排</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2008-05-22</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F22%2Fart_9941_217446.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_217446</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['今年以来，在省局和市委、市政府的正确领导下，我局紧紧围绕省、市一系列指导服务中小企业和发展民营经济的决策部署，紧扣跨越式发展和建设和谐承德这一主题，不断优化服务环境，细化服务措施，充分履行职责，加强队伍建设，扎实有效地推进各项工作，取得了明显成效。', '今年我市民营经济继续保持较快的增长势头。2006年全市民营经济预计完成营业收入710亿元，同比增长29.1%；增加值212亿元，同比增长29.3%；税金29.0亿元，同比增长24.5%；固定资产投入107亿元，同比增长38.6%。民营经济的快速发展对于加快我市产业结构调整和升级、扩大社会就业、增加财政收入、促进全市国民经济增长做出了积极贡献。其主要特点是：', '（二）运行质量明显提升，产业结构逐步优化。今年全市民营经济在不断发展壮大中，全面贯彻落实科学发展观，转变经济增长方式，大力发展循环经济，创新发展模式，提高发展质量，实施合理布局，逐步优化产业结构。到9月底，全市民营经济一、二、三产业的结构比例为1：52：26，与去年同期的1：50：24的三产结构相比，今年的第三产业发展速度加快，成为具有活力的增长点，民营经济的产业结构正在逐步优化。', '（三）规模企业增速加快，拉动作用越来越强。民营经济中规模以上工业增加迅猛，到9月底营业收入500万元以上民营工业企业达到了395家，同比增加142家，其中与去年同期相比增加较多的县区是：兴隆县、平泉县、承德县、宽城县，分别增加了40家、27家、23家、22家。全市规模以上民营工业企业完成增加值79.2亿元，同比增长100.9%，是全市民营经济增加值总量增幅的近2倍，营业收入、利润总额、上缴税金、固定资产投入等主要指标都以75%以上速度增长，规模企业带动作用越来越强。', '（四）固定资产投入持续增长，项目建设进展良好。全市民营企业新上投资百万元以上项目358个，完成固定资产投资17.2亿元，同比增长53.7%；新上投资千万元以上项目180个，完成固定资产投资62.7亿元，同比增长58.2%。今年固定资产投入呈现四个显著特点：一是新开项目多。二是大项目多。三是工业项目投入资金数量大。四是项目建设进展好。', '根据省、市经济工作会议精神，按照“理顺关系，夯实基础，树立形象，确保进位”的工作要求和“重点工作有所突破、整体工作有所提高”工作思路，2006年着重抓了以下几个方面的工作：', '（一）成长工程全面启动。为加快民营经济、中小企业业发展，今年我局全面启动了中小企业成长工程。指导县区围绕三个方面开展工作，即加大资源整合力度，围绕品牌创优搞整合，形成以名牌产品为龙头的产品群；围绕扩张规模搞整合，形成以规模企业为骨干的企业群；围绕培育特色搞整合，形成以特色产业为支撑的产业群。对规模以下重点工业企业以“优化企业规模结构、加快中小企业发展”为主题，按照“扶持创业、扩大规模、做大总量、提升档次”为原则，制定规划并重点实施中小企业成长工程，加快规模以下工业发展，动员社会资本投资规模以下工业、加快服务支持体系建设和全民创业活动。', '（二）担保融资取得突破。截至目前，全市已设立中小企业担保机构15家，落实担保资本金27516万元。今年新增担保资金1.65亿元，完成全年任务的253%，增速为全省第一。其中财政出资10423万元，社会民间出资17093万元。累计开展担保业务1272笔，担保贷款46223万元。市担保公司在成立不到一年的时间里，筹集担保资本金8000万元，累计开展担保业务136笔，担保额23546万元。本年度开展担保业务95笔，担保额17451万元。为进一步加强和完善担保机构建设，5月份组织了由各县区中小企业局局长及部分担保机构负责人，到温州市及温州的瑞安市、上海市及上海的杨浦区的中小企业融资担保体系建设进行了认真地学习考察，并就我市如何加快融资担保工作提出了意见和建议。下半年，以市担保公司为核心，采取与县公司整合与合作方式，组建担保资金达到1亿元以上，担保金额可达4至5亿元的承德市担保集团，实现担保机构的规模化经营，全面扩大我市贷款资金规模，增强担保机构的抗风险能力，并通过做大做强市担保集团，努力缓解民营经济、中小企业担保难、贷款难。', '（三）产业集群优势初现。今年，我局紧紧围绕“发展园区经济，建设产业集群，培育壮大主导产业，迅速增强核心竞争力”的思路，加强对产业集群发展的引导和规划，不断构建多元支撑的产业体系，促进我市中小企业产业集群稳步健康发展。目前，全市以农副产品加工、纺织、冶金、建材等行业为主体的产业集群已经发展到18个，其中农副产品加工产业集群9个，服装产业集群1个，铁矿采选集群5个，建材产业集群2个，旅游业1个。2005年完成增加值40亿元，占全市民营经济增加值24.4%；上缴税金8.12亿元，占全市民营经济上缴税金的35.2%。。我市产业集群发展呈现如下特点：一是进入产业集群企业多。18个产业集群内共有企业1250个，平均每个集群有70个企业。其中生产企业831个，配套企业419个。二是产业集群规模不断壮大。在18个产业集群 ，年营业收入5亿元以上产业集群7个，年营业收入10亿元以上产业集群4个，平泉县食用菌产业集群被列为河北省重点扶持的产业集群。集群内年营业收入500万元以上企业208个，从业人员165186人。三是工业园区作用突出。产业集群中重点工业园区5个，园区内共有企业347个，年营业收入5000万元以上企业15个。承德县下板城服装工业区入区企业56家，年营业收入10多亿元。四是推动了科技进步。近年来，产业集群中很多企业树立了创新意识，增加创新投入，提高了创新能力和技术水平。重点企业都与大学、科研机构建立了长期合作关系，加快新产品研发、新技术推广和新材料应用，增强企业核心竞争力。五是服务体系建设开始起步。坚持社会化、专业化、市场化原则，推动服务体系建设。在产业集群内构建技术研发中心、产品检测中心、信息服务中心等公共技术平台，实现技术、人才、信息资源共享。我市现有产业集群技术服务机构5个，其中4个是省重点扶持机构，服务人员99人，其中高级职称12人，中级职称9人，资产总额138万元，各种设备350多台套，研究推广成果12项。六是打造了地方经济的核心竞争力。产业集群发展较快的地方县域经济就壮大，财政基础就雄厚，群众生活就富裕，建设小康社会的步伐就大大加快。宽城的冶金产业集群年营业收入47亿元，上缴税金2.5亿元；承德县针纺服装产业集群年出口创汇3208万美元，从业人员达到17350人，安排了大量下岗职工和农村剩余劳动力。', '（四）项目建设效果明显。今年我市注重发挥项目的支撑和拉动作用，使民营企业项目建设增长迅速，优化了产业结构，形成了以冶金矿山、建筑建材、食品加工等产业多元支撑的大项目，涌现了一批资本密集、技术密集的大项目。目前，我是民营企业新上项目538个，总投资79.9亿元，固定资产投资52.1亿元，同比增长53.7%。全市借助市外企业新上项目39 个，引进市外投资6.8亿元，其中利用外资0.3亿美元。组织参加省级以上大型对外经贸洽谈活动3次，有7家企业签约，协议金额5.2亿元。从全市民营企业项目工作来看，特点非常突出。一是骨干项目、立县大项目建设势头强劲，发展后劲不断增强。承德盛丰钢铁有限公司投资8亿元二期50万吨炼钢项目、投资1.2亿元的北辰工业园区等项目都成为立县支柱项目。二是以科技型企业为代表的技术密集型大项目持续增加。承德颈复康药业的普罗布考、滦平6400吨乳化炸药等项目标志着我市民营企业步入高科技项目行列。三是农业产业化项目和系列产品深加工项目布局日趋合理。格林公司玉米汁和丰宁双江肉食品加工等项目预示着我市民营企业注重了产品结构调整。四是采矿业的快速成长，成为新的县域经济增长点。五是闲置的民间资本投入民营企业项目规模越来越大，涌现了一批资本密集的大项目。承德盛丰钢铁有限公司、宏森木业公司等民营企业依靠民间资本起步、壮大。', '（五）创业基地建设加快。积极落实省、市工作部署，我局积极稳步推进创业辅导体系建设工作。一是完善提高河北中小企业（承德）创业辅导基地和承德县甲山企业发展基地。二是积极推进县级中小企业创业辅导体系建设。组建承德市中小企业创业辅导基地（开发区创业中心）、兴隆北区创业辅导基地、平泉小寺沟矿区创业辅导基地、平泉燕塞汽车城、平泉富源食用菌500亩科技园等创业辅导基地。三是通过开展“创业辅导宣传月”活动，不断提升创业辅导基地功能，拓宽服务领域，规范服务内容，加强创业辅导师队伍建设，营造了全民创业的浓厚氛围。', '（六）教育培训全力拓展。针对当前民营经济、中小企业人才匮乏这个制约因素，今年我们着力抓了以下几件事：一是与河北旅游职业学院联合创办了中小企业培训基地，积极广泛为企业培养培训人才。二是与国家发改委举办中小企业网上百日招聘高校毕业生活动，我局为9家企业在网上发布招聘信息，发布招聘职位32个。三是组织参加省局在清华大学举办的河北省民营企业技术创新管理高级研修班。选拔了6家企业为首批清华远程企业课程受赠单位，被省局命名为河北省中小企业远程教育培训基地。四是申报承德经纬商务服务分公司为我市中小企业培训示范机构，确定14人为培训师。五是为推动全省中小企业人才队伍建设，组织企业参加省局依托省人才市场开展中小企业人才招聘活动。六是邀请了国家发改委、省局人教处等领导专家举办了职业经理人职业素质培训班，全市150名厂长经理参加了培训。举办了两期远程教育拓展培训班，200名民营企业经营管理者参加了培训。在盛华大酒店举办了百万中小企业信息化培训班。', '（七）舆论宣传力度加大。作为民营经济、中小企业的主管部门，宣传工作是我们的重要职责和工作手段。如何做到善用媒体营造氛围，巧用媒体推动工作，借助媒体加强监督，以此适应变化了的职能，从而进一步转变工作作风，提高服务水平，是我们亟待加强和切实解决落实的课题。今年，我局把宣传工作作为整体工作的切入点和突破口，不断加大工作力度，按照有所为，有所不为，有所侧重的原则，组织谋划了多起有重大影响的宣传活动，收到了很好的效果，使宣传工作出现了从未有过的局面。一是制定出台了《承德市中小企业局2006年主要工作目标任务及奖惩办法》、《承德市中小企业局民营经济网络文章奖励办法》、《承德市中小企业局借助媒体推动工作落实的安排意见》。二是制定出台了《承德市中小企业局政务信息工作考核评比办法》，并纳入市政府对县区民营经济发展的综合考核目标。三是认真开展了优化企业规模，加快中小企业发展调研及开展“政策落实年”活动。深入八县三区和一百多家企业进行调查研究，撰写了8篇有价值的调研报告。四是与《河北经济日报》联合组织了承德市民营经济中小企业专版（业绩篇）和两个扩权县的专版。五是与承德日报社联合主办了“县区委书记话民企”大型活动，县区委书记都撰写了关于民营经济的署名文章。六是与承德电视台联合，共同录制了6集反映民营经济、中小企业改革发展的专题系列宣传片。七是在《承德日报》上开展了“打造产业集群，促进民企发展”专题系列报导活动。全年被有关单位、媒体采用各类信息、通讯报道、典型材料109篇，超额完成了年初确定的政务信息及通信报道突破百篇目标任务，撰写的理论宣传文章均有在国家、省、市报刊杂志发表。7月份，《承德日报》以较大篇幅在头版头条发表了《“半壁江山”看民营——民营经济及中小企业管理发展“承德模式”解读》，市委秘书长郑晓东、副市长于明、市政府秘书长张建国作了重要批示，破例以市委、市政府明义就此加了按语。省中小企业局局长路富裕看过文章后，向《河北经济日报?民营经济周刊》进行推荐。该报在头版头条进行了刊发，并以《承德奏响民营经济突飞猛进的交响曲》为题配发了编者按。通过联合新闻单位，利用各种媒体全面深入地宣传民营经济地位、作用以及扶持政策、典型经验和先进人物，营造了良好的舆论氛围。', '今年，我市民营经济各项工作虽然取得了很大的进展，但从全市民营经济总体情况看，存在主要问题仍然是融资难、创业难、人才匮乏等问题。我们将积极打造服务平台，极力破解三大难题，为民营经济、中小企业发展创造更为有利的发展空间。', '今年我局通过完善机制、强化教育、突出重点、深化服务等措施，使我局的行风建设工作扎实推进，为我市民营经济持续健康快速发展发挥了重要作用。在今年经济和社会管理部门行风评比中，24个部门排名第17位，比去年前移5位。我局在行风建设上主要抓了四个方面工作。', '我局年初就及时出台了《承德市中小企业行政系统2006年行风建设实施方案》，并向社会做出了十项承诺。要求全系统全局上下加强行风建设，为企业发展创造良好的环境。强化责任，确保各项任务完成。同时在建立健全长效机制上下功夫，扎实推进行风建设和机关效能建设。一是组织领导机制。明确一把手为行风建设第一责任人，成立了行风建设领导小组。在此基础上将责任目标进行分解，实现了从各主管领导到各科责任分明，目标明确。二是领导示范机制。为使班子成员在行风建设中起到表率作用，班子成员每个人都做出了党风廉政建设承诺，并在全局进行公布，接受了广大群众监督。三是考核奖惩机制。将行风建设履行情况纳入年终工作考核之中，坚持实行行风建设工作一票否决制。四是督导沟通机制。实行行风建设履行情况督导，发现问题及时解决，使行风建设责任制落到实处。同时，结合我局特点，高度重视与社会各界的沟通联系。积极发挥50名社会监督员的作用，定期征求意见，不定期召开不同形式及规模的座谈会，及时沟通情况，不断改进工作。五是阳光行政机制。结合行政权力公开透明运行工作，我局进一步加大从源头上预防腐败的力度：首先，设立了局班子成员监督台和科室人员监督台，自觉接受广大群众的监督。制作了办公桌牌，将工作职能，服务承诺上墙。为更好地为中小企业服务。其次，进一步完善了政务公开制度。在原有14项工作制度的基础上，补充增加了首问负责制度、服务承诺制度、AB岗工作制度、限时办结制度、过错责任追究制度，使全局的规章制度由原来的14项84条完善为19项117条。第三，公开行政权力。经过全局各科室对职能进行清理共清理出行政权力、服务项目20项，其中内部管理类6项、行政服务项目14项。现已通过网络、上墙等形式向全社会公开，实现了行政权力、服务项目阳光运行。第四，阳光服务。今年我局开展了两次“阳光服务”，一次“阳光热线”活动。印发宣传单3000余份，宣传册400余份，出展牌三块。', '近年来，行风评议中，我局的位次一直靠后，为改变这种状态，局党组提出了提升素质，优化服务，打造中小企业局新形象的工作思路。为全面提高机关工作人员的素质，我局以坚持教育为先导。一是开展了《实施纲要》的学习。结合本局的工作实际，制定了全面的学习计划，教育内容，同时完善各项制度措施，强化了监督机制。二是开展了学习《中国共产党章程》活动。通过学原文、听辅导、谈体会等活动的开展，提高了全体党员干部学习党章、遵守党章、贯彻党章、维护党章的自觉性。三是开展社会主义荣辱观教育。通过集中、分组学习讨论，对在现阶段胡锦涛总书记提出“八荣八耻”教育的必要性有了清醒的认识，明确了什么是应该坚持的，什么是应该反对的，每一名干部都写出了扬荣弃耻承诺书，写出了学习心得。四是开展唱响廉政歌，争做廉政人活动。订购了全国获奖廉政歌曲光盘和歌曲选集。通过多种形式强化机关工作人员的廉政服务意识。五是开展了迎国庆，庆中秋廉政警句书法活动。全局包括离退、离岗人员50余人参加了书法活动，展出作品80余幅，渲染了爱国情和廉政观。六是扩大宣传，树立中小企业形象。我局和承德日报社联合在《承德日报》分别开辟了“县区委书记话民企”和“打造产业集群，促进民企发展”栏目。12个县区就民企发展和产业集群建设分别展开讨论。承德电视台为我局制作了六集专题片，全面介绍中小企业局在行风建设、为企业提供融资服务、创业服务、信息服务、教育服务、法律服务等方面的工作。使社会各界增进了对我们的了解。', '根据市委、市政府主管部门的工作部署，我局认真开展了专项治理工作。第一、专项资金治理。在去年工作的基础上，由财审科牵头对2005年度的专项资金使用情况进行自查自纠。经查各项专项资金都实行了专款专用，并严格履行政府采购程序。我局未出现专项资金乱用或失控的问题。现在按省市有关部门要求，每半个月报一次资金使用情况进度说明。第二、商业贿赂专项治理。今年初，胡锦涛总书记在中纪委六次全会上提出了开展治理商业贿赂专项工作的要求。我局在全面领会上级文件的基础上，认真加以落实。成立了局治理商业贿赂专项工作领导小组，出台了《承德市中小企业局治理商业贿赂专项工作实施方案》，组织全体人员进行学习、查摆，设立了治理商业贿赂工作举报箱。目前，尚未发现商业贿赂行为。第三、强化效能建设，推进工作落实。全市机关效能建设会议以后，我局立即贯彻实施，经过研究，提出了解决“四个问题”，建立“八有”机制，提高“六种能力”推进工作落实，加强“八大建设”的实施意见。机关建设正朝着学习型、法制型、效能型服务型、廉洁型方向发展。', '我局作行建设工作的落脚点，就要把为企业服务的工作做好，为企业发展保驾护航，为此我们着重开展了五项活动： 一是廉政文化进企业。为在全市民营企业中开展好廉政文化活动，实现廉政文化进企业，我们制定了《关于在全市民营企业中开展“廉政文化进企业”活动的实施方案》。目的就是使我市民营企业在发展中讲究诚信、崇尚廉洁，遵守法制，不断提升企业文化，减少腐败现象滋生和蔓延的社会文化土壤，促进企业健康快速发展。根据方案，市县局机关在为企业服务中引导企业制定廉政文化建设规划，加强反腐倡廉教育，深入开展群众性廉政文化创建活动，在企业建设一批廉政文化设施。目前，许多民营企业加大了廉政建设力度，设立纪检组开展了形式多样的廉政文化活动。二是征求意见，调查研究到企业。为把服务做到位，我局于4月初召开了中小企业家座谈会，主管副市长参加，有十几家企业负责人参加了会议，会上企业家畅所欲言，就企业发展中贷款难，缺乏流动资金，缺乏科技型人才，环境还有些不如意问题，提出了很好的意见。根据提出的建议，我局在认真分析的基础上，制定了相应的措施。三是融资服务进企业。目前，我市已设立中小企业担保机构15家，落实担保资金27516万元，累计开展担保业务1272笔，担保贷款46223万元，涉及企业300余家。为确保每一笔资金都用在刀刃上，且不出现任何腐败等问题，每一笔贷款，担保机构人员都到企业进行详细的调查，论证后才提供担保，为许多企业解决了燃眉之急，深受企业的好评。如兴隆北区，市温州城许多企业、商户的发展，都得益于市中小企业担保中心。四是培训服务到企业。', '我局正在为全面启动清华----河北中小企业远程教育工程设点工作做准备。现已有两县教育点开展教学。在全国“中小企业网上百日招聘高校毕业生”活动中，我局为9家企业在网上发布招聘信息，发布招聘职位32个。组织9家企业负责人参加省局在清华大学举办的河北省民营企业技术创新管理高级研修班，进一步提升了企业管理者的管理水平。还分期开办了企业经理人培训班，培训人员200余人。五是法律服务到企业。目前，我市已建立中小企业法律服务投诉咨询中心18个，组织了多次法律服务活动。法律服务人员通过法律服务热线、深入各个企业为企业提供法律服务，解答法律咨询。使企业提高了依法经营，依法治企的水平。', '2006年，我局的作风建设工作虽取得了一定的成果，但也存在着不足：如社会和公民对我局的认知度有限，宣传力度仍须加大。为企业的服务方式，服务措施仍须进一步研究探讨，力争为企业服务更具针对性，更符合承德企业发展的实际。', '2007年是“十一五”规划的关键一年，以贯彻落实十六届六中全会精神，突出加快发展、科学发展、和谐发展为主题，围绕实施“催生、助长、扶强”发展战略，不断开创全市民营经济、中小企业发展新局面。', '指导思想：坚持全面、协调、可持续的科学发展观，坚决落实以放开准入、公平待遇为重点的各项政策措施，优化民营经济发展环境。增加中小企业发展专项资金，加快市县信用担保机构建设，推动各类金融机构增加对民营企业贷款比例。建立中小企业创业辅导体系，加快政策、信息、技术和人员培训等项服务。加大投入力度，突出重点项目建设，调整产业结构，加快民营企业制度创新、技术创新和管理创新，引导民营企业进行产权制度创新，促进企业科学决策、规范经营、健康发展，成为全市经济发展的支撑力量。', '（一）继续实施中小企业成长工程。中小企业成长工程就是全面落实科学发展观，进一步消除影响中小企业、民营经济发展的思想壁垒、政策壁垒、操作壁垒，强化服务，优化环境，加快结构调整，推进技术进步，转变增长方式，增强自主创新能力，催生一批小企业，提升一批中型企业，做强一批规模企业，提高企业市场竞争能力，延长企业生存寿命，促进全市中小企业、民营经济更快更好发展。2007年全市再确定100家成长企业重点扶持，确保完成全市民营经济增加值、税收、营业收入和固定资产投资增长20%以上的目标任务。', '（四）提高企业管理水平。大力发展国有资本、集体资本和非公有资本等参股的混合所有制经济。鼓励非公有制企业通过并购和控股、参股等多种形式，参与国有企业和集体企业的改组改制改造。鼓励企业借鉴、吸收国内外先进的管理经验加强内部管理，推动管理创新，引导民营企业、中小企业建立和完善各项规章制度，建立安全、环保、卫生、劳动保护等责任制度。完善劳动合同制度，依法维护职工、企业及其经营者的合法权利。', '（五）加强企业国内外合作与交流。推动民营企业、中小企业对外经济技术合作，加快民营企业、中小企业出口产品由初级工业制成品为主，向高技术含量、高附加值、深加工制成品转变，鼓励企业在境外建立资源开发型、技术开发型、贸易型实体以及技术研发机构，带动和扩大国内设备、技术和产品出口。多渠道、多形式吸收外资，把引进资金、引进技术、引进智力紧密结合起来，提高企业招商引资水平。加大“走出去、引进来”工作力度，组织中小企业、民营企业参加香港经贸洽谈会、全国中小企业博览会、APEC中小企业技术交流会、河北省（香港）投资贸易洽谈会、乡镇企业东西合作洽谈会以及专业团组的境外经贸考察招商等活动，吸引更多的国内外企业到我市投资办厂。鼓励民营企业参与国企改革、扶贫开发和基础设施建设，年内争取引进市外资金6.5亿元。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>10</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>年工作总结及年工作安排</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2008-05-22</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F22%2Fart_9941_217452.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_217452</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['2007年，在市委、市政府的正确领导下，在省局的大力支持下，我局紧紧围绕省、市一系列指导服务中小企业和发展民营经济的决策部署，坚持科学发展观，牢牢把握“立足赶超,跨越发展”的主基调，按照“总量增加、位次前移”的目标要求，突出打造北厢经济增长极这一主题，不断优化环境，突出工作重点，完善工作措施，认真履行职责，扎实有效地推进各项工作，取得了明显成效。', '2007年，全市民营经济发展目标是民营经济营业收入、增加值、上缴税金、固定资产投入等四项主要经济指标均增长20%以上。为完成上述目标，制定了《2007年民营经济工作目标及考核办法》，确定了考核的重点工作、发展指标、考核程序、奖惩办法，将民营经济纳入国民经济发展规划，组织目标考核。通过对民营经济工作考核，使县区对民营经济工作重视程度不断提高，各县区都把发展民营经济发展列入县区重要工作日程，促进了民营经济发展。', '我市担保体系建设工作虽然起步较晚，但我们不等不靠，主动适应形势，创新思路，真抓实干，迎难而上，不断调整工作思路，确保担保融资工作规范发展。一是印发了《关于促进全市中小企业信用担保体系建设的实施意见》、《承德市中小企业信用担保资金管理办法》两个文件。明确了以信用担保体系建设为突破口，全面推进服务体系建设的工作思路。二是积极联系、走访各金融机构，寻求银保合作，与市农村金融体制改革领导小组办公室共同印发了《关于加强担保机构与农村信用联社合作的指导意见》。三是与市金融办组织召开了金融机构负责人座谈会，建立了情况沟通平台。四是与市金融办、市银监局制定了《关于加强金融机构与担保机构合作的指导意见》。五是组织有关人员到先进地区学习考察，学习借鉴先进经验。全市已设立中小企业信用担保机构15家，注册担保资本金5.05亿元（含农业产业化担保资金），其中：政府财政出资29348万元，社会民间出资21152万元。累计担保1749笔，担保贷款12.4亿元，其中2007年为中小企业担保860笔，担保贷款6.6亿元，在保责任余额3.6亿元，已组建注册亿元以上担保机构3家。中小企业信用担保公司的迅速发展，有效的缓解了我市中小企业融资难的现状。', '2007年，我局把“创新、发展、提高”作为人才培训工作的主基调，围绕全面实施中小企业成长工程和化解中小企业人才难题为重点，以提高中小企业整体素质为目标，提高工作效率，创新工作方式，提高服务意识，全面开展人才培训工作。全年完成培训各类人员68693人，其中：企业自主培训66885人，市县主管部门直接培训1808 人，引进省外人才500人，接收高校毕业生1266人。一是建立远程教育培训基地。为进一步扩大远程教育培训覆盖面，省中小企业局审核批准，承德兆丰钢铁集团公司等10家中小企业及中小企业服务机构为我省第二批清华远程企业课程受赠单位，并统一命名为“河北省中小企业远程教育培训基地”。二是创新方式，积极开展名家讲坛承德行活动。“河北中小企业发展名家讲坛”是我省与清华大学的又一合作项目，也是我省全面实施中小企业成长工程、推动中小企业又好又快发展的又一重要举措。我局与承德县局于6月27日在承德县会展中心共同举办了名家讲坛——承德行，我市各县区主管民营企业的负责人、重点骨干民营企业及中小企业管理者550余人参加了学习。为我市企业家们进一步开阔了视野，理清了思路，明晰了发展方向，深受企业欢迎。三是破解难题，提升活力，开展人才招聘。为破解制约民营中小企业人才匮乏难题，不断改善人才结构，提升企业人才支撑力，采取引进招聘双重并举，使人才引进和招聘工作取得了积极进展。组织企业参加“河北省中小企业人才招聘会”。我市五岳电子技术有限公司等8家企业参加了这次招聘会。这次活动共接待咨询1210人次，会上发布企业需求专业32个，招聘需求岗位231位，企业发放资料简介639份，收取应聘简历502份。通过参加这次招聘活动，推动了企业人才结构优化改善和调整，提升了企业竞争能力，为企业适应市场经济发展创造了条件。此外，我们还组织了网上百日招聘高校毕业生活动。今年3月1日至6月8日国家发改委组织全国中小企业网上百日招聘高校毕业生活动。全市33家企业在网上发布招聘信息，发布招聘职位88个，为536人提供就业机会。四是组织参加省局培训班。认真组织省局举办的“清华大学卓越企业企业管理高级研修班”、“国家银河培训工程”、“人力资源高级研修班”等高层次培训，共组织41人参加培训。', '根据国家以创业促就业的工作方针，认真谋划，不断加大工作力度，采取有力措施，以优化创业环境、完善创业服务、培育创业主体为重点，积极推进创业辅导基地建设。一是印发了《关于规范创业辅导基地建设的意见》。 二是在抓好原有的政务代理、创业辅导、信息服务等八项服务内容的前提下，新增了企业诊断、工商税务、市场营销等服务项目。三是加强创业辅导师资队伍建设。成立市创业辅导专家委员会，根据广大创业者和中小企业的需求，开展全方位的服务。四是充分利用融资担保服务平台优势，加大了对创业辅导基地及入驻企业的融资担保力度，有效缓解了创业资金的需求问题。全市已完成新建和改造创业辅导基地8个，在建基地3个，完成投资3.7亿；其中：政府投入资金7920万元，企业个人投入资金2.9亿元;建设规模完成46.9万平方米；累计入驻企业668个,累计增加就业1.8万人。全市创业辅导基地、创业辅导机构累计为498个企业提供服务。创业辅导基地建设和创业辅导服务工作取得了一定成效。', '围绕“发展园区经济，建设产业集群，培育壮大主导产业，迅速增强核心竞争力”的思路，加强对产业集群和园区经济发展的引导和规划，不断构建多元支撑体系，促进了中小企业产业集群和园区经济稳步发展。2007年，产业集群已发展到21个，实现营业收入206亿元，完成增加值62亿元，实现出口产品交货值6662万美元。21个产业集群共有企业1951个，其中：生产企业1761个，配套企业190个，另有相关三产企业1511个。在省财政、省中小企业局资金扶持下，建立和支持9家技术服务机构，开发新产品52个、推广新技术19项、完成技术改造38项、改进工艺51项、解决技术难题59项，为企业提供信息182条，培训人员5050人。通过技术服务机构的带动和示范作用，产业集群中大部分企业树立了创新意识，增加了创新投入，引进了先进技术、工艺、设备和管理方法，提高了创新能力和水平。重点企业与大学、科研机构建立了长期合作关系，推动了产学研相结合，加快新产品研发、新技术推广和新材料应用，借脑发展，增强了核心竞争力。', '坚持把项目建设作为促进民营经济加快发展的首要任务，树立“大项目带动大投入、大投入推动大发展”的理念，以上大项目，带动大投入，促进大发展。在项目谋划上，紧紧依托资源、地缘优势，积极谋划符合国家产业政策、适应国内外市场需求、符合生态环保要求的项目，以项目吸引投资，发展民营企业，扩张民营经济总量，突出抓好能够促进就业、壮大财力的生产性项目和产业化龙头项目，扩大就业，推进产业结构调整。在项目投入上，采取启动民间资金、引进外部资金、吸纳信贷资金的办法，多渠道融资，解决项目投入问题。2007年全市民营企业新上投资百万元以上项目759个，其中：新上投资千万元以上项目275个。', '充分利用毗邻京津的区位优势，以各种洽谈会和展览会为契机，内引外联广交朋友，为企业牵线搭桥，千方百计吸引资金上项目，促进各县区经济发展。成功组织了河北畅达集团、承德宇航人高山植物应用技术有限责任公司2家企业参加全国中小企业创新与发展成果展览会。全市借助市外企业新上项目22个，引进市外投资3.6亿元，组织参加省级以上大型对外经贸洽谈活动3次，有5家企业签约，协议金额1.8亿元。', '为适应新的职能变化，在机关形成一种想干事、干成事、干好事的浓厚氛围，制定了《中小企业局主要工作目标任务及奖励办法》，明确了全局经济指标任务、共性目标任务和科室个性目标任务。为了提高服务水平，转变机关工作作风，鼓励深入基层，调查研究，及时挖掘、撰写有价值、有份量、具有前瞻性的政务信息和通讯报导，我局出台了《关于局机关政务信息及通讯报导评选奖励办法》。全年上报各类信息、通讯报道、典型材料150多篇，被有关媒体、单位采用100多篇。通过利用各种媒体全面深入地宣传民营经济地位、作用以及扶持政策、典型经验和先进人物，营造了良好的舆论氛围。努力做到善用媒体营造氛围，巧用媒体推动工作，借助媒体加强监督，收到了满意的效果。通过多方位的宣传，使我市的中小企业工作得到了各级领导和部门的大力支持，也为全市中小企业的发展提供了舆论支持。', '我局不断提升素质，突出工作重点，扎实推进行风建设,将行风建设与业务工作同部署、同考核、同推进,实现了同发展。一是高度重视，认真部署。年初就及时出台了《承德市中小企业行政管理系统2007年民主评议行风建设工作实施方案》，明确指导思想、重点内容、方法步骤、组织领导、目标责任。通过媒体向社会做出了关于加强民主评议行风建设的七项承诺，公布了行风监督电话，将七项承诺分解到每个科室，对出现的问题及时进行整改，并明确责任科室、责任人。二是做到四个结合。即：与“学讲话、转作风、办实事、促发展主题教育活动”相结合；与“创建和谐机关活动”相结合；与机关效能建设相结合；与建立保持共产党员先进性长效机制相结合。三是深入服务。开展了廉政文化进企业、征求意见调查研究到企业、融资服务进企业、培训服务到企业、法律服务到企业五项服务活动。四是开展了“阳光服务”活动，接待群众50余人，发放宣传单800余份。五是组织召开了全市民营企业家座谈会。六是召开全市中小企业系统行风建设调度会，对全系统行风建设再动员、再部署、再督导，统一思想、提高认识，提高整体服务水平，促进行风建设进位升级。', '以党的十七大精神为指导，全面贯彻落实科学发展观，牢牢把握“立足赶超，跨越发展”的主基调，继续实施骨干带动、开放带动和科技带动战略，大力推动公平准入，鼓励全民创业，进一步优化发展环境，改善融资条件，推进服务体系建设，使民营经济对全市经济贡献率进一步提高，实现民营经济又好又快发展。', '1、进一步强化对民营经济的考核。继续对各县区民营经济工作进行考核，完善考核办法，增强考核的科学性，通过考核，全面促进民营经济发展。', '2、大力推进公平准入，鼓励全民创业。全面贯彻落实国家、省、市关于鼓励支持和引导个体、私营等非公有制经济发展和鼓励创业的各项政策规定，大力营造创业氛围，激活创业主体，优化创业环境，进一步放宽准入领域，降低创业门槛，拓宽经营范围，加大创业扶持力度，以园区为载体搭建创业平台，以创业带动就业。到2008年末全市民营企业和个体工商户比2007年增加5%；在个体、私营企业就业的人员比2007年增加3%。', '3、突出重点项目建设，增强项目带动力。继续发挥我市的“资源、区位、旅游”优势，围绕我市确定的五大支撑产业，坚持对外开放，招商引资，鼓励现有企业进行再投资，进一步完善项目责任制、目标责任制、政策服务制，谋划和建设一批对全市民营经济发展和产业、产品结构调整有重要影响的生产性大项目。一是强力发展支柱产业。立足资源和现有企业基础，继续发展采矿、冶金等资源型行业，辐射带动相关行业和企业。二是重点发展科技型、外向型企业，引导企业进一步调整结构，发展高科技产品和出口创汇产品，增加出口产品的技术含量和附加值。三是积极发展服装加工、机械制造、农副产品加工、商业流通、餐饮服务、交通运输等劳动密集型产业，扩大就业能力。四是立足旅游资源，大力发展第三产业。2008年，全市民营经济计划新上投资超千万元的大项目100个。', '4、实施中小企业成长工程。继续选择一批产品科技含量高、市场前景好、发展势头快的中小企业进行重点扶持，促其尽快成长壮大，使这些企业的发展速度比全市民营企业平均发展速度要快，充分发挥其排头兵的作用。', '5、推进科技、体制创新，提高民营经济整体素质。加大对民营经济、中小企业的科技投入，鼓励企业自主创新，积极培育全市有较好基础的机械电子、仪器仪表和生物制药等高新技术产业加快发展。大力推进民营企业品牌建设和质量标准化建设，全年要增加名牌产品9个，增加质量信得过产品7个。引导鼓励民营企业进行体制创新，树立现代企业管理理念，建立现代企业制度。', '6、积极改善融资条件。要下大力气解决中小企业、民营企业融资难的问题。一是加大财政资金支持力度，组建中小企业政策性担保公司，扩大政策性担保规模。二是组织企业和担保机构加强与银行等金融机构沟通合作和项目对接，通过银企、银保项目洽谈和对接，为民营企业、中小企业提供优质融资服务。三是在用好、用活现有担保资金的基础上，继续扩大担保资金规模，进一步整合资源、规避风险、滚动发展、发挥效益。四是用足用好国家政策，发展多种形式的金融主体，组建小额贷款公司。通过努力，切实解决中小企业、民营企业融资难问题。', '7、进一步完善社会化服务体系建设。坚持社会化、专业化、市场化以及突出服务性的原则，重点围绕信息服务、管理咨询、信用担保、创业辅导、政务代理、教育培训、法律服务等领域培育中小企业社会化服务体系，以园区为载体，采用政府支持社会服务机构，机构服务企业的模式建立服务体系，每个经济园区都要成立至少一个为园区内企业服务的服务机构。', '8、加大开放工作力度，组织招商引资活动。按照市政府“开放活市”工作部署，加大开放工作力度，组织招商引资活动。组织中小企业、民营企业参加香港经贸洽谈会、全国中小企业博览会、广博会、河北省（香港）投资贸易洽谈会以及专业团组的境外经贸考察招商等活动，吸引更多的国内外企业到我市投资办厂。重点是组织好广博会，以承德县的服装、滦平县的红葡萄酒、平泉县的食用菌为主，突出县域经济特色，对产品进行整体包装，推介承德产品，宣传承德特色。', '9、发挥远程教育培训基地作用，全面开展教育培训工作。2008年进一步加大培训工作力度，加强宣传，提高中小企业经营者的认识，激发企业的积极性，引导企业加大投入力度，提高企业自主培训能力，因地制宜搞好培训，力争培训各类人员6.2万人。一是广泛开展岗位培训、专题培训、转岗培训等多种形式培训。二是发挥远程教育基地的作用，使远程教育培训资源得到充分利用。三是培养与引进并重。一方面大力培养本土人才，另一方面引进一批我市急需的高级管理人才和技术人才，整体提升人员素质，为民营经济发展奠定基础。', '10、加强行风建设。建立“学习型、服务型、创新型、和谐型、廉洁型”机关，努力把中小企业局建成服务局。在行风建设方面，核心为民营经济发展搞服务、解难题、办实事，实现在行风评比中进位升级。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>10</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>在全市年人事编制工作会议上的讲话</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2008-05-22</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F22%2Fart_9944_193149.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_193149</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['这次全市人事编制工作会议的主要任务就是，深入贯彻全国人才工作会议、全国人事厅局长会议和全省人事编制工作电视电话会议精神，全面回顾总结2003年人事人才和编制工作，对2004年全市人事人才和编制工作进行安排部署，进一步统一思想，抢抓机遇，改革创新，努力开创全市人事人才和编制工作的新局面。下面，我讲三个方面意见。', '2003年，我市人事人才和编制工作在市委、市政府的正确领导下，坚持以邓小平理论和“三个代表”重要思想为指导，认真贯彻中央政治局有关会议精神，进一步调整工作思路，统筹工作力量，不断创新工作制度、工作机制、工作举措和工作作风，全市人事系统广大干部同心协力，务实创新，人事人才和编制的各项工作取得了显著进步。', '一是查底情、学先进，为加快人才工作步伐夯实基础。去年上半年，我们在全市组织开展了历时四个多月的全市人才状况大调查活动，为全面掌握我市人才状况、有针对性地开展人才工作提供了依据。下半年，我局利用一周时间，组织全局全体科级（实职）以上干部赴廊坊、唐山、秦皇岛三市进行学习考察。通过学习，开拓了视野，启迪了思路，各项工作呈现出了新气象。在省厅组织的“人才兴冀工程”有奖征文活动中，市局和承德县、丰宁县局积极参加此项活动，撰写论文13篇。其中有4篇论文获奖，获奖数居各市第一位，同时我市荣获组织奖。', '三是重培养、抓规范，人才开发工作水平有了新提高。年内委托高校培养学生88 人，推荐享受国务院特贴4 人，向省新世纪“三三三人才工程”推荐优秀人才二层次人选11人，推荐河北省“优秀专业技术人才”4 人，推荐省留学人员联谊会常务理事、理事各1 人，推荐1 名学科带头人出国培训，选拔市级优秀专业技术人员57名。乡土人才开发力度不断加大，有23名优秀实用人才受到了市局表彰。丰宁县、兴隆县局立足本县特点，乡土人才开发工作成效显著。进一步加强人才市场规范力度，各类招生机构实行统一时间、统一地点的集中办公，大大提高了招生工作效率和服务水平。省电视台《今日视点》栏目对此进行了专题报道。完成了22个专业15668人次的职称考试，完成了1908人高级职称申报推荐工作和3636人中初职的职称评审工作。完成工人考试4次4539人，考务工作受到省厅充分肯定，被评为“2003年度工人考试考务工作先进单位”。', '四是创新形式加大力度，人才代理范围不断扩大。一年来，新增人事代理单位50 家，新增代理人员225人，全市人事代理总数达到7707人。隆化县、双桥区局认真做好人事代理的各项服务工作，人事代理数量有了明显增加。去年我市还为230名未列入国家就业方案的毕业生办理了推荐录用手续。', '五是多方筹措积极争取，全力筹建广阔的工作平台。努力争取市委、市政府和省厅等有关部门的支持，寻找确定适合场地，为建设人才交流大厅和培训考试中心做了充分的前期准备工作。', '（二）对外引智和交流工作进展顺利，外专工作迈出了新的步伐。参加了青岛“第十二届引进日本花甲专家项目洽谈会”，邀请外国专家到我市对园林规划等工作进行指导。继续加强水稻旱育稀植技术的推广，积极申报省级“农引推”示范基地。组织平泉、隆化、围场三个县有关单位参加了“全国引智精品展”和“河北省首届引智成果精品展示推介会”，受到与会单位的好评。一年来，共引进外国各类专家35人次，推荐 1 名外国专家获得河北省政府颁发的“燕赵友谊奖”（为在冀外国专家最高荣誉奖），接待国外政府和民间访问团体9 个。申报引进国外技术、管理人才项目7项，申报国家级“农引推”项目2 项，建立省级农引推基地1 个。', '（三）公务员队伍建设进一步加强，实现了队伍整体素质的提高。成功组织了我市第一次公务员公开考录，经过笔试、面试、体检、考核等环节，从3937人中正式录用210人。整个考录工作组织严密、公平公正，受到了社会各方的一致好评。滦平县、隆化县、兴隆县局在公务员考试录用工作中，积极配合市局工作，考录各环节组织严密，保证了全市考录工作的顺利进行。去年还顺利组织了119人参加的警察考录和60人参加的药监管理系统公务员考录工作。进一步严格机关事业单位计划管理，实行了增人计划卡管理。一年来，全市机关事业单位新增526人，同比减少30%，其中新增大学本科生210人，同比增长51%。公务员培训工作不断强化。先后组织了英语、行政执法、初任、任职等培训班，有20581人次得到系统培训。职位管理进一步加强。对市直部门内设职位逐一进行审核修订，已审核批复52个部门的职位设置方案，审核公务员职位3204个，审批主任科员115人，副主任科员162人，科员职位626人。圆满完成公务员年度考核奖励工作。全市有3 人被评为“河北省人民满意公务员”，围场县交通局被评为“河北省人民满意公务员集体”。积极推动竞争上岗。新任市直科级以下非领导职务人员中有45人通过竞争被任命，竞争上岗面达到40%。以政务公开为主要形式推动了行政机关的规范化建设。全市有1 个县政府、206个乡镇政府、1218个政府部门、法检机关和社会服务单位实行了政务公开，公开率达到99%。', '（四）稳步推进政府机构改革，强化机构编制管理。按照省委、省政府的统一安排部署，在摸清底数、吃透精神的基础上，起草了《承德市政府机构改革方案》，已报经省委、省政府批准。根据“板块重组、人随事走”的原则，制定了新组建单位的组建方案，为召开全市机构改革动员会做了充分的前期准备工作。与此同时，严格实行事业单位编制下管一级的审批制度，严格落实编委会立会制度，坚持机构编制与经费双向控制的管理制度，使党政机关和财政供养事业单位的人员编制得到了有效控制。隆化县、滦平县局在机构编制工作中，管理规范化、制度化，人员增长得到了有效控制。', '（五）事业单位人事制度改革顺利推进，前期工作扎实有效。事业单位人事制度改革的试点工作进展顺利，试行聘用制单位改革工作初见成效。特别是涌现出了一批事业单位内部分配制度改革的先进单位，有10个工作突出单位和43名先进个人受到市局表彰。《承德日报》专题介绍了其中12个单位的典型经验。平泉县、承德县、隆化县局在事业单位试行人员聘用制度改革，积极抓好试点工作，为进一步推进事业单位人事制度改革积累了经验、奠定了良好的基础。', '（六）严格落实国家政策，工资和福利工作进展顺利。完成了5232名机关公务员连续五年考核合格人员晋升一级级别工资审批工作，505名连续三年考核优秀的机关行政人员晋升一级级别工资审批工作，和1568名符合滚动升级档次人员晋升一级级别工资的审批工作。机关事业单位工资标准调整工作在时间紧、涉及人员多、工作量大的情况下，市县（区）两级人事部门的有关工作人员夜以继日、加班加点工作，按时完成了调整工资标准的任务，按时将工资发到干部职工手中。在省人事厅组织的检查中受到肯定和表扬。年内还举办了劳资业务培训班，培训取得良好效果。完成了5378人增加离退休费的审批工作和914名提前离休离岗人员级别工资晋升的审批工作，完成了80名因工伤残、因病退休和退职及离休生活不能自理人员增加护理费核查、提交及鉴定工作。', '（七）妥善落实安置政策，军转安置和企业军转干部解困工作取得新成效。一年来，共接收安置军转干部68人，接收自主择业军转干部25 名， 9 名随调随迁家属也得到很好安置，实现了军转干部部队、本人、家属和接收单位“四满意”。在解决企业军转干部生活困难问题方面做了大量艰苦细致的具体工作。一年来，共接待军转干部来信来访400多人（次），召开座谈会30 余次。会同财政、劳动等有关部门一起解决了企业军转干部工资 、养老保险和医疗费“三拖欠”问题。在全省率先制定下发了《关于解决企业军转干部生活困难问题长效机制的意见》，为维护全市改革发展稳定的大局作出了贡献。平泉县、兴隆县、营子区局领导高度重视军转工作，积极为企业军转干部解决生活困难问题，有力地维护了社会稳定。', '一是以开创人事人才工作新局面为落脚点，深入开展“树讲求”活动。在人事系统大力提倡学习之风、团结之风和开拓进取之风，努力把学习教育活动与提高干部队伍素质相结合、与提高工作效率和服务水平相结合、与业务工作相结合，在凝聚各方面智慧和力量、推进人事人才工作上取得了实实在在的效果。', '二是以树立人事队伍和人事干部良好形象为出发点，大力加强行风建设。提出了“务实、创新、廉洁、高效”的人事部门和人事干部形象新标准。首问责任制、公开承诺制等制度全面推行，人事队伍形象焕然一新，人事人才工作受到社会各界一致肯定。在2003年度全市民主测评行风工作中，双桥区局为免评单位，市局和滦平、兴隆、宽城、双滦、围场等五个县区局为优秀单位，全系统总评为优秀单位。同时还有四个县区被评为先进单位。开发区局虽未被列入民主评议行风范围，但他们自身行风建设很有成效。', '三是深化内部改革，整合工作资源，激发工作动力。在落实“三定方案”、深化机关内部改革的过程中，对市局各科室职能进行了调整，按照新职能变更了科室名称。新组建了培训考试中心，充分发挥了资源的整合力量。局内11 个行政科室科长全部进行轮岗，科室工作面貌明显改善。', '四是加强机关正规化建设。建立和实行了11 项机关工作制度，在会议制度、公文运转、财务审批、事务接待、工作纪律等方面都实现了有章可循，机关工作的规范化、制度化水平大大提高。机关工作环境得到明显改善，办公自动化水平进一步提高。', '此外，办公室政务工作不断加强，事务工作逐渐规范。目标考核工作与组织部门积极配合，推动了各单位目标责任制的落实。老干部工作组织制度进一步健全，以老干部活动中心为主阵地的各项活动健康开展。机关党建工作、党风廉政建设卓有成效，得到了市纪委和市直工委的肯定。', '回首不同寻常的2003年，我们成功克服非典影响，圆满完成了年初确定的各项工作任务，人事人才和编制工作又向前迈出了可喜的一步。有些工作布置早、行动快、效果好，体现了超前意识，取得了超出预想的好成绩。这得益于市委、市政府的正确领导，得益于市县局领导班子团结一致，发挥了核心作用，特别是得益于全市人事系统广大干部职工的同心同德，拼搏进取，共同努力，没有大家的敬业与奉献，取得这些成绩是不可能的。', '我们在认真总结工作成绩的同时，还必须清醒地看到，我们工作中还存在一些差距和不足。主要表现在：一是思想观念还有待进一步更新。思想解放不到位，工作思路“旧、窄、小”，思想反映不灵敏的问题在一定程度上还存在；二是学习风气还有待进一步浓厚。学习自觉性不强、学习制度坚持的不好、学习质量不高的问题在一定程度上还存在；三是工作作风有待进一步转变。工作作风不实、工作效率不高、服务质量不佳、服务承诺不到位的问题在个别同志身上还存在；四是工作创新有待进一步加强。维持现状、思想保守、看摊守业、工作创新力度不大的问题在个别科室和少数同志身上还程度不同地存在。以上这些差距和不足虽然不是我们的主流，但其消极影响不可小视，必须在今后的工作中认真加以解决。', '2004年是全面落实全国人才工作会议精神和《中共中央、国务院关于进一步加强人才工作的决定》的第一年，是实施人才强国战略的第一年，是人才工作上台阶的关键之年。我们一定要抓住难得的机遇，以贯彻落实全国人才工作会议和市委、市政府将于5月份召开的全市人才工作会议精神为契机，团结前进，改革创新，努力把我市的人事人才和编制工作推上一个新台阶。2004年全市人事人才和编制工作的指导思想是：以邓小平理论和“三个代表”重要思想为指导，认真贯彻党的十六大、十六届三中全会和全国人才工作会议精神，大力实施“人才兴市工程”，以人才开发为主线，以提高素质为重点，以优化环境为保障，紧紧抓住培养、吸引、用好人才三个环节，努力加强公务员队伍、专业技术人才队伍、高技能人才队伍建设，牢固树立创新务实、廉洁高效的人事干部形象，夯实基础，改革创新，全面做好人事人才和编制各项工作，为实现我市全面建设小康社会的宏伟目标提供强有力的人才保证和智力支持。', '按照上述指导思想，在今年的具体工作中，要切实做到“围绕一个中心（以“人才兴市工程”为中心），贯穿一条主线（以人才开发为主线），突出五个重点（一是学习贯彻全国人才工作会议精神；二是加强公务员队伍管理；三是完成政府机构改革；四是推进事业单位改革；五是完成人才市场和培训考试中心基础设施建设）。”', '促进发展是人才工作的根本出发点。“人才兴市工程”的成效最终还是要靠发展来检验和衡量。“人才兴市工程”必须围绕经济建设这个大的中心来实施。今年要突出抓住解放思想、活动推动、队伍建设三个环节，进一步扩大“人才兴市工程”在推动全市经济发展中的作用。', '第一，集中一段时间，系统地学习领会全国人才工作会议、全国人事厅局长会议、全省人事编制工作电视电话会议和将于5月份召开的全市人才工作会议精神。通过学习，要做到三个“进一步”和五个“深入思考”。即，进一步转变观念，统一思想，树立科学的人才观；进一步深刻领会人事人才工作的根本任务和根本出发点；进一步研究借鉴外地经验，总结发扬自身优势，创造性地开展工作。要深入思考人才工作为经济建设提供服务的途径和方法；深入思考本单位、本科室为企事业单位特别是非公有制经济组织提供服务的具体形式；深入思考自身工作如何更多地介入到经济建设和社会发展的各个领域；深入思考如何适应经济社会发展需要开展新业务、拓展新的工作空间；深入思考如何促进城乡和多种所有制单位人才的协调发展。在此基础上，围绕“改进服务质量、拓展服务领域、提高服务效益” 展开大讨论，努力在创新工作思路、工作机制、工作制度和工作举措上见到实效。', '一是开展好人才市场大调查活动。在去年人才状况大调查的基础上，市县（区）两级还要统一组织，完成2004年度的全市人才状况调查，为市委、市政府制定政策、做出决策提供可靠依据。同时，今年继续搞好人才市场的调查，全面了解不同用人单位人才需求特点，了解我市专业技术人才、高技能人才和农村实用人才的需求情况。要提早做好毕业生就业市场的调查，对市属大中院校应届毕业生情况、市外院校承德籍应届毕业生情况进行重点了解，为指导毕业生就业和引进急需型人才提供依据。', '二是开展好招才引智活动。年内至少举办2次全市大型人才交流大会和多次小型专场人才交流会，参加外地人才交流大会3---4次，适时组团参加高等院校人才招聘会，重点做好短缺人才的引进工作。全年引进市外人才智力1500人次以上，特别是要把为非公有制经济组织引进人才作为重点。', '三是开展好人才工作三方互动活动。进一步加强人事部门、用人单位与各类人才之间的联系，建立固定渠道，增进三方了解，及时沟通信息，加强彼此合作。市、县区人事部门都要选定一批重点用人单位进行紧密型联系，要建立台帐，建立定期座谈会制度，在人才服务的各个方面对这些单位给予倾斜。同时注重积累工作经验，树立服务典型，扩大工作影响。', '四是开展好人才工作宣传月活动。要加强对人才工作的调查研究、总结提高和对外宣传力度，进一步加强信息反馈工作。今天会上下发了《关于进一步加强信息反馈和调研工作的通知》，各县区和局内各科室、各单位要按照要求认真抓好落实。全市人才工作会议召开后，要开展一次人才工作宣传月活动，对人才工作特别是社会服务性业务和各项人才优惠政策进行一次集中的大力度的宣传，努力营造良好的工作环境和社会氛围。各县区局、市局各有关科室和单位要提早做好准备工作。', '第三、加强专业技术人才、高技能人才和农村实用人才队伍建设，努力提高人才开发水平。要把全市主导产业、骨干企业和重点私营企业发展短缺的专业技术人才作为人才引进的重点，努力为用人单位引进短缺人才提供超前优质全面的服务。要加强与国外友好城市和国际组织间的人才交流和技术合作，进一步抓好引智成果的推广。认真开展政府特殊津贴专家、省有突出贡献中青年专家评选工作，继续实施“新世纪三三三人才工程”。积极做好“露露博士后工作站”开站工作，力争在颈复康中药集团设立博士后科研工作站，筹备在开发区建立高层次人才创业园区。大力开展高技能人才培训，做好机关事业单位高级工考核和工人技师考评工作。继续实施“县乡村实用人才工程”，进一步加大对农村实用人才的服务、表彰和支持力度。巩固和拓展与高等院校的合作，加大委培力度，扩大委培规模，为经济社会发展提供更多的急需人才。', '第一，大力加强培训教育工作。适应建设学习型公务员队伍要求，切实把公务员队伍的经常化制度化培训摆上重要工作日程。要进一步整合培训资源，创新培训方式，不断提高培训工作的整体水平。特别是市培训考试中心建成后，要充分发挥这一工作平台的作用。在做好公务员培训教育工作的同时，根据经济社会发展需要，积极开办多内容、多层次、多形式的培训班，努力把培训考试中心办成我市继续教育的重要基地。', '第二、继续做好考录工作。坚持“凡进必考”原则，努力把优秀人才选拔到公务员队伍来。进一步规范考录工作，创新考录内容和方法，努力提高考录工作的科学性、公正性。坚决查处违反考录工作制度的各种行为。根据国家和省的统一部署，重点对县乡两级机关违规进人问题进行集中清理。', '第三、进一步完善考核工作。把岗位目标责任制与年终考核结合起来，把组织考核意见与服务对象意见结合起来，把考核结果与公务员的使用奖惩结合起来，努力提高考核工作的科学性和有效性。按照统一部署，继续做好“人民满意公务员”和“人民满意公务员集体”的评选工作。', '第四、继续推行轮岗和竞争上岗。按照省厅统一要求，对从事人财物管理、证照牌核发、项目经费和配额审批的公务员，要有计划地进行轮岗。机关中层领导岗位出现空缺的，积极推行竞争上岗。', '第五、加强公务员的职位和职数管理。抓好《河北省人事厅关于加强公务员职位与职数管理的通知》的落实。严格按核定职数、规定程序和条件进行市直部门科级及科级以下非领导职务的任免工作。', '按照市政府的工作安排，周密组织实施已经省批准的《承德市政府机构改革方案》，科学确定改革单位的职责范围、内设机构和人员编制。全面掌握、及时反馈工作进展情况，督促检查各项改革要求落到实处。年内完成市直有关部门的机构改革，适时推进县区有关部门机构改革。', '与此同时，进一步加强人事计划和编制工作。建立和完善“统一指导、分级调控、分类管理”的人事计划管理新机制。认真执行增人计划省市两级审批、人事计划备案制和报告制。严格实行事业单位人事编制下管一级的审批制度。进一步落实上级有关规定，健全完善编制、人员和经费预算管理相互协调配合的约束机制，加强对机关事业单位人员增长和工资总额的控制。严格坚持编委会立会制度和“一支笔”审批制度，切实巩固机构改革成果。', '根据不同性质的事业单位管理特点，分类推进改革，重点抓好国家已有明确要求的系统的改革。做好全市各类事业单位调查摸底工作，适时召开全市事业单位人事制度改革动员会。在认真总结完善试点经验的基础上，进一步加大改革力度。', '要把搞活事业单位内部分配制度作为事业单位人事制度改革的重点来抓。在去年试点工作的基础上，积极探索和试行各类生产要素按贡献参与分配的有效办法，制定出台《关于内部分配制度改革的实施意见》，以内部分配制度改革的显著成果来推动事业单位人事制度改革。', '第一、加强人才市场的硬件建设。人才市场基础设施建设是今年市局 “一号工程”。要认真做好资金筹集、设计规划和工程建设，努力建设高标准的人才交流大厅、培训考试中心和人事代理档案库，力争上半年完成建设并投入使用。抓紧完成“承德人才网”建设，开辟网上人才市场，为人才交流提供更广阔的平台。', '第二、完善市场服务功能。本着兼顾社会效益和经济效益的原则，不断创新机制和手段，充分发挥人才交流大厅、培训中心、人事代理档案库、“承德人才网”等人才工作平台的作用。创新服务机制和服务方式，切实加大人才交流、人事培训和人事代理力度，争取三项工作有一个大的突破。利用网络优势，及时掌握和发布人才需求信息，努力提高“承德人才网”的社会影响力。借鉴外地成功经验，探索开展人才测评、人才租赁等新业务。', '第三、加强信息化建设。进一步提高机关办公自动化水平。加大投入力度，力争年内完成与省厅、省内各市、市内各县区的联网。整合人事管理信息、毕业生就业信息等人事人才信息资源，建立科学统一的人事人才资源统计调查制度，努力提高工作的整体效能。', '在抓好以上重点工作的同时，统筹摆布人事人才和编制的各项工作，努力实现工作全面协调发展。认真落实上级有关规定，积极稳妥地做好军转安置和部分生活困难企业军转干部的解困工作。积极推进职称制度改革，加强职称评聘的制度化规范化建设。进一步做好职考工考录考工作，加强考试监督管理，严肃考风考纪。严格落实有关政策，认真做好工资福利工作。继续做好政务公开、目标考核、人事仲裁、机关党建、老干部服务等工作，努力开创工作新局面。进一步加强机关管理，做好政务事务服务工作，创造更加良好的机关工作环境。', '作为政府人事管理部门，我们承担着人才引进、开发、管理和使用的重要职责。人事部门的干部理应首先是一名人才，人事队伍理应是一支人才荟萃的队伍。我们必须更加严格地要求自己，不断加强学习，不断加强自身建设，不断提高自身素质，以更好的精神风貌、更优的工作业绩来回应社会的期望。', '一要努力建设学习型机关。加强学习是跟上时代前进脚步的必然要求。个人如此，单位也是如此。要认真制定和严格落实学习计划，坚持理论学习与业务学习相结合，不断提高每一名干部职工的综合素质。要丰富学习内容，创新学习形式，提高学习效果，把学习成绩作为考评干部工作的重要内容之一，努力营造讲学习、重学习、学以致用的良好氛围。', '二要继续加强行风建设，维护良好形象。认真落实《关于进一步加强人事系统行风建设的实施意见》，突出强化广大干部职工的中心意识、服务意识和创优意识，关注经济建设，关注社会呼声，关注群众要求，不断适应经济社会发展对人事人才和编制工作提出的新要求。每一名工作人员都要努力做到执政为民、依法办事、忠于职守、公道正派，牢固树立人事干部“创新务实、廉洁高效”的良好形象。要认真执行公开承诺制、首问责任制等工作制度，不断在健全、细化、完善和落实上下功夫。抓经常性工作，抓规范化建设，抓服务质量和工作效率，推动人事系统行风建设不断向纵深开展。', '三要进一步加强机关党建工作。继续抓好机关党总支、党支部建设，搞好各项组织活动。认真落实党风廉政建设责任制，把党风廉政建设贯穿于各项业务工作之中，做到一同部署、一同检查、 一同考核。严肃干部人事工作纪律，进一步加强对职考工考、职称评审、公务员考录等社会关注的热点工作的监督，严格政策规定，确保公平公正，切实维护人事队伍的良好形象。', '同志们，新的一年已经开始，新的形势，新的任务，新的要求。让我们一道抢抓发展机遇，不断改革创新，以良好的精神风貌和务实的工作作风，努力开创我市人事人才和编制工作的新局面！']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>10</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>在全市年人事编制工作会议上的讲话许海</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2008-05-22</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F22%2Fart_9944_192967.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_192967</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['这次全市人事编制工作会议，是经市政府同意召开的，主要任务是传达贯彻全国人事厅局长会议、全省人事编制工作会议精神，全面总结回顾我市2005年人事人才和机构编制工作，并对2006年工作进行安排部署，从而进一步统一思想，提高认识，全面完成“十一五”开局之年的各项任务。市委常委、常务副市长袁福同志亲临会议，一会儿，还将做重要讲话。下面，我就2005年工作和2006年工作安排讲三点意见。', '2005年，我市人事编制工作在市委、市政府的正确领导下，坚持以邓小平理论和“三个代表”重要思想为指导，以科学发展观统领人事人才和机构编制工作，结合保持共产党员先进性教育活动，围绕中心，统筹兼顾，突出重点，深入实施“人才强市战略”，在全系统广大干部职工的共同努力下，人事人才和机构编制工作又取得了新的成绩。', '——《承德市“十一五”人才发展规划（审议稿）》编制完成。我们利用一年多时间，经过编制启动、课题研究、框架形成、讨论定稿四个阶段，通过建立组织机构、全面启动实施、数据收集整理三个步骤，形成了涵盖21个行业领域的人才发展规划，提出了“十一五”期间，我市人才队伍建设的目标、发展重点和保障措施。', '——人才队伍建设取得了新的成果。我市有2人当选为省中青年科学技术管理专家，1人当选国务院特殊津贴专家，有4人被列入省“三三三人才工程”二层次人选，选拔三层次人选78人。努力打造高层次人才引进平台，进一步完善“露露集团博士后工作站”服务管理，做好“颈复康药业集团博士后工作站”建站筹备工作。农村乡土人才、实用人才开发力度加大，选拔培养农村实用人才560名，对31名省市级优秀农村实用人才进行了表彰奖励。与北京大学等十余所高校合作委培学生62人。积极做好毕业生服务工作，全年接受非师范类毕业生就业报到1633人。评审专业技术职称4785人。组织20686人参加了工人等级考核和职称考试。开展了公务员、专业技术人员等各类培训班300多期，培训10万余人次。我市被省人事厅评为“全省公务员培训工作先进单位、全省人事干部培训工作先进单位”。', '——人才政策服务体系进一步健全。围绕经济发展和人才队伍建设需要，坚持了深入企业调研制度，建立完善了重点企业名录，通过对承钢、露露等18家重点企业走访，进一步了解企业人才状况、需求情况和对人才工作的意见。为解决企业招才引智和毕业生就业入户问题，我们同市公安局联合下发了《关于引进人才在市区入户有关问题的通知》，从根本上解决了引进人才在市区入户难的问题。人事代理工作取得了突破性进展，全市代理总量达到210家、17265人。', '——人才市场作用得到了充分发挥。年内举办以“逢8”人才集市为主体的各类人才交流招聘会58场，有550多家单位、2万多人次参加招聘、交流活动，4300余人达成意向或签订合同。各县区的人才市场建设也取得实质性进展，人才交流活动扎实有效。人才交流虚拟平台日趋完善，我们通过承德人事人才网，为各类人才和用人单位建立人才库，并提供咨询服务，目前入库人才累计达到了1400多人，有400多名各类人才和几百家用人单位，找到了理想的选择。与此同时，我们积极引进外埠人才，组织了21家单位赴天津、石家庄、廊坊等地的参加人才交流活动，引进我市急需的医护、工业自动化、采选矿等各类专业人才智力2107人次，其中引进研究生209人次，本科以上学历人员达到了85%。', '——对外引智交流迈出了新的步伐。全年引进外国专家70人次，建省级农引推示范基地2个。在积极推广水稻旱育稀植、日本木酢液肥技术的同时，从加拿大等国引进胡萝卜、西红柿等蔬菜新品种和农业新技术。认真做好2005年项目落实，同时向国家外专局申报2006年度引进国外技术、管理人才和农引推项目。积极推荐在承工作外国专家参加河北省“燕赵友谊奖”评选，在我市工作的以色列农业专家扎兹曼?摩西、美国文教专家海伦获此殊荣。组织隆化县农业局等5家引智先进单位，参加“第九届中国（廊坊）农产品交易会”，参展产品受到了与会代表的充分赞誉。', '县级政府机构改革全面完成，实现了县级政府机构设置不突破规定限额的目标，达到了降低管理成本、减轻财政负担、创新管理方式、提高行政能力的目的。财政供养人员总量控制和事业单位清理整顿工作取得了阶段性成果，全市已精简财政供养人员6818人，完成了省下达任务的57 %。市编办下发了《关于核定全市各类事业单位机构编制的实施方案》，启动了事业单位核编工作，同时对全市411个列入清理整顿范围的事业单位进行了分类整理，为全面清理做好了准备。农村综合改革试点工作稳步推进，乡镇机构改革方案初步拟订完成。《机构编制管理证》制度得到进一步落实，乡镇编制实现了实名制管理。事业单位法人登记年检工作再创佳绩，我市被省编办评为“全省机构编制统计工作先进单位”和“全省事业单位登记管理工作实绩先进单位”。', '坚持“凡进必考”，严把公务员队伍入口关，经笔试、面视、考核等多个环节，共录用61人进入公务员（人民警察）序列，考试录用工作实现了制度化、规范化、科学化。我市被省人事厅评为“全省公务员考试录用工作先进单位”。公务员职位管理进一步完善，考核工作进一步加强，对9.9万名机关事业单位工作人员进行了考核。我市首次开展了“人民满意的公务员”和“人民满意的公务员集体”表彰活动，有10名人民满意的公务员、10个人民满意的公务员集体受到了表彰奖励。认真学习和宣传《中华人民共和国公务员法》，开展了公务员法宣传月活动，通过报纸、电台、电视台、网站等传媒载体，开展了全方位的宣传活动，并从国家人事部聘请有关专家，开展师资和骨干力量培训，为全市各级、各部门分管组织人事工作的领导和人事干部进行了授课，通过这种方式，使广大机关干部、社会各界充分了解了颁布实施《中华人民共和国公务员法》的重大意义、基本内容和精神实质，为全面实施作好了充分准备。', '全年安置军转干部87人，接收自主择业军转干部23人，安置随调家属14人，军转工作实现了转业干部、接收单位和部队“三满意”。在企业军转干部解困政策落实问题上，我们不断健全军转干部服务保障机制，同时坚持用足用好解困政策，加强对相关单位的督导，确保解困政策落实。市局全年共接待来访的企业军转干部28批、256人次，县区局也做了大量艰苦细致的工作，为全市稳定工作做出了积极贡献。', '——认真做好人事计划宏观调控工作。编制完成了2005年市直机关事业单位增人计划，审核下发了市直部门2004年冬季士兵和转业军官安置计划。《人事信息采集表》填录已完成了总量的80%。', '——稳步推进事业单位机构改革试点工作。以推行聘用制、岗位管理为主要内容，以转换用人机制、搞活用人制度为重点，在平泉县、市妇幼保健院两个省级试点单位基础上，从教育、卫生、文化、广播、科技和农口，选择中医院、实验幼儿园等十个单位进行市级试点，为全面启动改革进一步摸索经验，取得了较好的效果。', '——严格做好工资和福利工作。为5808名机关事业单位工作人员、军转干部、随调家属、退伍兵、单位变动人员和大中专毕业生晋升、调整和确定了工资标准。为576人办理了退休手续。完成了市城建、新华书店系统两家改制单位人员的各项人事手续变更和调整工作。对全市11.1万名在职人员和2.47万名离退休人员进行了工资信息采集和离退休费测算。', '——扎实开展保持共产党员先进性教育活动，全面加强机关党的建设。去年2月份以来，按照中央和省、市的统一部署，我们扎实开展了保持共产党员先进性教育活动。坚持“一步一部署、一步一动员、一步一检查、一步一总结、一步一验收”，高质量地完成了学习动员、分析评议、整改提高三个阶段任务，各项动作准确到位，满意度测评达到了100%，教育活动取得了理想的效果。全系统党员干部的党性得到了检验，理想和信念进一步增强，党组织得到了锻炼，党建工作迈出了新的步伐，为党风、政风、行风建设提供了坚强保障，“创新、务实、廉洁、高效”的机关精神得到充分体现。在2005年度全市党风廉政建设考核中，市局领导班子得到了市委考核组的充分肯定。', '——创建学习型机关，全面加强干部队伍建设。局领导班子成员积极发挥表率作用，全局形成了以党组织为单位学理论，以科室为单位学业务的良好的学风。为调动干部学习兴趣，增强学习的实用性和针对性，我们实施开放式学习，创新内容方式，在突出政治理论和业务知识的同时，增加了领导者能力素养、WTO知识和政务礼仪培训。选派干部赴清华大学和中央党校参加培训，组织人员到湖南学习考察人事编制工作，运用多媒体收看清华大学何茂春教授、人民大学周孝正教授等专家学者的专题讲座。新颖的学习形式，丰富的学习内容，调动和增强干部学习兴趣，令人耳目一新、视野开阔。', '——认真抓好机关行政权力公开透明运行、行风和效能建设，推进机关规范化管理。一是开展行政权力公开透明运行，规范行政权力，清理确定了60项行政权力和服务事项，通过政务公开栏、《行政权力公开公告》、《便民服务卡》和承德人事人才网向社会公开人事编制部门的职能、人事政策、办事流程和收费明细。二是开展机关效能建设，规范服务流程，以“提质、提速、为人民、促发展”为总体要求，完善修订了涵盖学习、办公、会议、行风建设、内部管理、对外接待等六大类，28项制度，为机关规范化管理提供了依据。三是开展行风建设，规范内部管理。市、县区两级局领导班子始终坚持把行风建设，置于突出位置来抓，建立起了“一把手负总责，纪检组长负专责，分管局长协助抓”的工作机制，形成了一级抓一级、一级带一级、层层抓落实的责任体系。全系统干部的责任意识、大局意识明显增强，工作作风明显转变，机关内部管理进一步规范。2005年全市行风评比中，全市人事编制系统取得了更加优异的成绩。', '回首任务艰巨、工作繁重的2005年，我们同心协力，知难而进，开拓创新，党员先进性教育活动取得了明显的效果，人事人才和机构编制工作取得了优异的成绩。特别是各县区和开发区的人事编制工作各有特色，取得了可喜的成绩，我市12项工作、26名同志受到省人事厅和省编办的表彰奖励，有“人才兴市工程”和乡镇机构编制总量控制等9项亮点工作受到了省人事厅的通报表彰。得益于市委、市政府的正确领导，更得益于全市人事编制系统广大干部职工的拼搏进取、共同努力。在此，我代表市人事局党组，向全市人事编制系统广大干部职工表示衷心的感谢！', '2005年，有许多经验和做法值得我们总结和发扬。一是要牢固树立学习创新的意识。一个人能否做成一件事，取决于个人素质，而个人素质的不断提高取决于不断学习，学习是提高干部能力的有力手段，是提升个人思想境界的有效措施，更是工作创新的不竭动力和源泉，我们要树牢学习意识，紧随时代步伐，培养以宽广的视野研究工作、谋划工作、创新工作的能力。二是要坚持不懈地抓干部队伍建设。干部队伍是我们的谋事之本、成事之基，是事业成功的关键，我们要树牢“以人为本”思想，关怀干部、爱护干部，帮助他们成长，同时更要坚持不懈地抓好干部队伍管理，进一步树牢“有为才能有位、有位更应有为”的思想，大力弘扬“树讲求”的主旋律，努力培养一支适应发展需要、具备良好的敬业精神、优秀的职业素养、精湛的业务能力的干部队伍。三是要营造团结共事的工作环境。合则益、分则废，团结出凝聚力、出战斗力得到了实践的检验，团结共事也是心情舒畅干好工作、推动事业不断前进的坚强保障。我们都要象爱护自己眼睛一样爱护团结，同志之间既要讲原则，又要讲感情；既要讲分工，又要讲合作；既要讲批评与自我批评、又要讲相互帮助和补台，我们要珍惜团结、珍惜友谊、珍惜感情，坚决做到不利于团结的话不说，不利于团结的事不做，为我们的事业发展打造坚强基础。', '在肯定成绩的同时，我们还要清醒地看到困难和不足。主要是：人才队伍的整体实力还不够强，队伍结构不够合理；事业单位人事制度改革难度较大，进展缓慢；控编减员和乡镇机构改革的任务还很艰巨；实施《中华人民共和国公务员法》还面临许多新情况和新问题，人事编制干部队伍还需要进一步解放思想，增强创新意识和服务观念。这些差距和不足，我们要在今后工作中认真研究，并加以解决。', '2006年全市人事编制工作的指导思想和主要任务是：以邓小平理论和“三个代表”重要思想为指导，树立科学的发展观和人才观，全面贯彻党的十六届五中全会、省委六届九次全会、市委十一届九次全会和全市经济工作会议、全省人事编制工作会议精神，深入实施“人才兴市工程”，突出抓好公务员法实施，推进各项人事制度改革，做好机构编制管理，着力打造人事人才服务“品牌”，促进人事编制工作全面健康发展，为我市经济建设提供有力的人才保证和智力服务。具体做到：实施一项工程（“人才兴市工程”），抓好两个落实（落实“十一五”人才规划、落实《中华人民共和国公务员法》），深化三项建设（机关规范化建设、行风建设、干部队伍建设），推进四项改革（事业单位人事制度改革、乡镇机构改革、公务员工资制度改革、职称制度改革）。', '实施“人才兴市工程”是人事编制部门围绕中心，服务大局，促进经济发展的重要手段。我们各级人事编制部门要统一思想，真正把人才工作纳入到经济和社会发展全局来认识，用“人才兴市工程”来统揽人事人才工作全局，为促进全市经济发展和社会全面进步提供人事人才保证。', '——认真落实《承德市“十一五”人才发展规划（审议稿）》。“十一五”人才发展规划，经市委、市政府审议批准后，将下发执行。这个发展规划总结了“十五”期间人才工作取得的经验和存在问题，提出了“十一五”人才发展目标、指导思想、基本原则和人才发展的重点、保障措施。是未来五年我市人才工作总的纲领，是人才队伍建设的指导性文件。全市人事编制系统要以全面落实“十一五”人才规划为抓手，制定具体落实措施，建立完善责任制，推动“十一五”规划的全面落实。', '——大力实施“人才兴市工程”。按照省下达我市的“人才兴冀工程”目标任务要求，结合我市经济发展实际，制定《承德市2006——2010年人才兴市工程规划》，提出“人才兴市工程”具体目标、要求和举措。把推进“人才兴市工程”摆在突出位置，以“人才兴市工程”统领人事人才工作。各级人事编制部门要建立完善组织机构，充实工作力量，明确职责和工作责任制度，加强督导考核，确保各项工作服务的落实。要积极向当地党委、政府汇报，取得领导的支持。要加大人事人才工作的宣传力度，努力营造有利于优秀人才大量涌现、健康成长的良好氛围，形成鼓励人才干事业、支持人才干成事业、帮助人才干好事业的社会环境，实现人才工作同经济社会发展相协调，同促进。', '——继续做好人事培训工作。围绕加强公务员能力建设，科学制定《承德市2006——2010年公务员培训规划》，加强对以公务员为主体的党政人才队伍培训，健全培训体系、丰富培训内容、扩大培训范围，深入开展政治理论和法律法规为主要内容的执政能力培训，提高依法行政能力；开展电子政务和现代科技知识为主要内容的素质培训，提高公共服务能力。深入开展专业技术人员继续教育，制定《承德市2006——2010年专业技术人员继续教育规划》，以高层次专业技术人才和中青年专业骨干培训为重点，以新理论、新知识、新技术、新办法为主要内容，实施专业技术人员知识更新工程，提高专业技术人员的学习、应用和创新能力。', '——全面加强人才队伍建设。做好享受政府特殊津贴专家、省有突出贡献中青年科学技术专家和新世纪“三三三人才工程”二、三层次人选的选拔、推荐和管理，进一步完善专家考核制度，把工作业绩、考核结果与岗位津贴、境外培训等结合起来。继续做好高技能人才开发工作，探索建立以职业能力为导向，以工作业绩为重点，职业道德和职业知识水平并重的高技能人才评估体系。继续做好机关事业单位工人技师培训考核和高级技师的申报工作。会同有关部门抓好县乡村实用人才培养和选拔工作，继续开展农村实用人才评选表彰活动。围绕全市重大建设项目，积极引进海外人才、智力。发挥引智成果推广基地的引智示范作用，做好农业引智成果推广、推介，打造“引智惠农”品牌。做好大中专毕业生就业指导和报到接待工作，运用政策调控，市场调节积极引导和鼓励高校毕业生面向基层和非公有制经济单位就业。继续举办春秋季大中专毕业生就业市场，为促进毕业生就业提供全方位服务。', '——加强人才市场建设。完善“逢8”人才集市制度，打造“人才市场”品牌，要充分发挥承德人才市场和“承德人事人才网”虚实两大服务平台作用，活跃人才市场。推进人才交流、引进，促进市内各县区、各行业、各企业之间的人才交流，加强与京津地区的信息沟通和工作交流，发挥区位优势，积极参与京津冀一体化人才开发。各县区人事部门要加强人才市场建设，完善市场职能，扩大服务范围，提高服务水平。要充分利用全国高校资源，保持良好合作关系，为我市委培更多的扎根型人才。积极探索人才测评，岗位管理，人才选聘等服务项目。加强与各类用人主体的沟通联系，健全和完善人事代理体系，不断扩大人事代理业务范围，认真做好非公有制经济组织人才服务工作。', '实施公务员法是今年人事编制工作的重中之重，相关的配套法规文件和具体实施方案正在研究制定过程中，按照市委、市政府和省人事厅的要求，结合我市实际，当前应重点抓好以下几项工作。', '——继续抓好《中华人民共和国公务员法》的学习培训和宣传。利用各级培训机构和各类培训载体，根据不同层次、不同岗位公务员实际制定培训计划。采取集中培训、个人自学和交流研讨相结合的方式，认真做好《中华人民共和国公务员法》知识培训，2月底前，全市统一组织考试，考试结果将做为公务员登记的主要依据之一。继续开展《中华人民共和国公务员法》宣传活动，努力营造学法、用法、执法、守法的浓厚氛围。', '——开展公务员队伍状况摸底和模拟登记试点工作。按照省委组织部、省人事厅的要求，一是认真搞好调查摸底，摸清公务员队伍的人员过渡、考试录用、违规进人、领导职务和非领导职务配备情况以及事业单位依照管理情况的底数，分门别类进行系统分析。重点搞好县、乡两级公务员队伍现状调研，为公务员登记做好准备。二是做好公务员模拟登记工作，选择一、两个县区和人员较多的市直部门进行试点，依据公务员登记的标准和条件，采取分类造册、查档确认、审核汇总的方式，由组织、人事部门逐人进行审核，对不符合登记标准和条件的情况，提出稳妥慎重的处理意见和建议，待省公务员登记方案下发后，认真做好登记工作。三是对干部人事政策法规进行清理登记，做好与公务员法及其配套法规的衔接工作。', '——做好公务员考录和日常管理工作。坚持“凡进必考”和公开、公平、公正原则，打造“考录公正”品牌，优化公务员队伍结构，提升公务员综合素质。要严格控制进人，严禁违规进人，维护公务员法的严肃性。做好公务员职位管理，严格控制非领导职务审批，做好平时考核、年终考核考评和日常综合管理。', '2006年全市机构编制的工作任务非常繁重，重点工作比较集中，市县两级编制部门，要按照中央编办、省编办的统一部署，认真做好市县乡党政机关编制和在职人员调查统计工作，确保任务如期完成。要完成财政供养人员总量控制和事业单位清理整顿工作，不断加大工作力度，确保年底前完成三年内精简财政供养人员11962人的目标。同时抓好事业单位清理整顿工作，加强事业单位机构编制管理，今年上半年完成事业单位核编工作。坚持“从严从紧”的方针，严格执行机构编制审批程序和管理规定，落实事业单位机构编制下管一级的审批制度。严格乡镇机构编制管理，结合《中华人民共和国公务员法》实施需要，协助做好公务员入轨和登记工作。认真做好机构编制统计和事业单位法人登记管理，建立健全机构编制监督检查的长效机制，做好机构编制监督检查经常性工作。会同有关部门组织开展“吃空饷人员”清理工作。', '——加快推进事业单位人事制度改革。按照“统筹规划、突出重点、完善政策、分类推进、分步实施、确保稳定”的工作思路，以推行聘用制度和岗位管理制度为主要内容，转换用人制度，搞活用人机制。在继续抓好平泉县和市妇幼保健院省级试点工作的基础上，积极推进全市试点，加大改革力度，扩大改革范围，加强综合配套改革和解决重点难点问题的研究，为全面推进积累经验。研究制定事业单位公开招聘人员具体办法。按照国家统一部署，做好事业单位收入分配制度改革工作，落实机关事业单位离退休人员待遇政策。', '——做好公务员工资制度改革实施工作。公务员工资制度改革方案出台后，要组织相关人员认真学习，研究贯彻落实公务员工资制度改革方案，搞好摸底测算，提出具体实施意见，稳妥推进公务员工资制度改革。严格执行中纪委等六部委《关于严肃纪律加强公务员工资管理的通知》，加强监督检查，严禁擅自提高工资和津贴标准及水平，维护工资政策的严肃性。', '——继续深化职称制度改革。进一步完善“个人自主申报、业内公正评价、单位择优使用、政府指导监督”的职称工作运行机制。研究制定参照公务员管理的专业技术人员评定专业技术任职资格的配套办法。做好各类专业技术资格和执业资格考试工作。认真落实申报评审条件和评审办法，规范评价程序，丰富评价手段，强化岗位聘任和聘后管理。', '——积极推进隆化县乡镇机构改革试点工作。进一步规范和细化乡镇职能，精干机构设置、精简人员编制，完成试点任务。', '——进一步做好人事计划和工资、福利工作。认真执行增人计划省市两级审批、人事计划备案制和报告制。从严控制机关事业单位一般性人员增长，严格控制财政供养人员增长。做好人事统计和人事管理信息数据库建设。加强对机关事业单位人员增长和工资基金总额的控制，严格做好工资、福利工作和离退休人员审批管理。', '——认真落实军转干部安置政策。积极稳妥地做好军转安置工作，努力安置好随调家属，切实搞好自主择业军转干部管理和服务，继续抓好部分困难企业军转干部解困政策落实，做好思想教育和稳控工作。', '——做好人事争议仲裁和人事信访等工作。新的《信访条例》实施后，信访工作走上了制度化、规范化。随着各项人事制度改革的推进，人事工作面临许多新情况、新问题。各级人事编制部门，特别是主要领导要高度重视，对重大信访案件和多人访要亲自过问，亲自处理，要严格信访工作程序，把矛盾化解在基层和萌芽状态。同时要认真做好人事争议仲裁工作，维护双方当事人的合法权益，为全市维稳工作做出积极的努力。', '按照加强党的执政能力和提高“五种本领”要求，开展“树学习之风，创建学习型机关”活动。不断创新学习方式，丰富学习内容，推行开放式学习，增强学习的针对性和有效性。坚持从实际出发，大兴调研之风，注重研究新情况、解决新问题。牢固树立法制观念，善于运用法律手段管理人事编制事务，不断提高依法行政和依法办事的本领。坚持诚信为政、诚信为民，善于运用现代管理公共行政方法开展工作。努力提高人事编制干部队伍的学习创新能力、调查研究能力、依法行政能力和公共服务能力。', '巩固保持共产党员先进性教育成果，全面加强机关党的建设，建立健全长效机制。紧密联系工作实际，认真学习党章，自觉遵守党的纪律，严格执行党风廉政建设责任制。进一步严肃人事编制工作纪律，切实加强对人事编制干部队伍的教育、管理和监督，确保廉政建设取得实效。', '近几年，人事编制系统行风建设取得了优异的成绩，但是行风建设的任务依然很艰巨，压力越来越大。我们要保持清醒头脑，克服自满和松懈情绪，继续加大工作力度，巩固成果。要结合行政权力公开透明运行，抓好人事编制系统政务公开，把群众普遍关心、涉及切身利益的问题作为重点，健全完善便民服务体系，畅通与群众联系渠道。深入实施“双提”工程，精简办事程序，转变工作作风，加强人事编制系统信息化建设，提高电子政务水平，提高服务质量，树立人事编制部门良好的社会形象。', '同志们，今年是实施《中华人民共和国公务员法》的第一年，也是落实“十一五”计划的开局之年，让我们在市委、市政府的正确领导下，把握机遇、务实创新、团结进取、扎实有效地做好各项工作，努力开创全市人事人才和机构编制工作的新局面！']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>10</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>关于印发承德市近五年年统计信息化建设规划的通知</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2008-05-16</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F16%2Fart_10402_220485.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_10402_220485</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['为全面推进统计信息化建设进程，提高统计工作对经济建设和社会发展宏观决策的快速支撑能力，加速统计信息交流，现将《承德市近五年（2005-2009年）统计信息化建设规划》印发给你们，请遵照执行。', '根据2004年11月全省统计信息化建设现场经验交流会精神和全省统计信息化建设规划，结合我市统计信息化建设情况，特制订我市统计信息化建设近五年(2005—2009年)规划。', '承德市统计信息化建设要在省统计局统一领导下，按照省确定的信息化建设方针、原则和总体规划，立足本地，以统计信息资源的建设和开发为核心，以统计信息化推动统计工作的改革与发展。', '近年来，市统计局认真落实“十五”统计信息化建设规划，加大领导力度，多方筹措资金，加快统计信息化建设进程。2004年完成了市县广域网工程，采用了2M光纤联接方式，与省局网络采用2M光纤联接，省市县三级联网全面完成。目前有兴隆县采用拨号与乡镇联接，承德县、平泉县采用党委DDN线路与乡镇实现了联网。市、县(区)局及有关科室WEB内网发布以及市局外网网页发布；省、市、县区范围使用网上免费邮件系统进行电子邮件传输；省市局间BQQ到每个职工以及市与县区间BQQ到每个职工即时通迅系统，实现了简易的视频会议、文件传输等业务；市县间实现了IP语音电话。', '尽管近年来统计信息化建设取得了显著成绩，但仍有些问题亟待解决。一是网络应用还应该进一步加强。目前除内外网页、邮件传输、BQQ、IP电话等外，还有待增加网上应用，应该在网络视频、办公自动化、数据库及其统计专业网上直报等方面进行开发。二是软件资金投入较少。基本上软件靠免费软件，功能和服务得不到保证，不能很好地拓展应用空间。三是网络安全性脆弱。缺少可靠的网络安全监控防护系统。四是职工的网络操作技能和网络知识还有待进一步提高。', '我市统计信息化建设是省统计信息化建设的重要组成部分，在“三级建库，四级联网”总目标下，注意应用开发，坚持以规范的统计业务流程、统计信息标准为基础，以内容丰富、结构合理、高效安全、资源共享为特征的统计信息建设为核心，逐步建立一个面向统计工作者，面向社会公众的，以现代信息技术为支撑的统计信息系统，实现统计信息标准化、数据传输网络化、统计办公自动化、信息服务社会化。', '近五年统计信息化建设的任务是：对统计信息主干网络系统提速和延伸，市到县（区）统计网络联接不低于2M，县级到乡镇级网络联接不低于64K；建设统计工作信息化平台，实现安全高效的办公和统计业务的网络化。办公网络化是指在网上实现无纸化办公，统计业务网络化是指实现统计报表的网上报送、审核、处理、存档、公布、开发利用。建立国民经济和社会发展统计信息数据库系统。', '4、网络人才方面(Netware Person of talent即NP)。通过自学和不定期培训等办法更新技术知识，不断提高计算机专业技术人员的水平；有计划地引进计算机技术人才；市局形成开发应用两套人才群体，县区局要形成网络应用及开发的较高水平的技术人才群；建立奖励激制，促进人员素质提高；提高统计机构综合复合型人才队伍建设水平，逐步把市县统计部门人员培养成计算机和业务熟练的人才。', '做好IP电话和视频会议系统的建设工作。在省局负责市以上建设的基础上，市要做好视频会议系统向县区的延伸，市建立相应的视频控制中心，以解决市和省局开会到县区局的需要，并参照省局建设规范增加必要的设备与功能。解决IP电话与省局的衔接，保证与省局设备兼容。', '实现办公自动化。考察试用办公自动化软件，先行在市局范围试行使用，成熟后再推广到县区，完全取消纸介质，一方面做好软件引进前的各项准备工作，环境和考察；另一方面加快干部职工素质的培养。', '建立网络运行的安全保障系统。一是解决病毒侵害，一个是逐步解决软件正版问题。病毒问题应该在市局统一解预防。计划在市局建立防病毒服务器，购置网络版杀毒软件，建立病毒监控系统，同时建立病毒防火墙。软件正版问题按政府有关要求，在2005年底前完成。尝试建立数据备份系统，增加抗干扰能力。', '促进县区局与乡镇的联网工作。争取实现县乡全部联网。联网方式可以采取多种形式，可借助党委、政府网，也可采用VPN，也可以采用拨号上网。为了网络安全，在市局建立外网出口，建立固定域名，做为乡镇上网的联接口，同时做为市外网的联接口。用2M或更高速率光纤，申请域名，更新外部网络。 2006年以完善网络为基础，进行网上直报试点。', '完善网络系统。主要是加强网络管理，建立必要的规章制度，建立使用规范。有条件时增加网管系统，例如远程控制、远程修复，控制流量、控制访问权限，监控网络运行情况和网络资源占有情况，并根据情况及时做出必要的控制。并进一步加强防病毒、防黑工作。', '建立数据库系统。创造条件，为建立市级统计数据库做好必要的准备。首先是人才准备，要加强对数据库的学习和培训。派人员参加必要的学习班，造就既懂统计业务又懂计算机数据库技术的人才。其次是加快统计规范化进程，为市级建库做好环境准备。数据库的建设应该全面到考虑统计业务网上处理工作，要考虑到统计业务处理各个环节的衔接和查询的方便性。借鉴张家口局经验，引进使用好数据库。', '尝试开展网上直报工作。选择条件好的企业进行直报试点，取得一定经验为以后实现全面网上直报打下基础。网上直报的程序开发和报送单位联网工作难度较大，另外报表的不规范化也是实现网上直报的一大障碍，所以需要提前做一些准备工作2007年以全面推进统计业务工作的网络化为重点。', '市县两级以统计数据库为中心，全面推进统计业务的网络处理。在国家数据处理程序允许条件下，在市局内部实现处理报表的计算机网络环境下处理。', '2009年重点为实现标准以上标准（规模上、限额上、资质上等）企业的报表网络直报，并计算机直接处理。', '今后几年向建立数据管理中心努力。以统计数据库为基础，包括视频，图片等格式的电子文件的数据库为基础，建立采集、处理、开发、保管、发布的网络化。', '1、把统计信息化建设做为制约统计工作的关键环节抓紧抓好。各县区统计部门领导要提高认识，抓好统计信息化建设的规划、建设和管理，从提高当地党政领导认识入手，强化政府的资金投入，并做为一把手工程，加强领导。', '2、加强统计信息化建设的组织管理。建立从领导到技术管理人员的一整套管理机制，齐心协力，各负其责。从网络应用、网络安全、网络管理多方入手，分阶段实施，切实把统计信息化建设规划落实到实处，发挥其应有的作用。', '3、加大对统计人员培训，造就一批复合型人才队伍。加强对计算机人才的培养，每年集中培训统计人员至少5天以上，每周自学半天，保证更新知识所需的书籍软件。加大对职工队伍的教育工作，逐步锻炼一批既有计算机技术又统计专业技术的复合型人才。', '4、对统计信息化系统规范管理。逐步建立健全统计信息化各项管理制度，加强对工作检查，指定人员负责系统的安全管理。为保证统计信息化建设和统计信息系统建康、协调、积极、有效地推进，制定完善的管理制度，保证工作正常进行。', '5、加强技术交流，学习先进，知识更新。利用一切机会学习外地的先进经验，组织人员到外地学习考察，开阔思路，汲取先进地区建设与字处理的经验。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>10</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>承德市劳动和社会保障局关于开展思想作风纪律教育活动的通知</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2008-05-20</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F20%2Fart_9943_317265.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9943_317265</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['承德市人民政府 公告公示 承德市劳动和社会保障局关于开展思想作风纪律教育活动的通知', '局党组研究决定，从2003年2月10日至11日，集中两天时间，以科室为单位，开展思想作风纪律教育活动，分学习、讨论、总结三个阶段进行。具体安排如下：', '一、学习阶段（2月10日上午）。学习内容：（1）江泽民在党的第十六次全国代表大会上的讲话《全面建设小康社会，开创中国特色社会主义事业新局面》；（2）胡锦涛在西柏坡学习考察时的重要讲话《坚持发扬艰苦奋斗的优良作风，努力实现全面建设小康社会的宏伟目标》（学习材料附后）；（3）学习《中华人民共和国劳动法》、《河北省劳动保障监察条例》、河北省《关于贯彻中共中央、国务院〈关于进一步做好下岗失业人员再就业工作的通知〉的实施意见》。学习中要逐字逐句通读全文，深刻领会精神实质，进一步把思想和认识统一到两位中央领导讲话和党的十六大精神上来。', '二、讨论阶段（2月10日下午至2月11日上午）。讨论中要紧密结合本单位的工作实际，针对干部职工的思想作风实际找差距，查不足，谋划好全年的工作，把“发展要有新思路、改革要有新突破、开发要有新局面、各项工作要有新举措”的要求贯彻到各项劳动保障工作之中。重点要解决好以下几个方面的问题：', '1、如何进一步强化大局意识，自觉从改革发展稳定的大局出发，谋划全年工作，真正做到“小局服从大局、小道理服从大道理”。', '2、如何进一步树立开拓创新精神，坚持与时俱进，运用创新思维，推动劳动保障事业快速发展。各科室、各单位要制定出具体的创新目标和新举措，明确要解决好哪些关系改革发展稳定大局的重点难点问题、全年工作有哪些新举措、在哪些方面要有新的突破。特别是在再就业援助、就业培训、保险扩面、规范用工等方面如何进一步加大工作力度。', '3、如何进一步转变作风，改进服务，践行“三个代表”重要思想，实践好、维护好、发展好最广大人民群众的根本利益。', '4、在2003年继续开展换位思考活动中，如何结合十六大报告精神，深入了解民情、充分反映民意、广泛集中民智、切实珍惜民力；如何坚持好深入基层、调查研究，采取什么样的措施深入到困难群众中查民情、解民意。各科室、各单位要制定出开展下访活动计划和调研课题，并落实到具体责任人。', '5、如何弘扬艰苦朴素、勤俭建国的精神，大兴厉行节约之风，反对铺张浪费，合法合规组织创收。党员干部如何发挥自身的表率和带头作用。', '6、结合当前我局部分同志存在的协商共事差，以我为中心、全局观念差、互相补台差、不够团结、反映问题不通过正当渠道、泄私愤、图报复等现象，围绕自身的差距认真检查；如何树正气、讲团结、求发展，坚持执政为民、勤政廉政，勤奋工作，大事讲原则、小事讲风格，落实好“权为民所系、情为民所写、利为民所谋”的要求，始终坚持讲学习、讲政治、讲正气，始终做到自重、自醒、自警、自励，经受住各种考验。', '7、根据党组业已确定的各自工作职能，认真检查一下还有哪些职能没有到位，在建立健全同经济发展水平相适应的社会保障体系中，有哪些工作需要认真做好。', '8、如何正确认识扩大就业是我国当前和今后长期重大而艰巨的任务，在全面建设小康社会过程中，我们应该怎样做。', '三、总结阶段（2月11日下午），各科室、各单位对这次思想作风纪律教育活动要进行认真全面的总结，形成书面材料，并于2月13日前报局办公室。', '四、具体要求：各科室、各单位要按通知要求，认真负责，扎实有效地开展好这次活动。科室主要负责人是具体组织者和第一责任人，要认真组织，求真务实，防止走过场，务求取得实效。要通过学习教育，为全年的工作奠定坚实的基础，确实使这次活动成为新一年良好的开端。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>10</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>承德市年商贸流通工作要点</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9941_219158.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_219158</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['2007年是全面落实“十一五”规划，努力打造“北厢”区域经济增长极的重要一年，做好全年商贸流通工作意义深远。全市商贸流通工作的总体要求是：认真贯彻省第七次党代会和中央、省、市经济工作会议精神，以构筑结构合理的商贸流通体系为重点，加快内外贸一体化进程，促进承德经济社会全面发展，努力实现“立足赶超、跨越发展”的总目标。', '按照统筹城乡发展、统筹内外贸发展的要求，实施“1420”工程，积极构筑结构合理的内外贸流通体系。', '“1”：继续推进“万村千乡”市场工程，做好农家店及配送中心规范和改造工作，全市新建、改造1000家标准连锁农家店，力争总数达到2600家，初步形成覆盖全市85％行政村、90％乡镇的农村消费品现代化经营网络。新建佳仕兴、滦平文杰、双桥通达、营子区等4家配送中心，使配送中心总数达到16个。加强日常监督检查，稳步提升配送率和配送商品质量，确保配送中心对农家店实施有效管理。', '第一个“20”：在进一步发展壮大现有17家大型流通企业的同时，新培育佳仕兴超市有限公司、承德县裕丰种业、滦平文杰日用消费品有限公司等3个大型流通企业上规模、进档次，使我市大型流通企业达到20家。其中承德新新康达工贸有限公司、承德县聚鑫贸易有限公司等2家企业销售额达到2.5亿元以上，平泉县正大商业有限责任公司、承德富源商贸物资有限公司、金龙建材城等3家企业销售额达到2亿元以上，其他大型流通企业销售额增长20%以上。', '第二个“20”：加快农产品市场、消费品市场、生产资料市场建设，重点推进榆树林子蔬菜果品批发市场、张三营大牲畜交易市场、围场镇标准化农产品批发市场3个大型农产品交易市场改、扩建项目和温州小商品批发市场生活资料市场扩建项目建设，争取2007年底使我市超亿元批发市场由目前的10个达到20个。其中承德市裕华路市场交易额达到10亿元以上，兴隆县中心市场、承德商城、宽城县城关市场等3个市场交易额达到3亿元以上，其他市场交易额增长20%以上。', '第三个“20”：狠抓外贸支撑指标完成的承钢、舒适家用品、华富、帝贤、建龙钢铁、亿财制衣等6个企业，力争实现外贸出口1亿美元。促进有明显增长的华药天星、天姿服装、橡院轮胎、通润汽车零部件、富龙制衣、承德玻璃器皿集团等6个企业，实现外贸出口增长10 %。培育自主出口品牌、强化国际认证的承钢、亿财制衣、露露、承德玻璃器皿集团、承德森源食品、河北怡达食品、颈复康药业、承德金健、神栗食品等9个企业。引导冶金化工、纺织服装、农产品加工等三大产业延伸产业链条，提高出口创汇的可持续增长能力。鼓励承钢和建龙在淡化钒和高科技含量钢材制品的研制、试产、上市和出口上获得突破，实现产品更新换代；引导纺织服装企业以高档次、高质量、高品位产品占领高端市场；推动农产品加工行业积极应对国外技术性贸易壁垒，实施农产品标准化生产和出口产品质量管理体系认证，形成扩大出口新的增长点。积极推动与省出入境检验检疫局建立推动农产品、食品出口区域合作机制，选择重点企业开展帮扶工作。积极创造条件，促建承德海关，年内完成准建许可批准文件。', '第四个“20”：谋划建设20个内外贸流通业重点项目。以商业网点规划和流通业“十一五”发展规划为切入点，以“五项工程”为载体，以发展新兴业态为方向，结合县区的经济结构和市场体系建设，认真谋划和包装具有辐射带头作用、能支撑区域经济发展的内外贸流通业重点项目。逐步形成以中心区域流通项目及市级重点项目为龙头，以县区各类市场为补充的流通项目体系。积极筛选和推荐流通业重点项目，广角度、多渠道、全方位、宽领域招商引资，扩大项目的知名度。认真研究实施《承德市现代物流业十一五发展规划》，重点推进交通、烟草、邮政等一批重大物流建设项目。在改造传统国有仓储、运输、批发和部分外贸企业的基础上，鼓励跨部门的企业重组兼并，利用现有资源进行重新的科学配置，构建新型的现代批发企业；从引导传统的仓储、运输企业转型升级为切入点，出台相关扶持政策，对现有的运输企业予以适度的支持，通过重组和合并，使之迅速做强、做大。对区域农贸产品市场、矿山配件、重型汽车、小商品市场等项目要认真进行筛选、包装、策划，推动改造升级，以符合现代流通业发展的基本规范，符合农贸市场的基本标准。结合开展“规范宾馆餐饮、美容美发、洗浴健身等涉及居民日常生活的服务业经营行为”专项整治活动，市直有关部门要会同双桥区、双滦区共同组织搞好域内各类市场提升档次，加快发展。借助推进《承德市市区商业网点规划》批准实施的机遇，加紧市区商业改造提升。', '（一）突出重点，深入开展七项整治。按照省政府要求，按照严格管理、严肃查处、严厉打击的原则，集中力量开展食品药品、生活必需品、农资、建材、特种设备安全等五项专项整治活动。根据承德实际，开展好两个方面的专项整治活动：一是进一步规范宾馆餐饮、美容美发、洗浴健身等涉及居民日常生活的服务业经营行为，重点整治服务业经营场所消防安全、环境及从业人员卫生、明码标价及实价等，重点整治县城以上城镇、旅游景区等区域。通过整治，探索制定适合市情的监管制度，促进上述服务行业达标升级。二是严厉打击非法传销。落实《承德市打击传销专项行动实施方案》各项措施，抓住重点领域和重点区域，严防严查严打，使违法传销犯罪活动得到有效遏制。', '（二）加强市场运行监控。一是加强市场运行监测。加强重大节日监测和市场运行情况的阶段性分析和预测工作。积极推进内贸流通数据库、应急商品数据库建设，逐步拓宽数据收集渠道，充实、丰富数据库内容。逐步完善市场监测调控网络系统，巩固监测样本企业的数量，提高数据报送质量。二是建立健全重要商品应急储备机制。加强生猪储备、食糖储备等应急管理，加快建设省级生猪储备基地，争取建立省级食糖储备库。加快制定和完善生活必需品应急预案，应对重大灾害和突发事件对生活必需品的需要。扶持宽城建立国家级桑蚕养殖基地，争取项目资金支持。三是积极推进品牌建设。充分发挥商标在推进商贸流通业发展中的重要作用，积极推进商标战略，全市2007年内力争完成注册商标100件。开展“品牌万里行”和“百城万店无假货”等活动，培育自主品牌，营造品牌兴商氛围。抓好“河北畅销品牌”企业、商品、服务的宣传工作。', '（一）完善政策。一是将社会消费品零售总额、外贸出口、农家店建设、亿元市场建设、大型流通企业建设以及谋划建设流通项目等指标分解到各县区，实行月通报、季调度、年终考核。二是加紧审批实施《承德市城市商业网点规划》。丰宁县、承德县两个扩权县商业网点规划在年内完成，其他县区在年内适时启动。三是优化“万村千乡”市场工程发展环境。对兴办集中连锁店的商贸企业，均由连锁企业总部统一办理、统一年审，各分店持总部的批件到所在地办理税收备案手续。规范执法检查，在保证有效监管的前提下，提倡工商、质监、税务、物价、环保、卫生、食品药监等执法部门对商贸流通企业联合检查，对连锁企业要避免重复检查。四是落实农产品出口政策。利用国家农轻纺项目资金，加大对农产品出口基地建设和标准化生产、质量追溯体系建设及生产体系认证的支持力度，鼓励高附加值农产品出口。指导农产品出口企业加强标准化和质量控制体系建设，引导企业按照现代化的国际认可的标准组织生产，推动做好食品企业卫生注册登记、质量标准认证、原产地证明等认证认可工作。', '（二）推进流通业开放招商。把商贸流通业招商引资工作作为对内外开放考核指标分解到各县区，年终考核。取消对非国有经济市场准入的流通领域限制，鼓励非国有企业参与流通业的投资建设和经营管理。继续打破流通业务范围和区域经营上的分割和限制，鼓励跨地区、跨行业、跨所有制的流通经营。搞好商业领域利用外资项目的谋划、设计和发布推介，积极引进跨国商业集团，投资建设域内相对缺乏的物流配送中心、现代购物中心、综合超市等流通业态。', '（三）加强软实力建设。加强企业内部管理，促进管理标准化、制度化、规范化。加快建立市场和行业准入标准，提高入市产品质量，促进内外贸流通主体规范发展。以“信福”工程建设为载体，逐步完善商务信息建设。扩大承德县绿野、平泉富源等试点示范影响，努力构建区域电子商务信息系统。完成第二批“中华老字号”工程推荐工作，争取更多企业商品获得“中华老字号”称号。支持鼓励企业开展国家级驰名商标、省级著名商标、市级知名商标等品牌争创活动。开展承德市 “十大流通企业”、“十大市场”、“十大外贸出口企业”、“餐饮业影响力品牌十强”等评选活动。', '（四）加强试点示范，强化调度交流。发挥典型示范作用。树立内外贸流通领域的先进典型，大力宣传板城烧锅酒、围场福满家超市、塔沟社区、平泉富源公司等商务部重点工程入围企业和品牌，推广先进经验和成功做法。分类推进商务系统领导干部、中层干部、执法人员的政策业务培训。组织赴外地学习考察，开阔视野、增长见识，学习借鉴先进地区推动流通业发展的经验做法。支持各类流通业行业协会的发展，扩大行业协会的覆盖面，充分发挥行业协会的作用。', '（五）优化发展环境。实行目标管理责任制和市县两级领导、部门联系企业、项目制度。重点企业发展、建设项目责任单位负责人要落实责任，强化措施；市县两级领导、部门深入企业和项目实施单位，现场督促指导，主动为企业出谋划策，及时协调解决项目工作中遇到的各种困难和问题；主管部门要加大督促检查力度，定期检查企业和项目进展情况。发改、商务等有关部门要围绕企业发展、项目建设争取更多的上级支持，在同等条件下，优先支持“1420”工程范围内的企业和项目。广泛宣传商贸流通业发展的政策措施、加速发展的现实意义、典型企业和先进做法，充分发挥舆论导向作用，营造发展氛围。进一步加强典型经验、先进做法的推广工作，扩大影响，增强辐射带动作用。引进名企名店，建设完善的城乡连锁经营市场体系，逐步形成面向京津、辐射冀辽蒙的重要商品集散地和物流基地。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>10</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>承德市民族宗教事务局二八年度工作要点</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9941_219171.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_219171</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['2008年全市民族宗教工作总的指导思想是：以党的十七大和省委七届三次全会、市委十二届三次全会精神为指导，全面贯彻落实科学发展观和党的民族宗教政策及法律法规，紧紧围绕市委、市政府科学发展、和谐发展、跨越发展的工作大局，力争在“争取政策支持，打造突出典型，实施民心工程，建设天基教堂，抓好重点项目”五个方面十个重点取得明显突破，实现“五个二”、争取5000万的奋斗目标，以此带动其它各项工作的全面发展，进一步开创全市民族宗教工作的新局面。', '一、以民族团结和谐、宗教稳定适应、普宁寺文物安全为基础，扎扎实实地做好职能业务工作，确保十项重点有三项省里争先', '1、民族工作（1）围绕社会主义新农村建设和城市民族工作的新特点，在总结经验的基础上，继续协调市民委成员单位对平泉2-3个民族乡镇进行调研办实事活动，帮助解决少数民族生产生活中的特殊困难和实际问题，支持资金不低于2000万元。（2）积极做好少数民族文化教育和体育工作。按省里安排扎实做好少数民族文艺会演工作。协助民族师专继续抓好升本工作，选择2-3所民族学校抓好民族特色教育试点工作。抓好少数民族传统体育项目基地建设，着眼未来，逐渐从应赛式的集训向定向常规教育过渡，把民族体育的基础打牢，保持民族体育在全省的领先地位。（3）抓好民族法制建设。开展好法律法规及政策宣传教育，组队参加全省民族知识竞赛并力争取得好成绩，抓好《民族区域自治法》和《国务院若干规定》的贯彻落实，从政策上争取支持。增强依法行政意识，提高解决处理突发性事件的能力和水平。', '2、宗教工作（4）全面落实宗教工作目标管理责任制，建立健全防渗透机制，制定出台《宗教突发事件应急预案》，抓好法律法规进堂点工作，依法、规范管理宗教事务，净化宗教活动，在全省保持“绿洲”形势，为全省稳定作出贡献。扎实搞好“双五好”和“爱、作、促”创建、评比、表彰活动，抓出1-2个省以上典型，积极引导宗教为全市经济社会发展做贡献。（5）全面落实市委12号即《关于进一步加强宗教工作的意见》，加强两支队伍建设，结合落实宗教工作人员编制，建立健全宗教执法队伍。加大宗教团体组织和制度建设，制定出台《宗教团体管理规定》。与宗教界上层人士广交朋友，政治上关心，生活上照顾。创造条件力争使市区设立汉传佛教活动场所列入工作日程，适时成立市道教协会，扎实稳妥地做好符合条件团体的换届工作。（6）会同有关部门，积极协调，尽最大努力解决教产遗留问题，依法维护宗教界的合法权益。', '3、普宁寺工作（7）在文物古建安全的基础上，力争“善才、龙女”两尊佛像维修得到世界文化遗产基金会的支持并早日开工。按照市北区统一规划，认真做好普宁寺广场建设的前期各项准备。（8）搞好宣传促销，举办2-3次大型佛事活动，切实提高普宁寺的知名度。（9）以“安全、营销、本质工作”三位一体为指针，以“转变、创新、升级、翻番”为目标，加强企业管理，提高服务水平，安全圆满完成各项接待任务，进一步提高普宁寺的综合效益，实现综合收入2000万元。景区建设在全省领先。', '4、中心工作（10）服从服务于全市工作大局，积极参与全市的中心工作并努力作出贡献。', '二、以创新思路、上大项目、求大突破为目标，举全局之力抓好重大专项，确保“五个二”任务如期实现', '1、研究利用好两大政策（1）努力争取省政府对自治县（民族县）新一轮现场办公首先在承德举办，使我市民族地方尽早得到支持并受益。上半年完成各项筹备和对口对接，力争下半年实施，争得各类支持不低于4000万元。（2）抓好民贸政策的有效落实，在已组织自治县（民族县）学习考察并形成共识的基础上，组织相关企业考察研讨，解放思想，开阔眼界，调动其积极性，争取我市2-3个企业在国家政策年度微调时挤进列入全国民贸企业名录，为争得下一步贷款减息创造条件。', '2、推出两个省以上典型（3）在2007年河北省为少数民族和民族地方送科技活动在我市围场、隆化两县举行，我市得到重点支持的基础上，再争取上级支持200万元，使此项工作进一步上档并大范围推广，成为全省、全国的典型，力争全国为少数民族和民族地方送科技活动现场会议在我市举办，扩大影响进而得到更大的支持。（4）抓好城市少数民族聚居社区的民族工作，在2007年首次民委成员部门进社区调研办实事活动基础上，2008年全力抓好议定项目的有效落实，并逐步实现巩固平台，健全队伍，完善三个层次的民族关系协调服务机制等深层次工作，达到在全省、全国推广先进典型经验的目标。', '3、实施两项民心工程（5）争取少数民族发展资金100万元，完成50户特困少数民族家庭茅草房改造工程。（6）争取少数民族发展资金200万元，帮助少数民族地方解决水、电、路以及文化、教育等方面的特殊困难。', '5、继续抓好两个重点项目（9）进一步加大招商引资力度，努力从政策渠道寻求支持，力争普宁寺佛文化园林景区项目早日开工建设。（10）引进资金50万元，进一步完善万亩错季绿色蔬菜基地基础设施建设，配齐喷灌工程设施，在加快少数民族地方农业产业化龙头项目建设上起到示范作用。', '三、以强化“创新、创业、开放、团队和纪律”五种意识为手段，为全年工作任务的完成提供组织和思想保证', '1、强化创新创业意识，进一步解放思想。利用三个月时间，精心组织开展好学习十七大精神解放思想大讨论活动，在学有所得、学有所思、学有所行上下功夫，从实际出发，认真查找存在的问题，勇于面对差距，敢于竞争，敢为人鲜，从高起点，高站位，围绕跨越发展解放思想。要勇于突破，围绕创大业，干成事，创新思维观念，创新工作机制，创新工作方法，最终达到创造性地开展工作，实现重点工作大的突破。', '2、强化开放意识，抓好内引外联工作。继续下大力做好以招商引资为主要手段，以跑部进厅为主要措施的“五个一”工程，制定落实责任目标，加大对政策研究力度，发挥民族宗教特色优势，在举办大型有影响活动、利用市场经济规律引进大项目上寻求探索和突破，推动民族经济快速发展。在已形成共识的基础上，谋划好民贸工作，实现大的作为，力争更多的实惠。', '3、强化团队意识，加强班子和队伍建设。强化班子民主意识和团队意识，强化总揽全局，处理复杂问题，驾驭复杂局面的能力的提高，提高科学决策水平，增强凝聚力和战斗力。坚持以人为本，不断巩固效能建设成果，创造条件在机关搬迁中尽力改善办公条件。转变工作作风，强化工作手段，制定落实“一岗四责”责任目标，推动工作开展。加强老干部工作，为老干部学习和生活提供热情、周到、方便、快捷的服务，充分发挥老干部的余热作用。', '4、强化纪律意识，加强党务和廉政建设。建立完善有章可循的组织纪律约束机制并强化制度执行的刚性，使干好工作，拒绝理由在全局上下形成共识。充分发挥党组织的战斗堡垒和党员的先锋模范作用，在全局唱响团结进取，求真务实的主旋律。按照加强教育，预防为主的方针，按“一岗双责”要求全面落实党风廉政建设责任制，全面提高全局的廉政建设水平。抓好安全生产和综合治理，进一步优化发展环境，为做好民族宗教工作提供保障。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>10</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>承德市文化局关于上报年工作总结的报告</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9941_219528.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_219528</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['十六大以来，承德市文化局始终坚持以邓小平理论和“三个代表”重要思想为指导，全面落实科学发展观，牢牢把握先进文化发展方向，遵循社会主义精神文明特点和规律，全力实施文艺创作、群文活动、文化产业、人才培养四项文化工程，以繁荣社会主义先进文化，建设和谐文化为主题，以保障人民群众文化权益，丰富人民群众文化生活为着力点，稳步推进文化体制改革，逐步壮大文化市场，为我市文化大市建设创造良好的文化环境。', '近年来，我局文艺创作紧紧围绕“二为方向、双百方针”和三贴近原则，始终坚持精品带动战略，坚持地方特色与时代精神的有机结合，把体现山庄文化、皇家文化、佛教文化、满蒙文化作为文艺创作主线；始终坚持思想性、艺术性、观赏性的统一，注重舞台演出，重视文化交流。在此基础上，创作了一大批思想精深、艺术精湛、制作精良的优秀作品。', '坚持特色、注重创新，精品创作亮点纷呈。一是《金牌属于妈妈》受到各界好评。2007年，我局文艺工作者重点编排了现代评剧《金牌属于妈妈》，这也是继《达瓦丹珠》之后推出的一部极富教育意义的优秀舞台剧目。该剧市场反映良好，受到社会各界，特别是大中专院校学生的热烈欢迎。二是《火兴火旺》参加全国群星奖赛事取得佳绩。由我市群艺馆组织编排，表现新农村建设题材的新编评剧《火兴火旺》参加全国“群星奖”决赛比赛，荣获优秀表演奖。三是大型歌舞剧《紫塞风华》成为我市一项特色性文化品牌。此剧是我市近年来投入最多、规模最大、阵容最强的一台音乐舞蹈剧，是直接与我市旅游演出市场接轨的一台精品剧目。不仅取得了良好的社会与经济效益，也成为我市演出领域的新领军。四是2008年新年音乐会筹备工作进展顺利。为了提升我市文艺水准，扩大文化工作社会影响，促进文化工作的进一步上位，适应我市高速发展的经济社会水平，我局正在积极承办由市政府主办的2008年新年音乐会。在全系统文艺工作人员的努力下，我们将把其打造成为一台“艺术水准高、普及作用强、轰动效应大、影响时间长”的舞台精品。新年音乐会将于2008年元旦前夕在承德剧场举办。', '围绕中心、服务全局，文艺演出丰富多彩。一是策划“一节两会”开幕式文艺演出。6月10日，第八届中国承德国际旅游文化节、第七届中国承德国际旅游文化投资贸易洽谈会、首届中国承德古玩博览会（简称“一节两会”）在我市开幕。为了扩大社会影响，烘托会议氛围，我局重点组织策划演出了“一节两会”开幕式。在短短10余天时间里，在全局工作人员的共同努力下，克服了时间紧、任务重、协调难等诸多不利因素，编排了由20多个单位，5000多名演员参加的包括迎宾表演、皇家仪仗表演和群众文化展示三部分组成的盛大开幕式。整场演出恢弘大气，场面壮观，为“一节两会”的成功举办奠定良好开局。二是组织“三市一盟”招待宴会歌舞演出。7月9日，以“合作，共赢，发展”为主题的首届承德市、赤峰市、朝阳市和锡林郭勒盟（三市一盟）领导人峰会在我市召开。为充分展示我市浓厚的地域、人文、历史积淀，我局组织市歌舞团、评剧团的部分演员，表演了以传统戏剧、民族歌舞为主的文艺演出，受到各市（盟）领导的高度好评。三是承办《军旗飘飘》专场文艺演出。由我局承办的专场文艺演出《军旗飘飘》于7月31日在承德剧场隆重举行。演出采用舞蹈、歌曲、小品相结合的形式艺术地表现了军队与地方的手足情谊，整台演出歌舞交融、轻松欢快，生动地展现了我军的精神风貌，受到与会领导以及各界干群的充分肯定和高度赞扬。', '重在学习、取长补短，文化交流步伐加快。一是组织学习考察组前往大厂评剧歌舞团学习考察。为改善基层单位经营状况，提高演出创作能力，强化文艺团体管理，我局组织学习考察组前往大厂评剧歌舞团学习考察，随后又邀请其团长赵德平来我市为文化系统职工做了改革经验报告，对于我市各基层文化单位改善管理、提高效益、加快改革起到了重要的推动作用。二是参加朝阳市第六届文化艺术节和赤峰市红山文化艺术节。受朝阳市和赤峰市人民政府邀请，我局先后参加了朝阳市第六届文化艺术节和赤峰市红山文化艺术节，并对艺术节的组织形式、演出内容、筹资方式进行了深入学习考察。三是组织学习考察组赴北京考察学习。先后与北京市文化局领导，艺术处、社会文化处以及北京市文化艺术活动中心的负责人进行了座谈，实地参观考察了朝阳区文化馆，并观看了长安大剧院的戏曲演出。通过对北京市文化部门在公共文化基础设施建设、演出服务体系、电影网络体系创建、特色品牌活动开展、文化艺术发展基金会等方面的重点考察，对于推动我市文化事业单位机制体制改革有了深刻认识。针对以上各地的考察情况向市政府提交了综合考察报告，并提出了具体落实意见。', '十六大以来，随着我市经济社会的持续快速发展，人民群众的文化需求日益增长，文化消费方式也发生了深刻变化，对公共文化产品、基础实施、服务网络、资源配置要求不断更新。我市在发展社会文化过程中始终牢牢把握社会主义先进文化的前进方向，坚持以政府为主导，鼓励社会力量积极参与，坚持把发展公益性文化事业作为保障人民基本文化权益的主要途径，加大投入力度，坚持城乡文化、区域文化协调发展，我市社会文化呈现出欣欣向荣、繁荣发展的良好局面。', '以实现人民群众基本文化权益为目标，全方位开展群众文化活动。群众文化活动的开展紧紧围绕市委市政府中心工作，积极完成年初确定的民心工程，群众文化活动在数量、质量、范围上都较往年有了新的突破。一是彩色周末广场演出活力无限。“彩色周末”的举办对于丰富我市群众文化生活、提高群众文化品位有着积极的推动作用。年初，“彩色周末”文化广场演出被市委、市政府列入2007年民心工程专项工作，要求全市全年组织演出300场。对此，市、县（区）文化部门给予高度重视，截至10月底，全市共组织演出842场，其中，市直演出19场，县（区）216场，乡镇607场，参演各类文艺节目9905个，参演单位471个，参演人数35000人次，吸引观众112万人次，建成文化广场137个。二是文化下乡扎实开展。全年下乡赶集204次，送售图书3.9万册，戏剧、文娱下乡演出2874场，图书馆科普赶集95次，举办科普培训班77期，培训人数3932人次，印发科普小报7.2万份，扶持科技重点村78个，重点户2043个，扶持新建农村电影放映队27支。三是重大节日演出丰富多彩。07年元旦、春节期间，组织市直专业、业余演员将精彩的文艺节目送到承德附属医院、驻承93575部队等单位；正月初五、初六，在市中心广场举办多场秧歌、花会表演；举办全市第四届业余舞蹈大赛，参赛节目84个，参赛演员600余人。经角逐，22个舞蹈荣获一等奖，16个舞蹈荣获二等奖，26个舞蹈荣获三等奖。', '以完善公益性文化设施建设为举措，加快基层文化设施建设步伐。近年来，全市各级文化部门通过拓展引资渠道，加大资金投入，扩展建设规模，完善服务功能等手段，文化基础设施建设实现跨越式发展。一是拓宽引资渠道，加大资金投入。近几年，我市文化部门累计投入资金3964万元，其中，争取省和地方资金950万元，自筹3014万元。改扩建文化设施包括营子区影剧院综合楼、平泉县图书馆博物馆综合楼等3项，新建文化设施包括围场满族蒙古族文化中心、宽城县民族文化会展中心等6项，总建筑面积近5万平方米。其中，宽城县、兴隆县、平泉县图书馆新馆已全部建成并投入使用，承德县综合文化活动中心大楼主体工程已经完成，隆化县文化馆改扩建工程也已经开工建设。二是克服体制瓶颈，创造发展条件。西大街云岭影剧院改造工作进展顺利，地基施工已接近尾声，预计08年10月份全部竣工；群众电影院建设成为我市第一家数字化影院；群艺馆改建完成后，功能和档次大幅度提高，成为我市第一家能够开展多种群众文化艺术辅导的综合性文化设施；承德剧场一、二期工程改造完成后，专业设施和服务环境得到大幅改善，成为我市第一家能够适应多种演出需要的专业性场所。三是立足基层实际，完善服务功能。各县区农村文化设施建设步伐进一步加快，乡镇文化站服务功能进一步强化，兴隆县六道河镇文化站佟占海获得我省唯一的第十四届全国“群星奖”服务奖。村级图书室等其它村级文化设施升级改造力度也逐年加大，目前，全市行政村中已建立村级图书室200余个。', '以保护传统文化为重点，扎实开展非物质文化遗产保护工作。第一，1月—5月，初步完成全市“非遗”普查工作。共搜集、整理市级“非遗”代表作项目34项。经过市局和市民族民间文化研究保护中心聘请本市相关专家的审核，拟定其中32项列入市级“非遗”名录，待呈报市政府批准后，予以公布。第二，推荐申报第二批省级“非遗”名录项目18项；推荐申报第二批国家级“非遗”项目11项。6月18日，河北省“非遗”保护工作领导小组办公室公示全省第二批“非遗”名录，我市“契丹始祖传说”、“丰宁吵子会”等11项列入其中。第三，经市和丰宁县两级文化局共同推荐，丰宁满族自治县张冬阁先生于6月5日被文化部列为第一批国家级“非遗”项目代表性传承人。', '长期以来，我局在文化市场建设过程中，始终坚持“以规范促繁荣，以管理促发展”的工作方针，加快职能转变，坚持依法管理；调整管理思路，健全长效机制；完善管理手段，加强宏观调控；竭力为文化市场提供松紧有度，宽严适中的发展环境。', '突出监管重点，体现“四个抓手”。 一是音像市场以版权为抓手。加强正版音像制品流通网络建设，严格按照《承德市文化新闻出版局音像制品出版物发行经营管理制度》相关要求，进一步发挥发行主渠道的作用，逐步淘汰小、散、差的经营场所。开展“诚信音像店”评选活动，今年在全市范围内共评选出“诚信音像店”10家。二是演出市场以审批为抓手。严格审查营业性演出团体、演出场所以及个体演员的演出资格。对无证无照，未经审批的演出团体及个人，坚决不予批准。加强农村庙会演出市场，产品促销演出市场的审查力度，全年共计审批此类演出39次。三是歌舞娱乐场所以规范为抓手。歌舞娱乐场所管理围绕“控制发展规模、优化结构布局”的思路，严格贯彻落实新颁布的《娱乐场所管理条例》。为改善其安全生产状况，5月30日，召开了市区歌舞娱乐场所卡拉OK基本情况调查工作大会，签订安全生产承诺书60份。四是互联网营业场所以管理为抓手。积极贯彻落实中央十四部委《关于进一步加强网吧及网络游戏管理工作的通知》精神，制定我市《关于进一步加强网吧及网络游戏管理工作的通知》下发至各县区。开展“绿色网吧”创建及“快乐暑假、和谐两会”专项治理行动，活动期间，共检查违规经营行为80余家次。', '提高监管水平，突出“三个结合”。一是提高管理能力与培训相结合。按照文化市场管理相关规定，经营法人和所有从业人员一律经过培训才能上岗。为此，我局采取以会代训、专项培训、个别培训和培训考试相结合的方式。全年，召开承诺大会1次，组织经营者座谈会1次，签订《守法经营承诺书》120余份。二是提高管理能力与宣传相结合。加大宣传力度，实现政务公开，鼓励社会参与执法监督，有效提高文化市场管理能力。全年，参加“行政许可法”宣传活动以及“阳光宣传周”活动各一次，制作展板2块、发放宣传单800余张，现场解答问题10余条。加强以新闻媒体为载体的宣传力度，分别在《承德日报》、《热河晚报》等新闻媒体投发稿件7篇，并参加承德电台“百姓热线”栏目，现场解答群众咨询2次。三是提高管理能力与学习教育相结合。在文化市场管理工作中，始终把强化业务学习作为提高行政执法人员执法能力的重要手段。10月份，在兴隆县组织了市、县（区）文化市场执法人员参加的文化市场管理工作暨法律法规业务知识学习大会。会上，为每位执法人员发放《文化市场法律法规汇编》，有力地提高了执法人员自身素质和执法水平。', '加大监管力度，把握“三个重点”。一是重点开展节日期间执法检查活动。2007年，是中国人民解放军建军80周年，10月15日，中国共产党第十七次全国代表大会在北京召开，为保障“两节、两会”期间文化市场稳定，我局开展了以“快乐假期、和谐两会”为主题的文化市场专项治理行动。专项治理期间，出动执法人员151人次，共检查网吧1128家次，处理违规经营网吧98家次，罚款金额198400元，收缴非法图书300余册，非法报纸500余张。二是重点开展热点区域检查活动。非法出版物始终是市民反映较为突出的问题。今年，为了从源头上堵住各种非法出版物流入我市，我们进行了2次地毯式的检查，共检查出版物经营场所60余家次，没收非法出版物1576册，取缔地摊、散摊8个。在对我市出版印刷业的检查中，共计检查印刷企业2636家次，查处违规印刷企业3家，罚款3000元。三是重点开展县（区）文化市场检查活动。“执法人员少，执法力量薄弱”始终是困扰我市基层文化市场执法的突出问题。为此加大了对基层县（区）文化市场的检查力度。截至目前，市级文化市场行政执法人员共行程1000多公里，覆盖10个县（区），检查经营场所227家，查处违规经营户65家。', '2007年，承德市新闻出版工作以加快发展为目标，以强化监管为手段，拓宽监管领域、规范市场秩序、坚持依法行政，新闻出版工作秩序井然、发展迅速。', '规范市场秩序，优化发展环境。围绕“以繁荣为中心，以规范促繁荣，以管理促发展”的工作思路，严格贯彻落实省新闻出版局长会议精神，我市新闻出版市场秩序井然，发展环境进一步优化。一是严格年度审查，强化管理力度。按照省新闻出版局《关于做好2007年出版物发行单位年检登记工作的通知》和省新闻出版局《关于对印刷复制企业进行年检的通知》的要求，对全市各类经营许可证进行了年度审验并建立档案。对我市6家资质条件不够的出版物印刷企业下达了限期整改通知书。二是强化服务意识，加快行业发展。规范行政审批程序、加快审批速度，对手续齐备的即来即办，对手续不全的一次性告知，缩短审批时限。对需省局审批的，积极与省局有关处室协调，尽快取得审批手续。截至目前，投资近2千万元，新设立大型印刷企业3家，提升资质的3家，经营场所面积达8000多平方米。三是培树正面典型，提升整体水平。结合我市实际在全市新闻出版系统开展以“文明行业、和谐出版”为主题的“承德市新闻出版业优质服务、优良业绩、守法诚信”评比活动。目前，全市八县三区共有21家出版物经营单位，22家印刷企业上报了申报材料，我们将统一对申报的企业进行检查验收，评比授牌。', '突出监管重点，打击违规违法行为。我局始终站在讲政治、顾大局、保稳定的高度，针对市场出现的新问题、新情况，强化日常监管，突出管理重点，狠抓集中治理，保障全市出版物市场的繁荣有序。一是开展对连续性内部资料出版物的专项治理。按照《中央办公厅、国务院办公厅关于进一步治理党政部门报刊散滥和利用职权发行，减轻基层农民负担的通知》的文件精神，利用1个月的时间，对全市连续性内部资料性出版物进行了专项治理。对个别内资出版单位报送样张（本）不及时、出版内容不规范、刊登广告“以报养报”等违规行为，及时制止，通报批评，特别是对4家未取得准印证的出版单位，下达了停办通知书，并处罚款2000元。二是开展打击侵权盗版专项治理行动。根据近年来开展打击软件盗版专项治理行动的经验， 2007年在加大市场监管力度的同时，拓展监管思路，延伸监管领域，探索打击侵权盗版的有效途径，在市区内开展印刷业使用经营性盗版软件专项治理行动，取得明显成效。据统计，2007年新设立的24家打字复印单位全部安装了正版软件，市区印刷复印业经营性正版软件使用率达92%以上。三是开展广告印刷品专项治理。针对近年来全市广告业存在的擅自从事排版、制版印刷、使用经营性盗版软件等违法违规行为，我局在全市范围内开展为期5个月（2007年7月—11月）的广告业专项治理行动。截至目前，已有53家广告公司完成自查整改，12家广告公司咨询办理印刷业经营许可证相关事宜，4家广告公司正在积极申办印刷经营许可证。四是开展打击假报刊、假记者站、假记者、假新闻专项整治行动。按照全省整治“四假”行动电视电话会议的要求，对照公布的《非法报刊目录》及本地掌握的其他非法报刊名单，对全市各报刊批发机构、零售单位、投放场所进行全面清查，并协调邮政部门对本地邮发、批发、夹带报刊的情况进行认真清理，经过1个多月的专项治理，共收缴非法报刊461张，在我市未发现假记者站、假记者。五是经常性开展“扫黄打非”工作。根据河北省扫黄打非工作会议精神，结合我市实际，在十七大召开前后，利用近1个月的时间，我们组织执法人员对书报刊、音像制品批发市场、繁华街区、旅游景点、交通枢纽等人流量较大的区域和场所进行了2次地毯式清查，这期间共出动执法人员300余人次，检查出版物经营场所200余家次，收缴非法出版物1576册，取缔地摊、散摊8个。', '强化交流培训，提升整体素质。一是深化法律法规的学习。在加强政治理论学习的同时，注重法律法规的学习，增强执法人员法制观念，更新执法理念，不断探索新办法、新思路，把提高整个执法队伍的素质作为固本工程来抓。通过每月不少于2次的集中学习和年度不少于15个工作日的个人自学，管理人员已熟练掌握各种常用的法律法规。二是加强执法人员业务水平交流。为进一步提升全市行政执法队伍的整体素质，建立一支业务精通、作风优良、纪律严明、行为规范的管理队伍，在党的十七大召开之际，我局在丰宁满族自治县对全市文化（新闻出版）市场行政执法人员组织了一次集中交流培训，提升了我市行政执法人员的行政执法能力。三是注重执法行为的全面规范。2007年我们对执法人员的执法行为进行了全面规范，重申了出版物市场各类经营许可设立的资质条件，严格贯彻落实行政许可法相关规定。进一步规范执法法律文书，严格行政执法程序，特别是在执法过程中，对查到难以鉴别的出版物，坚决履行送检程序。截至目前，全市新闻出版系统在适用程序上未出现一起违法现象。', '以强化党风廉政建设为重点，党员干部政治理论水平有了新的提高。深入开展了和谐机关建设活动。组织开展了“构建和谐机关，和谐单位”为主题的演讲比赛。并在市委组织部、市直机关工委组织的“喜迎十七大、颂歌献给党”歌咏比赛中荣获一等奖。3月下旬开始，在全系统开展了内容丰富的“学、转、办、促”主题教育活动。组织广大党员进行了对《江泽民文选》、《科学发展观学习读本》、《公民道德建设实施纲要》、《中华人民共和国行政许可法》、《中国共产党章程》以及胡锦涛总书记来承视察讲话精神的学习。组织了三项捐助活动：开展为困难职工捐款活动。8月份，我局开展了向退休患病干部安东升同志捐款活动，全系统共捐款2.195万元。充分体现了各级党组织的凝聚力和向心力；开展冬衣暧人心捐助活动。落实《市委办、市政府办关于在全市开展“送温暖、献爱心”社会捐助活动通知》精神，我局开展了冬衣暖人心捐助活动，全系统共捐衣物500余件；开展扶贫村帮扶活动。在局机关资金严重紧张的情况下，克服困难，抽出资金3000余元，购买节能灯70盏，演出服装10余套，道具扇子100余把送予平泉县黑山口村，并联系一台价值8000余元的电影放映机赠与该村。为进一步提高机关工作人员和基层单位负责人的工作能力，对机关及基层各单位党支部进行了换届，并对新一届的各支部委员进行培训。廉政建设向纵深发展，按照市纪委廉政文化“七一九进”工作要求，组织开展了廉政主题教育、廉政作品创作演出等活动。营造了清正廉洁的工作氛围。围绕《国有资产管理办法》、《房屋出租暂行办法》的出台，对基层各经营单位进行了专项调查和审计，取得了明显实效。', '以强化文化事业单位管理为突破口，局直文化单位经营管理水平有了新的提高。一是强化了管理理念更新。针对文化事业单位管理水平不高的现状，今年下半年，市文化局在组织基层单位负责人对北京、廊坊等地进行文化管理工作考察的基础上，又邀请大厂评剧歌舞团团长赵德平来承为文化系统职工做了改革经验报告会。通过系列考察，拓展了工作视野，促进了文化交流，尽快提升我市文化事业单位管理工作水平，推进我市文化体制改革的深入进行已成为全市各个文化单位的普遍共识；二是强化内部管理机制的建设。先后出台了《文化局直属单位国有资产管理实施细则》、《房屋出租暂行办法》、《财务管理制度》、《考勤制度》等多项管理制度，行政管理和基层单位经营行为得到了有效规范；三是强化了专业艺术队伍建设。先后多次召开了市直文化单位中高级专业艺术人员座谈会，市评剧团首次采取了面向全社会公开招聘专业艺术人才的办法，招聘了五名专业艺术人员，以签约的方式打破了以往艺术团体人才选用上的制约，为下一步深化全市专业艺术团体的改革做了大胆的尝试。', '一年来，我局文化工作的各个方面都取得了长足的进步和较快的发展。但是，在新的形势下，文化工作仍然存在着诸多问题，面临着诸多困难：一是文化工作弘扬主旋律、紧扣发展主题的力度不够，促进社会和谐的文化氛围不浓；二是文化体制改革没有起步，文化事业单位内部管理机制没有活力，文化工作者的积极性主动性不高；三是各类文化艺术人才青黄不接极度匮乏，没有形成培养、选拔、激励、使用人才的良性循环机制，特别缺乏某一行当的领军人物；四是文化活动领域狭窄，形式陈旧，水准偏低；五是城乡文化基础设施不足，与群众文化活动的需求相差甚远；六是缺乏有市场、有观众、有效益、能拿奖的艺术精品等。面对问题，寻找出路，我们有信心，也有决心，在市委市政府的正确领导下，在全市文化工作者的共同努力下，发挥优势、克服困难、取长补短、全面发展，为推动承德文化的大发展大繁荣而不懈努力奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>10</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>王学局长在全市劳动和社会保障工作会议上的讲话</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2008-05-22</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F22%2Fart_9944_192789.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_192789</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['承德市人民政府 工作部署 王学局长在全市劳动和社会保障工作会议上的讲话（2007-03）', '这次全市劳动和社会保障工作会议的主要任务是：认真贯彻党的十六届六中全会和省七次党代会精神，按照全省劳动保障工作会议要求，总结2006年劳动保障工作，分析面临的形势，部署今年重点工作。李维副市长还将做重要讲话，我们要学习好、贯彻好、落实好领导讲话精神。下面，我就2006年劳动保障工作和今年工作安排讲三点意见：', '2006年是“十一五”的开局之年，也是劳动保障工作创新发展的一年。过去的一年，在市委、市政府的正确领导下，在各有关部门的大力支持下，全市劳动保障干部职工坚持用科学发展观统领全局，紧密围绕全市经济建设和社会发展大局，谋划实施了五项工程，实现了劳动保障“十一五”的开门红。全年全市城镇新增就业27928人，下岗失业人员再就业19730人，就业困难对象就业8187人，城镇登记失业率4.3%，农村富余劳动力向非农产业转移11.5万人，劳务输出总量达到47.5万人，社会保险新增参保78326人。争取各项社会保障资金3.56亿元。各项社会保障任务超额完成。劳动保障工作继续保持全省领先水平。市劳动保障局被团中央、劳动保障部评为青年创业优秀组织奖。这些成绩的取得，是市委、市政府的正确领导和社会各界支持的结果，是劳动保障全体职工凝聚人心、创新管理、争优超越、换位为民的成果。借此机会，我代表承德市劳动和社会保障局向关心支持劳动保障工作的社会各界、全市劳动和社会保障战线上的同志们表示衷心的感谢！回顾去年的工作，主要体现在以下几方面：', '2006年初，在认真总结2005年劳动保障的基础上，深研细谋了2006年工作目标、工作重点，提出了“坚持一个统领，落实三个文件，突出三个重点，强调五个注重，实施五项工程，扎实推进六项工作”的全年工作思路，为全面完成和超额完成全年工作任务打下了坚实的基础。', '市委、市政府不断加大就业工作力度,形成了政策扶持、生活保障、岗位援助、就业服务等特色的城乡就业体系，确立了绿色就业、旅游就业、输出就业、矿业就业、公益岗位就业等特色就业模式，市场导向的就业机制、覆盖全市的就业服务体系和工作平台基本建立。', '1、扩大就业，增加岗位。围绕开发就业岗位建立完善了具有承德特色的再就业援助制度。实施“就业再就业援助”工程，加大对“4050”人员特别是双下岗家庭的援助力度。一是绿色就业拓展再就业空间，安置下岗失业人员8700人。市区及平泉、宽城、围场等县形成了食用菌栽培、承包荒山、奶牛养殖等有承德特色就业模式。《半月谈》以“承德再就业披上绿装”刊发了我市做法。二是大力开发公益岗位，帮扶困难群体就业。组建社区巡逻队、旱河维护队，启动“公益岗位伴你行”活动，共有2752名下岗失业人员走上了新的公益岗位。三是解决零就业家庭问题。对零就业家庭进行了调查走访，实行包户帮扶，去年共解决夫妻双下岗人员就业420人。市区消除了30户零就业家庭。四是在全省率先建立了帮扶下岗失业人员就业机制。两节期间开展了“七送十个一”活动，全市共慰问困难职工10195户，其中市直包括各部门在内共慰问400户。开发就业岗位910个。开展了创建比较充分就业社区工程，有60个社区试点，通过创办社区就业实体、就业超市等，安置就业人员4514人。', '2、建立机制，稳定就业。围绕建立经济增长与扩大就业结合点，在全国独创了项目促进就业的市场机制。以安置下岗职工并签订劳动合同为主要考核指标，通过公开、公正、公平的原则，建立了再就业资金使用项目招标制度，走出了政府抓就业的新路子，使6135名下岗职工在72家企业实现了再就业。这一措施达到了四个目的，一是扩大了再就业资金的使用范围。二是提高了资金使用效益。三是变职工找企业为企业找下岗职工。四是建立了就业与经济发展的互动机制，促进了企业经济效益的增长。新华社、人民日报进行了报道，引起了劳动保障部和国务委员华建敏同志的重视。', '3、鼓励自我创业和灵活就业，以创业带动就业。一是开发灵活就业岗位吸纳下岗失业人员。二是创业带动就业，建立“六位一体”的创业机制。去年创业培训2357人，有841人当上了“小老板”，带动2000多人实现再就业，显现出倍增效应。推进全民创业，以下岗失业人员为基础，把农村劳动力、大中专毕业生和复转军人纳入到创业培训范围，分别组织开办了6期培训班。', '4、强化培训提高素质，实现能力和稳定就业。实施“城乡劳动力素质提升”工程。提请政府下发了《关于进一步加强高技能人才工作的实施意见》，加强对各类人员的培训和鉴定，扎实开展“阳光工程”，大力推进“订单式”培训，共培训农村劳动力9.9万人、企业职工4.5万人、下岗失业人员2万人，技能鉴定达1.4万人。承德技师学院，被列为全国第一批实训基地试点单位。', '5、制定和落实落实优惠政策，建立促进就业的导向机制。围绕政策落实建立了促进就业的责任体系和就业服务体系。一是强化就业责任。实行一把手责任制，通过目标责任书、任务分解和就业工作联席会议落实县区和各部门责任。二是出台新一轮就业政策。贯彻国务院36号文件，去年初出台了市政府28号文件和减免税等8个配套文件，完善了承德特色的城乡就业体系。三是强化就业服务。市县改建并发挥人力资源市场作用，在组织下岗失业人员、大中专毕业生、农民工等大型专场招聘会的基础上，在全省率先开办了夜场招聘会。四是宣传落实政策，显现政策效应。目前全市累计已办理《再就业优惠证》7万人。去年上级转移支付再就业资金1亿元有效地支持了就业工作。把集体企业纳入发证和扶持范围，为6412名集体企业下岗职工发放了再就业优惠证。通过发放补贴、税费减免等办法，鼓励企业吸纳下岗失业人员,鼓励下岗失业人员自谋职业。开发公益岗位、鼓励灵活就业等措施使享受再就业政策人数创历史新高达3.7万人。', '6、大力发展劳务经济，建立起四个有效平台。围绕农村就业和农民增收大力发展劳务经济。经过几年的实践，我们认识到，劳务经济是农民增收的有效平台、对外开放、信息沟通和交流的有效平台、农民素质提高的有效平台、区域经济发展的有效平台。在实践中通过抓培训、抓市场、抓服务，有效地推动了劳务经济工作。建立了培训、就业、维权三位一体工作模式。加强劳务推介，去年成功举办了京承劳务经济洽谈会，目前承德与京、津、沪、粤等市劳动保障部门和包括40家世界500强在内的2000家用人单位建立了稳固的合作关系，劳务输出总量由2001年的36万人增长到47.5万人,全市2006年增加农民收入27.5亿元。', '把更多的人纳入社会保障范围，是社会主义优越性的体现，也可以增强社会保险抵抗风险的能力（大数法则）。2006年是劳动保障政策出台密度最大、惠及人群最多、老百姓得到实惠最多的一年，共出台各项政策20多项，使301720人次得到实惠，老百姓受益新增52460.5万元。', '1、调整提高社会保险待遇。两次调整离休金，离休人员月人均增加600元。调整退休金，企业退休人员月人均增加养老金185元，企业退休人员取暖补贴由50元调整到500元，5.7万名退休人员年增加1.48亿元。工伤职工伤残津贴、供养亲属抚恤金等工伤保险待遇增长20%，人均增加120元。让更多人享受社会保险。制定参保办法，17000多中断缴费人员补缴了社会保险费，双桥区1000多名未参保人员补缴后纳入统筹。完善医疗保险政策，出台了生育保险补贴、意外伤害医保报销、农民工参保、早期破产企业退休人员参保等办法。调整失业保险金标准，人均增加20.8元，失业人员取暖补贴人均增加365元。', '2.扩大社会保险覆盖面。提请政府出台了《关于进一步扩大社会保险覆盖面的意见》、《关于未参加基本养老保险的国有集体企业职工及中断缴费人员养老保险问题的处理意见》等文件，通过加大监察和稽核力度，实行评优评先一票否决、接续社会保险关系、出台灵活就业人员参保办法等一系列措施，各项社会保险扩面任务均超额完成。', '围绕和谐劳动关系作好劳动者维权工作。一是加大执法监察和劳动争议处理力度。去年受理群众举报劳动违法案件454件，受理劳动争议案件568件，结案率98%。共清退童工13人，督促参加社会保险13462万人。开展了异地执法检查。二是实施合同三年行动计划，进行用工普查，督促签订履行劳动合同。依托社区平台普查用工单位4075户，涉及劳动者31.39万人，责令补签劳动合同3.56万份，实行了用工动态管理。三是率先实行建筑、交通施工企业工资保障金制度。联合建设、交通部门在交通施工和建筑施工企业实行工资保障金制度，累计预收工资保障金3217万元，去年为 1.02万名农民工清理拖欠工资1460.5万元。四是健全争议调解网络。建立了各类调解组织1537个。五是建立大信访格局。在无机构编制经费的情况下，接待的信访量与市信访局基本持平。通过建立目标责任制、科室信访值周和局领导接访制，对越级上访实行“挂帐督办”，开展矛盾纠纷排调，去年全市接访12537批次,涉及18120人。六是开展“劳动关系和谐企业”创建活动。开展了劳动关系和谐企业创建活动，有266家企业申报“劳动关系和谐企业”，评定了AA级“劳动关系和谐企业”33 家，向省推荐AAA级20家。', '加强制度建设，强化“过程控制”打造依法行政的法治型机关。完善了22项决策、执行和监督检查和8项工作服务制度，实行流动标兵制，确保了工作落实。', '加强效能建设，通过“行政权力公开透明运行”打造阳光的规范型机关。完善重大事项公开审批制度，增加了工伤医疗费用报销审核等十一项联席会议制度。确保了行政权力公开、效能提高。', '完善责任体系，通过创新管理和作风建设打造为民务实的服务型机关。建立了一整套内容科学、督查到位、激励有效的目标责任管理考核制度。我市的绿色就业、再就业项目招标、建筑业工伤保险、工资保障金等5项工作在全国属首创,连续几年开展换位思考以“假如我是下岗职工、假如我是服务对象”等为主题，感受服务对象心态，用心用情做好工作。2006年深化为“换位思考、阳光执政、为民务实”活动，确定为民办60件实事，加强执行力建设，提高工作落实能力。', '加强队伍建设，提高职工依法行政的本领。提高谋事能力和领导水平。创办劳动保障论坛，建立每周学习日、实行外出学习考察提交报告制等措施提高干部素质。', '劳动保障宣传工作，在各新闻媒体的大力支持下，全年编发各种新闻稿358件，提高了社会的关注度，信息化网络建设迈上了新的台阶，服务功能进一步开发。', '当前，我市正驶入经济发展的快车道，也是劳动保障事业向政策更加完善、制度更加健全、管理更加高效、运行更加稳健方向迈进的关键时期。劳动保障事业发展既面临着难得的发展机遇，也面临着许多矛盾和挑战。有利的条件总结起来有四点：', '一是党委政府对劳动保障工作空前重视。市委、市政府确定的2007年民心工程和艾市长政府工作报告都把以就业再就业和社会保险扩面做为民心工程之首。', '二是构建和谐社会对劳动保障工作提出了更高的要求。充分显示了劳动保障工作在构建和谐社会的极端重要性，', '三是劳动保障事业发展具备了良好的基础。几年来，我市经济保持较快增长，增速连续位列全省第一，经济实力大大增强，为做好劳动保障工作提供了坚实的物质基础。劳动保障工作中锻炼了队伍，积累了经验，也为做好劳动保障工作奠定了良好的工作基础。 四是劳动保障工作倍受社会各界的广泛关注。就业、社会保障、维护劳动者合法权益都是群众最关心的事情，社会各界对劳动保障工作更加关注，做好劳动保障工作有一个非常好的群众基础。在看到有利条件的同时，也要看到，当前劳动保障事业发展中还存在着许多矛盾和问题：就业总量矛盾和结构性矛盾依然突出，劳动者就业观念有待转变。社会保险扩面任务大，大量的私营个体、灵活就业人员和农民工没有参加社会保险，同时保障水平与广大群众的期望还有较大的差距；劳动关系不规范引发的矛盾仍很突出。一些历史遗留问题，解决起来难度还很大。从长远发展看，我们还将面临着人口老龄化、城镇化、就业形式多样化和利益主体多元化等诸多矛盾和挑战，实现社会就业比较充分、覆盖城乡居民的社会保障体系基本建立的目标，任务十分艰巨。', '2007年全市劳动保障工作要按照科学发展观的要求，围绕构建和谐承德、建设沿海经济社会发展强省这样一个总战略，创新工作思路，按照劳动保障事业发展“十一五”规划的阶段性目标要求，扎实推进民心工程，围绕扩大就业、社会保险、劳动维权、能力建设四个重点，继续实施五项工程，建立六个机制，扎实做好六项重点工作，实现劳动保障事业的全面协调可持续发展。', '2007年劳动保障主要目标是：全市城镇新增就业2.1万人，城镇下岗失业人员再就业1.1万人，安置就业困难对象就业2800人；城镇登记失业率控制在4.5%以内；劳务输出总量达到50万人；培训企业职工4.5万人，农村劳动力技能培训3000人，创业培训2000人；企业、机关事业、农村养老保险、失业、医疗、工伤保险新增参保4.5万人。实现上述目标，重点做好以下六方面工作：', '（一）建立城乡统筹的就业体制机制，全力实施就业援助工程。按照“劳动者自主择业、市场调节就业、政府促进就业”的市场导向就业机制的要求，在解决新增劳动力就业问题上实现新突破，在实施失业调控上探索新举措，在建立促进就业长效机制上迈出新步伐。以帮助困难人员就业为重点，落实就业政策，改善就业环境、创造就业条件、开发就业岗位、强化就业培训、提供就业服务，不断提高就业工作质量。', '1、建立以创业带动就业的机制，扎实推进全民创业。创业是就业之源、富民之本、崛起之基。要继续实施“六位一体”的创业带动就业的机制，扎实推进助你创业工程，加大创业扶持力度。发挥创业培训在创造就业岗位上的“就业倍增”效应，全年创业培训2000人。研究落实鼓励支持创业的政策和体制、机制，加大政策扶持力度，拓展就业资金的使用范围，对创业实体和创业人员给予税费减免、培训补贴、社保补贴等扶持，鼓励创业。建立创业孵化园，吸纳和鼓励有创业愿望、有创业项目、有创业能力但无创业场地的创业者进入创业园进行创业尝试，创办、领办小企业或经济实体。在下岗失业人员创业培训的基础上，把有创业愿望的城乡劳动者都纳入创业培训范围，引导农民、扶持下岗失业人员、帮助退转军人、鼓励大中专毕业生进行创业。对创业服务体系建设情况进行督查。健全创业培训、项目交流、创业咨询、开业指导、小额担保贷款、跟踪服务“一条龙”创业服务体系。创新创业服务模式，适时举办创业项目推介与成果展示活动，组织创业咨询专家和创业联谊会，开展企业家与创业者的手拉手帮扶、“百名创业成功人士带动千人就业”活动。通过召开创业典型报告会、创业促就业成功项目展示会及项目推介会等形式促进有创业能力的人员自主创业。开展开展创业明星和企业家结对帮扶创业者活动。', '2、建立以培训促进就业的机制，推进技能就业和稳定就业。扎实推进城乡劳动力素质提升工程。一是深化并挖掘培训就业一体化的培训项目。通过职业需求调查和预测，开展市场所需专业和工种的定向培训。选择主攻方向，打造优势品牌，做到人无我有，人有我精。在艺术、皮革、动漫、电工电子、冶金矿山、建筑、餐饮服务等专业打造新优势。二是实施“技能岗位对接行动”，建立高校毕业生和高技能人才信息库。开展大学生网络招聘活动。加大帮扶妇女、青年、残疾人和被征地农民就业力度，帮助组织用人单位和职业教育培训机构开展多种形式的技能岗位对接专项行动。三是建立培训资格准入工作机制。选择用工量大的一些行业优先推行准入制度。四是研究制定有利于技能人才培养的工资制度，特别是在工资指导线、养老金调整等方面要体现对技能人才的鼓励。五是强化实训基地建设。组织和充分利用社会各级各类培训资源，开展针对性强、多学科、多形式的职业培训，不断改进培训方式，强化培训管理。提升培训水平，推进素质就业。提高培训合格率和再就业率，按照规定落实再就业培训补贴政策。六是抓好在职职工技能培训，加大在职职工的鉴定力度，每年在职职工鉴定率不少于20%.提高职工素质，强化培训工作对就业的拉动作用。', '3、建立以项目拉动就业的机制，实现就业与经济的有效对接。一是开发就业岗位。实现经济持续健康快速发展和就业岗位增加的双重目标。大力发展就业容量大的产业、中小企业和非公经济，以与经济同样的增长速度创造更多的就业岗位。紧紧盯住本地经济增长点，围绕矿业经济、农业产业化、文化旅游产业促进就业，做到经济增长点在哪里，就业工作的着力点就放到哪里，再就业扶持政策就兑现到哪里。二是建立起劳动保障与工商、税务、发改等部门的协调联动机制，凡是新开工、新登记的企业，在立项、工商和税务登记时要首先签订用工培训协议，开业后立即安排就业，促进经济就业的紧密结合。三是加大再就业资金项目招标工作力度，使招投标项目总量和安置职工数有大幅度增长。招标项目占新安置下岗职工的人数不少于1/3，全年支持30个项目安置下岗失业职工2500人以上。同时要就业项目招标资金使用情况进行检查和评估。', '4、发挥就业政策导向机制，全面落实再就业优惠政策。一是建立和完善就业目标责制，建立起经济增长与扩大就业同考核的机制，在新上项目时不仅要充分考虑技术进步、GDP、财政收入增长，必须把就业作为新上项目评估的主要指标。二是改进下拨资金与工作实效相挂钩的办法，建立资金拨付、使用和管理新机制。从今年起，省厅将按照“五个结合”原则加强就业再就业资金的使用管理，我市也要制定相应的计划和办法，建立“以奖代补”机制，加强资金使用管理考核评估，实现资金拨付使用与工作激励相结合。各县区都要制定年度就业再就业任务目标和资金保障计划，明细到各类人员和各类补贴政策，提高资金使用效率。三是落实各种再就业优惠政策。重点是灵活就业人员社保补贴、培训补贴、小额贷款、就业困难对象特别是零就业家庭就业援助等方面的政策。四是实施产业引导就业政策，制定实施积极的就业政策，鼓励发展劳动力密集型产业、第三产业就业。要进一步落实推动鼓励中小企业发展的各项政策措施，在税收、人员培训等方面加大扶持力度。', '5、开发公益性岗位，创建比较充分就业社区，建立起就业困难群体的托底机制。一是围绕公共管理服务、社区便民利民、公共有偿服务包括物业管理、医疗服务开发岗位。双桥区在这方面要有实质性突破。二是继续实施和扩大绿色就业。三是结合开发旅游商务、产品就业开发公益岗位。四是加强对零就业家庭的帮扶力度，确保动态消除零就业家庭。今年要建立零就业家庭档案，并采取有针对性帮扶措施，确保有就业能力和就业愿望的至少一人上岗。', '6、继续做大做强劳务经济，促进农村劳动力转移就业。深入推行“培训、就业、维权”三位一体工作模式，在外务工总量达到50万人。一是抓培训。继续实施城乡劳动力素质提升工程，抓特色、树品牌、建基地，做好劳动力转移培训“阳光工程”。二是抓就业。继续开展劳务推介活动，实行有组织输出。加强区域间劳务协作，评选推荐信得过民办职业介绍机构，帮助农村劳动力实现转移就业。三是抓维权。开展“春风行动”,完善农民工就业服务，发布输入城市企业民工需求信息，对本地职业中介机构进行检查;实施“平安计划”，将新开工的建筑、矿山、高危行业从业人员全部纳入工伤保险；落实农民工工作协调机制。按照《关于解决农民工问题的实施意见》，农民工工作联席会议；加大执法力度，建立农民工维权长效机制。发挥工资保障金制度和劳动保障监察协管员的作用，实行划片巡查，使拖欠农民工工资问题大幅下降。四是抓协调。建立培训就业联动机制。利用在京工会联合会帮助维护外出务工人员合法权益。', '7、建立就业服务体制机制，改善就业环境。一是强化就业服务体系建设。强化劳动力市场运行效率，强化四个平台。二是开展就业服务专项活动。组织好再就业援助月、民营企业招聘周和大中专技校毕业生就业服务周、就业新起点活动等公共就业服务等专项活动，为农民工、下岗失业人员、高校毕业生搞专场招聘会。开展技能鉴定“进校园”和“进高墙”活动，在大学生毕业前进行技能鉴定，为服刑人员等特殊群体开展培训和技能鉴定等就业服务。开展劳动力市场执法检查，规范职介行为。三是搞好免费职业介绍活动，做好职业介绍补贴申领工作。四是继续实施比较充分就业社区工程，做好比较充分就业社区达标工作，对充分就业社区进行评选表彰。', '（二）推进社会保险扩面工作，使社会保险惠及更多的劳动者。以落实国发38号、冀政67号文件和我市《关于进一步扩大社会保险覆盖面的意见》为核心，按照“十一五”规划每年保持参保人数净增长6%以上的目标，以让每一个有能力参保的人员都能享有社会保障、让应该参保的企业全部参保为目标，启动实施社会保险扩面行动，把民营企业、城镇个体工商户和灵活就业人员作为扩面重点。一是加大宣传力度，形成社会氛围。二是加大执法力度营造法律氛围。建立劳动保障、工商、税务等部门之间的信息互通平台和联合执法机制。对拒不履行参保缴费义务的企业，依法加大处罚力度。三是强化行政手段。建立基本养老保险扩面增收工作绩效与经费保障和拨付资金挂钩制度。扩面任务完不成的县区，不予调剂养老金。继续实行评优评选否决制度，落实推选人大、政协和党代表社会保险审查制度。对不参加社会保险、不依法缴纳社会保险费的企业经营者和管理者不能评为先进，不能推选为人大代表、政协要员和党代表。四是实行目标责任制和激励约束机制。实行政府目标责任考核制度，强化目标责任分解，建立扩面责任追究制，确保扩面工作的顺利开展。', '（三）进一步完善各项社会保险制度。一是发挥养老保险政策在二次分配、体现公平中的杠杆作用。实施新的养老金计发办法，建立缴费年限、缴费多少与养老金待遇紧密挂钩的激励约束机制，体现缴费与待遇协调的公平公正性；加强基金征缴，督促用人单位履行参保缴费义务，增强基金支付能力，实现养老金应收尽收，职工群众应保尽保；继续推进做实个人账户工作；推行企业年金制度，建立多层次的养老保险体系。建立起与农村经济发展水平相适应的农村养老保险制度。继续做好企业退休人员养老金调整工作。按照国家养老金三年调整的部署，继2006年大幅度调整企业退休人员养老金后，今年还要对养老金进行调整，要做好工作预案，确保社会各界非常关注的调待工作顺利进行。机关事业保险要认真研究支付风险，尽快采取双基数等措施化解支付风险。二是进一步提高医疗保险待遇。开展城镇居民参加医疗保险的调研工作，探索解决城镇居民医疗保障问题；进一步提高缴费比例，提高医疗报销比例。做好灵活就业人员医疗保险管理工作。加大监督检查力度，研究新问题、新方法，进一步规范定点医疗机构的服务行为。三是以事业单位、民间非营利组织参保为突破口，做好工伤保险工作。出台实施办法，在全市全面启动事业单位、民间非营利组织参加工伤保险工作。扩大基金征缴力度，增强基金抗风险能力，保证工伤职工的救治。探讨道路施工企业参加工伤保险的办法。开展调研，年内出台使用人工器官和体内置放医用材料价格的办法。四是创新机制，充分发挥失业保险的保障生活与促进就业功能。完善扩面政策，把与用人单位签订劳动合同的农民工、有雇工的个体工商户全部纳入失业保险，力争参保人数比去年有较大突破；加大对促进就业的投入力度，引导企业富余人员和失业人员积极参加技能培训和求职就业；建立失业预警与失业调控机制，从失业的源头上进行必要的调控，减少失业人员的总量，稳定就业局势。', '（四）建立和谐劳动关系，依法维护劳动者合法权益。加大劳动工资、监察、仲裁手段，规范企业用工行为，城镇企业职工劳动合同签订率达85%以上，劳动争议仲裁结案率和劳动保障监察受理举报结案率均达95%以上。一是加强劳动合同管理。实施劳动合同三年行动计划。扎实推进创建和谐劳动关系工程。在城镇各类企业全面推行劳动合同制度，重点加强对非公有制企业劳动合同签订、履行的监督检查。积极推行集体合同制度，充分发挥劳动关系三方机制的协调作用。督促企业尤其是民营企业严格执行最低工资制度。进一步推进工资指导线、劳动力市场工资指导价位制度建设。建立劳动保障诚信制度。推进“劳动关系和谐企业”创建活动。二是加强劳动争议处理。继续加强劳动争议预防和调解体系建设，建立仲裁调解联动机制，积极预防和妥善处理劳动保障工作中的热点难点问题，重点做好集体劳动争议处理工作。进一步改进办案方式，简易案件，做到快审快结，重大案件实行会审。三是加大劳动保障监察执法力度。全面贯彻落实《劳动保障监察条例》，加强劳动保障监察机构队伍建设，加大执法力度，重点对签订劳动合同、社会保险参保缴费、农民工工资支付、非法使用童工和劳动力市场秩序规范情况开展专项检查，做好举报投诉案件的查处。针对全市建筑、矿山企业及劳动密集型企业，组织一次大规模异地集中执法检查，督促企业依法签订及履行劳动合同，维护广大农民工的合法权益。四是加强信访工作。继续坚持重大信访事项挂账督办制度，及时处理群众反映的问题。完善对不稳定因素的排查、统计、重大情况上报和处理制度，试办信访代办员制度，积极稳妥处理群体性、突发性事件。', '今年社会保障资金是全国审计的重点，各级各部门要高度重视，搞好自查，发现问题及时纠正和解决。为管好百姓的“养命钱”，确保社保基金安全运行，一是加强制度建设，依法进行监督。制定基金监督一系列规范性文件，规范基金管理使用权限、收入支付程序等。各项社保基金实行逐级审批制度，按资金支出性质和限额规定审批人，形成制度管人、管事、管权、管钱。二是加强协调配合，形成以劳动保障行政监督为主导，财政、审计等相关部门协同监管的工作机制。三是加强反欺诈工作，实施社保基金全方位监督。为有效遏制各种欺诈现象，根据各险种特点采取不同方式的反欺诈措施，实施全方位、全过程监督，建立内部监督监控机制。经办机构内部形成基金监督的连环扣，在每一环节进行审核把关，严格控制基金出入口。四是加强网络信息建设，完善基金监督手段。适应社保基金规模逐年扩大的要求，充分利用信息网络技术，使用远程财务管理软件，建立非现场监督系统，提高基金监督工作的效率和质量。五是加强队伍建设，提高基金监督水平。建议各县都要成立财务审计机构，加强资金管理。建立一支业务精、能力强的专兼职监督队伍，不断提高监管人员素质，确保工作规范化。', '（六）加强机关建设，提升劳动保障管理服务水平。在工作方法上，研究工作联动机制，建立社会保险缴费基数的统一机制，通过体制、机制建设，推进劳动保障工作更好更快发展。继续实行重大问题调研制度。2007年重点对农村养老保险制度建设、社会化管理、社会保障基金的运行机制和监督问题、落实最低工资等方面进行调研，提出建议，逐步解决。落实《形象建设规范》，继续开展换位思考和百姓阳光服务活动，加强机关效能建设。继续学好劳动保障两本书。进一步强化服务意识，改进服务方式，提高服务水平，不断加强和改进机关作风建设。加强机关党风廉政建设和反腐败工作。按照建立健全教育、制度、监督并重的惩治和预防腐败体系的要求，在进一步加强制度建设和加大监督力度的同时，建立良性机制，深入开展反腐倡廉教育。认真探索反腐倡廉教育规律，使教育贴近党员干部的思想和工作实际，建立并落实全员廉政教育培训制度，认真执行党风廉政建设责任制。进一步完善社会保障信息化建设。建立进一步加强金保工程建设，完善劳动保障网站建设，更新设备，整合资源，完善市级数据中心，建立市级“12333”电话咨询服务系统。', '加大社会保障宣传力度，充分利用各种宣传手段、各种宣传媒体、各种宣传途径，组织开展专项活动，大力宣传党和政府就业和劳动保障政策，要在宣传的形式和内容上下功夫，扩大宣传范围，提高宣传质量和效果。', '同志们，做好今年的劳动保障工作，任务艰巨，责任重大。我们要认真贯彻落实市委、市政府的重大决策部署，创新管理、竞争超越、换位为民、廉洁高效，以全面完成和超额完成工作目标的新业绩，迎接党的十七大的胜利召开！']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>10</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>承德市气象局年工作总结及年工作重点</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9941_224712.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_224712</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['2005年我局认真贯彻落实全省气象局长会议精神和市委、市政府工作部署，紧紧围绕省局十项主要任务的落实，树立“三大理念”，推进“三大战略”，提高“五个方面能力”，加强“三个方面建设”，全年工作完成良好。2005年是“十五”的最后一年，认真总结“十五”期间主要成绩、经验和不足，必将为做好“十一五”工作奠定坚实基础。', '保持气象测报业务稳定运行。认真组织地面测报新版软件应用和自动气象站单轨运行培训；开展全市气象测报业务自查，接受全省联查；召开测报组长工作会议，认真研究联查意见，制定整改措施；落实测报奖惩制度，兑现奖励规定；加强测报器材装备供应和维护，保证设备正常运转；隆化县局被省局评为地面气象测报先进单位；测报质量稳定提高。全年测报质量0.1‰，较同期错情率减少0.1‰，报表质量错情11个，比上年减少3个，农气质量0.0‰，通过省局验收250班16个、百班18个，无重大差错。', '新一代天气雷达选址工作进展顺利。省局领导和有关专家多次实地考察，两次电磁环境测试，及时进行频率协调论证，在多点遴选基础上，市区佟山沙子梁顶得到认可，省发改委及省气象局下达了建设计划，目前正在与规划部门沟通，纳入佟山公园规划，争取文物、环保相关部门支持，在保证雷达站建设标准的前提下，与保护历史文化遗产和自然景观相协调，把雷达站建设与气象科普园区融为一体，争取尽快进入土建施工阶段。', '加强气象科研开发。健全组织领导，完善奖励制度，落实科技发展基金。积极向省局申报了《承德市防灾减灾决策服务系统》和《承德市气象科技服务平台》两个项目，本局设立了《森林火险等级预报研究》、《承德市地质灾害等级预报系统》等课题；谋划了新一代天气雷达、“首水”人影、加密自动气象站、县局（站）综改等带动承德气象事业发展的项目9个；承担了政府投资3万元的加密自动气象（雨量）站实时雨情信息资料共享平台开发课题；积极培训应用县局气象综合服务系统。', '努力实施人才战略。今年接收7名本科生，目前已有80%的县局有全日制本科生；积极开展各类人员的岗位培训，170多人次参加了本局组织的人影、防雷、放球、自动气象站、观测组长培训，30多人次参加省内外各类培训和学习考察；鼓励在职人员学历教育，支持行政执法人员的法律专业学习，今年在职本、专科毕业7名，在学本科22名，专科6名，在职研究生课程班1名，新入学7名。', '市政府颁布防雷减灾规范文件。召开保持共产党员先进性暨贯彻落实防雷法规征求意见座谈会，听取市人大、政协、政府法制办、安监局等10多个领导机关和部门提出的意见和建议，报请市政府颁布了《承德市防雷减灾管理规定》，此规定从建设单位到建设行政主管部门备案、开工许可、竣工验收、档案归档四个环节要求履行防雷管理规定，纳入建设行政主管部门建筑审批流程。落实行政许可。全市防雷工程设计审核许可100多个，竣工验收许可80多个。', '加强法制培训和宣传。加强了人影、防雷、放球、车辆交通等工作的安全管理，相关人员进行了资格培训，颁发了资格证书，行政执法人员接受了《依法行政实施纲要》的培训；按时进行了执法证件和罚没许可证的年检备案，聘请了法律顾问；开展了纪念《中华人民共和国气象法》颁布5周年活动，市人大对各县政府贯彻落实“一法一办法”情况，下发了《关于气象法执法检查情况报告》；在日报、晚报刊发了《全面贯彻〈气象法〉，我市初步建立气象灾害立体防御体系》等宣传文章8篇；全市气象部门利用“3.23”世界气象日、安全生产月、“12.4”法制宣传日活动，发放宣传单2万多份；“四五”普法验收得到好评。', '继续做好人影工作。一是强化管理，召开了全市人影工作会议，举办了从业人员培训班，下发了资格证；二是对防雹高炮、增雨火箭架等设备进行了年检和维护保养，对炮点、炮库、弹药库安全工作进行了检查；三是科学组织作业，由于上半年雨水较常年偏多，增雨作业较往年偏少，全年作业18次过程，作业61点次，发射火箭弹171枚、炮弹66发，测算累计增水9000万立方米；四是继续执行协议，为北京密云水库和潘家口水库蓄水火箭增雨作业；五是“首水”人影项目又经海委申报，通过了新一轮专家可研论证，待批。', '全力建设加密自动气象（雨量）站。经两年来的积极争取，得到市政府的支持，投入115万元建设自动雨量站，市、县局科学布点，现场培训，精心施工，115个站点于7月上旬安装完毕，在盛汛期的服务中，特别是在8月12日大暴雨局部特大暴雨的预报预警服务中发挥了重要作用，得到主管领导和有关部门的好评，为全市的防汛抗旱减灾打下坚实基础。', '认真为“三农”服务。积极推广精细农业气候区划；围场等县局为当地风力发电、风力提水等风能资源利用提供了气象依据；市、县局通过《农业气象信息》、气象小报配合当地特色产业提供了针对性的气象信息服务。', '地方资金投入有增加。积极主动落实冀政办[2005]5号文件精神，市县两级共落实各种地方性资金330多万元，其中市局本级落实地方气象事业费110万元，比去年增长82%，人影经费20万元，加密自动站专款15万元；县局落实地方资金71万元，加密自动气象（雨量）站专款120.5万元；市局及部分县局人员津补贴、医疗保险得到落实，资金到位情况也好于往年。', '精心谋划综合改善。结合新一代天气雷达建设，谋划了围场、滦平、承德县局的迁站综改，滦平局迁址方案得到实施，于10月1日开工建设，楼房基础工程已经完工。承德县局已与开发商签订了换址协议，待省局审批，隆化、兴隆局也着手了补充综改的计划报批，平泉局彻底完成了补充综改后续工作和环境改善任务。', '优美环境建设也得到巩固提高。市、县局绿化面积达到2.8万m2，绿化覆盖率67%，栽植乔木890株，灌木草坪1.9万m2，2005年新栽乔木280株，成活率88%，新栽植灌木草坪2760m2，绿化投入近5万元，市局机关被双桥区政府评为“绿色机关”。今年是创建优美环境3年计划的最后一年，9个创建单位7个达标（另2个有迁站综改任务），3个创建先进单位，5个市级园林式单位，4个被评为市级绿色机关。隆化局为省级园林式单位，今年又通过省级绿色机关的申报。', '县局力量得到充实。部分县局班子和人员力量得到加强，对滦平、宽城、围场3个县局正职考察任命，为隆化、滦平局配备了副职；以局务公开为重点的制度建设得到落实，行政权力公开透明运行工作在市、县局全面铺开，机关效能建设列上日程。围场、隆化县局被中国局评为全国气象系统政务公开先进单位。', '高标准完成先进性教育活动。市、县局作为第一批先进性教育单位，在当地党委的领导下，加强领导，精心组织，严格动作，周密安排，圆满完成了各项工作。全体党员100%受到了教育，明确了先进性具体要求，形成了批评与自我批评的风气，制定了整改方案；提出了6个方面27项整改措施，即推进“三大战略”，加快发展；以人为本，构建和谐单位；转变作风，提高效能；加强气象文化建设，推进三个文明协调发展；加强党的建设，保持先进性；加强领导班子建设，提高领导能力。着力在整章建制上下功夫，努力建设有章可循、依章管人、按章办事的运行机制，修订、完善、制定有关规定和办法15项。半年来，保持先进性教育成果得到巩固，长效机制在工作中得到体现。', '气象文化建设持续开展。“两室一网”建设方案正在得到实施，创建学习型单位做学习型职工的风气正在形成，传统教育、形势报告及时组织，因地制宜的文体活动积极开展，创建文明单位的目标更加明确，市县级文明单位称号得到保持，全方位宣传交流得到加强，全年共编发承德气象信息27期，先进性教育活动专刊16期，省局采用信息42篇，《中国气象报》上稿15篇，承德日报11篇、晚报14篇，《承德快报》3篇。', '党风廉政建设持之以恒。民主集中制的原则得到贯彻和执行，以局务公开为重点的各项制度得到坚持和落实，集体采购制度得到组织和实施，财务制度得到充实和完善，经济责任得到审计和检查，干部选拔制度得到规范和遵守。一年来，安全生产、后勤保障、老干部工作得到进一步重视和加强。', '（一）认真抓好业务技术体制改革。全国气象业务技术体制改革工作即将全面启动，认真学习中国局、河北省气象局《业务技术体制改革总体方案》，深入理解业务技术体制改革的重大意义，明确改革的指导思想、目标及重点，充分做好思想、技术等方面的准备，增强业务技术体制改革的自觉性。按照省局的总体安排，做好业务技术体制改革与原有业务工作的衔接，确保各项业务工作稳定运行。', '（三）大力抓紧重点项目建设。抓紧新一代天气雷达选址规划的协调和审批，做好雷达塔楼和控制中心建设有关事项的协调和基建设计等筹备工作，争取早日开工。同时做好市气象站基础设施改善工作。“首水”人影项目也有望得到审批，一旦被批准，按照项目要求，抓紧组织实施。', '（四）精心抓好县局迁站综改。一是抓好滦平局迁址办公楼基建施工质量的监督、检查、指导工作；二是建议省局尽快审批承德县局的迁站综改请示报告，以便尽快履行协议，组织建设施工；三是继续做好围场局的迁站与开发商置换谈判工作，一旦成熟，组织实施；四是抓紧兴隆、隆化县局补充综改报批工作；五是谋划好宽城局的站址迁移工作。', '（五）努力发展地方气象事业。随着业务技术体制改革，人影工作纳入气象基本业务，进一步规范人影工作，提高人工增雨作业效果，密切注意气候变化趋势，及时做好抗旱增水工作；认真解决好加密自动气象（雨量）站运行中的问题，加强维护保养，建立运行管理机制；全面落实冀政办[2005]5号文件精神，要在积极争取落实地方性津贴、补贴、医疗保险等资金的同时，在防雷三项职能、人影等工作方面做出新成绩。', '（六）全力推动气象法规落实。认真落实气象法律法规和行政许可法，依法发展气象事业，依法发展科技服务，依法管理气象工作；积极开展气象行政执法，敢于、善于制止社会违反气象法规行为；积极谋划、报请当地政府制定、发布人影、探测环境保护等规范性文件，加强气象工作；组织开展部门执法或联合执法。', '（七）巩固加强气象文化建设。要在“两室一网”硬件和思想工作软件两个大方面下功夫，提高气象文化建设水平；建学习型单位，做学习型职工，争创省级文明单位；加强机关效能建设，提质提速，扎实做好行政权力公开透明运行工作；加强党风廉政建设，兑现廉政承诺，唱响讲团结、树正气、求发展的主旋律。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>10</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>承德市人民政府办公室关于促进中小企业信用担保体系建设的实施意见</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9943_316025.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9943_316025</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['承德市人民政府 公告公示 承德市人民政府办公室关于促进中小企业信用担保体系建设的实施意见', '为推进全市中小企业持续、快速、健康发展，依据《中华人民共和国中小企业促进法》（以下简称《中小企业促进法》）的规定和承德市人民政府《关于加强中小企业社会化服务体系建设的意见》，结合我市实际，提出促进全市中小企业信用担保体系建设的实施意见。', '中小企业在推动国民经济增长、优化经济结构、促进市场繁荣、缓解就业压力、增加财政收入、保持社会稳定等方面发挥着重要的作用，但是融资难一直是制约中小企业发展的“瓶颈”。目前我市信用担保体系建设滞后，信用担保机构少、资本金规模小、服务范围窄、服务水平低的问题比较突出，已严重影响中小企业的健康发展。因此，要进一步提高认识，认真贯彻实施《中小企业促进法》，把中小企业信用担保体系建设作为社会化服务体系建设的突破口，按照省政府的统一部署，结合我市实际，围绕中小', '企业发展需求，整合社会资源，落实政府资金，尽快建立起政府主导的、社会各方面参与的中小企业信用担保体系。', '全市中小企业信用担保体系建设的总体思路：强化政府服务意识，树立全局观念，整合社会资源，拓展服务领域，规范服务行为，为中小企业持续快速发展提供优质的融资服务。', '全市中小企业信用担保体系建设的基本原则：政府资金为主导，积极吸引市外资金和社会民间资金。', '全市中小企业信用担保体系建设的总体目标：用两年的时间，基本建立起较为完善的全市中小企业信用担保体系，信用担保资金达到1亿元，形成5亿元的贷款担保能力。到2004年底，全市各县区（含开发区）均建立起担保机构，担保资金达到5000万元，其中：市级担保资金2500万元，县区担保资金达到2500万元；到2005年底，全市中小企业信用担保体系基本建立，担保资金达到1亿元，其中：市级担保资金5000万元，县区担保资金达到5000万元。', '全市中小企业信用担保体系建设的基本框架：全市中小企业信用担保体系由市、县区（含开发区）两个行政层次构成，以政府出资设立的担保机构为主体，企业互助性担保机构和商业性担保机构为两翼覆盖全市的中小企业信用担保服务网络。县区中小企业信用担保机构的组建形式：财政出资的信用担保机构；财政及社会、企业合资的担保机构；市级信用担保机构的分支机构。', '关于市县（区）两级政府财政出资的担保机构建设问题，鉴于部分县（区）政府财政状况较为紧张的实际，单独出资建立担保机构难度较大，或即便建立了担保机构，如果出资太小，业务难于开展，也很难享受国家、省的优惠政策。因此，本着自愿的原则，可以采取市县区联办的形式进行建设，即以承德市中小企业担保服务中心为主体，国家第一批担保试点，享受国家免税政策单位，县区担保机构为分支的形式，逐步构建起政府出资进行担保机构建设的基本骨架，形成担保规模可以共同争取国家、省的优惠政策的支持。', '（一）加强领导，建立组织。市成立由中小企业局、财政局、金融办、工商局等部门组成承德市中小企业信用担保体系建设协调委员会，负责研究制定全市中小企业信用担保体系建设的发展规划，协调解决信用担保体系建设中的重大问题，对担保机构的设立、运营实施指导、监管，协调委员会办公室设在市中小企业局。各县区可根据当地情况建立相应的工作机构。', '（二）拓宽担保资金的筹措渠道。全市中小企业信用担保资金的筹措渠道主要有：争取的上级支持资金，财政预算编列的资金，划拨的土地使用权，经营性及非经营性国有资产，财政可调剂的“间歇”资金，国有资产收益，民营企业、自然人等社会民间资金及接受的各类委托资金等。为拓宽担保资金的筹措渠道要放宽市场准入条件，鼓励社会资金投资设立担保机构。对于民间投资设立担保机构的，经同级中小企业主管部门审核后，对于符合法律法规规定的设立条件，工商企业登记部门要积极给予办理登记手续。社会资金设立的担保机构，享受政府出资设立担保机构的同等待遇。', '（三）落实财税支持政策。对申请加入全国中小企业信用担保体系试点的各类担保机构，按照国家有关部门规定，经市、省中小企业局审核，报请国家发改委批准，可享受免征3年营业税政策。按照《财政部关于加强地方财政部门对中小企业信用担保机构财务管理和政策支持若干问题的通知》要求，对符合条件的担保机构发生的代偿损失给予限率补偿支持。', '（四）搞好与各金融机构的协作。担保机构与各金融机构实行风险共担，金融机构要按比例承担一定的代偿损失责任，支持信用担保机构的发展。按照国家有关信用担保资金可放大到3-10倍使用的规定，尽可能放大担保资金的使用规模。', '（五）防控风险，确保担保资金安全高效使用。各级要制定严格的担保资金使用管理办法，规范担保业务操作程序。各类担保机构要设立监管会和担保贷款审查委员会，负责对担保资金使用的监督和对担保项目进行审查。要实施反担保措施，受保企业必须以合法有效的资产抵押或质押。对发生代偿或到期没有偿还的贷款，担保机构和合作银行要积极配合进行追偿。各类担保机构都要建立风险准备金，用于冲抵经营性亏损、代偿损失和呆坏账损失。', '（六）加强对信用担保机构的服务与监督管理。要明确负责日常监管工作的部门，安排专人负责，实行专人专管，规定业务范围，对担保企业的条件以及担保品种、担保期限等做出规定，提供专业指导服务。通过开展专业培训、举办经验交流会、组织学习考察等活动，不断提高担保机构的运营管理水平。要经常举办由担保机构、银行和企业参加的项目推介活动，促进担保融资业务的开展。规范信用担保资金的管理，对担保资金实行专户管理，严格监督使用。坚持逐级定期报告制度，各县区每月要向市中小企业局上报担保机构设立和资金到位情况，担保机构每月向市中小企业局上报财务会计报告和担保业务统计报告。']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>10</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>承德市畜牧水产局年绿色增收工程工作总结</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9941_219032.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_219032</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['在市委、市政府正确领导和上级有关部门的大力支持下，由科技站主抓，有关科、站配合的“绿色增收工程”圆满完成了计划任务。经过广大科技人员的共同努力，紧紧围绕科技兴市、科技兴牧这个中心，抓科技培训、科技示范，以发展高产、高效、优质畜禽品种和推广适用技术为重点，旨在提高农民素质，提高养殖业科技含量，提高畜牧水产业经济效益，取得了可喜的成果。', '1、加强领导。我局对市政府的“绿色增收工程”及开展的“农业科技进十万户专项活动”非常重视，成立专门领导小组，由局长张玉华担任组长，总工武宝成为副组长，各科站长为成员，办公室设在科技站，由工作经验丰富技术水平高的同志主抓此项工作。年初将任务进行双重分解，分解到各有关科、站和各县区，分别列入年终工作考核，各县区也相应成立了专门组织，做到日常工作有人抓，遇到问题能及时解决。', '2、充分发挥科技人员的作用。为充分发挥广大科技人员的主力军作用，我局出台了科技人员联系养殖户制度，要求每位中级以上专业职称的科技人员在调查研究的基础上，结合自己的专业特长，帮助一户农户发展畜牧水产养殖业，帮扶养殖户的情况直接与科技人员的职称评聘相结合；各县区、乡、镇也都抽调精干力量，在养殖的关键时期，深入农户开展技术服务，为养殖户进行技术培训，发放技术资料，现场指导，进行信息、销售等全方位服务。全年共有1354名科技人员进入42748户，举办各类培训班485期，印发技术资料12000余份，发放养殖技术明白纸30000余份。', '3、抓养殖小区建设：小区建设是实现规范化、无公害化、科学化、高效化养殖的基础。2006年共建养殖小区40个，通过扶持、引导等使养殖户树立新观念，养殖业向更高层次发展。', '4、抓好龙头企业、协会等各项服务组织建设，为广大养殖户服务，全市现有龙头企业47个，本年度新认定18个，农民协会72个，科教传播站12个，为全市畜牧水产业的发展起到了很好的带动作用。围场宏远公司2006年投放鸡雏160万只，现已屠宰加工100万只，带动了24个乡镇，90个村，550户发展养鸡业，养殖户每只鸡饲养56天，至少可获利润2元。承德县着力打造牧兴养殖服务中心，一方面争取北京大发正大公司的优惠政策，另一方面充分发挥业务主管局的作用，一是必须由技术人才包基地，二是抽农牧局技术尖子搞培训，提高养殖户的科学养殖素质，实行“六到户”服务，即建舍选址到户，房舍改造设备安装到户，雏鸡运输到户，饲料运输到户，技术指导到户，鸡只出栏到户。有力地推动了全县肉鸡业的发展。仅承德县饲养户高达670户，肉鸡出栏805万只，为农民增加收入1200万元。', '5、引入新项目、新技术、新品种。不断引入新技术、新品种是加快畜牧水产业发展，适应市场形势的需要。通过引入杜泊羊、无角道赛特羊、萨福特羊、兰德瑞斯羊，高产荷斯坦牛及精液等新品种，全市的畜牧水产业迅速发展。2006年共引新品种17个，引入肉鸡玻璃钢鸡舍配套设施，奶牛性控冻精冷配，蝇蛆养鸡新技术，无公害肉牛生产技术，大北农科学养猪等10项新技术。', '1、资金缺乏，科技推广后劲不足，科技人员学习考察新技术，试验、示范新技术都非常困难，这些严重影响科技推广的力度和速度，也影响科技工作者的积极性。', '2、畜产品加工企业比较落后，还没有完全的、真正的与农民形成统一的利益共同体，带动能力弱。', '3、标准化生产还刚刚起步，有许多生产技术、检测手段、销售渠道还没有完善，还没有真正形成名牌产品。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>10</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>承德市劳动保障局抓学教抓制度抓督查行风评比名列市直部门第一名</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9944_192271.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9944_192271</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['承德市人民政府 工作部署 承德市劳动保障局抓学教、抓制度、抓督查行风评比名列市直部门第一名', '在2006年承德市纪委、市纠风办组织的行风评比中，市劳动保障局名列市直经济管理部门第一名。他们的主要做法：', '坚持以学习教育为先导，把“勿以小事而不为，助民乐民总关情”作为全局广大干部职工的座右铭，培树了“创新管理、争优超越、换位为民、廉洁高效”的机关文化理念。一是多措并举，提高综合素质。以巩固党员先进性教育成果为切入点，在开展学党章、知荣辱和廉政文化进机关活动提高广大干部职工思想政治素质的同时，注重提高业务素质和实际工作能力。通过举办专题讲座、要求每年每名职工撰写一篇有份量的调研文章、学好两本书（社会保障学、劳动法与社会保障法学）、实行外出学习考察提交考察报告制度和素质达标考试等具体措施，提高综合素质。二是突出重点，抓好中层。注意在“选、育、管、用”等环节上下功夫。运用竞争机制，选用优秀年轻科级干部，改善了干部队伍结构，增强了活力。对中层干部始终坚持高标准、严要求、严管理。每月举办一期科长论坛，每半年听取一次科长述职、述廉，每年进行一次全面考核，积极推进干部交流，实行廉政建设一票否决制，以严管提素质，转作风。对中层干部既明责任、压担子，又放手授权，鼓励他们大胆工作，从而充分发挥了中层干部的承上启下作用。三是以活动为载体，强化宗旨意识。连续四年以“假如我是求职者、假如我是下岗职工、假如我是失业者、假如我是离退休人员，视同办事人员为亲人”等为题，开展换位思考大讨论，感受服务对象心态，真心实意地做好本职工作，认真对待每个人、每件事。做到了劳动就业“真情相助”，社会保险“有情操作”，执法监察“情系维权”。开展了以提高行政能力为主题的百姓阳光服务活动，以解决热点难点问题为着眼点的“换位思考、阳光执政、务实为民”活动，收到实效。承德绿色就业模式被《半月谈》专题刊发，《河北日报》头版进行了专题报道；承德市实施的“再就业资金项目招投标”制度，被《人民日报》等多家媒体进行了报道；社会保险局从改进对账单这样的小事做起，被评为全国优质文明服务窗口；机关事业保险中心工作人员主动学习“哑语”，用特殊方式与聋哑服务对象交流等，方便了群众，得到了广大服务对象的称赞。', '一是加强内控体系建设，提高行政效率。按照规范高效、监督到位原则，相继建立完善了24项内部管理制度，建立了新的权力永续公开制和旧的权力淘汰公示制，从劳动保障整体形象、外在形象、工作形象、工作人员行为、社会公德、健康、责任等六个方面制定了具体的形象建设规范，要求广大干部职工认真遵照执行。实行了首问导服制、限时办结制、责任追究制、AB岗位互补制、一次告知制等制度。二是改进重大事项审批制度，实现公开公正。对工伤医疗费用报销、社会保险续保减免滞纳金、接续工龄、提前退休等16项涉及群众切身利益的敏感业务，以及大额资金使用、重大活动的审批决策，建立了初审、复审和联席会议制度。三是完善信访工作机制，扎实做好信访工作。坚持各科室信访值周和局领导接访制度，深入开展矛盾纠纷排调活动，及时化解矛盾纠纷。坚持以情暖访、以细为主、以理服人。今年信访事项同比下降39%，该局的信访工作分别被市委市政府和省劳动保障厅评为优秀单位。四是建立政务公开工作机制，打造阳光劳动保障。结合推进行政权力公开透明运行工作，进一步加大政务公开力度。他们以勇于自我革命的精神，本着不怕丢权、不留死角、不留后手原则，以便民、利民为着眼点，对所有行政权力进行了逐项清理，并主动将事业单位的服务职能也作为公开内容，共清理出对外事项124项，均通过多种方式主动向社会公开。劳动保障阳光作业保证了百姓的知情权、参与权、监督权，在政府与群众之间，拆除了“隔离墙”， 架起了“连心桥”。', '一是建立督查督办制度。实行了工作进度月报制、工作情况通报制，重点工作督导制、重要工作调度制，连续三年请市委、市政府督查室牵头，对各县区工作完成和政策落实情况进行督查，促进了各项工作的落实。二是完善监督考核机制。采取定时督查、随机检查和暗访相结合的方式，加大对各科室、各单位的监督检查力度，并把检查结果作为年度考核的重要内容。把“基金零违纪”纳入目标考核，把“私设小金库”作为科长的免职指标。收到了激励先进、触动平庸、鞭策后进的效果。三是把“回头看”坚持经常化。组织全局各科室单位围绕办事制度公开落实情况等14项内容进行全面“回头看”，检查工作中存在的问题。并组成检查组，对全局各单位进行了全面检查。向广大服务对象发放7000份测评表，对全局各科室、单位的工作进行了满意度测评，各科室满意度都在92%以上，大部分达到了96%以上。', '一是培育了处处为百姓着想的服务意识。坚持事关百姓不论大小皆去做。如办理退休的保险科原来与局在一个办公楼，为方便群众办保险，将保险科与保险局搬在一起，搬一起后又发现，办退休证需盖局的钢印，为方便群众，专为保险科刻制了一枚退休审批专用钢印，解决了办理退休职工往返于两个办公楼加盖公章的麻烦，得到办事人员好评。二是激发了事事争先创优的工作热情。用激励机制鼓励争先创优，奖勤罚懒，有力地激发了广大干部职工干事、创业的积极性。对去年在全国、全省有创新性的18个方面工作进行了奖励。三是形成了时时解决热点难点问题的工作导向。承德劳动保障局始终把解决热点难点问题作为重要工作内容，作为衡量科室、单位工作水平的重要参考，坚持长期抓，抓长期，形成了良好的工作导向。近几年来，从实际出发，突出解决了破产改制企业提前退休、灵活就业人员和困难企业职工参加保险等32个方面的问题。加大拖欠农民工工资治理力度，2006年5月1日晚8点，62名来自四川省大凉山彝族自治州的彝族农民工来到市劳动保障局投诉，反映承德市某电网集团公司拖欠62人工资7万多元。工作人员接到通知后立即赶赴现场，对拖欠工资事项进行调查，一直工作到次日凌晨，使这起群体投诉得到了圆满解决，维护了社会的稳定，办事的高效率得到了当事人的称赞。', '政风行风建设有力推动了劳动保障事业的健康发展。几年来，承德市劳动保障局先后被国家劳动保障部评为全国劳动保障系统宣传工作先进单位；被省政府命名为全省依法行政示范单位；省纪委反腐败简报专刊连续两年刊登了该局行政权力公开透明运行的做法；被市委、市政府评为全市“机关效能建设和行政权力公开透明运行工作先进单位”。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>10</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>承德市人民政府办公室关于印发年工作总结的通知</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9943_218997.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9943_218997</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['现将《承德市人民政府办公室2007年工作总结》印发给你们，望继续发扬成绩，改进不足，认真做好明年工作。', '2007年，市政府办公室继续坚持“以素质保证质量、用制度规范行为、靠机制提高效率”的机关建设总体要求，继续在提高素质上下功夫，用良好的素质保证工作质量；继续在工作程序上下功夫，以科学的程序规范工作秩序；继续在服务标准上下功夫，以优质的服务当好助手；继续在工作效率上下功夫，用较高的效率保证工作快捷运行；继续在工作落实上下功夫，以严格的督导推进各项工作到位。紧密结合“学、转、办、促”、“和谐机关”创建、“解放思想大讨论”等一系列主题教育活动，以狠抓工作落实为主线，进一步强化机关作风建设，不断提升政务服务质量，确保了机关高效、协调运转。', '（一）提高参谋服务能力，坚持高水平谋事。一是加强政策研究，为领导决策提供超前性服务。围绕“建设沿海经济社会发展强省”目标，以找准上级政策与市情的有机结合为切入点，拓宽思路，开动脑筋，坚持想大问题，出大思路，大力实施政策性研究，全年共起草或修改《承德市2007年重要举措》、《承德市“百项工程”建设项目计划》等重大决策方案和规范性文件34个。二是搞好阶段性调研，为领导推动工作提供有价值信息。准确把握市政府及市政府领导对阶段性重点工作的关注层面，继续抓好阶段性调研，及时为领导推动重点工作提供高质量的参谋意见，参与制定专题工作方案 142个，组织专题调度会议125 次，撰写调研汇报70余篇，为领导提供有价值的信息489条，较好的完成了市领导赴县区和企业调研、市直各部门座谈会、“三市一盟”峰会、承德党政代表团赴“三省一市”学习考察等大型调研活动和专题会议的调研及组织协调工作。三是狠抓重点课题调研，为领导提供切可行的决策意见。对涉及全市经济社会发展全局性、战略性问题的重大课题开展深入系统的调研。确定了“我市装备制造业的产业基础、发展现状与振兴对策”、“关于我市做大做强智能化仪表产业的调研分析与对策建议”、“关于打造区域特色城市与发展大旅游产业一体化问题的调研与思考”等9个重点调研课题以及调研提纲，得到市政府主要领导的肯定和支持，目前全部调研课题已基本结束。阶段性调研进一步加强，编写、刊发“推进承德社会主义新农村建设的战略思考”、“对提升承德经济外向度的分析思考”等《专题调查》37期，其中“对我市城市化发展情况的分析”等3期专题调查得到市政府领导的重要批示，其中一篇被省委宣传部刊发。', '（二）提高协调督办能力，推动决策部署落实。一是进一步研究制定并实施督办落实工作新方法、新机制。通过社会征集渠道制定下发了《承德市2007年民心工程实施方案》、《关于推动民心工程和重点工作落实的督查方案》，继续协调新闻媒体介入政府重大决策落实情况的跟踪督查全过程，全年共刊发新闻稿件17篇、专题节目58期，专题评论17篇。开展重点工作督查、调度、实地督查73次，整理下发《政务督查》73期，《民心工程、重点工作、重大专项》20期。二是抓好会议议定事项的落实。对涉及全市经济发展的阶段性重点工作及市领导日常批办的工作，明确承办责任单位和办结时限，并及时向市领导反馈落实情况，做到了件件有着落、事事有回音。今年以来，督查室及各专业科室督办落实市政府常务会议、市长办公会议议定事项及市级以上领导批办件800余件，办结率达到100％。三是积极稳步推进人大代表建议、政协提案的办理工作。按照“突出重点、分口负责、创新方法、高质高效”的承办工作思路，及时将285件建议提案及时分解到各相关部门，并签定了承办工作责任书。严格落实周沟通月调度、下达督办卡等措施，采取双十现场会、分类管理、经验交流、聘请监督员、承办大户定期座谈等新的承办方法，省政府交办的建议提案年内全部高质量办结，建议提案主办件的解决问题比例、按时办结率、答复函规范化率、走访率及代表委员满意率均达到100％。市级建议提案承办工作得到市人大、市政协和人大代表、政协委员的充分肯定。我市再次被评为河北省政府系统承办人大代表建议、政协提案先进单位。四是进一步加大通过“市长公开电话”反映问题的督办落实力度。制定实施了《市长公开电话热点问题督办落实办法》，群众通过市长公开电话反映的各类热点问题均得到较好落实。上半年共接听市长公开电话7300个，落实反映的问题1000余件。编辑整理《受理情况报告单》251期、《热点问题报告》11期，《分析报告》11期，《拟办意见报告单》10期。', '（四）提高文字撰写能力，切实提高文字参谋水平。认真做好市政府各类文稿，特别是各种大型会议文稿的起草工作，进一步增强文字工作的主动性、超前性。在起草文稿过程中，强调务实，讲求高度和深度，做到了既注意学深学透上级文件、把握好上级政策的精神实质，又注意体现本市工作实际，把握思路，领会意图，努力使各类文稿在政策水平、思想高度、文字质量上有新的提高，“大综合”观念得到强化。全年共起草各类文字材料600余件，领导用稿率保持在99％以上。其中市政府工作报告、市政府全体会议、全市经济会议讲话、全省经济工作汇报、“三市一盟”演讲等领导讲话取得良好的社会反响。积极提供相关稿件，主动参与各大新闻媒体对市政府主要领导和全市重点工作进行的宣传报道工作，全年在国家级、省级新闻媒体播出稿件60余篇。其中《好字当先－温暖财政普惠民生》、《承德市节能减排》2篇稿件在中央电视台新闻联播和焦点访谈中播出，《承德确保受灾群众吃饭穿暖有房住》、《承德市开展四大专项整治行动》先后在人民日报头版和河北日报头版刊发。', '（二）继续加强电子政务建设。精心维护政府办公室内、外网隔离系统，确保其安全、平稳运行。全年解决各类计算机软件、硬件故障600多次。积极参与承德市公务外网建设整合，省政府配发的公务外网核心设备已安装调试完毕。电子公文交换系统实现了省市之间无纸质公文交换。对政府办公内网电子邮件、视频点播、资料文档、新闻发布等系统内容进行精心维护和完善，整理各类新闻2703条、100余万字，更新市政府及办公室公文150余件、90余万字。', '（三）严格遵守公文运转规程。继续加强对公文处理工作的审核把关工作，对重要文件、文稿、材料等要严格执行科长、主任、秘书长层层把关。严格履行文件登记、打印、分发、归档程序，做到登记清楚、校对无误、印制清晰、运转快捷、安全保密、归档及时。全年共办理上级各类公文2958份、制发文件974件、印制领导讲话、信息、简报等各类文字材料60多万份。传阅上级各类公文529份，办理电报390件，外投和收回各类文件30多万份。整理档案50多卷。', '（四）继续提高接待工作水平。树立“大接待”理念，坚持“从简、从细、从严”六字方针，严格把握接待原则，突出抓好每个环节，不断完善接待服务机制，接待工作质量得到有效提升。全年共接待来宾612批次、7120余人次，比去年增加了49％。其中省（部）级领导27人次，各类检查组22批次，参与郭省长来承调研、“一节两会”、“全国安全生产质量万里行”、“三市一盟”峰会、“山庄月?中华情”中秋晚会等重大接待活动7次。在政务接待上，严格规范工作来客来访报送审批程序，共接待各方面工作来访200余人次，转送会议通知90余件。在会务接待上，会务中心进一步发挥自身优势，取得了一定的业务关系。', '（五）进一步加大应急管理工作力度。召开全市应急管理工作会议，对全市应急管理工作进行了安排部署，11个县区全部建立了应急管理机构。建立完成了由29个专项预案组成的市级应急预案体系，相关预案已编辑成册，并建立了与之配套的应急管理专家库，目前已入库有关方面专家155名。进行各级、各类应急预案演练100余次，组织全市大型应急知识集中培训3次。应对突发事件，坚持做到反应及时、靠前指挥、妥当处置，配合市政府成功处理了“3.3全市雪灾”、“7.4双滦区居民饮用水中毒”、“7.25乾阳、7.23天宝假日酒店食物中毒”、“11.14承德县火灾”及“12.3兴隆县铁矿片帮事故”等突发事件，应急工作得到市领导的充分认可。', '（六）卓有成效的推进地方志工作。即将完成《承德市志》定稿工作，目前正在抓紧进行市志补充、核实和进一步完善工作。《承德办事指南》已修订完成并印刷。65万字的《承德农业志》已进行第二轮编纂。地方志工作得到省检查组的高度评价。', '（一）信访工作坚持强化责任、规范有序。规范信访渠道，理顺信访关系，严格归口办理，接待工作既坚持合法、合规，又做到合情、合理。杜绝矛盾上激，推托责任，认真处理好每一个群众来访、来电、来信，做到耐心、细致、诚恳，努力调整与群众的关系、理顺情绪、平衡心态、化解矛盾。一年来，协助领导、协调有关部门妥善处理群众来访400余批次、5800余人。', '（二）法制工作坚持服务大局、依法行政。法制工作坚持把服务中心，服务大局和内强素质，外树形象作为出发点和落实点，规范执法行为，提高依法行政能力，积极发挥法制工作的参谋助手和法律顾问作用。全年办理市政府各类规范性文件草案68件，办理市政府上报备案文件21件，审核各县区上报备案文件48件，办理省法规、规章草案征求意见32件。全年受理行政复议案件148件，维持141件，撤销7件，行政复议的经验作法在全国法制工作会议上进行了经验交流。进一步创新性开展工作，积积利用行政调解手段解决行政复议案件、上访问题，全年接待上访群众近千人次，受理行政执法投诉、举报案件26件，利用行政调解手段解决复议案件和上访问题的经验作法，得到上级有关部门的认可并推广。', '（三）审批工作坚持公开透明、高效快捷。围绕转变政府职能，优化经济发展环境，创新工作机制，加强监督管理，大力推进行政审批制度改革，召开了全市行政审批制度改革暨五表彰先进单位和先进个人大会，下发了《关于进一步加强行政审批制度改革工作的意见》、《关于规范行政审批服务中心管理的规定》。继续创新行政审批方式方法，规范行政审批行为，提高审批效率，实施了“并联审批”、代办服务、编印《服务指南》等措施，全年共受理各类审批事项23829件，办结23811件，办结率99.9％。全年受理各类咨询92035人次，群众满意率99％以上。行政审批工作的经验作法在第二届全国行政服务创新论坛上进行了经验交流，获得三等奖，并把我市推选为第三届全国行政服务创新论坛举办地。', '（四）仲裁工作坚持主动服务、客观公正。充分发挥仲裁化解矛盾、调节纠纷的职能作用，积极开展仲裁法律宣传和送法上门服务活动，全年办理仲裁案件59件、标的额1.3亿元。采取分组包户，重点指导，座谈培训等措施，加强与工商、司法等部门的协作配合，在矿山、建筑、房地产等重点行业推行仲裁法律制度，把仲裁工作融入市场经济之中。拓宽仲裁业务领域，帮助企业规范合同，预防合同纠纷，全年举办讲座23场，参加培训人员1693人次，编辑刊发了《仲裁指南》等书刊。坚持公平公正办案，进一步规范办案行为，狠抓办案质量，成功处理了露露房地产开发公司与32户居民房屋买卖纠纷和华峰房地产合同纠纷等案件。', '（一）以各项主题教育活动为契机，扎实推进机关作风建设。全面贯彻落实全市机关作风建设大会精神，扎实开展市委提出的“学讲话、转作风、办实事、促发展，向党的十七大献礼”主题教育活动和市委、市政府关于机关效能建设，行政权力公开透明运行工作的安排部署及市纪委、市直机关工委关于创建“和谐机关”的工作要求。对以上工作同安排、同部署，及时召开机关建设动员大会，制定下发《市政府办公室加强机关建设工作方案》，特别是在“落实科学发展观，实现承德新跨越”为主题的解放思想大讨论活动中，办公室继续强化组织领导，坚持思想上位，明确责任分工，结合十七大报告的学习贯彻，制定出台了具体活动方案，并认真督办落实，确保了大讨论活动第一阶段取得实效。在各项主题教育活动中，每位工作人员特别是党员干部积极参与，做表率，当模范，对照办公室主题教育活动确定的目标积极进行认真学习讨论，主动撰写学习笔记和心得体会，查摆工作中存在的问题，并制定整改措施，逐一进行了认真整改。', '（二）以各项业余活动为载体，激发昂扬向上的工作热情。进一步丰富职工业余文化生活，激发工作学习热情，与机关事务管理局联合制定下发了《关于进一步加强机关文化建设，定期举办书法、绘画、摄影优秀作品展活动实施方案》，成功举办了以“八方面良好风气”和“认真学习十七大报告，深入贯彻十七大精神”为主题的第一、二届书法、绘画、摄影优秀作品展。配合全民健身活动，组织全体职工进行迎奥运、庆“五一”拔河、划船比赛。加强廉政文化建设，组织全体党员干部观看了警示教育片《居安思危》、创建和谐机关专场演出。积极组织职工开展“为民、务实、清廉”主题征文活动，选送优秀文章10篇。组织开展了“走进农村、服务农民、办实事、解难题”活动，为所包贫困村捐献衣服1000余件，筹集5000元资金慰问贫困户8户、贫困学生8名、捐赠校服22套。', '（三）以狠抓制度落实为抓手，营造规范有序的工作环境。紧密结合 “五型”政府机关建设工作，以效能建设、狠抓各项规章制度的落实为抓手。进一步建立健全约束机制，对规范机关行为，提高服务意识，完善制度建设，明确工作责任，规范行政行为，改进工作作风，增强创新能力等方面做出明确规定，并明确时限，强化督查，逐一抓好落实，对不符合制度规定的人和事，严肃批评、予以通报，坚决杜绝松垮疲沓风气。要求办公室每位工作人员戴牌上岗，并明确科室卫生标准和着装标准，坚持对卫生情况和戴牌情况进行定期检查，做到及时通报。继续执行调研文章考核制度，组织了2006度调研文章评比工作。积极推进ISO9000标准质量管理体系贯标认证工作，制定了办公室总体质量手册和程序文件，各科室结合各自分管工作，制定了各自工作手册，初步通过了质量认证机构的检查验收。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>10</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>统筹兼顾协调推进努力提高党风廉政建设和反腐败工作水平</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9945_192458.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_192458</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['由于当前预防“非典”工作形势严峻，任务紧迫，所以市局决定对这次会议的形式做了一些调整，由集中开会改为网络下发会议材料，由各县区下载学习贯彻。会议材料比较多，以传达贯彻全省地税系统党风廉政建设会议和全市纪检监察工作会议精神，安排部署全系统的党风廉政建设和反腐败工作为主，又穿插了“以德治市”和“树、讲、求”教育活动的再动员和再部署等内容,还有四位同志分别从不同侧面做的典型发言。各单位要将有关会议材料及时下载向基层传达贯彻，并认真抓好落实。', '关于2003年整体工作安排，我们在年初召开的全市地税工作会议上已经作了全面部署。从前几个月运行情况看，各项工作都保持了良好的发展势头。但是，圆满完成全年各项工作任务还需要全体干部做出不懈努力。各级一定要按照市局要求，认真贯彻落实党的十六大精神，抓住机遇，团结一心，重点在事关全局的 四个方面取得突破，努力推动各项工作上水平。一是采取各种有效措施切实加强税费征管，确保完成全年税费任务。要加强重点税源和企业所得税税源管理，不断完善征管办法，继续加大税务稽查力度，全力清缴欠税。要认真做好社保费征收工作，不断完善缴费单位分类管理办法，确保申报入库率达到90%以上。二是认真贯彻落实《河北省地方税收业务工作规程》。结合新版软件的推广使用，抓好《规程》的学习、培训、推行和专项检查，确保新《规程》不折不扣地落实到位。三是积极稳妥地推进新一轮征管改革。全面推行税银联网，积极探索网上申报等加强征管的新办法、新措施。大力推进税收信息化建设，认真做好新版征管软件的推广应用，实现税收信息由分散处理到市级集中处理，并注意加强管理，充分利用信息资源。四是以提高干部队伍素质为重点，全面加强干部队伍建设。要加强干部的学习培训，重点抓好新征管法及其实施细则、税收业务工作规程、新版征管软件等知识的培训，努力创建全员学习的学习型队伍；认真贯彻新的《党政领导干部选拔任用工作条例》，不断深化干部人事制度改革，切实加强各级班子建设；继续抓好机关规范化管理和基层建设，大力推进机关、基层工作上水平。', '下面，我着重就党风廉政建设以及开展“树正气、讲团结、求发展”学习教育活动强调几点意见。', '当前的税收工作和干部队伍建设究竟面临一个什么样的形势，我们必须要清楚，搞不清这一点，我们的工作就会迷失方向，就会出问题，对此，我曾在不同场合给大家提示过。以胡锦涛为总书记的新一届党中央领导集体，对反腐败工作，对作风建设格外关注，高度重视。从到西柏坡视察并发表重要讲话到前不久召开的中纪委二次全会，如果大家稍加留意的话，都能看到中央的决心和力度。3月27日温家宝总理主持召开了国务院廉政工作会议，又向各级党员干部和全国人民表明了新一届政府在加强廉政建设，深化反腐败斗争，从严治官、从严治政方面的决心。温家宝总理在会上庄严承诺，新一届政府一定要在廉政上做表率，尤其在一些具体事项上，如治理大吃大喝、查办案件力度、从严治政等方面都提出了严格具体的要求。新任国家税务总局局长谢旭人在主持召开总局党组会时对严惩税务执法腐败讲得非常具体，要求通过思想教育、制度建设、执法监察、强化监督、查处案件，使大家做到“不愿为、不能为、不敢为”。要常刹廉政风、狠刹吃喝风。我讲这些的目的，就是让大家明白，现在的形势绝不同于以往，和每个人都息息相关，一定要增强敏感性。党风廉政建设和作风建设，从大的方面讲，是加强干部队伍建设，推动地税事业不断前进的重要保证；从小的方面说，它也是我们不断规范执法行为，提高执法水平的重要保证。一个搞“吃、拿、卡、要”的人不可能做到严格执法公正无私，一个搞以税谋私的人不可能做到应收尽收，一个搞权钱交易的人也不会做到选贤任能。所以说，加强党风廉政建设不仅是当前的重要任务，而且是永恒的话题。与党风廉政建设相联系的是作风建设。新一任省委班子上任伊始就结合河北实际提出了在全省开展“树正气、讲团结、求发展”学习教育活动，就是要通过学习教育，正官气、正民风，营造团结协作局面，共谋发展大计。去年是全市的转变作风年，连续两年开展了“以德治市”活动，这些与党风廉政建设还有精神文明创建工作一样都是政治文明和精神文明建设的重要方面，都是党风、政风建设的不同推进形式，我们在工作中必须将它们联系起来，统一起来，统筹安排，协调推进。', '任何工作要想取得成效，都必须在原有基础上不断开拓，不断创新。今年要以深入开展“以德治市”和“树、讲、求”学习教育活动为契机，扎实推进廉政建设和道德建设，进一步树立地税的文明形象。党的十六大提出了全面建设小康社会的目标，即相应提高全社会的文明水平，使人民群众不仅过上生活富裕，而且还要精神充实、环境适宜、个人全面发展的更高水平的小康生活。要实现这个目标，必须要有一个良好的经济发展环境和人文道德环境。地税机关作为重要的执法部门，自身的道德水准和文明素质直接关系到全市全面建设小康社会的大局。现在，不容忽视，我们在队伍建设方面仍然存在一些问题。这些问题苗书记都已经总结了，我不再多说。3月12日，市委书记赵文鹤在我局调研时曾经要求我们在搞好自身精神文明建设和公务员道德建设的基础上，要为促进全市道德风尚建设做出贡献。按照公民道德规范和公务员行为规范要求，按照市委领导的要求我们还有大量工作要做。因此，我们必须坚持不懈地高度重视“以德治市”工作，认真研究谋划加强思想道德建设，以德治队、以德带队的具体落实措施，为营造全市良好的社会、经济发展环境不断做出新贡献。', '各级要坚决落实好十五届六中全会提出的“八个坚持、八个反对”的要求，全面加强作风建设，使广大干部真正做到在任何时候任何情况下与人民群众同呼吸共命运的立场不能变，全心全意为人民服务的宗旨不能忘，坚信群众是真正的英雄的历史唯物主义观点不能丢。今后，各级机关作风建设的重点是要坚决反对哗众取宠、华而不实的形式主义、官僚主义，坚决反对贪图安逸、不思进取，坚决反对奢侈浪费，大力倡导艰苦朴素的作风，同时严肃党的纪律特别是政治纪律，确保政令畅通。基层作风建设的重点要在继续解决系统内容易发生的“吃、拿、卡、要、报”、乱收费、乱罚款、收人情税关系税、借占纳税人钱物，以及强行征订报刊、强行或制定税务代理等严重侵害群众利益问题的基础上，进一步坚持并落实好首问负责制、服务承诺制、限时办结制等各种特色文明服务措施，不断提高服务质量，提升执法水平。在这里，我要强调一点，今年市委决定继续在全市开展“树立行业新风、优化发展环境”的民主评议行风活动。在去年的行风评议过程中，社会上和纳税人反映了我们工作中存在的一些问题，市局都及时下发了通报，各级要针对这些问题，举一反三，认真整改，对本单位可能发生的不正之风问题进行彻底的清查。特别要对去年评议结果不理想，存在问题较多的单位进行深入解剖，分析原因，寻找差距。要加强队伍的职业道德建设，密切税企之间的关系。要严格履行向社会所作的承诺，以不争一时争平时的精神，以全心全意为民执法的态度，以高质量、高水平的服务，以扎扎实实的纠风工作效果，让各级党委、政府放心，让人民群众满意，力争2003年民主评议行风取得好的成绩。', '要继续坚持把道德教育放在首位贯穿始终，实现干部道德素质的全面提高。要结合十六大精神的学习贯彻，进一步深入开展《纲要》的再学习、再教育。大力倡导“创建学习型机关、争做学习型干部”活动，扎实开展“树正气、讲团结、求发展”学习教育活动。树正气，第一要树立思想上的正气，要树立马克思主义的世界观、人生观、价值观，坚持党性原则，保证全系统政令畅通。第二要树立人品上的正气，要坚持勤奋、好学、诚信、公道、和善的好风气。第三要树立作风上的正气。要坚持谦虚、廉洁、扎实、严谨的好作风。讲团结，就是要全局一盘棋，齐心协力搞好协调配合，大家都要有全局观念，把工作干到位、衔接好。求发展，就是要把加快发展作为第一要务，在“实”字上下功夫，在“新”字上求突破，努力开创“二次创业”新局面。', '今年的干部队伍建设，要以抓好党风廉政建设为重点，以开展好“以德治市”和“树、讲、求”学习教育活动以及文明创建活动为载体，统筹兼顾，协调推进，务求实效。具体地说，要围绕按照以下六个方面狠抓落实：', '（一）围绕加强思想政治教育，构筑牢固的思想道德防线抓落实。防止腐败，教育是基础。实践证明，教育抓好了，德治加强了，干部思想政治素质和精神境界提高了，就可以有力地防范和减少违法违纪问题的发生。因此，各级要把反腐倡廉教育作为开展党风廉政建设和反腐败斗争始终不能放松的一项基础性工作，必须常抓不懈。要深入开展“三个代表”重要思想和党的十六大精神的学习教育活动。要认真学习胡锦涛同志在西柏坡学习考察时的讲话精神，广泛开展“两个务必”的教育，弘扬艰苦奋斗的优良传统和克己奉公的革命精神。要深入开展党纪政纪教育和正反两方面典型教育，筑牢遏制腐败行为发生的思想道德防线。', '（二）围绕继续深化改革，健全防范腐败的体制机制抓落实。深化改革，创新机制，形成能够有效防范腐败的体制机制，加大从源头上预防和解决腐败问题的力度，是加强党风廉政建设和反腐败工作的重要任务。我们要根据形势的发展需要，以管理上的漏洞和薄弱环节为突破口，从形成有利于用好权、选好人、管好钱的体制机制入手，继续从三个方面进一步深化改革：一是以落实新征管法及其实施细则为契机，继续深化征管改革。要以执行省局《地方税收业务工作规程》为载体，规范征、管、查之间的关系，解决权力过于集中或过于分散的问题，逐步形成相互联系又相互制约的征管格局；要按照省局提出的“科技加管理”的要求，继续推进信息化建设步伐，提高征管现代化水平，杜绝执法的随意性，发挥现代科技预防腐败的作用；要继续强化对税收执法权的监督，解决好由谁监督和怎么监督的问题，按照省局《规程》要求，修改完善追究办法，抓好执法责任制和执法过错责任追究制的落实，保证权力受到监督制约，滥用权力得到追究，防止税务人员以权谋私、违法违纪行为的发生。二是继续深化人事制度改革。要进一步严格落实好《党政领导干部选拔任用工作条例》，建立健全科学的干部选拔任用机制、监督管理机制和激励竞争机制；要坚持选拔任用干部征求同级纪检监察部门意见和共同考察的办法，强化对人事管理选拔、测评 、竞争、考察、任用全过程的监督，全面推选任前公示制和任期试用制，提高人事工作民主、公开的程度。三是继续深化财务、基建等行政管理体制的改革。要不折不扣地落实好省局重新修定的财务管理和固定资产管理办法，强化对财务管理权的监督；要落实好公开招标、政府采购制度；要加强帐户管理，取消小金库。', '（三）围绕加大惩处力度，严厉打击违法违纪行为抓落实。各级地税机关要高度重视查办案件工作。要按照“选案要准、查案要稳、处理要严”的办案原则，在选案上下功夫，针对案源进行认真筛选，做到一查就准，真正树立起纪检监察部门的权威。在事实清楚、证据确凿的情况下，要做到严格执纪、处理到位、执行到位。对已经发现查处的案件，要认真分析发案原因，深入查找我们在管理上漏洞，指出应该吸取的教训，教育广大干部提高认识，引以为戒。各级领导干部对查处违法违纪案件，不准说情，更不准袒护和包庇，要坚决制止好人主义等庸俗作风，坚决纠正一些单位存在的瞒案不报、压案不查、轻查淡处、查而不处的错误行为。对于出现被系统外和上级纪检监察部门发现和查处的案件的单位，要提出批评，对自己主动发现并查处案件的单位，要予以鼓励，给予充分的肯定。', '（四）围绕强化权力制约，加强对领导干部执政执法行为的监督抓落实。要切实把加强对领导干部的监督，作为今后党风廉政建设工作的一个重点。要加强对各级领导班子、领导干部尤其是“一把手”落实民主集中制情况的监督，看重大事项、重大决策、重大问题是否经过了党组或局长办公会集体讨论决定；要加强对领导干部遵守廉政准则，执行重大事项报告、礼品登记、收入申报等廉政规定情况的监督；要加强对领导干部参加民主生活情况的监督，切实提高民主生活会的质量；要严格实行述职述廉制度，各级领导干部要把执行廉政情况作为述职总结的一项重要内容，不能只说业务、不谈廉政；要落实好廉政谈话制度，积极探索巡视检查制度，针对个别干部在廉政方面出现苗头性问题，早打招呼，及时提醒，起到见微知著、防微杜渐的作用；要加强对领导干部“工作圈、生活圈、社交圈”的监督，延伸监督的触角。此外，要继续抓完善，抓提高，深化政务公开，拓宽监督渠道，增强领导干部政务的透明度，保证权力的正确使用。总之，要通过多种形式，切实加强对领导干部管权、管钱、用人等重点环节的全方位监督，确保监督的效果。要强调，各级领导干部必须增强自觉接受监督的意识，各级“一把手”要带头接受监督，不但要严格要求自己，还要从严要求配偶、子女、管好身边的工作人员。', '（五）围绕中心工作抓落实。开展以德治市活动要与地税工作紧密结合，通过以德治队促进执法质量和工作水平的提高，确保完成税收各项任务。结合深化征管改革、加快税收信息化建设步伐、提高干部队伍素质和加强思想政治工作等重点工作一道进行，做到结合工作抓活动，抓好活动促工作。', '（六）围绕文明创建抓落实。文明创建是对干部进行廉政教育、文明持政教育和职业道德教育的重要而有效的载体。所以，要不断巩固和深化文明创建成果，组织和引导干部职工广泛参与的全员道德实践活动。首先，要积极参加全市开展的创建文明城市活动、各种形式的“志愿者”活动、构建“诚信承德”等活动，组织干部广泛参与社会公德建设。其次，以创建文明行业为载体，组织干部广泛参与职业道德建设；第三，以创建文明家庭为载体，组织干部广泛参与家庭美德建设；第四，以创建文明单位活动为载体，发挥文明单位对整个道德实践的带动作用。当前的核心任务之一就是集中精力，深入开展好“树正气、讲团结、求发展”学习教育活动。市局教育科、机关党委要密切配合，搞好这项活动的协调督导，并注意宣传和信息的反馈工作。要以这次学习教育活动为契机，在全系统强化学习意识、发展意识、创新意识、服务意识和艰苦奋斗意识，进一步改进工作作风，创造学习型、创新型、务实型、廉洁型、效率型机关，以实际行动和突出实绩展示地税良好风貌。', '同志们，切实开展好“以德治市”和“树、讲、求”活动，做好地税系统党风建设和反廉政工作非常重要。让我们以十六大精神为指导，开拓奋进，扎实工作，继续深入推进全系统的党风廉政建设和反腐败工作，为地税事业的全面进步和“二次创业”的深入开展做出贡献。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>10</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>兽医医政药政管理年工作总结</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2008-05-20</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F20%2Fart_9941_218826.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9941_218826</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['2006年，兽医科在局党组的统一领导下，按照省局《2006年兽药市场专项整治方案》和承德市《2006年兽医医政、药政管理工作要点》的要求，重点开展了以加强基层兽医技能培训、打击假劣兽药的经营使用行为为主的整治活动，有效净化了兽药市场，规范了经营秩序，取得了良好效果，同时，协助局长、协调两站完成了动物防疫人员培训等项工作。现将全年工作情况总结如下：', '（一）开展兽药市场监督检查，打击非法经营活动。全年开展两次以打击假劣药品为主的兽药市场检查活动，共查八县三区兽药经营门市38家，基层兽医站、个体门诊146家，养殖大户292个。取缔无证经营户1家，查出并销毁过期和无批准文号药32个品种、156件，货值1.7万元。查处其它违法行为有：违法生物制品户1家，没收17个品种6504瓶（支）；查处非法经营精神药品安钠咖单位1个，没收非法药品100件折合6万支。全市立案查处假劣药品案件35起，结案32起，合计罚款19.4万元,其中市级完成罚没收入14.6万元。', '（二）推动放开兽药经营市场，促进兽药市场健康发展。市局在5月份召开了由县区一把手参加的兽药管理工作会议，会议的主题是推广平泉县放开兽药经营市场经验，加强兽药市场监督管理。张玉华局长、苏广凡副局长、贾文瑞书记到会并分别做了重要讲话。会议针对我市兽药市场封闭、地方保护严重，造成兽药质次价高、服务水平低下、影响畜牧业发展的现实，提出了“改革经营体制、强化监管力度、以开放促经营、以执法促服务提质量，促进畜牧业发展”的总方针。7月中旬，我们结合兽药市场专项整治，对八县三区进行督导。进一步推动了此项工作的开展。目前，滦平、丰宁、隆化、平泉已全部放开或已形成事实上的全部放开，承德、宽城县县局不再下达购药指标，形成养殖户、兽医站自由采购的部分放开。从效果上看，放开的县区价格普遍降低30%以上，兽药抽检合格率提高了10%以上，经营的品种和厂家数量明显增多，服务质量提高。在放开市场的同时，通过支持、引导与培育，我市兽药市场规模有了较快发展，其中市区狮子沟兽药经营市场经营门市已发展到九家，年经营额达1200多万元以上，各县区兽药经营额也有不同程度的提高，全市兽药年经营额接近3000万元，为畜牧业发展提供了更有力的保障。', '（三）加强动物诊疗市场管理，采用多种形式规范动物诊疗市场秩序。针对动物诊疗市场秩序混乱、假医庸医坑害群众等现象，今年继续推进动物诊疗许可制度，规范了诊疗秩序。在此基础上，为提高全市动物诊疗人员技术水平，我们在市局领导支持下，于六、七月份聘请省内技术专家，在承德职业学院连续举办了三期兽医实用技术培训班，每期五天，共培训基层动物诊疗人员352名。培训取得了良好效果，基层兽医人员的技术素质和基本技能有了明显提高，受到基层人员的欢迎和支持。', '（四）加大兽药抽检力度。下达兽药抽检任务指标242个。目前抽样已全部完成，正通过兽药监察所化验。兽药抽检力度的加大，为兽药执法提供了有力依据，今年通过化验查出的不合格产品立案20余起，解决了只抽检不处理的问题。', '（七）加强执法监督队伍建设和管理。面对县区局机构设置多，职能交叉重叠情况。与县级局领导磋商并根据掌握情况，推动县区药政、医政对口机构，形成较为系统的执法体系进一步确立。', '（八）协调两站做好动物防疫工作。顺利完成了动物防疫“四员”培训、防疫督导等项工作。', '（一）继续加大兽药市场和动物诊疗市场规范管理力度，打击违法行为，开展对县、区违法案件的处理。', '（六）进一步沟通与上级有关部门联系，学习考察外市经营管理经验，总结我市前段工作，结合实际，深化各项管理措施，进一步提升兽药管理工作水平。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>10</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>承德市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>工作报告市商务局局长王宇年月日</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2008-05-21</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>https://www.chengde.gov.cn/jrobot/plugin/link/show.do?url=http%3A%2F%2Fwww.chengde.gov.cn%2Fart%2F2008%2F5%2F21%2Fart_9945_192434.html&amp;q=%E5%AD%A6%E4%B9%A0%E8%80%83%E5%AF%9F&amp;webid=1&amp;id=1_9945_192434</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['这次全市商务工作会议，是市政府决定召开的，会议的主要任务是传达全国、全省商务工作会议精神，贯彻落实富民强市“六项行动计划”，回顾近年各项商务工作，分析形势，研究部署今年及未来三年全市商务工作。一会儿，市委常委、王克副市长还要做重要讲话，我们一定要深刻领会，切实抓好落实。', '近年来，全市商务系统遵照市委、市政府确定的科学发展、和谐发展、跨越发展主基调，进一步明确了“开放活市、搞活流通、规范市场、关注民生”的工作定位，坚定不移地扩大对外开放，推动建立现代市场体系，开放型经济迈上新台阶，商务工作形成新格局，为推动全市经济社会又好又快发展做出了积极贡献。市县商务局建立了机构，明确了职责，理顺了关系，为今后做好工作奠定了基础。', '创新招商方式，大项目利用外资成效显著。坚持创新招商方式，强力推进大项目，做实项目推介、洽谈、签约、履约等各个环节工作，促使全市利用外资摆脱了项目存量少、大项目断档的困难局面，为今后发展积蓄了力量。始终坚持活动招商、小团组招商、代理招商等各种招商方式的有机结合，提高了招商实效。成功地承办了中国（承德）国际旅游文化投资贸易洽谈会，组织参加了三月香港、“5.18” 廊坊、“9.8”厦门等国家、省组织的投资洽谈活动，借助央视秋晚和“来群杯”象棋名人大赛的契机，邀请华润集团等一批知名投资商来我市进行考察洽谈，结识了新客户，促成了一批合作项目。认真落实市政府“三个十”和“五个一”部署，挖掘客户渠道，加强与世界500强及跨国公司联系对接，强力推进不同阶段利用外资大项目，积极寻求并购等多形式利用外资，取得了明显效果。促成华润风力发电、通用电器和香港港灯风力发电、四海啤酒并购等一批外资大项目取得了重大进展，呈现梯次推进局面。世界500强企业有1家已于去年落户承德，1家正在做前期工作。强化项目督导服务，实行领导分包推进项目目标责任制，对重点项目落实责任分工，工作重心前移，加强督导、跟踪、服务，主动帮助企业和项目单位协调关系，解决难题，推进了项目进程。全年新批外资项目8项，合同利用外资1.45亿美元。在实际到位外资中，兴隆县超额完成了全年目标任务，围场县取得了新突破。', '强化产品培植，对外贸易快速发展。紧紧围绕扩大外贸规模和转变外贸增长方式，加大政策指导力度，集中力量培植出口基地，培育重点产品，扶持重点企业，促使进出口贸易实现大幅增长。一是实施科技兴贸战略，产品竞争力进一步增强。引导和支持企业加强技术改造，加快出口新产品研制，下力量培植高技术含量、高附加值、高档次产品出口，取得较好效果。承钢和建龙实现了由原料性产品向产成品出口的更新换代，全年出口1.25亿美元，增长173.8%，占全市出口总值的60.3%；亿财等纺织服装企业以高质量、高品位产品占领国际市场，呈现较好的发展态势。二是加强农产品出口基地建设。加强政策指导，制定并实施了《承德市关于加快发展农副产品出口的实施意见》，积极争取上级支持，多次跑部进厅,为企业争取到国家农轻纺资金项目支持资金452万元，扶持农副产品及加工制品扩大出口，形成一批产业基础稳固的出口增长点。三是实施出口品牌战略。组织申报河北省50强出口品牌企业宣传推广扶持项目，争得了省部分资金支持。组织相关企业参加“中国出口品牌美国展”等经贸洽谈活动，提高了我市产品品牌的国际认知度。四是发展壮大外贸经营主体。重点扶持20家龙头型外贸出口企业壮大实力，扩大出口。新为26家企业办理了外贸经营者备案登记，全市外贸企业累计达162家。促进6家企业实现了自营出口零的突破，其中有3家企业实现了当年备案、当年出口的良好业绩。五是积极引导企业加强国际市场开拓。先后组织企业参加了春季广交会、日本国际食品和饮料展览会、泰国国际食品博览会等贸展会、第六届中国（宁波）国际日用消费品博览会等出口商品洽谈会，促成了一批出口合同。', '拓宽合作渠道，对外经济合作稳步发展。一是大力发展对外劳务合作。在巩固新加坡等传统境外劳务市场的同时，大力发展新的劳务合作项目，新签了新加坡酒店服务员、日本研修生等12项外派劳务合作项目，合同金额385万美元。全年向境外新派劳务223人，增长26%。二是加强对外劳务基地建设。经过多方争取，我市被中国对外承包工程商会确认为“对外劳务合作行业外派劳务基地”，成为我省第一家取得全国外派劳务基地称号的设区市，为进一步扩大国际劳务合作规模、提高档次奠定了基础。三是境外投资取得新进展。兴隆县企业赴老挝投资、赴蒙古国兴建乳化炸药生产线、赴尼日利亚与尼方合作兴建硫酸生产线等项目稳步推进。', '加强经贸服务，贸易促进作用增强。组织企业参加了俄罗斯河北经贸周、中国（河北）冶金工业博览会、“世界华商相聚河北”经贸洽谈会等境内外大型经贸活动，宣传了企业和产品，扩大了对外影响。主动为企业在签发一般原产地证书，代办商事证明、ATA单证册等方面提供优质高效服务，促进了对外贸易发展。加强对进出口企业经营者的培训，积极邀请国家、省贸促会专家来承授课，提高了企业出证、认证业务能力。', '强化市场体系建设，内贸流通健康发展。坚持把完善城乡市场体系、改善消费环境作为引导和促进消费的重要举措，实施“1420”工程，积极争取上级支持，强化指导服务，促进市场条件的改善。进一步加快农村市场体系建设，实施“万村千乡市场工程”，积极争取省厅政策支持与倾斜，全年新争取省厅额外增加农家店指标150家、新增试点企业6家，帮助“双百市场工程”企业争得上级支持资金175万元，全年新建改造1000家连锁农家店，初步形成了以城区店为龙头、乡镇店为骨干、村级店为基础覆盖所有县区的农村消费经营网络。规范城市市场建设，完成了承德市城市商业网点规划的编制，并通过市政府常务会审议批准，平泉等县相继启动了商业网点规划编制工作，为科学、合理、规范、有序地开展市场体系建设提供了保障。推进商业改革和发展，深入实施“中华老字号工程”，将避暑山庄企业集团的山庄老酒作为第二批“中华老字号”商品上报到商务部待批。按照市政府要求，制定并实施了商贸流通、金融、保险、物业管理、社区服务等服务业发展实施方案，促进了相关工作的发展。加快流通业对外开放，筛选、整理流通业重点项目对外招商，达成了初步合作意向。强化特种行业监管，加强对典当、拍卖、拆车、再生资源回收企业的日常监督检查，完成了典当企业的异地联查及我市旧货行业发展规划等工作。', '加强市场监测，市场运行平稳。加强市场监测体系建设，积极争取流通领域公共信息服务体系建设专项资金，增加监测样本企业，提高了市场监测精确率。强化市场运行日常监测，突出抓好重要节日食品安全、市场供应的监测，密切关注市场供求、价格走势，深入进行市场运行分析和研究，为政府正确决策提供了第一手资料。多措并举做好猪肉等重要商品市场供应工作，成立了节日市场供应工作领导小组，建立生猪活体储备基地，层层落实责任，抓好协调调度，全力组织货源，保障了重大节日特别是市场发生异常变化时的市场供应。启动了《承德市“一市连五省（市）”物流业发展规划》编制工作，为规范和促进我市物流业的发展奠定了基础。', '大力整顿市场经济秩序，市场环境规范有序。按照市政府的统一部署，进一步明确了市场整规各牵头单位的职责、目标、整治重点及措施，各类专项整治工作取得了显著成效。加强节日市场监管，严厉打击制售假冒商品、哄抬物价、变相折扣和欺诈行为，维护了节日食品和日常消费品安全。深入落实《河北省成品油零售市场管理实施细则》，促成34个成品油网点改造升级并通过省商务厅验收。深入实施“放心酒”、“放心肉”工程，全面推行 “酒类流通随附单”制度和河北省畜禽定点屠宰厂基本管理制度，强化市场检查和整治工作力度，全年共查处酒类违法案件160起，肉类违法案件76起，实现了市区生猪进点屠宰率达100%，县、区进点率达95%，进一步规范和净化了酒类、肉类流通市场秩序。', '稳步推进国企改革，圆满完成市政府下达的目标任务。按照市政府统一部署，大力推进企改攻坚，经不懈努力，实现了07年底前基本完成商务局系统国企改革的工作目标，为08年彻底完成企改任务奠定了基础。', '加强自身建设，队伍素质明显提高。按照市委要求，深入开展了“学转办促”和“构建和谐机关”主题实践活动。加强机关制度建设，各项制度不断完善，机关工作进一步制度化、规范化、科学化。继续加强党风廉政建设和反腐败工作，认真落实党风廉政建设责任制，强力推进机关效能建设，促进了党风、政风、行风不断优化。在07年度全市社会经济管理部门行风评比中，市商务局列先进单位第1名，位次前移6名；各县区局通过积极努力，行评工作实现整体“位次前移”，其中，宽城县进入先进行列，列第6名；平泉县商务局被国家商务部评选为全国商务系统先进集体。', '不断强化安全生产和社会治安综合治理，确保了全年无事故发生。进一步加强安全生产监督管理，落实企业法人安全生产主体责任，全年无安全生产重、特大事故及治安案件、刑事案件发生，确保了平安社会建设。', '1、始终坚持以科学发展观和构建和谐社会的总体要求统领商务工作全局。在谋划整体工作方面，突出转变经济发展方式，优化经济结构，提高经济增长质量，实现城乡共同发展。在对外开放方面，注重改善出口产品和引资结构，重点扶持兴市立县的外资大项目发展和机电产品、农副产品出口。在商贸流通方面，突出维护市场稳定供应和改善城乡消费环境，有效促进了我市经济社会的协调发展。', '2、始终坚持围绕市委、市政府中心任务和百姓普遍关注的重点、难点问题开展工作。克服困难，推进了“万村千乡市场工程”、市场运行监测等民心工程和重大专项工作的开展。坚持把满足社会消费、维护市场平稳运行和解决民生问题作为重点工作，密切关注市场动态，加强市场运行调节，采取一系列措施，及时圆满解决了重大节日期间肉、菜供应等问题，有效维护了市场稳定。全心全意为百姓办实事、办好事，受到了群众好评。', '3、始终坚持把突出重点作为带动商务事业快速发展的突破口。围绕投资、出口、消费对全市经济增长的拉动，注重联系大客户，推进利用外资大项目，扶持重点企业、重点产品扩大出口，重点培植规模较大的流通企业，增强对外开放和市场流通的可持续发展能力，为主要指标实现快速增长提供了强有力保障。', '4、始终坚持把狠抓落实作为推进商务工作的重要环节。注重培养抓落实的作风、提高抓落实的本领、明确抓落实的纪律，把抓好工作落实作为推进工作的落脚点，定期督导，强化调度，促进了提质、提效。', '5、始终坚持把加强自身建设作为提高工作效率和工作质量的重要保证。以构建“和谐机关”为目标，深入开展机关效能建设，加强党性修养，开展“五型”机关建设，推进行政权力公开透明运行，强化为基层、中外投资者、为群众提供优质高效服务，促进了工作效率的提高和工作质量的提升。', '近年来，全市商务工作取得的成绩来之不易。这是市委、市政府正确领导的结果，是全市商务系统广大干部职工共同努力的结果，是各部门、各企业大力支持的结果。借此机会，我代表承德市商务局向所有工作在商务一线的干部职工致以崇高的敬意！向大力支持商务工作的各级政府、各部门、各企业的领导和同志们表示衷心的感谢！', '在充分肯定成绩的同时，我们也必须清醒地看到：商务工作虽然在拉动全市经济社会发展中发挥越来越大的作用，但与先进地区相比，与我们所承担的历史责任相比，与市委、市政府和群众对我们的要求与期望相比，依然存在着诸多的问题。主要体现在“五个突出”：一是主要指标快速增长，但对经济增长的拉动力较低的问题依然突出。2007年全市社会消费品零售总额占GDP比重为27.7％，分别低于全国、全省8.4和1.1 个百分点；外贸出口额占GDP的2.8％，分别低于全国、全省34和6.4个百分点；直接利用外资占全社会固定资产投资额的0.3%，分别低于全国、全省 3.7 和2.9个百分点。二是利用外资签约大项目显著增多，但项目履约困难、后劲不足的问题依然突出。2007年外资项目履约率为50％,资金到位率仅为7％。三是外贸进出口规模不断扩大，但对外贸易支撑点少、结构不合理的问题突出。出口主要依赖少数骨干企业和少数低附加值产品，多元支撑的局面没有形成。162家出口企业中，仅63家企业有出口实绩，占38.8%，仅4家企业出口过千万美元，大多数出口企业规模小，市场开拓能力不强，抗风险能力弱。出口产品主要集中于初级产品和低附加值产品，占90%以上，机电产品、高新技术产品占出口总值的比重仅为13.6％和0.2%。四是商贸流通得到快速发展，但流通市场主体规模小，经营方式落后，社会消费水平依然较低，内贸工作抓手少、调控手段弱的问题依然突出。全市限额以上的批发、零售业企业个数分别为20和30个，2007年销售额全市排名第一的零售企业——鸿兆商城销售额仅相当于全省第一——北人集团销售额的2.3％，全国第一——上海百联集团销售额的0.3%。4000余家零售网点中，连锁经营、物流配送、电子商务业务开展不到10％，低于先进地区15个百分点。企业规模小，条件不足，直接造成无法得到国家有关政策的支持和一些购买力外流。五是各县区发展不平衡的问题依然突出。部分县区抓商务工作力度大，成效明显，也有部分县区商务工作进展缓慢，全市利用外资和外贸出口主要由少数县区支撑。受畏难情绪影响，各县区普遍对利用外资重视程度不够，2007年仅兴隆县完成了市政府下达的利用外资任务，有一半县区没有利用外资实绩，个别县区连续几年未签利用外资项目。外贸出口方面，兴隆、双滦、双桥、开发区完成了年度目标任务，但多数县区规模很小，与发展的要求极不相称。', '我们还应该看到：2008年商务工作既面临奥运年、各级政府进一步加大对服务业扶持力度等诸多加快发展的良好机遇，同时也面临着许多困难，特别是影响外经贸发展的叠加因素逐渐增多。人民币持续升值、国家出口退税政策的调整、劳动力成本增加、原材料价格上涨、内外资企业两税合一，使外贸出口传统产品的竞争优势逐渐削弱，利用外资难度进一步加大；受美国次贷危机连锁反应影响，全球经济贸易增速放缓，贸易保护主义抬头，外部经济风险明显增加。这些因素都会对商务工作产生不同程度的影响和冲击。需要大家趋利避害，积极应对。', '商务部门主要承担着利用外资、外贸出口、社会消费品零售总额三大主要指标，在投资、消费、出口拉动经济发展三架车马中占据重要位置，随着国家宏观经济政策战略性调整，经济增长由从主要依靠投资、出口、消费拉动向依靠消费、投资、出口协调拉动转变，市场体系建设、市场供应、市场监管等促进消费的商务职能进一步凸显，商务工作发挥的作用越来越大，面临的任务越来越艰巨，我们必须进一步认清形势，加大工作力度，集中力量解决存在的问题，推进商务工作再上新台阶。', '2008年是深入贯彻党的十七大精神、全面落实科学发展观、积极推进社会主义和谐社会建设的重要一年，也是本届政府的开局之年，做好今年的商务工作，事关全市经济社会发展大局，责任重大，意义深远。', '2008年全市商务工作的总体要求是：深入贯彻党的十七大、省委七届三次和市委十二届三次全会精神，以科学发展、和谐发展、跨越发展统领商务工作全局，全面贯彻落实富民强市“六项行动计划”，进一步解放思想、开拓创新，围绕“开放活市、搞活流通、规范市场、服务百姓”的发展定位，坚持以“开放”和“市场”为主线，以拉动经济发展、改善百姓生活为目标，以落实规划、办好活动、壮大企业、推进项目为突破口，不断扩大对外开放规模，提升开放型经济水平，促进流通业快速规范发展，进一步提高消费、出口、外资对经济发展的拉动力。', '做好今年的商务工作，必须围绕“开放活市、搞活流通、规范市场、服务百姓”四个定位，加快实现“三个转变”。', '“开放活市”，就是要进一步扩大生产要素配置范围，提高配置水平，充分利用国际、国内两种资源，推进一批利用外资大项目，培植一批竞争力强的外向型企业和出口产品，打造一批参与国际经济技术合作的企业。通过“引进来”和“走出去”，促进开放型经济及五大主导产业发展，活跃全市经济社会发展全局。', '“搞活流通”，就是要充分发挥“一市连五省市”区位优势，统筹城乡市场和国内外贸易，培育大市场，发展大贸易，构建大流通，推进现代服务业，引导和促进消费，增强消费对经济发展的拉动力。', '“规范市场”，就是要充分发挥市整规办的牵头协调职能，针对广大群众反映强烈的热点问题和薄弱环节，组织好各类专项整治活动，推进诚信体系建设，创造良好的市场环境。', '“服务百姓”，就是要发挥商务部门的职能，关注和服务民生。通过实施“万村千乡市场工程”等一系列工程，加强城乡市场体系建设，改善百姓购物环境，解决买难、卖难问题；通过吸引外商投资、扩大出口规模和境外劳务输出，拓宽城乡群众就业渠道，增加收入；通过市场运行监测及加强市场整治，维护群众消费安全；通过深化所属企业改革、妥善安置企业员工，解决职工的后顾之忧。', '“三个转变”：一是工作精力从主要抓改革、保稳定向全力推动商务事业发展上转变；二是工作重心向全面履行商务各项工作职责，着力于推动对外开放和流通业发展转变；三是工作措施由理顺关系向建立健全各项制度机制，更多的依靠完善制度、健全机制来推动工作转变。', '（一）落实“开放活市”行动计划，以扩大开放活跃经济全局。在全市经济工作会议上，文礼书记指出，开放既是承德的“短板”，更是活跃经济全局的“引擎”。“开放活市”必须动真劲、见实效。我们要认真贯彻落实文礼书记的指示精神，进一步创新工作思路，落实工作举措，统筹“三外”工作，实现外资、外贸、外经、贸促工作客户共享、信息共享、活动共享，彼此拉动，相互促进，促进对外开放各项工作跨越发展。', '1、突出开放重点，坚决打好利用外资翻身仗。要瞄准港、澳、台、日韩、欧美等重点国家和地区，大力开展小团组点对点招商，把引进世界500强、知名跨国公司等战略投资者、实现大项目落地作为招商引资的重中之重，引导外资合理投向钢延、清洁能源、装备制造、新型材料、现代旅游、特色农业六大主导产业，促进利用外资实现数量扩大和质量提升。一是搭建五个平台，拓宽招商引资渠道。着力组织和参加好河北省（香港）投资贸易洽谈会、第八届中国（承德）国际旅游文化投资贸易洽谈会，有选择地参加国家、省组织的其它经贸洽谈活动，搭建会议招商平台。围绕主导产业发展和重点项目，依托优势资源及重点企业、重点行业、开发园区，面向世界500强和知名跨国公司，有针对性地开展点对点招商，搭建靶向性招商平台。加强与京津、港澳台和长三角重点区域城市的联合协作，共享信息资源，做好外资项目、出口产品、境外投资的对接，搭建中介招商平台。加强网站建设，进一步发挥承德招商网的开放窗口作用，推介投资环境、招商项目，联系客户，搭建网络招商平台。修订和出台招商引资激励政策，扩大宣传，用经济手段发动全社会力量参与招商引资，搭建优良投资环境平台。二是着力推进不同阶段项目进程。强化项目落实责任制，狠抓开工项目的资金到位、已审批项目的落地、签约项目的履约及意向项目的签约，增强利用外资可持续发展能力。注重谋划流通服务业项目，立足加快发展现代物流业、新兴业态和壮大流通企业，围绕建设滨水新城，按照城市商业网点规划要求，谋划一批流通服务业项目对外招商，尽快形成新的外资增长点。三是充分开发和利用客户资源。抽调专门力量加强对目标招商区域内世界500强和知名跨国公司的深层次研究，掌握其投资动向，选择资金投向与我市产业发展规划相适合的投资商作为重点招商对象，加强对接，重点攻关，寻求合作。同时充实客户库，实现客户资源共享。', '2、转变外贸增长方式，增强可持续发展能力。强化出口基地建设，培植产品，培育企业，着力提高产品科技含量和竞争力。一是深入实施科技兴贸战略。落实国家鼓励高新技术、机电产品出口政策，积极争取扶持资金，促进企业增加投入，加强技术改造和市场开拓，扩大产能，提高档次，增强产品竞争力。加快培育以中西药、仪器仪表为代表的高新技术出口基地，以园艺工具等为代表的金属加工制品出口基地，以汽车发动机连杆、千斤顶为主的汽车零配件出口基地，构筑我市机电产品、高新技术产品出口体系,力争机电和高新技术产品出口增长20％。二是扶持农业产业化龙头企业扩大出口。以县域经济为基础，加大在农产品出口基地、标准化生产、质量追溯体系建设、认证、市场开拓等方面的政策、资金支持，按国际标准和国际市场要求，培植特色农产品，强化国际市场开拓，努力形成新的增长点。近期要组织好“四个一活动”，即办好一次关于加强农产品出口的业务知识培训，组织一次农业产业化龙头企业到先进地区进行对外贸易的学习考察，加快出台一份促进农产品出口的政策文件，大力培植一批农产品出口企业。三是培育自主出口品牌。建立出口名牌培育机制，对名牌出口企业给予政策倾斜，促使其优先发展。指导企业申请国际商标注册和境外专利，积极开展国际质量标准认证、环境体系认证和各类商品认证，优先安排品牌出口企业申报广交会、使用中小企业国际市场开拓资金参加境外知名展会。四是壮大外贸主体实力。扶持已放权的162家外贸企业培育优势产品，开拓新兴市场，扩大出口规模。继续加快企业对外贸易经营者备案登记，使我市更多的企业进入国际市场。五是抓住有利时机，积极扩大进口。充分利用国家促进贸易基本平衡等鼓励进口政策和人民币持续升值的契机，重视进口先进技术、重要设备和资源性产品，加快技术改造，提高科技水平，增强市场竞争力。', '3、以对外劳务输出为重点，大力开展国际经济技术合作。进一步巩固新加坡酒店劳务项目，重点发展日本研修生项目。继续加强与京津各大劳务公司的合作，积极开拓国际劳务合作新市场。充分发挥新争取到的“全国外派劳务行业承德市劳务基地”的作用，用好政策，争取支持，扩大合作。加强对全市对外劳务合作等外经工作的指导和管理，强化项目审查，加强人员培训，促进整体工作健康、有序发展。认真谋划项目，加大跑办力度，争取上级支持，力争国际无偿援助取得新进展。各县区要重视对外劳务合作、境外投资、工程承包等对外经济技术合作，积极发动有条件的企业到境外投资开发稀缺资源、承包工程，带动我市相关技术和设备出口。重点落实好赴俄罗斯承包工程等项目。', '4、发挥贸促职能，推进对外开放。坚持把贸促工作重点放在为招商引资、对外贸易、对外经济技术合作服务上，加强与国家贸促会、省贸促会联系，充分利用中国贸促网，建立企业信息资源库，做好国际经贸、外商投资等信息的搜集整理，及时向县区和企业提供优质信息服务。围绕我市的主导产业、优势产品，组织有关企业重点参加5月澳大利亚亚洲商品博览暨经贸洽谈会、10月南非约翰内斯堡中国贸易展览会、上海世博会等展会，宣传投资环境、企业、产品，推介项目，寻求合作。各县区要重视贸促会及国际商会建设，利用好贸促会搭建的平台扩大开放。要进一步重视对外展览工作，优化参展方式，做好展位设计，提高展览水平和对外知名度。', '省委张云川书记在全省经济工作会议上提出，城市中的“黄金地段”、“金角银边”要优先用于服务业。文礼书记在全市经济工作会议上明确指出：服务业是最具成长力的产业，是推动产业升级、促进节能减排的重要举措，是增加地方财政收入的重要途径，也是提升城市品位、增强城市功能的重要手段，一举多得。承德的服务业具备在省领先发展的条件，关键是选准突破口，要大力发展服务业。商务部门主要负责服务业中的商贸流通服务业，要遵照省市领导的指示精神，按照“搞活流通”的总要求，加快商业有关规划的编制和实施，积极构筑城乡市场体系，改善城乡市场环境，加快推进批发零售贸易业、住宿餐饮业及流通现代化发展，促进消费增长。', '1、按照“规划先行”的原则，编制、实施好流通业发展规划，规范市场建设秩序。加快《承德市城市商业网点规划》实施步伐，适时出台《承德市城市商业网点规划实施意见》，建立承德市大型商业网点听证制度，严格按照规划进行商业网点规划布局，增强规划的刚性约束，为城市商业网点建设依规划管理提供法律依据。全面推进县级商业网点规划的编制工作。按照打造“一市连五省（市）”区域中心城市的目标，加快“一市连五省（市）”物流业发展规划编制工作，争取规划尽早通过市政府审定并实施，促进以内贸为基础、外贸为延伸的现代物流业快速发展。', '2、进一步强化新农村市场体系建设。继续深入实施“万村千乡市场工程”。以“提高质量、发挥功能”为重点，继续争取上级支持，加强农家店管理模式、配送率、信息化等软硬件建设，推进“一网多用”、“一点多能”。加强与有关部门的合作，使农家店向综合性服务方向发展，从经营日用消费品和农业生产资料，逐步拓展到邮政、电信、图书、音像、医药等多种经营，把“万村千乡市场工程”打造成改善农村消费环境、提高农民消费水平的长期、系统工程。做好新农村商网购销对接常态化工作，充分发挥新农村商网在新农村建设和为农服务中的平台作用。落实国务院关于加强农村商品流通和农业标准化工作的部署，加强农产品标准化批发市场建设，创新农产品交易方式，规范流通秩序，以批发业带动关联产业，促进农业结构调整。认真筛选、包装标准化农产品批发市场项目，争取挤进省级、国家级标准化农产品批发市场项目盘子。', '3、深化现代流通体系建设。一是落实“万家便民工程”。按照“便利消费进社区，便民服务进家庭”的要求，支持企业加快销售网点便民亭、便民车、便民店的新改扩建，为广大市民提供“便捷、卫生、营养、丰富、实惠”的大众主食服务。进一步加大规划实施和招商力度，推动地方风味一条街建设，弘扬饮食文化，繁荣餐饮市场。二是推进流通现代化。落实《商业特许经营管理条例》，积极发展连锁经营；实施商业物流示范工程，搞好商业物流配送体系建设；大力发展电子商务，近期，省商务厅将与中国网通合作，创建我省电子商务综合服务平台，为有关部门和企业提供电子商务示范服务和技术指导，并为具备一定条件、有实际需求的县以上商务部门建设电子商务业务平台。各县区要以此为契机，开展重点连锁超市、商场电子商务试点，规范电子商务信息发布、网上交易、资金结算和商品配送，促进企业提高管理效率，推进流通领域电子商务发展。三是推进内贸领域品牌建设。继续开展百城万店无假货、服务质量奖、中华老字号、商务部最具市场竞争力品牌、河北省畅销品牌商品和地方餐饮企业钻石店等申报和评审工作，广泛开展百货、美容美发等企业的等级评定，洗染“诚信经营放心店”、“星级加油站”、“地方钻石菜品”等评选活动，引导企业自律经营，优质服务，提高行业整体水平。四是加强商贸流通行业管理。继续支持和发展塞外宫廷菜，加强宣传推介，扩大对外影响，努力把其打造成为冀菜代表菜种。规范洗染、洗浴、照相、家政服务业发展。五是推动商贸领域节能降耗。重点在零售企业、批发市场等经营场所，推广节能、节水、节材型产品和技术；引导住宿、餐饮、洗染和洗浴等行业建立节约节能机制。', '文礼书记在全市经济工作会议上强调：“要加强市场监管，保障供应，稳定物价，稳定市场”。市场监管是商务部门的重要职责。我们要按照“规范市场、服务百姓”的要求，进一步增强责任意识，加大工作力度，维护市场秩序，确保群众消费安全。', '1、保障市场供应，增强政府调控市场能力。继续完善市场监测调控网络系统，进一步增加监测样本企业数量。推进内贸流通数据库、应急商品数据库建设，逐步拓宽数据收集渠道，充实、丰富数据库内容。加强重大节日市场监测和市场运行情况阶段性分析、预测，为领导决策提供优质服务。按照加强应急管理、提高快速反应能力的要求，建立健全重要商品应急储备机制，加快生活必需品供应应急预案的制定和完善，建立应急调控重点联系企业制度，形成以生产基地、加工企业为基础，大型批发市场为依托，商场、超市、农贸市场、农家店为网络的应急产品投放体系。', '2、突出重点，深入开展各项专项整治活动。继续坚持“政府统一领导、整规办综合协调、牵头部门分工负责、各方联合行动”的工作格局，深入开展食品、药品、建材、农村市场、知识产权、传销、商业欺诈、特种设备安全、宾馆餐饮、美容美发、洗浴健身等专项整治活动，打击经济领域中各种违法犯罪行为。加强典当、拍卖、报废汽车回收(拆解)等行业监管。发挥区域协作机制的作用，着力推进法治建设，加强行政执法与刑事司法的衔接，积极探索建立市场监管的长效机制。', '3、继续实施“放心酒”和“放心肉”工程。继续深入贯彻落实《酒类流通管理办法》、《河北省酒类商品监督管理条例》、“酒类流通随附单”制度、《生猪定点屠宰管理条例》和《河北省牛羊鸡定点屠宰管理暂行办法》，建立完善酒类市场监管、肉类定点屠宰管理长效机制，加强日常检查和节日期间重点检查，严厉打击私屠滥宰和出售注水肉、病害肉等违法行为，切实监管管好酒类、肉类市场。认真落实《河北省成品油零售市场管理实施细则》，继续开展加油网点改造升级和验收工作，严格市场准入，取缔无证经营，规范成品油市场经营秩序。加强协调和调度，引导两大公司积极组织货源，维护成品油市场的稳定供应。', '（四）统筹内外贸发展，大力实施“410”工程。按照统筹城乡市场、统筹内外贸发展的要求，深入实施“410”工程，积极构筑结构合理的内外贸流通体系。', '第一个“10”：着力培育和扶持承钢、建龙、华富、舒适、亿财、天姿、天星药业、兴伊罐头食品、森源绿色食品、神栗食品等10家外贸骨干企业，促使其扩大规模，提高质量，增强市场竞争力。', '第二个“10”：大力扶持承德县聚鑫、围场福满家超市、隆化鸿兆商城、围场鑫达商贸、承德富源商贸物资、围场百货、承德蓝岛大厦、佳佳超市、宽广超市、平泉加乐加超市等10家大型流通企业，引导其加强内部管理，扩大经营规模，改善市场环境，提高服务水平，引导消费，带动全市流通业发展。', '第三个“10”：着力培育承德市裕华路、冀东汽车交易、中国北方食用菌、承德市农副产品批发、榆树林子蔬菜果品批发、承德市钢材、棋盘山大牲畜、宽城城关市场、承德商城及张家湾（宝元昌、新拔）10个大型内贸流通市场，进一步扩大规模，辐射带动全市各类市场发展，构建统一开放、竞争有序的城乡商品市场体系。', '第四个“10”：重点谋划宽城县鸿翼物流园、宽城县民族街旧城区改造工程（天宝酒店、商贸中心）、易顺汽车交易市场、承德市庞大仓储物流、平泉县建筑装饰材料批发市场、平泉县富源星级酒店、中国北方食用菌交易市场改扩建项目、滦平县京北农产品批发市场、围场百货农工贸一体化项目、围场县城中路购物中心等10 个拉动区域经济发展、具有辐射周边经济和示范带头作用的流通业重点项目，力争08年内完成规划选址、招商引资等前期工作，部分开工建设。', '深入开展解放思想大讨论活动，着力解决小进即满、小富即安，跨越式发展动力不足、科学发展观不强等思想问题。继续加强党风、政风、行风、效能建设，开展学习型机关、服务型机关、法制型机关、和谐型机关创建活动，强化服务意识，坚持依法行政，提高服务效能和水平。继续实施“人才强商”工程，通过专题讲座、短期培训、外出考察、交流研讨等方式切实加强市县区商务工作人员的业务培训，不断提高商务队伍的综合素质和执政能力。', '（一）明确执法权限，规范执法行为。履行职能是做好商务工作的基础。近年来，商务立法工作力度明显加大，国家、省相继出台了一系列法律、法规和规章，对加强相关领域的管理和行政执法做出了新的具体规定，并设立了相应的处罚权限。市、县商务部门必须明确自身的执法权限，依法行政，依法处理违法违规行为。在本次会议上，市商务局专门整理制作了一套国家、省出台的部分法律、法规和规章光盘，请同志们认真学习领会、贯彻执行。', '（二）用足用活鼓励政策，积极争取上级支持。上级的政策支持和倾斜，对促进各项商务事业发展发挥着重要作用。借此机会，简要介绍几项有可能争取到上级支持的政策。', '1、外贸进出口鼓励政策。机电、高新技术产品进出口方面。根据商务部、财政部联合下发的《优化机电和高新技术产品进出口结构资金管理暂行办法》规定，符合条件的机电和高新技术产品进出口企业可获得不超过项目实际投资50%，单个企业研发项目不超过300万元的资金补助。申请此项资金，需由市商务局组织上报材料，经省商务厅核准后报国家商务部等部委审批，具体工作由市商务局机电办负责。出口品牌建设方面。根据河北省商务厅、发改委、科技厅等9部门《关于扶持出口名牌发展的指导意见》规定，符合条件的出口企业可申请获得“河北省出口名牌”称号，并获得以下优惠政策：一是优先申请中小企业国际市场开拓资金。二是优先安排使用技术更新改造项目贷款贴息和出口产品研发资金，优先使用国家鼓励高新技术和信息产业发展的优惠政策，优先安排符合产业发展的技术进步项目。三是优先推荐申请国家境外贸易的贷款贴息，优先安排使用援外优惠贷款和各项扶持政策。四是优先安排使用出口商品配额和获取重要工业品、农产品配额，优先安排参加国内外重要展会、洽谈会的展位。出口信用保险方面。根据原外经贸部、财政部《出口信用保险扶持发展资金管理办法》规定，符合条件的出口信用保险投保企业，按实缴保费的20％给予资助。申请以上支持，需由市商务局组织上报材料，经省商务厅核准后报国家商务部等部委审批，或由省商务厅等厅局审批，具体工作由市商务局外贸科负责。', '2、鼓励中小企业开拓国际市场政策。根据原外经贸部、财政部《中小企业国际市场资金管理（试行）办法》等文件规定，对符合条件的企业在开拓境外新兴市场、举办或参加境外展会、参加质量管理体系认证、环境管理体系认证、创建企业网站等过程中发生的费用，按50％至70％的比例给予资金补助。此项资金由市商务局申报，省商务厅审批。具体工作由市商务局财务科负责。', '3、利用外资鼓励政策。根据《国务院关于调整进口设备税收政策的通知》规定，符合条件的外商投资企业，在投资总额内进口的自用设备及按照合同随设备进口的技术、配件、备件，除《外商投资项目不予免税的进口商品目录》所列商品外，可免征关税和进口环节增值税。根据《外商投资项目采购国产设备退税管理试行办法》规定，符合要求的外商投资企业采购国产设备后，可以享受国产设备增值税退税。', '4、对外经济技术合作鼓励政策。根据财政部、商务部《关于2006年对外经济合作专项资金支持政策有关问题的通知》规定，一是对在境外开展外经业务的企业为其在外工作的中方人员，投保人身意外伤害保险的费用，给予不超过50％、投保金额不超过50万元的补助。二是对符合条件的企业在其从境外向国内回运石油、天然气等能源，铁、铜等矿产及林木等资源过程中发生的运保费，给予不超过实际发生费用20％的补助。三是对符合条件的境外投资企业从境内银行取得的用于项目建设及运营的中长期贷款，给予不超过人行基准利率的贴息补助。四是对符合条件的境外投资企业为获得境外投资项目发生的咨询费、勘探费、场地租用费等前期费用和运营费用，给予不超过实际发生额50％的补助。申请以上政策，需由市商务局组织上报材料，经省商务厅核准后报国家商务部审批。具体工作由市商务局外经科负责。', '5、支持商贸流通服务业发展的政策。根据河北省人民政府《关于促进全省服务业发展若干政策措施》规定，一是对大型连锁经营龙头企业、商品批发市场和第三方物流企业中的国有独资或控股企业，经认定后通过国有资产收益和土地出让金返还、商业用国有房产划拨等形式增加国有资本金注入。二是对大型商贸连锁企业在乡镇和社区设立连锁销售门店、到郊区新建配送中心所取得的银行贷款，所在市县财政可给予贴息。三是对纳入国家试点范围内的物流企业将承揽的运输、仓储等业务分包给其它单位并由其统一收取价款的，将该企业取得的全部收入减去其它项目支出后的余额，作为营业税计税基数。四是服务业企业用水（桑拿、洗车等特种行业除外）、用气价格与一般工业并轨。经认定的大型商业零售企业暂缓实行峰谷电价。对社区内经认定达到标准化要求的纯大众洗浴设施，用水价格与居民用水价格并轨。', '6、支持“万村千乡市场工程”建设的政策。根据商务部、财政部《关于“万村千乡市场工程”予以资金支持的通知》等文件规定，对每个乡、村级农家店和新建或改造配送中心、仓储等基础设施、新建或改造大型农产品批发市场项目给予一定的资金支持。申请以上政策，需由市商务局组织上报材料，经省商务厅核准后报国家商务部审批。具体工作由市商务局市场体系建设科负责。', '以上政策仅供大家参考，国家和省还将出台新政策，同时对现有政策特别是一些具体优惠内容随时调整，请大家密切关注。', '1、实施小团组点对点招商工程。会同有关部门，每年组织30次以上的点对点招商活动，加强与世界500强、知名跨国公司对接，到2010年，全市实际利用外资达3亿美元，引进世界500强、知名跨国公司和国内500强企业合作项目30项，外贸出口7.15亿美元，12个千万美元以上外资项目落地。', '2、实施“三个十”滚动工程。配合发改委，瞄准世界500强和知名跨国公司，把“三个十”作为一项经常性工作，推进项目落地，签订合同，接触洽谈，滚动实施3年，到2010年引进世界500强、知名跨国公司和国内500强企业合作项目30项。', '3、实施市场及商业网点建设工程。到2010年，承德市区社会消费品零售总额达到73.7亿元，三年年均增长15％；大中型商业网点总营业面积增至30万平方米，人均拥有大中型商业网点营业面积达到0.6平方米；实现连锁经营销售额14.7亿元，约占市区社会消费品零售总额的20％；力争每年新建2座便民市场；完成我市旧城区商业网点的改造升级工作，完成新城区商业网点布局和建设工作。', '4、实施服务业扩张升级工程。配合发改委，结合自身职能，加快农产品市场、消费品市场和生产资料市场建设，进一步促进商贸服务业发展。到2010年，服务业增加值力争达到220亿元，年均增长14％。', '（四）发挥服务职能，提高为企业和群众服务水平。一是加快信息发布和预警系统建设。加强与省商务厅等上级单位的联系沟通，密切关注国际、国内政治经济动态，及时对形势发展变化做出分析判断，定期发布外商投资、出口产品供求、市场供应等信息，帮助企业把握机遇，提高竞争能力。加快建立信息预警制度，在市场环境、国家政策等发生重大变化时，及时向企业提供预警信息，帮助企业有效规避风险。二是充分发挥行业协会的作用。建立和完善商业、酒类、石油、外商投资企业等商协会组织。各行业协会要充分发挥沟通政府与企业、企业与企业、企业与社会之间的重要桥梁与纽带职能，及时向政府部门反馈企业的经营状况和重要经济事项，反映企业的呼声和要求，向企业传达贯彻政府的政策，主动协调企业与企业之间的关系。通过实施行规行约，规范企业行为，加强行业自律；通过对话协商、资源整合、帮助仲裁等方式，协调、化解企业之间的矛盾，构建本地、本行业企业间和谐关系，开创合作共赢局面；通过组织各式活动、举办培训班，推动先进营销方式与管理理念在行业内推广。三是积极提供审批、核准领办服务。进一步提高审批、核准工作效率，主动解答和解决企业在办理手续过程中遇到的疑难问题，对一些兴市立县的重点项目、大额进出口贸易、重点企业等积极给予领办服务，帮助企业协调上级和同级有关部门关系，加快项目审批、核准的进程。', '同志们，今年全市商务工作目标已经确定，任务十分繁重，我们要按照市委、市政府总体部署，以落实富民强市“六项行动计划”为统领，进一步解放思想，勇于创新，埋头苦干，扎实工作，努力开创商务事业的新局面，为全市经济社会跨越式发展做出新的贡献！']</t>
         </is>
